--- a/KULS_Sankar/TestData/ijaraTestData.xlsx
+++ b/KULS_Sankar/TestData/ijaraTestData.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="48">
   <si>
     <t>UserName</t>
   </si>
@@ -138,10 +138,28 @@
     <t>AT_UNW_001</t>
   </si>
   <si>
-    <t>DS_AT_UNW_001</t>
-  </si>
-  <si>
     <t>6280</t>
+  </si>
+  <si>
+    <t>6349</t>
+  </si>
+  <si>
+    <t>DS_AT_UNW_001_02</t>
+  </si>
+  <si>
+    <t>DS_AT_UNW_001_01</t>
+  </si>
+  <si>
+    <t>Decision Dropdown</t>
+  </si>
+  <si>
+    <t>Reject</t>
+  </si>
+  <si>
+    <t>DS_AT_UNW_002</t>
+  </si>
+  <si>
+    <t>AT_UNW_002</t>
   </si>
 </sst>
 </file>
@@ -820,21 +838,22 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="14.44140625" style="5" customWidth="1"/>
-    <col min="2" max="2" width="18.6640625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="23.109375" style="5" customWidth="1"/>
     <col min="3" max="3" width="20" style="5" customWidth="1"/>
-    <col min="4" max="16384" width="8.88671875" style="5"/>
+    <col min="4" max="4" width="20.33203125" style="5" customWidth="1"/>
+    <col min="5" max="16384" width="8.88671875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" s="3" t="s">
         <v>10</v>
       </c>
@@ -844,22 +863,47 @@
       <c r="C1" s="3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="10" t="s">
         <v>39</v>
       </c>
       <c r="B2" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="D2" s="4"/>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="10"/>
-      <c r="B3" s="10"/>
-      <c r="C3" s="4"/>
+      <c r="D3" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D4" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/KULS_Sankar/TestData/ijaraTestData.xlsx
+++ b/KULS_Sankar/TestData/ijaraTestData.xlsx
@@ -4,19 +4,21 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="72" windowWidth="23256" windowHeight="12600" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="72" windowWidth="23256" windowHeight="12600" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="ijara_LoginCredentials" sheetId="1" r:id="rId1"/>
     <sheet name="CF_DebtTestData" sheetId="2" r:id="rId2"/>
     <sheet name="UnderWriter_TestData" sheetId="3" r:id="rId3"/>
+    <sheet name="AdditionalCustomerInfo" sheetId="4" r:id="rId4"/>
+    <sheet name="DataCheck_Income" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="78">
   <si>
     <t>UserName</t>
   </si>
@@ -160,6 +162,96 @@
   </si>
   <si>
     <t>AT_UNW_002</t>
+  </si>
+  <si>
+    <t>Accept</t>
+  </si>
+  <si>
+    <t>DS_AT_CUD_004</t>
+  </si>
+  <si>
+    <t>AT_CUD_004</t>
+  </si>
+  <si>
+    <t>Export2</t>
+  </si>
+  <si>
+    <t>PDF</t>
+  </si>
+  <si>
+    <t>XLS</t>
+  </si>
+  <si>
+    <t>KWD</t>
+  </si>
+  <si>
+    <t>Export1</t>
+  </si>
+  <si>
+    <t>Matched Currency</t>
+  </si>
+  <si>
+    <t>Mismatched Currency</t>
+  </si>
+  <si>
+    <t>AUD</t>
+  </si>
+  <si>
+    <t>AT_IDA_03</t>
+  </si>
+  <si>
+    <t>DS_AT_IDA_03</t>
+  </si>
+  <si>
+    <t>ID Type</t>
+  </si>
+  <si>
+    <t>ID Number</t>
+  </si>
+  <si>
+    <t>Issuing Authority</t>
+  </si>
+  <si>
+    <t>Country of Issue</t>
+  </si>
+  <si>
+    <t>AADHAR</t>
+  </si>
+  <si>
+    <t>587469513548756494133</t>
+  </si>
+  <si>
+    <t>Government of India</t>
+  </si>
+  <si>
+    <t>INDIA</t>
+  </si>
+  <si>
+    <t>@!&amp;#</t>
+  </si>
+  <si>
+    <t>ID Number_SpecialChar</t>
+  </si>
+  <si>
+    <t>userType05</t>
+  </si>
+  <si>
+    <t>3061</t>
+  </si>
+  <si>
+    <t>AT_INCD_01</t>
+  </si>
+  <si>
+    <t>DS_AT_INCD_01</t>
+  </si>
+  <si>
+    <t>0343</t>
+  </si>
+  <si>
+    <t>DS_AT_INCD_02</t>
+  </si>
+  <si>
+    <t>AT_INCD_02</t>
   </si>
 </sst>
 </file>
@@ -256,7 +348,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -274,6 +366,8 @@
     <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -569,10 +663,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -638,9 +732,21 @@
         <v>37</v>
       </c>
     </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>37</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C5" r:id="rId1"/>
+    <hyperlink ref="C6" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -648,10 +754,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:N8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D3"/>
+      <selection activeCell="C2" sqref="C2:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -666,9 +772,13 @@
     <col min="8" max="8" width="14.5546875" style="5" customWidth="1"/>
     <col min="9" max="9" width="16" style="5" customWidth="1"/>
     <col min="10" max="10" width="15.109375" customWidth="1"/>
+    <col min="11" max="11" width="17.77734375" customWidth="1"/>
+    <col min="12" max="12" width="19.21875" customWidth="1"/>
+    <col min="13" max="13" width="16.44140625" customWidth="1"/>
+    <col min="14" max="14" width="14.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -699,8 +809,20 @@
       <c r="J1" s="6" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="K1" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="N1" s="6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="2" t="s">
         <v>16</v>
       </c>
@@ -719,8 +841,12 @@
       <c r="H2" s="4"/>
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
-    </row>
-    <row r="3" spans="1:10">
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="2" t="s">
         <v>26</v>
       </c>
@@ -749,8 +875,12 @@
         <v>27</v>
       </c>
       <c r="J3" s="4"/>
-    </row>
-    <row r="4" spans="1:10">
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" s="2" t="s">
         <v>32</v>
       </c>
@@ -775,13 +905,17 @@
       <c r="J4" s="4" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="5" spans="1:10">
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5" s="2" t="s">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>23</v>
+        <v>49</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>15</v>
@@ -789,36 +923,60 @@
       <c r="D5" s="4">
         <v>2779</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="M5" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="N5" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="4">
+        <v>2779</v>
+      </c>
+      <c r="E6" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F6" s="4">
         <v>100000</v>
       </c>
-      <c r="G5" s="4">
+      <c r="G6" s="4">
         <v>15</v>
       </c>
-      <c r="H5" s="4">
+      <c r="H6" s="4">
         <v>8000</v>
       </c>
-      <c r="I5" s="4">
+      <c r="I6" s="4">
         <v>14</v>
       </c>
-      <c r="J5" s="4"/>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
       <c r="J6" s="4"/>
-    </row>
-    <row r="7" spans="1:10">
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+    </row>
+    <row r="7" spans="1:14">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="4"/>
@@ -829,6 +987,26 @@
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
       <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="4"/>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -840,8 +1018,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -903,7 +1081,189 @@
       <c r="C4" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D4" s="4"/>
+      <c r="D4" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:I5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="14" style="5" customWidth="1"/>
+    <col min="2" max="2" width="17.77734375" style="5" customWidth="1"/>
+    <col min="3" max="3" width="17.109375" style="5" customWidth="1"/>
+    <col min="4" max="4" width="13.88671875" style="5" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="5" customWidth="1"/>
+    <col min="6" max="7" width="24.6640625" style="5" customWidth="1"/>
+    <col min="8" max="8" width="20.44140625" style="5" customWidth="1"/>
+    <col min="9" max="9" width="15.21875" style="5" customWidth="1"/>
+    <col min="10" max="16384" width="8.88671875" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="4">
+        <v>2779</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="I2" s="12" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="11"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="11"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="11"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="19.109375" customWidth="1"/>
+    <col min="2" max="2" width="21.109375" customWidth="1"/>
+    <col min="3" max="3" width="17.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="11"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="12"/>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="11"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/KULS_Sankar/TestData/ijaraTestData.xlsx
+++ b/KULS_Sankar/TestData/ijaraTestData.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="82">
   <si>
     <t>UserName</t>
   </si>
@@ -252,6 +252,18 @@
   </si>
   <si>
     <t>AT_INCD_02</t>
+  </si>
+  <si>
+    <t>AT_INCD_03</t>
+  </si>
+  <si>
+    <t>AT_INCD_04</t>
+  </si>
+  <si>
+    <t>DS_AT_INCD_03</t>
+  </si>
+  <si>
+    <t>DS_AT_INCD_04</t>
   </si>
 </sst>
 </file>
@@ -1212,7 +1224,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1256,14 +1268,26 @@
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="11"/>
-      <c r="B4" s="11"/>
-      <c r="C4" s="12"/>
+      <c r="A4" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="11"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="12"/>
+      <c r="A5" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>72</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/KULS_Sankar/TestData/ijaraTestData.xlsx
+++ b/KULS_Sankar/TestData/ijaraTestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="72" windowWidth="23256" windowHeight="12600" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="72" windowWidth="23256" windowHeight="12600" firstSheet="1" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="ijara_LoginCredentials" sheetId="1" r:id="rId1"/>
@@ -12,13 +12,14 @@
     <sheet name="UnderWriter_TestData" sheetId="3" r:id="rId3"/>
     <sheet name="AdditionalCustomerInfo" sheetId="4" r:id="rId4"/>
     <sheet name="DataCheck_Income" sheetId="5" r:id="rId5"/>
+    <sheet name="DataCheck_AppDetails" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="115">
   <si>
     <t>UserName</t>
   </si>
@@ -264,13 +265,112 @@
   </si>
   <si>
     <t>DS_AT_INCD_04</t>
+  </si>
+  <si>
+    <t>DS_AT_INCD_05</t>
+  </si>
+  <si>
+    <t>DS_AT_INCD_06</t>
+  </si>
+  <si>
+    <t>AT_INCD_05</t>
+  </si>
+  <si>
+    <t>AT_INCD_06</t>
+  </si>
+  <si>
+    <t>AT_ADC_01</t>
+  </si>
+  <si>
+    <t>DS_AT_ADC_01</t>
+  </si>
+  <si>
+    <t>DS_AT_ADC_02</t>
+  </si>
+  <si>
+    <t>DS_AT_ADC_03</t>
+  </si>
+  <si>
+    <t>AT_ADC_02</t>
+  </si>
+  <si>
+    <t>AT_ADC_03</t>
+  </si>
+  <si>
+    <t>DS_AT_ADC_05</t>
+  </si>
+  <si>
+    <t>AT_ADC_05</t>
+  </si>
+  <si>
+    <t>Classification</t>
+  </si>
+  <si>
+    <t>Product</t>
+  </si>
+  <si>
+    <t>Total Finance Amt</t>
+  </si>
+  <si>
+    <t>Declared Monthly Income</t>
+  </si>
+  <si>
+    <t>Sourcing Channel</t>
+  </si>
+  <si>
+    <t>Business Center Code</t>
+  </si>
+  <si>
+    <t>Servicing Type</t>
+  </si>
+  <si>
+    <t>Region</t>
+  </si>
+  <si>
+    <t>Servicing Branch</t>
+  </si>
+  <si>
+    <t>Closing Staff</t>
+  </si>
+  <si>
+    <t>Ijara Auto Retail Loan</t>
+  </si>
+  <si>
+    <t>1405000</t>
+  </si>
+  <si>
+    <t>70000</t>
+  </si>
+  <si>
+    <t>IKSL</t>
+  </si>
+  <si>
+    <t>Business Center-Retail Banking</t>
+  </si>
+  <si>
+    <t>Financier</t>
+  </si>
+  <si>
+    <t>Cent Bank Finance LTD</t>
+  </si>
+  <si>
+    <t>Azentio Main Branch</t>
+  </si>
+  <si>
+    <t>Ravi Shankar</t>
+  </si>
+  <si>
+    <t>AT_ADC_06</t>
+  </si>
+  <si>
+    <t>DS_AT_ADC_06</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -284,6 +384,14 @@
       <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="6">
@@ -360,7 +468,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -380,6 +488,8 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1221,10 +1331,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1289,6 +1399,227 @@
         <v>72</v>
       </c>
     </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:O6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="18.109375" style="5" customWidth="1"/>
+    <col min="2" max="2" width="23.6640625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="9.5546875" style="5" customWidth="1"/>
+    <col min="4" max="4" width="24.21875" style="5" customWidth="1"/>
+    <col min="5" max="5" width="23.6640625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="15.77734375" style="5" customWidth="1"/>
+    <col min="7" max="7" width="15.5546875" style="5" customWidth="1"/>
+    <col min="8" max="8" width="14.88671875" style="5" customWidth="1"/>
+    <col min="9" max="9" width="26.33203125" style="5" customWidth="1"/>
+    <col min="10" max="10" width="13.5546875" style="5" customWidth="1"/>
+    <col min="11" max="11" width="19.21875" style="5" customWidth="1"/>
+    <col min="12" max="12" width="16.44140625" style="5" customWidth="1"/>
+    <col min="13" max="13" width="20.5546875" style="5" customWidth="1"/>
+    <col min="14" max="16384" width="8.88671875" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" s="14" customFormat="1">
+      <c r="A1" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="G1" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="I1" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="J1" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="K1" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="L1" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="M1" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="N1" s="13"/>
+      <c r="O1" s="13"/>
+    </row>
+    <row r="2" spans="1:15">
+      <c r="A2" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="I2" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="J2" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="K2" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="L2" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="M2" s="12" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="12"/>
+      <c r="K3" s="12"/>
+      <c r="L3" s="12"/>
+      <c r="M3" s="12"/>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="A4" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="12"/>
+      <c r="K4" s="12"/>
+      <c r="L4" s="12"/>
+      <c r="M4" s="12"/>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="A5" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="12"/>
+      <c r="L5" s="12"/>
+      <c r="M5" s="12"/>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="A6" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="12"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/KULS_Sankar/TestData/ijaraTestData.xlsx
+++ b/KULS_Sankar/TestData/ijaraTestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="72" windowWidth="23256" windowHeight="12600" firstSheet="1" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="72" windowWidth="23256" windowHeight="12600" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="ijara_LoginCredentials" sheetId="1" r:id="rId1"/>
@@ -13,13 +13,14 @@
     <sheet name="AdditionalCustomerInfo" sheetId="4" r:id="rId4"/>
     <sheet name="DataCheck_Income" sheetId="5" r:id="rId5"/>
     <sheet name="DataCheck_AppDetails" sheetId="6" r:id="rId6"/>
+    <sheet name="Offering_OfferDetails" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="134">
   <si>
     <t>UserName</t>
   </si>
@@ -48,9 +49,6 @@
     <t>in02256</t>
   </si>
   <si>
-    <t>in01589</t>
-  </si>
-  <si>
     <t>TestCaseID</t>
   </si>
   <si>
@@ -364,6 +362,66 @@
   </si>
   <si>
     <t>DS_AT_ADC_06</t>
+  </si>
+  <si>
+    <t>Stage</t>
+  </si>
+  <si>
+    <t>App Data Check</t>
+  </si>
+  <si>
+    <t>Underwriter</t>
+  </si>
+  <si>
+    <t>562</t>
+  </si>
+  <si>
+    <t>0371</t>
+  </si>
+  <si>
+    <t>userType06</t>
+  </si>
+  <si>
+    <t>Offering</t>
+  </si>
+  <si>
+    <t>0352</t>
+  </si>
+  <si>
+    <t>AT_OFO_01</t>
+  </si>
+  <si>
+    <t>DS_AT_OFO_01</t>
+  </si>
+  <si>
+    <t>3214</t>
+  </si>
+  <si>
+    <t>DS_AT_OFO_02</t>
+  </si>
+  <si>
+    <t>DS_AT_OFO_03</t>
+  </si>
+  <si>
+    <t>DS_AT_OFO_04</t>
+  </si>
+  <si>
+    <t>DS_AT_OFO_05</t>
+  </si>
+  <si>
+    <t>AT_OFO_02</t>
+  </si>
+  <si>
+    <t>AT_OFO_03</t>
+  </si>
+  <si>
+    <t>AT_OFO_04</t>
+  </si>
+  <si>
+    <t>AT_OFO_05</t>
+  </si>
+  <si>
+    <t>2193</t>
   </si>
 </sst>
 </file>
@@ -785,10 +843,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -796,10 +854,11 @@
     <col min="1" max="1" width="19.33203125" style="5" customWidth="1"/>
     <col min="2" max="2" width="16.44140625" style="5" customWidth="1"/>
     <col min="3" max="3" width="13.6640625" style="5" customWidth="1"/>
-    <col min="4" max="16384" width="8.88671875" style="5"/>
+    <col min="4" max="4" width="22.33203125" style="5" customWidth="1"/>
+    <col min="5" max="16384" width="8.88671875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" s="9" t="s">
         <v>3</v>
       </c>
@@ -809,8 +868,11 @@
       <c r="C1" s="9" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="9" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="8" t="s">
         <v>2</v>
       </c>
@@ -820,8 +882,9 @@
       <c r="C2" s="8" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
+      <c r="D2" s="8"/>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="8" t="s">
         <v>6</v>
       </c>
@@ -831,44 +894,70 @@
       <c r="C3" s="8" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="D3" s="8"/>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="8" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>121</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B5" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="C5" s="7" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="D5" s="8" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>120</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C5" r:id="rId1"/>
     <hyperlink ref="C6" r:id="rId2"/>
+    <hyperlink ref="C4" r:id="rId3"/>
+    <hyperlink ref="C7" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -878,8 +967,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:D2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -902,60 +991,60 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="F1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="I1" s="3" t="s">
-        <v>22</v>
-      </c>
       <c r="J1" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K1" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="L1" s="6" t="s">
-        <v>57</v>
-      </c>
       <c r="M1" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="N1" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>17</v>
-      </c>
       <c r="C2" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" s="4">
-        <v>2779</v>
+        <v>14</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>133</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
@@ -970,31 +1059,31 @@
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="I3" s="4" t="s">
         <v>26</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="4">
-        <v>2779</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>27</v>
       </c>
       <c r="J3" s="4"/>
       <c r="K3" s="4"/>
@@ -1004,28 +1093,28 @@
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="4">
-        <v>2779</v>
+        <v>14</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>133</v>
       </c>
       <c r="E4" s="4"/>
       <c r="F4" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G4" s="4"/>
       <c r="H4" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I4" s="4"/>
       <c r="J4" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K4" s="4"/>
       <c r="L4" s="4"/>
@@ -1034,16 +1123,16 @@
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="4">
-        <v>2779</v>
+        <v>14</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>133</v>
       </c>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
@@ -1052,33 +1141,33 @@
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
       <c r="K5" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L5" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M5" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="N5" s="4" t="s">
         <v>52</v>
-      </c>
-      <c r="N5" s="4" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="4">
-        <v>2779</v>
+        <v>14</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>133</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F6" s="4">
         <v>100000</v>
@@ -1138,10 +1227,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1153,58 +1242,67 @@
     <col min="5" max="16384" width="8.88671875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="C1" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D1" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="C2" s="4" t="s">
+      <c r="E3" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="D2" s="4"/>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="D3" s="4" t="s">
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="B4" s="10" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="10" t="s">
+      <c r="C4" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="B4" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>48</v>
+      <c r="E4" s="4" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -1235,60 +1333,60 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="C1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>14</v>
-      </c>
       <c r="E1" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="G1" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>63</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="B2" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="10" t="s">
-        <v>60</v>
-      </c>
       <c r="C2" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D2" s="4">
         <v>2779</v>
       </c>
       <c r="E2" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="F2" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="G2" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="H2" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="G2" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="H2" s="12" t="s">
+      <c r="I2" s="12" t="s">
         <v>67</v>
-      </c>
-      <c r="I2" s="12" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -1346,79 +1444,79 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="C1" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="B2" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="B2" s="10" t="s">
-        <v>74</v>
-      </c>
       <c r="C2" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -1430,8 +1528,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1454,97 +1552,97 @@
   <sheetData>
     <row r="1" spans="1:15" s="14" customFormat="1">
       <c r="A1" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="13" t="s">
-        <v>11</v>
-      </c>
       <c r="C1" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D1" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="E1" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="F1" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="G1" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="H1" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="I1" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="I1" s="13" t="s">
+      <c r="J1" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="J1" s="13" t="s">
+      <c r="K1" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="K1" s="13" t="s">
+      <c r="L1" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="L1" s="13" t="s">
+      <c r="M1" s="13" t="s">
         <v>102</v>
-      </c>
-      <c r="M1" s="13" t="s">
-        <v>103</v>
       </c>
       <c r="N1" s="13"/>
       <c r="O1" s="13"/>
     </row>
     <row r="2" spans="1:15">
       <c r="A2" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="B2" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="B2" s="10" t="s">
-        <v>87</v>
-      </c>
       <c r="C2" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D2" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="F2" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="E2" s="12" t="s">
-        <v>104</v>
-      </c>
-      <c r="F2" s="12" t="s">
+      <c r="G2" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="H2" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="H2" s="12" t="s">
+      <c r="I2" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="I2" s="12" t="s">
+      <c r="J2" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="J2" s="12" t="s">
+      <c r="K2" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="K2" s="12" t="s">
+      <c r="L2" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="L2" s="12" t="s">
+      <c r="M2" s="12" t="s">
         <v>111</v>
-      </c>
-      <c r="M2" s="12" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D3" s="12"/>
       <c r="E3" s="12"/>
@@ -1559,13 +1657,13 @@
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D4" s="12"/>
       <c r="E4" s="12"/>
@@ -1580,13 +1678,13 @@
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D5" s="12"/>
       <c r="E5" s="12"/>
@@ -1601,13 +1699,13 @@
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="B6" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="B6" s="10" t="s">
-        <v>114</v>
-      </c>
       <c r="C6" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D6" s="12"/>
       <c r="E6" s="12"/>
@@ -1623,4 +1721,90 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="14.6640625" customWidth="1"/>
+    <col min="2" max="2" width="18.5546875" customWidth="1"/>
+    <col min="3" max="3" width="17.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>124</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/KULS_Sankar/TestData/ijaraTestData.xlsx
+++ b/KULS_Sankar/TestData/ijaraTestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="72" windowWidth="23256" windowHeight="12600" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="72" windowWidth="23256" windowHeight="12600" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="ijara_LoginCredentials" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="131">
   <si>
     <t>UserName</t>
   </si>
@@ -46,9 +46,6 @@
     <t>userType03</t>
   </si>
   <si>
-    <t>in02256</t>
-  </si>
-  <si>
     <t>TestCaseID</t>
   </si>
   <si>
@@ -127,9 +124,6 @@
     <t>Invalid Data</t>
   </si>
   <si>
-    <t>in01951</t>
-  </si>
-  <si>
     <t>Admin@1</t>
   </si>
   <si>
@@ -139,12 +133,6 @@
     <t>AT_UNW_001</t>
   </si>
   <si>
-    <t>6280</t>
-  </si>
-  <si>
-    <t>6349</t>
-  </si>
-  <si>
     <t>DS_AT_UNW_001_02</t>
   </si>
   <si>
@@ -232,9 +220,6 @@
     <t>ID Number_SpecialChar</t>
   </si>
   <si>
-    <t>userType05</t>
-  </si>
-  <si>
     <t>3061</t>
   </si>
   <si>
@@ -373,21 +358,12 @@
     <t>Underwriter</t>
   </si>
   <si>
-    <t>562</t>
-  </si>
-  <si>
     <t>0371</t>
   </si>
   <si>
-    <t>userType06</t>
-  </si>
-  <si>
     <t>Offering</t>
   </si>
   <si>
-    <t>0352</t>
-  </si>
-  <si>
     <t>AT_OFO_01</t>
   </si>
   <si>
@@ -421,7 +397,22 @@
     <t>AT_OFO_05</t>
   </si>
   <si>
-    <t>2193</t>
+    <t>3046</t>
+  </si>
+  <si>
+    <t>CF_Debt</t>
+  </si>
+  <si>
+    <t>3063</t>
+  </si>
+  <si>
+    <t>Decision Dropdown1</t>
+  </si>
+  <si>
+    <t>Select</t>
+  </si>
+  <si>
+    <t>3242</t>
   </si>
 </sst>
 </file>
@@ -526,7 +517,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -548,6 +539,9 @@
     <xf numFmtId="49" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -843,10 +837,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -858,7 +852,7 @@
     <col min="5" max="16384" width="8.88671875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="9" t="s">
         <v>3</v>
       </c>
@@ -869,10 +863,10 @@
         <v>1</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" s="8" t="s">
         <v>2</v>
       </c>
@@ -882,82 +876,64 @@
       <c r="C2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="8"/>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="D2" s="8" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" s="8" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="8"/>
-    </row>
-    <row r="4" spans="1:4">
+        <v>112</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" s="8" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>121</v>
+        <v>69</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" s="8" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>35</v>
+        <v>112</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>120</v>
-      </c>
+        <v>113</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="16"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C5" r:id="rId1"/>
-    <hyperlink ref="C6" r:id="rId2"/>
-    <hyperlink ref="C4" r:id="rId3"/>
-    <hyperlink ref="C7" r:id="rId4"/>
+    <hyperlink ref="C4" r:id="rId1"/>
+    <hyperlink ref="C3" r:id="rId2"/>
+    <hyperlink ref="C5" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -967,8 +943,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -991,60 +967,60 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="F1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="I1" s="3" t="s">
-        <v>21</v>
-      </c>
       <c r="J1" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K1" s="6" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="L1" s="6" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="M1" s="6" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="N1" s="6" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>16</v>
-      </c>
       <c r="C2" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
@@ -1059,31 +1035,31 @@
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="I3" s="4" t="s">
         <v>25</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>26</v>
       </c>
       <c r="J3" s="4"/>
       <c r="K3" s="4"/>
@@ -1093,28 +1069,28 @@
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="E4" s="4"/>
       <c r="F4" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G4" s="4"/>
       <c r="H4" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I4" s="4"/>
       <c r="J4" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K4" s="4"/>
       <c r="L4" s="4"/>
@@ -1123,16 +1099,16 @@
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
@@ -1141,33 +1117,33 @@
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
       <c r="K5" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="L5" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="L5" s="4" t="s">
-        <v>57</v>
-      </c>
       <c r="M5" s="4" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="N5" s="4" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F6" s="4">
         <v>100000</v>
@@ -1227,10 +1203,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1239,71 +1215,74 @@
     <col min="2" max="2" width="23.109375" style="5" customWidth="1"/>
     <col min="3" max="3" width="20" style="5" customWidth="1"/>
     <col min="4" max="4" width="20.33203125" style="5" customWidth="1"/>
-    <col min="5" max="16384" width="8.88671875" style="5"/>
+    <col min="5" max="5" width="21.44140625" style="5" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="C1" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>43</v>
+        <v>39</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="B2" s="10" t="s">
-        <v>42</v>
-      </c>
       <c r="C2" s="4" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="D2" s="4"/>
-      <c r="E2" s="4" t="s">
-        <v>39</v>
-      </c>
+      <c r="E2" s="4"/>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="10" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="E3" s="4" t="s">
         <v>40</v>
       </c>
+      <c r="E3" s="4"/>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="10" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>40</v>
-      </c>
+        <v>129</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="E5" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1312,84 +1291,77 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:D5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="14" style="5" customWidth="1"/>
     <col min="2" max="2" width="17.77734375" style="5" customWidth="1"/>
-    <col min="3" max="3" width="17.109375" style="5" customWidth="1"/>
-    <col min="4" max="4" width="13.88671875" style="5" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="5" customWidth="1"/>
-    <col min="6" max="7" width="24.6640625" style="5" customWidth="1"/>
-    <col min="8" max="8" width="20.44140625" style="5" customWidth="1"/>
-    <col min="9" max="9" width="15.21875" style="5" customWidth="1"/>
-    <col min="10" max="16384" width="8.88671875" style="5"/>
+    <col min="3" max="3" width="13.88671875" style="5" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="5" customWidth="1"/>
+    <col min="5" max="6" width="24.6640625" style="5" customWidth="1"/>
+    <col min="7" max="7" width="20.44140625" style="5" customWidth="1"/>
+    <col min="8" max="8" width="15.21875" style="5" customWidth="1"/>
+    <col min="9" max="16384" width="8.88671875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:8">
       <c r="A1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>9</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>12</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="E1" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="D2" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="E2" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="G1" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="H1" s="3" t="s">
+      <c r="F2" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="G2" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="H2" s="12" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
-      <c r="A2" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" s="4">
-        <v>2779</v>
-      </c>
-      <c r="E2" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="F2" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="G2" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="H2" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="I2" s="12" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:8">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="C3" s="12"/>
@@ -1398,9 +1370,8 @@
       <c r="F3" s="12"/>
       <c r="G3" s="12"/>
       <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-    </row>
-    <row r="4" spans="1:9">
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="11"/>
       <c r="B4" s="11"/>
       <c r="C4" s="12"/>
@@ -1409,9 +1380,8 @@
       <c r="F4" s="12"/>
       <c r="G4" s="12"/>
       <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
-    </row>
-    <row r="5" spans="1:9">
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="11"/>
       <c r="B5" s="11"/>
       <c r="C5" s="12"/>
@@ -1420,7 +1390,6 @@
       <c r="F5" s="12"/>
       <c r="G5" s="12"/>
       <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1444,79 +1413,79 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="C1" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="10" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="10" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="10" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="10" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="10" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="10" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -1552,97 +1521,97 @@
   <sheetData>
     <row r="1" spans="1:15" s="14" customFormat="1">
       <c r="A1" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="13" t="s">
-        <v>10</v>
-      </c>
       <c r="C1" s="13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D1" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="G1" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="I1" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="J1" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="K1" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="L1" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="M1" s="13" t="s">
         <v>97</v>
-      </c>
-      <c r="I1" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="J1" s="13" t="s">
-        <v>99</v>
-      </c>
-      <c r="K1" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="L1" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="M1" s="13" t="s">
-        <v>102</v>
       </c>
       <c r="N1" s="13"/>
       <c r="O1" s="13"/>
     </row>
     <row r="2" spans="1:15">
       <c r="A2" s="10" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="D2" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="I2" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="J2" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="E2" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="F2" s="12" t="s">
+      <c r="K2" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="L2" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="H2" s="12" t="s">
+      <c r="M2" s="12" t="s">
         <v>106</v>
-      </c>
-      <c r="I2" s="12" t="s">
-        <v>107</v>
-      </c>
-      <c r="J2" s="12" t="s">
-        <v>108</v>
-      </c>
-      <c r="K2" s="12" t="s">
-        <v>109</v>
-      </c>
-      <c r="L2" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="M2" s="12" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="10" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="D3" s="12"/>
       <c r="E3" s="12"/>
@@ -1657,13 +1626,13 @@
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="10" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="D4" s="12"/>
       <c r="E4" s="12"/>
@@ -1678,13 +1647,13 @@
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="10" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="D5" s="12"/>
       <c r="E5" s="12"/>
@@ -1699,13 +1668,13 @@
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="10" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="D6" s="12"/>
       <c r="E6" s="12"/>
@@ -1740,68 +1709,68 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="13" t="s">
-        <v>10</v>
-      </c>
       <c r="C1" s="13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="10" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="10" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="10" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="10" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="10" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
     </row>
   </sheetData>

--- a/KULS_Sankar/TestData/ijaraTestData.xlsx
+++ b/KULS_Sankar/TestData/ijaraTestData.xlsx
@@ -4,23 +4,25 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="72" windowWidth="23256" windowHeight="12600" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="72" windowWidth="23256" windowHeight="12600" firstSheet="4" activeTab="8"/>
   </bookViews>
   <sheets>
-    <sheet name="ijara_LoginCredentials" sheetId="1" r:id="rId1"/>
-    <sheet name="CF_DebtTestData" sheetId="2" r:id="rId2"/>
-    <sheet name="UnderWriter_TestData" sheetId="3" r:id="rId3"/>
-    <sheet name="AdditionalCustomerInfo" sheetId="4" r:id="rId4"/>
-    <sheet name="DataCheck_Income" sheetId="5" r:id="rId5"/>
-    <sheet name="DataCheck_AppDetails" sheetId="6" r:id="rId6"/>
-    <sheet name="Offering_OfferDetails" sheetId="7" r:id="rId7"/>
+    <sheet name="AllFeaturesAutomationInfo" sheetId="8" r:id="rId1"/>
+    <sheet name="ijara_LoginCredentials" sheetId="1" r:id="rId2"/>
+    <sheet name="CF_DebtTestData" sheetId="2" r:id="rId3"/>
+    <sheet name="UnderWriter_TestData" sheetId="3" r:id="rId4"/>
+    <sheet name="AdditionalCustomerInfo" sheetId="4" r:id="rId5"/>
+    <sheet name="DataCheck_Income" sheetId="5" r:id="rId6"/>
+    <sheet name="DataCheck_AppDetails" sheetId="6" r:id="rId7"/>
+    <sheet name="Offering_OfferDetails" sheetId="7" r:id="rId8"/>
+    <sheet name="ContractSign_AppDetails" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="239">
   <si>
     <t>UserName</t>
   </si>
@@ -352,9 +354,6 @@
     <t>Stage</t>
   </si>
   <si>
-    <t>App Data Check</t>
-  </si>
-  <si>
     <t>Underwriter</t>
   </si>
   <si>
@@ -413,13 +412,343 @@
   </si>
   <si>
     <t>3242</t>
+  </si>
+  <si>
+    <t>Data Check</t>
+  </si>
+  <si>
+    <t>AT_OFO_06</t>
+  </si>
+  <si>
+    <t>DS_AT_OFO_06</t>
+  </si>
+  <si>
+    <t>Sprint Details</t>
+  </si>
+  <si>
+    <t>Scripting</t>
+  </si>
+  <si>
+    <t>Defect ID/Reason</t>
+  </si>
+  <si>
+    <t>Test Data</t>
+  </si>
+  <si>
+    <t>Status of Execution</t>
+  </si>
+  <si>
+    <t>Feature File Name</t>
+  </si>
+  <si>
+    <t>Batch Execution</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>Sprint - 59</t>
+  </si>
+  <si>
+    <t>CUD_02_01 --&gt; CUD_02_03</t>
+  </si>
+  <si>
+    <t>CUD_03_01 --&gt; CUD_03_07</t>
+  </si>
+  <si>
+    <t>CUD_04_01 --&gt; CUD_04_07</t>
+  </si>
+  <si>
+    <t>CUD_01_02 --&gt; CUD_01_03</t>
+  </si>
+  <si>
+    <t>CUD_01_01, CUD_01_04 --&gt; CUD_01_33</t>
+  </si>
+  <si>
+    <t>Done</t>
+  </si>
+  <si>
+    <t>AppData_CustomerDebt.feature</t>
+  </si>
+  <si>
+    <t>AT_UNW_001_01</t>
+  </si>
+  <si>
+    <t>AT_UNW_001_02</t>
+  </si>
+  <si>
+    <t>AT_UNW_002_01</t>
+  </si>
+  <si>
+    <t>AT_UNW_002_02</t>
+  </si>
+  <si>
+    <t>AT_CUD_006</t>
+  </si>
+  <si>
+    <t>Sprint - 60</t>
+  </si>
+  <si>
+    <t>Automation ID</t>
+  </si>
+  <si>
+    <t>Unw_01</t>
+  </si>
+  <si>
+    <t>Unw_02 --&gt; Unw_06</t>
+  </si>
+  <si>
+    <t>Unw_06 --&gt; Unw_10, Unw_14</t>
+  </si>
+  <si>
+    <t>Unw_15 --&gt; Unw_17</t>
+  </si>
+  <si>
+    <t>IDA_02_01 --&gt; IDA_02_04</t>
+  </si>
+  <si>
+    <t>CUD_04_08 --&gt; CUD_04_09</t>
+  </si>
+  <si>
+    <t>Underwriter.feature</t>
+  </si>
+  <si>
+    <t>Tawarruq_AdditionalCustomerInfo.feature</t>
+  </si>
+  <si>
+    <t>Screen Name</t>
+  </si>
+  <si>
+    <t>Stage Name</t>
+  </si>
+  <si>
+    <t>Customer Debt</t>
+  </si>
+  <si>
+    <t>Offer Decision</t>
+  </si>
+  <si>
+    <t>Tawarruq-App Data Entry</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Customer Additional info </t>
+  </si>
+  <si>
+    <t>Sprint - 61</t>
+  </si>
+  <si>
+    <t>Income Screen</t>
+  </si>
+  <si>
+    <t>IDC_01_01, IDC_01_02</t>
+  </si>
+  <si>
+    <t>IDC_01_03, IDC_01_04</t>
+  </si>
+  <si>
+    <t>IDC_01_05 --&gt; IDC_01_25</t>
+  </si>
+  <si>
+    <t>IDC_01_26, IDC_01_27</t>
+  </si>
+  <si>
+    <t>IDC_01_28, IDC_01_29</t>
+  </si>
+  <si>
+    <t>IDC_01_30</t>
+  </si>
+  <si>
+    <t>Scenario ID's</t>
+  </si>
+  <si>
+    <t>DataCheck_Income.feature</t>
+  </si>
+  <si>
+    <t>Sprint - 62</t>
+  </si>
+  <si>
+    <t>ADC_01_01, ADC_01_02</t>
+  </si>
+  <si>
+    <t>ADC_01_03</t>
+  </si>
+  <si>
+    <t>ADC_01_04</t>
+  </si>
+  <si>
+    <t>ADC_01_07 --&gt; ADC_01_11</t>
+  </si>
+  <si>
+    <t>ADC_01_12 --&gt; ADC_01_17</t>
+  </si>
+  <si>
+    <t>DataCheck_ApplicationDetails.feature</t>
+  </si>
+  <si>
+    <t>IJARAH-App Data Entry</t>
+  </si>
+  <si>
+    <t>IJARAH-Underwriter</t>
+  </si>
+  <si>
+    <t>IJARAH-Data Check</t>
+  </si>
+  <si>
+    <t>Sprint - 63</t>
+  </si>
+  <si>
+    <t>IJARAH - Offering</t>
+  </si>
+  <si>
+    <t>Offer Details</t>
+  </si>
+  <si>
+    <t>Application Details</t>
+  </si>
+  <si>
+    <t>OFO_01_01</t>
+  </si>
+  <si>
+    <t>OFO_01_02</t>
+  </si>
+  <si>
+    <t>OFO_01_03</t>
+  </si>
+  <si>
+    <t>OFO_01_04, OFO_01_05</t>
+  </si>
+  <si>
+    <t>OFO_01_06</t>
+  </si>
+  <si>
+    <t>OFO_01_07</t>
+  </si>
+  <si>
+    <t>Offering_offerDetails.feature</t>
+  </si>
+  <si>
+    <t>0352</t>
+  </si>
+  <si>
+    <t>Contract Signing</t>
+  </si>
+  <si>
+    <t>3082</t>
+  </si>
+  <si>
+    <t>userType05</t>
+  </si>
+  <si>
+    <t>AT_CSAD_01</t>
+  </si>
+  <si>
+    <t>DS_AT_CSAD_01</t>
+  </si>
+  <si>
+    <t>AT_CSAD_02</t>
+  </si>
+  <si>
+    <t>DS_AT_CSAD_02</t>
+  </si>
+  <si>
+    <t>AT_CSAD_03</t>
+  </si>
+  <si>
+    <t>AT_CSAD_04</t>
+  </si>
+  <si>
+    <t>AT_CSAD_05</t>
+  </si>
+  <si>
+    <t>DS_AT_CSAD_03</t>
+  </si>
+  <si>
+    <t>DS_AT_CSAD_04</t>
+  </si>
+  <si>
+    <t>DS_AT_CSAD_05</t>
+  </si>
+  <si>
+    <t>Declared Monthly Obligations</t>
+  </si>
+  <si>
+    <t>Special Promotion</t>
+  </si>
+  <si>
+    <t>Honda Car Promotion scheme</t>
+  </si>
+  <si>
+    <t>Pithampur</t>
+  </si>
+  <si>
+    <t>Spoke Location</t>
+  </si>
+  <si>
+    <t>Abhishek Jat</t>
+  </si>
+  <si>
+    <t>Indore</t>
+  </si>
+  <si>
+    <t>Business Center-Corporate Banking</t>
+  </si>
+  <si>
+    <t>2970</t>
+  </si>
+  <si>
+    <t>750000</t>
+  </si>
+  <si>
+    <t>15000</t>
+  </si>
+  <si>
+    <t>45000</t>
+  </si>
+  <si>
+    <t>Branch</t>
+  </si>
+  <si>
+    <t>Corporate Branch</t>
+  </si>
+  <si>
+    <t>Sourcing Type</t>
+  </si>
+  <si>
+    <t>Sourcing Office</t>
+  </si>
+  <si>
+    <t>Sourcing Entity</t>
+  </si>
+  <si>
+    <t>Reference Type</t>
+  </si>
+  <si>
+    <t>Reference Code</t>
+  </si>
+  <si>
+    <t>NAGPUR</t>
+  </si>
+  <si>
+    <t>Sourcing Staff</t>
+  </si>
+  <si>
+    <t>Renu Purohit</t>
+  </si>
+  <si>
+    <t>Bank</t>
+  </si>
+  <si>
+    <t>555</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="dddd\,\ mmmm\ dd\,\ yyyy"/>
+  </numFmts>
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -442,8 +771,34 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -471,6 +826,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -510,14 +871,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -542,8 +904,49 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="6" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Excel_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_" xfId="2"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -837,10 +1240,1017 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:L33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J54" sqref="J54:J55"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="24.109375" style="25" customWidth="1"/>
+    <col min="2" max="2" width="22.21875" style="25" customWidth="1"/>
+    <col min="3" max="3" width="13.21875" customWidth="1"/>
+    <col min="4" max="4" width="33.5546875" customWidth="1"/>
+    <col min="5" max="5" width="19.5546875" customWidth="1"/>
+    <col min="6" max="6" width="11.5546875" customWidth="1"/>
+    <col min="7" max="7" width="11" customWidth="1"/>
+    <col min="8" max="8" width="17.109375" customWidth="1"/>
+    <col min="9" max="9" width="10.33203125" customWidth="1"/>
+    <col min="10" max="10" width="38.109375" customWidth="1"/>
+    <col min="11" max="11" width="21.88671875" customWidth="1"/>
+    <col min="12" max="12" width="15.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" s="21" customFormat="1">
+      <c r="A1" s="24" t="s">
+        <v>165</v>
+      </c>
+      <c r="B1" s="24" t="s">
+        <v>164</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="D1" s="26" t="s">
+        <v>178</v>
+      </c>
+      <c r="E1" s="26" t="s">
+        <v>155</v>
+      </c>
+      <c r="F1" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="G1" s="18" t="s">
+        <v>136</v>
+      </c>
+      <c r="H1" s="19" t="s">
+        <v>137</v>
+      </c>
+      <c r="I1" s="20" t="s">
+        <v>139</v>
+      </c>
+      <c r="J1" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="K1" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="L1" s="19" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" s="30" t="s">
+        <v>187</v>
+      </c>
+      <c r="B2" s="30" t="s">
+        <v>166</v>
+      </c>
+      <c r="C2" s="27" t="s">
+        <v>141</v>
+      </c>
+      <c r="D2" s="28" t="s">
+        <v>146</v>
+      </c>
+      <c r="E2" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="28" t="s">
+        <v>147</v>
+      </c>
+      <c r="G2" s="28" t="s">
+        <v>147</v>
+      </c>
+      <c r="H2" s="28" t="s">
+        <v>147</v>
+      </c>
+      <c r="I2" s="28" t="s">
+        <v>147</v>
+      </c>
+      <c r="J2" s="28" t="s">
+        <v>148</v>
+      </c>
+      <c r="K2" s="28"/>
+      <c r="L2" s="28"/>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" s="30"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="27" t="s">
+        <v>141</v>
+      </c>
+      <c r="D3" s="28" t="s">
+        <v>142</v>
+      </c>
+      <c r="E3" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" s="28" t="s">
+        <v>147</v>
+      </c>
+      <c r="G3" s="28" t="s">
+        <v>147</v>
+      </c>
+      <c r="H3" s="28" t="s">
+        <v>147</v>
+      </c>
+      <c r="I3" s="28" t="s">
+        <v>147</v>
+      </c>
+      <c r="J3" s="28" t="s">
+        <v>148</v>
+      </c>
+      <c r="K3" s="28"/>
+      <c r="L3" s="28"/>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" s="30"/>
+      <c r="B4" s="30"/>
+      <c r="C4" s="27" t="s">
+        <v>141</v>
+      </c>
+      <c r="D4" s="28" t="s">
+        <v>143</v>
+      </c>
+      <c r="E4" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4" s="28" t="s">
+        <v>147</v>
+      </c>
+      <c r="G4" s="28" t="s">
+        <v>147</v>
+      </c>
+      <c r="H4" s="28" t="s">
+        <v>147</v>
+      </c>
+      <c r="I4" s="28" t="s">
+        <v>147</v>
+      </c>
+      <c r="J4" s="28" t="s">
+        <v>148</v>
+      </c>
+      <c r="K4" s="28"/>
+      <c r="L4" s="28"/>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" s="30"/>
+      <c r="B5" s="30"/>
+      <c r="C5" s="27" t="s">
+        <v>141</v>
+      </c>
+      <c r="D5" s="28" t="s">
+        <v>145</v>
+      </c>
+      <c r="E5" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="28" t="s">
+        <v>147</v>
+      </c>
+      <c r="G5" s="28" t="s">
+        <v>147</v>
+      </c>
+      <c r="H5" s="28" t="s">
+        <v>147</v>
+      </c>
+      <c r="I5" s="28" t="s">
+        <v>147</v>
+      </c>
+      <c r="J5" s="28" t="s">
+        <v>148</v>
+      </c>
+      <c r="K5" s="28"/>
+      <c r="L5" s="28"/>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="29"/>
+      <c r="B6" s="29"/>
+      <c r="C6" s="28"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="28"/>
+      <c r="F6" s="28"/>
+      <c r="G6" s="28"/>
+      <c r="H6" s="28"/>
+      <c r="I6" s="28"/>
+      <c r="J6" s="28"/>
+      <c r="K6" s="28"/>
+      <c r="L6" s="28"/>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="30" t="s">
+        <v>188</v>
+      </c>
+      <c r="B7" s="30" t="s">
+        <v>167</v>
+      </c>
+      <c r="C7" s="27" t="s">
+        <v>154</v>
+      </c>
+      <c r="D7" s="23" t="s">
+        <v>156</v>
+      </c>
+      <c r="E7" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="F7" s="28" t="s">
+        <v>147</v>
+      </c>
+      <c r="G7" s="28" t="s">
+        <v>147</v>
+      </c>
+      <c r="H7" s="28" t="s">
+        <v>147</v>
+      </c>
+      <c r="I7" s="28" t="s">
+        <v>147</v>
+      </c>
+      <c r="J7" s="28" t="s">
+        <v>162</v>
+      </c>
+      <c r="K7" s="28"/>
+      <c r="L7" s="28"/>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="30"/>
+      <c r="B8" s="30"/>
+      <c r="C8" s="27" t="s">
+        <v>154</v>
+      </c>
+      <c r="D8" s="28" t="s">
+        <v>157</v>
+      </c>
+      <c r="E8" s="22" t="s">
+        <v>150</v>
+      </c>
+      <c r="F8" s="28" t="s">
+        <v>147</v>
+      </c>
+      <c r="G8" s="28" t="s">
+        <v>147</v>
+      </c>
+      <c r="H8" s="28" t="s">
+        <v>147</v>
+      </c>
+      <c r="I8" s="28" t="s">
+        <v>147</v>
+      </c>
+      <c r="J8" s="28" t="s">
+        <v>162</v>
+      </c>
+      <c r="K8" s="28"/>
+      <c r="L8" s="28"/>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="30"/>
+      <c r="B9" s="30"/>
+      <c r="C9" s="27" t="s">
+        <v>154</v>
+      </c>
+      <c r="D9" s="28" t="s">
+        <v>158</v>
+      </c>
+      <c r="E9" s="22" t="s">
+        <v>151</v>
+      </c>
+      <c r="F9" s="28" t="s">
+        <v>147</v>
+      </c>
+      <c r="G9" s="28" t="s">
+        <v>147</v>
+      </c>
+      <c r="H9" s="28" t="s">
+        <v>147</v>
+      </c>
+      <c r="I9" s="28" t="s">
+        <v>147</v>
+      </c>
+      <c r="J9" s="28" t="s">
+        <v>162</v>
+      </c>
+      <c r="K9" s="28"/>
+      <c r="L9" s="28"/>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="30"/>
+      <c r="B10" s="30"/>
+      <c r="C10" s="27" t="s">
+        <v>154</v>
+      </c>
+      <c r="D10" s="28" t="s">
+        <v>159</v>
+      </c>
+      <c r="E10" s="22" t="s">
+        <v>152</v>
+      </c>
+      <c r="F10" s="28" t="s">
+        <v>147</v>
+      </c>
+      <c r="G10" s="28" t="s">
+        <v>147</v>
+      </c>
+      <c r="H10" s="28" t="s">
+        <v>147</v>
+      </c>
+      <c r="I10" s="28" t="s">
+        <v>147</v>
+      </c>
+      <c r="J10" s="28" t="s">
+        <v>162</v>
+      </c>
+      <c r="K10" s="28"/>
+      <c r="L10" s="28"/>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="29" t="s">
+        <v>168</v>
+      </c>
+      <c r="B11" s="29" t="s">
+        <v>169</v>
+      </c>
+      <c r="C11" s="27" t="s">
+        <v>154</v>
+      </c>
+      <c r="D11" s="28" t="s">
+        <v>160</v>
+      </c>
+      <c r="E11" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="F11" s="28" t="s">
+        <v>147</v>
+      </c>
+      <c r="G11" s="28" t="s">
+        <v>147</v>
+      </c>
+      <c r="H11" s="28" t="s">
+        <v>147</v>
+      </c>
+      <c r="I11" s="28" t="s">
+        <v>147</v>
+      </c>
+      <c r="J11" s="28" t="s">
+        <v>163</v>
+      </c>
+      <c r="K11" s="28"/>
+      <c r="L11" s="28"/>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" s="30" t="s">
+        <v>187</v>
+      </c>
+      <c r="B12" s="30" t="s">
+        <v>166</v>
+      </c>
+      <c r="C12" s="27" t="s">
+        <v>154</v>
+      </c>
+      <c r="D12" s="28" t="s">
+        <v>144</v>
+      </c>
+      <c r="E12" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="F12" s="28" t="s">
+        <v>147</v>
+      </c>
+      <c r="G12" s="28" t="s">
+        <v>147</v>
+      </c>
+      <c r="H12" s="28" t="s">
+        <v>147</v>
+      </c>
+      <c r="I12" s="28" t="s">
+        <v>147</v>
+      </c>
+      <c r="J12" s="28" t="s">
+        <v>148</v>
+      </c>
+      <c r="K12" s="28"/>
+      <c r="L12" s="28"/>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" s="30"/>
+      <c r="B13" s="30"/>
+      <c r="C13" s="27" t="s">
+        <v>154</v>
+      </c>
+      <c r="D13" s="28" t="s">
+        <v>161</v>
+      </c>
+      <c r="E13" s="22" t="s">
+        <v>153</v>
+      </c>
+      <c r="F13" s="28" t="s">
+        <v>147</v>
+      </c>
+      <c r="G13" s="28" t="s">
+        <v>147</v>
+      </c>
+      <c r="H13" s="28" t="s">
+        <v>147</v>
+      </c>
+      <c r="I13" s="28" t="s">
+        <v>147</v>
+      </c>
+      <c r="J13" s="28" t="s">
+        <v>148</v>
+      </c>
+      <c r="K13" s="28"/>
+      <c r="L13" s="28"/>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" s="29"/>
+      <c r="B14" s="29"/>
+      <c r="C14" s="28"/>
+      <c r="D14" s="28"/>
+      <c r="E14" s="28"/>
+      <c r="F14" s="28"/>
+      <c r="G14" s="28"/>
+      <c r="H14" s="28"/>
+      <c r="I14" s="28"/>
+      <c r="J14" s="28"/>
+      <c r="K14" s="28"/>
+      <c r="L14" s="28"/>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" s="30" t="s">
+        <v>189</v>
+      </c>
+      <c r="B15" s="30" t="s">
+        <v>171</v>
+      </c>
+      <c r="C15" s="27" t="s">
+        <v>170</v>
+      </c>
+      <c r="D15" s="28" t="s">
+        <v>172</v>
+      </c>
+      <c r="E15" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="F15" s="28" t="s">
+        <v>147</v>
+      </c>
+      <c r="G15" s="28" t="s">
+        <v>147</v>
+      </c>
+      <c r="H15" s="28" t="s">
+        <v>147</v>
+      </c>
+      <c r="I15" s="28" t="s">
+        <v>147</v>
+      </c>
+      <c r="J15" s="28" t="s">
+        <v>179</v>
+      </c>
+      <c r="K15" s="28"/>
+      <c r="L15" s="28"/>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16" s="30"/>
+      <c r="B16" s="30"/>
+      <c r="C16" s="27" t="s">
+        <v>170</v>
+      </c>
+      <c r="D16" s="28" t="s">
+        <v>173</v>
+      </c>
+      <c r="E16" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="F16" s="28" t="s">
+        <v>147</v>
+      </c>
+      <c r="G16" s="28" t="s">
+        <v>147</v>
+      </c>
+      <c r="H16" s="28" t="s">
+        <v>147</v>
+      </c>
+      <c r="I16" s="28" t="s">
+        <v>147</v>
+      </c>
+      <c r="J16" s="28" t="s">
+        <v>179</v>
+      </c>
+      <c r="K16" s="28"/>
+      <c r="L16" s="28"/>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17" s="30"/>
+      <c r="B17" s="30"/>
+      <c r="C17" s="27" t="s">
+        <v>170</v>
+      </c>
+      <c r="D17" s="28" t="s">
+        <v>174</v>
+      </c>
+      <c r="E17" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="F17" s="28" t="s">
+        <v>147</v>
+      </c>
+      <c r="G17" s="28" t="s">
+        <v>147</v>
+      </c>
+      <c r="H17" s="28" t="s">
+        <v>147</v>
+      </c>
+      <c r="I17" s="28" t="s">
+        <v>147</v>
+      </c>
+      <c r="J17" s="28" t="s">
+        <v>179</v>
+      </c>
+      <c r="K17" s="28"/>
+      <c r="L17" s="28"/>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18" s="30"/>
+      <c r="B18" s="30"/>
+      <c r="C18" s="27" t="s">
+        <v>170</v>
+      </c>
+      <c r="D18" s="28" t="s">
+        <v>175</v>
+      </c>
+      <c r="E18" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="F18" s="28" t="s">
+        <v>147</v>
+      </c>
+      <c r="G18" s="28" t="s">
+        <v>147</v>
+      </c>
+      <c r="H18" s="28" t="s">
+        <v>147</v>
+      </c>
+      <c r="I18" s="28" t="s">
+        <v>147</v>
+      </c>
+      <c r="J18" s="28" t="s">
+        <v>179</v>
+      </c>
+      <c r="K18" s="28"/>
+      <c r="L18" s="28"/>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19" s="30"/>
+      <c r="B19" s="30"/>
+      <c r="C19" s="27" t="s">
+        <v>170</v>
+      </c>
+      <c r="D19" s="28" t="s">
+        <v>176</v>
+      </c>
+      <c r="E19" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="F19" s="28" t="s">
+        <v>147</v>
+      </c>
+      <c r="G19" s="28" t="s">
+        <v>147</v>
+      </c>
+      <c r="H19" s="28" t="s">
+        <v>147</v>
+      </c>
+      <c r="I19" s="28" t="s">
+        <v>147</v>
+      </c>
+      <c r="J19" s="28" t="s">
+        <v>179</v>
+      </c>
+      <c r="K19" s="28"/>
+      <c r="L19" s="28"/>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20" s="30"/>
+      <c r="B20" s="30"/>
+      <c r="C20" s="27" t="s">
+        <v>170</v>
+      </c>
+      <c r="D20" s="28" t="s">
+        <v>177</v>
+      </c>
+      <c r="E20" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="F20" s="28" t="s">
+        <v>147</v>
+      </c>
+      <c r="G20" s="28" t="s">
+        <v>147</v>
+      </c>
+      <c r="H20" s="28" t="s">
+        <v>147</v>
+      </c>
+      <c r="I20" s="28" t="s">
+        <v>147</v>
+      </c>
+      <c r="J20" s="28" t="s">
+        <v>179</v>
+      </c>
+      <c r="K20" s="28"/>
+      <c r="L20" s="28"/>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21" s="29"/>
+      <c r="B21" s="29"/>
+      <c r="C21" s="28"/>
+      <c r="D21" s="28"/>
+      <c r="E21" s="28"/>
+      <c r="F21" s="28"/>
+      <c r="G21" s="28"/>
+      <c r="H21" s="28"/>
+      <c r="I21" s="28"/>
+      <c r="J21" s="28"/>
+      <c r="K21" s="28"/>
+      <c r="L21" s="28"/>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="A22" s="30" t="s">
+        <v>189</v>
+      </c>
+      <c r="B22" s="30" t="s">
+        <v>193</v>
+      </c>
+      <c r="C22" s="27" t="s">
+        <v>180</v>
+      </c>
+      <c r="D22" s="28" t="s">
+        <v>181</v>
+      </c>
+      <c r="E22" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="F22" s="28" t="s">
+        <v>147</v>
+      </c>
+      <c r="G22" s="28" t="s">
+        <v>147</v>
+      </c>
+      <c r="H22" s="28" t="s">
+        <v>147</v>
+      </c>
+      <c r="I22" s="28" t="s">
+        <v>147</v>
+      </c>
+      <c r="J22" s="28" t="s">
+        <v>186</v>
+      </c>
+      <c r="K22" s="28"/>
+      <c r="L22" s="28"/>
+    </row>
+    <row r="23" spans="1:12">
+      <c r="A23" s="30"/>
+      <c r="B23" s="30"/>
+      <c r="C23" s="27" t="s">
+        <v>180</v>
+      </c>
+      <c r="D23" s="28" t="s">
+        <v>182</v>
+      </c>
+      <c r="E23" s="22" t="s">
+        <v>84</v>
+      </c>
+      <c r="F23" s="28" t="s">
+        <v>147</v>
+      </c>
+      <c r="G23" s="28" t="s">
+        <v>147</v>
+      </c>
+      <c r="H23" s="28" t="s">
+        <v>147</v>
+      </c>
+      <c r="I23" s="28" t="s">
+        <v>147</v>
+      </c>
+      <c r="J23" s="28" t="s">
+        <v>186</v>
+      </c>
+      <c r="K23" s="28"/>
+      <c r="L23" s="28"/>
+    </row>
+    <row r="24" spans="1:12">
+      <c r="A24" s="30"/>
+      <c r="B24" s="30"/>
+      <c r="C24" s="27" t="s">
+        <v>180</v>
+      </c>
+      <c r="D24" s="28" t="s">
+        <v>183</v>
+      </c>
+      <c r="E24" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="F24" s="28" t="s">
+        <v>147</v>
+      </c>
+      <c r="G24" s="28" t="s">
+        <v>147</v>
+      </c>
+      <c r="H24" s="28" t="s">
+        <v>147</v>
+      </c>
+      <c r="I24" s="28" t="s">
+        <v>147</v>
+      </c>
+      <c r="J24" s="28" t="s">
+        <v>186</v>
+      </c>
+      <c r="K24" s="28"/>
+      <c r="L24" s="28"/>
+    </row>
+    <row r="25" spans="1:12">
+      <c r="A25" s="30"/>
+      <c r="B25" s="30"/>
+      <c r="C25" s="27" t="s">
+        <v>180</v>
+      </c>
+      <c r="D25" s="28" t="s">
+        <v>184</v>
+      </c>
+      <c r="E25" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="F25" s="28" t="s">
+        <v>147</v>
+      </c>
+      <c r="G25" s="28" t="s">
+        <v>147</v>
+      </c>
+      <c r="H25" s="28" t="s">
+        <v>147</v>
+      </c>
+      <c r="I25" s="28" t="s">
+        <v>147</v>
+      </c>
+      <c r="J25" s="28" t="s">
+        <v>186</v>
+      </c>
+      <c r="K25" s="28"/>
+      <c r="L25" s="28"/>
+    </row>
+    <row r="26" spans="1:12">
+      <c r="A26" s="30"/>
+      <c r="B26" s="30"/>
+      <c r="C26" s="27" t="s">
+        <v>180</v>
+      </c>
+      <c r="D26" s="28" t="s">
+        <v>185</v>
+      </c>
+      <c r="E26" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="F26" s="28" t="s">
+        <v>147</v>
+      </c>
+      <c r="G26" s="28" t="s">
+        <v>147</v>
+      </c>
+      <c r="H26" s="28" t="s">
+        <v>147</v>
+      </c>
+      <c r="I26" s="28" t="s">
+        <v>147</v>
+      </c>
+      <c r="J26" s="28" t="s">
+        <v>186</v>
+      </c>
+      <c r="K26" s="28"/>
+      <c r="L26" s="28"/>
+    </row>
+    <row r="27" spans="1:12">
+      <c r="A27" s="29"/>
+      <c r="B27" s="29"/>
+      <c r="C27" s="28"/>
+      <c r="D27" s="28"/>
+      <c r="E27" s="28"/>
+      <c r="F27" s="28"/>
+      <c r="G27" s="28"/>
+      <c r="H27" s="28"/>
+      <c r="I27" s="28"/>
+      <c r="J27" s="28"/>
+      <c r="K27" s="28"/>
+      <c r="L27" s="28"/>
+    </row>
+    <row r="28" spans="1:12">
+      <c r="A28" s="30" t="s">
+        <v>191</v>
+      </c>
+      <c r="B28" s="30" t="s">
+        <v>192</v>
+      </c>
+      <c r="C28" s="27" t="s">
+        <v>190</v>
+      </c>
+      <c r="D28" s="28" t="s">
+        <v>194</v>
+      </c>
+      <c r="E28" s="22" t="s">
+        <v>113</v>
+      </c>
+      <c r="F28" s="28" t="s">
+        <v>147</v>
+      </c>
+      <c r="G28" s="28" t="s">
+        <v>147</v>
+      </c>
+      <c r="H28" s="28" t="s">
+        <v>147</v>
+      </c>
+      <c r="I28" s="28" t="s">
+        <v>147</v>
+      </c>
+      <c r="J28" s="28" t="s">
+        <v>200</v>
+      </c>
+      <c r="K28" s="28"/>
+      <c r="L28" s="28"/>
+    </row>
+    <row r="29" spans="1:12">
+      <c r="A29" s="30"/>
+      <c r="B29" s="30"/>
+      <c r="C29" s="27" t="s">
+        <v>190</v>
+      </c>
+      <c r="D29" s="28" t="s">
+        <v>195</v>
+      </c>
+      <c r="E29" s="22" t="s">
+        <v>120</v>
+      </c>
+      <c r="F29" s="28" t="s">
+        <v>147</v>
+      </c>
+      <c r="G29" s="28" t="s">
+        <v>147</v>
+      </c>
+      <c r="H29" s="28" t="s">
+        <v>147</v>
+      </c>
+      <c r="I29" s="28" t="s">
+        <v>147</v>
+      </c>
+      <c r="J29" s="28" t="s">
+        <v>200</v>
+      </c>
+      <c r="K29" s="28"/>
+      <c r="L29" s="28"/>
+    </row>
+    <row r="30" spans="1:12">
+      <c r="A30" s="30"/>
+      <c r="B30" s="30"/>
+      <c r="C30" s="27" t="s">
+        <v>190</v>
+      </c>
+      <c r="D30" s="28" t="s">
+        <v>196</v>
+      </c>
+      <c r="E30" s="22" t="s">
+        <v>121</v>
+      </c>
+      <c r="F30" s="28" t="s">
+        <v>147</v>
+      </c>
+      <c r="G30" s="28" t="s">
+        <v>147</v>
+      </c>
+      <c r="H30" s="28" t="s">
+        <v>147</v>
+      </c>
+      <c r="I30" s="28" t="s">
+        <v>147</v>
+      </c>
+      <c r="J30" s="28" t="s">
+        <v>200</v>
+      </c>
+      <c r="K30" s="28"/>
+      <c r="L30" s="28"/>
+    </row>
+    <row r="31" spans="1:12">
+      <c r="A31" s="30"/>
+      <c r="B31" s="30"/>
+      <c r="C31" s="27" t="s">
+        <v>190</v>
+      </c>
+      <c r="D31" s="28" t="s">
+        <v>197</v>
+      </c>
+      <c r="E31" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="F31" s="28" t="s">
+        <v>147</v>
+      </c>
+      <c r="G31" s="28" t="s">
+        <v>147</v>
+      </c>
+      <c r="H31" s="28" t="s">
+        <v>147</v>
+      </c>
+      <c r="I31" s="28" t="s">
+        <v>147</v>
+      </c>
+      <c r="J31" s="28" t="s">
+        <v>200</v>
+      </c>
+      <c r="K31" s="28"/>
+      <c r="L31" s="28"/>
+    </row>
+    <row r="32" spans="1:12">
+      <c r="A32" s="30"/>
+      <c r="B32" s="30"/>
+      <c r="C32" s="27" t="s">
+        <v>190</v>
+      </c>
+      <c r="D32" s="28" t="s">
+        <v>198</v>
+      </c>
+      <c r="E32" s="22" t="s">
+        <v>123</v>
+      </c>
+      <c r="F32" s="28" t="s">
+        <v>147</v>
+      </c>
+      <c r="G32" s="28" t="s">
+        <v>147</v>
+      </c>
+      <c r="H32" s="28" t="s">
+        <v>147</v>
+      </c>
+      <c r="I32" s="28" t="s">
+        <v>147</v>
+      </c>
+      <c r="J32" s="28" t="s">
+        <v>200</v>
+      </c>
+      <c r="K32" s="28"/>
+      <c r="L32" s="28"/>
+    </row>
+    <row r="33" spans="1:12">
+      <c r="A33" s="30"/>
+      <c r="B33" s="30"/>
+      <c r="C33" s="27" t="s">
+        <v>190</v>
+      </c>
+      <c r="D33" s="28" t="s">
+        <v>199</v>
+      </c>
+      <c r="E33" s="22" t="s">
+        <v>131</v>
+      </c>
+      <c r="F33" s="28" t="s">
+        <v>147</v>
+      </c>
+      <c r="G33" s="28" t="s">
+        <v>147</v>
+      </c>
+      <c r="H33" s="28" t="s">
+        <v>147</v>
+      </c>
+      <c r="I33" s="28" t="s">
+        <v>147</v>
+      </c>
+      <c r="J33" s="28" t="s">
+        <v>200</v>
+      </c>
+      <c r="K33" s="28"/>
+      <c r="L33" s="28"/>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="B7:B10"/>
+    <mergeCell ref="A7:A10"/>
+    <mergeCell ref="A28:A33"/>
+    <mergeCell ref="B28:B33"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="B15:B20"/>
+    <mergeCell ref="A15:A20"/>
+    <mergeCell ref="B22:B26"/>
+    <mergeCell ref="A22:A26"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -877,7 +2287,7 @@
         <v>5</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -885,13 +2295,13 @@
         <v>6</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>34</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -905,7 +2315,7 @@
         <v>34</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>110</v>
+        <v>130</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -913,13 +2323,30 @@
         <v>35</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>34</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>113</v>
+        <v>112</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -934,12 +2361,13 @@
     <hyperlink ref="C4" r:id="rId1"/>
     <hyperlink ref="C3" r:id="rId2"/>
     <hyperlink ref="C5" r:id="rId3"/>
+    <hyperlink ref="C6" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N8"/>
   <sheetViews>
@@ -1020,7 +2448,7 @@
         <v>13</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
@@ -1044,7 +2472,7 @@
         <v>13</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>16</v>
@@ -1078,7 +2506,7 @@
         <v>13</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E4" s="4"/>
       <c r="F4" s="4" t="s">
@@ -1108,7 +2536,7 @@
         <v>13</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
@@ -1140,7 +2568,7 @@
         <v>13</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>16</v>
@@ -1201,7 +2629,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E5"/>
   <sheetViews>
@@ -1233,7 +2661,7 @@
         <v>39</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1244,7 +2672,7 @@
         <v>38</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
@@ -1257,7 +2685,7 @@
         <v>37</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>40</v>
@@ -1272,13 +2700,13 @@
         <v>41</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>43</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1289,12 +2717,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1343,7 +2771,7 @@
         <v>55</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D2" s="12" t="s">
         <v>60</v>
@@ -1396,7 +2824,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C7"/>
   <sheetViews>
@@ -1493,12 +2921,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C6"/>
+      <selection activeCell="K1" sqref="K1:K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1692,12 +3120,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1720,60 +3148,393 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="B2" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="C2" s="4" t="s">
         <v>115</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="10" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="10" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="10" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="10" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>115</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:V6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P14" sqref="P14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="15.88671875" customWidth="1"/>
+    <col min="2" max="2" width="18.109375" customWidth="1"/>
+    <col min="3" max="3" width="10.21875" customWidth="1"/>
+    <col min="4" max="4" width="20.77734375" customWidth="1"/>
+    <col min="5" max="5" width="19.5546875" customWidth="1"/>
+    <col min="6" max="6" width="17.33203125" customWidth="1"/>
+    <col min="7" max="7" width="23.33203125" customWidth="1"/>
+    <col min="8" max="8" width="26.77734375" customWidth="1"/>
+    <col min="9" max="9" width="27.21875" customWidth="1"/>
+    <col min="10" max="10" width="18.33203125" customWidth="1"/>
+    <col min="11" max="11" width="29.44140625" customWidth="1"/>
+    <col min="12" max="12" width="16.77734375" customWidth="1"/>
+    <col min="13" max="13" width="17.21875" customWidth="1"/>
+    <col min="14" max="14" width="16.21875" customWidth="1"/>
+    <col min="15" max="15" width="14.21875" customWidth="1"/>
+    <col min="16" max="16" width="15.5546875" customWidth="1"/>
+    <col min="17" max="17" width="12.6640625" customWidth="1"/>
+    <col min="18" max="18" width="13.33203125" customWidth="1"/>
+    <col min="19" max="19" width="19.5546875" customWidth="1"/>
+    <col min="20" max="20" width="13.21875" customWidth="1"/>
+    <col min="21" max="21" width="13.6640625" customWidth="1"/>
+    <col min="22" max="22" width="14.44140625" style="33" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22" s="14" customFormat="1">
+      <c r="A1" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="G1" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>215</v>
+      </c>
+      <c r="I1" s="13" t="s">
+        <v>216</v>
+      </c>
+      <c r="J1" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="K1" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="L1" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="M1" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="N1" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="O1" s="13" t="s">
+        <v>219</v>
+      </c>
+      <c r="P1" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q1" s="13" t="s">
+        <v>229</v>
+      </c>
+      <c r="R1" s="13" t="s">
+        <v>230</v>
+      </c>
+      <c r="S1" s="13" t="s">
+        <v>231</v>
+      </c>
+      <c r="T1" s="13" t="s">
+        <v>235</v>
+      </c>
+      <c r="U1" s="13" t="s">
+        <v>232</v>
+      </c>
+      <c r="V1" s="31" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" s="5" customFormat="1">
+      <c r="A2" s="10" t="s">
+        <v>205</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>224</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>225</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>226</v>
+      </c>
+      <c r="I2" s="12" t="s">
+        <v>217</v>
+      </c>
+      <c r="J2" s="12" t="s">
+        <v>227</v>
+      </c>
+      <c r="K2" s="12" t="s">
+        <v>222</v>
+      </c>
+      <c r="L2" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="M2" s="12" t="s">
+        <v>228</v>
+      </c>
+      <c r="N2" s="12" t="s">
+        <v>221</v>
+      </c>
+      <c r="O2" s="12" t="s">
+        <v>218</v>
+      </c>
+      <c r="P2" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="Q2" s="12"/>
+      <c r="R2" s="12"/>
+      <c r="S2" s="12"/>
+      <c r="T2" s="12"/>
+      <c r="U2" s="12"/>
+      <c r="V2" s="32"/>
+    </row>
+    <row r="3" spans="1:22" s="5" customFormat="1">
+      <c r="A3" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="12"/>
+      <c r="K3" s="12"/>
+      <c r="L3" s="12"/>
+      <c r="M3" s="12"/>
+      <c r="N3" s="12"/>
+      <c r="O3" s="12"/>
+      <c r="P3" s="12"/>
+      <c r="Q3" s="12"/>
+      <c r="R3" s="12"/>
+      <c r="S3" s="12"/>
+      <c r="T3" s="12"/>
+      <c r="U3" s="12"/>
+      <c r="V3" s="32"/>
+    </row>
+    <row r="4" spans="1:22" s="5" customFormat="1">
+      <c r="A4" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="12"/>
+      <c r="K4" s="12"/>
+      <c r="L4" s="12"/>
+      <c r="M4" s="12"/>
+      <c r="N4" s="12"/>
+      <c r="O4" s="12"/>
+      <c r="P4" s="12"/>
+      <c r="Q4" s="12"/>
+      <c r="R4" s="12"/>
+      <c r="S4" s="12"/>
+      <c r="T4" s="12"/>
+      <c r="U4" s="12"/>
+      <c r="V4" s="32"/>
+    </row>
+    <row r="5" spans="1:22" s="5" customFormat="1">
+      <c r="A5" s="10" t="s">
+        <v>210</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>213</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>224</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>225</v>
+      </c>
+      <c r="H5" s="12" t="s">
+        <v>226</v>
+      </c>
+      <c r="I5" s="12" t="s">
+        <v>217</v>
+      </c>
+      <c r="J5" s="12" t="s">
+        <v>227</v>
+      </c>
+      <c r="K5" s="12" t="s">
+        <v>222</v>
+      </c>
+      <c r="L5" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="M5" s="12" t="s">
+        <v>228</v>
+      </c>
+      <c r="N5" s="12" t="s">
+        <v>221</v>
+      </c>
+      <c r="O5" s="12" t="s">
+        <v>218</v>
+      </c>
+      <c r="P5" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="Q5" s="12"/>
+      <c r="R5" s="12"/>
+      <c r="S5" s="12"/>
+      <c r="T5" s="12"/>
+      <c r="U5" s="12"/>
+      <c r="V5" s="32"/>
+    </row>
+    <row r="6" spans="1:22" s="5" customFormat="1">
+      <c r="A6" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>214</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="12"/>
+      <c r="N6" s="12"/>
+      <c r="O6" s="12"/>
+      <c r="P6" s="12"/>
+      <c r="Q6" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="R6" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="S6" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="T6" s="12" t="s">
+        <v>236</v>
+      </c>
+      <c r="U6" s="12" t="s">
+        <v>237</v>
+      </c>
+      <c r="V6" s="32" t="s">
+        <v>238</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/KULS_Sankar/TestData/ijaraTestData.xlsx
+++ b/KULS_Sankar/TestData/ijaraTestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="72" windowWidth="23256" windowHeight="12600" firstSheet="4" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="72" windowWidth="23256" windowHeight="12600" firstSheet="5" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="AllFeaturesAutomationInfo" sheetId="8" r:id="rId1"/>
@@ -16,13 +16,14 @@
     <sheet name="DataCheck_AppDetails" sheetId="6" r:id="rId7"/>
     <sheet name="Offering_OfferDetails" sheetId="7" r:id="rId8"/>
     <sheet name="ContractSign_AppDetails" sheetId="9" r:id="rId9"/>
+    <sheet name="Murabaha_AppData_CFDebt" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="610" uniqueCount="277">
   <si>
     <t>UserName</t>
   </si>
@@ -57,15 +58,9 @@
     <t>Finance Type</t>
   </si>
   <si>
-    <t>Module Name</t>
-  </si>
-  <si>
     <t>Ref No</t>
   </si>
   <si>
-    <t>LOS</t>
-  </si>
-  <si>
     <t>AT_CUD_001</t>
   </si>
   <si>
@@ -399,9 +394,6 @@
     <t>3046</t>
   </si>
   <si>
-    <t>CF_Debt</t>
-  </si>
-  <si>
     <t>3063</t>
   </si>
   <si>
@@ -739,6 +731,129 @@
   </si>
   <si>
     <t>555</t>
+  </si>
+  <si>
+    <t>Sprint - 64</t>
+  </si>
+  <si>
+    <t>IJARAH- Contract Signing</t>
+  </si>
+  <si>
+    <t>ContractSign_ApplicationDetails.feature</t>
+  </si>
+  <si>
+    <t>Sprint - 65</t>
+  </si>
+  <si>
+    <t>AT_MCUD_01</t>
+  </si>
+  <si>
+    <t>AT_MCUD_02</t>
+  </si>
+  <si>
+    <t>AT_MCUD_03</t>
+  </si>
+  <si>
+    <t>AT_MCUD_05</t>
+  </si>
+  <si>
+    <t>AT_MCUD_06</t>
+  </si>
+  <si>
+    <t>MURABAHA - App Data Entry</t>
+  </si>
+  <si>
+    <t>Customer Debt Screen</t>
+  </si>
+  <si>
+    <t>ADC_01_01 &amp; ADC_01_02</t>
+  </si>
+  <si>
+    <t>ADC_01_07 --&gt; ADC_01_21</t>
+  </si>
+  <si>
+    <t>ADC_01_22 --&gt; ADC_01_29</t>
+  </si>
+  <si>
+    <t>CUD_01_01</t>
+  </si>
+  <si>
+    <t>CUD_01_02 --&gt; CUD_01_04</t>
+  </si>
+  <si>
+    <t>CUD_01_05 --&gt; CUD_01_30</t>
+  </si>
+  <si>
+    <t>Murabaha_AppData_CFDebt.feature</t>
+  </si>
+  <si>
+    <t>DS_AT_MCUD_01</t>
+  </si>
+  <si>
+    <t>DS_AT_MCUD_02</t>
+  </si>
+  <si>
+    <t>DS_AT_MCUD_03</t>
+  </si>
+  <si>
+    <t>AT_MCUD_04</t>
+  </si>
+  <si>
+    <t>DS_AT_MCUD_05</t>
+  </si>
+  <si>
+    <t>DS_AT_MCUD_06</t>
+  </si>
+  <si>
+    <t>3393</t>
+  </si>
+  <si>
+    <t>3032</t>
+  </si>
+  <si>
+    <t>Murabaha -- App Data Entry</t>
+  </si>
+  <si>
+    <t>App Data Entry (CF_Debt)</t>
+  </si>
+  <si>
+    <t>userType06</t>
+  </si>
+  <si>
+    <t>Arab National Bank</t>
+  </si>
+  <si>
+    <t>Financial Institution</t>
+  </si>
+  <si>
+    <t>Account Nbr</t>
+  </si>
+  <si>
+    <t>71</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>Currency</t>
+  </si>
+  <si>
+    <t>USD</t>
+  </si>
+  <si>
+    <t>78659984421</t>
+  </si>
+  <si>
+    <t>1030000</t>
+  </si>
+  <si>
+    <t>5200</t>
+  </si>
+  <si>
+    <t>Auto Loan</t>
+  </si>
+  <si>
+    <t>1250000</t>
   </si>
 </sst>
 </file>
@@ -748,7 +863,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -795,6 +910,14 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF444444"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -879,7 +1002,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -943,6 +1066,13 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1240,16 +1370,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L33"/>
+  <dimension ref="A1:L46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J54" sqref="J54:J55"/>
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D49" sqref="D49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="24.109375" style="25" customWidth="1"/>
+    <col min="1" max="1" width="27.44140625" style="25" customWidth="1"/>
     <col min="2" max="2" width="22.21875" style="25" customWidth="1"/>
     <col min="3" max="3" width="13.21875" customWidth="1"/>
     <col min="4" max="4" width="33.5546875" customWidth="1"/>
@@ -1265,162 +1395,162 @@
   <sheetData>
     <row r="1" spans="1:12" s="21" customFormat="1">
       <c r="A1" s="24" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B1" s="24" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C1" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="D1" s="26" t="s">
+        <v>175</v>
+      </c>
+      <c r="E1" s="26" t="s">
+        <v>152</v>
+      </c>
+      <c r="F1" s="18" t="s">
+        <v>131</v>
+      </c>
+      <c r="G1" s="18" t="s">
         <v>133</v>
       </c>
-      <c r="D1" s="26" t="s">
-        <v>178</v>
-      </c>
-      <c r="E1" s="26" t="s">
-        <v>155</v>
-      </c>
-      <c r="F1" s="18" t="s">
+      <c r="H1" s="19" t="s">
         <v>134</v>
       </c>
-      <c r="G1" s="18" t="s">
+      <c r="I1" s="20" t="s">
         <v>136</v>
       </c>
-      <c r="H1" s="19" t="s">
+      <c r="J1" s="20" t="s">
+        <v>135</v>
+      </c>
+      <c r="K1" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="L1" s="19" t="s">
         <v>137</v>
       </c>
-      <c r="I1" s="20" t="s">
-        <v>139</v>
-      </c>
-      <c r="J1" s="20" t="s">
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" s="38" t="s">
+        <v>184</v>
+      </c>
+      <c r="B2" s="38" t="s">
+        <v>246</v>
+      </c>
+      <c r="C2" s="27" t="s">
         <v>138</v>
       </c>
-      <c r="K1" s="18" t="s">
-        <v>135</v>
-      </c>
-      <c r="L1" s="19" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12">
-      <c r="A2" s="30" t="s">
-        <v>187</v>
-      </c>
-      <c r="B2" s="30" t="s">
-        <v>166</v>
-      </c>
-      <c r="C2" s="27" t="s">
-        <v>141</v>
-      </c>
       <c r="D2" s="28" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="E2" s="22" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F2" s="28" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="G2" s="28" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="H2" s="28" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="I2" s="28" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="J2" s="28" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="K2" s="28"/>
       <c r="L2" s="28"/>
     </row>
     <row r="3" spans="1:12">
-      <c r="A3" s="30"/>
-      <c r="B3" s="30"/>
+      <c r="A3" s="38"/>
+      <c r="B3" s="38"/>
       <c r="C3" s="27" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D3" s="28" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="E3" s="22" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F3" s="28" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="G3" s="28" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="H3" s="28" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="I3" s="28" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="J3" s="28" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="K3" s="28"/>
       <c r="L3" s="28"/>
     </row>
     <row r="4" spans="1:12">
-      <c r="A4" s="30"/>
-      <c r="B4" s="30"/>
+      <c r="A4" s="38"/>
+      <c r="B4" s="38"/>
       <c r="C4" s="27" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D4" s="28" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="E4" s="22" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F4" s="28" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="G4" s="28" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="H4" s="28" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="I4" s="28" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="J4" s="28" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="K4" s="28"/>
       <c r="L4" s="28"/>
     </row>
     <row r="5" spans="1:12">
-      <c r="A5" s="30"/>
-      <c r="B5" s="30"/>
+      <c r="A5" s="38"/>
+      <c r="B5" s="38"/>
       <c r="C5" s="27" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D5" s="28" t="s">
+        <v>142</v>
+      </c>
+      <c r="E5" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="28" t="s">
+        <v>144</v>
+      </c>
+      <c r="G5" s="28" t="s">
+        <v>144</v>
+      </c>
+      <c r="H5" s="28" t="s">
+        <v>144</v>
+      </c>
+      <c r="I5" s="28" t="s">
+        <v>144</v>
+      </c>
+      <c r="J5" s="28" t="s">
         <v>145</v>
-      </c>
-      <c r="E5" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="F5" s="28" t="s">
-        <v>147</v>
-      </c>
-      <c r="G5" s="28" t="s">
-        <v>147</v>
-      </c>
-      <c r="H5" s="28" t="s">
-        <v>147</v>
-      </c>
-      <c r="I5" s="28" t="s">
-        <v>147</v>
-      </c>
-      <c r="J5" s="28" t="s">
-        <v>148</v>
       </c>
       <c r="K5" s="28"/>
       <c r="L5" s="28"/>
@@ -1440,223 +1570,223 @@
       <c r="L6" s="28"/>
     </row>
     <row r="7" spans="1:12">
-      <c r="A7" s="30" t="s">
-        <v>188</v>
-      </c>
-      <c r="B7" s="30" t="s">
-        <v>167</v>
+      <c r="A7" s="38" t="s">
+        <v>185</v>
+      </c>
+      <c r="B7" s="38" t="s">
+        <v>164</v>
       </c>
       <c r="C7" s="27" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D7" s="23" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="E7" s="22" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="F7" s="28" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="G7" s="28" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="H7" s="28" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="I7" s="28" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="J7" s="28" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="K7" s="28"/>
       <c r="L7" s="28"/>
     </row>
     <row r="8" spans="1:12">
-      <c r="A8" s="30"/>
-      <c r="B8" s="30"/>
+      <c r="A8" s="38"/>
+      <c r="B8" s="38"/>
       <c r="C8" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="D8" s="28" t="s">
         <v>154</v>
       </c>
-      <c r="D8" s="28" t="s">
-        <v>157</v>
-      </c>
       <c r="E8" s="22" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="F8" s="28" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="G8" s="28" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="H8" s="28" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="I8" s="28" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="J8" s="28" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="K8" s="28"/>
       <c r="L8" s="28"/>
     </row>
     <row r="9" spans="1:12">
-      <c r="A9" s="30"/>
-      <c r="B9" s="30"/>
+      <c r="A9" s="38"/>
+      <c r="B9" s="38"/>
       <c r="C9" s="27" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D9" s="28" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="E9" s="22" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="F9" s="28" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="G9" s="28" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="H9" s="28" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="I9" s="28" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="J9" s="28" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="K9" s="28"/>
       <c r="L9" s="28"/>
     </row>
     <row r="10" spans="1:12">
-      <c r="A10" s="30"/>
-      <c r="B10" s="30"/>
+      <c r="A10" s="38"/>
+      <c r="B10" s="38"/>
       <c r="C10" s="27" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D10" s="28" t="s">
+        <v>156</v>
+      </c>
+      <c r="E10" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="F10" s="28" t="s">
+        <v>144</v>
+      </c>
+      <c r="G10" s="28" t="s">
+        <v>144</v>
+      </c>
+      <c r="H10" s="28" t="s">
+        <v>144</v>
+      </c>
+      <c r="I10" s="28" t="s">
+        <v>144</v>
+      </c>
+      <c r="J10" s="28" t="s">
         <v>159</v>
-      </c>
-      <c r="E10" s="22" t="s">
-        <v>152</v>
-      </c>
-      <c r="F10" s="28" t="s">
-        <v>147</v>
-      </c>
-      <c r="G10" s="28" t="s">
-        <v>147</v>
-      </c>
-      <c r="H10" s="28" t="s">
-        <v>147</v>
-      </c>
-      <c r="I10" s="28" t="s">
-        <v>147</v>
-      </c>
-      <c r="J10" s="28" t="s">
-        <v>162</v>
       </c>
       <c r="K10" s="28"/>
       <c r="L10" s="28"/>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="29" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B11" s="29" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C11" s="27" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D11" s="28" t="s">
+        <v>157</v>
+      </c>
+      <c r="E11" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="F11" s="28" t="s">
+        <v>144</v>
+      </c>
+      <c r="G11" s="28" t="s">
+        <v>144</v>
+      </c>
+      <c r="H11" s="28" t="s">
+        <v>144</v>
+      </c>
+      <c r="I11" s="28" t="s">
+        <v>144</v>
+      </c>
+      <c r="J11" s="28" t="s">
         <v>160</v>
-      </c>
-      <c r="E11" s="22" t="s">
-        <v>54</v>
-      </c>
-      <c r="F11" s="28" t="s">
-        <v>147</v>
-      </c>
-      <c r="G11" s="28" t="s">
-        <v>147</v>
-      </c>
-      <c r="H11" s="28" t="s">
-        <v>147</v>
-      </c>
-      <c r="I11" s="28" t="s">
-        <v>147</v>
-      </c>
-      <c r="J11" s="28" t="s">
-        <v>163</v>
       </c>
       <c r="K11" s="28"/>
       <c r="L11" s="28"/>
     </row>
     <row r="12" spans="1:12">
-      <c r="A12" s="30" t="s">
-        <v>187</v>
-      </c>
-      <c r="B12" s="30" t="s">
-        <v>166</v>
+      <c r="A12" s="38" t="s">
+        <v>184</v>
+      </c>
+      <c r="B12" s="38" t="s">
+        <v>163</v>
       </c>
       <c r="C12" s="27" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D12" s="28" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="E12" s="22" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F12" s="28" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="G12" s="28" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="H12" s="28" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="I12" s="28" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="J12" s="28" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="K12" s="28"/>
       <c r="L12" s="28"/>
     </row>
     <row r="13" spans="1:12">
-      <c r="A13" s="30"/>
-      <c r="B13" s="30"/>
+      <c r="A13" s="38"/>
+      <c r="B13" s="38"/>
       <c r="C13" s="27" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D13" s="28" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="E13" s="22" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="F13" s="28" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="G13" s="28" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="H13" s="28" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="I13" s="28" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="J13" s="28" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="K13" s="28"/>
       <c r="L13" s="28"/>
@@ -1676,185 +1806,185 @@
       <c r="L14" s="28"/>
     </row>
     <row r="15" spans="1:12">
-      <c r="A15" s="30" t="s">
-        <v>189</v>
-      </c>
-      <c r="B15" s="30" t="s">
-        <v>171</v>
+      <c r="A15" s="38" t="s">
+        <v>186</v>
+      </c>
+      <c r="B15" s="38" t="s">
+        <v>168</v>
       </c>
       <c r="C15" s="27" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D15" s="28" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="E15" s="22" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F15" s="28" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="G15" s="28" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="H15" s="28" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="I15" s="28" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="J15" s="28" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="K15" s="28"/>
       <c r="L15" s="28"/>
     </row>
     <row r="16" spans="1:12">
-      <c r="A16" s="30"/>
-      <c r="B16" s="30"/>
+      <c r="A16" s="38"/>
+      <c r="B16" s="38"/>
       <c r="C16" s="27" t="s">
+        <v>167</v>
+      </c>
+      <c r="D16" s="28" t="s">
         <v>170</v>
       </c>
-      <c r="D16" s="28" t="s">
-        <v>173</v>
-      </c>
       <c r="E16" s="22" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F16" s="28" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="G16" s="28" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="H16" s="28" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="I16" s="28" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="J16" s="28" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="K16" s="28"/>
       <c r="L16" s="28"/>
     </row>
     <row r="17" spans="1:12">
-      <c r="A17" s="30"/>
-      <c r="B17" s="30"/>
+      <c r="A17" s="38"/>
+      <c r="B17" s="38"/>
       <c r="C17" s="27" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D17" s="28" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="E17" s="22" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F17" s="28" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="G17" s="28" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="H17" s="28" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="I17" s="28" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="J17" s="28" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="K17" s="28"/>
       <c r="L17" s="28"/>
     </row>
     <row r="18" spans="1:12">
-      <c r="A18" s="30"/>
-      <c r="B18" s="30"/>
+      <c r="A18" s="38"/>
+      <c r="B18" s="38"/>
       <c r="C18" s="27" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D18" s="28" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="E18" s="22" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F18" s="28" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="G18" s="28" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="H18" s="28" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="I18" s="28" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="J18" s="28" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="K18" s="28"/>
       <c r="L18" s="28"/>
     </row>
     <row r="19" spans="1:12">
-      <c r="A19" s="30"/>
-      <c r="B19" s="30"/>
+      <c r="A19" s="38"/>
+      <c r="B19" s="38"/>
       <c r="C19" s="27" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D19" s="28" t="s">
+        <v>173</v>
+      </c>
+      <c r="E19" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="F19" s="28" t="s">
+        <v>144</v>
+      </c>
+      <c r="G19" s="28" t="s">
+        <v>144</v>
+      </c>
+      <c r="H19" s="28" t="s">
+        <v>144</v>
+      </c>
+      <c r="I19" s="28" t="s">
+        <v>144</v>
+      </c>
+      <c r="J19" s="28" t="s">
         <v>176</v>
-      </c>
-      <c r="E19" s="22" t="s">
-        <v>78</v>
-      </c>
-      <c r="F19" s="28" t="s">
-        <v>147</v>
-      </c>
-      <c r="G19" s="28" t="s">
-        <v>147</v>
-      </c>
-      <c r="H19" s="28" t="s">
-        <v>147</v>
-      </c>
-      <c r="I19" s="28" t="s">
-        <v>147</v>
-      </c>
-      <c r="J19" s="28" t="s">
-        <v>179</v>
       </c>
       <c r="K19" s="28"/>
       <c r="L19" s="28"/>
     </row>
     <row r="20" spans="1:12">
-      <c r="A20" s="30"/>
-      <c r="B20" s="30"/>
+      <c r="A20" s="38"/>
+      <c r="B20" s="38"/>
       <c r="C20" s="27" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D20" s="28" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="E20" s="22" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F20" s="28" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="G20" s="28" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="H20" s="28" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="I20" s="28" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="J20" s="28" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="K20" s="28"/>
       <c r="L20" s="28"/>
@@ -1874,155 +2004,155 @@
       <c r="L21" s="28"/>
     </row>
     <row r="22" spans="1:12">
-      <c r="A22" s="30" t="s">
-        <v>189</v>
-      </c>
-      <c r="B22" s="30" t="s">
-        <v>193</v>
+      <c r="A22" s="38" t="s">
+        <v>186</v>
+      </c>
+      <c r="B22" s="38" t="s">
+        <v>190</v>
       </c>
       <c r="C22" s="27" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D22" s="28" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="E22" s="22" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F22" s="28" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="G22" s="28" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="H22" s="28" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="I22" s="28" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="J22" s="28" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="K22" s="28"/>
       <c r="L22" s="28"/>
     </row>
     <row r="23" spans="1:12">
-      <c r="A23" s="30"/>
-      <c r="B23" s="30"/>
+      <c r="A23" s="38"/>
+      <c r="B23" s="38"/>
       <c r="C23" s="27" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D23" s="28" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="E23" s="22" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F23" s="28" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="G23" s="28" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="H23" s="28" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="I23" s="28" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="J23" s="28" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="K23" s="28"/>
       <c r="L23" s="28"/>
     </row>
     <row r="24" spans="1:12">
-      <c r="A24" s="30"/>
-      <c r="B24" s="30"/>
+      <c r="A24" s="38"/>
+      <c r="B24" s="38"/>
       <c r="C24" s="27" t="s">
+        <v>177</v>
+      </c>
+      <c r="D24" s="28" t="s">
         <v>180</v>
       </c>
-      <c r="D24" s="28" t="s">
+      <c r="E24" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="F24" s="28" t="s">
+        <v>144</v>
+      </c>
+      <c r="G24" s="28" t="s">
+        <v>144</v>
+      </c>
+      <c r="H24" s="28" t="s">
+        <v>144</v>
+      </c>
+      <c r="I24" s="28" t="s">
+        <v>144</v>
+      </c>
+      <c r="J24" s="28" t="s">
         <v>183</v>
-      </c>
-      <c r="E24" s="22" t="s">
-        <v>85</v>
-      </c>
-      <c r="F24" s="28" t="s">
-        <v>147</v>
-      </c>
-      <c r="G24" s="28" t="s">
-        <v>147</v>
-      </c>
-      <c r="H24" s="28" t="s">
-        <v>147</v>
-      </c>
-      <c r="I24" s="28" t="s">
-        <v>147</v>
-      </c>
-      <c r="J24" s="28" t="s">
-        <v>186</v>
       </c>
       <c r="K24" s="28"/>
       <c r="L24" s="28"/>
     </row>
     <row r="25" spans="1:12">
-      <c r="A25" s="30"/>
-      <c r="B25" s="30"/>
+      <c r="A25" s="38"/>
+      <c r="B25" s="38"/>
       <c r="C25" s="27" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D25" s="28" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="E25" s="22" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F25" s="28" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="G25" s="28" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="H25" s="28" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="I25" s="28" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="J25" s="28" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="K25" s="28"/>
       <c r="L25" s="28"/>
     </row>
     <row r="26" spans="1:12">
-      <c r="A26" s="30"/>
-      <c r="B26" s="30"/>
+      <c r="A26" s="38"/>
+      <c r="B26" s="38"/>
       <c r="C26" s="27" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D26" s="28" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="E26" s="22" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F26" s="28" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="G26" s="28" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="H26" s="28" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="I26" s="28" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="J26" s="28" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="K26" s="28"/>
       <c r="L26" s="28"/>
@@ -2042,191 +2172,470 @@
       <c r="L27" s="28"/>
     </row>
     <row r="28" spans="1:12">
-      <c r="A28" s="30" t="s">
+      <c r="A28" s="38" t="s">
+        <v>188</v>
+      </c>
+      <c r="B28" s="38" t="s">
+        <v>189</v>
+      </c>
+      <c r="C28" s="27" t="s">
+        <v>187</v>
+      </c>
+      <c r="D28" s="28" t="s">
         <v>191</v>
       </c>
-      <c r="B28" s="30" t="s">
-        <v>192</v>
-      </c>
-      <c r="C28" s="27" t="s">
-        <v>190</v>
-      </c>
-      <c r="D28" s="28" t="s">
-        <v>194</v>
-      </c>
       <c r="E28" s="22" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F28" s="28" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="G28" s="28" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="H28" s="28" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="I28" s="28" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="J28" s="28" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="K28" s="28"/>
       <c r="L28" s="28"/>
     </row>
     <row r="29" spans="1:12">
-      <c r="A29" s="30"/>
-      <c r="B29" s="30"/>
+      <c r="A29" s="38"/>
+      <c r="B29" s="38"/>
       <c r="C29" s="27" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="D29" s="28" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="E29" s="22" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F29" s="28" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="G29" s="28" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="H29" s="28" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="I29" s="28" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="J29" s="28" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="K29" s="28"/>
       <c r="L29" s="28"/>
     </row>
     <row r="30" spans="1:12">
-      <c r="A30" s="30"/>
-      <c r="B30" s="30"/>
+      <c r="A30" s="38"/>
+      <c r="B30" s="38"/>
       <c r="C30" s="27" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="D30" s="28" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="E30" s="22" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F30" s="28" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="G30" s="28" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="H30" s="28" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="I30" s="28" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="J30" s="28" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="K30" s="28"/>
       <c r="L30" s="28"/>
     </row>
     <row r="31" spans="1:12">
-      <c r="A31" s="30"/>
-      <c r="B31" s="30"/>
+      <c r="A31" s="38"/>
+      <c r="B31" s="38"/>
       <c r="C31" s="27" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="D31" s="28" t="s">
+        <v>194</v>
+      </c>
+      <c r="E31" s="22" t="s">
+        <v>120</v>
+      </c>
+      <c r="F31" s="28" t="s">
+        <v>144</v>
+      </c>
+      <c r="G31" s="28" t="s">
+        <v>144</v>
+      </c>
+      <c r="H31" s="28" t="s">
+        <v>144</v>
+      </c>
+      <c r="I31" s="28" t="s">
+        <v>144</v>
+      </c>
+      <c r="J31" s="28" t="s">
         <v>197</v>
-      </c>
-      <c r="E31" s="22" t="s">
-        <v>122</v>
-      </c>
-      <c r="F31" s="28" t="s">
-        <v>147</v>
-      </c>
-      <c r="G31" s="28" t="s">
-        <v>147</v>
-      </c>
-      <c r="H31" s="28" t="s">
-        <v>147</v>
-      </c>
-      <c r="I31" s="28" t="s">
-        <v>147</v>
-      </c>
-      <c r="J31" s="28" t="s">
-        <v>200</v>
       </c>
       <c r="K31" s="28"/>
       <c r="L31" s="28"/>
     </row>
     <row r="32" spans="1:12">
-      <c r="A32" s="30"/>
-      <c r="B32" s="30"/>
+      <c r="A32" s="38"/>
+      <c r="B32" s="38"/>
       <c r="C32" s="27" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="D32" s="28" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="E32" s="22" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F32" s="28" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="G32" s="28" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="H32" s="28" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="I32" s="28" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="J32" s="28" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="K32" s="28"/>
       <c r="L32" s="28"/>
     </row>
     <row r="33" spans="1:12">
-      <c r="A33" s="30"/>
-      <c r="B33" s="30"/>
+      <c r="A33" s="38"/>
+      <c r="B33" s="38"/>
       <c r="C33" s="27" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="D33" s="28" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="E33" s="22" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="F33" s="28" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="G33" s="28" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="H33" s="28" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="I33" s="28" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="J33" s="28" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="K33" s="28"/>
       <c r="L33" s="28"/>
     </row>
+    <row r="34" spans="1:12">
+      <c r="A34" s="30"/>
+      <c r="B34" s="30"/>
+      <c r="C34" s="28"/>
+      <c r="D34" s="28"/>
+      <c r="E34" s="28"/>
+      <c r="F34" s="28"/>
+      <c r="G34" s="28"/>
+      <c r="H34" s="28"/>
+      <c r="I34" s="28"/>
+      <c r="J34" s="28"/>
+    </row>
+    <row r="35" spans="1:12">
+      <c r="A35" s="38" t="s">
+        <v>237</v>
+      </c>
+      <c r="B35" s="38" t="s">
+        <v>190</v>
+      </c>
+      <c r="C35" s="27" t="s">
+        <v>236</v>
+      </c>
+      <c r="D35" s="28" t="s">
+        <v>247</v>
+      </c>
+      <c r="E35" s="34" t="s">
+        <v>202</v>
+      </c>
+      <c r="F35" s="28" t="s">
+        <v>144</v>
+      </c>
+      <c r="G35" s="28" t="s">
+        <v>144</v>
+      </c>
+      <c r="H35" s="28" t="s">
+        <v>144</v>
+      </c>
+      <c r="I35" s="28" t="s">
+        <v>144</v>
+      </c>
+      <c r="J35" s="35" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12">
+      <c r="A36" s="38"/>
+      <c r="B36" s="38"/>
+      <c r="C36" s="27" t="s">
+        <v>236</v>
+      </c>
+      <c r="D36" s="28" t="s">
+        <v>179</v>
+      </c>
+      <c r="E36" s="34" t="s">
+        <v>204</v>
+      </c>
+      <c r="F36" s="28" t="s">
+        <v>144</v>
+      </c>
+      <c r="G36" s="28" t="s">
+        <v>144</v>
+      </c>
+      <c r="H36" s="28" t="s">
+        <v>144</v>
+      </c>
+      <c r="I36" s="28" t="s">
+        <v>144</v>
+      </c>
+      <c r="J36" s="35" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12">
+      <c r="A37" s="38"/>
+      <c r="B37" s="38"/>
+      <c r="C37" s="27" t="s">
+        <v>236</v>
+      </c>
+      <c r="D37" s="28" t="s">
+        <v>180</v>
+      </c>
+      <c r="E37" s="34" t="s">
+        <v>206</v>
+      </c>
+      <c r="F37" s="28" t="s">
+        <v>144</v>
+      </c>
+      <c r="G37" s="28" t="s">
+        <v>144</v>
+      </c>
+      <c r="H37" s="28" t="s">
+        <v>144</v>
+      </c>
+      <c r="I37" s="28" t="s">
+        <v>144</v>
+      </c>
+      <c r="J37" s="35" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12">
+      <c r="A38" s="38"/>
+      <c r="B38" s="38"/>
+      <c r="C38" s="27" t="s">
+        <v>236</v>
+      </c>
+      <c r="D38" s="28" t="s">
+        <v>248</v>
+      </c>
+      <c r="E38" s="34" t="s">
+        <v>207</v>
+      </c>
+      <c r="F38" s="28" t="s">
+        <v>144</v>
+      </c>
+      <c r="G38" s="28" t="s">
+        <v>144</v>
+      </c>
+      <c r="H38" s="28" t="s">
+        <v>144</v>
+      </c>
+      <c r="I38" s="28" t="s">
+        <v>144</v>
+      </c>
+      <c r="J38" s="35" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12">
+      <c r="A39" s="38"/>
+      <c r="B39" s="38"/>
+      <c r="C39" s="27" t="s">
+        <v>236</v>
+      </c>
+      <c r="D39" s="28" t="s">
+        <v>249</v>
+      </c>
+      <c r="E39" s="34" t="s">
+        <v>208</v>
+      </c>
+      <c r="F39" s="28" t="s">
+        <v>144</v>
+      </c>
+      <c r="G39" s="28" t="s">
+        <v>144</v>
+      </c>
+      <c r="H39" s="28" t="s">
+        <v>144</v>
+      </c>
+      <c r="I39" s="28" t="s">
+        <v>144</v>
+      </c>
+      <c r="J39" s="35" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12">
+      <c r="A40" s="30"/>
+      <c r="B40" s="30"/>
+      <c r="C40" s="28"/>
+      <c r="D40" s="28"/>
+      <c r="E40" s="28"/>
+      <c r="F40" s="28"/>
+      <c r="G40" s="28"/>
+      <c r="H40" s="28"/>
+      <c r="I40" s="28"/>
+      <c r="J40" s="28"/>
+    </row>
+    <row r="41" spans="1:12">
+      <c r="A41" s="38" t="s">
+        <v>245</v>
+      </c>
+      <c r="B41" s="38" t="s">
+        <v>246</v>
+      </c>
+      <c r="C41" s="27" t="s">
+        <v>239</v>
+      </c>
+      <c r="D41" s="28" t="s">
+        <v>250</v>
+      </c>
+      <c r="E41" s="37" t="s">
+        <v>240</v>
+      </c>
+      <c r="F41" s="28"/>
+      <c r="G41" s="28"/>
+      <c r="H41" s="28"/>
+      <c r="I41" s="28"/>
+      <c r="J41" s="28" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12">
+      <c r="A42" s="38"/>
+      <c r="B42" s="38"/>
+      <c r="C42" s="27" t="s">
+        <v>239</v>
+      </c>
+      <c r="D42" s="28" t="s">
+        <v>251</v>
+      </c>
+      <c r="E42" s="37" t="s">
+        <v>241</v>
+      </c>
+      <c r="F42" s="28"/>
+      <c r="G42" s="28"/>
+      <c r="H42" s="28"/>
+      <c r="I42" s="28"/>
+      <c r="J42" s="28" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12">
+      <c r="A43" s="38"/>
+      <c r="B43" s="38"/>
+      <c r="C43" s="27" t="s">
+        <v>239</v>
+      </c>
+      <c r="D43" s="28" t="s">
+        <v>252</v>
+      </c>
+      <c r="E43" s="37" t="s">
+        <v>242</v>
+      </c>
+      <c r="F43" s="28"/>
+      <c r="G43" s="28"/>
+      <c r="H43" s="28"/>
+      <c r="I43" s="28"/>
+      <c r="J43" s="28" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12">
+      <c r="A44" s="38"/>
+      <c r="B44" s="38"/>
+      <c r="C44" s="27" t="s">
+        <v>239</v>
+      </c>
+      <c r="D44" s="28" t="s">
+        <v>139</v>
+      </c>
+      <c r="E44" s="37" t="s">
+        <v>243</v>
+      </c>
+      <c r="F44" s="28"/>
+      <c r="G44" s="28"/>
+      <c r="H44" s="28"/>
+      <c r="I44" s="28"/>
+      <c r="J44" s="28" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12">
+      <c r="A45" s="38"/>
+      <c r="B45" s="38"/>
+      <c r="C45" s="27" t="s">
+        <v>239</v>
+      </c>
+      <c r="D45" s="28" t="s">
+        <v>140</v>
+      </c>
+      <c r="E45" s="37" t="s">
+        <v>244</v>
+      </c>
+      <c r="F45" s="28"/>
+      <c r="G45" s="28"/>
+      <c r="H45" s="28"/>
+      <c r="I45" s="28"/>
+      <c r="J45" s="28" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12">
+      <c r="C46" s="36"/>
+    </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="16">
+    <mergeCell ref="A35:A39"/>
+    <mergeCell ref="B35:B39"/>
+    <mergeCell ref="A41:A45"/>
+    <mergeCell ref="B41:B45"/>
     <mergeCell ref="B2:B5"/>
     <mergeCell ref="A2:A5"/>
     <mergeCell ref="B7:B10"/>
@@ -2245,12 +2654,207 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:K6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="15.44140625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="18.33203125" style="5" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="5"/>
+    <col min="4" max="4" width="13" style="5" customWidth="1"/>
+    <col min="5" max="5" width="18.44140625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="14.109375" style="5" customWidth="1"/>
+    <col min="7" max="7" width="13" style="5" customWidth="1"/>
+    <col min="8" max="8" width="13.77734375" style="5" customWidth="1"/>
+    <col min="9" max="9" width="13.6640625" style="5" customWidth="1"/>
+    <col min="10" max="10" width="11.33203125" style="5" customWidth="1"/>
+    <col min="11" max="11" width="15.88671875" style="5" customWidth="1"/>
+    <col min="12" max="16384" width="8.88671875" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="A1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="10" t="s">
+        <v>240</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>254</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="10" t="s">
+        <v>241</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="10" t="s">
+        <v>242</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>256</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="10" t="s">
+        <v>257</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>258</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2258,7 +2862,7 @@
     <col min="1" max="1" width="19.33203125" style="5" customWidth="1"/>
     <col min="2" max="2" width="16.44140625" style="5" customWidth="1"/>
     <col min="3" max="3" width="13.6640625" style="5" customWidth="1"/>
-    <col min="4" max="4" width="22.33203125" style="5" customWidth="1"/>
+    <col min="4" max="4" width="26.77734375" style="5" customWidth="1"/>
     <col min="5" max="16384" width="8.88671875" style="5"/>
   </cols>
   <sheetData>
@@ -2273,7 +2877,7 @@
         <v>1</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -2287,7 +2891,7 @@
         <v>5</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>125</v>
+        <v>263</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -2295,13 +2899,13 @@
         <v>6</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -2309,44 +2913,58 @@
         <v>7</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="8" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="8" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>202</v>
+        <v>199</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="8" t="s">
+        <v>264</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>261</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -2362,6 +2980,7 @@
     <hyperlink ref="C3" r:id="rId2"/>
     <hyperlink ref="C5" r:id="rId3"/>
     <hyperlink ref="C6" r:id="rId4"/>
+    <hyperlink ref="C7" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2369,31 +2988,30 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N8"/>
+  <dimension ref="A1:M8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1:K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="15.33203125" customWidth="1"/>
     <col min="2" max="2" width="20.21875" customWidth="1"/>
-    <col min="3" max="3" width="12.33203125" style="5" customWidth="1"/>
-    <col min="4" max="4" width="9.5546875" style="5" customWidth="1"/>
-    <col min="5" max="5" width="13.21875" style="5" customWidth="1"/>
-    <col min="6" max="6" width="12.88671875" style="5" customWidth="1"/>
-    <col min="7" max="7" width="15.44140625" style="5" customWidth="1"/>
-    <col min="8" max="8" width="14.5546875" style="5" customWidth="1"/>
-    <col min="9" max="9" width="16" style="5" customWidth="1"/>
-    <col min="10" max="10" width="15.109375" customWidth="1"/>
-    <col min="11" max="11" width="17.77734375" customWidth="1"/>
-    <col min="12" max="12" width="19.21875" customWidth="1"/>
-    <col min="13" max="13" width="16.44140625" customWidth="1"/>
-    <col min="14" max="14" width="14.33203125" customWidth="1"/>
+    <col min="3" max="3" width="9.5546875" style="5" customWidth="1"/>
+    <col min="4" max="4" width="13.21875" style="5" customWidth="1"/>
+    <col min="5" max="5" width="12.88671875" style="5" customWidth="1"/>
+    <col min="6" max="6" width="15.44140625" style="5" customWidth="1"/>
+    <col min="7" max="7" width="14.5546875" style="5" customWidth="1"/>
+    <col min="8" max="8" width="16" style="5" customWidth="1"/>
+    <col min="9" max="9" width="15.109375" customWidth="1"/>
+    <col min="10" max="10" width="17.77734375" customWidth="1"/>
+    <col min="11" max="11" width="19.21875" customWidth="1"/>
+    <col min="12" max="12" width="16.44140625" customWidth="1"/>
+    <col min="13" max="13" width="14.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
@@ -2404,52 +3022,47 @@
         <v>11</v>
       </c>
       <c r="D1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="J1" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="K1" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="L1" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="M1" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="N1" s="6" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14">
-      <c r="A2" s="2" t="s">
-        <v>14</v>
-      </c>
       <c r="B2" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>124</v>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="D2" s="4"/>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
@@ -2459,139 +3072,126 @@
       <c r="K2" s="4"/>
       <c r="L2" s="4"/>
       <c r="M2" s="4"/>
-      <c r="N2" s="4"/>
-    </row>
-    <row r="3" spans="1:14">
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G3" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="H3" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>25</v>
-      </c>
+      <c r="I3" s="4"/>
       <c r="J3" s="4"/>
       <c r="K3" s="4"/>
       <c r="L3" s="4"/>
       <c r="M3" s="4"/>
-      <c r="N3" s="4"/>
-    </row>
-    <row r="4" spans="1:14">
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4" t="s">
-        <v>25</v>
-      </c>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="J4" s="4"/>
       <c r="K4" s="4"/>
       <c r="L4" s="4"/>
       <c r="M4" s="4"/>
-      <c r="N4" s="4"/>
-    </row>
-    <row r="5" spans="1:14">
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>124</v>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="D5" s="4"/>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
+      <c r="J5" s="4" t="s">
+        <v>47</v>
+      </c>
       <c r="K5" s="4" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="L5" s="4" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="M5" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="N5" s="4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>13</v>
+        <v>122</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
+      </c>
+      <c r="E6" s="4">
+        <v>100000</v>
       </c>
       <c r="F6" s="4">
-        <v>100000</v>
+        <v>15</v>
       </c>
       <c r="G6" s="4">
-        <v>15</v>
+        <v>8000</v>
       </c>
       <c r="H6" s="4">
-        <v>8000</v>
-      </c>
-      <c r="I6" s="4">
         <v>14</v>
       </c>
+      <c r="I6" s="4"/>
       <c r="J6" s="4"/>
       <c r="K6" s="4"/>
       <c r="L6" s="4"/>
       <c r="M6" s="4"/>
-      <c r="N6" s="4"/>
-    </row>
-    <row r="7" spans="1:14">
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="4"/>
@@ -2605,9 +3205,8 @@
       <c r="K7" s="4"/>
       <c r="L7" s="4"/>
       <c r="M7" s="4"/>
-      <c r="N7" s="4"/>
-    </row>
-    <row r="8" spans="1:14">
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="4"/>
@@ -2621,7 +3220,6 @@
       <c r="K8" s="4"/>
       <c r="L8" s="4"/>
       <c r="M8" s="4"/>
-      <c r="N8" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2655,58 +3253,58 @@
         <v>9</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="B2" s="10" t="s">
-        <v>38</v>
-      </c>
       <c r="C2" s="4" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="10" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E3" s="4"/>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="10" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B4" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>43</v>
-      </c>
       <c r="E4" s="4" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -2745,48 +3343,48 @@
         <v>9</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D1" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>57</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="10" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D2" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="G2" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="H2" s="12" t="s">
         <v>61</v>
-      </c>
-      <c r="F2" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="G2" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="H2" s="12" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -2847,73 +3445,73 @@
         <v>9</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="10" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="10" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="B4" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="B4" s="10" t="s">
-        <v>74</v>
-      </c>
       <c r="C4" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="B5" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="B5" s="10" t="s">
-        <v>75</v>
-      </c>
       <c r="C5" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="10" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="10" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -2955,91 +3553,91 @@
         <v>9</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D1" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="F1" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="G1" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="H1" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="I1" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="J1" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="I1" s="13" t="s">
+      <c r="K1" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="J1" s="13" t="s">
+      <c r="L1" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="K1" s="13" t="s">
+      <c r="M1" s="13" t="s">
         <v>95</v>
-      </c>
-      <c r="L1" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="M1" s="13" t="s">
-        <v>97</v>
       </c>
       <c r="N1" s="13"/>
       <c r="O1" s="13"/>
     </row>
     <row r="2" spans="1:15">
       <c r="A2" s="10" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D2" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="G2" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="E2" s="12" t="s">
-        <v>98</v>
-      </c>
-      <c r="F2" s="12" t="s">
+      <c r="H2" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="I2" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="H2" s="12" t="s">
+      <c r="J2" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="I2" s="12" t="s">
+      <c r="K2" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="J2" s="12" t="s">
+      <c r="L2" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="K2" s="12" t="s">
+      <c r="M2" s="12" t="s">
         <v>104</v>
-      </c>
-      <c r="L2" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="M2" s="12" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="10" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D3" s="12"/>
       <c r="E3" s="12"/>
@@ -3054,13 +3652,13 @@
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="10" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D4" s="12"/>
       <c r="E4" s="12"/>
@@ -3075,13 +3673,13 @@
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="10" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D5" s="12"/>
       <c r="E5" s="12"/>
@@ -3096,13 +3694,13 @@
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="10" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D6" s="12"/>
       <c r="E6" s="12"/>
@@ -3143,73 +3741,73 @@
         <v>9</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>113</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>114</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="10" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="10" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="10" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="10" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="10" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
   </sheetData>
@@ -3221,7 +3819,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:V6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="K1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="P14" sqref="P14"/>
     </sheetView>
   </sheetViews>
@@ -3259,114 +3857,114 @@
         <v>9</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D1" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="F1" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="G1" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="H1" s="13" t="s">
+        <v>212</v>
+      </c>
+      <c r="I1" s="13" t="s">
+        <v>213</v>
+      </c>
+      <c r="J1" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="K1" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="H1" s="13" t="s">
-        <v>215</v>
-      </c>
-      <c r="I1" s="13" t="s">
+      <c r="L1" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="M1" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="N1" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="O1" s="13" t="s">
         <v>216</v>
       </c>
-      <c r="J1" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="K1" s="13" t="s">
-        <v>93</v>
-      </c>
-      <c r="L1" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="M1" s="13" t="s">
+      <c r="P1" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="N1" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="O1" s="13" t="s">
-        <v>219</v>
-      </c>
-      <c r="P1" s="13" t="s">
-        <v>97</v>
-      </c>
       <c r="Q1" s="13" t="s">
+        <v>226</v>
+      </c>
+      <c r="R1" s="13" t="s">
+        <v>227</v>
+      </c>
+      <c r="S1" s="13" t="s">
+        <v>228</v>
+      </c>
+      <c r="T1" s="13" t="s">
+        <v>232</v>
+      </c>
+      <c r="U1" s="13" t="s">
         <v>229</v>
       </c>
-      <c r="R1" s="13" t="s">
+      <c r="V1" s="31" t="s">
         <v>230</v>
-      </c>
-      <c r="S1" s="13" t="s">
-        <v>231</v>
-      </c>
-      <c r="T1" s="13" t="s">
-        <v>235</v>
-      </c>
-      <c r="U1" s="13" t="s">
-        <v>232</v>
-      </c>
-      <c r="V1" s="31" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="2" spans="1:22" s="5" customFormat="1">
       <c r="A2" s="10" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C2" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>221</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>222</v>
+      </c>
+      <c r="H2" s="12" t="s">
         <v>223</v>
       </c>
-      <c r="D2" s="12" t="s">
-        <v>98</v>
-      </c>
-      <c r="E2" s="12" t="s">
-        <v>98</v>
-      </c>
-      <c r="F2" s="12" t="s">
+      <c r="I2" s="12" t="s">
+        <v>214</v>
+      </c>
+      <c r="J2" s="12" t="s">
         <v>224</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="K2" s="12" t="s">
+        <v>219</v>
+      </c>
+      <c r="L2" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="M2" s="12" t="s">
         <v>225</v>
       </c>
-      <c r="H2" s="12" t="s">
-        <v>226</v>
-      </c>
-      <c r="I2" s="12" t="s">
+      <c r="N2" s="12" t="s">
+        <v>218</v>
+      </c>
+      <c r="O2" s="12" t="s">
+        <v>215</v>
+      </c>
+      <c r="P2" s="12" t="s">
         <v>217</v>
-      </c>
-      <c r="J2" s="12" t="s">
-        <v>227</v>
-      </c>
-      <c r="K2" s="12" t="s">
-        <v>222</v>
-      </c>
-      <c r="L2" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="M2" s="12" t="s">
-        <v>228</v>
-      </c>
-      <c r="N2" s="12" t="s">
-        <v>221</v>
-      </c>
-      <c r="O2" s="12" t="s">
-        <v>218</v>
-      </c>
-      <c r="P2" s="12" t="s">
-        <v>220</v>
       </c>
       <c r="Q2" s="12"/>
       <c r="R2" s="12"/>
@@ -3377,13 +3975,13 @@
     </row>
     <row r="3" spans="1:22" s="5" customFormat="1">
       <c r="A3" s="10" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="D3" s="12"/>
       <c r="E3" s="12"/>
@@ -3407,13 +4005,13 @@
     </row>
     <row r="4" spans="1:22" s="5" customFormat="1">
       <c r="A4" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="B4" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="B4" s="10" t="s">
-        <v>212</v>
-      </c>
       <c r="C4" s="4" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="D4" s="12"/>
       <c r="E4" s="12"/>
@@ -3437,52 +4035,52 @@
     </row>
     <row r="5" spans="1:22" s="5" customFormat="1">
       <c r="A5" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="B5" s="10" t="s">
         <v>210</v>
       </c>
-      <c r="B5" s="10" t="s">
-        <v>213</v>
-      </c>
       <c r="C5" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>221</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>222</v>
+      </c>
+      <c r="H5" s="12" t="s">
         <v>223</v>
       </c>
-      <c r="D5" s="12" t="s">
-        <v>98</v>
-      </c>
-      <c r="E5" s="12" t="s">
-        <v>98</v>
-      </c>
-      <c r="F5" s="12" t="s">
+      <c r="I5" s="12" t="s">
+        <v>214</v>
+      </c>
+      <c r="J5" s="12" t="s">
         <v>224</v>
       </c>
-      <c r="G5" s="12" t="s">
+      <c r="K5" s="12" t="s">
+        <v>219</v>
+      </c>
+      <c r="L5" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="M5" s="12" t="s">
         <v>225</v>
       </c>
-      <c r="H5" s="12" t="s">
-        <v>226</v>
-      </c>
-      <c r="I5" s="12" t="s">
+      <c r="N5" s="12" t="s">
+        <v>218</v>
+      </c>
+      <c r="O5" s="12" t="s">
+        <v>215</v>
+      </c>
+      <c r="P5" s="12" t="s">
         <v>217</v>
-      </c>
-      <c r="J5" s="12" t="s">
-        <v>227</v>
-      </c>
-      <c r="K5" s="12" t="s">
-        <v>222</v>
-      </c>
-      <c r="L5" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="M5" s="12" t="s">
-        <v>228</v>
-      </c>
-      <c r="N5" s="12" t="s">
-        <v>221</v>
-      </c>
-      <c r="O5" s="12" t="s">
-        <v>218</v>
-      </c>
-      <c r="P5" s="12" t="s">
-        <v>220</v>
       </c>
       <c r="Q5" s="12"/>
       <c r="R5" s="12"/>
@@ -3493,13 +4091,13 @@
     </row>
     <row r="6" spans="1:22" s="5" customFormat="1">
       <c r="A6" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="B6" s="10" t="s">
         <v>211</v>
       </c>
-      <c r="B6" s="10" t="s">
-        <v>214</v>
-      </c>
       <c r="C6" s="4" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="D6" s="12"/>
       <c r="E6" s="12"/>
@@ -3515,22 +4113,22 @@
       <c r="O6" s="12"/>
       <c r="P6" s="12"/>
       <c r="Q6" s="12" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="R6" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="S6" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="T6" s="12" t="s">
+        <v>233</v>
+      </c>
+      <c r="U6" s="12" t="s">
         <v>234</v>
       </c>
-      <c r="S6" s="12" t="s">
-        <v>104</v>
-      </c>
-      <c r="T6" s="12" t="s">
-        <v>236</v>
-      </c>
-      <c r="U6" s="12" t="s">
-        <v>237</v>
-      </c>
       <c r="V6" s="32" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
     </row>
   </sheetData>

--- a/KULS_Sankar/TestData/ijaraTestData.xlsx
+++ b/KULS_Sankar/TestData/ijaraTestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="72" windowWidth="23256" windowHeight="12600" firstSheet="5" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="72" windowWidth="23256" windowHeight="12600" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="AllFeaturesAutomationInfo" sheetId="8" r:id="rId1"/>
@@ -17,13 +17,14 @@
     <sheet name="Offering_OfferDetails" sheetId="7" r:id="rId8"/>
     <sheet name="ContractSign_AppDetails" sheetId="9" r:id="rId9"/>
     <sheet name="Murabaha_AppData_CFDebt" sheetId="10" r:id="rId10"/>
+    <sheet name="Murabaha_DataCheck_AppDetails" sheetId="11" r:id="rId11"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="610" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="671" uniqueCount="302">
   <si>
     <t>UserName</t>
   </si>
@@ -796,9 +797,6 @@
     <t>DS_AT_MCUD_03</t>
   </si>
   <si>
-    <t>AT_MCUD_04</t>
-  </si>
-  <si>
     <t>DS_AT_MCUD_05</t>
   </si>
   <si>
@@ -854,6 +852,84 @@
   </si>
   <si>
     <t>1250000</t>
+  </si>
+  <si>
+    <t>AT_MCUD_07</t>
+  </si>
+  <si>
+    <t>AT_MCUD_08</t>
+  </si>
+  <si>
+    <t>AT_MCUD_11</t>
+  </si>
+  <si>
+    <t>AT_MCUD_12</t>
+  </si>
+  <si>
+    <t>Sprint - 66</t>
+  </si>
+  <si>
+    <t>MURABAHA - App Data Check</t>
+  </si>
+  <si>
+    <t>Application Details Screen</t>
+  </si>
+  <si>
+    <t>DS_AT_MCUD_07</t>
+  </si>
+  <si>
+    <t>DS_AT_MCUD_08</t>
+  </si>
+  <si>
+    <t>DS_AT_MCUD_11</t>
+  </si>
+  <si>
+    <t>DS_AT_MCUD_12</t>
+  </si>
+  <si>
+    <t>INR</t>
+  </si>
+  <si>
+    <t>AT_MU_AD_01</t>
+  </si>
+  <si>
+    <t>AT_MU_AD_02</t>
+  </si>
+  <si>
+    <t>AT_MU_AD_03</t>
+  </si>
+  <si>
+    <t>AT_MU_AD_04</t>
+  </si>
+  <si>
+    <t>AT_MU_AD_05</t>
+  </si>
+  <si>
+    <t>userType07</t>
+  </si>
+  <si>
+    <t>0323</t>
+  </si>
+  <si>
+    <t>Murabaha -- App Data Check</t>
+  </si>
+  <si>
+    <t>DS_AT_MU_AD_01</t>
+  </si>
+  <si>
+    <t>DS_AT_MU_AD_02</t>
+  </si>
+  <si>
+    <t>DS_AT_MU_AD_03</t>
+  </si>
+  <si>
+    <t>DS_AT_MU_AD_04</t>
+  </si>
+  <si>
+    <t>DS_AT_MU_AD_05</t>
+  </si>
+  <si>
+    <t>3546</t>
   </si>
 </sst>
 </file>
@@ -959,7 +1035,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -993,6 +1069,32 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1002,7 +1104,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1050,7 +1152,6 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1069,11 +1170,41 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Excel_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_" xfId="2"/>
@@ -1370,18 +1501,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L46"/>
+  <dimension ref="A1:L55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D49" sqref="D49"/>
+      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D52" sqref="D52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="27.44140625" style="25" customWidth="1"/>
-    <col min="2" max="2" width="22.21875" style="25" customWidth="1"/>
-    <col min="3" max="3" width="13.21875" customWidth="1"/>
+    <col min="2" max="2" width="23.44140625" style="25" customWidth="1"/>
+    <col min="3" max="3" width="13.21875" style="45" customWidth="1"/>
     <col min="4" max="4" width="33.5546875" customWidth="1"/>
     <col min="5" max="5" width="19.5546875" customWidth="1"/>
     <col min="6" max="6" width="11.5546875" customWidth="1"/>
@@ -1400,7 +1531,7 @@
       <c r="B1" s="24" t="s">
         <v>161</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="24" t="s">
         <v>130</v>
       </c>
       <c r="D1" s="26" t="s">
@@ -1432,151 +1563,145 @@
       </c>
     </row>
     <row r="2" spans="1:12">
-      <c r="A2" s="38" t="s">
+      <c r="A2" s="37" t="s">
         <v>184</v>
       </c>
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="37" t="s">
         <v>246</v>
       </c>
-      <c r="C2" s="27" t="s">
+      <c r="C2" s="42" t="s">
         <v>138</v>
       </c>
-      <c r="D2" s="28" t="s">
+      <c r="D2" s="27" t="s">
         <v>143</v>
       </c>
       <c r="E2" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="28" t="s">
-        <v>144</v>
-      </c>
-      <c r="G2" s="28" t="s">
-        <v>144</v>
-      </c>
-      <c r="H2" s="28" t="s">
-        <v>144</v>
-      </c>
-      <c r="I2" s="28" t="s">
-        <v>144</v>
-      </c>
-      <c r="J2" s="28" t="s">
+      <c r="F2" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="G2" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="H2" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="I2" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="J2" s="27" t="s">
         <v>145</v>
       </c>
-      <c r="K2" s="28"/>
-      <c r="L2" s="28"/>
+      <c r="K2" s="27"/>
+      <c r="L2" s="27"/>
     </row>
     <row r="3" spans="1:12">
-      <c r="A3" s="38"/>
-      <c r="B3" s="38"/>
-      <c r="C3" s="27" t="s">
-        <v>138</v>
-      </c>
-      <c r="D3" s="28" t="s">
+      <c r="A3" s="37"/>
+      <c r="B3" s="37"/>
+      <c r="C3" s="43"/>
+      <c r="D3" s="27" t="s">
         <v>139</v>
       </c>
       <c r="E3" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="F3" s="28" t="s">
-        <v>144</v>
-      </c>
-      <c r="G3" s="28" t="s">
-        <v>144</v>
-      </c>
-      <c r="H3" s="28" t="s">
-        <v>144</v>
-      </c>
-      <c r="I3" s="28" t="s">
-        <v>144</v>
-      </c>
-      <c r="J3" s="28" t="s">
+      <c r="F3" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="G3" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="H3" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="I3" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="J3" s="27" t="s">
         <v>145</v>
       </c>
-      <c r="K3" s="28"/>
-      <c r="L3" s="28"/>
+      <c r="K3" s="27"/>
+      <c r="L3" s="27"/>
     </row>
     <row r="4" spans="1:12">
-      <c r="A4" s="38"/>
-      <c r="B4" s="38"/>
-      <c r="C4" s="27" t="s">
-        <v>138</v>
-      </c>
-      <c r="D4" s="28" t="s">
+      <c r="A4" s="37"/>
+      <c r="B4" s="37"/>
+      <c r="C4" s="43"/>
+      <c r="D4" s="27" t="s">
         <v>140</v>
       </c>
       <c r="E4" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="F4" s="28" t="s">
-        <v>144</v>
-      </c>
-      <c r="G4" s="28" t="s">
-        <v>144</v>
-      </c>
-      <c r="H4" s="28" t="s">
-        <v>144</v>
-      </c>
-      <c r="I4" s="28" t="s">
-        <v>144</v>
-      </c>
-      <c r="J4" s="28" t="s">
+      <c r="F4" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="G4" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="H4" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="I4" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="J4" s="27" t="s">
         <v>145</v>
       </c>
-      <c r="K4" s="28"/>
-      <c r="L4" s="28"/>
+      <c r="K4" s="27"/>
+      <c r="L4" s="27"/>
     </row>
     <row r="5" spans="1:12">
-      <c r="A5" s="38"/>
-      <c r="B5" s="38"/>
-      <c r="C5" s="27" t="s">
-        <v>138</v>
-      </c>
-      <c r="D5" s="28" t="s">
+      <c r="A5" s="37"/>
+      <c r="B5" s="37"/>
+      <c r="C5" s="44"/>
+      <c r="D5" s="27" t="s">
         <v>142</v>
       </c>
       <c r="E5" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="28" t="s">
-        <v>144</v>
-      </c>
-      <c r="G5" s="28" t="s">
-        <v>144</v>
-      </c>
-      <c r="H5" s="28" t="s">
-        <v>144</v>
-      </c>
-      <c r="I5" s="28" t="s">
-        <v>144</v>
-      </c>
-      <c r="J5" s="28" t="s">
+      <c r="F5" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="G5" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="H5" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="I5" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="J5" s="27" t="s">
         <v>145</v>
       </c>
-      <c r="K5" s="28"/>
-      <c r="L5" s="28"/>
+      <c r="K5" s="27"/>
+      <c r="L5" s="27"/>
     </row>
     <row r="6" spans="1:12">
-      <c r="A6" s="29"/>
-      <c r="B6" s="29"/>
-      <c r="C6" s="28"/>
-      <c r="D6" s="28"/>
-      <c r="E6" s="28"/>
-      <c r="F6" s="28"/>
-      <c r="G6" s="28"/>
-      <c r="H6" s="28"/>
-      <c r="I6" s="28"/>
-      <c r="J6" s="28"/>
-      <c r="K6" s="28"/>
-      <c r="L6" s="28"/>
+      <c r="A6" s="28"/>
+      <c r="B6" s="28"/>
+      <c r="C6" s="41"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="27"/>
+      <c r="G6" s="27"/>
+      <c r="H6" s="27"/>
+      <c r="I6" s="27"/>
+      <c r="J6" s="27"/>
+      <c r="K6" s="27"/>
+      <c r="L6" s="27"/>
     </row>
     <row r="7" spans="1:12">
-      <c r="A7" s="38" t="s">
+      <c r="A7" s="37" t="s">
         <v>185</v>
       </c>
-      <c r="B7" s="38" t="s">
+      <c r="B7" s="37" t="s">
         <v>164</v>
       </c>
-      <c r="C7" s="27" t="s">
+      <c r="C7" s="42" t="s">
         <v>151</v>
       </c>
       <c r="D7" s="23" t="s">
@@ -1585,1057 +1710,1223 @@
       <c r="E7" s="22" t="s">
         <v>146</v>
       </c>
-      <c r="F7" s="28" t="s">
-        <v>144</v>
-      </c>
-      <c r="G7" s="28" t="s">
-        <v>144</v>
-      </c>
-      <c r="H7" s="28" t="s">
-        <v>144</v>
-      </c>
-      <c r="I7" s="28" t="s">
-        <v>144</v>
-      </c>
-      <c r="J7" s="28" t="s">
+      <c r="F7" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="G7" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="H7" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="I7" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="J7" s="27" t="s">
         <v>159</v>
       </c>
-      <c r="K7" s="28"/>
-      <c r="L7" s="28"/>
+      <c r="K7" s="27"/>
+      <c r="L7" s="27"/>
     </row>
     <row r="8" spans="1:12">
-      <c r="A8" s="38"/>
-      <c r="B8" s="38"/>
-      <c r="C8" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="D8" s="28" t="s">
+      <c r="A8" s="37"/>
+      <c r="B8" s="37"/>
+      <c r="C8" s="43"/>
+      <c r="D8" s="27" t="s">
         <v>154</v>
       </c>
       <c r="E8" s="22" t="s">
         <v>147</v>
       </c>
-      <c r="F8" s="28" t="s">
-        <v>144</v>
-      </c>
-      <c r="G8" s="28" t="s">
-        <v>144</v>
-      </c>
-      <c r="H8" s="28" t="s">
-        <v>144</v>
-      </c>
-      <c r="I8" s="28" t="s">
-        <v>144</v>
-      </c>
-      <c r="J8" s="28" t="s">
+      <c r="F8" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="G8" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="H8" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="I8" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="J8" s="27" t="s">
         <v>159</v>
       </c>
-      <c r="K8" s="28"/>
-      <c r="L8" s="28"/>
+      <c r="K8" s="27"/>
+      <c r="L8" s="27"/>
     </row>
     <row r="9" spans="1:12">
-      <c r="A9" s="38"/>
-      <c r="B9" s="38"/>
-      <c r="C9" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="D9" s="28" t="s">
+      <c r="A9" s="37"/>
+      <c r="B9" s="37"/>
+      <c r="C9" s="43"/>
+      <c r="D9" s="27" t="s">
         <v>155</v>
       </c>
       <c r="E9" s="22" t="s">
         <v>148</v>
       </c>
-      <c r="F9" s="28" t="s">
-        <v>144</v>
-      </c>
-      <c r="G9" s="28" t="s">
-        <v>144</v>
-      </c>
-      <c r="H9" s="28" t="s">
-        <v>144</v>
-      </c>
-      <c r="I9" s="28" t="s">
-        <v>144</v>
-      </c>
-      <c r="J9" s="28" t="s">
+      <c r="F9" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="G9" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="H9" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="I9" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="J9" s="27" t="s">
         <v>159</v>
       </c>
-      <c r="K9" s="28"/>
-      <c r="L9" s="28"/>
+      <c r="K9" s="27"/>
+      <c r="L9" s="27"/>
     </row>
     <row r="10" spans="1:12">
-      <c r="A10" s="38"/>
-      <c r="B10" s="38"/>
-      <c r="C10" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="D10" s="28" t="s">
+      <c r="A10" s="37"/>
+      <c r="B10" s="37"/>
+      <c r="C10" s="43"/>
+      <c r="D10" s="27" t="s">
         <v>156</v>
       </c>
       <c r="E10" s="22" t="s">
         <v>149</v>
       </c>
-      <c r="F10" s="28" t="s">
-        <v>144</v>
-      </c>
-      <c r="G10" s="28" t="s">
-        <v>144</v>
-      </c>
-      <c r="H10" s="28" t="s">
-        <v>144</v>
-      </c>
-      <c r="I10" s="28" t="s">
-        <v>144</v>
-      </c>
-      <c r="J10" s="28" t="s">
+      <c r="F10" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="G10" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="H10" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="I10" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="J10" s="27" t="s">
         <v>159</v>
       </c>
-      <c r="K10" s="28"/>
-      <c r="L10" s="28"/>
+      <c r="K10" s="27"/>
+      <c r="L10" s="27"/>
     </row>
     <row r="11" spans="1:12">
-      <c r="A11" s="29" t="s">
+      <c r="A11" s="28" t="s">
         <v>165</v>
       </c>
-      <c r="B11" s="29" t="s">
+      <c r="B11" s="28" t="s">
         <v>166</v>
       </c>
-      <c r="C11" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="D11" s="28" t="s">
+      <c r="C11" s="43"/>
+      <c r="D11" s="27" t="s">
         <v>157</v>
       </c>
       <c r="E11" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="F11" s="28" t="s">
-        <v>144</v>
-      </c>
-      <c r="G11" s="28" t="s">
-        <v>144</v>
-      </c>
-      <c r="H11" s="28" t="s">
-        <v>144</v>
-      </c>
-      <c r="I11" s="28" t="s">
-        <v>144</v>
-      </c>
-      <c r="J11" s="28" t="s">
+      <c r="F11" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="G11" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="H11" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="I11" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="J11" s="27" t="s">
         <v>160</v>
       </c>
-      <c r="K11" s="28"/>
-      <c r="L11" s="28"/>
+      <c r="K11" s="27"/>
+      <c r="L11" s="27"/>
     </row>
     <row r="12" spans="1:12">
-      <c r="A12" s="38" t="s">
+      <c r="A12" s="37" t="s">
         <v>184</v>
       </c>
-      <c r="B12" s="38" t="s">
+      <c r="B12" s="37" t="s">
         <v>163</v>
       </c>
-      <c r="C12" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="D12" s="28" t="s">
+      <c r="C12" s="43"/>
+      <c r="D12" s="27" t="s">
         <v>141</v>
       </c>
       <c r="E12" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="F12" s="28" t="s">
-        <v>144</v>
-      </c>
-      <c r="G12" s="28" t="s">
-        <v>144</v>
-      </c>
-      <c r="H12" s="28" t="s">
-        <v>144</v>
-      </c>
-      <c r="I12" s="28" t="s">
-        <v>144</v>
-      </c>
-      <c r="J12" s="28" t="s">
+      <c r="F12" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="G12" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="H12" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="I12" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="J12" s="27" t="s">
         <v>145</v>
       </c>
-      <c r="K12" s="28"/>
-      <c r="L12" s="28"/>
+      <c r="K12" s="27"/>
+      <c r="L12" s="27"/>
     </row>
     <row r="13" spans="1:12">
-      <c r="A13" s="38"/>
-      <c r="B13" s="38"/>
-      <c r="C13" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="D13" s="28" t="s">
+      <c r="A13" s="37"/>
+      <c r="B13" s="37"/>
+      <c r="C13" s="44"/>
+      <c r="D13" s="27" t="s">
         <v>158</v>
       </c>
       <c r="E13" s="22" t="s">
         <v>150</v>
       </c>
-      <c r="F13" s="28" t="s">
-        <v>144</v>
-      </c>
-      <c r="G13" s="28" t="s">
-        <v>144</v>
-      </c>
-      <c r="H13" s="28" t="s">
-        <v>144</v>
-      </c>
-      <c r="I13" s="28" t="s">
-        <v>144</v>
-      </c>
-      <c r="J13" s="28" t="s">
+      <c r="F13" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="G13" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="H13" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="I13" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="J13" s="27" t="s">
         <v>145</v>
       </c>
-      <c r="K13" s="28"/>
-      <c r="L13" s="28"/>
+      <c r="K13" s="27"/>
+      <c r="L13" s="27"/>
     </row>
     <row r="14" spans="1:12">
-      <c r="A14" s="29"/>
-      <c r="B14" s="29"/>
-      <c r="C14" s="28"/>
-      <c r="D14" s="28"/>
-      <c r="E14" s="28"/>
-      <c r="F14" s="28"/>
-      <c r="G14" s="28"/>
-      <c r="H14" s="28"/>
-      <c r="I14" s="28"/>
-      <c r="J14" s="28"/>
-      <c r="K14" s="28"/>
-      <c r="L14" s="28"/>
+      <c r="A14" s="28"/>
+      <c r="B14" s="28"/>
+      <c r="C14" s="41"/>
+      <c r="D14" s="27"/>
+      <c r="E14" s="27"/>
+      <c r="F14" s="27"/>
+      <c r="G14" s="27"/>
+      <c r="H14" s="27"/>
+      <c r="I14" s="27"/>
+      <c r="J14" s="27"/>
+      <c r="K14" s="27"/>
+      <c r="L14" s="27"/>
     </row>
     <row r="15" spans="1:12">
-      <c r="A15" s="38" t="s">
+      <c r="A15" s="37" t="s">
         <v>186</v>
       </c>
-      <c r="B15" s="38" t="s">
+      <c r="B15" s="37" t="s">
         <v>168</v>
       </c>
-      <c r="C15" s="27" t="s">
+      <c r="C15" s="42" t="s">
         <v>167</v>
       </c>
-      <c r="D15" s="28" t="s">
+      <c r="D15" s="27" t="s">
         <v>169</v>
       </c>
       <c r="E15" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="F15" s="28" t="s">
-        <v>144</v>
-      </c>
-      <c r="G15" s="28" t="s">
-        <v>144</v>
-      </c>
-      <c r="H15" s="28" t="s">
-        <v>144</v>
-      </c>
-      <c r="I15" s="28" t="s">
-        <v>144</v>
-      </c>
-      <c r="J15" s="28" t="s">
+      <c r="F15" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="G15" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="H15" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="I15" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="J15" s="27" t="s">
         <v>176</v>
       </c>
-      <c r="K15" s="28"/>
-      <c r="L15" s="28"/>
+      <c r="K15" s="27"/>
+      <c r="L15" s="27"/>
     </row>
     <row r="16" spans="1:12">
-      <c r="A16" s="38"/>
-      <c r="B16" s="38"/>
-      <c r="C16" s="27" t="s">
-        <v>167</v>
-      </c>
-      <c r="D16" s="28" t="s">
+      <c r="A16" s="37"/>
+      <c r="B16" s="37"/>
+      <c r="C16" s="43"/>
+      <c r="D16" s="27" t="s">
         <v>170</v>
       </c>
       <c r="E16" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="F16" s="28" t="s">
-        <v>144</v>
-      </c>
-      <c r="G16" s="28" t="s">
-        <v>144</v>
-      </c>
-      <c r="H16" s="28" t="s">
-        <v>144</v>
-      </c>
-      <c r="I16" s="28" t="s">
-        <v>144</v>
-      </c>
-      <c r="J16" s="28" t="s">
+      <c r="F16" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="G16" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="H16" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="I16" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="J16" s="27" t="s">
         <v>176</v>
       </c>
-      <c r="K16" s="28"/>
-      <c r="L16" s="28"/>
+      <c r="K16" s="27"/>
+      <c r="L16" s="27"/>
     </row>
     <row r="17" spans="1:12">
-      <c r="A17" s="38"/>
-      <c r="B17" s="38"/>
-      <c r="C17" s="27" t="s">
-        <v>167</v>
-      </c>
-      <c r="D17" s="28" t="s">
+      <c r="A17" s="37"/>
+      <c r="B17" s="37"/>
+      <c r="C17" s="43"/>
+      <c r="D17" s="27" t="s">
         <v>171</v>
       </c>
       <c r="E17" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="F17" s="28" t="s">
-        <v>144</v>
-      </c>
-      <c r="G17" s="28" t="s">
-        <v>144</v>
-      </c>
-      <c r="H17" s="28" t="s">
-        <v>144</v>
-      </c>
-      <c r="I17" s="28" t="s">
-        <v>144</v>
-      </c>
-      <c r="J17" s="28" t="s">
+      <c r="F17" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="G17" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="H17" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="I17" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="J17" s="27" t="s">
         <v>176</v>
       </c>
-      <c r="K17" s="28"/>
-      <c r="L17" s="28"/>
+      <c r="K17" s="27"/>
+      <c r="L17" s="27"/>
     </row>
     <row r="18" spans="1:12">
-      <c r="A18" s="38"/>
-      <c r="B18" s="38"/>
-      <c r="C18" s="27" t="s">
-        <v>167</v>
-      </c>
-      <c r="D18" s="28" t="s">
+      <c r="A18" s="37"/>
+      <c r="B18" s="37"/>
+      <c r="C18" s="43"/>
+      <c r="D18" s="27" t="s">
         <v>172</v>
       </c>
       <c r="E18" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="F18" s="28" t="s">
-        <v>144</v>
-      </c>
-      <c r="G18" s="28" t="s">
-        <v>144</v>
-      </c>
-      <c r="H18" s="28" t="s">
-        <v>144</v>
-      </c>
-      <c r="I18" s="28" t="s">
-        <v>144</v>
-      </c>
-      <c r="J18" s="28" t="s">
+      <c r="F18" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="G18" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="H18" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="I18" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="J18" s="27" t="s">
         <v>176</v>
       </c>
-      <c r="K18" s="28"/>
-      <c r="L18" s="28"/>
+      <c r="K18" s="27"/>
+      <c r="L18" s="27"/>
     </row>
     <row r="19" spans="1:12">
-      <c r="A19" s="38"/>
-      <c r="B19" s="38"/>
-      <c r="C19" s="27" t="s">
-        <v>167</v>
-      </c>
-      <c r="D19" s="28" t="s">
+      <c r="A19" s="37"/>
+      <c r="B19" s="37"/>
+      <c r="C19" s="43"/>
+      <c r="D19" s="27" t="s">
         <v>173</v>
       </c>
       <c r="E19" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="F19" s="28" t="s">
-        <v>144</v>
-      </c>
-      <c r="G19" s="28" t="s">
-        <v>144</v>
-      </c>
-      <c r="H19" s="28" t="s">
-        <v>144</v>
-      </c>
-      <c r="I19" s="28" t="s">
-        <v>144</v>
-      </c>
-      <c r="J19" s="28" t="s">
+      <c r="F19" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="G19" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="H19" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="I19" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="J19" s="27" t="s">
         <v>176</v>
       </c>
-      <c r="K19" s="28"/>
-      <c r="L19" s="28"/>
+      <c r="K19" s="27"/>
+      <c r="L19" s="27"/>
     </row>
     <row r="20" spans="1:12">
-      <c r="A20" s="38"/>
-      <c r="B20" s="38"/>
-      <c r="C20" s="27" t="s">
-        <v>167</v>
-      </c>
-      <c r="D20" s="28" t="s">
+      <c r="A20" s="37"/>
+      <c r="B20" s="37"/>
+      <c r="C20" s="44"/>
+      <c r="D20" s="27" t="s">
         <v>174</v>
       </c>
       <c r="E20" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="F20" s="28" t="s">
-        <v>144</v>
-      </c>
-      <c r="G20" s="28" t="s">
-        <v>144</v>
-      </c>
-      <c r="H20" s="28" t="s">
-        <v>144</v>
-      </c>
-      <c r="I20" s="28" t="s">
-        <v>144</v>
-      </c>
-      <c r="J20" s="28" t="s">
+      <c r="F20" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="G20" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="H20" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="I20" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="J20" s="27" t="s">
         <v>176</v>
       </c>
-      <c r="K20" s="28"/>
-      <c r="L20" s="28"/>
+      <c r="K20" s="27"/>
+      <c r="L20" s="27"/>
     </row>
     <row r="21" spans="1:12">
-      <c r="A21" s="29"/>
-      <c r="B21" s="29"/>
-      <c r="C21" s="28"/>
-      <c r="D21" s="28"/>
-      <c r="E21" s="28"/>
-      <c r="F21" s="28"/>
-      <c r="G21" s="28"/>
-      <c r="H21" s="28"/>
-      <c r="I21" s="28"/>
-      <c r="J21" s="28"/>
-      <c r="K21" s="28"/>
-      <c r="L21" s="28"/>
+      <c r="A21" s="28"/>
+      <c r="B21" s="28"/>
+      <c r="C21" s="41"/>
+      <c r="D21" s="27"/>
+      <c r="E21" s="27"/>
+      <c r="F21" s="27"/>
+      <c r="G21" s="27"/>
+      <c r="H21" s="27"/>
+      <c r="I21" s="27"/>
+      <c r="J21" s="27"/>
+      <c r="K21" s="27"/>
+      <c r="L21" s="27"/>
     </row>
     <row r="22" spans="1:12">
-      <c r="A22" s="38" t="s">
+      <c r="A22" s="37" t="s">
         <v>186</v>
       </c>
-      <c r="B22" s="38" t="s">
+      <c r="B22" s="37" t="s">
         <v>190</v>
       </c>
-      <c r="C22" s="27" t="s">
+      <c r="C22" s="42" t="s">
         <v>177</v>
       </c>
-      <c r="D22" s="28" t="s">
+      <c r="D22" s="27" t="s">
         <v>178</v>
       </c>
       <c r="E22" s="22" t="s">
         <v>78</v>
       </c>
-      <c r="F22" s="28" t="s">
-        <v>144</v>
-      </c>
-      <c r="G22" s="28" t="s">
-        <v>144</v>
-      </c>
-      <c r="H22" s="28" t="s">
-        <v>144</v>
-      </c>
-      <c r="I22" s="28" t="s">
-        <v>144</v>
-      </c>
-      <c r="J22" s="28" t="s">
+      <c r="F22" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="G22" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="H22" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="I22" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="J22" s="27" t="s">
         <v>183</v>
       </c>
-      <c r="K22" s="28"/>
-      <c r="L22" s="28"/>
+      <c r="K22" s="27"/>
+      <c r="L22" s="27"/>
     </row>
     <row r="23" spans="1:12">
-      <c r="A23" s="38"/>
-      <c r="B23" s="38"/>
-      <c r="C23" s="27" t="s">
-        <v>177</v>
-      </c>
-      <c r="D23" s="28" t="s">
+      <c r="A23" s="37"/>
+      <c r="B23" s="37"/>
+      <c r="C23" s="43"/>
+      <c r="D23" s="27" t="s">
         <v>179</v>
       </c>
       <c r="E23" s="22" t="s">
         <v>82</v>
       </c>
-      <c r="F23" s="28" t="s">
-        <v>144</v>
-      </c>
-      <c r="G23" s="28" t="s">
-        <v>144</v>
-      </c>
-      <c r="H23" s="28" t="s">
-        <v>144</v>
-      </c>
-      <c r="I23" s="28" t="s">
-        <v>144</v>
-      </c>
-      <c r="J23" s="28" t="s">
+      <c r="F23" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="G23" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="H23" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="I23" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="J23" s="27" t="s">
         <v>183</v>
       </c>
-      <c r="K23" s="28"/>
-      <c r="L23" s="28"/>
+      <c r="K23" s="27"/>
+      <c r="L23" s="27"/>
     </row>
     <row r="24" spans="1:12">
-      <c r="A24" s="38"/>
-      <c r="B24" s="38"/>
-      <c r="C24" s="27" t="s">
-        <v>177</v>
-      </c>
-      <c r="D24" s="28" t="s">
+      <c r="A24" s="37"/>
+      <c r="B24" s="37"/>
+      <c r="C24" s="43"/>
+      <c r="D24" s="27" t="s">
         <v>180</v>
       </c>
       <c r="E24" s="22" t="s">
         <v>83</v>
       </c>
-      <c r="F24" s="28" t="s">
-        <v>144</v>
-      </c>
-      <c r="G24" s="28" t="s">
-        <v>144</v>
-      </c>
-      <c r="H24" s="28" t="s">
-        <v>144</v>
-      </c>
-      <c r="I24" s="28" t="s">
-        <v>144</v>
-      </c>
-      <c r="J24" s="28" t="s">
+      <c r="F24" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="G24" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="H24" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="I24" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="J24" s="27" t="s">
         <v>183</v>
       </c>
-      <c r="K24" s="28"/>
-      <c r="L24" s="28"/>
+      <c r="K24" s="27"/>
+      <c r="L24" s="27"/>
     </row>
     <row r="25" spans="1:12">
-      <c r="A25" s="38"/>
-      <c r="B25" s="38"/>
-      <c r="C25" s="27" t="s">
-        <v>177</v>
-      </c>
-      <c r="D25" s="28" t="s">
+      <c r="A25" s="37"/>
+      <c r="B25" s="37"/>
+      <c r="C25" s="43"/>
+      <c r="D25" s="27" t="s">
         <v>181</v>
       </c>
       <c r="E25" s="22" t="s">
         <v>85</v>
       </c>
-      <c r="F25" s="28" t="s">
-        <v>144</v>
-      </c>
-      <c r="G25" s="28" t="s">
-        <v>144</v>
-      </c>
-      <c r="H25" s="28" t="s">
-        <v>144</v>
-      </c>
-      <c r="I25" s="28" t="s">
-        <v>144</v>
-      </c>
-      <c r="J25" s="28" t="s">
+      <c r="F25" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="G25" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="H25" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="I25" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="J25" s="27" t="s">
         <v>183</v>
       </c>
-      <c r="K25" s="28"/>
-      <c r="L25" s="28"/>
+      <c r="K25" s="27"/>
+      <c r="L25" s="27"/>
     </row>
     <row r="26" spans="1:12">
-      <c r="A26" s="38"/>
-      <c r="B26" s="38"/>
-      <c r="C26" s="27" t="s">
-        <v>177</v>
-      </c>
-      <c r="D26" s="28" t="s">
+      <c r="A26" s="37"/>
+      <c r="B26" s="37"/>
+      <c r="C26" s="44"/>
+      <c r="D26" s="27" t="s">
         <v>182</v>
       </c>
       <c r="E26" s="22" t="s">
         <v>105</v>
       </c>
-      <c r="F26" s="28" t="s">
-        <v>144</v>
-      </c>
-      <c r="G26" s="28" t="s">
-        <v>144</v>
-      </c>
-      <c r="H26" s="28" t="s">
-        <v>144</v>
-      </c>
-      <c r="I26" s="28" t="s">
-        <v>144</v>
-      </c>
-      <c r="J26" s="28" t="s">
+      <c r="F26" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="G26" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="H26" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="I26" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="J26" s="27" t="s">
         <v>183</v>
       </c>
-      <c r="K26" s="28"/>
-      <c r="L26" s="28"/>
+      <c r="K26" s="27"/>
+      <c r="L26" s="27"/>
     </row>
     <row r="27" spans="1:12">
-      <c r="A27" s="29"/>
-      <c r="B27" s="29"/>
-      <c r="C27" s="28"/>
-      <c r="D27" s="28"/>
-      <c r="E27" s="28"/>
-      <c r="F27" s="28"/>
-      <c r="G27" s="28"/>
-      <c r="H27" s="28"/>
-      <c r="I27" s="28"/>
-      <c r="J27" s="28"/>
-      <c r="K27" s="28"/>
-      <c r="L27" s="28"/>
+      <c r="A27" s="28"/>
+      <c r="B27" s="28"/>
+      <c r="C27" s="41"/>
+      <c r="D27" s="27"/>
+      <c r="E27" s="27"/>
+      <c r="F27" s="27"/>
+      <c r="G27" s="27"/>
+      <c r="H27" s="27"/>
+      <c r="I27" s="27"/>
+      <c r="J27" s="27"/>
+      <c r="K27" s="27"/>
+      <c r="L27" s="27"/>
     </row>
     <row r="28" spans="1:12">
-      <c r="A28" s="38" t="s">
+      <c r="A28" s="37" t="s">
         <v>188</v>
       </c>
-      <c r="B28" s="38" t="s">
+      <c r="B28" s="37" t="s">
         <v>189</v>
       </c>
-      <c r="C28" s="27" t="s">
+      <c r="C28" s="42" t="s">
         <v>187</v>
       </c>
-      <c r="D28" s="28" t="s">
+      <c r="D28" s="27" t="s">
         <v>191</v>
       </c>
       <c r="E28" s="22" t="s">
         <v>111</v>
       </c>
-      <c r="F28" s="28" t="s">
-        <v>144</v>
-      </c>
-      <c r="G28" s="28" t="s">
-        <v>144</v>
-      </c>
-      <c r="H28" s="28" t="s">
-        <v>144</v>
-      </c>
-      <c r="I28" s="28" t="s">
-        <v>144</v>
-      </c>
-      <c r="J28" s="28" t="s">
+      <c r="F28" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="G28" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="H28" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="I28" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="J28" s="27" t="s">
         <v>197</v>
       </c>
-      <c r="K28" s="28"/>
-      <c r="L28" s="28"/>
+      <c r="K28" s="27"/>
+      <c r="L28" s="27"/>
     </row>
     <row r="29" spans="1:12">
-      <c r="A29" s="38"/>
-      <c r="B29" s="38"/>
-      <c r="C29" s="27" t="s">
-        <v>187</v>
-      </c>
-      <c r="D29" s="28" t="s">
+      <c r="A29" s="37"/>
+      <c r="B29" s="37"/>
+      <c r="C29" s="43"/>
+      <c r="D29" s="27" t="s">
         <v>192</v>
       </c>
       <c r="E29" s="22" t="s">
         <v>118</v>
       </c>
-      <c r="F29" s="28" t="s">
-        <v>144</v>
-      </c>
-      <c r="G29" s="28" t="s">
-        <v>144</v>
-      </c>
-      <c r="H29" s="28" t="s">
-        <v>144</v>
-      </c>
-      <c r="I29" s="28" t="s">
-        <v>144</v>
-      </c>
-      <c r="J29" s="28" t="s">
+      <c r="F29" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="G29" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="H29" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="I29" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="J29" s="27" t="s">
         <v>197</v>
       </c>
-      <c r="K29" s="28"/>
-      <c r="L29" s="28"/>
+      <c r="K29" s="27"/>
+      <c r="L29" s="27"/>
     </row>
     <row r="30" spans="1:12">
-      <c r="A30" s="38"/>
-      <c r="B30" s="38"/>
-      <c r="C30" s="27" t="s">
-        <v>187</v>
-      </c>
-      <c r="D30" s="28" t="s">
+      <c r="A30" s="37"/>
+      <c r="B30" s="37"/>
+      <c r="C30" s="43"/>
+      <c r="D30" s="27" t="s">
         <v>193</v>
       </c>
       <c r="E30" s="22" t="s">
         <v>119</v>
       </c>
-      <c r="F30" s="28" t="s">
-        <v>144</v>
-      </c>
-      <c r="G30" s="28" t="s">
-        <v>144</v>
-      </c>
-      <c r="H30" s="28" t="s">
-        <v>144</v>
-      </c>
-      <c r="I30" s="28" t="s">
-        <v>144</v>
-      </c>
-      <c r="J30" s="28" t="s">
+      <c r="F30" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="G30" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="H30" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="I30" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="J30" s="27" t="s">
         <v>197</v>
       </c>
-      <c r="K30" s="28"/>
-      <c r="L30" s="28"/>
+      <c r="K30" s="27"/>
+      <c r="L30" s="27"/>
     </row>
     <row r="31" spans="1:12">
-      <c r="A31" s="38"/>
-      <c r="B31" s="38"/>
-      <c r="C31" s="27" t="s">
-        <v>187</v>
-      </c>
-      <c r="D31" s="28" t="s">
+      <c r="A31" s="37"/>
+      <c r="B31" s="37"/>
+      <c r="C31" s="43"/>
+      <c r="D31" s="27" t="s">
         <v>194</v>
       </c>
       <c r="E31" s="22" t="s">
         <v>120</v>
       </c>
-      <c r="F31" s="28" t="s">
-        <v>144</v>
-      </c>
-      <c r="G31" s="28" t="s">
-        <v>144</v>
-      </c>
-      <c r="H31" s="28" t="s">
-        <v>144</v>
-      </c>
-      <c r="I31" s="28" t="s">
-        <v>144</v>
-      </c>
-      <c r="J31" s="28" t="s">
+      <c r="F31" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="G31" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="H31" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="I31" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="J31" s="27" t="s">
         <v>197</v>
       </c>
-      <c r="K31" s="28"/>
-      <c r="L31" s="28"/>
+      <c r="K31" s="27"/>
+      <c r="L31" s="27"/>
     </row>
     <row r="32" spans="1:12">
-      <c r="A32" s="38"/>
-      <c r="B32" s="38"/>
-      <c r="C32" s="27" t="s">
-        <v>187</v>
-      </c>
-      <c r="D32" s="28" t="s">
+      <c r="A32" s="37"/>
+      <c r="B32" s="37"/>
+      <c r="C32" s="43"/>
+      <c r="D32" s="27" t="s">
         <v>195</v>
       </c>
       <c r="E32" s="22" t="s">
         <v>121</v>
       </c>
-      <c r="F32" s="28" t="s">
-        <v>144</v>
-      </c>
-      <c r="G32" s="28" t="s">
-        <v>144</v>
-      </c>
-      <c r="H32" s="28" t="s">
-        <v>144</v>
-      </c>
-      <c r="I32" s="28" t="s">
-        <v>144</v>
-      </c>
-      <c r="J32" s="28" t="s">
+      <c r="F32" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="G32" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="H32" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="I32" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="J32" s="27" t="s">
         <v>197</v>
       </c>
-      <c r="K32" s="28"/>
-      <c r="L32" s="28"/>
+      <c r="K32" s="27"/>
+      <c r="L32" s="27"/>
     </row>
     <row r="33" spans="1:12">
-      <c r="A33" s="38"/>
-      <c r="B33" s="38"/>
-      <c r="C33" s="27" t="s">
-        <v>187</v>
-      </c>
-      <c r="D33" s="28" t="s">
+      <c r="A33" s="37"/>
+      <c r="B33" s="37"/>
+      <c r="C33" s="44"/>
+      <c r="D33" s="27" t="s">
         <v>196</v>
       </c>
       <c r="E33" s="22" t="s">
         <v>128</v>
       </c>
-      <c r="F33" s="28" t="s">
-        <v>144</v>
-      </c>
-      <c r="G33" s="28" t="s">
-        <v>144</v>
-      </c>
-      <c r="H33" s="28" t="s">
-        <v>144</v>
-      </c>
-      <c r="I33" s="28" t="s">
-        <v>144</v>
-      </c>
-      <c r="J33" s="28" t="s">
+      <c r="F33" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="G33" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="H33" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="I33" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="J33" s="27" t="s">
         <v>197</v>
       </c>
-      <c r="K33" s="28"/>
-      <c r="L33" s="28"/>
+      <c r="K33" s="27"/>
+      <c r="L33" s="27"/>
     </row>
     <row r="34" spans="1:12">
-      <c r="A34" s="30"/>
-      <c r="B34" s="30"/>
-      <c r="C34" s="28"/>
-      <c r="D34" s="28"/>
-      <c r="E34" s="28"/>
-      <c r="F34" s="28"/>
-      <c r="G34" s="28"/>
-      <c r="H34" s="28"/>
-      <c r="I34" s="28"/>
-      <c r="J34" s="28"/>
+      <c r="A34" s="29"/>
+      <c r="B34" s="29"/>
+      <c r="C34" s="41"/>
+      <c r="D34" s="27"/>
+      <c r="E34" s="27"/>
+      <c r="F34" s="27"/>
+      <c r="G34" s="27"/>
+      <c r="H34" s="27"/>
+      <c r="I34" s="27"/>
+      <c r="J34" s="27"/>
     </row>
     <row r="35" spans="1:12">
-      <c r="A35" s="38" t="s">
+      <c r="A35" s="37" t="s">
         <v>237</v>
       </c>
-      <c r="B35" s="38" t="s">
+      <c r="B35" s="37" t="s">
         <v>190</v>
       </c>
-      <c r="C35" s="27" t="s">
+      <c r="C35" s="42" t="s">
         <v>236</v>
       </c>
-      <c r="D35" s="28" t="s">
+      <c r="D35" s="27" t="s">
         <v>247</v>
       </c>
-      <c r="E35" s="34" t="s">
+      <c r="E35" s="33" t="s">
         <v>202</v>
       </c>
-      <c r="F35" s="28" t="s">
-        <v>144</v>
-      </c>
-      <c r="G35" s="28" t="s">
-        <v>144</v>
-      </c>
-      <c r="H35" s="28" t="s">
-        <v>144</v>
-      </c>
-      <c r="I35" s="28" t="s">
-        <v>144</v>
-      </c>
-      <c r="J35" s="35" t="s">
+      <c r="F35" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="G35" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="H35" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="I35" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="J35" s="34" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="36" spans="1:12">
-      <c r="A36" s="38"/>
-      <c r="B36" s="38"/>
-      <c r="C36" s="27" t="s">
-        <v>236</v>
-      </c>
-      <c r="D36" s="28" t="s">
+      <c r="A36" s="37"/>
+      <c r="B36" s="37"/>
+      <c r="C36" s="43"/>
+      <c r="D36" s="27" t="s">
         <v>179</v>
       </c>
-      <c r="E36" s="34" t="s">
+      <c r="E36" s="33" t="s">
         <v>204</v>
       </c>
-      <c r="F36" s="28" t="s">
-        <v>144</v>
-      </c>
-      <c r="G36" s="28" t="s">
-        <v>144</v>
-      </c>
-      <c r="H36" s="28" t="s">
-        <v>144</v>
-      </c>
-      <c r="I36" s="28" t="s">
-        <v>144</v>
-      </c>
-      <c r="J36" s="35" t="s">
+      <c r="F36" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="G36" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="H36" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="I36" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="J36" s="34" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="37" spans="1:12">
-      <c r="A37" s="38"/>
-      <c r="B37" s="38"/>
-      <c r="C37" s="27" t="s">
-        <v>236</v>
-      </c>
-      <c r="D37" s="28" t="s">
+      <c r="A37" s="37"/>
+      <c r="B37" s="37"/>
+      <c r="C37" s="43"/>
+      <c r="D37" s="27" t="s">
         <v>180</v>
       </c>
-      <c r="E37" s="34" t="s">
+      <c r="E37" s="33" t="s">
         <v>206</v>
       </c>
-      <c r="F37" s="28" t="s">
-        <v>144</v>
-      </c>
-      <c r="G37" s="28" t="s">
-        <v>144</v>
-      </c>
-      <c r="H37" s="28" t="s">
-        <v>144</v>
-      </c>
-      <c r="I37" s="28" t="s">
-        <v>144</v>
-      </c>
-      <c r="J37" s="35" t="s">
+      <c r="F37" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="G37" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="H37" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="I37" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="J37" s="34" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="38" spans="1:12">
-      <c r="A38" s="38"/>
-      <c r="B38" s="38"/>
-      <c r="C38" s="27" t="s">
-        <v>236</v>
-      </c>
-      <c r="D38" s="28" t="s">
+      <c r="A38" s="37"/>
+      <c r="B38" s="37"/>
+      <c r="C38" s="43"/>
+      <c r="D38" s="27" t="s">
         <v>248</v>
       </c>
-      <c r="E38" s="34" t="s">
+      <c r="E38" s="33" t="s">
         <v>207</v>
       </c>
-      <c r="F38" s="28" t="s">
-        <v>144</v>
-      </c>
-      <c r="G38" s="28" t="s">
-        <v>144</v>
-      </c>
-      <c r="H38" s="28" t="s">
-        <v>144</v>
-      </c>
-      <c r="I38" s="28" t="s">
-        <v>144</v>
-      </c>
-      <c r="J38" s="35" t="s">
+      <c r="F38" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="G38" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="H38" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="I38" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="J38" s="34" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="39" spans="1:12">
-      <c r="A39" s="38"/>
-      <c r="B39" s="38"/>
-      <c r="C39" s="27" t="s">
-        <v>236</v>
-      </c>
-      <c r="D39" s="28" t="s">
+      <c r="A39" s="37"/>
+      <c r="B39" s="37"/>
+      <c r="C39" s="44"/>
+      <c r="D39" s="27" t="s">
         <v>249</v>
       </c>
-      <c r="E39" s="34" t="s">
+      <c r="E39" s="33" t="s">
         <v>208</v>
       </c>
-      <c r="F39" s="28" t="s">
-        <v>144</v>
-      </c>
-      <c r="G39" s="28" t="s">
-        <v>144</v>
-      </c>
-      <c r="H39" s="28" t="s">
-        <v>144</v>
-      </c>
-      <c r="I39" s="28" t="s">
-        <v>144</v>
-      </c>
-      <c r="J39" s="35" t="s">
+      <c r="F39" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="G39" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="H39" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="I39" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="J39" s="34" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="40" spans="1:12">
-      <c r="A40" s="30"/>
-      <c r="B40" s="30"/>
-      <c r="C40" s="28"/>
-      <c r="D40" s="28"/>
-      <c r="E40" s="28"/>
-      <c r="F40" s="28"/>
-      <c r="G40" s="28"/>
-      <c r="H40" s="28"/>
-      <c r="I40" s="28"/>
-      <c r="J40" s="28"/>
+      <c r="A40" s="29"/>
+      <c r="B40" s="29"/>
+      <c r="C40" s="41"/>
+      <c r="D40" s="27"/>
+      <c r="E40" s="27"/>
+      <c r="F40" s="27"/>
+      <c r="G40" s="27"/>
+      <c r="H40" s="27"/>
+      <c r="I40" s="27"/>
+      <c r="J40" s="27"/>
     </row>
     <row r="41" spans="1:12">
-      <c r="A41" s="38" t="s">
+      <c r="A41" s="37" t="s">
         <v>245</v>
       </c>
-      <c r="B41" s="38" t="s">
+      <c r="B41" s="37" t="s">
         <v>246</v>
       </c>
-      <c r="C41" s="27" t="s">
+      <c r="C41" s="42" t="s">
         <v>239</v>
       </c>
-      <c r="D41" s="28" t="s">
+      <c r="D41" s="27" t="s">
         <v>250</v>
       </c>
-      <c r="E41" s="37" t="s">
+      <c r="E41" s="35" t="s">
         <v>240</v>
       </c>
-      <c r="F41" s="28"/>
-      <c r="G41" s="28"/>
-      <c r="H41" s="28"/>
-      <c r="I41" s="28"/>
-      <c r="J41" s="28" t="s">
+      <c r="F41" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="G41" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="H41" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="I41" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="J41" s="27" t="s">
         <v>253</v>
       </c>
     </row>
     <row r="42" spans="1:12">
-      <c r="A42" s="38"/>
-      <c r="B42" s="38"/>
-      <c r="C42" s="27" t="s">
-        <v>239</v>
-      </c>
-      <c r="D42" s="28" t="s">
+      <c r="A42" s="37"/>
+      <c r="B42" s="37"/>
+      <c r="C42" s="43"/>
+      <c r="D42" s="27" t="s">
         <v>251</v>
       </c>
-      <c r="E42" s="37" t="s">
+      <c r="E42" s="35" t="s">
         <v>241</v>
       </c>
-      <c r="F42" s="28"/>
-      <c r="G42" s="28"/>
-      <c r="H42" s="28"/>
-      <c r="I42" s="28"/>
-      <c r="J42" s="28" t="s">
+      <c r="F42" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="G42" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="H42" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="I42" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="J42" s="27" t="s">
         <v>253</v>
       </c>
     </row>
     <row r="43" spans="1:12">
-      <c r="A43" s="38"/>
-      <c r="B43" s="38"/>
-      <c r="C43" s="27" t="s">
-        <v>239</v>
-      </c>
-      <c r="D43" s="28" t="s">
+      <c r="A43" s="37"/>
+      <c r="B43" s="37"/>
+      <c r="C43" s="43"/>
+      <c r="D43" s="27" t="s">
         <v>252</v>
       </c>
-      <c r="E43" s="37" t="s">
+      <c r="E43" s="35" t="s">
         <v>242</v>
       </c>
-      <c r="F43" s="28"/>
-      <c r="G43" s="28"/>
-      <c r="H43" s="28"/>
-      <c r="I43" s="28"/>
-      <c r="J43" s="28" t="s">
+      <c r="F43" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="G43" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="H43" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="I43" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="J43" s="27" t="s">
         <v>253</v>
       </c>
     </row>
     <row r="44" spans="1:12">
-      <c r="A44" s="38"/>
-      <c r="B44" s="38"/>
-      <c r="C44" s="27" t="s">
-        <v>239</v>
-      </c>
-      <c r="D44" s="28" t="s">
+      <c r="A44" s="37"/>
+      <c r="B44" s="37"/>
+      <c r="C44" s="43"/>
+      <c r="D44" s="27" t="s">
         <v>139</v>
       </c>
-      <c r="E44" s="37" t="s">
+      <c r="E44" s="35" t="s">
         <v>243</v>
       </c>
-      <c r="F44" s="28"/>
-      <c r="G44" s="28"/>
-      <c r="H44" s="28"/>
-      <c r="I44" s="28"/>
-      <c r="J44" s="28" t="s">
+      <c r="F44" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="G44" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="H44" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="I44" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="J44" s="27" t="s">
         <v>253</v>
       </c>
     </row>
     <row r="45" spans="1:12">
-      <c r="A45" s="38"/>
-      <c r="B45" s="38"/>
-      <c r="C45" s="27" t="s">
-        <v>239</v>
-      </c>
-      <c r="D45" s="28" t="s">
+      <c r="A45" s="37"/>
+      <c r="B45" s="37"/>
+      <c r="C45" s="44"/>
+      <c r="D45" s="46" t="s">
         <v>140</v>
       </c>
-      <c r="E45" s="37" t="s">
+      <c r="E45" s="47" t="s">
         <v>244</v>
       </c>
-      <c r="F45" s="28"/>
-      <c r="G45" s="28"/>
-      <c r="H45" s="28"/>
-      <c r="I45" s="28"/>
-      <c r="J45" s="28" t="s">
+      <c r="F45" s="46" t="s">
+        <v>144</v>
+      </c>
+      <c r="G45" s="46" t="s">
+        <v>144</v>
+      </c>
+      <c r="H45" s="46" t="s">
+        <v>144</v>
+      </c>
+      <c r="I45" s="46" t="s">
+        <v>144</v>
+      </c>
+      <c r="J45" s="46" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="46" spans="1:12">
+    <row r="46" spans="1:12" s="27" customFormat="1">
+      <c r="A46" s="36"/>
+      <c r="B46" s="36"/>
       <c r="C46" s="36"/>
     </row>
+    <row r="47" spans="1:12">
+      <c r="A47" s="37" t="s">
+        <v>245</v>
+      </c>
+      <c r="B47" s="37" t="s">
+        <v>246</v>
+      </c>
+      <c r="C47" s="38" t="s">
+        <v>280</v>
+      </c>
+      <c r="D47" s="48"/>
+      <c r="E47" s="49" t="s">
+        <v>276</v>
+      </c>
+      <c r="F47" s="48" t="s">
+        <v>144</v>
+      </c>
+      <c r="G47" s="48" t="s">
+        <v>144</v>
+      </c>
+      <c r="H47" s="48" t="s">
+        <v>144</v>
+      </c>
+      <c r="I47" s="48" t="s">
+        <v>144</v>
+      </c>
+      <c r="J47" s="48" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12">
+      <c r="A48" s="37"/>
+      <c r="B48" s="37"/>
+      <c r="C48" s="39"/>
+      <c r="D48" s="27"/>
+      <c r="E48" s="35" t="s">
+        <v>277</v>
+      </c>
+      <c r="F48" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="G48" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="H48" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="I48" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="J48" s="27" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
+      <c r="A49" s="37"/>
+      <c r="B49" s="37"/>
+      <c r="C49" s="39"/>
+      <c r="D49" s="27"/>
+      <c r="E49" s="35" t="s">
+        <v>278</v>
+      </c>
+      <c r="F49" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="G49" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="H49" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="I49" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="J49" s="27" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
+      <c r="A50" s="37"/>
+      <c r="B50" s="37"/>
+      <c r="C50" s="39"/>
+      <c r="D50" s="27"/>
+      <c r="E50" s="35" t="s">
+        <v>279</v>
+      </c>
+      <c r="F50" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="G50" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="H50" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="I50" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="J50" s="27" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
+      <c r="A51" s="37" t="s">
+        <v>281</v>
+      </c>
+      <c r="B51" s="37" t="s">
+        <v>282</v>
+      </c>
+      <c r="C51" s="39"/>
+      <c r="D51" s="27"/>
+      <c r="E51" s="22" t="s">
+        <v>288</v>
+      </c>
+      <c r="F51" s="27"/>
+      <c r="G51" s="27"/>
+      <c r="H51" s="27"/>
+      <c r="I51" s="27"/>
+      <c r="J51" s="27"/>
+    </row>
+    <row r="52" spans="1:10">
+      <c r="A52" s="37"/>
+      <c r="B52" s="37"/>
+      <c r="C52" s="39"/>
+      <c r="D52" s="27"/>
+      <c r="E52" s="22" t="s">
+        <v>289</v>
+      </c>
+      <c r="F52" s="27"/>
+      <c r="G52" s="27"/>
+      <c r="H52" s="27"/>
+      <c r="I52" s="27"/>
+      <c r="J52" s="27"/>
+    </row>
+    <row r="53" spans="1:10">
+      <c r="A53" s="37"/>
+      <c r="B53" s="37"/>
+      <c r="C53" s="39"/>
+      <c r="D53" s="27"/>
+      <c r="E53" s="22" t="s">
+        <v>290</v>
+      </c>
+      <c r="F53" s="27"/>
+      <c r="G53" s="27"/>
+      <c r="H53" s="27"/>
+      <c r="I53" s="27"/>
+      <c r="J53" s="27"/>
+    </row>
+    <row r="54" spans="1:10">
+      <c r="A54" s="37"/>
+      <c r="B54" s="37"/>
+      <c r="C54" s="39"/>
+      <c r="D54" s="27"/>
+      <c r="E54" s="22" t="s">
+        <v>291</v>
+      </c>
+      <c r="F54" s="27"/>
+      <c r="G54" s="27"/>
+      <c r="H54" s="27"/>
+      <c r="I54" s="27"/>
+      <c r="J54" s="27"/>
+    </row>
+    <row r="55" spans="1:10">
+      <c r="A55" s="37"/>
+      <c r="B55" s="37"/>
+      <c r="C55" s="40"/>
+      <c r="D55" s="27"/>
+      <c r="E55" s="22" t="s">
+        <v>292</v>
+      </c>
+      <c r="F55" s="27"/>
+      <c r="G55" s="27"/>
+      <c r="H55" s="27"/>
+      <c r="I55" s="27"/>
+      <c r="J55" s="27"/>
+    </row>
   </sheetData>
-  <mergeCells count="16">
-    <mergeCell ref="A35:A39"/>
-    <mergeCell ref="B35:B39"/>
-    <mergeCell ref="A41:A45"/>
-    <mergeCell ref="B41:B45"/>
+  <mergeCells count="28">
+    <mergeCell ref="C15:C20"/>
+    <mergeCell ref="C7:C13"/>
+    <mergeCell ref="C2:C5"/>
+    <mergeCell ref="C47:C55"/>
+    <mergeCell ref="C41:C45"/>
+    <mergeCell ref="C35:C39"/>
+    <mergeCell ref="C28:C33"/>
+    <mergeCell ref="C22:C26"/>
     <mergeCell ref="B2:B5"/>
     <mergeCell ref="A2:A5"/>
     <mergeCell ref="B7:B10"/>
@@ -2648,6 +2939,14 @@
     <mergeCell ref="A15:A20"/>
     <mergeCell ref="B22:B26"/>
     <mergeCell ref="A22:A26"/>
+    <mergeCell ref="A47:A50"/>
+    <mergeCell ref="B47:B50"/>
+    <mergeCell ref="A51:A55"/>
+    <mergeCell ref="B51:B55"/>
+    <mergeCell ref="A35:A39"/>
+    <mergeCell ref="B35:B39"/>
+    <mergeCell ref="A41:A45"/>
+    <mergeCell ref="B41:B45"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2656,10 +2955,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:M10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2675,10 +2974,12 @@
     <col min="9" max="9" width="13.6640625" style="5" customWidth="1"/>
     <col min="10" max="10" width="11.33203125" style="5" customWidth="1"/>
     <col min="11" max="11" width="15.88671875" style="5" customWidth="1"/>
-    <col min="12" max="16384" width="8.88671875" style="5"/>
+    <col min="12" max="12" width="16.21875" style="5" customWidth="1"/>
+    <col min="13" max="13" width="18.77734375" style="5" customWidth="1"/>
+    <col min="14" max="16384" width="8.88671875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:13">
       <c r="A1" s="3" t="s">
         <v>8</v>
       </c>
@@ -2692,10 +2993,10 @@
         <v>10</v>
       </c>
       <c r="E1" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>266</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>267</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>15</v>
@@ -2707,13 +3008,19 @@
         <v>17</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="K1" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
+      <c r="L1" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="10" t="s">
         <v>240</v>
       </c>
@@ -2721,7 +3028,7 @@
         <v>254</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
@@ -2731,8 +3038,10 @@
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
       <c r="K2" s="4"/>
-    </row>
-    <row r="3" spans="1:11">
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="10" t="s">
         <v>241</v>
       </c>
@@ -2740,34 +3049,36 @@
         <v>255</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F3" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="G3" s="4" t="s">
         <v>272</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>273</v>
       </c>
       <c r="H3" s="4" t="s">
         <v>26</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
+        <v>267</v>
+      </c>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="10" t="s">
         <v>242</v>
       </c>
@@ -2775,7 +3086,7 @@
         <v>256</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
@@ -2785,57 +3096,61 @@
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
       <c r="K4" s="4"/>
-    </row>
-    <row r="5" spans="1:11">
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="B5" s="10" t="s">
         <v>257</v>
       </c>
-      <c r="B5" s="10" t="s">
-        <v>258</v>
-      </c>
       <c r="C5" s="4" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F5" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="G5" s="4" t="s">
         <v>272</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>273</v>
       </c>
       <c r="H5" s="4" t="s">
         <v>26</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="J5" s="4"/>
       <c r="K5" s="4" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
+        <v>268</v>
+      </c>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="10" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B6" s="10" t="s">
+        <v>258</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>259</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>260</v>
-      </c>
       <c r="D6" s="4" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
       <c r="G6" s="4" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H6" s="4"/>
       <c r="I6" s="4" t="s">
@@ -2843,6 +3158,183 @@
       </c>
       <c r="J6" s="4"/>
       <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" s="10" t="s">
+        <v>276</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>283</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" s="10" t="s">
+        <v>277</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>284</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="M8" s="4" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" s="10" t="s">
+        <v>278</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" s="10" t="s">
+        <v>279</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>286</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="16.44140625" customWidth="1"/>
+    <col min="2" max="2" width="17.109375" customWidth="1"/>
+    <col min="3" max="3" width="18.6640625" customWidth="1"/>
+    <col min="4" max="4" width="17.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="10" t="s">
+        <v>288</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>296</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="10" t="s">
+        <v>289</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>297</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="10" t="s">
+        <v>290</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>298</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="10" t="s">
+        <v>291</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>299</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="10" t="s">
+        <v>292</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>300</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>301</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2853,8 +3345,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2891,7 +3383,7 @@
         <v>5</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -2955,16 +3447,30 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="8" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>32</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>262</v>
+        <v>261</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="8" t="s">
+        <v>293</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>294</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>295</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -2981,6 +3487,7 @@
     <hyperlink ref="C5" r:id="rId3"/>
     <hyperlink ref="C6" r:id="rId4"/>
     <hyperlink ref="C7" r:id="rId5"/>
+    <hyperlink ref="C8" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3846,7 +4353,7 @@
     <col min="19" max="19" width="19.5546875" customWidth="1"/>
     <col min="20" max="20" width="13.21875" customWidth="1"/>
     <col min="21" max="21" width="13.6640625" customWidth="1"/>
-    <col min="22" max="22" width="14.44140625" style="33" customWidth="1"/>
+    <col min="22" max="22" width="14.44140625" style="32" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" s="14" customFormat="1">
@@ -3913,7 +4420,7 @@
       <c r="U1" s="13" t="s">
         <v>229</v>
       </c>
-      <c r="V1" s="31" t="s">
+      <c r="V1" s="30" t="s">
         <v>230</v>
       </c>
     </row>
@@ -3971,7 +4478,7 @@
       <c r="S2" s="12"/>
       <c r="T2" s="12"/>
       <c r="U2" s="12"/>
-      <c r="V2" s="32"/>
+      <c r="V2" s="31"/>
     </row>
     <row r="3" spans="1:22" s="5" customFormat="1">
       <c r="A3" s="10" t="s">
@@ -4001,7 +4508,7 @@
       <c r="S3" s="12"/>
       <c r="T3" s="12"/>
       <c r="U3" s="12"/>
-      <c r="V3" s="32"/>
+      <c r="V3" s="31"/>
     </row>
     <row r="4" spans="1:22" s="5" customFormat="1">
       <c r="A4" s="10" t="s">
@@ -4031,7 +4538,7 @@
       <c r="S4" s="12"/>
       <c r="T4" s="12"/>
       <c r="U4" s="12"/>
-      <c r="V4" s="32"/>
+      <c r="V4" s="31"/>
     </row>
     <row r="5" spans="1:22" s="5" customFormat="1">
       <c r="A5" s="10" t="s">
@@ -4087,7 +4594,7 @@
       <c r="S5" s="12"/>
       <c r="T5" s="12"/>
       <c r="U5" s="12"/>
-      <c r="V5" s="32"/>
+      <c r="V5" s="31"/>
     </row>
     <row r="6" spans="1:22" s="5" customFormat="1">
       <c r="A6" s="10" t="s">
@@ -4127,7 +4634,7 @@
       <c r="U6" s="12" t="s">
         <v>234</v>
       </c>
-      <c r="V6" s="32" t="s">
+      <c r="V6" s="31" t="s">
         <v>235</v>
       </c>
     </row>

--- a/KULS_Sankar/TestData/ijaraTestData.xlsx
+++ b/KULS_Sankar/TestData/ijaraTestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="72" windowWidth="23256" windowHeight="12600" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="72" windowWidth="23256" windowHeight="12600" firstSheet="8" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="AllFeaturesAutomationInfo" sheetId="8" r:id="rId1"/>
@@ -18,13 +18,14 @@
     <sheet name="ContractSign_AppDetails" sheetId="9" r:id="rId9"/>
     <sheet name="Murabaha_AppData_CFDebt" sheetId="10" r:id="rId10"/>
     <sheet name="Murabaha_DataCheck_AppDetails" sheetId="11" r:id="rId11"/>
+    <sheet name="Tawarruq_AppData_CustomerDetail" sheetId="12" r:id="rId12"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="671" uniqueCount="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="704" uniqueCount="328">
   <si>
     <t>UserName</t>
   </si>
@@ -930,6 +931,84 @@
   </si>
   <si>
     <t>3546</t>
+  </si>
+  <si>
+    <t>userType08</t>
+  </si>
+  <si>
+    <t>AT_TW_CD_02</t>
+  </si>
+  <si>
+    <t>DS_AT_TW_CD_02</t>
+  </si>
+  <si>
+    <t>3611</t>
+  </si>
+  <si>
+    <t>0353</t>
+  </si>
+  <si>
+    <t>Tawaruh -- App Data Entry</t>
+  </si>
+  <si>
+    <t>AT_TW_CD_01_01</t>
+  </si>
+  <si>
+    <t>DS_AT_TW_CD_01_01</t>
+  </si>
+  <si>
+    <t>DS_AT_TW_CD_01_02</t>
+  </si>
+  <si>
+    <t>AT_TW_CD_01_02</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>First Name</t>
+  </si>
+  <si>
+    <t>Last Name</t>
+  </si>
+  <si>
+    <t>Mr</t>
+  </si>
+  <si>
+    <t>Glen</t>
+  </si>
+  <si>
+    <t>Maxwell</t>
+  </si>
+  <si>
+    <t>Special Char</t>
+  </si>
+  <si>
+    <t>Negative Number</t>
+  </si>
+  <si>
+    <t>!&amp;</t>
+  </si>
+  <si>
+    <t>-2</t>
+  </si>
+  <si>
+    <t>DS_AT_TW_AD_06</t>
+  </si>
+  <si>
+    <t>AT_TW_AD_06</t>
+  </si>
+  <si>
+    <t>Mismatched Value</t>
+  </si>
+  <si>
+    <t>Matching Value</t>
+  </si>
+  <si>
+    <t>Chennai</t>
+  </si>
+  <si>
+    <t>Pondi</t>
   </si>
 </sst>
 </file>
@@ -1104,7 +1183,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1174,7 +1253,29 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1186,25 +1287,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Excel_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_" xfId="2"/>
@@ -1512,7 +1594,7 @@
   <cols>
     <col min="1" max="1" width="27.44140625" style="25" customWidth="1"/>
     <col min="2" max="2" width="23.44140625" style="25" customWidth="1"/>
-    <col min="3" max="3" width="13.21875" style="45" customWidth="1"/>
+    <col min="3" max="3" width="13.21875" style="38" customWidth="1"/>
     <col min="4" max="4" width="33.5546875" customWidth="1"/>
     <col min="5" max="5" width="19.5546875" customWidth="1"/>
     <col min="6" max="6" width="11.5546875" customWidth="1"/>
@@ -1563,13 +1645,13 @@
       </c>
     </row>
     <row r="2" spans="1:12">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="44" t="s">
         <v>184</v>
       </c>
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="44" t="s">
         <v>246</v>
       </c>
-      <c r="C2" s="42" t="s">
+      <c r="C2" s="45" t="s">
         <v>138</v>
       </c>
       <c r="D2" s="27" t="s">
@@ -1597,9 +1679,9 @@
       <c r="L2" s="27"/>
     </row>
     <row r="3" spans="1:12">
-      <c r="A3" s="37"/>
-      <c r="B3" s="37"/>
-      <c r="C3" s="43"/>
+      <c r="A3" s="44"/>
+      <c r="B3" s="44"/>
+      <c r="C3" s="46"/>
       <c r="D3" s="27" t="s">
         <v>139</v>
       </c>
@@ -1625,9 +1707,9 @@
       <c r="L3" s="27"/>
     </row>
     <row r="4" spans="1:12">
-      <c r="A4" s="37"/>
-      <c r="B4" s="37"/>
-      <c r="C4" s="43"/>
+      <c r="A4" s="44"/>
+      <c r="B4" s="44"/>
+      <c r="C4" s="46"/>
       <c r="D4" s="27" t="s">
         <v>140</v>
       </c>
@@ -1653,9 +1735,9 @@
       <c r="L4" s="27"/>
     </row>
     <row r="5" spans="1:12">
-      <c r="A5" s="37"/>
-      <c r="B5" s="37"/>
-      <c r="C5" s="44"/>
+      <c r="A5" s="44"/>
+      <c r="B5" s="44"/>
+      <c r="C5" s="47"/>
       <c r="D5" s="27" t="s">
         <v>142</v>
       </c>
@@ -1683,7 +1765,7 @@
     <row r="6" spans="1:12">
       <c r="A6" s="28"/>
       <c r="B6" s="28"/>
-      <c r="C6" s="41"/>
+      <c r="C6" s="37"/>
       <c r="D6" s="27"/>
       <c r="E6" s="27"/>
       <c r="F6" s="27"/>
@@ -1695,13 +1777,13 @@
       <c r="L6" s="27"/>
     </row>
     <row r="7" spans="1:12">
-      <c r="A7" s="37" t="s">
+      <c r="A7" s="44" t="s">
         <v>185</v>
       </c>
-      <c r="B7" s="37" t="s">
+      <c r="B7" s="44" t="s">
         <v>164</v>
       </c>
-      <c r="C7" s="42" t="s">
+      <c r="C7" s="45" t="s">
         <v>151</v>
       </c>
       <c r="D7" s="23" t="s">
@@ -1729,9 +1811,9 @@
       <c r="L7" s="27"/>
     </row>
     <row r="8" spans="1:12">
-      <c r="A8" s="37"/>
-      <c r="B8" s="37"/>
-      <c r="C8" s="43"/>
+      <c r="A8" s="44"/>
+      <c r="B8" s="44"/>
+      <c r="C8" s="46"/>
       <c r="D8" s="27" t="s">
         <v>154</v>
       </c>
@@ -1757,9 +1839,9 @@
       <c r="L8" s="27"/>
     </row>
     <row r="9" spans="1:12">
-      <c r="A9" s="37"/>
-      <c r="B9" s="37"/>
-      <c r="C9" s="43"/>
+      <c r="A9" s="44"/>
+      <c r="B9" s="44"/>
+      <c r="C9" s="46"/>
       <c r="D9" s="27" t="s">
         <v>155</v>
       </c>
@@ -1785,9 +1867,9 @@
       <c r="L9" s="27"/>
     </row>
     <row r="10" spans="1:12">
-      <c r="A10" s="37"/>
-      <c r="B10" s="37"/>
-      <c r="C10" s="43"/>
+      <c r="A10" s="44"/>
+      <c r="B10" s="44"/>
+      <c r="C10" s="46"/>
       <c r="D10" s="27" t="s">
         <v>156</v>
       </c>
@@ -1819,7 +1901,7 @@
       <c r="B11" s="28" t="s">
         <v>166</v>
       </c>
-      <c r="C11" s="43"/>
+      <c r="C11" s="46"/>
       <c r="D11" s="27" t="s">
         <v>157</v>
       </c>
@@ -1845,13 +1927,13 @@
       <c r="L11" s="27"/>
     </row>
     <row r="12" spans="1:12">
-      <c r="A12" s="37" t="s">
+      <c r="A12" s="44" t="s">
         <v>184</v>
       </c>
-      <c r="B12" s="37" t="s">
+      <c r="B12" s="44" t="s">
         <v>163</v>
       </c>
-      <c r="C12" s="43"/>
+      <c r="C12" s="46"/>
       <c r="D12" s="27" t="s">
         <v>141</v>
       </c>
@@ -1877,9 +1959,9 @@
       <c r="L12" s="27"/>
     </row>
     <row r="13" spans="1:12">
-      <c r="A13" s="37"/>
-      <c r="B13" s="37"/>
-      <c r="C13" s="44"/>
+      <c r="A13" s="44"/>
+      <c r="B13" s="44"/>
+      <c r="C13" s="47"/>
       <c r="D13" s="27" t="s">
         <v>158</v>
       </c>
@@ -1907,7 +1989,7 @@
     <row r="14" spans="1:12">
       <c r="A14" s="28"/>
       <c r="B14" s="28"/>
-      <c r="C14" s="41"/>
+      <c r="C14" s="37"/>
       <c r="D14" s="27"/>
       <c r="E14" s="27"/>
       <c r="F14" s="27"/>
@@ -1919,13 +2001,13 @@
       <c r="L14" s="27"/>
     </row>
     <row r="15" spans="1:12">
-      <c r="A15" s="37" t="s">
+      <c r="A15" s="44" t="s">
         <v>186</v>
       </c>
-      <c r="B15" s="37" t="s">
+      <c r="B15" s="44" t="s">
         <v>168</v>
       </c>
-      <c r="C15" s="42" t="s">
+      <c r="C15" s="45" t="s">
         <v>167</v>
       </c>
       <c r="D15" s="27" t="s">
@@ -1953,9 +2035,9 @@
       <c r="L15" s="27"/>
     </row>
     <row r="16" spans="1:12">
-      <c r="A16" s="37"/>
-      <c r="B16" s="37"/>
-      <c r="C16" s="43"/>
+      <c r="A16" s="44"/>
+      <c r="B16" s="44"/>
+      <c r="C16" s="46"/>
       <c r="D16" s="27" t="s">
         <v>170</v>
       </c>
@@ -1981,9 +2063,9 @@
       <c r="L16" s="27"/>
     </row>
     <row r="17" spans="1:12">
-      <c r="A17" s="37"/>
-      <c r="B17" s="37"/>
-      <c r="C17" s="43"/>
+      <c r="A17" s="44"/>
+      <c r="B17" s="44"/>
+      <c r="C17" s="46"/>
       <c r="D17" s="27" t="s">
         <v>171</v>
       </c>
@@ -2009,9 +2091,9 @@
       <c r="L17" s="27"/>
     </row>
     <row r="18" spans="1:12">
-      <c r="A18" s="37"/>
-      <c r="B18" s="37"/>
-      <c r="C18" s="43"/>
+      <c r="A18" s="44"/>
+      <c r="B18" s="44"/>
+      <c r="C18" s="46"/>
       <c r="D18" s="27" t="s">
         <v>172</v>
       </c>
@@ -2037,9 +2119,9 @@
       <c r="L18" s="27"/>
     </row>
     <row r="19" spans="1:12">
-      <c r="A19" s="37"/>
-      <c r="B19" s="37"/>
-      <c r="C19" s="43"/>
+      <c r="A19" s="44"/>
+      <c r="B19" s="44"/>
+      <c r="C19" s="46"/>
       <c r="D19" s="27" t="s">
         <v>173</v>
       </c>
@@ -2065,9 +2147,9 @@
       <c r="L19" s="27"/>
     </row>
     <row r="20" spans="1:12">
-      <c r="A20" s="37"/>
-      <c r="B20" s="37"/>
-      <c r="C20" s="44"/>
+      <c r="A20" s="44"/>
+      <c r="B20" s="44"/>
+      <c r="C20" s="47"/>
       <c r="D20" s="27" t="s">
         <v>174</v>
       </c>
@@ -2095,7 +2177,7 @@
     <row r="21" spans="1:12">
       <c r="A21" s="28"/>
       <c r="B21" s="28"/>
-      <c r="C21" s="41"/>
+      <c r="C21" s="37"/>
       <c r="D21" s="27"/>
       <c r="E21" s="27"/>
       <c r="F21" s="27"/>
@@ -2107,13 +2189,13 @@
       <c r="L21" s="27"/>
     </row>
     <row r="22" spans="1:12">
-      <c r="A22" s="37" t="s">
+      <c r="A22" s="44" t="s">
         <v>186</v>
       </c>
-      <c r="B22" s="37" t="s">
+      <c r="B22" s="44" t="s">
         <v>190</v>
       </c>
-      <c r="C22" s="42" t="s">
+      <c r="C22" s="45" t="s">
         <v>177</v>
       </c>
       <c r="D22" s="27" t="s">
@@ -2141,9 +2223,9 @@
       <c r="L22" s="27"/>
     </row>
     <row r="23" spans="1:12">
-      <c r="A23" s="37"/>
-      <c r="B23" s="37"/>
-      <c r="C23" s="43"/>
+      <c r="A23" s="44"/>
+      <c r="B23" s="44"/>
+      <c r="C23" s="46"/>
       <c r="D23" s="27" t="s">
         <v>179</v>
       </c>
@@ -2169,9 +2251,9 @@
       <c r="L23" s="27"/>
     </row>
     <row r="24" spans="1:12">
-      <c r="A24" s="37"/>
-      <c r="B24" s="37"/>
-      <c r="C24" s="43"/>
+      <c r="A24" s="44"/>
+      <c r="B24" s="44"/>
+      <c r="C24" s="46"/>
       <c r="D24" s="27" t="s">
         <v>180</v>
       </c>
@@ -2197,9 +2279,9 @@
       <c r="L24" s="27"/>
     </row>
     <row r="25" spans="1:12">
-      <c r="A25" s="37"/>
-      <c r="B25" s="37"/>
-      <c r="C25" s="43"/>
+      <c r="A25" s="44"/>
+      <c r="B25" s="44"/>
+      <c r="C25" s="46"/>
       <c r="D25" s="27" t="s">
         <v>181</v>
       </c>
@@ -2225,9 +2307,9 @@
       <c r="L25" s="27"/>
     </row>
     <row r="26" spans="1:12">
-      <c r="A26" s="37"/>
-      <c r="B26" s="37"/>
-      <c r="C26" s="44"/>
+      <c r="A26" s="44"/>
+      <c r="B26" s="44"/>
+      <c r="C26" s="47"/>
       <c r="D26" s="27" t="s">
         <v>182</v>
       </c>
@@ -2255,7 +2337,7 @@
     <row r="27" spans="1:12">
       <c r="A27" s="28"/>
       <c r="B27" s="28"/>
-      <c r="C27" s="41"/>
+      <c r="C27" s="37"/>
       <c r="D27" s="27"/>
       <c r="E27" s="27"/>
       <c r="F27" s="27"/>
@@ -2267,13 +2349,13 @@
       <c r="L27" s="27"/>
     </row>
     <row r="28" spans="1:12">
-      <c r="A28" s="37" t="s">
+      <c r="A28" s="44" t="s">
         <v>188</v>
       </c>
-      <c r="B28" s="37" t="s">
+      <c r="B28" s="44" t="s">
         <v>189</v>
       </c>
-      <c r="C28" s="42" t="s">
+      <c r="C28" s="45" t="s">
         <v>187</v>
       </c>
       <c r="D28" s="27" t="s">
@@ -2301,9 +2383,9 @@
       <c r="L28" s="27"/>
     </row>
     <row r="29" spans="1:12">
-      <c r="A29" s="37"/>
-      <c r="B29" s="37"/>
-      <c r="C29" s="43"/>
+      <c r="A29" s="44"/>
+      <c r="B29" s="44"/>
+      <c r="C29" s="46"/>
       <c r="D29" s="27" t="s">
         <v>192</v>
       </c>
@@ -2329,9 +2411,9 @@
       <c r="L29" s="27"/>
     </row>
     <row r="30" spans="1:12">
-      <c r="A30" s="37"/>
-      <c r="B30" s="37"/>
-      <c r="C30" s="43"/>
+      <c r="A30" s="44"/>
+      <c r="B30" s="44"/>
+      <c r="C30" s="46"/>
       <c r="D30" s="27" t="s">
         <v>193</v>
       </c>
@@ -2357,9 +2439,9 @@
       <c r="L30" s="27"/>
     </row>
     <row r="31" spans="1:12">
-      <c r="A31" s="37"/>
-      <c r="B31" s="37"/>
-      <c r="C31" s="43"/>
+      <c r="A31" s="44"/>
+      <c r="B31" s="44"/>
+      <c r="C31" s="46"/>
       <c r="D31" s="27" t="s">
         <v>194</v>
       </c>
@@ -2385,9 +2467,9 @@
       <c r="L31" s="27"/>
     </row>
     <row r="32" spans="1:12">
-      <c r="A32" s="37"/>
-      <c r="B32" s="37"/>
-      <c r="C32" s="43"/>
+      <c r="A32" s="44"/>
+      <c r="B32" s="44"/>
+      <c r="C32" s="46"/>
       <c r="D32" s="27" t="s">
         <v>195</v>
       </c>
@@ -2413,9 +2495,9 @@
       <c r="L32" s="27"/>
     </row>
     <row r="33" spans="1:12">
-      <c r="A33" s="37"/>
-      <c r="B33" s="37"/>
-      <c r="C33" s="44"/>
+      <c r="A33" s="44"/>
+      <c r="B33" s="44"/>
+      <c r="C33" s="47"/>
       <c r="D33" s="27" t="s">
         <v>196</v>
       </c>
@@ -2443,7 +2525,7 @@
     <row r="34" spans="1:12">
       <c r="A34" s="29"/>
       <c r="B34" s="29"/>
-      <c r="C34" s="41"/>
+      <c r="C34" s="37"/>
       <c r="D34" s="27"/>
       <c r="E34" s="27"/>
       <c r="F34" s="27"/>
@@ -2453,13 +2535,13 @@
       <c r="J34" s="27"/>
     </row>
     <row r="35" spans="1:12">
-      <c r="A35" s="37" t="s">
+      <c r="A35" s="44" t="s">
         <v>237</v>
       </c>
-      <c r="B35" s="37" t="s">
+      <c r="B35" s="44" t="s">
         <v>190</v>
       </c>
-      <c r="C35" s="42" t="s">
+      <c r="C35" s="45" t="s">
         <v>236</v>
       </c>
       <c r="D35" s="27" t="s">
@@ -2485,9 +2567,9 @@
       </c>
     </row>
     <row r="36" spans="1:12">
-      <c r="A36" s="37"/>
-      <c r="B36" s="37"/>
-      <c r="C36" s="43"/>
+      <c r="A36" s="44"/>
+      <c r="B36" s="44"/>
+      <c r="C36" s="46"/>
       <c r="D36" s="27" t="s">
         <v>179</v>
       </c>
@@ -2511,9 +2593,9 @@
       </c>
     </row>
     <row r="37" spans="1:12">
-      <c r="A37" s="37"/>
-      <c r="B37" s="37"/>
-      <c r="C37" s="43"/>
+      <c r="A37" s="44"/>
+      <c r="B37" s="44"/>
+      <c r="C37" s="46"/>
       <c r="D37" s="27" t="s">
         <v>180</v>
       </c>
@@ -2537,9 +2619,9 @@
       </c>
     </row>
     <row r="38" spans="1:12">
-      <c r="A38" s="37"/>
-      <c r="B38" s="37"/>
-      <c r="C38" s="43"/>
+      <c r="A38" s="44"/>
+      <c r="B38" s="44"/>
+      <c r="C38" s="46"/>
       <c r="D38" s="27" t="s">
         <v>248</v>
       </c>
@@ -2563,9 +2645,9 @@
       </c>
     </row>
     <row r="39" spans="1:12">
-      <c r="A39" s="37"/>
-      <c r="B39" s="37"/>
-      <c r="C39" s="44"/>
+      <c r="A39" s="44"/>
+      <c r="B39" s="44"/>
+      <c r="C39" s="47"/>
       <c r="D39" s="27" t="s">
         <v>249</v>
       </c>
@@ -2591,7 +2673,7 @@
     <row r="40" spans="1:12">
       <c r="A40" s="29"/>
       <c r="B40" s="29"/>
-      <c r="C40" s="41"/>
+      <c r="C40" s="37"/>
       <c r="D40" s="27"/>
       <c r="E40" s="27"/>
       <c r="F40" s="27"/>
@@ -2601,13 +2683,13 @@
       <c r="J40" s="27"/>
     </row>
     <row r="41" spans="1:12">
-      <c r="A41" s="37" t="s">
+      <c r="A41" s="44" t="s">
         <v>245</v>
       </c>
-      <c r="B41" s="37" t="s">
+      <c r="B41" s="44" t="s">
         <v>246</v>
       </c>
-      <c r="C41" s="42" t="s">
+      <c r="C41" s="45" t="s">
         <v>239</v>
       </c>
       <c r="D41" s="27" t="s">
@@ -2633,9 +2715,9 @@
       </c>
     </row>
     <row r="42" spans="1:12">
-      <c r="A42" s="37"/>
-      <c r="B42" s="37"/>
-      <c r="C42" s="43"/>
+      <c r="A42" s="44"/>
+      <c r="B42" s="44"/>
+      <c r="C42" s="46"/>
       <c r="D42" s="27" t="s">
         <v>251</v>
       </c>
@@ -2659,9 +2741,9 @@
       </c>
     </row>
     <row r="43" spans="1:12">
-      <c r="A43" s="37"/>
-      <c r="B43" s="37"/>
-      <c r="C43" s="43"/>
+      <c r="A43" s="44"/>
+      <c r="B43" s="44"/>
+      <c r="C43" s="46"/>
       <c r="D43" s="27" t="s">
         <v>252</v>
       </c>
@@ -2685,9 +2767,9 @@
       </c>
     </row>
     <row r="44" spans="1:12">
-      <c r="A44" s="37"/>
-      <c r="B44" s="37"/>
-      <c r="C44" s="43"/>
+      <c r="A44" s="44"/>
+      <c r="B44" s="44"/>
+      <c r="C44" s="46"/>
       <c r="D44" s="27" t="s">
         <v>139</v>
       </c>
@@ -2711,28 +2793,28 @@
       </c>
     </row>
     <row r="45" spans="1:12">
-      <c r="A45" s="37"/>
-      <c r="B45" s="37"/>
-      <c r="C45" s="44"/>
-      <c r="D45" s="46" t="s">
+      <c r="A45" s="44"/>
+      <c r="B45" s="44"/>
+      <c r="C45" s="47"/>
+      <c r="D45" s="39" t="s">
         <v>140</v>
       </c>
-      <c r="E45" s="47" t="s">
+      <c r="E45" s="40" t="s">
         <v>244</v>
       </c>
-      <c r="F45" s="46" t="s">
-        <v>144</v>
-      </c>
-      <c r="G45" s="46" t="s">
-        <v>144</v>
-      </c>
-      <c r="H45" s="46" t="s">
-        <v>144</v>
-      </c>
-      <c r="I45" s="46" t="s">
-        <v>144</v>
-      </c>
-      <c r="J45" s="46" t="s">
+      <c r="F45" s="39" t="s">
+        <v>144</v>
+      </c>
+      <c r="G45" s="39" t="s">
+        <v>144</v>
+      </c>
+      <c r="H45" s="39" t="s">
+        <v>144</v>
+      </c>
+      <c r="I45" s="39" t="s">
+        <v>144</v>
+      </c>
+      <c r="J45" s="39" t="s">
         <v>253</v>
       </c>
     </row>
@@ -2742,39 +2824,39 @@
       <c r="C46" s="36"/>
     </row>
     <row r="47" spans="1:12">
-      <c r="A47" s="37" t="s">
+      <c r="A47" s="44" t="s">
         <v>245</v>
       </c>
-      <c r="B47" s="37" t="s">
+      <c r="B47" s="44" t="s">
         <v>246</v>
       </c>
-      <c r="C47" s="38" t="s">
+      <c r="C47" s="48" t="s">
         <v>280</v>
       </c>
-      <c r="D47" s="48"/>
-      <c r="E47" s="49" t="s">
+      <c r="D47" s="41"/>
+      <c r="E47" s="42" t="s">
         <v>276</v>
       </c>
-      <c r="F47" s="48" t="s">
-        <v>144</v>
-      </c>
-      <c r="G47" s="48" t="s">
-        <v>144</v>
-      </c>
-      <c r="H47" s="48" t="s">
-        <v>144</v>
-      </c>
-      <c r="I47" s="48" t="s">
-        <v>144</v>
-      </c>
-      <c r="J47" s="48" t="s">
+      <c r="F47" s="41" t="s">
+        <v>144</v>
+      </c>
+      <c r="G47" s="41" t="s">
+        <v>144</v>
+      </c>
+      <c r="H47" s="41" t="s">
+        <v>144</v>
+      </c>
+      <c r="I47" s="41" t="s">
+        <v>144</v>
+      </c>
+      <c r="J47" s="41" t="s">
         <v>253</v>
       </c>
     </row>
     <row r="48" spans="1:12">
-      <c r="A48" s="37"/>
-      <c r="B48" s="37"/>
-      <c r="C48" s="39"/>
+      <c r="A48" s="44"/>
+      <c r="B48" s="44"/>
+      <c r="C48" s="49"/>
       <c r="D48" s="27"/>
       <c r="E48" s="35" t="s">
         <v>277</v>
@@ -2796,9 +2878,9 @@
       </c>
     </row>
     <row r="49" spans="1:10">
-      <c r="A49" s="37"/>
-      <c r="B49" s="37"/>
-      <c r="C49" s="39"/>
+      <c r="A49" s="44"/>
+      <c r="B49" s="44"/>
+      <c r="C49" s="49"/>
       <c r="D49" s="27"/>
       <c r="E49" s="35" t="s">
         <v>278</v>
@@ -2820,9 +2902,9 @@
       </c>
     </row>
     <row r="50" spans="1:10">
-      <c r="A50" s="37"/>
-      <c r="B50" s="37"/>
-      <c r="C50" s="39"/>
+      <c r="A50" s="44"/>
+      <c r="B50" s="44"/>
+      <c r="C50" s="49"/>
       <c r="D50" s="27"/>
       <c r="E50" s="35" t="s">
         <v>279</v>
@@ -2844,13 +2926,13 @@
       </c>
     </row>
     <row r="51" spans="1:10">
-      <c r="A51" s="37" t="s">
+      <c r="A51" s="44" t="s">
         <v>281</v>
       </c>
-      <c r="B51" s="37" t="s">
+      <c r="B51" s="44" t="s">
         <v>282</v>
       </c>
-      <c r="C51" s="39"/>
+      <c r="C51" s="49"/>
       <c r="D51" s="27"/>
       <c r="E51" s="22" t="s">
         <v>288</v>
@@ -2862,9 +2944,9 @@
       <c r="J51" s="27"/>
     </row>
     <row r="52" spans="1:10">
-      <c r="A52" s="37"/>
-      <c r="B52" s="37"/>
-      <c r="C52" s="39"/>
+      <c r="A52" s="44"/>
+      <c r="B52" s="44"/>
+      <c r="C52" s="49"/>
       <c r="D52" s="27"/>
       <c r="E52" s="22" t="s">
         <v>289</v>
@@ -2876,9 +2958,9 @@
       <c r="J52" s="27"/>
     </row>
     <row r="53" spans="1:10">
-      <c r="A53" s="37"/>
-      <c r="B53" s="37"/>
-      <c r="C53" s="39"/>
+      <c r="A53" s="44"/>
+      <c r="B53" s="44"/>
+      <c r="C53" s="49"/>
       <c r="D53" s="27"/>
       <c r="E53" s="22" t="s">
         <v>290</v>
@@ -2890,9 +2972,9 @@
       <c r="J53" s="27"/>
     </row>
     <row r="54" spans="1:10">
-      <c r="A54" s="37"/>
-      <c r="B54" s="37"/>
-      <c r="C54" s="39"/>
+      <c r="A54" s="44"/>
+      <c r="B54" s="44"/>
+      <c r="C54" s="49"/>
       <c r="D54" s="27"/>
       <c r="E54" s="22" t="s">
         <v>291</v>
@@ -2904,9 +2986,9 @@
       <c r="J54" s="27"/>
     </row>
     <row r="55" spans="1:10">
-      <c r="A55" s="37"/>
-      <c r="B55" s="37"/>
-      <c r="C55" s="40"/>
+      <c r="A55" s="44"/>
+      <c r="B55" s="44"/>
+      <c r="C55" s="50"/>
       <c r="D55" s="27"/>
       <c r="E55" s="22" t="s">
         <v>292</v>
@@ -3259,7 +3341,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection sqref="A1:C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -3341,12 +3423,160 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:J5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="20.109375" customWidth="1"/>
+    <col min="2" max="2" width="29" customWidth="1"/>
+    <col min="3" max="3" width="10.77734375" customWidth="1"/>
+    <col min="4" max="4" width="9.77734375" customWidth="1"/>
+    <col min="5" max="5" width="12.5546875" customWidth="1"/>
+    <col min="6" max="6" width="15.109375" customWidth="1"/>
+    <col min="7" max="7" width="14" style="5" customWidth="1"/>
+    <col min="8" max="8" width="16.44140625" customWidth="1"/>
+    <col min="9" max="9" width="17.33203125" customWidth="1"/>
+    <col min="10" max="10" width="20.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="10" t="s">
+        <v>308</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>309</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="10" t="s">
+        <v>311</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>310</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="10" t="s">
+        <v>303</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>304</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>317</v>
+      </c>
+      <c r="G4" s="43" t="s">
+        <v>320</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>321</v>
+      </c>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="10" t="s">
+        <v>323</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>322</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="43"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4" t="s">
+        <v>326</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>327</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="G4" r:id="rId1" display="!@"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -3473,6 +3703,20 @@
         <v>295</v>
       </c>
     </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="8" t="s">
+        <v>302</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>306</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>307</v>
+      </c>
+    </row>
     <row r="11" spans="1:5">
       <c r="A11" s="16"/>
       <c r="B11" s="16"/>
@@ -3488,6 +3732,7 @@
     <hyperlink ref="C6" r:id="rId4"/>
     <hyperlink ref="C7" r:id="rId5"/>
     <hyperlink ref="C8" r:id="rId6"/>
+    <hyperlink ref="C9" r:id="rId7"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/KULS_Sankar/TestData/ijaraTestData.xlsx
+++ b/KULS_Sankar/TestData/ijaraTestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="72" windowWidth="23256" windowHeight="12600" firstSheet="8" activeTab="11"/>
+    <workbookView xWindow="0" yWindow="72" windowWidth="23256" windowHeight="12600" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="AllFeaturesAutomationInfo" sheetId="8" r:id="rId1"/>
@@ -16,16 +16,17 @@
     <sheet name="DataCheck_AppDetails" sheetId="6" r:id="rId7"/>
     <sheet name="Offering_OfferDetails" sheetId="7" r:id="rId8"/>
     <sheet name="ContractSign_AppDetails" sheetId="9" r:id="rId9"/>
-    <sheet name="Murabaha_AppData_CFDebt" sheetId="10" r:id="rId10"/>
-    <sheet name="Murabaha_DataCheck_AppDetails" sheetId="11" r:id="rId11"/>
+    <sheet name="MU_AppData_CFDebt" sheetId="10" r:id="rId10"/>
+    <sheet name="MU_DataCheck_AppDetails" sheetId="11" r:id="rId11"/>
     <sheet name="Tawarruq_AppData_CustomerDetail" sheetId="12" r:id="rId12"/>
+    <sheet name="MU_AppData_Income" sheetId="13" r:id="rId13"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="704" uniqueCount="328">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="869" uniqueCount="406">
   <si>
     <t>UserName</t>
   </si>
@@ -786,9 +787,6 @@
     <t>CUD_01_05 --&gt; CUD_01_30</t>
   </si>
   <si>
-    <t>Murabaha_AppData_CFDebt.feature</t>
-  </si>
-  <si>
     <t>DS_AT_MCUD_01</t>
   </si>
   <si>
@@ -1009,6 +1007,267 @@
   </si>
   <si>
     <t>Pondi</t>
+  </si>
+  <si>
+    <t>Sprint - 67</t>
+  </si>
+  <si>
+    <t>Tawarruq -- App Data Check</t>
+  </si>
+  <si>
+    <t>Customer Details Screen</t>
+  </si>
+  <si>
+    <t>TW_AppData_AppDetails.feature</t>
+  </si>
+  <si>
+    <t>TW_AppData_CustomerDetails.feature</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">NEWAPP_47 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">--&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>NEWAPP_53</t>
+    </r>
+  </si>
+  <si>
+    <t>NEWAPP_04 --&gt; NEWAPP_27, NEWAPP_35</t>
+  </si>
+  <si>
+    <t>NEWAPP_01 ,NEWAPP_02, NEWAPP_34</t>
+  </si>
+  <si>
+    <t>NEWAPP_03,  NEWAPP_28 --&gt; NEWAPP_33</t>
+  </si>
+  <si>
+    <t>Sprint - 68</t>
+  </si>
+  <si>
+    <t>AT_MU_INC_01</t>
+  </si>
+  <si>
+    <t>AT_MU_INC_02</t>
+  </si>
+  <si>
+    <t>AT_MU_INC_03</t>
+  </si>
+  <si>
+    <t>AT_MU_INC_04</t>
+  </si>
+  <si>
+    <t>AT_MU_INC_05</t>
+  </si>
+  <si>
+    <t>AT_MU_INC_06</t>
+  </si>
+  <si>
+    <t>AT_MU_INC_07</t>
+  </si>
+  <si>
+    <t>AT_MU_INC_08</t>
+  </si>
+  <si>
+    <t>Income</t>
+  </si>
+  <si>
+    <t>Customer Financials Tab -
+ Income Screen</t>
+  </si>
+  <si>
+    <t>DS_AT_MU_INC_01</t>
+  </si>
+  <si>
+    <t>DS_AT_MU_INC_02</t>
+  </si>
+  <si>
+    <t>DS_AT_MU_INC_03</t>
+  </si>
+  <si>
+    <t>DS_AT_MU_INC_04</t>
+  </si>
+  <si>
+    <t>DS_AT_MU_INC_05</t>
+  </si>
+  <si>
+    <t>DS_AT_MU_INC_06</t>
+  </si>
+  <si>
+    <t>DS_AT_MU_INC_07</t>
+  </si>
+  <si>
+    <t>DS_AT_MU_INC_08</t>
+  </si>
+  <si>
+    <t>Salary Credited To Bank</t>
+  </si>
+  <si>
+    <t>YES</t>
+  </si>
+  <si>
+    <t>Lumpsum Amount</t>
+  </si>
+  <si>
+    <t>Pension Amount</t>
+  </si>
+  <si>
+    <t>Frequency</t>
+  </si>
+  <si>
+    <t>Amount</t>
+  </si>
+  <si>
+    <t>Adjusted %</t>
+  </si>
+  <si>
+    <t>CASH RENTAL INCOME</t>
+  </si>
+  <si>
+    <t>Monthly</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>Bank Name</t>
+  </si>
+  <si>
+    <t>Branch Name</t>
+  </si>
+  <si>
+    <t>HDFC BANK</t>
+  </si>
+  <si>
+    <t>VASHI</t>
+  </si>
+  <si>
+    <t>1450000</t>
+  </si>
+  <si>
+    <t>13000</t>
+  </si>
+  <si>
+    <t>85000</t>
+  </si>
+  <si>
+    <t>INC_01_01, INC_01_03</t>
+  </si>
+  <si>
+    <t>INC_01_02</t>
+  </si>
+  <si>
+    <t>MU_AppData_Income.feature</t>
+  </si>
+  <si>
+    <t>MU_AppData_CFDebt.feature</t>
+  </si>
+  <si>
+    <t>MU_DataCheck_AppDetails.feature</t>
+  </si>
+  <si>
+    <t>Commission Income</t>
+  </si>
+  <si>
+    <t>Yearly</t>
+  </si>
+  <si>
+    <t>58000</t>
+  </si>
+  <si>
+    <t>Deduction</t>
+  </si>
+  <si>
+    <t>PROVIDEND FUND</t>
+  </si>
+  <si>
+    <t>Deduction_Adj%</t>
+  </si>
+  <si>
+    <t>Deduction_Frequency</t>
+  </si>
+  <si>
+    <t>CAD</t>
+  </si>
+  <si>
+    <t>1500</t>
+  </si>
+  <si>
+    <t>INCOME TAX</t>
+  </si>
+  <si>
+    <t>Half Yearly</t>
+  </si>
+  <si>
+    <t>750</t>
+  </si>
+  <si>
+    <t>Deduction_Amt</t>
+  </si>
+  <si>
+    <t>ICICIBANK</t>
+  </si>
+  <si>
+    <t>JAIPUR BRANCH</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> INC_01_04 --&gt;  INC_01_27</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> INC_02_01</t>
+  </si>
+  <si>
+    <t>Rental Income In Bank</t>
+  </si>
+  <si>
+    <t>1150500</t>
+  </si>
+  <si>
+    <t>18500</t>
+  </si>
+  <si>
+    <t>880000</t>
+  </si>
+  <si>
+    <t>8950</t>
+  </si>
+  <si>
+    <t>22000</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>CPV_03_01 --&gt; CPV_03_08</t>
+  </si>
+  <si>
+    <t>INC_04_01, INC_04_02,  INC_04_03</t>
+  </si>
+  <si>
+    <t>INC_04_04, INC_04_05</t>
+  </si>
+  <si>
+    <t>INC_04_06, INC_04_07, INC_04_08</t>
+  </si>
+  <si>
+    <t>SAR</t>
   </si>
 </sst>
 </file>
@@ -1018,7 +1277,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1075,8 +1334,15 @@
       <charset val="1"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF444444"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1113,8 +1379,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -1174,6 +1452,19 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1183,7 +1474,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1232,12 +1523,6 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1250,15 +1535,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
@@ -1268,6 +1544,22 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1583,19 +1875,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L55"/>
+  <dimension ref="A1:L69"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D52" sqref="D52"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D73" sqref="D73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="27.44140625" style="25" customWidth="1"/>
     <col min="2" max="2" width="23.44140625" style="25" customWidth="1"/>
-    <col min="3" max="3" width="13.21875" style="38" customWidth="1"/>
-    <col min="4" max="4" width="33.5546875" customWidth="1"/>
+    <col min="3" max="3" width="13.21875" style="25" customWidth="1"/>
+    <col min="4" max="4" width="43" customWidth="1"/>
     <col min="5" max="5" width="19.5546875" customWidth="1"/>
     <col min="6" max="6" width="11.5546875" customWidth="1"/>
     <col min="7" max="7" width="11" customWidth="1"/>
@@ -1645,13 +1937,13 @@
       </c>
     </row>
     <row r="2" spans="1:12">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="46" t="s">
         <v>184</v>
       </c>
-      <c r="B2" s="44" t="s">
+      <c r="B2" s="46" t="s">
         <v>246</v>
       </c>
-      <c r="C2" s="45" t="s">
+      <c r="C2" s="48" t="s">
         <v>138</v>
       </c>
       <c r="D2" s="27" t="s">
@@ -1679,9 +1971,9 @@
       <c r="L2" s="27"/>
     </row>
     <row r="3" spans="1:12">
-      <c r="A3" s="44"/>
-      <c r="B3" s="44"/>
-      <c r="C3" s="46"/>
+      <c r="A3" s="46"/>
+      <c r="B3" s="46"/>
+      <c r="C3" s="49"/>
       <c r="D3" s="27" t="s">
         <v>139</v>
       </c>
@@ -1707,9 +1999,9 @@
       <c r="L3" s="27"/>
     </row>
     <row r="4" spans="1:12">
-      <c r="A4" s="44"/>
-      <c r="B4" s="44"/>
-      <c r="C4" s="46"/>
+      <c r="A4" s="46"/>
+      <c r="B4" s="46"/>
+      <c r="C4" s="49"/>
       <c r="D4" s="27" t="s">
         <v>140</v>
       </c>
@@ -1735,9 +2027,9 @@
       <c r="L4" s="27"/>
     </row>
     <row r="5" spans="1:12">
-      <c r="A5" s="44"/>
-      <c r="B5" s="44"/>
-      <c r="C5" s="47"/>
+      <c r="A5" s="46"/>
+      <c r="B5" s="46"/>
+      <c r="C5" s="50"/>
       <c r="D5" s="27" t="s">
         <v>142</v>
       </c>
@@ -1763,9 +2055,9 @@
       <c r="L5" s="27"/>
     </row>
     <row r="6" spans="1:12">
-      <c r="A6" s="28"/>
-      <c r="B6" s="28"/>
-      <c r="C6" s="37"/>
+      <c r="A6" s="39"/>
+      <c r="B6" s="39"/>
+      <c r="C6" s="39"/>
       <c r="D6" s="27"/>
       <c r="E6" s="27"/>
       <c r="F6" s="27"/>
@@ -1777,13 +2069,13 @@
       <c r="L6" s="27"/>
     </row>
     <row r="7" spans="1:12">
-      <c r="A7" s="44" t="s">
+      <c r="A7" s="46" t="s">
         <v>185</v>
       </c>
-      <c r="B7" s="44" t="s">
+      <c r="B7" s="46" t="s">
         <v>164</v>
       </c>
-      <c r="C7" s="45" t="s">
+      <c r="C7" s="48" t="s">
         <v>151</v>
       </c>
       <c r="D7" s="23" t="s">
@@ -1811,9 +2103,9 @@
       <c r="L7" s="27"/>
     </row>
     <row r="8" spans="1:12">
-      <c r="A8" s="44"/>
-      <c r="B8" s="44"/>
-      <c r="C8" s="46"/>
+      <c r="A8" s="46"/>
+      <c r="B8" s="46"/>
+      <c r="C8" s="49"/>
       <c r="D8" s="27" t="s">
         <v>154</v>
       </c>
@@ -1839,9 +2131,9 @@
       <c r="L8" s="27"/>
     </row>
     <row r="9" spans="1:12">
-      <c r="A9" s="44"/>
-      <c r="B9" s="44"/>
-      <c r="C9" s="46"/>
+      <c r="A9" s="46"/>
+      <c r="B9" s="46"/>
+      <c r="C9" s="49"/>
       <c r="D9" s="27" t="s">
         <v>155</v>
       </c>
@@ -1867,9 +2159,9 @@
       <c r="L9" s="27"/>
     </row>
     <row r="10" spans="1:12">
-      <c r="A10" s="44"/>
-      <c r="B10" s="44"/>
-      <c r="C10" s="46"/>
+      <c r="A10" s="46"/>
+      <c r="B10" s="46"/>
+      <c r="C10" s="49"/>
       <c r="D10" s="27" t="s">
         <v>156</v>
       </c>
@@ -1895,13 +2187,13 @@
       <c r="L10" s="27"/>
     </row>
     <row r="11" spans="1:12">
-      <c r="A11" s="28" t="s">
+      <c r="A11" s="39" t="s">
         <v>165</v>
       </c>
-      <c r="B11" s="28" t="s">
+      <c r="B11" s="39" t="s">
         <v>166</v>
       </c>
-      <c r="C11" s="46"/>
+      <c r="C11" s="49"/>
       <c r="D11" s="27" t="s">
         <v>157</v>
       </c>
@@ -1927,13 +2219,13 @@
       <c r="L11" s="27"/>
     </row>
     <row r="12" spans="1:12">
-      <c r="A12" s="44" t="s">
+      <c r="A12" s="46" t="s">
         <v>184</v>
       </c>
-      <c r="B12" s="44" t="s">
+      <c r="B12" s="46" t="s">
         <v>163</v>
       </c>
-      <c r="C12" s="46"/>
+      <c r="C12" s="49"/>
       <c r="D12" s="27" t="s">
         <v>141</v>
       </c>
@@ -1959,9 +2251,9 @@
       <c r="L12" s="27"/>
     </row>
     <row r="13" spans="1:12">
-      <c r="A13" s="44"/>
-      <c r="B13" s="44"/>
-      <c r="C13" s="47"/>
+      <c r="A13" s="46"/>
+      <c r="B13" s="46"/>
+      <c r="C13" s="50"/>
       <c r="D13" s="27" t="s">
         <v>158</v>
       </c>
@@ -1987,9 +2279,9 @@
       <c r="L13" s="27"/>
     </row>
     <row r="14" spans="1:12">
-      <c r="A14" s="28"/>
-      <c r="B14" s="28"/>
-      <c r="C14" s="37"/>
+      <c r="A14" s="39"/>
+      <c r="B14" s="39"/>
+      <c r="C14" s="39"/>
       <c r="D14" s="27"/>
       <c r="E14" s="27"/>
       <c r="F14" s="27"/>
@@ -2001,13 +2293,13 @@
       <c r="L14" s="27"/>
     </row>
     <row r="15" spans="1:12">
-      <c r="A15" s="44" t="s">
+      <c r="A15" s="46" t="s">
         <v>186</v>
       </c>
-      <c r="B15" s="44" t="s">
+      <c r="B15" s="46" t="s">
         <v>168</v>
       </c>
-      <c r="C15" s="45" t="s">
+      <c r="C15" s="48" t="s">
         <v>167</v>
       </c>
       <c r="D15" s="27" t="s">
@@ -2035,9 +2327,9 @@
       <c r="L15" s="27"/>
     </row>
     <row r="16" spans="1:12">
-      <c r="A16" s="44"/>
-      <c r="B16" s="44"/>
-      <c r="C16" s="46"/>
+      <c r="A16" s="46"/>
+      <c r="B16" s="46"/>
+      <c r="C16" s="49"/>
       <c r="D16" s="27" t="s">
         <v>170</v>
       </c>
@@ -2063,9 +2355,9 @@
       <c r="L16" s="27"/>
     </row>
     <row r="17" spans="1:12">
-      <c r="A17" s="44"/>
-      <c r="B17" s="44"/>
-      <c r="C17" s="46"/>
+      <c r="A17" s="46"/>
+      <c r="B17" s="46"/>
+      <c r="C17" s="49"/>
       <c r="D17" s="27" t="s">
         <v>171</v>
       </c>
@@ -2091,9 +2383,9 @@
       <c r="L17" s="27"/>
     </row>
     <row r="18" spans="1:12">
-      <c r="A18" s="44"/>
-      <c r="B18" s="44"/>
-      <c r="C18" s="46"/>
+      <c r="A18" s="46"/>
+      <c r="B18" s="46"/>
+      <c r="C18" s="49"/>
       <c r="D18" s="27" t="s">
         <v>172</v>
       </c>
@@ -2119,9 +2411,9 @@
       <c r="L18" s="27"/>
     </row>
     <row r="19" spans="1:12">
-      <c r="A19" s="44"/>
-      <c r="B19" s="44"/>
-      <c r="C19" s="46"/>
+      <c r="A19" s="46"/>
+      <c r="B19" s="46"/>
+      <c r="C19" s="49"/>
       <c r="D19" s="27" t="s">
         <v>173</v>
       </c>
@@ -2147,9 +2439,9 @@
       <c r="L19" s="27"/>
     </row>
     <row r="20" spans="1:12">
-      <c r="A20" s="44"/>
-      <c r="B20" s="44"/>
-      <c r="C20" s="47"/>
+      <c r="A20" s="46"/>
+      <c r="B20" s="46"/>
+      <c r="C20" s="50"/>
       <c r="D20" s="27" t="s">
         <v>174</v>
       </c>
@@ -2175,9 +2467,9 @@
       <c r="L20" s="27"/>
     </row>
     <row r="21" spans="1:12">
-      <c r="A21" s="28"/>
-      <c r="B21" s="28"/>
-      <c r="C21" s="37"/>
+      <c r="A21" s="39"/>
+      <c r="B21" s="39"/>
+      <c r="C21" s="39"/>
       <c r="D21" s="27"/>
       <c r="E21" s="27"/>
       <c r="F21" s="27"/>
@@ -2189,13 +2481,13 @@
       <c r="L21" s="27"/>
     </row>
     <row r="22" spans="1:12">
-      <c r="A22" s="44" t="s">
+      <c r="A22" s="46" t="s">
         <v>186</v>
       </c>
-      <c r="B22" s="44" t="s">
+      <c r="B22" s="46" t="s">
         <v>190</v>
       </c>
-      <c r="C22" s="45" t="s">
+      <c r="C22" s="48" t="s">
         <v>177</v>
       </c>
       <c r="D22" s="27" t="s">
@@ -2223,9 +2515,9 @@
       <c r="L22" s="27"/>
     </row>
     <row r="23" spans="1:12">
-      <c r="A23" s="44"/>
-      <c r="B23" s="44"/>
-      <c r="C23" s="46"/>
+      <c r="A23" s="46"/>
+      <c r="B23" s="46"/>
+      <c r="C23" s="49"/>
       <c r="D23" s="27" t="s">
         <v>179</v>
       </c>
@@ -2251,9 +2543,9 @@
       <c r="L23" s="27"/>
     </row>
     <row r="24" spans="1:12">
-      <c r="A24" s="44"/>
-      <c r="B24" s="44"/>
-      <c r="C24" s="46"/>
+      <c r="A24" s="46"/>
+      <c r="B24" s="46"/>
+      <c r="C24" s="49"/>
       <c r="D24" s="27" t="s">
         <v>180</v>
       </c>
@@ -2279,9 +2571,9 @@
       <c r="L24" s="27"/>
     </row>
     <row r="25" spans="1:12">
-      <c r="A25" s="44"/>
-      <c r="B25" s="44"/>
-      <c r="C25" s="46"/>
+      <c r="A25" s="46"/>
+      <c r="B25" s="46"/>
+      <c r="C25" s="49"/>
       <c r="D25" s="27" t="s">
         <v>181</v>
       </c>
@@ -2307,9 +2599,9 @@
       <c r="L25" s="27"/>
     </row>
     <row r="26" spans="1:12">
-      <c r="A26" s="44"/>
-      <c r="B26" s="44"/>
-      <c r="C26" s="47"/>
+      <c r="A26" s="46"/>
+      <c r="B26" s="46"/>
+      <c r="C26" s="50"/>
       <c r="D26" s="27" t="s">
         <v>182</v>
       </c>
@@ -2335,9 +2627,9 @@
       <c r="L26" s="27"/>
     </row>
     <row r="27" spans="1:12">
-      <c r="A27" s="28"/>
-      <c r="B27" s="28"/>
-      <c r="C27" s="37"/>
+      <c r="A27" s="39"/>
+      <c r="B27" s="39"/>
+      <c r="C27" s="39"/>
       <c r="D27" s="27"/>
       <c r="E27" s="27"/>
       <c r="F27" s="27"/>
@@ -2349,13 +2641,13 @@
       <c r="L27" s="27"/>
     </row>
     <row r="28" spans="1:12">
-      <c r="A28" s="44" t="s">
+      <c r="A28" s="46" t="s">
         <v>188</v>
       </c>
-      <c r="B28" s="44" t="s">
+      <c r="B28" s="46" t="s">
         <v>189</v>
       </c>
-      <c r="C28" s="45" t="s">
+      <c r="C28" s="48" t="s">
         <v>187</v>
       </c>
       <c r="D28" s="27" t="s">
@@ -2383,9 +2675,9 @@
       <c r="L28" s="27"/>
     </row>
     <row r="29" spans="1:12">
-      <c r="A29" s="44"/>
-      <c r="B29" s="44"/>
-      <c r="C29" s="46"/>
+      <c r="A29" s="46"/>
+      <c r="B29" s="46"/>
+      <c r="C29" s="49"/>
       <c r="D29" s="27" t="s">
         <v>192</v>
       </c>
@@ -2411,9 +2703,9 @@
       <c r="L29" s="27"/>
     </row>
     <row r="30" spans="1:12">
-      <c r="A30" s="44"/>
-      <c r="B30" s="44"/>
-      <c r="C30" s="46"/>
+      <c r="A30" s="46"/>
+      <c r="B30" s="46"/>
+      <c r="C30" s="49"/>
       <c r="D30" s="27" t="s">
         <v>193</v>
       </c>
@@ -2439,9 +2731,9 @@
       <c r="L30" s="27"/>
     </row>
     <row r="31" spans="1:12">
-      <c r="A31" s="44"/>
-      <c r="B31" s="44"/>
-      <c r="C31" s="46"/>
+      <c r="A31" s="46"/>
+      <c r="B31" s="46"/>
+      <c r="C31" s="49"/>
       <c r="D31" s="27" t="s">
         <v>194</v>
       </c>
@@ -2467,9 +2759,9 @@
       <c r="L31" s="27"/>
     </row>
     <row r="32" spans="1:12">
-      <c r="A32" s="44"/>
-      <c r="B32" s="44"/>
-      <c r="C32" s="46"/>
+      <c r="A32" s="46"/>
+      <c r="B32" s="46"/>
+      <c r="C32" s="49"/>
       <c r="D32" s="27" t="s">
         <v>195</v>
       </c>
@@ -2495,9 +2787,9 @@
       <c r="L32" s="27"/>
     </row>
     <row r="33" spans="1:12">
-      <c r="A33" s="44"/>
-      <c r="B33" s="44"/>
-      <c r="C33" s="47"/>
+      <c r="A33" s="46"/>
+      <c r="B33" s="46"/>
+      <c r="C33" s="50"/>
       <c r="D33" s="27" t="s">
         <v>196</v>
       </c>
@@ -2523,9 +2815,9 @@
       <c r="L33" s="27"/>
     </row>
     <row r="34" spans="1:12">
-      <c r="A34" s="29"/>
-      <c r="B34" s="29"/>
-      <c r="C34" s="37"/>
+      <c r="A34" s="39"/>
+      <c r="B34" s="39"/>
+      <c r="C34" s="39"/>
       <c r="D34" s="27"/>
       <c r="E34" s="27"/>
       <c r="F34" s="27"/>
@@ -2535,19 +2827,19 @@
       <c r="J34" s="27"/>
     </row>
     <row r="35" spans="1:12">
-      <c r="A35" s="44" t="s">
+      <c r="A35" s="46" t="s">
         <v>237</v>
       </c>
-      <c r="B35" s="44" t="s">
+      <c r="B35" s="46" t="s">
         <v>190</v>
       </c>
-      <c r="C35" s="45" t="s">
+      <c r="C35" s="48" t="s">
         <v>236</v>
       </c>
       <c r="D35" s="27" t="s">
         <v>247</v>
       </c>
-      <c r="E35" s="33" t="s">
+      <c r="E35" s="31" t="s">
         <v>202</v>
       </c>
       <c r="F35" s="27" t="s">
@@ -2562,18 +2854,18 @@
       <c r="I35" s="27" t="s">
         <v>144</v>
       </c>
-      <c r="J35" s="34" t="s">
+      <c r="J35" s="32" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="36" spans="1:12">
-      <c r="A36" s="44"/>
-      <c r="B36" s="44"/>
-      <c r="C36" s="46"/>
+      <c r="A36" s="46"/>
+      <c r="B36" s="46"/>
+      <c r="C36" s="49"/>
       <c r="D36" s="27" t="s">
         <v>179</v>
       </c>
-      <c r="E36" s="33" t="s">
+      <c r="E36" s="31" t="s">
         <v>204</v>
       </c>
       <c r="F36" s="27" t="s">
@@ -2588,18 +2880,18 @@
       <c r="I36" s="27" t="s">
         <v>144</v>
       </c>
-      <c r="J36" s="34" t="s">
+      <c r="J36" s="32" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="37" spans="1:12">
-      <c r="A37" s="44"/>
-      <c r="B37" s="44"/>
-      <c r="C37" s="46"/>
+      <c r="A37" s="46"/>
+      <c r="B37" s="46"/>
+      <c r="C37" s="49"/>
       <c r="D37" s="27" t="s">
         <v>180</v>
       </c>
-      <c r="E37" s="33" t="s">
+      <c r="E37" s="31" t="s">
         <v>206</v>
       </c>
       <c r="F37" s="27" t="s">
@@ -2614,18 +2906,18 @@
       <c r="I37" s="27" t="s">
         <v>144</v>
       </c>
-      <c r="J37" s="34" t="s">
+      <c r="J37" s="32" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="38" spans="1:12">
-      <c r="A38" s="44"/>
-      <c r="B38" s="44"/>
-      <c r="C38" s="46"/>
+      <c r="A38" s="46"/>
+      <c r="B38" s="46"/>
+      <c r="C38" s="49"/>
       <c r="D38" s="27" t="s">
         <v>248</v>
       </c>
-      <c r="E38" s="33" t="s">
+      <c r="E38" s="31" t="s">
         <v>207</v>
       </c>
       <c r="F38" s="27" t="s">
@@ -2640,18 +2932,18 @@
       <c r="I38" s="27" t="s">
         <v>144</v>
       </c>
-      <c r="J38" s="34" t="s">
+      <c r="J38" s="32" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="39" spans="1:12">
-      <c r="A39" s="44"/>
-      <c r="B39" s="44"/>
-      <c r="C39" s="47"/>
+      <c r="A39" s="46"/>
+      <c r="B39" s="46"/>
+      <c r="C39" s="50"/>
       <c r="D39" s="27" t="s">
         <v>249</v>
       </c>
-      <c r="E39" s="33" t="s">
+      <c r="E39" s="31" t="s">
         <v>208</v>
       </c>
       <c r="F39" s="27" t="s">
@@ -2666,14 +2958,14 @@
       <c r="I39" s="27" t="s">
         <v>144</v>
       </c>
-      <c r="J39" s="34" t="s">
+      <c r="J39" s="32" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="40" spans="1:12">
-      <c r="A40" s="29"/>
-      <c r="B40" s="29"/>
-      <c r="C40" s="37"/>
+      <c r="A40" s="39"/>
+      <c r="B40" s="39"/>
+      <c r="C40" s="39"/>
       <c r="D40" s="27"/>
       <c r="E40" s="27"/>
       <c r="F40" s="27"/>
@@ -2683,19 +2975,19 @@
       <c r="J40" s="27"/>
     </row>
     <row r="41" spans="1:12">
-      <c r="A41" s="44" t="s">
+      <c r="A41" s="46" t="s">
         <v>245</v>
       </c>
-      <c r="B41" s="44" t="s">
+      <c r="B41" s="46" t="s">
         <v>246</v>
       </c>
-      <c r="C41" s="45" t="s">
+      <c r="C41" s="48" t="s">
         <v>239</v>
       </c>
       <c r="D41" s="27" t="s">
         <v>250</v>
       </c>
-      <c r="E41" s="35" t="s">
+      <c r="E41" s="33" t="s">
         <v>240</v>
       </c>
       <c r="F41" s="27" t="s">
@@ -2710,18 +3002,18 @@
       <c r="I41" s="27" t="s">
         <v>144</v>
       </c>
-      <c r="J41" s="27" t="s">
-        <v>253</v>
+      <c r="J41" s="36" t="s">
+        <v>375</v>
       </c>
     </row>
     <row r="42" spans="1:12">
-      <c r="A42" s="44"/>
-      <c r="B42" s="44"/>
-      <c r="C42" s="46"/>
+      <c r="A42" s="46"/>
+      <c r="B42" s="46"/>
+      <c r="C42" s="49"/>
       <c r="D42" s="27" t="s">
         <v>251</v>
       </c>
-      <c r="E42" s="35" t="s">
+      <c r="E42" s="33" t="s">
         <v>241</v>
       </c>
       <c r="F42" s="27" t="s">
@@ -2736,18 +3028,18 @@
       <c r="I42" s="27" t="s">
         <v>144</v>
       </c>
-      <c r="J42" s="27" t="s">
-        <v>253</v>
+      <c r="J42" s="36" t="s">
+        <v>375</v>
       </c>
     </row>
     <row r="43" spans="1:12">
-      <c r="A43" s="44"/>
-      <c r="B43" s="44"/>
-      <c r="C43" s="46"/>
+      <c r="A43" s="46"/>
+      <c r="B43" s="46"/>
+      <c r="C43" s="49"/>
       <c r="D43" s="27" t="s">
         <v>252</v>
       </c>
-      <c r="E43" s="35" t="s">
+      <c r="E43" s="33" t="s">
         <v>242</v>
       </c>
       <c r="F43" s="27" t="s">
@@ -2762,18 +3054,18 @@
       <c r="I43" s="27" t="s">
         <v>144</v>
       </c>
-      <c r="J43" s="27" t="s">
-        <v>253</v>
+      <c r="J43" s="36" t="s">
+        <v>375</v>
       </c>
     </row>
     <row r="44" spans="1:12">
-      <c r="A44" s="44"/>
-      <c r="B44" s="44"/>
-      <c r="C44" s="46"/>
+      <c r="A44" s="46"/>
+      <c r="B44" s="46"/>
+      <c r="C44" s="49"/>
       <c r="D44" s="27" t="s">
         <v>139</v>
       </c>
-      <c r="E44" s="35" t="s">
+      <c r="E44" s="33" t="s">
         <v>243</v>
       </c>
       <c r="F44" s="27" t="s">
@@ -2788,227 +3080,531 @@
       <c r="I44" s="27" t="s">
         <v>144</v>
       </c>
-      <c r="J44" s="27" t="s">
-        <v>253</v>
+      <c r="J44" s="36" t="s">
+        <v>375</v>
       </c>
     </row>
     <row r="45" spans="1:12">
-      <c r="A45" s="44"/>
-      <c r="B45" s="44"/>
-      <c r="C45" s="47"/>
-      <c r="D45" s="39" t="s">
+      <c r="A45" s="46"/>
+      <c r="B45" s="46"/>
+      <c r="C45" s="50"/>
+      <c r="D45" s="34" t="s">
         <v>140</v>
       </c>
-      <c r="E45" s="40" t="s">
+      <c r="E45" s="35" t="s">
         <v>244</v>
       </c>
-      <c r="F45" s="39" t="s">
-        <v>144</v>
-      </c>
-      <c r="G45" s="39" t="s">
-        <v>144</v>
-      </c>
-      <c r="H45" s="39" t="s">
-        <v>144</v>
-      </c>
-      <c r="I45" s="39" t="s">
-        <v>144</v>
-      </c>
-      <c r="J45" s="39" t="s">
-        <v>253</v>
+      <c r="F45" s="34" t="s">
+        <v>144</v>
+      </c>
+      <c r="G45" s="34" t="s">
+        <v>144</v>
+      </c>
+      <c r="H45" s="34" t="s">
+        <v>144</v>
+      </c>
+      <c r="I45" s="34" t="s">
+        <v>144</v>
+      </c>
+      <c r="J45" s="36" t="s">
+        <v>375</v>
       </c>
     </row>
     <row r="46" spans="1:12" s="27" customFormat="1">
-      <c r="A46" s="36"/>
-      <c r="B46" s="36"/>
-      <c r="C46" s="36"/>
+      <c r="A46" s="39"/>
+      <c r="B46" s="39"/>
+      <c r="C46" s="39"/>
     </row>
     <row r="47" spans="1:12">
-      <c r="A47" s="44" t="s">
+      <c r="A47" s="46" t="s">
         <v>245</v>
       </c>
-      <c r="B47" s="44" t="s">
+      <c r="B47" s="46" t="s">
         <v>246</v>
       </c>
-      <c r="C47" s="48" t="s">
+      <c r="C47" s="51" t="s">
+        <v>279</v>
+      </c>
+      <c r="D47" s="36"/>
+      <c r="E47" s="37" t="s">
+        <v>275</v>
+      </c>
+      <c r="F47" s="36" t="s">
+        <v>144</v>
+      </c>
+      <c r="G47" s="36" t="s">
+        <v>144</v>
+      </c>
+      <c r="H47" s="36" t="s">
+        <v>144</v>
+      </c>
+      <c r="I47" s="36" t="s">
+        <v>144</v>
+      </c>
+      <c r="J47" s="36" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12">
+      <c r="A48" s="46"/>
+      <c r="B48" s="46"/>
+      <c r="C48" s="52"/>
+      <c r="D48" s="27"/>
+      <c r="E48" s="33" t="s">
+        <v>276</v>
+      </c>
+      <c r="F48" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="G48" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="H48" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="I48" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="J48" s="36" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
+      <c r="A49" s="46"/>
+      <c r="B49" s="46"/>
+      <c r="C49" s="52"/>
+      <c r="D49" s="27"/>
+      <c r="E49" s="33" t="s">
+        <v>277</v>
+      </c>
+      <c r="F49" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="G49" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="H49" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="I49" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="J49" s="36" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
+      <c r="A50" s="46"/>
+      <c r="B50" s="46"/>
+      <c r="C50" s="52"/>
+      <c r="D50" s="27"/>
+      <c r="E50" s="33" t="s">
+        <v>278</v>
+      </c>
+      <c r="F50" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="G50" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="H50" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="I50" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="J50" s="36" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
+      <c r="A51" s="46" t="s">
         <v>280</v>
       </c>
-      <c r="D47" s="41"/>
-      <c r="E47" s="42" t="s">
-        <v>276</v>
-      </c>
-      <c r="F47" s="41" t="s">
-        <v>144</v>
-      </c>
-      <c r="G47" s="41" t="s">
-        <v>144</v>
-      </c>
-      <c r="H47" s="41" t="s">
-        <v>144</v>
-      </c>
-      <c r="I47" s="41" t="s">
-        <v>144</v>
-      </c>
-      <c r="J47" s="41" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12">
-      <c r="A48" s="44"/>
-      <c r="B48" s="44"/>
-      <c r="C48" s="49"/>
-      <c r="D48" s="27"/>
-      <c r="E48" s="35" t="s">
-        <v>277</v>
-      </c>
-      <c r="F48" s="27" t="s">
-        <v>144</v>
-      </c>
-      <c r="G48" s="27" t="s">
-        <v>144</v>
-      </c>
-      <c r="H48" s="27" t="s">
-        <v>144</v>
-      </c>
-      <c r="I48" s="27" t="s">
-        <v>144</v>
-      </c>
-      <c r="J48" s="27" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10">
-      <c r="A49" s="44"/>
-      <c r="B49" s="44"/>
-      <c r="C49" s="49"/>
-      <c r="D49" s="27"/>
-      <c r="E49" s="35" t="s">
-        <v>278</v>
-      </c>
-      <c r="F49" s="27" t="s">
-        <v>144</v>
-      </c>
-      <c r="G49" s="27" t="s">
-        <v>144</v>
-      </c>
-      <c r="H49" s="27" t="s">
-        <v>144</v>
-      </c>
-      <c r="I49" s="27" t="s">
-        <v>144</v>
-      </c>
-      <c r="J49" s="27" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10">
-      <c r="A50" s="44"/>
-      <c r="B50" s="44"/>
-      <c r="C50" s="49"/>
-      <c r="D50" s="27"/>
-      <c r="E50" s="35" t="s">
-        <v>279</v>
-      </c>
-      <c r="F50" s="27" t="s">
-        <v>144</v>
-      </c>
-      <c r="G50" s="27" t="s">
-        <v>144</v>
-      </c>
-      <c r="H50" s="27" t="s">
-        <v>144</v>
-      </c>
-      <c r="I50" s="27" t="s">
-        <v>144</v>
-      </c>
-      <c r="J50" s="27" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10">
-      <c r="A51" s="44" t="s">
+      <c r="B51" s="46" t="s">
         <v>281</v>
       </c>
-      <c r="B51" s="44" t="s">
-        <v>282</v>
-      </c>
-      <c r="C51" s="49"/>
+      <c r="C51" s="52"/>
       <c r="D51" s="27"/>
       <c r="E51" s="22" t="s">
-        <v>288</v>
-      </c>
-      <c r="F51" s="27"/>
-      <c r="G51" s="27"/>
-      <c r="H51" s="27"/>
-      <c r="I51" s="27"/>
-      <c r="J51" s="27"/>
+        <v>287</v>
+      </c>
+      <c r="F51" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="G51" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="H51" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="I51" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="J51" s="27" t="s">
+        <v>376</v>
+      </c>
     </row>
     <row r="52" spans="1:10">
-      <c r="A52" s="44"/>
-      <c r="B52" s="44"/>
-      <c r="C52" s="49"/>
+      <c r="A52" s="46"/>
+      <c r="B52" s="46"/>
+      <c r="C52" s="52"/>
       <c r="D52" s="27"/>
       <c r="E52" s="22" t="s">
-        <v>289</v>
-      </c>
-      <c r="F52" s="27"/>
-      <c r="G52" s="27"/>
-      <c r="H52" s="27"/>
-      <c r="I52" s="27"/>
-      <c r="J52" s="27"/>
+        <v>288</v>
+      </c>
+      <c r="F52" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="G52" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="H52" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="I52" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="J52" s="27" t="s">
+        <v>376</v>
+      </c>
     </row>
     <row r="53" spans="1:10">
-      <c r="A53" s="44"/>
-      <c r="B53" s="44"/>
-      <c r="C53" s="49"/>
+      <c r="A53" s="46"/>
+      <c r="B53" s="46"/>
+      <c r="C53" s="52"/>
       <c r="D53" s="27"/>
       <c r="E53" s="22" t="s">
-        <v>290</v>
-      </c>
-      <c r="F53" s="27"/>
-      <c r="G53" s="27"/>
-      <c r="H53" s="27"/>
-      <c r="I53" s="27"/>
-      <c r="J53" s="27"/>
+        <v>289</v>
+      </c>
+      <c r="F53" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="G53" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="H53" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="I53" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="J53" s="27" t="s">
+        <v>376</v>
+      </c>
     </row>
     <row r="54" spans="1:10">
-      <c r="A54" s="44"/>
-      <c r="B54" s="44"/>
-      <c r="C54" s="49"/>
+      <c r="A54" s="46"/>
+      <c r="B54" s="46"/>
+      <c r="C54" s="52"/>
       <c r="D54" s="27"/>
       <c r="E54" s="22" t="s">
-        <v>291</v>
-      </c>
-      <c r="F54" s="27"/>
-      <c r="G54" s="27"/>
-      <c r="H54" s="27"/>
-      <c r="I54" s="27"/>
-      <c r="J54" s="27"/>
+        <v>290</v>
+      </c>
+      <c r="F54" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="G54" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="H54" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="I54" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="J54" s="27" t="s">
+        <v>376</v>
+      </c>
     </row>
     <row r="55" spans="1:10">
-      <c r="A55" s="44"/>
-      <c r="B55" s="44"/>
-      <c r="C55" s="50"/>
+      <c r="A55" s="46"/>
+      <c r="B55" s="46"/>
+      <c r="C55" s="53"/>
       <c r="D55" s="27"/>
       <c r="E55" s="22" t="s">
-        <v>292</v>
-      </c>
-      <c r="F55" s="27"/>
-      <c r="G55" s="27"/>
-      <c r="H55" s="27"/>
-      <c r="I55" s="27"/>
-      <c r="J55" s="27"/>
+        <v>291</v>
+      </c>
+      <c r="F55" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="G55" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="H55" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="I55" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="J55" s="27" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
+      <c r="A57" s="46" t="s">
+        <v>328</v>
+      </c>
+      <c r="B57" s="39" t="s">
+        <v>281</v>
+      </c>
+      <c r="C57" s="46" t="s">
+        <v>327</v>
+      </c>
+      <c r="D57" s="27" t="s">
+        <v>332</v>
+      </c>
+      <c r="E57" s="40" t="s">
+        <v>322</v>
+      </c>
+      <c r="F57" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="G57" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="H57" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="I57" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="J57" s="27" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
+      <c r="A58" s="46"/>
+      <c r="B58" s="46" t="s">
+        <v>329</v>
+      </c>
+      <c r="C58" s="46"/>
+      <c r="D58" s="27" t="s">
+        <v>334</v>
+      </c>
+      <c r="E58" s="40" t="s">
+        <v>307</v>
+      </c>
+      <c r="F58" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="G58" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="H58" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="I58" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="J58" s="27" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
+      <c r="A59" s="46"/>
+      <c r="B59" s="46"/>
+      <c r="C59" s="46"/>
+      <c r="D59" s="27" t="s">
+        <v>333</v>
+      </c>
+      <c r="E59" s="33" t="s">
+        <v>310</v>
+      </c>
+      <c r="F59" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="G59" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="H59" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="I59" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="J59" s="27" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
+      <c r="A60" s="46"/>
+      <c r="B60" s="46"/>
+      <c r="C60" s="46"/>
+      <c r="D60" s="27" t="s">
+        <v>335</v>
+      </c>
+      <c r="E60" s="40" t="s">
+        <v>302</v>
+      </c>
+      <c r="F60" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="G60" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="H60" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="I60" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="J60" s="27" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
+      <c r="A62" s="46" t="s">
+        <v>245</v>
+      </c>
+      <c r="B62" s="47" t="s">
+        <v>346</v>
+      </c>
+      <c r="C62" s="46" t="s">
+        <v>336</v>
+      </c>
+      <c r="D62" s="27" t="s">
+        <v>372</v>
+      </c>
+      <c r="E62" s="41" t="s">
+        <v>337</v>
+      </c>
+      <c r="F62" s="27"/>
+      <c r="G62" s="27"/>
+      <c r="H62" s="27"/>
+      <c r="I62" s="27"/>
+      <c r="J62" s="27" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
+      <c r="A63" s="46"/>
+      <c r="B63" s="46"/>
+      <c r="C63" s="46"/>
+      <c r="D63" s="27" t="s">
+        <v>373</v>
+      </c>
+      <c r="E63" s="41" t="s">
+        <v>338</v>
+      </c>
+      <c r="F63" s="27"/>
+      <c r="G63" s="27"/>
+      <c r="H63" s="27"/>
+      <c r="I63" s="27"/>
+      <c r="J63" s="27" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
+      <c r="A64" s="46"/>
+      <c r="B64" s="46"/>
+      <c r="C64" s="46"/>
+      <c r="D64" s="27" t="s">
+        <v>392</v>
+      </c>
+      <c r="E64" s="41" t="s">
+        <v>339</v>
+      </c>
+      <c r="F64" s="27"/>
+      <c r="G64" s="27"/>
+      <c r="H64" s="27"/>
+      <c r="I64" s="27"/>
+      <c r="J64" s="27" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
+      <c r="A65" s="46"/>
+      <c r="B65" s="46"/>
+      <c r="C65" s="46"/>
+      <c r="D65" s="27" t="s">
+        <v>393</v>
+      </c>
+      <c r="E65" s="41" t="s">
+        <v>340</v>
+      </c>
+      <c r="F65" s="27"/>
+      <c r="G65" s="27"/>
+      <c r="H65" s="27"/>
+      <c r="I65" s="27"/>
+      <c r="J65" s="27" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
+      <c r="A66" s="46"/>
+      <c r="B66" s="46"/>
+      <c r="C66" s="46"/>
+      <c r="D66" s="27" t="s">
+        <v>401</v>
+      </c>
+      <c r="E66" s="41" t="s">
+        <v>341</v>
+      </c>
+      <c r="F66" s="27"/>
+      <c r="G66" s="27"/>
+      <c r="H66" s="27"/>
+      <c r="I66" s="27"/>
+      <c r="J66" s="27" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
+      <c r="A67" s="46"/>
+      <c r="B67" s="46"/>
+      <c r="C67" s="46"/>
+      <c r="D67" s="27" t="s">
+        <v>402</v>
+      </c>
+      <c r="E67" s="41" t="s">
+        <v>342</v>
+      </c>
+      <c r="F67" s="27"/>
+      <c r="G67" s="27"/>
+      <c r="H67" s="27"/>
+      <c r="I67" s="27"/>
+      <c r="J67" s="27" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
+      <c r="A68" s="46"/>
+      <c r="B68" s="46"/>
+      <c r="C68" s="46"/>
+      <c r="D68" s="27" t="s">
+        <v>403</v>
+      </c>
+      <c r="E68" s="41" t="s">
+        <v>343</v>
+      </c>
+      <c r="F68" s="27"/>
+      <c r="G68" s="27"/>
+      <c r="H68" s="27"/>
+      <c r="I68" s="27"/>
+      <c r="J68" s="27" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
+      <c r="A69" s="46"/>
+      <c r="B69" s="46"/>
+      <c r="C69" s="46"/>
+      <c r="D69" s="27" t="s">
+        <v>404</v>
+      </c>
+      <c r="E69" s="41" t="s">
+        <v>344</v>
+      </c>
+      <c r="F69" s="27"/>
+      <c r="G69" s="27"/>
+      <c r="H69" s="27"/>
+      <c r="I69" s="27"/>
+      <c r="J69" s="27" t="s">
+        <v>374</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="28">
-    <mergeCell ref="C15:C20"/>
-    <mergeCell ref="C7:C13"/>
-    <mergeCell ref="C2:C5"/>
-    <mergeCell ref="C47:C55"/>
-    <mergeCell ref="C41:C45"/>
-    <mergeCell ref="C35:C39"/>
-    <mergeCell ref="C28:C33"/>
-    <mergeCell ref="C22:C26"/>
+  <mergeCells count="34">
     <mergeCell ref="B2:B5"/>
     <mergeCell ref="A2:A5"/>
     <mergeCell ref="B7:B10"/>
@@ -3021,14 +3617,28 @@
     <mergeCell ref="A15:A20"/>
     <mergeCell ref="B22:B26"/>
     <mergeCell ref="A22:A26"/>
+    <mergeCell ref="C2:C5"/>
+    <mergeCell ref="C47:C55"/>
+    <mergeCell ref="C41:C45"/>
+    <mergeCell ref="C35:C39"/>
+    <mergeCell ref="C28:C33"/>
+    <mergeCell ref="C22:C26"/>
+    <mergeCell ref="C62:C69"/>
+    <mergeCell ref="A62:A69"/>
+    <mergeCell ref="B62:B69"/>
+    <mergeCell ref="C15:C20"/>
+    <mergeCell ref="C7:C13"/>
+    <mergeCell ref="A35:A39"/>
+    <mergeCell ref="B35:B39"/>
+    <mergeCell ref="A41:A45"/>
+    <mergeCell ref="B41:B45"/>
+    <mergeCell ref="C57:C60"/>
+    <mergeCell ref="A57:A60"/>
+    <mergeCell ref="B58:B60"/>
     <mergeCell ref="A47:A50"/>
     <mergeCell ref="B47:B50"/>
     <mergeCell ref="A51:A55"/>
     <mergeCell ref="B51:B55"/>
-    <mergeCell ref="A35:A39"/>
-    <mergeCell ref="B35:B39"/>
-    <mergeCell ref="A41:A45"/>
-    <mergeCell ref="B41:B45"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3040,7 +3650,7 @@
   <dimension ref="A1:M10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C6"/>
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -3075,10 +3685,10 @@
         <v>10</v>
       </c>
       <c r="E1" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>265</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>266</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>15</v>
@@ -3090,7 +3700,7 @@
         <v>17</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="K1" s="3" t="s">
         <v>18</v>
@@ -3107,10 +3717,10 @@
         <v>240</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
@@ -3128,34 +3738,34 @@
         <v>241</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F3" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="G3" s="4" t="s">
         <v>271</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>272</v>
       </c>
       <c r="H3" s="4" t="s">
         <v>26</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="L3" s="4"/>
       <c r="M3" s="4"/>
@@ -3165,10 +3775,10 @@
         <v>242</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
@@ -3186,32 +3796,32 @@
         <v>243</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F5" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="G5" s="4" t="s">
         <v>271</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>272</v>
       </c>
       <c r="H5" s="4" t="s">
         <v>26</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="J5" s="4"/>
       <c r="K5" s="4" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="L5" s="4"/>
       <c r="M5" s="4"/>
@@ -3221,18 +3831,18 @@
         <v>244</v>
       </c>
       <c r="B6" s="10" t="s">
+        <v>257</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>258</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>259</v>
-      </c>
       <c r="D6" s="4" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
       <c r="G6" s="4" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H6" s="4"/>
       <c r="I6" s="4" t="s">
@@ -3245,13 +3855,13 @@
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="10" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
@@ -3266,13 +3876,13 @@
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="10" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
@@ -3283,21 +3893,21 @@
       <c r="J8" s="4"/>
       <c r="K8" s="4"/>
       <c r="L8" s="4" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="M8" s="4" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="10" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
@@ -3312,13 +3922,13 @@
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="10" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
@@ -3341,15 +3951,14 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C3"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="16.44140625" customWidth="1"/>
     <col min="2" max="2" width="17.109375" customWidth="1"/>
-    <col min="3" max="3" width="18.6640625" customWidth="1"/>
-    <col min="4" max="4" width="17.77734375" customWidth="1"/>
+    <col min="3" max="3" width="10.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -3365,57 +3974,57 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="10" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="10" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="10" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="10" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="10" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B6" s="10" t="s">
+        <v>299</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>300</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>301</v>
       </c>
     </row>
   </sheetData>
@@ -3427,7 +4036,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
@@ -3456,36 +4065,36 @@
         <v>11</v>
       </c>
       <c r="D1" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>312</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>313</v>
       </c>
-      <c r="F1" s="3" t="s">
-        <v>314</v>
-      </c>
       <c r="G1" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>318</v>
       </c>
-      <c r="H1" s="3" t="s">
-        <v>319</v>
-      </c>
       <c r="I1" s="3" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="10" t="s">
+        <v>307</v>
+      </c>
+      <c r="B2" s="10" t="s">
         <v>308</v>
       </c>
-      <c r="B2" s="10" t="s">
-        <v>309</v>
-      </c>
       <c r="C2" s="4" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
@@ -3497,13 +4106,13 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="10" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
@@ -3515,52 +4124,52 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="10" t="s">
+        <v>302</v>
+      </c>
+      <c r="B4" s="10" t="s">
         <v>303</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="C4" s="4" t="s">
         <v>304</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>305</v>
-      </c>
       <c r="D4" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>315</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="F4" s="4" t="s">
         <v>316</v>
       </c>
-      <c r="F4" s="4" t="s">
-        <v>317</v>
-      </c>
-      <c r="G4" s="43" t="s">
+      <c r="G4" s="38" t="s">
+        <v>319</v>
+      </c>
+      <c r="H4" s="4" t="s">
         <v>320</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>321</v>
       </c>
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="10" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
-      <c r="G5" s="43"/>
+      <c r="G5" s="38"/>
       <c r="H5" s="4"/>
       <c r="I5" s="4" t="s">
+        <v>325</v>
+      </c>
+      <c r="J5" s="4" t="s">
         <v>326</v>
-      </c>
-      <c r="J5" s="4" t="s">
-        <v>327</v>
       </c>
     </row>
   </sheetData>
@@ -3571,12 +4180,394 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:S9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="19.77734375" customWidth="1"/>
+    <col min="2" max="2" width="27.44140625" customWidth="1"/>
+    <col min="3" max="3" width="8.44140625" customWidth="1"/>
+    <col min="4" max="4" width="16.33203125" customWidth="1"/>
+    <col min="5" max="5" width="14.33203125" customWidth="1"/>
+    <col min="6" max="6" width="19.77734375" customWidth="1"/>
+    <col min="7" max="7" width="18" customWidth="1"/>
+    <col min="8" max="10" width="12.6640625" customWidth="1"/>
+    <col min="11" max="11" width="12.5546875" customWidth="1"/>
+    <col min="12" max="12" width="11.88671875" customWidth="1"/>
+    <col min="13" max="13" width="15.77734375" customWidth="1"/>
+    <col min="14" max="14" width="15.88671875" customWidth="1"/>
+    <col min="15" max="15" width="20.21875" customWidth="1"/>
+    <col min="16" max="17" width="15.88671875" customWidth="1"/>
+    <col min="18" max="18" width="13.21875" customWidth="1"/>
+    <col min="19" max="19" width="20.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19">
+      <c r="A1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>359</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>365</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>380</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>389</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>382</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
+      <c r="A2" s="45" t="s">
+        <v>337</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>347</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="4"/>
+      <c r="P2" s="4"/>
+      <c r="Q2" s="4"/>
+      <c r="R2" s="4"/>
+      <c r="S2" s="4"/>
+    </row>
+    <row r="3" spans="1:19">
+      <c r="A3" s="45" t="s">
+        <v>338</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>348</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>369</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>362</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>363</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4" t="s">
+        <v>364</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>367</v>
+      </c>
+      <c r="M3" s="4" t="s">
+        <v>368</v>
+      </c>
+      <c r="N3" s="4" t="s">
+        <v>381</v>
+      </c>
+      <c r="O3" s="4" t="s">
+        <v>363</v>
+      </c>
+      <c r="P3" s="4" t="s">
+        <v>385</v>
+      </c>
+      <c r="Q3" s="4" t="s">
+        <v>364</v>
+      </c>
+      <c r="R3" s="4" t="s">
+        <v>384</v>
+      </c>
+      <c r="S3" s="4"/>
+    </row>
+    <row r="4" spans="1:19">
+      <c r="A4" s="45" t="s">
+        <v>339</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>349</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4" t="s">
+        <v>377</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>378</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>379</v>
+      </c>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4" t="s">
+        <v>364</v>
+      </c>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4" t="s">
+        <v>390</v>
+      </c>
+      <c r="M4" s="4" t="s">
+        <v>391</v>
+      </c>
+      <c r="N4" s="4" t="s">
+        <v>386</v>
+      </c>
+      <c r="O4" s="4" t="s">
+        <v>387</v>
+      </c>
+      <c r="P4" s="4" t="s">
+        <v>388</v>
+      </c>
+      <c r="Q4" s="4" t="s">
+        <v>364</v>
+      </c>
+      <c r="R4" s="4"/>
+      <c r="S4" s="4"/>
+    </row>
+    <row r="5" spans="1:19">
+      <c r="A5" s="45" t="s">
+        <v>340</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>350</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>395</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>396</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>394</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>363</v>
+      </c>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+      <c r="O5" s="4"/>
+      <c r="P5" s="4"/>
+      <c r="Q5" s="4"/>
+      <c r="R5" s="4"/>
+      <c r="S5" s="4"/>
+    </row>
+    <row r="6" spans="1:19">
+      <c r="A6" s="45" t="s">
+        <v>341</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>351</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>397</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>398</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>394</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>363</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>399</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>400</v>
+      </c>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+      <c r="O6" s="4"/>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="4"/>
+      <c r="R6" s="4"/>
+      <c r="S6" s="4"/>
+    </row>
+    <row r="7" spans="1:19">
+      <c r="A7" s="45" t="s">
+        <v>342</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>352</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="4"/>
+      <c r="O7" s="4"/>
+      <c r="P7" s="4"/>
+      <c r="Q7" s="4"/>
+      <c r="R7" s="4"/>
+      <c r="S7" s="4"/>
+    </row>
+    <row r="8" spans="1:19">
+      <c r="A8" s="45" t="s">
+        <v>343</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>353</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="4"/>
+      <c r="O8" s="4"/>
+      <c r="P8" s="4"/>
+      <c r="Q8" s="4"/>
+      <c r="R8" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="S8" s="4" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
+      <c r="A9" s="42" t="s">
+        <v>344</v>
+      </c>
+      <c r="B9" s="43" t="s">
+        <v>354</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="D9" s="44"/>
+      <c r="E9" s="44"/>
+      <c r="F9" s="44"/>
+      <c r="G9" s="44"/>
+      <c r="H9" s="44"/>
+      <c r="I9" s="44"/>
+      <c r="J9" s="44"/>
+      <c r="K9" s="44"/>
+      <c r="L9" s="44"/>
+      <c r="M9" s="44"/>
+      <c r="N9" s="44"/>
+      <c r="O9" s="44"/>
+      <c r="P9" s="44"/>
+      <c r="Q9" s="44"/>
+      <c r="R9" s="44"/>
+      <c r="S9" s="44"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -3613,7 +4604,7 @@
         <v>5</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -3677,44 +4668,47 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="8" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>32</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>261</v>
+        <v>260</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="8" t="s">
+        <v>292</v>
+      </c>
+      <c r="B8" s="8" t="s">
         <v>293</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>294</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>32</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="8" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>32</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -4598,7 +5592,7 @@
     <col min="19" max="19" width="19.5546875" customWidth="1"/>
     <col min="20" max="20" width="13.21875" customWidth="1"/>
     <col min="21" max="21" width="13.6640625" customWidth="1"/>
-    <col min="22" max="22" width="14.44140625" style="32" customWidth="1"/>
+    <col min="22" max="22" width="14.44140625" style="30" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" s="14" customFormat="1">
@@ -4665,7 +5659,7 @@
       <c r="U1" s="13" t="s">
         <v>229</v>
       </c>
-      <c r="V1" s="30" t="s">
+      <c r="V1" s="28" t="s">
         <v>230</v>
       </c>
     </row>
@@ -4723,7 +5717,7 @@
       <c r="S2" s="12"/>
       <c r="T2" s="12"/>
       <c r="U2" s="12"/>
-      <c r="V2" s="31"/>
+      <c r="V2" s="29"/>
     </row>
     <row r="3" spans="1:22" s="5" customFormat="1">
       <c r="A3" s="10" t="s">
@@ -4753,7 +5747,7 @@
       <c r="S3" s="12"/>
       <c r="T3" s="12"/>
       <c r="U3" s="12"/>
-      <c r="V3" s="31"/>
+      <c r="V3" s="29"/>
     </row>
     <row r="4" spans="1:22" s="5" customFormat="1">
       <c r="A4" s="10" t="s">
@@ -4783,7 +5777,7 @@
       <c r="S4" s="12"/>
       <c r="T4" s="12"/>
       <c r="U4" s="12"/>
-      <c r="V4" s="31"/>
+      <c r="V4" s="29"/>
     </row>
     <row r="5" spans="1:22" s="5" customFormat="1">
       <c r="A5" s="10" t="s">
@@ -4839,7 +5833,7 @@
       <c r="S5" s="12"/>
       <c r="T5" s="12"/>
       <c r="U5" s="12"/>
-      <c r="V5" s="31"/>
+      <c r="V5" s="29"/>
     </row>
     <row r="6" spans="1:22" s="5" customFormat="1">
       <c r="A6" s="10" t="s">
@@ -4879,7 +5873,7 @@
       <c r="U6" s="12" t="s">
         <v>234</v>
       </c>
-      <c r="V6" s="31" t="s">
+      <c r="V6" s="29" t="s">
         <v>235</v>
       </c>
     </row>

--- a/KULS_Sankar/TestData/ijaraTestData.xlsx
+++ b/KULS_Sankar/TestData/ijaraTestData.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="72" windowWidth="23256" windowHeight="12600" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="72" windowWidth="23256" windowHeight="12600" firstSheet="10" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="AllFeaturesAutomationInfo" sheetId="8" r:id="rId1"/>
@@ -20,13 +20,14 @@
     <sheet name="MU_DataCheck_AppDetails" sheetId="11" r:id="rId11"/>
     <sheet name="Tawarruq_AppData_CustomerDetail" sheetId="12" r:id="rId12"/>
     <sheet name="MU_AppData_Income" sheetId="13" r:id="rId13"/>
+    <sheet name="MU_DataCheck_EmpDetails" sheetId="14" r:id="rId14"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="869" uniqueCount="406">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="993" uniqueCount="453">
   <si>
     <t>UserName</t>
   </si>
@@ -805,9 +806,6 @@
     <t>3393</t>
   </si>
   <si>
-    <t>3032</t>
-  </si>
-  <si>
     <t>Murabaha -- App Data Entry</t>
   </si>
   <si>
@@ -871,9 +869,6 @@
     <t>MURABAHA - App Data Check</t>
   </si>
   <si>
-    <t>Application Details Screen</t>
-  </si>
-  <si>
     <t>DS_AT_MCUD_07</t>
   </si>
   <si>
@@ -1013,9 +1008,6 @@
   </si>
   <si>
     <t>Tawarruq -- App Data Check</t>
-  </si>
-  <si>
-    <t>Customer Details Screen</t>
   </si>
   <si>
     <t>TW_AppData_AppDetails.feature</t>
@@ -1089,185 +1081,341 @@
     <t>Income</t>
   </si>
   <si>
-    <t>Customer Financials Tab -
+    <t>DS_AT_MU_INC_01</t>
+  </si>
+  <si>
+    <t>DS_AT_MU_INC_02</t>
+  </si>
+  <si>
+    <t>DS_AT_MU_INC_03</t>
+  </si>
+  <si>
+    <t>DS_AT_MU_INC_04</t>
+  </si>
+  <si>
+    <t>DS_AT_MU_INC_05</t>
+  </si>
+  <si>
+    <t>DS_AT_MU_INC_06</t>
+  </si>
+  <si>
+    <t>DS_AT_MU_INC_07</t>
+  </si>
+  <si>
+    <t>DS_AT_MU_INC_08</t>
+  </si>
+  <si>
+    <t>Salary Credited To Bank</t>
+  </si>
+  <si>
+    <t>YES</t>
+  </si>
+  <si>
+    <t>Lumpsum Amount</t>
+  </si>
+  <si>
+    <t>Pension Amount</t>
+  </si>
+  <si>
+    <t>Frequency</t>
+  </si>
+  <si>
+    <t>Amount</t>
+  </si>
+  <si>
+    <t>Adjusted %</t>
+  </si>
+  <si>
+    <t>CASH RENTAL INCOME</t>
+  </si>
+  <si>
+    <t>Monthly</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>Bank Name</t>
+  </si>
+  <si>
+    <t>Branch Name</t>
+  </si>
+  <si>
+    <t>HDFC BANK</t>
+  </si>
+  <si>
+    <t>VASHI</t>
+  </si>
+  <si>
+    <t>1450000</t>
+  </si>
+  <si>
+    <t>13000</t>
+  </si>
+  <si>
+    <t>85000</t>
+  </si>
+  <si>
+    <t>INC_01_01, INC_01_03</t>
+  </si>
+  <si>
+    <t>INC_01_02</t>
+  </si>
+  <si>
+    <t>MU_AppData_Income.feature</t>
+  </si>
+  <si>
+    <t>MU_AppData_CFDebt.feature</t>
+  </si>
+  <si>
+    <t>MU_DataCheck_AppDetails.feature</t>
+  </si>
+  <si>
+    <t>Commission Income</t>
+  </si>
+  <si>
+    <t>Yearly</t>
+  </si>
+  <si>
+    <t>58000</t>
+  </si>
+  <si>
+    <t>Deduction</t>
+  </si>
+  <si>
+    <t>PROVIDEND FUND</t>
+  </si>
+  <si>
+    <t>Deduction_Adj%</t>
+  </si>
+  <si>
+    <t>Deduction_Frequency</t>
+  </si>
+  <si>
+    <t>CAD</t>
+  </si>
+  <si>
+    <t>1500</t>
+  </si>
+  <si>
+    <t>INCOME TAX</t>
+  </si>
+  <si>
+    <t>Half Yearly</t>
+  </si>
+  <si>
+    <t>750</t>
+  </si>
+  <si>
+    <t>Deduction_Amt</t>
+  </si>
+  <si>
+    <t>ICICIBANK</t>
+  </si>
+  <si>
+    <t>JAIPUR BRANCH</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> INC_01_04 --&gt;  INC_01_27</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> INC_02_01</t>
+  </si>
+  <si>
+    <t>Rental Income In Bank</t>
+  </si>
+  <si>
+    <t>1150500</t>
+  </si>
+  <si>
+    <t>18500</t>
+  </si>
+  <si>
+    <t>880000</t>
+  </si>
+  <si>
+    <t>8950</t>
+  </si>
+  <si>
+    <t>22000</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>CPV_03_01 --&gt; CPV_03_08</t>
+  </si>
+  <si>
+    <t>INC_04_01, INC_04_02,  INC_04_03</t>
+  </si>
+  <si>
+    <t>INC_04_04, INC_04_05</t>
+  </si>
+  <si>
+    <t>INC_04_06, INC_04_07, INC_04_08</t>
+  </si>
+  <si>
+    <t>SAR</t>
+  </si>
+  <si>
+    <t>AT_MU_EDC_01</t>
+  </si>
+  <si>
+    <t>DS_AT_MU_EDC_01</t>
+  </si>
+  <si>
+    <t>AT_MU_EDC_02</t>
+  </si>
+  <si>
+    <t>DS_AT_MU_EDC_02</t>
+  </si>
+  <si>
+    <t>AT_MU_EDC_03</t>
+  </si>
+  <si>
+    <t>AT_MU_EDC_04</t>
+  </si>
+  <si>
+    <t>AT_MU_EDC_05</t>
+  </si>
+  <si>
+    <t>AT_MU_EDC_06</t>
+  </si>
+  <si>
+    <t>AT_MU_EDC_07</t>
+  </si>
+  <si>
+    <t>AT_MU_EDC_08</t>
+  </si>
+  <si>
+    <t>DS_AT_MU_EDC_03</t>
+  </si>
+  <si>
+    <t>DS_AT_MU_EDC_04</t>
+  </si>
+  <si>
+    <t>DS_AT_MU_EDC_05</t>
+  </si>
+  <si>
+    <t>DS_AT_MU_EDC_06</t>
+  </si>
+  <si>
+    <t>DS_AT_MU_EDC_07</t>
+  </si>
+  <si>
+    <t>DS_AT_MU_EDC_08</t>
+  </si>
+  <si>
+    <t>Employment_Period</t>
+  </si>
+  <si>
+    <t>Nature_Of_Employment</t>
+  </si>
+  <si>
+    <t>Employer_Name_Others</t>
+  </si>
+  <si>
+    <t>Employee_ID</t>
+  </si>
+  <si>
+    <t>Date_of_Joining</t>
+  </si>
+  <si>
+    <t>Employment_Type</t>
+  </si>
+  <si>
+    <t>Share_Holder_Percent</t>
+  </si>
+  <si>
+    <t>Previous</t>
+  </si>
+  <si>
+    <t>Business</t>
+  </si>
+  <si>
+    <t>Bank of America</t>
+  </si>
+  <si>
+    <t>9566</t>
+  </si>
+  <si>
+    <t>Jun 08 2007</t>
+  </si>
+  <si>
+    <t>PERMANENT</t>
+  </si>
+  <si>
+    <t>75</t>
+  </si>
+  <si>
+    <t>3004</t>
+  </si>
+  <si>
+    <t>Sprint - 69</t>
+  </si>
+  <si>
+    <t>EDC_01_01, EDC_01_02, EDC_01_03, EDC_01_04</t>
+  </si>
+  <si>
+    <t>EDC_01_05</t>
+  </si>
+  <si>
+    <t>EDC_01_06</t>
+  </si>
+  <si>
+    <t>EDC_01_07</t>
+  </si>
+  <si>
+    <t>EDC_01_08</t>
+  </si>
+  <si>
+    <t>EDC_01_09 --&gt; EDC_01_29</t>
+  </si>
+  <si>
+    <t>MU_DataCheck_EmpDetails.feature</t>
+  </si>
+  <si>
+    <t>Murabaha - Data Check
+Application Details Screen</t>
+  </si>
+  <si>
+    <t>Murabaha - App Data Entry
+Customer Debt Screen</t>
+  </si>
+  <si>
+    <t>Tawarruq - App Data Entry
+Application Details Screen</t>
+  </si>
+  <si>
+    <t>Tawarruq - App Data Entry
+Customer Details Screen</t>
+  </si>
+  <si>
+    <t>Murabaha - App Data Entry
+Customer Financials Tab -
  Income Screen</t>
   </si>
   <si>
-    <t>DS_AT_MU_INC_01</t>
-  </si>
-  <si>
-    <t>DS_AT_MU_INC_02</t>
-  </si>
-  <si>
-    <t>DS_AT_MU_INC_03</t>
-  </si>
-  <si>
-    <t>DS_AT_MU_INC_04</t>
-  </si>
-  <si>
-    <t>DS_AT_MU_INC_05</t>
-  </si>
-  <si>
-    <t>DS_AT_MU_INC_06</t>
-  </si>
-  <si>
-    <t>DS_AT_MU_INC_07</t>
-  </si>
-  <si>
-    <t>DS_AT_MU_INC_08</t>
-  </si>
-  <si>
-    <t>Salary Credited To Bank</t>
-  </si>
-  <si>
-    <t>YES</t>
-  </si>
-  <si>
-    <t>Lumpsum Amount</t>
-  </si>
-  <si>
-    <t>Pension Amount</t>
-  </si>
-  <si>
-    <t>Frequency</t>
-  </si>
-  <si>
-    <t>Amount</t>
-  </si>
-  <si>
-    <t>Adjusted %</t>
-  </si>
-  <si>
-    <t>CASH RENTAL INCOME</t>
-  </si>
-  <si>
-    <t>Monthly</t>
-  </si>
-  <si>
-    <t>100</t>
-  </si>
-  <si>
-    <t>Bank Name</t>
-  </si>
-  <si>
-    <t>Branch Name</t>
-  </si>
-  <si>
-    <t>HDFC BANK</t>
-  </si>
-  <si>
-    <t>VASHI</t>
-  </si>
-  <si>
-    <t>1450000</t>
-  </si>
-  <si>
-    <t>13000</t>
-  </si>
-  <si>
-    <t>85000</t>
-  </si>
-  <si>
-    <t>INC_01_01, INC_01_03</t>
-  </si>
-  <si>
-    <t>INC_01_02</t>
-  </si>
-  <si>
-    <t>MU_AppData_Income.feature</t>
-  </si>
-  <si>
-    <t>MU_AppData_CFDebt.feature</t>
-  </si>
-  <si>
-    <t>MU_DataCheck_AppDetails.feature</t>
-  </si>
-  <si>
-    <t>Commission Income</t>
-  </si>
-  <si>
-    <t>Yearly</t>
-  </si>
-  <si>
-    <t>58000</t>
-  </si>
-  <si>
-    <t>Deduction</t>
-  </si>
-  <si>
-    <t>PROVIDEND FUND</t>
-  </si>
-  <si>
-    <t>Deduction_Adj%</t>
-  </si>
-  <si>
-    <t>Deduction_Frequency</t>
-  </si>
-  <si>
-    <t>CAD</t>
-  </si>
-  <si>
-    <t>1500</t>
-  </si>
-  <si>
-    <t>INCOME TAX</t>
-  </si>
-  <si>
-    <t>Half Yearly</t>
-  </si>
-  <si>
-    <t>750</t>
-  </si>
-  <si>
-    <t>Deduction_Amt</t>
-  </si>
-  <si>
-    <t>ICICIBANK</t>
-  </si>
-  <si>
-    <t>JAIPUR BRANCH</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> INC_01_04 --&gt;  INC_01_27</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> INC_02_01</t>
-  </si>
-  <si>
-    <t>Rental Income In Bank</t>
-  </si>
-  <si>
-    <t>1150500</t>
-  </si>
-  <si>
-    <t>18500</t>
-  </si>
-  <si>
-    <t>880000</t>
-  </si>
-  <si>
-    <t>8950</t>
-  </si>
-  <si>
-    <t>22000</t>
-  </si>
-  <si>
-    <t>e</t>
-  </si>
-  <si>
-    <t>CPV_03_01 --&gt; CPV_03_08</t>
-  </si>
-  <si>
-    <t>INC_04_01, INC_04_02,  INC_04_03</t>
-  </si>
-  <si>
-    <t>INC_04_04, INC_04_05</t>
-  </si>
-  <si>
-    <t>INC_04_06, INC_04_07, INC_04_08</t>
-  </si>
-  <si>
-    <t>SAR</t>
+    <t>Murabaha - Data Check
+Employment Details Screen</t>
+  </si>
+  <si>
+    <t>3032</t>
+  </si>
+  <si>
+    <t>DS_AT_MU_EDC_09</t>
+  </si>
+  <si>
+    <t>AT_MU_EDC_09</t>
+  </si>
+  <si>
+    <t>Matching_Data</t>
+  </si>
+  <si>
+    <t>Mismatching_Data</t>
+  </si>
+  <si>
+    <t>Bank of India</t>
   </si>
 </sst>
 </file>
@@ -1277,7 +1425,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1339,6 +1487,13 @@
       <color rgb="FF444444"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <charset val="1"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1474,7 +1629,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1555,6 +1710,21 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1875,18 +2045,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L69"/>
+  <dimension ref="A1:L76"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D73" sqref="D73"/>
+      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B87" sqref="B87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="27.44140625" style="25" customWidth="1"/>
-    <col min="2" max="2" width="23.44140625" style="25" customWidth="1"/>
-    <col min="3" max="3" width="13.21875" style="25" customWidth="1"/>
+    <col min="2" max="2" width="28" style="25" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" style="25" customWidth="1"/>
     <col min="4" max="4" width="43" customWidth="1"/>
     <col min="5" max="5" width="19.5546875" customWidth="1"/>
     <col min="6" max="6" width="11.5546875" customWidth="1"/>
@@ -1937,13 +2107,13 @@
       </c>
     </row>
     <row r="2" spans="1:12">
-      <c r="A2" s="46" t="s">
+      <c r="A2" s="51" t="s">
         <v>184</v>
       </c>
-      <c r="B2" s="46" t="s">
+      <c r="B2" s="51" t="s">
         <v>246</v>
       </c>
-      <c r="C2" s="48" t="s">
+      <c r="C2" s="53" t="s">
         <v>138</v>
       </c>
       <c r="D2" s="27" t="s">
@@ -1971,9 +2141,9 @@
       <c r="L2" s="27"/>
     </row>
     <row r="3" spans="1:12">
-      <c r="A3" s="46"/>
-      <c r="B3" s="46"/>
-      <c r="C3" s="49"/>
+      <c r="A3" s="51"/>
+      <c r="B3" s="51"/>
+      <c r="C3" s="54"/>
       <c r="D3" s="27" t="s">
         <v>139</v>
       </c>
@@ -1999,9 +2169,9 @@
       <c r="L3" s="27"/>
     </row>
     <row r="4" spans="1:12">
-      <c r="A4" s="46"/>
-      <c r="B4" s="46"/>
-      <c r="C4" s="49"/>
+      <c r="A4" s="51"/>
+      <c r="B4" s="51"/>
+      <c r="C4" s="54"/>
       <c r="D4" s="27" t="s">
         <v>140</v>
       </c>
@@ -2027,9 +2197,9 @@
       <c r="L4" s="27"/>
     </row>
     <row r="5" spans="1:12">
-      <c r="A5" s="46"/>
-      <c r="B5" s="46"/>
-      <c r="C5" s="50"/>
+      <c r="A5" s="51"/>
+      <c r="B5" s="51"/>
+      <c r="C5" s="55"/>
       <c r="D5" s="27" t="s">
         <v>142</v>
       </c>
@@ -2069,13 +2239,13 @@
       <c r="L6" s="27"/>
     </row>
     <row r="7" spans="1:12">
-      <c r="A7" s="46" t="s">
+      <c r="A7" s="51" t="s">
         <v>185</v>
       </c>
-      <c r="B7" s="46" t="s">
+      <c r="B7" s="51" t="s">
         <v>164</v>
       </c>
-      <c r="C7" s="48" t="s">
+      <c r="C7" s="53" t="s">
         <v>151</v>
       </c>
       <c r="D7" s="23" t="s">
@@ -2103,9 +2273,9 @@
       <c r="L7" s="27"/>
     </row>
     <row r="8" spans="1:12">
-      <c r="A8" s="46"/>
-      <c r="B8" s="46"/>
-      <c r="C8" s="49"/>
+      <c r="A8" s="51"/>
+      <c r="B8" s="51"/>
+      <c r="C8" s="54"/>
       <c r="D8" s="27" t="s">
         <v>154</v>
       </c>
@@ -2131,9 +2301,9 @@
       <c r="L8" s="27"/>
     </row>
     <row r="9" spans="1:12">
-      <c r="A9" s="46"/>
-      <c r="B9" s="46"/>
-      <c r="C9" s="49"/>
+      <c r="A9" s="51"/>
+      <c r="B9" s="51"/>
+      <c r="C9" s="54"/>
       <c r="D9" s="27" t="s">
         <v>155</v>
       </c>
@@ -2159,9 +2329,9 @@
       <c r="L9" s="27"/>
     </row>
     <row r="10" spans="1:12">
-      <c r="A10" s="46"/>
-      <c r="B10" s="46"/>
-      <c r="C10" s="49"/>
+      <c r="A10" s="51"/>
+      <c r="B10" s="51"/>
+      <c r="C10" s="54"/>
       <c r="D10" s="27" t="s">
         <v>156</v>
       </c>
@@ -2193,7 +2363,7 @@
       <c r="B11" s="39" t="s">
         <v>166</v>
       </c>
-      <c r="C11" s="49"/>
+      <c r="C11" s="54"/>
       <c r="D11" s="27" t="s">
         <v>157</v>
       </c>
@@ -2219,13 +2389,13 @@
       <c r="L11" s="27"/>
     </row>
     <row r="12" spans="1:12">
-      <c r="A12" s="46" t="s">
+      <c r="A12" s="51" t="s">
         <v>184</v>
       </c>
-      <c r="B12" s="46" t="s">
+      <c r="B12" s="51" t="s">
         <v>163</v>
       </c>
-      <c r="C12" s="49"/>
+      <c r="C12" s="54"/>
       <c r="D12" s="27" t="s">
         <v>141</v>
       </c>
@@ -2251,9 +2421,9 @@
       <c r="L12" s="27"/>
     </row>
     <row r="13" spans="1:12">
-      <c r="A13" s="46"/>
-      <c r="B13" s="46"/>
-      <c r="C13" s="50"/>
+      <c r="A13" s="51"/>
+      <c r="B13" s="51"/>
+      <c r="C13" s="55"/>
       <c r="D13" s="27" t="s">
         <v>158</v>
       </c>
@@ -2293,13 +2463,13 @@
       <c r="L14" s="27"/>
     </row>
     <row r="15" spans="1:12">
-      <c r="A15" s="46" t="s">
+      <c r="A15" s="51" t="s">
         <v>186</v>
       </c>
-      <c r="B15" s="46" t="s">
+      <c r="B15" s="51" t="s">
         <v>168</v>
       </c>
-      <c r="C15" s="48" t="s">
+      <c r="C15" s="53" t="s">
         <v>167</v>
       </c>
       <c r="D15" s="27" t="s">
@@ -2327,9 +2497,9 @@
       <c r="L15" s="27"/>
     </row>
     <row r="16" spans="1:12">
-      <c r="A16" s="46"/>
-      <c r="B16" s="46"/>
-      <c r="C16" s="49"/>
+      <c r="A16" s="51"/>
+      <c r="B16" s="51"/>
+      <c r="C16" s="54"/>
       <c r="D16" s="27" t="s">
         <v>170</v>
       </c>
@@ -2355,9 +2525,9 @@
       <c r="L16" s="27"/>
     </row>
     <row r="17" spans="1:12">
-      <c r="A17" s="46"/>
-      <c r="B17" s="46"/>
-      <c r="C17" s="49"/>
+      <c r="A17" s="51"/>
+      <c r="B17" s="51"/>
+      <c r="C17" s="54"/>
       <c r="D17" s="27" t="s">
         <v>171</v>
       </c>
@@ -2383,9 +2553,9 @@
       <c r="L17" s="27"/>
     </row>
     <row r="18" spans="1:12">
-      <c r="A18" s="46"/>
-      <c r="B18" s="46"/>
-      <c r="C18" s="49"/>
+      <c r="A18" s="51"/>
+      <c r="B18" s="51"/>
+      <c r="C18" s="54"/>
       <c r="D18" s="27" t="s">
         <v>172</v>
       </c>
@@ -2411,9 +2581,9 @@
       <c r="L18" s="27"/>
     </row>
     <row r="19" spans="1:12">
-      <c r="A19" s="46"/>
-      <c r="B19" s="46"/>
-      <c r="C19" s="49"/>
+      <c r="A19" s="51"/>
+      <c r="B19" s="51"/>
+      <c r="C19" s="54"/>
       <c r="D19" s="27" t="s">
         <v>173</v>
       </c>
@@ -2439,9 +2609,9 @@
       <c r="L19" s="27"/>
     </row>
     <row r="20" spans="1:12">
-      <c r="A20" s="46"/>
-      <c r="B20" s="46"/>
-      <c r="C20" s="50"/>
+      <c r="A20" s="51"/>
+      <c r="B20" s="51"/>
+      <c r="C20" s="55"/>
       <c r="D20" s="27" t="s">
         <v>174</v>
       </c>
@@ -2481,13 +2651,13 @@
       <c r="L21" s="27"/>
     </row>
     <row r="22" spans="1:12">
-      <c r="A22" s="46" t="s">
+      <c r="A22" s="51" t="s">
         <v>186</v>
       </c>
-      <c r="B22" s="46" t="s">
+      <c r="B22" s="51" t="s">
         <v>190</v>
       </c>
-      <c r="C22" s="48" t="s">
+      <c r="C22" s="53" t="s">
         <v>177</v>
       </c>
       <c r="D22" s="27" t="s">
@@ -2515,9 +2685,9 @@
       <c r="L22" s="27"/>
     </row>
     <row r="23" spans="1:12">
-      <c r="A23" s="46"/>
-      <c r="B23" s="46"/>
-      <c r="C23" s="49"/>
+      <c r="A23" s="51"/>
+      <c r="B23" s="51"/>
+      <c r="C23" s="54"/>
       <c r="D23" s="27" t="s">
         <v>179</v>
       </c>
@@ -2543,9 +2713,9 @@
       <c r="L23" s="27"/>
     </row>
     <row r="24" spans="1:12">
-      <c r="A24" s="46"/>
-      <c r="B24" s="46"/>
-      <c r="C24" s="49"/>
+      <c r="A24" s="51"/>
+      <c r="B24" s="51"/>
+      <c r="C24" s="54"/>
       <c r="D24" s="27" t="s">
         <v>180</v>
       </c>
@@ -2571,9 +2741,9 @@
       <c r="L24" s="27"/>
     </row>
     <row r="25" spans="1:12">
-      <c r="A25" s="46"/>
-      <c r="B25" s="46"/>
-      <c r="C25" s="49"/>
+      <c r="A25" s="51"/>
+      <c r="B25" s="51"/>
+      <c r="C25" s="54"/>
       <c r="D25" s="27" t="s">
         <v>181</v>
       </c>
@@ -2599,9 +2769,9 @@
       <c r="L25" s="27"/>
     </row>
     <row r="26" spans="1:12">
-      <c r="A26" s="46"/>
-      <c r="B26" s="46"/>
-      <c r="C26" s="50"/>
+      <c r="A26" s="51"/>
+      <c r="B26" s="51"/>
+      <c r="C26" s="55"/>
       <c r="D26" s="27" t="s">
         <v>182</v>
       </c>
@@ -2641,13 +2811,13 @@
       <c r="L27" s="27"/>
     </row>
     <row r="28" spans="1:12">
-      <c r="A28" s="46" t="s">
+      <c r="A28" s="51" t="s">
         <v>188</v>
       </c>
-      <c r="B28" s="46" t="s">
+      <c r="B28" s="51" t="s">
         <v>189</v>
       </c>
-      <c r="C28" s="48" t="s">
+      <c r="C28" s="53" t="s">
         <v>187</v>
       </c>
       <c r="D28" s="27" t="s">
@@ -2675,9 +2845,9 @@
       <c r="L28" s="27"/>
     </row>
     <row r="29" spans="1:12">
-      <c r="A29" s="46"/>
-      <c r="B29" s="46"/>
-      <c r="C29" s="49"/>
+      <c r="A29" s="51"/>
+      <c r="B29" s="51"/>
+      <c r="C29" s="54"/>
       <c r="D29" s="27" t="s">
         <v>192</v>
       </c>
@@ -2703,9 +2873,9 @@
       <c r="L29" s="27"/>
     </row>
     <row r="30" spans="1:12">
-      <c r="A30" s="46"/>
-      <c r="B30" s="46"/>
-      <c r="C30" s="49"/>
+      <c r="A30" s="51"/>
+      <c r="B30" s="51"/>
+      <c r="C30" s="54"/>
       <c r="D30" s="27" t="s">
         <v>193</v>
       </c>
@@ -2731,9 +2901,9 @@
       <c r="L30" s="27"/>
     </row>
     <row r="31" spans="1:12">
-      <c r="A31" s="46"/>
-      <c r="B31" s="46"/>
-      <c r="C31" s="49"/>
+      <c r="A31" s="51"/>
+      <c r="B31" s="51"/>
+      <c r="C31" s="54"/>
       <c r="D31" s="27" t="s">
         <v>194</v>
       </c>
@@ -2759,9 +2929,9 @@
       <c r="L31" s="27"/>
     </row>
     <row r="32" spans="1:12">
-      <c r="A32" s="46"/>
-      <c r="B32" s="46"/>
-      <c r="C32" s="49"/>
+      <c r="A32" s="51"/>
+      <c r="B32" s="51"/>
+      <c r="C32" s="54"/>
       <c r="D32" s="27" t="s">
         <v>195</v>
       </c>
@@ -2787,9 +2957,9 @@
       <c r="L32" s="27"/>
     </row>
     <row r="33" spans="1:12">
-      <c r="A33" s="46"/>
-      <c r="B33" s="46"/>
-      <c r="C33" s="50"/>
+      <c r="A33" s="51"/>
+      <c r="B33" s="51"/>
+      <c r="C33" s="55"/>
       <c r="D33" s="27" t="s">
         <v>196</v>
       </c>
@@ -2827,13 +2997,13 @@
       <c r="J34" s="27"/>
     </row>
     <row r="35" spans="1:12">
-      <c r="A35" s="46" t="s">
+      <c r="A35" s="51" t="s">
         <v>237</v>
       </c>
-      <c r="B35" s="46" t="s">
+      <c r="B35" s="51" t="s">
         <v>190</v>
       </c>
-      <c r="C35" s="48" t="s">
+      <c r="C35" s="53" t="s">
         <v>236</v>
       </c>
       <c r="D35" s="27" t="s">
@@ -2859,9 +3029,9 @@
       </c>
     </row>
     <row r="36" spans="1:12">
-      <c r="A36" s="46"/>
-      <c r="B36" s="46"/>
-      <c r="C36" s="49"/>
+      <c r="A36" s="51"/>
+      <c r="B36" s="51"/>
+      <c r="C36" s="54"/>
       <c r="D36" s="27" t="s">
         <v>179</v>
       </c>
@@ -2885,9 +3055,9 @@
       </c>
     </row>
     <row r="37" spans="1:12">
-      <c r="A37" s="46"/>
-      <c r="B37" s="46"/>
-      <c r="C37" s="49"/>
+      <c r="A37" s="51"/>
+      <c r="B37" s="51"/>
+      <c r="C37" s="54"/>
       <c r="D37" s="27" t="s">
         <v>180</v>
       </c>
@@ -2911,9 +3081,9 @@
       </c>
     </row>
     <row r="38" spans="1:12">
-      <c r="A38" s="46"/>
-      <c r="B38" s="46"/>
-      <c r="C38" s="49"/>
+      <c r="A38" s="51"/>
+      <c r="B38" s="51"/>
+      <c r="C38" s="54"/>
       <c r="D38" s="27" t="s">
         <v>248</v>
       </c>
@@ -2937,9 +3107,9 @@
       </c>
     </row>
     <row r="39" spans="1:12">
-      <c r="A39" s="46"/>
-      <c r="B39" s="46"/>
-      <c r="C39" s="50"/>
+      <c r="A39" s="51"/>
+      <c r="B39" s="51"/>
+      <c r="C39" s="55"/>
       <c r="D39" s="27" t="s">
         <v>249</v>
       </c>
@@ -2975,13 +3145,13 @@
       <c r="J40" s="27"/>
     </row>
     <row r="41" spans="1:12">
-      <c r="A41" s="46" t="s">
+      <c r="A41" s="51" t="s">
         <v>245</v>
       </c>
-      <c r="B41" s="46" t="s">
-        <v>246</v>
-      </c>
-      <c r="C41" s="48" t="s">
+      <c r="B41" s="52" t="s">
+        <v>442</v>
+      </c>
+      <c r="C41" s="53" t="s">
         <v>239</v>
       </c>
       <c r="D41" s="27" t="s">
@@ -3003,13 +3173,13 @@
         <v>144</v>
       </c>
       <c r="J41" s="36" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
     </row>
     <row r="42" spans="1:12">
-      <c r="A42" s="46"/>
-      <c r="B42" s="46"/>
-      <c r="C42" s="49"/>
+      <c r="A42" s="51"/>
+      <c r="B42" s="51"/>
+      <c r="C42" s="54"/>
       <c r="D42" s="27" t="s">
         <v>251</v>
       </c>
@@ -3029,13 +3199,13 @@
         <v>144</v>
       </c>
       <c r="J42" s="36" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
     </row>
     <row r="43" spans="1:12">
-      <c r="A43" s="46"/>
-      <c r="B43" s="46"/>
-      <c r="C43" s="49"/>
+      <c r="A43" s="51"/>
+      <c r="B43" s="51"/>
+      <c r="C43" s="54"/>
       <c r="D43" s="27" t="s">
         <v>252</v>
       </c>
@@ -3055,13 +3225,13 @@
         <v>144</v>
       </c>
       <c r="J43" s="36" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
     </row>
     <row r="44" spans="1:12">
-      <c r="A44" s="46"/>
-      <c r="B44" s="46"/>
-      <c r="C44" s="49"/>
+      <c r="A44" s="51"/>
+      <c r="B44" s="51"/>
+      <c r="C44" s="54"/>
       <c r="D44" s="27" t="s">
         <v>139</v>
       </c>
@@ -3081,13 +3251,13 @@
         <v>144</v>
       </c>
       <c r="J44" s="36" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
     </row>
     <row r="45" spans="1:12">
-      <c r="A45" s="46"/>
-      <c r="B45" s="46"/>
-      <c r="C45" s="50"/>
+      <c r="A45" s="51"/>
+      <c r="B45" s="51"/>
+      <c r="C45" s="55"/>
       <c r="D45" s="34" t="s">
         <v>140</v>
       </c>
@@ -3107,7 +3277,7 @@
         <v>144</v>
       </c>
       <c r="J45" s="36" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
     </row>
     <row r="46" spans="1:12" s="27" customFormat="1">
@@ -3116,18 +3286,18 @@
       <c r="C46" s="39"/>
     </row>
     <row r="47" spans="1:12">
-      <c r="A47" s="46" t="s">
+      <c r="A47" s="51" t="s">
         <v>245</v>
       </c>
-      <c r="B47" s="46" t="s">
-        <v>246</v>
-      </c>
-      <c r="C47" s="51" t="s">
-        <v>279</v>
+      <c r="B47" s="52" t="s">
+        <v>442</v>
+      </c>
+      <c r="C47" s="56" t="s">
+        <v>278</v>
       </c>
       <c r="D47" s="36"/>
       <c r="E47" s="37" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F47" s="36" t="s">
         <v>144</v>
@@ -3142,16 +3312,16 @@
         <v>144</v>
       </c>
       <c r="J47" s="36" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
     </row>
     <row r="48" spans="1:12">
-      <c r="A48" s="46"/>
-      <c r="B48" s="46"/>
-      <c r="C48" s="52"/>
+      <c r="A48" s="51"/>
+      <c r="B48" s="51"/>
+      <c r="C48" s="57"/>
       <c r="D48" s="27"/>
       <c r="E48" s="33" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F48" s="27" t="s">
         <v>144</v>
@@ -3166,16 +3336,16 @@
         <v>144</v>
       </c>
       <c r="J48" s="36" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
     </row>
     <row r="49" spans="1:10">
-      <c r="A49" s="46"/>
-      <c r="B49" s="46"/>
-      <c r="C49" s="52"/>
+      <c r="A49" s="51"/>
+      <c r="B49" s="51"/>
+      <c r="C49" s="57"/>
       <c r="D49" s="27"/>
       <c r="E49" s="33" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F49" s="27" t="s">
         <v>144</v>
@@ -3190,16 +3360,16 @@
         <v>144</v>
       </c>
       <c r="J49" s="36" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
     </row>
     <row r="50" spans="1:10">
-      <c r="A50" s="46"/>
-      <c r="B50" s="46"/>
-      <c r="C50" s="52"/>
+      <c r="A50" s="51"/>
+      <c r="B50" s="51"/>
+      <c r="C50" s="57"/>
       <c r="D50" s="27"/>
       <c r="E50" s="33" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="F50" s="27" t="s">
         <v>144</v>
@@ -3214,20 +3384,20 @@
         <v>144</v>
       </c>
       <c r="J50" s="36" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
     </row>
     <row r="51" spans="1:10">
-      <c r="A51" s="46" t="s">
-        <v>280</v>
-      </c>
-      <c r="B51" s="46" t="s">
-        <v>281</v>
-      </c>
-      <c r="C51" s="52"/>
+      <c r="A51" s="51" t="s">
+        <v>279</v>
+      </c>
+      <c r="B51" s="52" t="s">
+        <v>441</v>
+      </c>
+      <c r="C51" s="57"/>
       <c r="D51" s="27"/>
       <c r="E51" s="22" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="F51" s="27" t="s">
         <v>144</v>
@@ -3242,16 +3412,16 @@
         <v>144</v>
       </c>
       <c r="J51" s="27" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
     </row>
     <row r="52" spans="1:10">
-      <c r="A52" s="46"/>
-      <c r="B52" s="46"/>
-      <c r="C52" s="52"/>
+      <c r="A52" s="51"/>
+      <c r="B52" s="51"/>
+      <c r="C52" s="57"/>
       <c r="D52" s="27"/>
       <c r="E52" s="22" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="F52" s="27" t="s">
         <v>144</v>
@@ -3266,16 +3436,16 @@
         <v>144</v>
       </c>
       <c r="J52" s="27" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
     </row>
     <row r="53" spans="1:10">
-      <c r="A53" s="46"/>
-      <c r="B53" s="46"/>
-      <c r="C53" s="52"/>
+      <c r="A53" s="51"/>
+      <c r="B53" s="51"/>
+      <c r="C53" s="57"/>
       <c r="D53" s="27"/>
       <c r="E53" s="22" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="F53" s="27" t="s">
         <v>144</v>
@@ -3290,16 +3460,16 @@
         <v>144</v>
       </c>
       <c r="J53" s="27" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
     </row>
     <row r="54" spans="1:10">
-      <c r="A54" s="46"/>
-      <c r="B54" s="46"/>
-      <c r="C54" s="52"/>
+      <c r="A54" s="51"/>
+      <c r="B54" s="51"/>
+      <c r="C54" s="57"/>
       <c r="D54" s="27"/>
       <c r="E54" s="22" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="F54" s="27" t="s">
         <v>144</v>
@@ -3314,16 +3484,16 @@
         <v>144</v>
       </c>
       <c r="J54" s="27" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
     </row>
     <row r="55" spans="1:10">
-      <c r="A55" s="46"/>
-      <c r="B55" s="46"/>
-      <c r="C55" s="53"/>
+      <c r="A55" s="51"/>
+      <c r="B55" s="51"/>
+      <c r="C55" s="58"/>
       <c r="D55" s="27"/>
       <c r="E55" s="22" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="F55" s="27" t="s">
         <v>144</v>
@@ -3338,273 +3508,491 @@
         <v>144</v>
       </c>
       <c r="J55" s="27" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10">
-      <c r="A57" s="46" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" s="50" customFormat="1" ht="28.8">
+      <c r="A57" s="51" t="s">
+        <v>326</v>
+      </c>
+      <c r="B57" s="47" t="s">
+        <v>443</v>
+      </c>
+      <c r="C57" s="51" t="s">
+        <v>325</v>
+      </c>
+      <c r="D57" s="48" t="s">
+        <v>329</v>
+      </c>
+      <c r="E57" s="49" t="s">
+        <v>320</v>
+      </c>
+      <c r="F57" s="48" t="s">
+        <v>144</v>
+      </c>
+      <c r="G57" s="48" t="s">
+        <v>144</v>
+      </c>
+      <c r="H57" s="48" t="s">
+        <v>144</v>
+      </c>
+      <c r="I57" s="48" t="s">
+        <v>144</v>
+      </c>
+      <c r="J57" s="48" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
+      <c r="A58" s="51"/>
+      <c r="B58" s="52" t="s">
+        <v>444</v>
+      </c>
+      <c r="C58" s="51"/>
+      <c r="D58" s="27" t="s">
+        <v>331</v>
+      </c>
+      <c r="E58" s="40" t="s">
+        <v>305</v>
+      </c>
+      <c r="F58" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="G58" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="H58" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="I58" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="J58" s="27" t="s">
         <v>328</v>
       </c>
-      <c r="B57" s="39" t="s">
-        <v>281</v>
-      </c>
-      <c r="C57" s="46" t="s">
-        <v>327</v>
-      </c>
-      <c r="D57" s="27" t="s">
+    </row>
+    <row r="59" spans="1:10">
+      <c r="A59" s="51"/>
+      <c r="B59" s="51"/>
+      <c r="C59" s="51"/>
+      <c r="D59" s="27" t="s">
+        <v>330</v>
+      </c>
+      <c r="E59" s="33" t="s">
+        <v>308</v>
+      </c>
+      <c r="F59" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="G59" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="H59" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="I59" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="J59" s="27" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
+      <c r="A60" s="51"/>
+      <c r="B60" s="51"/>
+      <c r="C60" s="51"/>
+      <c r="D60" s="27" t="s">
         <v>332</v>
       </c>
-      <c r="E57" s="40" t="s">
-        <v>322</v>
-      </c>
-      <c r="F57" s="27" t="s">
-        <v>144</v>
-      </c>
-      <c r="G57" s="27" t="s">
-        <v>144</v>
-      </c>
-      <c r="H57" s="27" t="s">
-        <v>144</v>
-      </c>
-      <c r="I57" s="27" t="s">
-        <v>144</v>
-      </c>
-      <c r="J57" s="27" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10">
-      <c r="A58" s="46"/>
-      <c r="B58" s="46" t="s">
-        <v>329</v>
-      </c>
-      <c r="C58" s="46"/>
-      <c r="D58" s="27" t="s">
+      <c r="E60" s="40" t="s">
+        <v>300</v>
+      </c>
+      <c r="F60" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="G60" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="H60" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="I60" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="J60" s="27" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
+      <c r="A62" s="51" t="s">
+        <v>245</v>
+      </c>
+      <c r="B62" s="52" t="s">
+        <v>445</v>
+      </c>
+      <c r="C62" s="51" t="s">
+        <v>333</v>
+      </c>
+      <c r="D62" s="27" t="s">
+        <v>368</v>
+      </c>
+      <c r="E62" s="41" t="s">
         <v>334</v>
       </c>
-      <c r="E58" s="40" t="s">
-        <v>307</v>
-      </c>
-      <c r="F58" s="27" t="s">
-        <v>144</v>
-      </c>
-      <c r="G58" s="27" t="s">
-        <v>144</v>
-      </c>
-      <c r="H58" s="27" t="s">
-        <v>144</v>
-      </c>
-      <c r="I58" s="27" t="s">
-        <v>144</v>
-      </c>
-      <c r="J58" s="27" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10">
-      <c r="A59" s="46"/>
-      <c r="B59" s="46"/>
-      <c r="C59" s="46"/>
-      <c r="D59" s="27" t="s">
-        <v>333</v>
-      </c>
-      <c r="E59" s="33" t="s">
-        <v>310</v>
-      </c>
-      <c r="F59" s="27" t="s">
-        <v>144</v>
-      </c>
-      <c r="G59" s="27" t="s">
-        <v>144</v>
-      </c>
-      <c r="H59" s="27" t="s">
-        <v>144</v>
-      </c>
-      <c r="I59" s="27" t="s">
-        <v>144</v>
-      </c>
-      <c r="J59" s="27" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10">
-      <c r="A60" s="46"/>
-      <c r="B60" s="46"/>
-      <c r="C60" s="46"/>
-      <c r="D60" s="27" t="s">
+      <c r="F62" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="G62" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="H62" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="I62" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="J62" s="27" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
+      <c r="A63" s="51"/>
+      <c r="B63" s="51"/>
+      <c r="C63" s="51"/>
+      <c r="D63" s="27" t="s">
+        <v>369</v>
+      </c>
+      <c r="E63" s="41" t="s">
         <v>335</v>
       </c>
-      <c r="E60" s="40" t="s">
-        <v>302</v>
-      </c>
-      <c r="F60" s="27" t="s">
-        <v>144</v>
-      </c>
-      <c r="G60" s="27" t="s">
-        <v>144</v>
-      </c>
-      <c r="H60" s="27" t="s">
-        <v>144</v>
-      </c>
-      <c r="I60" s="27" t="s">
-        <v>144</v>
-      </c>
-      <c r="J60" s="27" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10">
-      <c r="A62" s="46" t="s">
-        <v>245</v>
-      </c>
-      <c r="B62" s="47" t="s">
-        <v>346</v>
-      </c>
-      <c r="C62" s="46" t="s">
+      <c r="F63" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="G63" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="H63" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="I63" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="J63" s="27" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
+      <c r="A64" s="51"/>
+      <c r="B64" s="51"/>
+      <c r="C64" s="51"/>
+      <c r="D64" s="27" t="s">
+        <v>388</v>
+      </c>
+      <c r="E64" s="41" t="s">
         <v>336</v>
       </c>
-      <c r="D62" s="27" t="s">
-        <v>372</v>
-      </c>
-      <c r="E62" s="41" t="s">
+      <c r="F64" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="G64" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="H64" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="I64" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="J64" s="27" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
+      <c r="A65" s="51"/>
+      <c r="B65" s="51"/>
+      <c r="C65" s="51"/>
+      <c r="D65" s="27" t="s">
+        <v>389</v>
+      </c>
+      <c r="E65" s="41" t="s">
         <v>337</v>
       </c>
-      <c r="F62" s="27"/>
-      <c r="G62" s="27"/>
-      <c r="H62" s="27"/>
-      <c r="I62" s="27"/>
-      <c r="J62" s="27" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10">
-      <c r="A63" s="46"/>
-      <c r="B63" s="46"/>
-      <c r="C63" s="46"/>
-      <c r="D63" s="27" t="s">
-        <v>373</v>
-      </c>
-      <c r="E63" s="41" t="s">
+      <c r="F65" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="G65" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="H65" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="I65" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="J65" s="27" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
+      <c r="A66" s="51"/>
+      <c r="B66" s="51"/>
+      <c r="C66" s="51"/>
+      <c r="D66" s="27" t="s">
+        <v>397</v>
+      </c>
+      <c r="E66" s="41" t="s">
         <v>338</v>
       </c>
-      <c r="F63" s="27"/>
-      <c r="G63" s="27"/>
-      <c r="H63" s="27"/>
-      <c r="I63" s="27"/>
-      <c r="J63" s="27" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10">
-      <c r="A64" s="46"/>
-      <c r="B64" s="46"/>
-      <c r="C64" s="46"/>
-      <c r="D64" s="27" t="s">
-        <v>392</v>
-      </c>
-      <c r="E64" s="41" t="s">
+      <c r="F66" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="G66" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="H66" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="I66" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="J66" s="27" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
+      <c r="A67" s="51"/>
+      <c r="B67" s="51"/>
+      <c r="C67" s="51"/>
+      <c r="D67" s="27" t="s">
+        <v>398</v>
+      </c>
+      <c r="E67" s="41" t="s">
         <v>339</v>
       </c>
-      <c r="F64" s="27"/>
-      <c r="G64" s="27"/>
-      <c r="H64" s="27"/>
-      <c r="I64" s="27"/>
-      <c r="J64" s="27" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="65" spans="1:10">
-      <c r="A65" s="46"/>
-      <c r="B65" s="46"/>
-      <c r="C65" s="46"/>
-      <c r="D65" s="27" t="s">
-        <v>393</v>
-      </c>
-      <c r="E65" s="41" t="s">
+      <c r="F67" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="G67" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="H67" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="I67" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="J67" s="27" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
+      <c r="A68" s="51"/>
+      <c r="B68" s="51"/>
+      <c r="C68" s="51"/>
+      <c r="D68" s="27" t="s">
+        <v>399</v>
+      </c>
+      <c r="E68" s="41" t="s">
         <v>340</v>
       </c>
-      <c r="F65" s="27"/>
-      <c r="G65" s="27"/>
-      <c r="H65" s="27"/>
-      <c r="I65" s="27"/>
-      <c r="J65" s="27" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="66" spans="1:10">
-      <c r="A66" s="46"/>
-      <c r="B66" s="46"/>
-      <c r="C66" s="46"/>
-      <c r="D66" s="27" t="s">
-        <v>401</v>
-      </c>
-      <c r="E66" s="41" t="s">
+      <c r="F68" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="G68" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="H68" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="I68" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="J68" s="27" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
+      <c r="A69" s="51"/>
+      <c r="B69" s="51"/>
+      <c r="C69" s="51"/>
+      <c r="D69" s="27" t="s">
+        <v>400</v>
+      </c>
+      <c r="E69" s="41" t="s">
         <v>341</v>
       </c>
-      <c r="F66" s="27"/>
-      <c r="G66" s="27"/>
-      <c r="H66" s="27"/>
-      <c r="I66" s="27"/>
-      <c r="J66" s="27" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="67" spans="1:10">
-      <c r="A67" s="46"/>
-      <c r="B67" s="46"/>
-      <c r="C67" s="46"/>
-      <c r="D67" s="27" t="s">
+      <c r="F69" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="G69" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="H69" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="I69" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="J69" s="27" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
+      <c r="B71" s="52" t="s">
+        <v>446</v>
+      </c>
+      <c r="C71" s="51" t="s">
+        <v>433</v>
+      </c>
+      <c r="D71" s="27" t="s">
+        <v>434</v>
+      </c>
+      <c r="E71" s="46" t="s">
         <v>402</v>
       </c>
-      <c r="E67" s="41" t="s">
-        <v>342</v>
-      </c>
-      <c r="F67" s="27"/>
-      <c r="G67" s="27"/>
-      <c r="H67" s="27"/>
-      <c r="I67" s="27"/>
-      <c r="J67" s="27" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="68" spans="1:10">
-      <c r="A68" s="46"/>
-      <c r="B68" s="46"/>
-      <c r="C68" s="46"/>
-      <c r="D68" s="27" t="s">
-        <v>403</v>
-      </c>
-      <c r="E68" s="41" t="s">
-        <v>343</v>
-      </c>
-      <c r="F68" s="27"/>
-      <c r="G68" s="27"/>
-      <c r="H68" s="27"/>
-      <c r="I68" s="27"/>
-      <c r="J68" s="27" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="69" spans="1:10">
-      <c r="A69" s="46"/>
-      <c r="B69" s="46"/>
-      <c r="C69" s="46"/>
-      <c r="D69" s="27" t="s">
+      <c r="F71" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="G71" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="H71" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="I71" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="J71" s="27" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
+      <c r="B72" s="51"/>
+      <c r="C72" s="51"/>
+      <c r="D72" s="27" t="s">
+        <v>435</v>
+      </c>
+      <c r="E72" s="46" t="s">
         <v>404</v>
       </c>
-      <c r="E69" s="41" t="s">
-        <v>344</v>
-      </c>
-      <c r="F69" s="27"/>
-      <c r="G69" s="27"/>
-      <c r="H69" s="27"/>
-      <c r="I69" s="27"/>
-      <c r="J69" s="27" t="s">
-        <v>374</v>
+      <c r="F72" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="G72" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="H72" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="I72" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="J72" s="27" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
+      <c r="B73" s="51"/>
+      <c r="C73" s="51"/>
+      <c r="D73" s="27" t="s">
+        <v>436</v>
+      </c>
+      <c r="E73" s="46" t="s">
+        <v>406</v>
+      </c>
+      <c r="F73" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="G73" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="H73" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="I73" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="J73" s="27" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
+      <c r="B74" s="51"/>
+      <c r="C74" s="51"/>
+      <c r="D74" s="27" t="s">
+        <v>437</v>
+      </c>
+      <c r="E74" s="46" t="s">
+        <v>407</v>
+      </c>
+      <c r="F74" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="G74" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="H74" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="I74" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="J74" s="27" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
+      <c r="B75" s="51"/>
+      <c r="C75" s="51"/>
+      <c r="D75" s="27" t="s">
+        <v>438</v>
+      </c>
+      <c r="E75" s="46" t="s">
+        <v>408</v>
+      </c>
+      <c r="F75" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="G75" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="H75" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="I75" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="J75" s="27" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
+      <c r="B76" s="51"/>
+      <c r="C76" s="51"/>
+      <c r="D76" s="27" t="s">
+        <v>439</v>
+      </c>
+      <c r="E76" s="46" t="s">
+        <v>409</v>
+      </c>
+      <c r="F76" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="G76" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="H76" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="I76" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="J76" s="27" t="s">
+        <v>440</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="34">
+  <mergeCells count="36">
     <mergeCell ref="B2:B5"/>
     <mergeCell ref="A2:A5"/>
     <mergeCell ref="B7:B10"/>
@@ -3623,15 +4011,17 @@
     <mergeCell ref="C35:C39"/>
     <mergeCell ref="C28:C33"/>
     <mergeCell ref="C22:C26"/>
-    <mergeCell ref="C62:C69"/>
-    <mergeCell ref="A62:A69"/>
-    <mergeCell ref="B62:B69"/>
     <mergeCell ref="C15:C20"/>
     <mergeCell ref="C7:C13"/>
     <mergeCell ref="A35:A39"/>
     <mergeCell ref="B35:B39"/>
     <mergeCell ref="A41:A45"/>
     <mergeCell ref="B41:B45"/>
+    <mergeCell ref="C71:C76"/>
+    <mergeCell ref="B71:B76"/>
+    <mergeCell ref="C62:C69"/>
+    <mergeCell ref="A62:A69"/>
+    <mergeCell ref="B62:B69"/>
     <mergeCell ref="C57:C60"/>
     <mergeCell ref="A57:A60"/>
     <mergeCell ref="B58:B60"/>
@@ -3647,13 +4037,13 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M10"/>
+  <dimension ref="A1:M29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="15.44140625" style="5" customWidth="1"/>
     <col min="2" max="2" width="18.33203125" style="5" customWidth="1"/>
@@ -3662,12 +4052,11 @@
     <col min="5" max="5" width="18.44140625" style="5" customWidth="1"/>
     <col min="6" max="6" width="14.109375" style="5" customWidth="1"/>
     <col min="7" max="7" width="13" style="5" customWidth="1"/>
-    <col min="8" max="8" width="13.77734375" style="5" customWidth="1"/>
-    <col min="9" max="9" width="13.6640625" style="5" customWidth="1"/>
+    <col min="8" max="9" width="13.6640625" style="5" customWidth="1"/>
     <col min="10" max="10" width="11.33203125" style="5" customWidth="1"/>
     <col min="11" max="11" width="15.88671875" style="5" customWidth="1"/>
-    <col min="12" max="12" width="16.21875" style="5" customWidth="1"/>
-    <col min="13" max="13" width="18.77734375" style="5" customWidth="1"/>
+    <col min="12" max="12" width="16.33203125" style="5" customWidth="1"/>
+    <col min="13" max="13" width="18.6640625" style="5" customWidth="1"/>
     <col min="14" max="16384" width="8.88671875" style="5"/>
   </cols>
   <sheetData>
@@ -3685,10 +4074,10 @@
         <v>10</v>
       </c>
       <c r="E1" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>264</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>265</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>15</v>
@@ -3700,7 +4089,7 @@
         <v>17</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="K1" s="3" t="s">
         <v>18</v>
@@ -3747,25 +4136,25 @@
         <v>14</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F3" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="G3" s="4" t="s">
         <v>270</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>271</v>
       </c>
       <c r="H3" s="4" t="s">
         <v>26</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="L3" s="4"/>
       <c r="M3" s="4"/>
@@ -3805,23 +4194,23 @@
         <v>14</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F5" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="G5" s="4" t="s">
         <v>270</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>271</v>
       </c>
       <c r="H5" s="4" t="s">
         <v>26</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="J5" s="4"/>
       <c r="K5" s="4" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="L5" s="4"/>
       <c r="M5" s="4"/>
@@ -3837,12 +4226,12 @@
         <v>258</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
       <c r="G6" s="4" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="H6" s="4"/>
       <c r="I6" s="4" t="s">
@@ -3855,10 +4244,10 @@
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="10" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>258</v>
@@ -3876,10 +4265,10 @@
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="10" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>258</v>
@@ -3893,18 +4282,18 @@
       <c r="J8" s="4"/>
       <c r="K8" s="4"/>
       <c r="L8" s="4" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="M8" s="4" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="10" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>258</v>
@@ -3922,10 +4311,10 @@
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="10" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>258</v>
@@ -3941,6 +4330,7 @@
       <c r="L10" s="4"/>
       <c r="M10" s="4"/>
     </row>
+    <row r="29" ht="18" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3951,14 +4341,14 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="16.44140625" customWidth="1"/>
     <col min="2" max="2" width="17.109375" customWidth="1"/>
-    <col min="3" max="3" width="10.77734375" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -3974,57 +4364,57 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="10" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="10" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="10" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="10" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B5" s="10" t="s">
+        <v>296</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>298</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="10" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
   </sheetData>
@@ -4044,8 +4434,8 @@
   <cols>
     <col min="1" max="1" width="20.109375" customWidth="1"/>
     <col min="2" max="2" width="29" customWidth="1"/>
-    <col min="3" max="3" width="10.77734375" customWidth="1"/>
-    <col min="4" max="4" width="9.77734375" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" customWidth="1"/>
+    <col min="4" max="4" width="9.6640625" customWidth="1"/>
     <col min="5" max="5" width="12.5546875" customWidth="1"/>
     <col min="6" max="6" width="15.109375" customWidth="1"/>
     <col min="7" max="7" width="14" style="5" customWidth="1"/>
@@ -4065,36 +4455,36 @@
         <v>11</v>
       </c>
       <c r="D1" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>311</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>312</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>313</v>
-      </c>
       <c r="G1" s="3" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="10" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
@@ -4106,13 +4496,13 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="10" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
@@ -4124,41 +4514,41 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="10" t="s">
+        <v>300</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>301</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>302</v>
       </c>
-      <c r="B4" s="10" t="s">
-        <v>303</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>304</v>
-      </c>
       <c r="D4" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="F4" s="4" t="s">
         <v>314</v>
       </c>
-      <c r="E4" s="4" t="s">
-        <v>315</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>316</v>
-      </c>
       <c r="G4" s="38" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="10" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
@@ -4166,10 +4556,10 @@
       <c r="G5" s="38"/>
       <c r="H5" s="4"/>
       <c r="I5" s="4" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
   </sheetData>
@@ -4185,26 +4575,26 @@
   <dimension ref="A1:S9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="19.77734375" customWidth="1"/>
+    <col min="1" max="1" width="19.6640625" customWidth="1"/>
     <col min="2" max="2" width="27.44140625" customWidth="1"/>
     <col min="3" max="3" width="8.44140625" customWidth="1"/>
     <col min="4" max="4" width="16.33203125" customWidth="1"/>
     <col min="5" max="5" width="14.33203125" customWidth="1"/>
-    <col min="6" max="6" width="19.77734375" customWidth="1"/>
+    <col min="6" max="6" width="19.6640625" customWidth="1"/>
     <col min="7" max="7" width="18" customWidth="1"/>
     <col min="8" max="10" width="12.6640625" customWidth="1"/>
     <col min="11" max="11" width="12.5546875" customWidth="1"/>
     <col min="12" max="12" width="11.88671875" customWidth="1"/>
-    <col min="13" max="13" width="15.77734375" customWidth="1"/>
+    <col min="13" max="13" width="15.6640625" customWidth="1"/>
     <col min="14" max="14" width="15.88671875" customWidth="1"/>
-    <col min="15" max="15" width="20.21875" customWidth="1"/>
+    <col min="15" max="15" width="20.33203125" customWidth="1"/>
     <col min="16" max="17" width="15.88671875" customWidth="1"/>
-    <col min="18" max="18" width="13.21875" customWidth="1"/>
+    <col min="18" max="18" width="13.33203125" customWidth="1"/>
     <col min="19" max="19" width="20.44140625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4219,49 +4609,49 @@
         <v>11</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>31</v>
       </c>
       <c r="J1" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="L1" s="3" t="s">
         <v>361</v>
       </c>
-      <c r="K1" s="3" t="s">
-        <v>355</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>365</v>
-      </c>
       <c r="M1" s="3" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="O1" s="3" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="P1" s="3" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="Q1" s="3" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="R1" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="S1" s="3" t="s">
         <v>50</v>
@@ -4269,10 +4659,10 @@
     </row>
     <row r="2" spans="1:19">
       <c r="A2" s="45" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>258</v>
@@ -4285,7 +4675,7 @@
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
       <c r="K2" s="4" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="L2" s="4"/>
       <c r="M2" s="4"/>
@@ -4298,65 +4688,65 @@
     </row>
     <row r="3" spans="1:19">
       <c r="A3" s="45" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>258</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="I3" s="4"/>
       <c r="J3" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>363</v>
+      </c>
+      <c r="M3" s="4" t="s">
         <v>364</v>
       </c>
-      <c r="K3" s="4" t="s">
-        <v>356</v>
-      </c>
-      <c r="L3" s="4" t="s">
-        <v>367</v>
-      </c>
-      <c r="M3" s="4" t="s">
-        <v>368</v>
-      </c>
       <c r="N3" s="4" t="s">
+        <v>377</v>
+      </c>
+      <c r="O3" s="4" t="s">
+        <v>359</v>
+      </c>
+      <c r="P3" s="4" t="s">
         <v>381</v>
       </c>
-      <c r="O3" s="4" t="s">
-        <v>363</v>
-      </c>
-      <c r="P3" s="4" t="s">
-        <v>385</v>
-      </c>
       <c r="Q3" s="4" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="R3" s="4" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="S3" s="4"/>
     </row>
     <row r="4" spans="1:19">
       <c r="A4" s="45" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>258</v>
@@ -4364,61 +4754,61 @@
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
       <c r="F4" s="4" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="I4" s="4"/>
       <c r="J4" s="4" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="K4" s="4"/>
       <c r="L4" s="4" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="M4" s="4" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="N4" s="4" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="O4" s="4" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="P4" s="4" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="Q4" s="4" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="R4" s="4"/>
       <c r="S4" s="4"/>
     </row>
     <row r="5" spans="1:19">
       <c r="A5" s="45" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>258</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
@@ -4435,31 +4825,31 @@
     </row>
     <row r="6" spans="1:19">
       <c r="A6" s="45" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>258</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="J6" s="4"/>
       <c r="K6" s="4"/>
@@ -4474,10 +4864,10 @@
     </row>
     <row r="7" spans="1:19">
       <c r="A7" s="45" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>258</v>
@@ -4501,10 +4891,10 @@
     </row>
     <row r="8" spans="1:19">
       <c r="A8" s="45" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>258</v>
@@ -4524,18 +4914,18 @@
       <c r="P8" s="4"/>
       <c r="Q8" s="4"/>
       <c r="R8" s="4" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="S8" s="4" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
     </row>
     <row r="9" spans="1:19">
       <c r="A9" s="42" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="B9" s="43" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>258</v>
@@ -4562,20 +4952,284 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:L10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="23.109375" customWidth="1"/>
+    <col min="2" max="2" width="21.6640625" customWidth="1"/>
+    <col min="3" max="3" width="13.109375" customWidth="1"/>
+    <col min="4" max="4" width="20.5546875" customWidth="1"/>
+    <col min="5" max="6" width="21.33203125" customWidth="1"/>
+    <col min="7" max="7" width="13.33203125" customWidth="1"/>
+    <col min="8" max="8" width="15.33203125" customWidth="1"/>
+    <col min="9" max="9" width="16.6640625" customWidth="1"/>
+    <col min="10" max="10" width="19.77734375" customWidth="1"/>
+    <col min="11" max="12" width="19.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12">
+      <c r="A1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>418</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>419</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>421</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>422</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>423</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>424</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>450</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" s="45" t="s">
+        <v>402</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>403</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>425</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>426</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>427</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>428</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>429</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>430</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>431</v>
+      </c>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" s="45" t="s">
+        <v>404</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>405</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" s="45" t="s">
+        <v>406</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>412</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" s="45" t="s">
+        <v>407</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>413</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="45" t="s">
+        <v>408</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>414</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="45" t="s">
+        <v>409</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>415</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="45" t="s">
+        <v>410</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>416</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="45" t="s">
+        <v>411</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>417</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="45" t="s">
+        <v>449</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>448</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4" t="s">
+        <v>427</v>
+      </c>
+      <c r="L10" s="4" t="s">
+        <v>452</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="19.33203125" style="5" customWidth="1"/>
     <col min="2" max="2" width="16.44140625" style="5" customWidth="1"/>
     <col min="3" max="3" width="13.6640625" style="5" customWidth="1"/>
-    <col min="4" max="4" width="26.77734375" style="5" customWidth="1"/>
+    <col min="4" max="4" width="26.6640625" style="5" customWidth="1"/>
     <col min="5" max="16384" width="8.88671875" style="5"/>
   </cols>
   <sheetData>
@@ -4604,7 +5258,7 @@
         <v>5</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -4668,47 +5322,47 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="8" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>259</v>
+        <v>447</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>32</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>259</v>
+        <v>291</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="8" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>293</v>
+        <v>432</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>32</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="8" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>32</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -4743,16 +5397,16 @@
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="15.33203125" customWidth="1"/>
-    <col min="2" max="2" width="20.21875" customWidth="1"/>
+    <col min="2" max="2" width="20.33203125" customWidth="1"/>
     <col min="3" max="3" width="9.5546875" style="5" customWidth="1"/>
-    <col min="4" max="4" width="13.21875" style="5" customWidth="1"/>
+    <col min="4" max="4" width="13.33203125" style="5" customWidth="1"/>
     <col min="5" max="5" width="12.88671875" style="5" customWidth="1"/>
     <col min="6" max="6" width="15.44140625" style="5" customWidth="1"/>
     <col min="7" max="7" width="14.5546875" style="5" customWidth="1"/>
     <col min="8" max="8" width="16" style="5" customWidth="1"/>
     <col min="9" max="9" width="15.109375" customWidth="1"/>
-    <col min="10" max="10" width="17.77734375" customWidth="1"/>
-    <col min="11" max="11" width="19.21875" customWidth="1"/>
+    <col min="10" max="10" width="17.6640625" customWidth="1"/>
+    <col min="11" max="11" width="19.33203125" customWidth="1"/>
     <col min="12" max="12" width="16.44140625" customWidth="1"/>
     <col min="13" max="13" width="14.33203125" customWidth="1"/>
   </cols>
@@ -4981,7 +5635,7 @@
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="14.44140625" style="5" customWidth="1"/>
     <col min="2" max="2" width="23.109375" style="5" customWidth="1"/>
@@ -5069,15 +5723,15 @@
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="14" style="5" customWidth="1"/>
-    <col min="2" max="2" width="17.77734375" style="5" customWidth="1"/>
+    <col min="2" max="2" width="17.6640625" style="5" customWidth="1"/>
     <col min="3" max="3" width="13.88671875" style="5" customWidth="1"/>
     <col min="4" max="4" width="12.6640625" style="5" customWidth="1"/>
     <col min="5" max="6" width="24.6640625" style="5" customWidth="1"/>
     <col min="7" max="7" width="20.44140625" style="5" customWidth="1"/>
-    <col min="8" max="8" width="15.21875" style="5" customWidth="1"/>
+    <col min="8" max="8" width="15.33203125" style="5" customWidth="1"/>
     <col min="9" max="16384" width="8.88671875" style="5"/>
   </cols>
   <sheetData>
@@ -5270,22 +5924,22 @@
   <dimension ref="A1:O6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K1" sqref="K1:K2"/>
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="18.109375" style="5" customWidth="1"/>
     <col min="2" max="2" width="23.6640625" style="5" customWidth="1"/>
     <col min="3" max="3" width="9.5546875" style="5" customWidth="1"/>
-    <col min="4" max="4" width="24.21875" style="5" customWidth="1"/>
+    <col min="4" max="4" width="24.33203125" style="5" customWidth="1"/>
     <col min="5" max="5" width="23.6640625" style="5" customWidth="1"/>
-    <col min="6" max="6" width="15.77734375" style="5" customWidth="1"/>
+    <col min="6" max="6" width="15.6640625" style="5" customWidth="1"/>
     <col min="7" max="7" width="15.5546875" style="5" customWidth="1"/>
     <col min="8" max="8" width="14.88671875" style="5" customWidth="1"/>
     <col min="9" max="9" width="26.33203125" style="5" customWidth="1"/>
     <col min="10" max="10" width="13.5546875" style="5" customWidth="1"/>
-    <col min="11" max="11" width="19.21875" style="5" customWidth="1"/>
+    <col min="11" max="11" width="19.33203125" style="5" customWidth="1"/>
     <col min="12" max="12" width="16.44140625" style="5" customWidth="1"/>
     <col min="13" max="13" width="20.5546875" style="5" customWidth="1"/>
     <col min="14" max="16384" width="8.88671875" style="5"/>
@@ -5565,32 +6219,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:V6"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P14" sqref="P14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="15.88671875" customWidth="1"/>
     <col min="2" max="2" width="18.109375" customWidth="1"/>
-    <col min="3" max="3" width="10.21875" customWidth="1"/>
-    <col min="4" max="4" width="20.77734375" customWidth="1"/>
+    <col min="3" max="3" width="10.33203125" customWidth="1"/>
+    <col min="4" max="4" width="20.6640625" customWidth="1"/>
     <col min="5" max="5" width="19.5546875" customWidth="1"/>
     <col min="6" max="6" width="17.33203125" customWidth="1"/>
     <col min="7" max="7" width="23.33203125" customWidth="1"/>
-    <col min="8" max="8" width="26.77734375" customWidth="1"/>
-    <col min="9" max="9" width="27.21875" customWidth="1"/>
+    <col min="8" max="8" width="26.6640625" customWidth="1"/>
+    <col min="9" max="9" width="27.33203125" customWidth="1"/>
     <col min="10" max="10" width="18.33203125" customWidth="1"/>
     <col min="11" max="11" width="29.44140625" customWidth="1"/>
-    <col min="12" max="12" width="16.77734375" customWidth="1"/>
-    <col min="13" max="13" width="17.21875" customWidth="1"/>
-    <col min="14" max="14" width="16.21875" customWidth="1"/>
-    <col min="15" max="15" width="14.21875" customWidth="1"/>
+    <col min="12" max="12" width="16.6640625" customWidth="1"/>
+    <col min="13" max="13" width="17.33203125" customWidth="1"/>
+    <col min="14" max="14" width="16.33203125" customWidth="1"/>
+    <col min="15" max="15" width="14.33203125" customWidth="1"/>
     <col min="16" max="16" width="15.5546875" customWidth="1"/>
     <col min="17" max="17" width="12.6640625" customWidth="1"/>
     <col min="18" max="18" width="13.33203125" customWidth="1"/>
     <col min="19" max="19" width="19.5546875" customWidth="1"/>
-    <col min="20" max="20" width="13.21875" customWidth="1"/>
+    <col min="20" max="20" width="13.33203125" customWidth="1"/>
     <col min="21" max="21" width="13.6640625" customWidth="1"/>
     <col min="22" max="22" width="14.44140625" style="30" customWidth="1"/>
   </cols>

--- a/KULS_Sankar/TestData/ijaraTestData.xlsx
+++ b/KULS_Sankar/TestData/ijaraTestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="72" windowWidth="23256" windowHeight="12600" firstSheet="10" activeTab="13"/>
+    <workbookView xWindow="0" yWindow="72" windowWidth="23256" windowHeight="12600" firstSheet="10" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="AllFeaturesAutomationInfo" sheetId="8" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="ContractSign_AppDetails" sheetId="9" r:id="rId9"/>
     <sheet name="MU_AppData_CFDebt" sheetId="10" r:id="rId10"/>
     <sheet name="MU_DataCheck_AppDetails" sheetId="11" r:id="rId11"/>
-    <sheet name="Tawarruq_AppData_CustomerDetail" sheetId="12" r:id="rId12"/>
+    <sheet name="TW_AppData_CustomerDetails" sheetId="12" r:id="rId12"/>
     <sheet name="MU_AppData_Income" sheetId="13" r:id="rId13"/>
     <sheet name="MU_DataCheck_EmpDetails" sheetId="14" r:id="rId14"/>
   </sheets>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="993" uniqueCount="453">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="996" uniqueCount="455">
   <si>
     <t>UserName</t>
   </si>
@@ -1416,6 +1416,12 @@
   </si>
   <si>
     <t>Bank of India</t>
+  </si>
+  <si>
+    <t>AT_TW_AD_DOC_05</t>
+  </si>
+  <si>
+    <t>DS_AT_TW_AD_DOC_05</t>
   </si>
 </sst>
 </file>
@@ -1493,7 +1499,7 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <charset val="1"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1629,7 +1635,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1728,9 +1734,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1748,6 +1751,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2113,7 +2122,7 @@
       <c r="B2" s="51" t="s">
         <v>246</v>
       </c>
-      <c r="C2" s="53" t="s">
+      <c r="C2" s="52" t="s">
         <v>138</v>
       </c>
       <c r="D2" s="27" t="s">
@@ -2143,7 +2152,7 @@
     <row r="3" spans="1:12">
       <c r="A3" s="51"/>
       <c r="B3" s="51"/>
-      <c r="C3" s="54"/>
+      <c r="C3" s="53"/>
       <c r="D3" s="27" t="s">
         <v>139</v>
       </c>
@@ -2171,7 +2180,7 @@
     <row r="4" spans="1:12">
       <c r="A4" s="51"/>
       <c r="B4" s="51"/>
-      <c r="C4" s="54"/>
+      <c r="C4" s="53"/>
       <c r="D4" s="27" t="s">
         <v>140</v>
       </c>
@@ -2199,7 +2208,7 @@
     <row r="5" spans="1:12">
       <c r="A5" s="51"/>
       <c r="B5" s="51"/>
-      <c r="C5" s="55"/>
+      <c r="C5" s="54"/>
       <c r="D5" s="27" t="s">
         <v>142</v>
       </c>
@@ -2245,7 +2254,7 @@
       <c r="B7" s="51" t="s">
         <v>164</v>
       </c>
-      <c r="C7" s="53" t="s">
+      <c r="C7" s="52" t="s">
         <v>151</v>
       </c>
       <c r="D7" s="23" t="s">
@@ -2275,7 +2284,7 @@
     <row r="8" spans="1:12">
       <c r="A8" s="51"/>
       <c r="B8" s="51"/>
-      <c r="C8" s="54"/>
+      <c r="C8" s="53"/>
       <c r="D8" s="27" t="s">
         <v>154</v>
       </c>
@@ -2303,7 +2312,7 @@
     <row r="9" spans="1:12">
       <c r="A9" s="51"/>
       <c r="B9" s="51"/>
-      <c r="C9" s="54"/>
+      <c r="C9" s="53"/>
       <c r="D9" s="27" t="s">
         <v>155</v>
       </c>
@@ -2331,7 +2340,7 @@
     <row r="10" spans="1:12">
       <c r="A10" s="51"/>
       <c r="B10" s="51"/>
-      <c r="C10" s="54"/>
+      <c r="C10" s="53"/>
       <c r="D10" s="27" t="s">
         <v>156</v>
       </c>
@@ -2363,7 +2372,7 @@
       <c r="B11" s="39" t="s">
         <v>166</v>
       </c>
-      <c r="C11" s="54"/>
+      <c r="C11" s="53"/>
       <c r="D11" s="27" t="s">
         <v>157</v>
       </c>
@@ -2395,7 +2404,7 @@
       <c r="B12" s="51" t="s">
         <v>163</v>
       </c>
-      <c r="C12" s="54"/>
+      <c r="C12" s="53"/>
       <c r="D12" s="27" t="s">
         <v>141</v>
       </c>
@@ -2423,7 +2432,7 @@
     <row r="13" spans="1:12">
       <c r="A13" s="51"/>
       <c r="B13" s="51"/>
-      <c r="C13" s="55"/>
+      <c r="C13" s="54"/>
       <c r="D13" s="27" t="s">
         <v>158</v>
       </c>
@@ -2469,7 +2478,7 @@
       <c r="B15" s="51" t="s">
         <v>168</v>
       </c>
-      <c r="C15" s="53" t="s">
+      <c r="C15" s="52" t="s">
         <v>167</v>
       </c>
       <c r="D15" s="27" t="s">
@@ -2499,7 +2508,7 @@
     <row r="16" spans="1:12">
       <c r="A16" s="51"/>
       <c r="B16" s="51"/>
-      <c r="C16" s="54"/>
+      <c r="C16" s="53"/>
       <c r="D16" s="27" t="s">
         <v>170</v>
       </c>
@@ -2527,7 +2536,7 @@
     <row r="17" spans="1:12">
       <c r="A17" s="51"/>
       <c r="B17" s="51"/>
-      <c r="C17" s="54"/>
+      <c r="C17" s="53"/>
       <c r="D17" s="27" t="s">
         <v>171</v>
       </c>
@@ -2555,7 +2564,7 @@
     <row r="18" spans="1:12">
       <c r="A18" s="51"/>
       <c r="B18" s="51"/>
-      <c r="C18" s="54"/>
+      <c r="C18" s="53"/>
       <c r="D18" s="27" t="s">
         <v>172</v>
       </c>
@@ -2583,7 +2592,7 @@
     <row r="19" spans="1:12">
       <c r="A19" s="51"/>
       <c r="B19" s="51"/>
-      <c r="C19" s="54"/>
+      <c r="C19" s="53"/>
       <c r="D19" s="27" t="s">
         <v>173</v>
       </c>
@@ -2611,7 +2620,7 @@
     <row r="20" spans="1:12">
       <c r="A20" s="51"/>
       <c r="B20" s="51"/>
-      <c r="C20" s="55"/>
+      <c r="C20" s="54"/>
       <c r="D20" s="27" t="s">
         <v>174</v>
       </c>
@@ -2657,7 +2666,7 @@
       <c r="B22" s="51" t="s">
         <v>190</v>
       </c>
-      <c r="C22" s="53" t="s">
+      <c r="C22" s="52" t="s">
         <v>177</v>
       </c>
       <c r="D22" s="27" t="s">
@@ -2687,7 +2696,7 @@
     <row r="23" spans="1:12">
       <c r="A23" s="51"/>
       <c r="B23" s="51"/>
-      <c r="C23" s="54"/>
+      <c r="C23" s="53"/>
       <c r="D23" s="27" t="s">
         <v>179</v>
       </c>
@@ -2715,7 +2724,7 @@
     <row r="24" spans="1:12">
       <c r="A24" s="51"/>
       <c r="B24" s="51"/>
-      <c r="C24" s="54"/>
+      <c r="C24" s="53"/>
       <c r="D24" s="27" t="s">
         <v>180</v>
       </c>
@@ -2743,7 +2752,7 @@
     <row r="25" spans="1:12">
       <c r="A25" s="51"/>
       <c r="B25" s="51"/>
-      <c r="C25" s="54"/>
+      <c r="C25" s="53"/>
       <c r="D25" s="27" t="s">
         <v>181</v>
       </c>
@@ -2771,7 +2780,7 @@
     <row r="26" spans="1:12">
       <c r="A26" s="51"/>
       <c r="B26" s="51"/>
-      <c r="C26" s="55"/>
+      <c r="C26" s="54"/>
       <c r="D26" s="27" t="s">
         <v>182</v>
       </c>
@@ -2817,7 +2826,7 @@
       <c r="B28" s="51" t="s">
         <v>189</v>
       </c>
-      <c r="C28" s="53" t="s">
+      <c r="C28" s="52" t="s">
         <v>187</v>
       </c>
       <c r="D28" s="27" t="s">
@@ -2847,7 +2856,7 @@
     <row r="29" spans="1:12">
       <c r="A29" s="51"/>
       <c r="B29" s="51"/>
-      <c r="C29" s="54"/>
+      <c r="C29" s="53"/>
       <c r="D29" s="27" t="s">
         <v>192</v>
       </c>
@@ -2875,7 +2884,7 @@
     <row r="30" spans="1:12">
       <c r="A30" s="51"/>
       <c r="B30" s="51"/>
-      <c r="C30" s="54"/>
+      <c r="C30" s="53"/>
       <c r="D30" s="27" t="s">
         <v>193</v>
       </c>
@@ -2903,7 +2912,7 @@
     <row r="31" spans="1:12">
       <c r="A31" s="51"/>
       <c r="B31" s="51"/>
-      <c r="C31" s="54"/>
+      <c r="C31" s="53"/>
       <c r="D31" s="27" t="s">
         <v>194</v>
       </c>
@@ -2931,7 +2940,7 @@
     <row r="32" spans="1:12">
       <c r="A32" s="51"/>
       <c r="B32" s="51"/>
-      <c r="C32" s="54"/>
+      <c r="C32" s="53"/>
       <c r="D32" s="27" t="s">
         <v>195</v>
       </c>
@@ -2959,7 +2968,7 @@
     <row r="33" spans="1:12">
       <c r="A33" s="51"/>
       <c r="B33" s="51"/>
-      <c r="C33" s="55"/>
+      <c r="C33" s="54"/>
       <c r="D33" s="27" t="s">
         <v>196</v>
       </c>
@@ -3003,7 +3012,7 @@
       <c r="B35" s="51" t="s">
         <v>190</v>
       </c>
-      <c r="C35" s="53" t="s">
+      <c r="C35" s="52" t="s">
         <v>236</v>
       </c>
       <c r="D35" s="27" t="s">
@@ -3031,7 +3040,7 @@
     <row r="36" spans="1:12">
       <c r="A36" s="51"/>
       <c r="B36" s="51"/>
-      <c r="C36" s="54"/>
+      <c r="C36" s="53"/>
       <c r="D36" s="27" t="s">
         <v>179</v>
       </c>
@@ -3057,7 +3066,7 @@
     <row r="37" spans="1:12">
       <c r="A37" s="51"/>
       <c r="B37" s="51"/>
-      <c r="C37" s="54"/>
+      <c r="C37" s="53"/>
       <c r="D37" s="27" t="s">
         <v>180</v>
       </c>
@@ -3083,7 +3092,7 @@
     <row r="38" spans="1:12">
       <c r="A38" s="51"/>
       <c r="B38" s="51"/>
-      <c r="C38" s="54"/>
+      <c r="C38" s="53"/>
       <c r="D38" s="27" t="s">
         <v>248</v>
       </c>
@@ -3109,7 +3118,7 @@
     <row r="39" spans="1:12">
       <c r="A39" s="51"/>
       <c r="B39" s="51"/>
-      <c r="C39" s="55"/>
+      <c r="C39" s="54"/>
       <c r="D39" s="27" t="s">
         <v>249</v>
       </c>
@@ -3148,10 +3157,10 @@
       <c r="A41" s="51" t="s">
         <v>245</v>
       </c>
-      <c r="B41" s="52" t="s">
+      <c r="B41" s="58" t="s">
         <v>442</v>
       </c>
-      <c r="C41" s="53" t="s">
+      <c r="C41" s="52" t="s">
         <v>239</v>
       </c>
       <c r="D41" s="27" t="s">
@@ -3179,7 +3188,7 @@
     <row r="42" spans="1:12">
       <c r="A42" s="51"/>
       <c r="B42" s="51"/>
-      <c r="C42" s="54"/>
+      <c r="C42" s="53"/>
       <c r="D42" s="27" t="s">
         <v>251</v>
       </c>
@@ -3205,7 +3214,7 @@
     <row r="43" spans="1:12">
       <c r="A43" s="51"/>
       <c r="B43" s="51"/>
-      <c r="C43" s="54"/>
+      <c r="C43" s="53"/>
       <c r="D43" s="27" t="s">
         <v>252</v>
       </c>
@@ -3231,7 +3240,7 @@
     <row r="44" spans="1:12">
       <c r="A44" s="51"/>
       <c r="B44" s="51"/>
-      <c r="C44" s="54"/>
+      <c r="C44" s="53"/>
       <c r="D44" s="27" t="s">
         <v>139</v>
       </c>
@@ -3257,7 +3266,7 @@
     <row r="45" spans="1:12">
       <c r="A45" s="51"/>
       <c r="B45" s="51"/>
-      <c r="C45" s="55"/>
+      <c r="C45" s="54"/>
       <c r="D45" s="34" t="s">
         <v>140</v>
       </c>
@@ -3289,10 +3298,10 @@
       <c r="A47" s="51" t="s">
         <v>245</v>
       </c>
-      <c r="B47" s="52" t="s">
+      <c r="B47" s="58" t="s">
         <v>442</v>
       </c>
-      <c r="C47" s="56" t="s">
+      <c r="C47" s="55" t="s">
         <v>278</v>
       </c>
       <c r="D47" s="36"/>
@@ -3318,7 +3327,7 @@
     <row r="48" spans="1:12">
       <c r="A48" s="51"/>
       <c r="B48" s="51"/>
-      <c r="C48" s="57"/>
+      <c r="C48" s="56"/>
       <c r="D48" s="27"/>
       <c r="E48" s="33" t="s">
         <v>275</v>
@@ -3342,7 +3351,7 @@
     <row r="49" spans="1:10">
       <c r="A49" s="51"/>
       <c r="B49" s="51"/>
-      <c r="C49" s="57"/>
+      <c r="C49" s="56"/>
       <c r="D49" s="27"/>
       <c r="E49" s="33" t="s">
         <v>276</v>
@@ -3366,7 +3375,7 @@
     <row r="50" spans="1:10">
       <c r="A50" s="51"/>
       <c r="B50" s="51"/>
-      <c r="C50" s="57"/>
+      <c r="C50" s="56"/>
       <c r="D50" s="27"/>
       <c r="E50" s="33" t="s">
         <v>277</v>
@@ -3391,10 +3400,10 @@
       <c r="A51" s="51" t="s">
         <v>279</v>
       </c>
-      <c r="B51" s="52" t="s">
+      <c r="B51" s="58" t="s">
         <v>441</v>
       </c>
-      <c r="C51" s="57"/>
+      <c r="C51" s="56"/>
       <c r="D51" s="27"/>
       <c r="E51" s="22" t="s">
         <v>285</v>
@@ -3418,7 +3427,7 @@
     <row r="52" spans="1:10">
       <c r="A52" s="51"/>
       <c r="B52" s="51"/>
-      <c r="C52" s="57"/>
+      <c r="C52" s="56"/>
       <c r="D52" s="27"/>
       <c r="E52" s="22" t="s">
         <v>286</v>
@@ -3442,7 +3451,7 @@
     <row r="53" spans="1:10">
       <c r="A53" s="51"/>
       <c r="B53" s="51"/>
-      <c r="C53" s="57"/>
+      <c r="C53" s="56"/>
       <c r="D53" s="27"/>
       <c r="E53" s="22" t="s">
         <v>287</v>
@@ -3466,7 +3475,7 @@
     <row r="54" spans="1:10">
       <c r="A54" s="51"/>
       <c r="B54" s="51"/>
-      <c r="C54" s="57"/>
+      <c r="C54" s="56"/>
       <c r="D54" s="27"/>
       <c r="E54" s="22" t="s">
         <v>288</v>
@@ -3490,7 +3499,7 @@
     <row r="55" spans="1:10">
       <c r="A55" s="51"/>
       <c r="B55" s="51"/>
-      <c r="C55" s="58"/>
+      <c r="C55" s="57"/>
       <c r="D55" s="27"/>
       <c r="E55" s="22" t="s">
         <v>289</v>
@@ -3545,7 +3554,7 @@
     </row>
     <row r="58" spans="1:10">
       <c r="A58" s="51"/>
-      <c r="B58" s="52" t="s">
+      <c r="B58" s="58" t="s">
         <v>444</v>
       </c>
       <c r="C58" s="51"/>
@@ -3627,7 +3636,7 @@
       <c r="A62" s="51" t="s">
         <v>245</v>
       </c>
-      <c r="B62" s="52" t="s">
+      <c r="B62" s="58" t="s">
         <v>445</v>
       </c>
       <c r="C62" s="51" t="s">
@@ -3838,7 +3847,7 @@
       </c>
     </row>
     <row r="71" spans="1:10">
-      <c r="B71" s="52" t="s">
+      <c r="B71" s="58" t="s">
         <v>446</v>
       </c>
       <c r="C71" s="51" t="s">
@@ -3993,26 +4002,6 @@
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="B7:B10"/>
-    <mergeCell ref="A7:A10"/>
-    <mergeCell ref="A28:A33"/>
-    <mergeCell ref="B28:B33"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="B15:B20"/>
-    <mergeCell ref="A15:A20"/>
-    <mergeCell ref="B22:B26"/>
-    <mergeCell ref="A22:A26"/>
-    <mergeCell ref="C2:C5"/>
-    <mergeCell ref="C47:C55"/>
-    <mergeCell ref="C41:C45"/>
-    <mergeCell ref="C35:C39"/>
-    <mergeCell ref="C28:C33"/>
-    <mergeCell ref="C22:C26"/>
-    <mergeCell ref="C15:C20"/>
-    <mergeCell ref="C7:C13"/>
     <mergeCell ref="A35:A39"/>
     <mergeCell ref="B35:B39"/>
     <mergeCell ref="A41:A45"/>
@@ -4029,6 +4018,26 @@
     <mergeCell ref="B47:B50"/>
     <mergeCell ref="A51:A55"/>
     <mergeCell ref="B51:B55"/>
+    <mergeCell ref="C2:C5"/>
+    <mergeCell ref="C47:C55"/>
+    <mergeCell ref="C41:C45"/>
+    <mergeCell ref="C35:C39"/>
+    <mergeCell ref="C28:C33"/>
+    <mergeCell ref="C22:C26"/>
+    <mergeCell ref="C15:C20"/>
+    <mergeCell ref="C7:C13"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="B7:B10"/>
+    <mergeCell ref="A7:A10"/>
+    <mergeCell ref="A28:A33"/>
+    <mergeCell ref="B28:B33"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="B15:B20"/>
+    <mergeCell ref="A15:A20"/>
+    <mergeCell ref="B22:B26"/>
+    <mergeCell ref="A22:A26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4424,10 +4433,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -4561,6 +4570,24 @@
       <c r="J5" s="4" t="s">
         <v>324</v>
       </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="59" t="s">
+        <v>453</v>
+      </c>
+      <c r="B6" s="59" t="s">
+        <v>454</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="38"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -4956,7 +4983,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>

--- a/KULS_Sankar/TestData/ijaraTestData.xlsx
+++ b/KULS_Sankar/TestData/ijaraTestData.xlsx
@@ -4,14 +4,14 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="72" windowWidth="23256" windowHeight="12600" firstSheet="10" activeTab="11"/>
+    <workbookView xWindow="0" yWindow="72" windowWidth="23256" windowHeight="12600" firstSheet="3" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="AllFeaturesAutomationInfo" sheetId="8" r:id="rId1"/>
     <sheet name="ijara_LoginCredentials" sheetId="1" r:id="rId2"/>
     <sheet name="CF_DebtTestData" sheetId="2" r:id="rId3"/>
     <sheet name="UnderWriter_TestData" sheetId="3" r:id="rId4"/>
-    <sheet name="AdditionalCustomerInfo" sheetId="4" r:id="rId5"/>
+    <sheet name="TW_NewApp_IdentificationDetails" sheetId="4" r:id="rId5"/>
     <sheet name="DataCheck_Income" sheetId="5" r:id="rId6"/>
     <sheet name="DataCheck_AppDetails" sheetId="6" r:id="rId7"/>
     <sheet name="Offering_OfferDetails" sheetId="7" r:id="rId8"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="996" uniqueCount="455">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1110" uniqueCount="499">
   <si>
     <t>UserName</t>
   </si>
@@ -191,21 +191,6 @@
     <t>DS_AT_IDA_03</t>
   </si>
   <si>
-    <t>ID Type</t>
-  </si>
-  <si>
-    <t>ID Number</t>
-  </si>
-  <si>
-    <t>Issuing Authority</t>
-  </si>
-  <si>
-    <t>Country of Issue</t>
-  </si>
-  <si>
-    <t>AADHAR</t>
-  </si>
-  <si>
     <t>587469513548756494133</t>
   </si>
   <si>
@@ -216,9 +201,6 @@
   </si>
   <si>
     <t>@!&amp;#</t>
-  </si>
-  <si>
-    <t>ID Number_SpecialChar</t>
   </si>
   <si>
     <t>3061</t>
@@ -1423,6 +1405,159 @@
   <si>
     <t>DS_AT_TW_AD_DOC_05</t>
   </si>
+  <si>
+    <t>TW_AppData_DocumentDetails.feature</t>
+  </si>
+  <si>
+    <t>Tawarruq - App Data Entry -
+Document Details tab</t>
+  </si>
+  <si>
+    <t>Sprint - 70</t>
+  </si>
+  <si>
+    <t>EDC_01_30 --&gt; EDC_01_47 &amp; EDC_01_50</t>
+  </si>
+  <si>
+    <t>EDC_02_01 &amp; EDC_02_02</t>
+  </si>
+  <si>
+    <t>EDC_02_04, EDC_02_05, EDC_02_08</t>
+  </si>
+  <si>
+    <t>DOC_01_19 --&gt; DOC_01_23</t>
+  </si>
+  <si>
+    <t>AT_TW_NEWAPP_IDA_01</t>
+  </si>
+  <si>
+    <t>DS_AT_TW_NEWAPP_IDA_01</t>
+  </si>
+  <si>
+    <t>DS_AT_TW_NEWAPP_IDA_02</t>
+  </si>
+  <si>
+    <t>AT_TW_NEWAPP_IDA_02</t>
+  </si>
+  <si>
+    <t>AT_TW_NEWAPP_IDA_03</t>
+  </si>
+  <si>
+    <t>AT_TW_NEWAPP_IDA_04</t>
+  </si>
+  <si>
+    <t>AT_TW_NEWAPP_IDA_05</t>
+  </si>
+  <si>
+    <t>AT_TW_NEWAPP_IDA_06</t>
+  </si>
+  <si>
+    <t>DS_AT_TW_NEWAPP_IDA_03</t>
+  </si>
+  <si>
+    <t>DS_AT_TW_NEWAPP_IDA_04</t>
+  </si>
+  <si>
+    <t>DS_AT_TW_NEWAPP_IDA_05</t>
+  </si>
+  <si>
+    <t>DS_AT_TW_NEWAPP_IDA_06</t>
+  </si>
+  <si>
+    <t>3832</t>
+  </si>
+  <si>
+    <t>156324778555</t>
+  </si>
+  <si>
+    <t>IssueDate</t>
+  </si>
+  <si>
+    <t>ExpiryDate</t>
+  </si>
+  <si>
+    <t>25-Aug-2003</t>
+  </si>
+  <si>
+    <t>15-Nov-2030</t>
+  </si>
+  <si>
+    <t>Issuing_Authority</t>
+  </si>
+  <si>
+    <t>Country_of_Issue</t>
+  </si>
+  <si>
+    <t>ID_Type</t>
+  </si>
+  <si>
+    <t>ID_Number</t>
+  </si>
+  <si>
+    <t>ID_Number_SpecialChar</t>
+  </si>
+  <si>
+    <t>AADHAR CARD</t>
+  </si>
+  <si>
+    <t>3842</t>
+  </si>
+  <si>
+    <t>TW_NewApp_IdentificationDetails.feature</t>
+  </si>
+  <si>
+    <t>Sprint - 71</t>
+  </si>
+  <si>
+    <t>IDA_01_01, IDA_01_03, IDA_01_04</t>
+  </si>
+  <si>
+    <t>IDA_01_02, IDA_01_05 --&gt; IDA_01_12</t>
+  </si>
+  <si>
+    <t>IDA_02_01, IDA_02_04</t>
+  </si>
+  <si>
+    <t>IDA_03_01 ---&gt; IDA_03_06</t>
+  </si>
+  <si>
+    <t>Tawarruq - New Application -
+Additional Customer Info tab -
+Identification Details screen</t>
+  </si>
+  <si>
+    <t>PAN CARD</t>
+  </si>
+  <si>
+    <t>$#</t>
+  </si>
+  <si>
+    <t>01-Aug-2000</t>
+  </si>
+  <si>
+    <t>11-Nov-2035</t>
+  </si>
+  <si>
+    <t>865422319564</t>
+  </si>
+  <si>
+    <t>IDA_03_11, IDA_03_12, IDA_03_13</t>
+  </si>
+  <si>
+    <t>IDA_03_14,   IDA_03_15</t>
+  </si>
+  <si>
+    <t>Record_ID</t>
+  </si>
+  <si>
+    <t>4121</t>
+  </si>
+  <si>
+    <t>4103</t>
+  </si>
+  <si>
+    <t>4122</t>
+  </si>
 </sst>
 </file>
 
@@ -1431,7 +1566,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1500,6 +1635,13 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <charset val="1"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1635,7 +1777,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1722,17 +1864,35 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1753,10 +1913,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2054,181 +2214,181 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L76"/>
+  <dimension ref="A1:L88"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B87" sqref="B87"/>
+      <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D91" sqref="D91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="27.44140625" style="25" customWidth="1"/>
-    <col min="2" max="2" width="28" style="25" customWidth="1"/>
-    <col min="3" max="3" width="13.33203125" style="25" customWidth="1"/>
-    <col min="4" max="4" width="43" customWidth="1"/>
-    <col min="5" max="5" width="19.5546875" customWidth="1"/>
-    <col min="6" max="6" width="11.5546875" customWidth="1"/>
-    <col min="7" max="7" width="11" customWidth="1"/>
-    <col min="8" max="8" width="17.109375" customWidth="1"/>
-    <col min="9" max="9" width="10.33203125" customWidth="1"/>
-    <col min="10" max="10" width="38.109375" customWidth="1"/>
-    <col min="11" max="11" width="21.88671875" customWidth="1"/>
-    <col min="12" max="12" width="15.6640625" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" style="25" width="27.44140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="25" width="28.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="25" width="13.33203125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="43.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="26.6640625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="11.5546875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="17.109375" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="10.33203125" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="38.109375" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="21.88671875" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="15.6640625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="21" customFormat="1">
       <c r="A1" s="24" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="B1" s="24" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="C1" s="24" t="s">
+        <v>124</v>
+      </c>
+      <c r="D1" s="26" t="s">
+        <v>169</v>
+      </c>
+      <c r="E1" s="26" t="s">
+        <v>146</v>
+      </c>
+      <c r="F1" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="G1" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="H1" s="19" t="s">
+        <v>128</v>
+      </c>
+      <c r="I1" s="20" t="s">
         <v>130</v>
       </c>
-      <c r="D1" s="26" t="s">
-        <v>175</v>
-      </c>
-      <c r="E1" s="26" t="s">
-        <v>152</v>
-      </c>
-      <c r="F1" s="18" t="s">
+      <c r="J1" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="K1" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="L1" s="19" t="s">
         <v>131</v>
       </c>
-      <c r="G1" s="18" t="s">
-        <v>133</v>
-      </c>
-      <c r="H1" s="19" t="s">
-        <v>134</v>
-      </c>
-      <c r="I1" s="20" t="s">
-        <v>136</v>
-      </c>
-      <c r="J1" s="20" t="s">
-        <v>135</v>
-      </c>
-      <c r="K1" s="18" t="s">
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" s="64" t="s">
+        <v>178</v>
+      </c>
+      <c r="B2" s="64" t="s">
+        <v>240</v>
+      </c>
+      <c r="C2" s="58" t="s">
         <v>132</v>
       </c>
-      <c r="L1" s="19" t="s">
+      <c r="D2" s="27" t="s">
         <v>137</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12">
-      <c r="A2" s="51" t="s">
-        <v>184</v>
-      </c>
-      <c r="B2" s="51" t="s">
-        <v>246</v>
-      </c>
-      <c r="C2" s="52" t="s">
-        <v>138</v>
-      </c>
-      <c r="D2" s="27" t="s">
-        <v>143</v>
       </c>
       <c r="E2" s="22" t="s">
         <v>12</v>
       </c>
       <c r="F2" s="27" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="G2" s="27" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="H2" s="27" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="I2" s="27" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="J2" s="27" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="K2" s="27"/>
       <c r="L2" s="27"/>
     </row>
     <row r="3" spans="1:12">
-      <c r="A3" s="51"/>
-      <c r="B3" s="51"/>
-      <c r="C3" s="53"/>
+      <c r="A3" s="64"/>
+      <c r="B3" s="64"/>
+      <c r="C3" s="59"/>
       <c r="D3" s="27" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="E3" s="22" t="s">
         <v>22</v>
       </c>
       <c r="F3" s="27" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="G3" s="27" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="H3" s="27" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="I3" s="27" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="J3" s="27" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="K3" s="27"/>
       <c r="L3" s="27"/>
     </row>
     <row r="4" spans="1:12">
-      <c r="A4" s="51"/>
-      <c r="B4" s="51"/>
-      <c r="C4" s="53"/>
+      <c r="A4" s="64"/>
+      <c r="B4" s="64"/>
+      <c r="C4" s="59"/>
       <c r="D4" s="27" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="E4" s="22" t="s">
         <v>28</v>
       </c>
       <c r="F4" s="27" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="G4" s="27" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="H4" s="27" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="I4" s="27" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="J4" s="27" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="K4" s="27"/>
       <c r="L4" s="27"/>
     </row>
     <row r="5" spans="1:12">
-      <c r="A5" s="51"/>
-      <c r="B5" s="51"/>
-      <c r="C5" s="54"/>
+      <c r="A5" s="64"/>
+      <c r="B5" s="64"/>
+      <c r="C5" s="60"/>
       <c r="D5" s="27" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="E5" s="22" t="s">
         <v>20</v>
       </c>
       <c r="F5" s="27" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="G5" s="27" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="H5" s="27" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="I5" s="27" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="J5" s="27" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="K5" s="27"/>
       <c r="L5" s="27"/>
@@ -2248,211 +2408,211 @@
       <c r="L6" s="27"/>
     </row>
     <row r="7" spans="1:12">
-      <c r="A7" s="51" t="s">
-        <v>185</v>
-      </c>
-      <c r="B7" s="51" t="s">
-        <v>164</v>
-      </c>
-      <c r="C7" s="52" t="s">
-        <v>151</v>
+      <c r="A7" s="64" t="s">
+        <v>179</v>
+      </c>
+      <c r="B7" s="64" t="s">
+        <v>158</v>
+      </c>
+      <c r="C7" s="58" t="s">
+        <v>145</v>
       </c>
       <c r="D7" s="23" t="s">
+        <v>147</v>
+      </c>
+      <c r="E7" s="22" t="s">
+        <v>140</v>
+      </c>
+      <c r="F7" s="27" t="s">
+        <v>138</v>
+      </c>
+      <c r="G7" s="27" t="s">
+        <v>138</v>
+      </c>
+      <c r="H7" s="27" t="s">
+        <v>138</v>
+      </c>
+      <c r="I7" s="27" t="s">
+        <v>138</v>
+      </c>
+      <c r="J7" s="27" t="s">
         <v>153</v>
-      </c>
-      <c r="E7" s="22" t="s">
-        <v>146</v>
-      </c>
-      <c r="F7" s="27" t="s">
-        <v>144</v>
-      </c>
-      <c r="G7" s="27" t="s">
-        <v>144</v>
-      </c>
-      <c r="H7" s="27" t="s">
-        <v>144</v>
-      </c>
-      <c r="I7" s="27" t="s">
-        <v>144</v>
-      </c>
-      <c r="J7" s="27" t="s">
-        <v>159</v>
       </c>
       <c r="K7" s="27"/>
       <c r="L7" s="27"/>
     </row>
     <row r="8" spans="1:12">
-      <c r="A8" s="51"/>
-      <c r="B8" s="51"/>
-      <c r="C8" s="53"/>
+      <c r="A8" s="64"/>
+      <c r="B8" s="64"/>
+      <c r="C8" s="59"/>
       <c r="D8" s="27" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="E8" s="22" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="F8" s="27" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="G8" s="27" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="H8" s="27" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="I8" s="27" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="J8" s="27" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="K8" s="27"/>
       <c r="L8" s="27"/>
     </row>
     <row r="9" spans="1:12">
-      <c r="A9" s="51"/>
-      <c r="B9" s="51"/>
-      <c r="C9" s="53"/>
+      <c r="A9" s="64"/>
+      <c r="B9" s="64"/>
+      <c r="C9" s="59"/>
       <c r="D9" s="27" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="E9" s="22" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="F9" s="27" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="G9" s="27" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="H9" s="27" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="I9" s="27" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="J9" s="27" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="K9" s="27"/>
       <c r="L9" s="27"/>
     </row>
     <row r="10" spans="1:12">
-      <c r="A10" s="51"/>
-      <c r="B10" s="51"/>
-      <c r="C10" s="53"/>
+      <c r="A10" s="64"/>
+      <c r="B10" s="64"/>
+      <c r="C10" s="59"/>
       <c r="D10" s="27" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="E10" s="22" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="F10" s="27" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="G10" s="27" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="H10" s="27" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="I10" s="27" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="J10" s="27" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="K10" s="27"/>
       <c r="L10" s="27"/>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="39" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="B11" s="39" t="s">
-        <v>166</v>
-      </c>
-      <c r="C11" s="53"/>
+        <v>160</v>
+      </c>
+      <c r="C11" s="59"/>
       <c r="D11" s="27" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="E11" s="22" t="s">
         <v>52</v>
       </c>
       <c r="F11" s="27" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="G11" s="27" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="H11" s="27" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="I11" s="27" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="J11" s="27" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="K11" s="27"/>
       <c r="L11" s="27"/>
     </row>
     <row r="12" spans="1:12">
-      <c r="A12" s="51" t="s">
-        <v>184</v>
-      </c>
-      <c r="B12" s="51" t="s">
-        <v>163</v>
-      </c>
-      <c r="C12" s="53"/>
+      <c r="A12" s="64" t="s">
+        <v>178</v>
+      </c>
+      <c r="B12" s="64" t="s">
+        <v>157</v>
+      </c>
+      <c r="C12" s="59"/>
       <c r="D12" s="27" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="E12" s="22" t="s">
         <v>43</v>
       </c>
       <c r="F12" s="27" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="G12" s="27" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="H12" s="27" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="I12" s="27" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="J12" s="27" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="K12" s="27"/>
       <c r="L12" s="27"/>
     </row>
     <row r="13" spans="1:12">
-      <c r="A13" s="51"/>
-      <c r="B13" s="51"/>
-      <c r="C13" s="54"/>
+      <c r="A13" s="64"/>
+      <c r="B13" s="64"/>
+      <c r="C13" s="60"/>
       <c r="D13" s="27" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="E13" s="22" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="F13" s="27" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="G13" s="27" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="H13" s="27" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="I13" s="27" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="J13" s="27" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="K13" s="27"/>
       <c r="L13" s="27"/>
@@ -2472,175 +2632,175 @@
       <c r="L14" s="27"/>
     </row>
     <row r="15" spans="1:12">
-      <c r="A15" s="51" t="s">
-        <v>186</v>
-      </c>
-      <c r="B15" s="51" t="s">
-        <v>168</v>
-      </c>
-      <c r="C15" s="52" t="s">
-        <v>167</v>
+      <c r="A15" s="64" t="s">
+        <v>180</v>
+      </c>
+      <c r="B15" s="64" t="s">
+        <v>162</v>
+      </c>
+      <c r="C15" s="58" t="s">
+        <v>161</v>
       </c>
       <c r="D15" s="27" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="E15" s="22" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="F15" s="27" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="G15" s="27" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="H15" s="27" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="I15" s="27" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="J15" s="27" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="K15" s="27"/>
       <c r="L15" s="27"/>
     </row>
     <row r="16" spans="1:12">
-      <c r="A16" s="51"/>
-      <c r="B16" s="51"/>
-      <c r="C16" s="53"/>
+      <c r="A16" s="64"/>
+      <c r="B16" s="64"/>
+      <c r="C16" s="59"/>
       <c r="D16" s="27" t="s">
+        <v>164</v>
+      </c>
+      <c r="E16" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="F16" s="27" t="s">
+        <v>138</v>
+      </c>
+      <c r="G16" s="27" t="s">
+        <v>138</v>
+      </c>
+      <c r="H16" s="27" t="s">
+        <v>138</v>
+      </c>
+      <c r="I16" s="27" t="s">
+        <v>138</v>
+      </c>
+      <c r="J16" s="27" t="s">
         <v>170</v>
-      </c>
-      <c r="E16" s="22" t="s">
-        <v>69</v>
-      </c>
-      <c r="F16" s="27" t="s">
-        <v>144</v>
-      </c>
-      <c r="G16" s="27" t="s">
-        <v>144</v>
-      </c>
-      <c r="H16" s="27" t="s">
-        <v>144</v>
-      </c>
-      <c r="I16" s="27" t="s">
-        <v>144</v>
-      </c>
-      <c r="J16" s="27" t="s">
-        <v>176</v>
       </c>
       <c r="K16" s="27"/>
       <c r="L16" s="27"/>
     </row>
     <row r="17" spans="1:12">
-      <c r="A17" s="51"/>
-      <c r="B17" s="51"/>
-      <c r="C17" s="53"/>
+      <c r="A17" s="64"/>
+      <c r="B17" s="64"/>
+      <c r="C17" s="59"/>
       <c r="D17" s="27" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="E17" s="22" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="F17" s="27" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="G17" s="27" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="H17" s="27" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="I17" s="27" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="J17" s="27" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="K17" s="27"/>
       <c r="L17" s="27"/>
     </row>
     <row r="18" spans="1:12">
-      <c r="A18" s="51"/>
-      <c r="B18" s="51"/>
-      <c r="C18" s="53"/>
+      <c r="A18" s="64"/>
+      <c r="B18" s="64"/>
+      <c r="C18" s="59"/>
       <c r="D18" s="27" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="E18" s="22" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="F18" s="27" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="G18" s="27" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="H18" s="27" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="I18" s="27" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="J18" s="27" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="K18" s="27"/>
       <c r="L18" s="27"/>
     </row>
     <row r="19" spans="1:12">
-      <c r="A19" s="51"/>
-      <c r="B19" s="51"/>
-      <c r="C19" s="53"/>
+      <c r="A19" s="64"/>
+      <c r="B19" s="64"/>
+      <c r="C19" s="59"/>
       <c r="D19" s="27" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="E19" s="22" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="F19" s="27" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="G19" s="27" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="H19" s="27" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="I19" s="27" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="J19" s="27" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="K19" s="27"/>
       <c r="L19" s="27"/>
     </row>
     <row r="20" spans="1:12">
-      <c r="A20" s="51"/>
-      <c r="B20" s="51"/>
-      <c r="C20" s="54"/>
+      <c r="A20" s="64"/>
+      <c r="B20" s="64"/>
+      <c r="C20" s="60"/>
       <c r="D20" s="27" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="E20" s="22" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="F20" s="27" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="G20" s="27" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="H20" s="27" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="I20" s="27" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="J20" s="27" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="K20" s="27"/>
       <c r="L20" s="27"/>
@@ -2660,147 +2820,147 @@
       <c r="L21" s="27"/>
     </row>
     <row r="22" spans="1:12">
-      <c r="A22" s="51" t="s">
-        <v>186</v>
-      </c>
-      <c r="B22" s="51" t="s">
-        <v>190</v>
-      </c>
-      <c r="C22" s="52" t="s">
+      <c r="A22" s="64" t="s">
+        <v>180</v>
+      </c>
+      <c r="B22" s="64" t="s">
+        <v>184</v>
+      </c>
+      <c r="C22" s="58" t="s">
+        <v>171</v>
+      </c>
+      <c r="D22" s="27" t="s">
+        <v>172</v>
+      </c>
+      <c r="E22" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="F22" s="27" t="s">
+        <v>138</v>
+      </c>
+      <c r="G22" s="27" t="s">
+        <v>138</v>
+      </c>
+      <c r="H22" s="27" t="s">
+        <v>138</v>
+      </c>
+      <c r="I22" s="27" t="s">
+        <v>138</v>
+      </c>
+      <c r="J22" s="27" t="s">
         <v>177</v>
-      </c>
-      <c r="D22" s="27" t="s">
-        <v>178</v>
-      </c>
-      <c r="E22" s="22" t="s">
-        <v>78</v>
-      </c>
-      <c r="F22" s="27" t="s">
-        <v>144</v>
-      </c>
-      <c r="G22" s="27" t="s">
-        <v>144</v>
-      </c>
-      <c r="H22" s="27" t="s">
-        <v>144</v>
-      </c>
-      <c r="I22" s="27" t="s">
-        <v>144</v>
-      </c>
-      <c r="J22" s="27" t="s">
-        <v>183</v>
       </c>
       <c r="K22" s="27"/>
       <c r="L22" s="27"/>
     </row>
     <row r="23" spans="1:12">
-      <c r="A23" s="51"/>
-      <c r="B23" s="51"/>
-      <c r="C23" s="53"/>
+      <c r="A23" s="64"/>
+      <c r="B23" s="64"/>
+      <c r="C23" s="59"/>
       <c r="D23" s="27" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="E23" s="22" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="F23" s="27" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="G23" s="27" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="H23" s="27" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="I23" s="27" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="J23" s="27" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="K23" s="27"/>
       <c r="L23" s="27"/>
     </row>
     <row r="24" spans="1:12">
-      <c r="A24" s="51"/>
-      <c r="B24" s="51"/>
-      <c r="C24" s="53"/>
+      <c r="A24" s="64"/>
+      <c r="B24" s="64"/>
+      <c r="C24" s="59"/>
       <c r="D24" s="27" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="E24" s="22" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="F24" s="27" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="G24" s="27" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="H24" s="27" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="I24" s="27" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="J24" s="27" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="K24" s="27"/>
       <c r="L24" s="27"/>
     </row>
     <row r="25" spans="1:12">
-      <c r="A25" s="51"/>
-      <c r="B25" s="51"/>
-      <c r="C25" s="53"/>
+      <c r="A25" s="64"/>
+      <c r="B25" s="64"/>
+      <c r="C25" s="59"/>
       <c r="D25" s="27" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="E25" s="22" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="F25" s="27" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="G25" s="27" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="H25" s="27" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="I25" s="27" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="J25" s="27" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="K25" s="27"/>
       <c r="L25" s="27"/>
     </row>
     <row r="26" spans="1:12">
-      <c r="A26" s="51"/>
-      <c r="B26" s="51"/>
-      <c r="C26" s="54"/>
+      <c r="A26" s="64"/>
+      <c r="B26" s="64"/>
+      <c r="C26" s="60"/>
       <c r="D26" s="27" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="E26" s="22" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="F26" s="27" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="G26" s="27" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="H26" s="27" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="I26" s="27" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="J26" s="27" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="K26" s="27"/>
       <c r="L26" s="27"/>
@@ -2820,175 +2980,175 @@
       <c r="L27" s="27"/>
     </row>
     <row r="28" spans="1:12">
-      <c r="A28" s="51" t="s">
-        <v>188</v>
-      </c>
-      <c r="B28" s="51" t="s">
-        <v>189</v>
-      </c>
-      <c r="C28" s="52" t="s">
-        <v>187</v>
+      <c r="A28" s="64" t="s">
+        <v>182</v>
+      </c>
+      <c r="B28" s="64" t="s">
+        <v>183</v>
+      </c>
+      <c r="C28" s="58" t="s">
+        <v>181</v>
       </c>
       <c r="D28" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="E28" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="F28" s="27" t="s">
+        <v>138</v>
+      </c>
+      <c r="G28" s="27" t="s">
+        <v>138</v>
+      </c>
+      <c r="H28" s="27" t="s">
+        <v>138</v>
+      </c>
+      <c r="I28" s="27" t="s">
+        <v>138</v>
+      </c>
+      <c r="J28" s="27" t="s">
         <v>191</v>
-      </c>
-      <c r="E28" s="22" t="s">
-        <v>111</v>
-      </c>
-      <c r="F28" s="27" t="s">
-        <v>144</v>
-      </c>
-      <c r="G28" s="27" t="s">
-        <v>144</v>
-      </c>
-      <c r="H28" s="27" t="s">
-        <v>144</v>
-      </c>
-      <c r="I28" s="27" t="s">
-        <v>144</v>
-      </c>
-      <c r="J28" s="27" t="s">
-        <v>197</v>
       </c>
       <c r="K28" s="27"/>
       <c r="L28" s="27"/>
     </row>
     <row r="29" spans="1:12">
-      <c r="A29" s="51"/>
-      <c r="B29" s="51"/>
-      <c r="C29" s="53"/>
+      <c r="A29" s="64"/>
+      <c r="B29" s="64"/>
+      <c r="C29" s="59"/>
       <c r="D29" s="27" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="E29" s="22" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="F29" s="27" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="G29" s="27" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="H29" s="27" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="I29" s="27" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="J29" s="27" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="K29" s="27"/>
       <c r="L29" s="27"/>
     </row>
     <row r="30" spans="1:12">
-      <c r="A30" s="51"/>
-      <c r="B30" s="51"/>
-      <c r="C30" s="53"/>
+      <c r="A30" s="64"/>
+      <c r="B30" s="64"/>
+      <c r="C30" s="59"/>
       <c r="D30" s="27" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="E30" s="22" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="F30" s="27" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="G30" s="27" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="H30" s="27" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="I30" s="27" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="J30" s="27" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="K30" s="27"/>
       <c r="L30" s="27"/>
     </row>
     <row r="31" spans="1:12">
-      <c r="A31" s="51"/>
-      <c r="B31" s="51"/>
-      <c r="C31" s="53"/>
+      <c r="A31" s="64"/>
+      <c r="B31" s="64"/>
+      <c r="C31" s="59"/>
       <c r="D31" s="27" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="E31" s="22" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="F31" s="27" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="G31" s="27" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="H31" s="27" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="I31" s="27" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="J31" s="27" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="K31" s="27"/>
       <c r="L31" s="27"/>
     </row>
     <row r="32" spans="1:12">
-      <c r="A32" s="51"/>
-      <c r="B32" s="51"/>
-      <c r="C32" s="53"/>
+      <c r="A32" s="64"/>
+      <c r="B32" s="64"/>
+      <c r="C32" s="59"/>
       <c r="D32" s="27" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="E32" s="22" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="F32" s="27" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="G32" s="27" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="H32" s="27" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="I32" s="27" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="J32" s="27" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="K32" s="27"/>
       <c r="L32" s="27"/>
     </row>
     <row r="33" spans="1:12">
-      <c r="A33" s="51"/>
-      <c r="B33" s="51"/>
-      <c r="C33" s="54"/>
+      <c r="A33" s="64"/>
+      <c r="B33" s="64"/>
+      <c r="C33" s="60"/>
       <c r="D33" s="27" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="E33" s="22" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="F33" s="27" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="G33" s="27" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="H33" s="27" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="I33" s="27" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="J33" s="27" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="K33" s="27"/>
       <c r="L33" s="27"/>
@@ -3006,139 +3166,139 @@
       <c r="J34" s="27"/>
     </row>
     <row r="35" spans="1:12">
-      <c r="A35" s="51" t="s">
-        <v>237</v>
-      </c>
-      <c r="B35" s="51" t="s">
-        <v>190</v>
-      </c>
-      <c r="C35" s="52" t="s">
-        <v>236</v>
+      <c r="A35" s="64" t="s">
+        <v>231</v>
+      </c>
+      <c r="B35" s="64" t="s">
+        <v>184</v>
+      </c>
+      <c r="C35" s="58" t="s">
+        <v>230</v>
       </c>
       <c r="D35" s="27" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="E35" s="31" t="s">
+        <v>196</v>
+      </c>
+      <c r="F35" s="27" t="s">
+        <v>138</v>
+      </c>
+      <c r="G35" s="27" t="s">
+        <v>138</v>
+      </c>
+      <c r="H35" s="27" t="s">
+        <v>138</v>
+      </c>
+      <c r="I35" s="27" t="s">
+        <v>138</v>
+      </c>
+      <c r="J35" s="32" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12">
+      <c r="A36" s="64"/>
+      <c r="B36" s="64"/>
+      <c r="C36" s="59"/>
+      <c r="D36" s="27" t="s">
+        <v>173</v>
+      </c>
+      <c r="E36" s="31" t="s">
+        <v>198</v>
+      </c>
+      <c r="F36" s="27" t="s">
+        <v>138</v>
+      </c>
+      <c r="G36" s="27" t="s">
+        <v>138</v>
+      </c>
+      <c r="H36" s="27" t="s">
+        <v>138</v>
+      </c>
+      <c r="I36" s="27" t="s">
+        <v>138</v>
+      </c>
+      <c r="J36" s="32" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12">
+      <c r="A37" s="64"/>
+      <c r="B37" s="64"/>
+      <c r="C37" s="59"/>
+      <c r="D37" s="27" t="s">
+        <v>174</v>
+      </c>
+      <c r="E37" s="31" t="s">
+        <v>200</v>
+      </c>
+      <c r="F37" s="27" t="s">
+        <v>138</v>
+      </c>
+      <c r="G37" s="27" t="s">
+        <v>138</v>
+      </c>
+      <c r="H37" s="27" t="s">
+        <v>138</v>
+      </c>
+      <c r="I37" s="27" t="s">
+        <v>138</v>
+      </c>
+      <c r="J37" s="32" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12">
+      <c r="A38" s="64"/>
+      <c r="B38" s="64"/>
+      <c r="C38" s="59"/>
+      <c r="D38" s="27" t="s">
+        <v>242</v>
+      </c>
+      <c r="E38" s="31" t="s">
+        <v>201</v>
+      </c>
+      <c r="F38" s="27" t="s">
+        <v>138</v>
+      </c>
+      <c r="G38" s="27" t="s">
+        <v>138</v>
+      </c>
+      <c r="H38" s="27" t="s">
+        <v>138</v>
+      </c>
+      <c r="I38" s="27" t="s">
+        <v>138</v>
+      </c>
+      <c r="J38" s="32" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12">
+      <c r="A39" s="64"/>
+      <c r="B39" s="64"/>
+      <c r="C39" s="60"/>
+      <c r="D39" s="27" t="s">
+        <v>243</v>
+      </c>
+      <c r="E39" s="31" t="s">
         <v>202</v>
       </c>
-      <c r="F35" s="27" t="s">
-        <v>144</v>
-      </c>
-      <c r="G35" s="27" t="s">
-        <v>144</v>
-      </c>
-      <c r="H35" s="27" t="s">
-        <v>144</v>
-      </c>
-      <c r="I35" s="27" t="s">
-        <v>144</v>
-      </c>
-      <c r="J35" s="32" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12">
-      <c r="A36" s="51"/>
-      <c r="B36" s="51"/>
-      <c r="C36" s="53"/>
-      <c r="D36" s="27" t="s">
-        <v>179</v>
-      </c>
-      <c r="E36" s="31" t="s">
-        <v>204</v>
-      </c>
-      <c r="F36" s="27" t="s">
-        <v>144</v>
-      </c>
-      <c r="G36" s="27" t="s">
-        <v>144</v>
-      </c>
-      <c r="H36" s="27" t="s">
-        <v>144</v>
-      </c>
-      <c r="I36" s="27" t="s">
-        <v>144</v>
-      </c>
-      <c r="J36" s="32" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12">
-      <c r="A37" s="51"/>
-      <c r="B37" s="51"/>
-      <c r="C37" s="53"/>
-      <c r="D37" s="27" t="s">
-        <v>180</v>
-      </c>
-      <c r="E37" s="31" t="s">
-        <v>206</v>
-      </c>
-      <c r="F37" s="27" t="s">
-        <v>144</v>
-      </c>
-      <c r="G37" s="27" t="s">
-        <v>144</v>
-      </c>
-      <c r="H37" s="27" t="s">
-        <v>144</v>
-      </c>
-      <c r="I37" s="27" t="s">
-        <v>144</v>
-      </c>
-      <c r="J37" s="32" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12">
-      <c r="A38" s="51"/>
-      <c r="B38" s="51"/>
-      <c r="C38" s="53"/>
-      <c r="D38" s="27" t="s">
-        <v>248</v>
-      </c>
-      <c r="E38" s="31" t="s">
-        <v>207</v>
-      </c>
-      <c r="F38" s="27" t="s">
-        <v>144</v>
-      </c>
-      <c r="G38" s="27" t="s">
-        <v>144</v>
-      </c>
-      <c r="H38" s="27" t="s">
-        <v>144</v>
-      </c>
-      <c r="I38" s="27" t="s">
-        <v>144</v>
-      </c>
-      <c r="J38" s="32" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12">
-      <c r="A39" s="51"/>
-      <c r="B39" s="51"/>
-      <c r="C39" s="54"/>
-      <c r="D39" s="27" t="s">
-        <v>249</v>
-      </c>
-      <c r="E39" s="31" t="s">
-        <v>208</v>
-      </c>
       <c r="F39" s="27" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="G39" s="27" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="H39" s="27" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="I39" s="27" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="J39" s="32" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
     </row>
     <row r="40" spans="1:12">
@@ -3154,139 +3314,139 @@
       <c r="J40" s="27"/>
     </row>
     <row r="41" spans="1:12">
-      <c r="A41" s="51" t="s">
+      <c r="A41" s="64" t="s">
+        <v>239</v>
+      </c>
+      <c r="B41" s="65" t="s">
+        <v>436</v>
+      </c>
+      <c r="C41" s="58" t="s">
+        <v>233</v>
+      </c>
+      <c r="D41" s="27" t="s">
+        <v>244</v>
+      </c>
+      <c r="E41" s="33" t="s">
+        <v>234</v>
+      </c>
+      <c r="F41" s="27" t="s">
+        <v>138</v>
+      </c>
+      <c r="G41" s="27" t="s">
+        <v>138</v>
+      </c>
+      <c r="H41" s="27" t="s">
+        <v>138</v>
+      </c>
+      <c r="I41" s="27" t="s">
+        <v>138</v>
+      </c>
+      <c r="J41" s="36" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12">
+      <c r="A42" s="64"/>
+      <c r="B42" s="64"/>
+      <c r="C42" s="59"/>
+      <c r="D42" s="27" t="s">
         <v>245</v>
       </c>
-      <c r="B41" s="58" t="s">
-        <v>442</v>
-      </c>
-      <c r="C41" s="52" t="s">
-        <v>239</v>
-      </c>
-      <c r="D41" s="27" t="s">
-        <v>250</v>
-      </c>
-      <c r="E41" s="33" t="s">
-        <v>240</v>
-      </c>
-      <c r="F41" s="27" t="s">
-        <v>144</v>
-      </c>
-      <c r="G41" s="27" t="s">
-        <v>144</v>
-      </c>
-      <c r="H41" s="27" t="s">
-        <v>144</v>
-      </c>
-      <c r="I41" s="27" t="s">
-        <v>144</v>
-      </c>
-      <c r="J41" s="36" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12">
-      <c r="A42" s="51"/>
-      <c r="B42" s="51"/>
-      <c r="C42" s="53"/>
-      <c r="D42" s="27" t="s">
-        <v>251</v>
-      </c>
       <c r="E42" s="33" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="F42" s="27" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="G42" s="27" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="H42" s="27" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="I42" s="27" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="J42" s="36" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
     </row>
     <row r="43" spans="1:12">
-      <c r="A43" s="51"/>
-      <c r="B43" s="51"/>
-      <c r="C43" s="53"/>
+      <c r="A43" s="64"/>
+      <c r="B43" s="64"/>
+      <c r="C43" s="59"/>
       <c r="D43" s="27" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="E43" s="33" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="F43" s="27" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="G43" s="27" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="H43" s="27" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="I43" s="27" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="J43" s="36" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
     </row>
     <row r="44" spans="1:12">
-      <c r="A44" s="51"/>
-      <c r="B44" s="51"/>
-      <c r="C44" s="53"/>
+      <c r="A44" s="64"/>
+      <c r="B44" s="64"/>
+      <c r="C44" s="59"/>
       <c r="D44" s="27" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="E44" s="33" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="F44" s="27" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="G44" s="27" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="H44" s="27" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="I44" s="27" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="J44" s="36" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
     </row>
     <row r="45" spans="1:12">
-      <c r="A45" s="51"/>
-      <c r="B45" s="51"/>
-      <c r="C45" s="54"/>
+      <c r="A45" s="64"/>
+      <c r="B45" s="64"/>
+      <c r="C45" s="60"/>
       <c r="D45" s="34" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="E45" s="35" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="F45" s="34" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="G45" s="34" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="H45" s="34" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="I45" s="34" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="J45" s="36" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
     </row>
     <row r="46" spans="1:12" s="27" customFormat="1">
@@ -3295,737 +3455,984 @@
       <c r="C46" s="39"/>
     </row>
     <row r="47" spans="1:12">
-      <c r="A47" s="51" t="s">
-        <v>245</v>
-      </c>
-      <c r="B47" s="58" t="s">
-        <v>442</v>
-      </c>
-      <c r="C47" s="55" t="s">
-        <v>278</v>
+      <c r="A47" s="64" t="s">
+        <v>239</v>
+      </c>
+      <c r="B47" s="65" t="s">
+        <v>436</v>
+      </c>
+      <c r="C47" s="61" t="s">
+        <v>272</v>
       </c>
       <c r="D47" s="36"/>
       <c r="E47" s="37" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="F47" s="36" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="G47" s="36" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="H47" s="36" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="I47" s="36" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="J47" s="36" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
     </row>
     <row r="48" spans="1:12">
-      <c r="A48" s="51"/>
-      <c r="B48" s="51"/>
-      <c r="C48" s="56"/>
+      <c r="A48" s="64"/>
+      <c r="B48" s="64"/>
+      <c r="C48" s="62"/>
       <c r="D48" s="27"/>
       <c r="E48" s="33" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="F48" s="27" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="G48" s="27" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="H48" s="27" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="I48" s="27" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="J48" s="36" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
     </row>
     <row r="49" spans="1:10">
-      <c r="A49" s="51"/>
-      <c r="B49" s="51"/>
-      <c r="C49" s="56"/>
+      <c r="A49" s="64"/>
+      <c r="B49" s="64"/>
+      <c r="C49" s="62"/>
       <c r="D49" s="27"/>
       <c r="E49" s="33" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="F49" s="27" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="G49" s="27" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="H49" s="27" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="I49" s="27" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="J49" s="36" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
     </row>
     <row r="50" spans="1:10">
-      <c r="A50" s="51"/>
-      <c r="B50" s="51"/>
-      <c r="C50" s="56"/>
+      <c r="A50" s="64"/>
+      <c r="B50" s="64"/>
+      <c r="C50" s="62"/>
       <c r="D50" s="27"/>
       <c r="E50" s="33" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="F50" s="27" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="G50" s="27" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="H50" s="27" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="I50" s="27" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="J50" s="36" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
     </row>
     <row r="51" spans="1:10">
-      <c r="A51" s="51" t="s">
-        <v>279</v>
-      </c>
-      <c r="B51" s="58" t="s">
-        <v>441</v>
-      </c>
-      <c r="C51" s="56"/>
+      <c r="A51" s="64" t="s">
+        <v>273</v>
+      </c>
+      <c r="B51" s="65" t="s">
+        <v>435</v>
+      </c>
+      <c r="C51" s="62"/>
       <c r="D51" s="27"/>
       <c r="E51" s="22" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="F51" s="27" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="G51" s="27" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="H51" s="27" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="I51" s="27" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="J51" s="27" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
     </row>
     <row r="52" spans="1:10">
-      <c r="A52" s="51"/>
-      <c r="B52" s="51"/>
-      <c r="C52" s="56"/>
+      <c r="A52" s="64"/>
+      <c r="B52" s="64"/>
+      <c r="C52" s="62"/>
       <c r="D52" s="27"/>
       <c r="E52" s="22" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="F52" s="27" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="G52" s="27" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="H52" s="27" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="I52" s="27" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="J52" s="27" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
     </row>
     <row r="53" spans="1:10">
-      <c r="A53" s="51"/>
-      <c r="B53" s="51"/>
-      <c r="C53" s="56"/>
+      <c r="A53" s="64"/>
+      <c r="B53" s="64"/>
+      <c r="C53" s="62"/>
       <c r="D53" s="27"/>
       <c r="E53" s="22" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="F53" s="27" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="G53" s="27" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="H53" s="27" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="I53" s="27" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="J53" s="27" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
     </row>
     <row r="54" spans="1:10">
-      <c r="A54" s="51"/>
-      <c r="B54" s="51"/>
-      <c r="C54" s="56"/>
+      <c r="A54" s="64"/>
+      <c r="B54" s="64"/>
+      <c r="C54" s="62"/>
       <c r="D54" s="27"/>
       <c r="E54" s="22" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="F54" s="27" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="G54" s="27" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="H54" s="27" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="I54" s="27" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="J54" s="27" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
     </row>
     <row r="55" spans="1:10">
-      <c r="A55" s="51"/>
-      <c r="B55" s="51"/>
-      <c r="C55" s="57"/>
+      <c r="A55" s="64"/>
+      <c r="B55" s="64"/>
+      <c r="C55" s="63"/>
       <c r="D55" s="27"/>
       <c r="E55" s="22" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="F55" s="27" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="G55" s="27" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="H55" s="27" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="I55" s="27" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="J55" s="27" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10" s="50" customFormat="1" ht="28.8">
-      <c r="A57" s="51" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" s="48" customFormat="1" ht="28.8">
+      <c r="A57" s="64" t="s">
+        <v>320</v>
+      </c>
+      <c r="B57" s="47" t="s">
+        <v>437</v>
+      </c>
+      <c r="C57" s="64" t="s">
+        <v>319</v>
+      </c>
+      <c r="D57" s="56" t="s">
+        <v>323</v>
+      </c>
+      <c r="E57" s="57" t="s">
+        <v>314</v>
+      </c>
+      <c r="F57" s="56" t="s">
+        <v>138</v>
+      </c>
+      <c r="G57" s="56" t="s">
+        <v>138</v>
+      </c>
+      <c r="H57" s="56" t="s">
+        <v>138</v>
+      </c>
+      <c r="I57" s="56" t="s">
+        <v>138</v>
+      </c>
+      <c r="J57" s="56" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
+      <c r="A58" s="64"/>
+      <c r="B58" s="65" t="s">
+        <v>438</v>
+      </c>
+      <c r="C58" s="64"/>
+      <c r="D58" s="27" t="s">
+        <v>325</v>
+      </c>
+      <c r="E58" s="40" t="s">
+        <v>299</v>
+      </c>
+      <c r="F58" s="27" t="s">
+        <v>138</v>
+      </c>
+      <c r="G58" s="27" t="s">
+        <v>138</v>
+      </c>
+      <c r="H58" s="27" t="s">
+        <v>138</v>
+      </c>
+      <c r="I58" s="27" t="s">
+        <v>138</v>
+      </c>
+      <c r="J58" s="27" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
+      <c r="A59" s="64"/>
+      <c r="B59" s="64"/>
+      <c r="C59" s="64"/>
+      <c r="D59" s="27" t="s">
+        <v>324</v>
+      </c>
+      <c r="E59" s="33" t="s">
+        <v>302</v>
+      </c>
+      <c r="F59" s="27" t="s">
+        <v>138</v>
+      </c>
+      <c r="G59" s="27" t="s">
+        <v>138</v>
+      </c>
+      <c r="H59" s="27" t="s">
+        <v>138</v>
+      </c>
+      <c r="I59" s="27" t="s">
+        <v>138</v>
+      </c>
+      <c r="J59" s="27" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
+      <c r="A60" s="64"/>
+      <c r="B60" s="64"/>
+      <c r="C60" s="64"/>
+      <c r="D60" s="27" t="s">
         <v>326</v>
       </c>
-      <c r="B57" s="47" t="s">
+      <c r="E60" s="40" t="s">
+        <v>294</v>
+      </c>
+      <c r="F60" s="27" t="s">
+        <v>138</v>
+      </c>
+      <c r="G60" s="27" t="s">
+        <v>138</v>
+      </c>
+      <c r="H60" s="27" t="s">
+        <v>138</v>
+      </c>
+      <c r="I60" s="27" t="s">
+        <v>138</v>
+      </c>
+      <c r="J60" s="27" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
+      <c r="A62" s="64" t="s">
+        <v>239</v>
+      </c>
+      <c r="B62" s="65" t="s">
+        <v>439</v>
+      </c>
+      <c r="C62" s="64" t="s">
+        <v>327</v>
+      </c>
+      <c r="D62" s="27" t="s">
+        <v>362</v>
+      </c>
+      <c r="E62" s="41" t="s">
+        <v>328</v>
+      </c>
+      <c r="F62" s="27" t="s">
+        <v>138</v>
+      </c>
+      <c r="G62" s="27" t="s">
+        <v>138</v>
+      </c>
+      <c r="H62" s="27" t="s">
+        <v>138</v>
+      </c>
+      <c r="I62" s="27" t="s">
+        <v>138</v>
+      </c>
+      <c r="J62" s="27" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
+      <c r="A63" s="64"/>
+      <c r="B63" s="64"/>
+      <c r="C63" s="64"/>
+      <c r="D63" s="27" t="s">
+        <v>363</v>
+      </c>
+      <c r="E63" s="41" t="s">
+        <v>329</v>
+      </c>
+      <c r="F63" s="27" t="s">
+        <v>138</v>
+      </c>
+      <c r="G63" s="27" t="s">
+        <v>138</v>
+      </c>
+      <c r="H63" s="27" t="s">
+        <v>138</v>
+      </c>
+      <c r="I63" s="27" t="s">
+        <v>138</v>
+      </c>
+      <c r="J63" s="27" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
+      <c r="A64" s="64"/>
+      <c r="B64" s="64"/>
+      <c r="C64" s="64"/>
+      <c r="D64" s="27" t="s">
+        <v>382</v>
+      </c>
+      <c r="E64" s="41" t="s">
+        <v>330</v>
+      </c>
+      <c r="F64" s="27" t="s">
+        <v>138</v>
+      </c>
+      <c r="G64" s="27" t="s">
+        <v>138</v>
+      </c>
+      <c r="H64" s="27" t="s">
+        <v>138</v>
+      </c>
+      <c r="I64" s="27" t="s">
+        <v>138</v>
+      </c>
+      <c r="J64" s="27" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
+      <c r="A65" s="64"/>
+      <c r="B65" s="64"/>
+      <c r="C65" s="64"/>
+      <c r="D65" s="27" t="s">
+        <v>383</v>
+      </c>
+      <c r="E65" s="41" t="s">
+        <v>331</v>
+      </c>
+      <c r="F65" s="27" t="s">
+        <v>138</v>
+      </c>
+      <c r="G65" s="27" t="s">
+        <v>138</v>
+      </c>
+      <c r="H65" s="27" t="s">
+        <v>138</v>
+      </c>
+      <c r="I65" s="27" t="s">
+        <v>138</v>
+      </c>
+      <c r="J65" s="27" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
+      <c r="A66" s="64"/>
+      <c r="B66" s="64"/>
+      <c r="C66" s="64"/>
+      <c r="D66" s="27" t="s">
+        <v>391</v>
+      </c>
+      <c r="E66" s="41" t="s">
+        <v>332</v>
+      </c>
+      <c r="F66" s="27" t="s">
+        <v>138</v>
+      </c>
+      <c r="G66" s="27" t="s">
+        <v>138</v>
+      </c>
+      <c r="H66" s="27" t="s">
+        <v>138</v>
+      </c>
+      <c r="I66" s="27" t="s">
+        <v>138</v>
+      </c>
+      <c r="J66" s="27" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
+      <c r="A67" s="64"/>
+      <c r="B67" s="64"/>
+      <c r="C67" s="64"/>
+      <c r="D67" s="27" t="s">
+        <v>392</v>
+      </c>
+      <c r="E67" s="41" t="s">
+        <v>333</v>
+      </c>
+      <c r="F67" s="27" t="s">
+        <v>138</v>
+      </c>
+      <c r="G67" s="27" t="s">
+        <v>138</v>
+      </c>
+      <c r="H67" s="27" t="s">
+        <v>138</v>
+      </c>
+      <c r="I67" s="27" t="s">
+        <v>138</v>
+      </c>
+      <c r="J67" s="27" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
+      <c r="A68" s="64"/>
+      <c r="B68" s="64"/>
+      <c r="C68" s="64"/>
+      <c r="D68" s="27" t="s">
+        <v>393</v>
+      </c>
+      <c r="E68" s="41" t="s">
+        <v>334</v>
+      </c>
+      <c r="F68" s="27" t="s">
+        <v>138</v>
+      </c>
+      <c r="G68" s="27" t="s">
+        <v>138</v>
+      </c>
+      <c r="H68" s="27" t="s">
+        <v>138</v>
+      </c>
+      <c r="I68" s="27" t="s">
+        <v>138</v>
+      </c>
+      <c r="J68" s="27" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
+      <c r="A69" s="64"/>
+      <c r="B69" s="64"/>
+      <c r="C69" s="64"/>
+      <c r="D69" s="27" t="s">
+        <v>394</v>
+      </c>
+      <c r="E69" s="41" t="s">
+        <v>335</v>
+      </c>
+      <c r="F69" s="27" t="s">
+        <v>138</v>
+      </c>
+      <c r="G69" s="27" t="s">
+        <v>138</v>
+      </c>
+      <c r="H69" s="27" t="s">
+        <v>138</v>
+      </c>
+      <c r="I69" s="27" t="s">
+        <v>138</v>
+      </c>
+      <c r="J69" s="27" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
+      <c r="B71" s="65" t="s">
+        <v>440</v>
+      </c>
+      <c r="C71" s="64" t="s">
+        <v>427</v>
+      </c>
+      <c r="D71" s="27" t="s">
+        <v>428</v>
+      </c>
+      <c r="E71" s="46" t="s">
+        <v>396</v>
+      </c>
+      <c r="F71" s="27" t="s">
+        <v>138</v>
+      </c>
+      <c r="G71" s="27" t="s">
+        <v>138</v>
+      </c>
+      <c r="H71" s="27" t="s">
+        <v>138</v>
+      </c>
+      <c r="I71" s="27" t="s">
+        <v>138</v>
+      </c>
+      <c r="J71" s="27" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
+      <c r="B72" s="64"/>
+      <c r="C72" s="64"/>
+      <c r="D72" s="27" t="s">
+        <v>429</v>
+      </c>
+      <c r="E72" s="46" t="s">
+        <v>398</v>
+      </c>
+      <c r="F72" s="27" t="s">
+        <v>138</v>
+      </c>
+      <c r="G72" s="27" t="s">
+        <v>138</v>
+      </c>
+      <c r="H72" s="27" t="s">
+        <v>138</v>
+      </c>
+      <c r="I72" s="27" t="s">
+        <v>138</v>
+      </c>
+      <c r="J72" s="27" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
+      <c r="B73" s="64"/>
+      <c r="C73" s="64"/>
+      <c r="D73" s="27" t="s">
+        <v>430</v>
+      </c>
+      <c r="E73" s="46" t="s">
+        <v>400</v>
+      </c>
+      <c r="F73" s="27" t="s">
+        <v>138</v>
+      </c>
+      <c r="G73" s="27" t="s">
+        <v>138</v>
+      </c>
+      <c r="H73" s="27" t="s">
+        <v>138</v>
+      </c>
+      <c r="I73" s="27" t="s">
+        <v>138</v>
+      </c>
+      <c r="J73" s="27" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
+      <c r="B74" s="64"/>
+      <c r="C74" s="64"/>
+      <c r="D74" s="27" t="s">
+        <v>431</v>
+      </c>
+      <c r="E74" s="46" t="s">
+        <v>401</v>
+      </c>
+      <c r="F74" s="27" t="s">
+        <v>138</v>
+      </c>
+      <c r="G74" s="27" t="s">
+        <v>138</v>
+      </c>
+      <c r="H74" s="27" t="s">
+        <v>138</v>
+      </c>
+      <c r="I74" s="27" t="s">
+        <v>138</v>
+      </c>
+      <c r="J74" s="27" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
+      <c r="B75" s="64"/>
+      <c r="C75" s="64"/>
+      <c r="D75" s="27" t="s">
+        <v>432</v>
+      </c>
+      <c r="E75" s="46" t="s">
+        <v>402</v>
+      </c>
+      <c r="F75" s="27" t="s">
+        <v>138</v>
+      </c>
+      <c r="G75" s="27" t="s">
+        <v>138</v>
+      </c>
+      <c r="H75" s="27" t="s">
+        <v>138</v>
+      </c>
+      <c r="I75" s="27" t="s">
+        <v>138</v>
+      </c>
+      <c r="J75" s="27" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
+      <c r="B76" s="64"/>
+      <c r="C76" s="64"/>
+      <c r="D76" s="27" t="s">
+        <v>433</v>
+      </c>
+      <c r="E76" s="46" t="s">
+        <v>403</v>
+      </c>
+      <c r="F76" s="27" t="s">
+        <v>138</v>
+      </c>
+      <c r="G76" s="27" t="s">
+        <v>138</v>
+      </c>
+      <c r="H76" s="27" t="s">
+        <v>138</v>
+      </c>
+      <c r="I76" s="27" t="s">
+        <v>138</v>
+      </c>
+      <c r="J76" s="27" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
+      <c r="B78" s="65" t="s">
+        <v>440</v>
+      </c>
+      <c r="C78" s="64" t="s">
+        <v>451</v>
+      </c>
+      <c r="D78" s="27" t="s">
+        <v>452</v>
+      </c>
+      <c r="E78" s="53" t="s">
+        <v>404</v>
+      </c>
+      <c r="F78" s="27" t="s">
+        <v>138</v>
+      </c>
+      <c r="G78" s="27" t="s">
+        <v>138</v>
+      </c>
+      <c r="H78" s="27" t="s">
+        <v>138</v>
+      </c>
+      <c r="I78" s="27" t="s">
+        <v>138</v>
+      </c>
+      <c r="J78" s="27" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
+      <c r="B79" s="64"/>
+      <c r="C79" s="64"/>
+      <c r="D79" s="27" t="s">
+        <v>453</v>
+      </c>
+      <c r="E79" s="53" t="s">
+        <v>405</v>
+      </c>
+      <c r="F79" s="27" t="s">
+        <v>138</v>
+      </c>
+      <c r="G79" s="27" t="s">
+        <v>138</v>
+      </c>
+      <c r="H79" s="27" t="s">
+        <v>138</v>
+      </c>
+      <c r="I79" s="27" t="s">
+        <v>138</v>
+      </c>
+      <c r="J79" s="27" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
+      <c r="B80" s="64"/>
+      <c r="C80" s="64"/>
+      <c r="D80" s="27" t="s">
+        <v>454</v>
+      </c>
+      <c r="E80" s="53" t="s">
         <v>443</v>
       </c>
-      <c r="C57" s="51" t="s">
-        <v>325</v>
-      </c>
-      <c r="D57" s="48" t="s">
-        <v>329</v>
-      </c>
-      <c r="E57" s="49" t="s">
-        <v>320</v>
-      </c>
-      <c r="F57" s="48" t="s">
-        <v>144</v>
-      </c>
-      <c r="G57" s="48" t="s">
-        <v>144</v>
-      </c>
-      <c r="H57" s="48" t="s">
-        <v>144</v>
-      </c>
-      <c r="I57" s="48" t="s">
-        <v>144</v>
-      </c>
-      <c r="J57" s="48" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10">
-      <c r="A58" s="51"/>
-      <c r="B58" s="58" t="s">
-        <v>444</v>
-      </c>
-      <c r="C58" s="51"/>
-      <c r="D58" s="27" t="s">
-        <v>331</v>
-      </c>
-      <c r="E58" s="40" t="s">
-        <v>305</v>
-      </c>
-      <c r="F58" s="27" t="s">
-        <v>144</v>
-      </c>
-      <c r="G58" s="27" t="s">
-        <v>144</v>
-      </c>
-      <c r="H58" s="27" t="s">
-        <v>144</v>
-      </c>
-      <c r="I58" s="27" t="s">
-        <v>144</v>
-      </c>
-      <c r="J58" s="27" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10">
-      <c r="A59" s="51"/>
-      <c r="B59" s="51"/>
-      <c r="C59" s="51"/>
-      <c r="D59" s="27" t="s">
-        <v>330</v>
-      </c>
-      <c r="E59" s="33" t="s">
-        <v>308</v>
-      </c>
-      <c r="F59" s="27" t="s">
-        <v>144</v>
-      </c>
-      <c r="G59" s="27" t="s">
-        <v>144</v>
-      </c>
-      <c r="H59" s="27" t="s">
-        <v>144</v>
-      </c>
-      <c r="I59" s="27" t="s">
-        <v>144</v>
-      </c>
-      <c r="J59" s="27" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10">
-      <c r="A60" s="51"/>
-      <c r="B60" s="51"/>
-      <c r="C60" s="51"/>
-      <c r="D60" s="27" t="s">
-        <v>332</v>
-      </c>
-      <c r="E60" s="40" t="s">
-        <v>300</v>
-      </c>
-      <c r="F60" s="27" t="s">
-        <v>144</v>
-      </c>
-      <c r="G60" s="27" t="s">
-        <v>144</v>
-      </c>
-      <c r="H60" s="27" t="s">
-        <v>144</v>
-      </c>
-      <c r="I60" s="27" t="s">
-        <v>144</v>
-      </c>
-      <c r="J60" s="27" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10">
-      <c r="A62" s="51" t="s">
-        <v>245</v>
-      </c>
-      <c r="B62" s="58" t="s">
-        <v>445</v>
-      </c>
-      <c r="C62" s="51" t="s">
-        <v>333</v>
-      </c>
-      <c r="D62" s="27" t="s">
-        <v>368</v>
-      </c>
-      <c r="E62" s="41" t="s">
-        <v>334</v>
-      </c>
-      <c r="F62" s="27" t="s">
-        <v>144</v>
-      </c>
-      <c r="G62" s="27" t="s">
-        <v>144</v>
-      </c>
-      <c r="H62" s="27" t="s">
-        <v>144</v>
-      </c>
-      <c r="I62" s="27" t="s">
-        <v>144</v>
-      </c>
-      <c r="J62" s="27" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10">
-      <c r="A63" s="51"/>
-      <c r="B63" s="51"/>
-      <c r="C63" s="51"/>
-      <c r="D63" s="27" t="s">
-        <v>369</v>
-      </c>
-      <c r="E63" s="41" t="s">
-        <v>335</v>
-      </c>
-      <c r="F63" s="27" t="s">
-        <v>144</v>
-      </c>
-      <c r="G63" s="27" t="s">
-        <v>144</v>
-      </c>
-      <c r="H63" s="27" t="s">
-        <v>144</v>
-      </c>
-      <c r="I63" s="27" t="s">
-        <v>144</v>
-      </c>
-      <c r="J63" s="27" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10">
-      <c r="A64" s="51"/>
-      <c r="B64" s="51"/>
-      <c r="C64" s="51"/>
-      <c r="D64" s="27" t="s">
-        <v>388</v>
-      </c>
-      <c r="E64" s="41" t="s">
-        <v>336</v>
-      </c>
-      <c r="F64" s="27" t="s">
-        <v>144</v>
-      </c>
-      <c r="G64" s="27" t="s">
-        <v>144</v>
-      </c>
-      <c r="H64" s="27" t="s">
-        <v>144</v>
-      </c>
-      <c r="I64" s="27" t="s">
-        <v>144</v>
-      </c>
-      <c r="J64" s="27" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="65" spans="1:10">
-      <c r="A65" s="51"/>
-      <c r="B65" s="51"/>
-      <c r="C65" s="51"/>
-      <c r="D65" s="27" t="s">
-        <v>389</v>
-      </c>
-      <c r="E65" s="41" t="s">
-        <v>337</v>
-      </c>
-      <c r="F65" s="27" t="s">
-        <v>144</v>
-      </c>
-      <c r="G65" s="27" t="s">
-        <v>144</v>
-      </c>
-      <c r="H65" s="27" t="s">
-        <v>144</v>
-      </c>
-      <c r="I65" s="27" t="s">
-        <v>144</v>
-      </c>
-      <c r="J65" s="27" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="66" spans="1:10">
-      <c r="A66" s="51"/>
-      <c r="B66" s="51"/>
-      <c r="C66" s="51"/>
-      <c r="D66" s="27" t="s">
-        <v>397</v>
-      </c>
-      <c r="E66" s="41" t="s">
-        <v>338</v>
-      </c>
-      <c r="F66" s="27" t="s">
-        <v>144</v>
-      </c>
-      <c r="G66" s="27" t="s">
-        <v>144</v>
-      </c>
-      <c r="H66" s="27" t="s">
-        <v>144</v>
-      </c>
-      <c r="I66" s="27" t="s">
-        <v>144</v>
-      </c>
-      <c r="J66" s="27" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="67" spans="1:10">
-      <c r="A67" s="51"/>
-      <c r="B67" s="51"/>
-      <c r="C67" s="51"/>
-      <c r="D67" s="27" t="s">
-        <v>398</v>
-      </c>
-      <c r="E67" s="41" t="s">
-        <v>339</v>
-      </c>
-      <c r="F67" s="27" t="s">
-        <v>144</v>
-      </c>
-      <c r="G67" s="27" t="s">
-        <v>144</v>
-      </c>
-      <c r="H67" s="27" t="s">
-        <v>144</v>
-      </c>
-      <c r="I67" s="27" t="s">
-        <v>144</v>
-      </c>
-      <c r="J67" s="27" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="68" spans="1:10">
-      <c r="A68" s="51"/>
-      <c r="B68" s="51"/>
-      <c r="C68" s="51"/>
-      <c r="D68" s="27" t="s">
-        <v>399</v>
-      </c>
-      <c r="E68" s="41" t="s">
-        <v>340</v>
-      </c>
-      <c r="F68" s="27" t="s">
-        <v>144</v>
-      </c>
-      <c r="G68" s="27" t="s">
-        <v>144</v>
-      </c>
-      <c r="H68" s="27" t="s">
-        <v>144</v>
-      </c>
-      <c r="I68" s="27" t="s">
-        <v>144</v>
-      </c>
-      <c r="J68" s="27" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="69" spans="1:10">
-      <c r="A69" s="51"/>
-      <c r="B69" s="51"/>
-      <c r="C69" s="51"/>
-      <c r="D69" s="27" t="s">
-        <v>400</v>
-      </c>
-      <c r="E69" s="41" t="s">
-        <v>341</v>
-      </c>
-      <c r="F69" s="27" t="s">
-        <v>144</v>
-      </c>
-      <c r="G69" s="27" t="s">
-        <v>144</v>
-      </c>
-      <c r="H69" s="27" t="s">
-        <v>144</v>
-      </c>
-      <c r="I69" s="27" t="s">
-        <v>144</v>
-      </c>
-      <c r="J69" s="27" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="71" spans="1:10">
-      <c r="B71" s="58" t="s">
-        <v>446</v>
-      </c>
-      <c r="C71" s="51" t="s">
-        <v>433</v>
-      </c>
-      <c r="D71" s="27" t="s">
+      <c r="F80" s="27" t="s">
+        <v>138</v>
+      </c>
+      <c r="G80" s="27" t="s">
+        <v>138</v>
+      </c>
+      <c r="H80" s="27" t="s">
+        <v>138</v>
+      </c>
+      <c r="I80" s="27" t="s">
+        <v>138</v>
+      </c>
+      <c r="J80" s="27" t="s">
         <v>434</v>
       </c>
-      <c r="E71" s="46" t="s">
-        <v>402</v>
-      </c>
-      <c r="F71" s="27" t="s">
-        <v>144</v>
-      </c>
-      <c r="G71" s="27" t="s">
-        <v>144</v>
-      </c>
-      <c r="H71" s="27" t="s">
-        <v>144</v>
-      </c>
-      <c r="I71" s="27" t="s">
-        <v>144</v>
-      </c>
-      <c r="J71" s="27" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="72" spans="1:10">
-      <c r="B72" s="51"/>
-      <c r="C72" s="51"/>
-      <c r="D72" s="27" t="s">
-        <v>435</v>
-      </c>
-      <c r="E72" s="46" t="s">
-        <v>404</v>
-      </c>
-      <c r="F72" s="27" t="s">
-        <v>144</v>
-      </c>
-      <c r="G72" s="27" t="s">
-        <v>144</v>
-      </c>
-      <c r="H72" s="27" t="s">
-        <v>144</v>
-      </c>
-      <c r="I72" s="27" t="s">
-        <v>144</v>
-      </c>
-      <c r="J72" s="27" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="73" spans="1:10">
-      <c r="B73" s="51"/>
-      <c r="C73" s="51"/>
-      <c r="D73" s="27" t="s">
-        <v>436</v>
-      </c>
-      <c r="E73" s="46" t="s">
-        <v>406</v>
-      </c>
-      <c r="F73" s="27" t="s">
-        <v>144</v>
-      </c>
-      <c r="G73" s="27" t="s">
-        <v>144</v>
-      </c>
-      <c r="H73" s="27" t="s">
-        <v>144</v>
-      </c>
-      <c r="I73" s="27" t="s">
-        <v>144</v>
-      </c>
-      <c r="J73" s="27" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="74" spans="1:10">
-      <c r="B74" s="51"/>
-      <c r="C74" s="51"/>
-      <c r="D74" s="27" t="s">
-        <v>437</v>
-      </c>
-      <c r="E74" s="46" t="s">
-        <v>407</v>
-      </c>
-      <c r="F74" s="27" t="s">
-        <v>144</v>
-      </c>
-      <c r="G74" s="27" t="s">
-        <v>144</v>
-      </c>
-      <c r="H74" s="27" t="s">
-        <v>144</v>
-      </c>
-      <c r="I74" s="27" t="s">
-        <v>144</v>
-      </c>
-      <c r="J74" s="27" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="75" spans="1:10">
-      <c r="B75" s="51"/>
-      <c r="C75" s="51"/>
-      <c r="D75" s="27" t="s">
-        <v>438</v>
-      </c>
-      <c r="E75" s="46" t="s">
-        <v>408</v>
-      </c>
-      <c r="F75" s="27" t="s">
-        <v>144</v>
-      </c>
-      <c r="G75" s="27" t="s">
-        <v>144</v>
-      </c>
-      <c r="H75" s="27" t="s">
-        <v>144</v>
-      </c>
-      <c r="I75" s="27" t="s">
-        <v>144</v>
-      </c>
-      <c r="J75" s="27" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="76" spans="1:10">
-      <c r="B76" s="51"/>
-      <c r="C76" s="51"/>
-      <c r="D76" s="27" t="s">
-        <v>439</v>
-      </c>
-      <c r="E76" s="46" t="s">
-        <v>409</v>
-      </c>
-      <c r="F76" s="27" t="s">
-        <v>144</v>
-      </c>
-      <c r="G76" s="27" t="s">
-        <v>144</v>
-      </c>
-      <c r="H76" s="27" t="s">
-        <v>144</v>
-      </c>
-      <c r="I76" s="27" t="s">
-        <v>144</v>
-      </c>
-      <c r="J76" s="27" t="s">
-        <v>440</v>
+    </row>
+    <row r="81" spans="1:10" s="52" customFormat="1" ht="28.8">
+      <c r="A81" s="51"/>
+      <c r="B81" s="50" t="s">
+        <v>450</v>
+      </c>
+      <c r="C81" s="64"/>
+      <c r="D81" s="23" t="s">
+        <v>455</v>
+      </c>
+      <c r="E81" s="54" t="s">
+        <v>447</v>
+      </c>
+      <c r="F81" s="23" t="s">
+        <v>138</v>
+      </c>
+      <c r="G81" s="23" t="s">
+        <v>138</v>
+      </c>
+      <c r="H81" s="23" t="s">
+        <v>138</v>
+      </c>
+      <c r="I81" s="23" t="s">
+        <v>138</v>
+      </c>
+      <c r="J81" s="55" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
+      <c r="B83" s="65" t="s">
+        <v>487</v>
+      </c>
+      <c r="C83" s="64" t="s">
+        <v>482</v>
+      </c>
+      <c r="D83" s="27" t="s">
+        <v>483</v>
+      </c>
+      <c r="E83" s="31" t="s">
+        <v>456</v>
+      </c>
+      <c r="F83" s="27" t="s">
+        <v>138</v>
+      </c>
+      <c r="G83" s="27" t="s">
+        <v>138</v>
+      </c>
+      <c r="H83" s="27" t="s">
+        <v>138</v>
+      </c>
+      <c r="I83" s="27" t="s">
+        <v>138</v>
+      </c>
+      <c r="J83" s="27" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
+      <c r="B84" s="64"/>
+      <c r="C84" s="64"/>
+      <c r="D84" s="27" t="s">
+        <v>484</v>
+      </c>
+      <c r="E84" s="31" t="s">
+        <v>459</v>
+      </c>
+      <c r="F84" s="27" t="s">
+        <v>138</v>
+      </c>
+      <c r="G84" s="27" t="s">
+        <v>138</v>
+      </c>
+      <c r="H84" s="27" t="s">
+        <v>138</v>
+      </c>
+      <c r="I84" s="27" t="s">
+        <v>138</v>
+      </c>
+      <c r="J84" s="27" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
+      <c r="B85" s="64"/>
+      <c r="C85" s="64"/>
+      <c r="D85" s="27" t="s">
+        <v>485</v>
+      </c>
+      <c r="E85" s="31" t="s">
+        <v>460</v>
+      </c>
+      <c r="F85" s="27" t="s">
+        <v>138</v>
+      </c>
+      <c r="G85" s="27" t="s">
+        <v>138</v>
+      </c>
+      <c r="H85" s="27" t="s">
+        <v>138</v>
+      </c>
+      <c r="I85" s="27" t="s">
+        <v>138</v>
+      </c>
+      <c r="J85" s="27" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
+      <c r="B86" s="64"/>
+      <c r="C86" s="64"/>
+      <c r="D86" s="27" t="s">
+        <v>486</v>
+      </c>
+      <c r="E86" s="31" t="s">
+        <v>461</v>
+      </c>
+      <c r="F86" s="27" t="s">
+        <v>138</v>
+      </c>
+      <c r="G86" s="27" t="s">
+        <v>138</v>
+      </c>
+      <c r="H86" s="27" t="s">
+        <v>138</v>
+      </c>
+      <c r="I86" s="27" t="s">
+        <v>138</v>
+      </c>
+      <c r="J86" s="27" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
+      <c r="B87" s="64"/>
+      <c r="C87" s="64"/>
+      <c r="D87" s="27" t="s">
+        <v>493</v>
+      </c>
+      <c r="E87" s="31" t="s">
+        <v>462</v>
+      </c>
+      <c r="F87" s="27"/>
+      <c r="G87" s="27"/>
+      <c r="H87" s="27"/>
+      <c r="I87" s="27"/>
+      <c r="J87" s="27" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
+      <c r="B88" s="64"/>
+      <c r="C88" s="64"/>
+      <c r="D88" s="27" t="s">
+        <v>494</v>
+      </c>
+      <c r="E88" s="31" t="s">
+        <v>463</v>
+      </c>
+      <c r="F88" s="27"/>
+      <c r="G88" s="27"/>
+      <c r="H88" s="27"/>
+      <c r="I88" s="27"/>
+      <c r="J88" s="27" t="s">
+        <v>481</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="36">
-    <mergeCell ref="A35:A39"/>
-    <mergeCell ref="B35:B39"/>
-    <mergeCell ref="A41:A45"/>
-    <mergeCell ref="B41:B45"/>
+  <mergeCells count="40">
+    <mergeCell ref="C83:C88"/>
+    <mergeCell ref="B83:B88"/>
+    <mergeCell ref="C57:C60"/>
+    <mergeCell ref="A57:A60"/>
+    <mergeCell ref="B58:B60"/>
+    <mergeCell ref="C78:C81"/>
+    <mergeCell ref="B78:B80"/>
+    <mergeCell ref="A51:A55"/>
+    <mergeCell ref="B51:B55"/>
     <mergeCell ref="C71:C76"/>
     <mergeCell ref="B71:B76"/>
     <mergeCell ref="C62:C69"/>
     <mergeCell ref="A62:A69"/>
     <mergeCell ref="B62:B69"/>
-    <mergeCell ref="C57:C60"/>
-    <mergeCell ref="A57:A60"/>
-    <mergeCell ref="B58:B60"/>
-    <mergeCell ref="A47:A50"/>
-    <mergeCell ref="B47:B50"/>
-    <mergeCell ref="A51:A55"/>
-    <mergeCell ref="B51:B55"/>
-    <mergeCell ref="C2:C5"/>
-    <mergeCell ref="C47:C55"/>
-    <mergeCell ref="C41:C45"/>
-    <mergeCell ref="C35:C39"/>
     <mergeCell ref="C28:C33"/>
     <mergeCell ref="C22:C26"/>
     <mergeCell ref="C15:C20"/>
-    <mergeCell ref="C7:C13"/>
+    <mergeCell ref="A47:A50"/>
+    <mergeCell ref="B47:B50"/>
+    <mergeCell ref="B35:B39"/>
+    <mergeCell ref="A41:A45"/>
+    <mergeCell ref="B41:B45"/>
+    <mergeCell ref="C41:C45"/>
+    <mergeCell ref="C35:C39"/>
+    <mergeCell ref="C2:C5"/>
+    <mergeCell ref="C47:C55"/>
     <mergeCell ref="B2:B5"/>
     <mergeCell ref="A2:A5"/>
     <mergeCell ref="B7:B10"/>
@@ -4038,6 +4445,8 @@
     <mergeCell ref="A15:A20"/>
     <mergeCell ref="B22:B26"/>
     <mergeCell ref="A22:A26"/>
+    <mergeCell ref="C7:C13"/>
+    <mergeCell ref="A35:A39"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4054,19 +4463,19 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="15.44140625" style="5" customWidth="1"/>
-    <col min="2" max="2" width="18.33203125" style="5" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" style="5"/>
-    <col min="4" max="4" width="13" style="5" customWidth="1"/>
-    <col min="5" max="5" width="18.44140625" style="5" customWidth="1"/>
-    <col min="6" max="6" width="14.109375" style="5" customWidth="1"/>
-    <col min="7" max="7" width="13" style="5" customWidth="1"/>
-    <col min="8" max="9" width="13.6640625" style="5" customWidth="1"/>
-    <col min="10" max="10" width="11.33203125" style="5" customWidth="1"/>
-    <col min="11" max="11" width="15.88671875" style="5" customWidth="1"/>
-    <col min="12" max="12" width="16.33203125" style="5" customWidth="1"/>
-    <col min="13" max="13" width="18.6640625" style="5" customWidth="1"/>
-    <col min="14" max="16384" width="8.88671875" style="5"/>
+    <col min="1" max="1" customWidth="true" style="5" width="15.44140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="5" width="18.33203125" collapsed="true"/>
+    <col min="3" max="3" style="5" width="8.88671875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="5" width="13.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="5" width="18.44140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="5" width="14.109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="5" width="13.0" collapsed="true"/>
+    <col min="8" max="9" customWidth="true" style="5" width="13.6640625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="5" width="11.33203125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="5" width="15.88671875" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" style="5" width="16.33203125" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" style="5" width="18.6640625" collapsed="true"/>
+    <col min="14" max="16384" style="5" width="8.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
@@ -4083,10 +4492,10 @@
         <v>10</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>15</v>
@@ -4098,7 +4507,7 @@
         <v>17</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="K1" s="3" t="s">
         <v>18</v>
@@ -4112,13 +4521,13 @@
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="10" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
@@ -4133,50 +4542,50 @@
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="10" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="H3" s="4" t="s">
         <v>26</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="L3" s="4"/>
       <c r="M3" s="4"/>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="10" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
@@ -4191,60 +4600,60 @@
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="10" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="H5" s="4" t="s">
         <v>26</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="J5" s="4"/>
       <c r="K5" s="4" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="L5" s="4"/>
       <c r="M5" s="4"/>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="10" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
       <c r="G6" s="4" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="H6" s="4"/>
       <c r="I6" s="4" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="J6" s="4"/>
       <c r="K6" s="4"/>
@@ -4253,13 +4662,13 @@
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="10" t="s">
+        <v>268</v>
+      </c>
+      <c r="B7" s="10" t="s">
         <v>274</v>
       </c>
-      <c r="B7" s="10" t="s">
-        <v>280</v>
-      </c>
       <c r="C7" s="4" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
@@ -4274,13 +4683,13 @@
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="10" t="s">
+        <v>269</v>
+      </c>
+      <c r="B8" s="10" t="s">
         <v>275</v>
       </c>
-      <c r="B8" s="10" t="s">
-        <v>281</v>
-      </c>
       <c r="C8" s="4" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
@@ -4291,21 +4700,21 @@
       <c r="J8" s="4"/>
       <c r="K8" s="4"/>
       <c r="L8" s="4" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="M8" s="4" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="10" t="s">
+        <v>270</v>
+      </c>
+      <c r="B9" s="10" t="s">
         <v>276</v>
       </c>
-      <c r="B9" s="10" t="s">
-        <v>282</v>
-      </c>
       <c r="C9" s="4" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
@@ -4320,13 +4729,13 @@
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="10" t="s">
+        <v>271</v>
+      </c>
+      <c r="B10" s="10" t="s">
         <v>277</v>
       </c>
-      <c r="B10" s="10" t="s">
-        <v>283</v>
-      </c>
       <c r="C10" s="4" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
@@ -4355,9 +4764,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="16.44140625" customWidth="1"/>
-    <col min="2" max="2" width="17.109375" customWidth="1"/>
-    <col min="3" max="3" width="10.6640625" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="16.44140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="17.109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="10.6640625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -4373,57 +4782,57 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="10" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="10" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="10" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="10" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="10" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
     </row>
   </sheetData>
@@ -4435,22 +4844,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="20.109375" customWidth="1"/>
-    <col min="2" max="2" width="29" customWidth="1"/>
-    <col min="3" max="3" width="10.6640625" customWidth="1"/>
-    <col min="4" max="4" width="9.6640625" customWidth="1"/>
-    <col min="5" max="5" width="12.5546875" customWidth="1"/>
-    <col min="6" max="6" width="15.109375" customWidth="1"/>
-    <col min="7" max="7" width="14" style="5" customWidth="1"/>
-    <col min="8" max="8" width="16.44140625" customWidth="1"/>
-    <col min="9" max="9" width="17.33203125" customWidth="1"/>
-    <col min="10" max="10" width="20.109375" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="20.109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="29.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="10.6640625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="9.6640625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.5546875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="15.109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="5" width="14.0" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="16.44140625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="17.33203125" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="20.109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -4464,36 +4873,36 @@
         <v>11</v>
       </c>
       <c r="D1" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>309</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>310</v>
       </c>
-      <c r="F1" s="3" t="s">
-        <v>311</v>
-      </c>
-      <c r="G1" s="3" t="s">
+      <c r="I1" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="J1" s="3" t="s">
         <v>315</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>316</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>322</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>321</v>
       </c>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="10" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
@@ -4505,13 +4914,13 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="10" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
@@ -4523,41 +4932,41 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="10" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="D4" s="4" t="s">
+        <v>306</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="G4" s="38" t="s">
+        <v>311</v>
+      </c>
+      <c r="H4" s="4" t="s">
         <v>312</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>313</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>314</v>
-      </c>
-      <c r="G4" s="38" t="s">
-        <v>317</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>318</v>
       </c>
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="10" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
@@ -4565,21 +4974,21 @@
       <c r="G5" s="38"/>
       <c r="H5" s="4"/>
       <c r="I5" s="4" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="59" t="s">
-        <v>453</v>
-      </c>
-      <c r="B6" s="59" t="s">
-        <v>454</v>
+      <c r="A6" s="49" t="s">
+        <v>447</v>
+      </c>
+      <c r="B6" s="49" t="s">
+        <v>448</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
@@ -4607,22 +5016,22 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="19.6640625" customWidth="1"/>
-    <col min="2" max="2" width="27.44140625" customWidth="1"/>
-    <col min="3" max="3" width="8.44140625" customWidth="1"/>
-    <col min="4" max="4" width="16.33203125" customWidth="1"/>
-    <col min="5" max="5" width="14.33203125" customWidth="1"/>
-    <col min="6" max="6" width="19.6640625" customWidth="1"/>
-    <col min="7" max="7" width="18" customWidth="1"/>
-    <col min="8" max="10" width="12.6640625" customWidth="1"/>
-    <col min="11" max="11" width="12.5546875" customWidth="1"/>
-    <col min="12" max="12" width="11.88671875" customWidth="1"/>
-    <col min="13" max="13" width="15.6640625" customWidth="1"/>
-    <col min="14" max="14" width="15.88671875" customWidth="1"/>
-    <col min="15" max="15" width="20.33203125" customWidth="1"/>
-    <col min="16" max="17" width="15.88671875" customWidth="1"/>
-    <col min="18" max="18" width="13.33203125" customWidth="1"/>
-    <col min="19" max="19" width="20.44140625" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="19.6640625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="27.44140625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="8.44140625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="16.33203125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="14.33203125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="19.6640625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="8" max="10" customWidth="true" width="12.6640625" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="12.5546875" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="11.88671875" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="15.6640625" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="15.88671875" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="20.33203125" collapsed="true"/>
+    <col min="16" max="17" customWidth="true" width="15.88671875" collapsed="true"/>
+    <col min="18" max="18" customWidth="true" width="13.33203125" collapsed="true"/>
+    <col min="19" max="19" customWidth="true" width="20.44140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19">
@@ -4636,49 +5045,49 @@
         <v>11</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>31</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="O1" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="P1" s="3" t="s">
         <v>379</v>
       </c>
-      <c r="P1" s="3" t="s">
-        <v>385</v>
-      </c>
       <c r="Q1" s="3" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="R1" s="3" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="S1" s="3" t="s">
         <v>50</v>
@@ -4686,13 +5095,13 @@
     </row>
     <row r="2" spans="1:19">
       <c r="A2" s="45" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
@@ -4702,7 +5111,7 @@
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
       <c r="K2" s="4" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="L2" s="4"/>
       <c r="M2" s="4"/>
@@ -4715,127 +5124,127 @@
     </row>
     <row r="3" spans="1:19">
       <c r="A3" s="45" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="I3" s="4"/>
       <c r="J3" s="4" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="M3" s="4" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="N3" s="4" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="O3" s="4" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="P3" s="4" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="Q3" s="4" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="R3" s="4" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="S3" s="4"/>
     </row>
     <row r="4" spans="1:19">
       <c r="A4" s="45" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
       <c r="F4" s="4" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="I4" s="4"/>
       <c r="J4" s="4" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="K4" s="4"/>
       <c r="L4" s="4" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="M4" s="4" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="N4" s="4" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="O4" s="4" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="P4" s="4" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="Q4" s="4" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="R4" s="4"/>
       <c r="S4" s="4"/>
     </row>
     <row r="5" spans="1:19">
       <c r="A5" s="45" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
@@ -4852,31 +5261,31 @@
     </row>
     <row r="6" spans="1:19">
       <c r="A6" s="45" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="F6" s="4" t="s">
+        <v>384</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>353</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="I6" s="4" t="s">
         <v>390</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>359</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>395</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>396</v>
       </c>
       <c r="J6" s="4"/>
       <c r="K6" s="4"/>
@@ -4891,13 +5300,13 @@
     </row>
     <row r="7" spans="1:19">
       <c r="A7" s="45" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
@@ -4918,13 +5327,13 @@
     </row>
     <row r="8" spans="1:19">
       <c r="A8" s="45" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
@@ -4941,21 +5350,21 @@
       <c r="P8" s="4"/>
       <c r="Q8" s="4"/>
       <c r="R8" s="4" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="S8" s="4" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
     </row>
     <row r="9" spans="1:19">
       <c r="A9" s="42" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="B9" s="43" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="D9" s="44"/>
       <c r="E9" s="44"/>
@@ -4984,21 +5393,21 @@
   <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="23.109375" customWidth="1"/>
-    <col min="2" max="2" width="21.6640625" customWidth="1"/>
-    <col min="3" max="3" width="13.109375" customWidth="1"/>
-    <col min="4" max="4" width="20.5546875" customWidth="1"/>
-    <col min="5" max="6" width="21.33203125" customWidth="1"/>
-    <col min="7" max="7" width="13.33203125" customWidth="1"/>
-    <col min="8" max="8" width="15.33203125" customWidth="1"/>
-    <col min="9" max="9" width="16.6640625" customWidth="1"/>
-    <col min="10" max="10" width="19.77734375" customWidth="1"/>
-    <col min="11" max="12" width="19.5546875" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="23.109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="21.6640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="13.109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="20.5546875" collapsed="true"/>
+    <col min="5" max="6" customWidth="true" width="21.33203125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="13.33203125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="15.33203125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="16.6640625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="19.77734375" collapsed="true"/>
+    <col min="11" max="12" customWidth="true" width="19.5546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -5012,76 +5421,76 @@
         <v>11</v>
       </c>
       <c r="D1" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>413</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>414</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>415</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>416</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>417</v>
+      </c>
+      <c r="J1" s="3" t="s">
         <v>418</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>419</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>420</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>421</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>422</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>423</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>424</v>
-      </c>
       <c r="K1" s="3" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="45" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="D2" s="4" t="s">
+        <v>419</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>420</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>421</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>422</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>423</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>424</v>
+      </c>
+      <c r="J2" s="4" t="s">
         <v>425</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>426</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>427</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>428</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>429</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>430</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>431</v>
       </c>
       <c r="K2" s="4"/>
       <c r="L2" s="4"/>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="45" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
@@ -5095,13 +5504,13 @@
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="45" t="s">
+        <v>400</v>
+      </c>
+      <c r="B4" s="10" t="s">
         <v>406</v>
       </c>
-      <c r="B4" s="10" t="s">
-        <v>412</v>
-      </c>
       <c r="C4" s="4" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
@@ -5115,13 +5524,13 @@
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="45" t="s">
+        <v>401</v>
+      </c>
+      <c r="B5" s="10" t="s">
         <v>407</v>
       </c>
-      <c r="B5" s="10" t="s">
-        <v>413</v>
-      </c>
       <c r="C5" s="4" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
@@ -5135,13 +5544,13 @@
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="45" t="s">
+        <v>402</v>
+      </c>
+      <c r="B6" s="10" t="s">
         <v>408</v>
       </c>
-      <c r="B6" s="10" t="s">
-        <v>414</v>
-      </c>
       <c r="C6" s="4" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
@@ -5155,13 +5564,13 @@
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="45" t="s">
+        <v>403</v>
+      </c>
+      <c r="B7" s="10" t="s">
         <v>409</v>
       </c>
-      <c r="B7" s="10" t="s">
-        <v>415</v>
-      </c>
       <c r="C7" s="4" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
@@ -5175,13 +5584,13 @@
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="45" t="s">
+        <v>404</v>
+      </c>
+      <c r="B8" s="10" t="s">
         <v>410</v>
       </c>
-      <c r="B8" s="10" t="s">
-        <v>416</v>
-      </c>
       <c r="C8" s="4" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
@@ -5195,13 +5604,13 @@
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="45" t="s">
+        <v>405</v>
+      </c>
+      <c r="B9" s="10" t="s">
         <v>411</v>
       </c>
-      <c r="B9" s="10" t="s">
-        <v>417</v>
-      </c>
       <c r="C9" s="4" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
@@ -5215,13 +5624,13 @@
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="45" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
@@ -5231,10 +5640,10 @@
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
       <c r="K10" s="4" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="L10" s="4" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
     </row>
   </sheetData>
@@ -5248,16 +5657,16 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" style="5" customWidth="1"/>
-    <col min="2" max="2" width="16.44140625" style="5" customWidth="1"/>
-    <col min="3" max="3" width="13.6640625" style="5" customWidth="1"/>
-    <col min="4" max="4" width="26.6640625" style="5" customWidth="1"/>
-    <col min="5" max="16384" width="8.88671875" style="5"/>
+    <col min="1" max="1" customWidth="true" style="5" width="19.33203125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="5" width="16.44140625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="5" width="13.6640625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="5" width="26.6640625" collapsed="true"/>
+    <col min="5" max="16384" style="5" width="8.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -5271,7 +5680,7 @@
         <v>1</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -5285,7 +5694,7 @@
         <v>5</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -5293,13 +5702,13 @@
         <v>6</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>32</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -5307,13 +5716,13 @@
         <v>7</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>32</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -5321,75 +5730,75 @@
         <v>33</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>32</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="8" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>32</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="8" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>32</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="8" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>32</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="8" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>32</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -5423,19 +5832,19 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="15.33203125" customWidth="1"/>
-    <col min="2" max="2" width="20.33203125" customWidth="1"/>
-    <col min="3" max="3" width="9.5546875" style="5" customWidth="1"/>
-    <col min="4" max="4" width="13.33203125" style="5" customWidth="1"/>
-    <col min="5" max="5" width="12.88671875" style="5" customWidth="1"/>
-    <col min="6" max="6" width="15.44140625" style="5" customWidth="1"/>
-    <col min="7" max="7" width="14.5546875" style="5" customWidth="1"/>
-    <col min="8" max="8" width="16" style="5" customWidth="1"/>
-    <col min="9" max="9" width="15.109375" customWidth="1"/>
-    <col min="10" max="10" width="17.6640625" customWidth="1"/>
-    <col min="11" max="11" width="19.33203125" customWidth="1"/>
-    <col min="12" max="12" width="16.44140625" customWidth="1"/>
-    <col min="13" max="13" width="14.33203125" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="15.33203125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="20.33203125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="5" width="9.5546875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="5" width="13.33203125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="5" width="12.88671875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="5" width="15.44140625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="5" width="14.5546875" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="5" width="16.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="15.109375" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="17.6640625" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="19.33203125" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="16.44140625" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="14.33203125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
@@ -5487,7 +5896,7 @@
         <v>13</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
@@ -5508,7 +5917,7 @@
         <v>21</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>14</v>
@@ -5539,7 +5948,7 @@
         <v>27</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4" t="s">
@@ -5566,7 +5975,7 @@
         <v>42</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
@@ -5595,7 +6004,7 @@
         <v>19</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>14</v>
@@ -5664,12 +6073,12 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="14.44140625" style="5" customWidth="1"/>
-    <col min="2" max="2" width="23.109375" style="5" customWidth="1"/>
-    <col min="3" max="3" width="20" style="5" customWidth="1"/>
-    <col min="4" max="4" width="20.33203125" style="5" customWidth="1"/>
-    <col min="5" max="5" width="21.44140625" style="5" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" style="5"/>
+    <col min="1" max="1" customWidth="true" style="5" width="14.44140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="5" width="23.109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="5" width="20.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="5" width="20.33203125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="5" width="21.44140625" collapsed="true"/>
+    <col min="6" max="16384" style="5" width="8.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -5686,7 +6095,7 @@
         <v>37</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -5697,7 +6106,7 @@
         <v>36</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
@@ -5710,7 +6119,7 @@
         <v>35</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>38</v>
@@ -5725,13 +6134,13 @@
         <v>39</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>41</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -5744,25 +6153,29 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:K8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="14" style="5" customWidth="1"/>
-    <col min="2" max="2" width="17.6640625" style="5" customWidth="1"/>
-    <col min="3" max="3" width="13.88671875" style="5" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="5" customWidth="1"/>
-    <col min="5" max="6" width="24.6640625" style="5" customWidth="1"/>
-    <col min="7" max="7" width="20.44140625" style="5" customWidth="1"/>
-    <col min="8" max="8" width="15.33203125" style="5" customWidth="1"/>
-    <col min="9" max="16384" width="8.88671875" style="5"/>
+    <col min="1" max="1" customWidth="true" style="5" width="23.33203125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="5" width="37.109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="5" width="14.44140625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="5" width="16.6640625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="5" width="26.21875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="5" width="22.6640625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="5" width="15.77734375" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="5" width="15.44140625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="5" width="20.44140625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="5" width="15.33203125" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" style="5" width="10.34375" collapsed="true"/>
+    <col min="12" max="16384" style="5" width="8.88671875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:11">
       <c r="A1" s="3" t="s">
         <v>8</v>
       </c>
@@ -5773,22 +6186,31 @@
         <v>11</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>54</v>
+        <v>476</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>55</v>
+        <v>477</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>63</v>
+        <v>478</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>56</v>
+        <v>470</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
+        <v>471</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>474</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>475</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="10" t="s">
         <v>52</v>
       </c>
@@ -5796,53 +6218,174 @@
         <v>53</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>58</v>
+        <v>479</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="G2" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="H2" s="12" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="11"/>
-      <c r="B3" s="11"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
+        <v>57</v>
+      </c>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="11" t="s">
+        <v>456</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>457</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>480</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>479</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>469</v>
+      </c>
       <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="11"/>
-      <c r="B4" s="11"/>
-      <c r="C4" s="12"/>
+      <c r="G3" s="12" t="s">
+        <v>472</v>
+      </c>
+      <c r="H3" s="12" t="s">
+        <v>473</v>
+      </c>
+      <c r="I3" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="K3" s="12"/>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="11" t="s">
+        <v>459</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>458</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>468</v>
+      </c>
       <c r="D4" s="12"/>
       <c r="E4" s="12"/>
       <c r="F4" s="12"/>
       <c r="G4" s="12"/>
       <c r="H4" s="12"/>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="11"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="12"/>
+      <c r="K4" s="12"/>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="11" t="s">
+        <v>460</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>464</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>468</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>488</v>
+      </c>
       <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
+      <c r="F5" s="12" t="s">
+        <v>489</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>490</v>
+      </c>
+      <c r="H5" s="12" t="s">
+        <v>491</v>
+      </c>
+      <c r="I5" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="J5" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="K5" s="12"/>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="11" t="s">
+        <v>461</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>465</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>468</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>488</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>492</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>489</v>
+      </c>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="J6" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="K6" s="12"/>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="11" t="s">
+        <v>462</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>466</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>468</v>
+      </c>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="12" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="11" t="s">
+        <v>463</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>467</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>468</v>
+      </c>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5859,9 +6402,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="19.109375" customWidth="1"/>
-    <col min="2" max="2" width="21.109375" customWidth="1"/>
-    <col min="3" max="3" width="17.6640625" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="19.109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="21.109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="17.6640625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -5877,68 +6420,68 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="10" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="10" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="10" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="10" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="10" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="10" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -5956,20 +6499,20 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="18.109375" style="5" customWidth="1"/>
-    <col min="2" max="2" width="23.6640625" style="5" customWidth="1"/>
-    <col min="3" max="3" width="9.5546875" style="5" customWidth="1"/>
-    <col min="4" max="4" width="24.33203125" style="5" customWidth="1"/>
-    <col min="5" max="5" width="23.6640625" style="5" customWidth="1"/>
-    <col min="6" max="6" width="15.6640625" style="5" customWidth="1"/>
-    <col min="7" max="7" width="15.5546875" style="5" customWidth="1"/>
-    <col min="8" max="8" width="14.88671875" style="5" customWidth="1"/>
-    <col min="9" max="9" width="26.33203125" style="5" customWidth="1"/>
-    <col min="10" max="10" width="13.5546875" style="5" customWidth="1"/>
-    <col min="11" max="11" width="19.33203125" style="5" customWidth="1"/>
-    <col min="12" max="12" width="16.44140625" style="5" customWidth="1"/>
-    <col min="13" max="13" width="20.5546875" style="5" customWidth="1"/>
-    <col min="14" max="16384" width="8.88671875" style="5"/>
+    <col min="1" max="1" customWidth="true" style="5" width="18.109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="5" width="23.6640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="5" width="9.5546875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="5" width="24.33203125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="5" width="23.6640625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="5" width="15.6640625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="5" width="15.5546875" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="5" width="14.88671875" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="5" width="26.33203125" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="5" width="13.5546875" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="5" width="19.33203125" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" style="5" width="16.44140625" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" style="5" width="20.5546875" collapsed="true"/>
+    <col min="14" max="16384" style="5" width="8.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="14" customFormat="1">
@@ -5983,88 +6526,88 @@
         <v>11</v>
       </c>
       <c r="D1" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="G1" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="I1" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="J1" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="K1" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="L1" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="M1" s="13" t="s">
         <v>89</v>
-      </c>
-      <c r="H1" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="I1" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="J1" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="K1" s="13" t="s">
-        <v>93</v>
-      </c>
-      <c r="L1" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="M1" s="13" t="s">
-        <v>95</v>
       </c>
       <c r="N1" s="13"/>
       <c r="O1" s="13"/>
     </row>
     <row r="2" spans="1:15">
       <c r="A2" s="10" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="D2" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="I2" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="J2" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="K2" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="E2" s="12" t="s">
-        <v>96</v>
-      </c>
-      <c r="F2" s="12" t="s">
+      <c r="L2" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="M2" s="12" t="s">
         <v>98</v>
-      </c>
-      <c r="H2" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="I2" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="J2" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="K2" s="12" t="s">
-        <v>102</v>
-      </c>
-      <c r="L2" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="M2" s="12" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="10" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="D3" s="12"/>
       <c r="E3" s="12"/>
@@ -6079,13 +6622,13 @@
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="10" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="D4" s="12"/>
       <c r="E4" s="12"/>
@@ -6100,13 +6643,13 @@
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="10" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="D5" s="12"/>
       <c r="E5" s="12"/>
@@ -6121,13 +6664,13 @@
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="10" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="D6" s="12"/>
       <c r="E6" s="12"/>
@@ -6155,9 +6698,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="14.6640625" customWidth="1"/>
-    <col min="2" max="2" width="18.5546875" customWidth="1"/>
-    <col min="3" max="3" width="17.5546875" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="14.6640625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.5546875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="17.5546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -6173,68 +6716,68 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="10" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="10" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="10" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="10" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="10" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="10" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -6252,28 +6795,28 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="15.88671875" customWidth="1"/>
-    <col min="2" max="2" width="18.109375" customWidth="1"/>
-    <col min="3" max="3" width="10.33203125" customWidth="1"/>
-    <col min="4" max="4" width="20.6640625" customWidth="1"/>
-    <col min="5" max="5" width="19.5546875" customWidth="1"/>
-    <col min="6" max="6" width="17.33203125" customWidth="1"/>
-    <col min="7" max="7" width="23.33203125" customWidth="1"/>
-    <col min="8" max="8" width="26.6640625" customWidth="1"/>
-    <col min="9" max="9" width="27.33203125" customWidth="1"/>
-    <col min="10" max="10" width="18.33203125" customWidth="1"/>
-    <col min="11" max="11" width="29.44140625" customWidth="1"/>
-    <col min="12" max="12" width="16.6640625" customWidth="1"/>
-    <col min="13" max="13" width="17.33203125" customWidth="1"/>
-    <col min="14" max="14" width="16.33203125" customWidth="1"/>
-    <col min="15" max="15" width="14.33203125" customWidth="1"/>
-    <col min="16" max="16" width="15.5546875" customWidth="1"/>
-    <col min="17" max="17" width="12.6640625" customWidth="1"/>
-    <col min="18" max="18" width="13.33203125" customWidth="1"/>
-    <col min="19" max="19" width="19.5546875" customWidth="1"/>
-    <col min="20" max="20" width="13.33203125" customWidth="1"/>
-    <col min="21" max="21" width="13.6640625" customWidth="1"/>
-    <col min="22" max="22" width="14.44140625" style="30" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="15.88671875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="10.33203125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="20.6640625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="19.5546875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="17.33203125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="23.33203125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="26.6640625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="27.33203125" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="18.33203125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="29.44140625" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="16.6640625" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="17.33203125" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="16.33203125" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="14.33203125" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="15.5546875" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" width="12.6640625" collapsed="true"/>
+    <col min="18" max="18" customWidth="true" width="13.33203125" collapsed="true"/>
+    <col min="19" max="19" customWidth="true" width="19.5546875" collapsed="true"/>
+    <col min="20" max="20" customWidth="true" width="13.33203125" collapsed="true"/>
+    <col min="21" max="21" customWidth="true" width="13.6640625" collapsed="true"/>
+    <col min="22" max="22" customWidth="true" style="30" width="14.44140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" s="14" customFormat="1">
@@ -6287,111 +6830,111 @@
         <v>11</v>
       </c>
       <c r="D1" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="G1" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>206</v>
+      </c>
+      <c r="I1" s="13" t="s">
+        <v>207</v>
+      </c>
+      <c r="J1" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="K1" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="L1" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="M1" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="N1" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="O1" s="13" t="s">
+        <v>210</v>
+      </c>
+      <c r="P1" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="H1" s="13" t="s">
-        <v>212</v>
-      </c>
-      <c r="I1" s="13" t="s">
-        <v>213</v>
-      </c>
-      <c r="J1" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="K1" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="L1" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="M1" s="13" t="s">
-        <v>93</v>
-      </c>
-      <c r="N1" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="O1" s="13" t="s">
-        <v>216</v>
-      </c>
-      <c r="P1" s="13" t="s">
-        <v>95</v>
-      </c>
       <c r="Q1" s="13" t="s">
+        <v>220</v>
+      </c>
+      <c r="R1" s="13" t="s">
+        <v>221</v>
+      </c>
+      <c r="S1" s="13" t="s">
+        <v>222</v>
+      </c>
+      <c r="T1" s="13" t="s">
         <v>226</v>
       </c>
-      <c r="R1" s="13" t="s">
-        <v>227</v>
-      </c>
-      <c r="S1" s="13" t="s">
-        <v>228</v>
-      </c>
-      <c r="T1" s="13" t="s">
-        <v>232</v>
-      </c>
       <c r="U1" s="13" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="V1" s="28" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
     </row>
     <row r="2" spans="1:22" s="5" customFormat="1">
       <c r="A2" s="10" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="G2" s="12" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="H2" s="12" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="I2" s="12" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="J2" s="12" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="K2" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="L2" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="M2" s="12" t="s">
         <v>219</v>
       </c>
-      <c r="L2" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="M2" s="12" t="s">
-        <v>225</v>
-      </c>
       <c r="N2" s="12" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="O2" s="12" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="P2" s="12" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="Q2" s="12"/>
       <c r="R2" s="12"/>
@@ -6402,13 +6945,13 @@
     </row>
     <row r="3" spans="1:22" s="5" customFormat="1">
       <c r="A3" s="10" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="D3" s="12"/>
       <c r="E3" s="12"/>
@@ -6432,13 +6975,13 @@
     </row>
     <row r="4" spans="1:22" s="5" customFormat="1">
       <c r="A4" s="10" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="D4" s="12"/>
       <c r="E4" s="12"/>
@@ -6462,52 +7005,52 @@
     </row>
     <row r="5" spans="1:22" s="5" customFormat="1">
       <c r="A5" s="10" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="G5" s="12" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="H5" s="12" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="I5" s="12" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="J5" s="12" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="K5" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="L5" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="M5" s="12" t="s">
         <v>219</v>
       </c>
-      <c r="L5" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="M5" s="12" t="s">
-        <v>225</v>
-      </c>
       <c r="N5" s="12" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="O5" s="12" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="P5" s="12" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="Q5" s="12"/>
       <c r="R5" s="12"/>
@@ -6518,13 +7061,13 @@
     </row>
     <row r="6" spans="1:22" s="5" customFormat="1">
       <c r="A6" s="10" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="D6" s="12"/>
       <c r="E6" s="12"/>
@@ -6540,22 +7083,22 @@
       <c r="O6" s="12"/>
       <c r="P6" s="12"/>
       <c r="Q6" s="12" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="R6" s="12" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="S6" s="12" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="T6" s="12" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="U6" s="12" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="V6" s="29" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
     </row>
   </sheetData>

--- a/KULS_Sankar/TestData/ijaraTestData.xlsx
+++ b/KULS_Sankar/TestData/ijaraTestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="72" windowWidth="23256" windowHeight="12600" firstSheet="3" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="72" windowWidth="23256" windowHeight="12600"/>
   </bookViews>
   <sheets>
     <sheet name="AllFeaturesAutomationInfo" sheetId="8" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1110" uniqueCount="499">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1118" uniqueCount="513">
   <si>
     <t>UserName</t>
   </si>
@@ -488,12 +488,6 @@
     <t>CUD_04_08 --&gt; CUD_04_09</t>
   </si>
   <si>
-    <t>Underwriter.feature</t>
-  </si>
-  <si>
-    <t>Tawarruq_AdditionalCustomerInfo.feature</t>
-  </si>
-  <si>
     <t>Screen Name</t>
   </si>
   <si>
@@ -539,9 +533,6 @@
     <t>Scenario ID's</t>
   </si>
   <si>
-    <t>DataCheck_Income.feature</t>
-  </si>
-  <si>
     <t>Sprint - 62</t>
   </si>
   <si>
@@ -560,9 +551,6 @@
     <t>ADC_01_12 --&gt; ADC_01_17</t>
   </si>
   <si>
-    <t>DataCheck_ApplicationDetails.feature</t>
-  </si>
-  <si>
     <t>IJARAH-App Data Entry</t>
   </si>
   <si>
@@ -602,9 +590,6 @@
     <t>OFO_01_07</t>
   </si>
   <si>
-    <t>Offering_offerDetails.feature</t>
-  </si>
-  <si>
     <t>0352</t>
   </si>
   <si>
@@ -723,9 +708,6 @@
   </si>
   <si>
     <t>IJARAH- Contract Signing</t>
-  </si>
-  <si>
-    <t>ContractSign_ApplicationDetails.feature</t>
   </si>
   <si>
     <t>Sprint - 65</t>
@@ -1550,13 +1532,73 @@
     <t>Record_ID</t>
   </si>
   <si>
-    <t>4121</t>
-  </si>
-  <si>
-    <t>4103</t>
-  </si>
-  <si>
-    <t>4122</t>
+    <t>AT_UNW_003</t>
+  </si>
+  <si>
+    <t>DS_AT_UNW_003</t>
+  </si>
+  <si>
+    <t>SequenceNumber</t>
+  </si>
+  <si>
+    <t>Condition</t>
+  </si>
+  <si>
+    <t>Remarks</t>
+  </si>
+  <si>
+    <t>NoteCode</t>
+  </si>
+  <si>
+    <t>NoteSubCode</t>
+  </si>
+  <si>
+    <t>fullfill</t>
+  </si>
+  <si>
+    <t>5679</t>
+  </si>
+  <si>
+    <t>TestOne</t>
+  </si>
+  <si>
+    <t>Sample</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Not Recommended </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Return </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fulfilled </t>
+  </si>
+  <si>
+    <t>DS_AT_UNW_006</t>
+  </si>
+  <si>
+    <t>AT_UNW_006</t>
+  </si>
+  <si>
+    <t>Ijarah_AppData_CustomerDebt.feature</t>
+  </si>
+  <si>
+    <t>Ijarah_Underwriter.feature</t>
+  </si>
+  <si>
+    <t>Ijarah_DataCheck_Income.feature</t>
+  </si>
+  <si>
+    <t>Ijarah_DataCheck_ApplicationDetails.feature</t>
+  </si>
+  <si>
+    <t>Ijarah_Offering_offerDetails.feature</t>
+  </si>
+  <si>
+    <t>Ijarah_ContractSign_ApplicationDetails.feature</t>
+  </si>
+  <si>
+    <t>TW_AppData_IdentificationDetails.feature</t>
   </si>
 </sst>
 </file>
@@ -1777,7 +1819,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1799,7 +1841,6 @@
     <xf numFmtId="49" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1894,6 +1935,12 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1911,12 +1958,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2216,2221 +2257,2197 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L88"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D91" sqref="D91"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="25" width="27.44140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="25" width="28.0" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="25" width="13.33203125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="43.0" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="26.6640625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="11.5546875" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="11.0" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="17.109375" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="10.33203125" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="38.109375" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="21.88671875" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="15.6640625" collapsed="true"/>
+    <col min="1" max="1" width="27.44140625" style="24" customWidth="1"/>
+    <col min="2" max="2" width="28" style="24" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" style="24" customWidth="1"/>
+    <col min="4" max="4" width="43" customWidth="1"/>
+    <col min="5" max="5" width="26.6640625" customWidth="1"/>
+    <col min="6" max="6" width="11.5546875" customWidth="1"/>
+    <col min="7" max="7" width="11" customWidth="1"/>
+    <col min="8" max="8" width="17.109375" customWidth="1"/>
+    <col min="9" max="9" width="10.33203125" customWidth="1"/>
+    <col min="10" max="10" width="45.5546875" customWidth="1"/>
+    <col min="11" max="11" width="21.88671875" customWidth="1"/>
+    <col min="12" max="12" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="21" customFormat="1">
-      <c r="A1" s="24" t="s">
+    <row r="1" spans="1:12" s="20" customFormat="1">
+      <c r="A1" s="23" t="s">
+        <v>154</v>
+      </c>
+      <c r="B1" s="23" t="s">
+        <v>153</v>
+      </c>
+      <c r="C1" s="23" t="s">
+        <v>124</v>
+      </c>
+      <c r="D1" s="25" t="s">
+        <v>167</v>
+      </c>
+      <c r="E1" s="25" t="s">
+        <v>146</v>
+      </c>
+      <c r="F1" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="G1" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="H1" s="18" t="s">
+        <v>128</v>
+      </c>
+      <c r="I1" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="J1" s="19" t="s">
+        <v>129</v>
+      </c>
+      <c r="K1" s="17" t="s">
+        <v>126</v>
+      </c>
+      <c r="L1" s="18" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" s="57" t="s">
+        <v>174</v>
+      </c>
+      <c r="B2" s="57" t="s">
+        <v>234</v>
+      </c>
+      <c r="C2" s="59" t="s">
+        <v>132</v>
+      </c>
+      <c r="D2" s="26" t="s">
+        <v>137</v>
+      </c>
+      <c r="E2" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="G2" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="H2" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="I2" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="J2" s="26" t="s">
+        <v>506</v>
+      </c>
+      <c r="K2" s="26"/>
+      <c r="L2" s="26"/>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" s="57"/>
+      <c r="B3" s="57"/>
+      <c r="C3" s="60"/>
+      <c r="D3" s="26" t="s">
+        <v>133</v>
+      </c>
+      <c r="E3" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="G3" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="H3" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="I3" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="J3" s="26" t="s">
+        <v>506</v>
+      </c>
+      <c r="K3" s="26"/>
+      <c r="L3" s="26"/>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" s="57"/>
+      <c r="B4" s="57"/>
+      <c r="C4" s="60"/>
+      <c r="D4" s="26" t="s">
+        <v>134</v>
+      </c>
+      <c r="E4" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="G4" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="H4" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="I4" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="J4" s="26" t="s">
+        <v>506</v>
+      </c>
+      <c r="K4" s="26"/>
+      <c r="L4" s="26"/>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" s="57"/>
+      <c r="B5" s="57"/>
+      <c r="C5" s="61"/>
+      <c r="D5" s="26" t="s">
+        <v>136</v>
+      </c>
+      <c r="E5" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="G5" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="H5" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="I5" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="J5" s="26" t="s">
+        <v>506</v>
+      </c>
+      <c r="K5" s="26"/>
+      <c r="L5" s="26"/>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="38"/>
+      <c r="B6" s="38"/>
+      <c r="C6" s="38"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="26"/>
+      <c r="H6" s="26"/>
+      <c r="I6" s="26"/>
+      <c r="J6" s="26"/>
+      <c r="K6" s="26"/>
+      <c r="L6" s="26"/>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="57" t="s">
+        <v>175</v>
+      </c>
+      <c r="B7" s="57" t="s">
         <v>156</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="C7" s="59" t="s">
+        <v>145</v>
+      </c>
+      <c r="D7" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="E7" s="21" t="s">
+        <v>140</v>
+      </c>
+      <c r="F7" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="G7" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="H7" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="I7" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="J7" s="26" t="s">
+        <v>507</v>
+      </c>
+      <c r="K7" s="26"/>
+      <c r="L7" s="26"/>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="57"/>
+      <c r="B8" s="57"/>
+      <c r="C8" s="60"/>
+      <c r="D8" s="26" t="s">
+        <v>148</v>
+      </c>
+      <c r="E8" s="21" t="s">
+        <v>141</v>
+      </c>
+      <c r="F8" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="G8" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="H8" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="I8" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="J8" s="26" t="s">
+        <v>507</v>
+      </c>
+      <c r="K8" s="26"/>
+      <c r="L8" s="26"/>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="57"/>
+      <c r="B9" s="57"/>
+      <c r="C9" s="60"/>
+      <c r="D9" s="26" t="s">
+        <v>149</v>
+      </c>
+      <c r="E9" s="21" t="s">
+        <v>142</v>
+      </c>
+      <c r="F9" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="G9" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="H9" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="I9" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="J9" s="26" t="s">
+        <v>507</v>
+      </c>
+      <c r="K9" s="26"/>
+      <c r="L9" s="26"/>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="57"/>
+      <c r="B10" s="57"/>
+      <c r="C10" s="60"/>
+      <c r="D10" s="26" t="s">
+        <v>150</v>
+      </c>
+      <c r="E10" s="21" t="s">
+        <v>143</v>
+      </c>
+      <c r="F10" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="G10" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="H10" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="I10" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="J10" s="26" t="s">
+        <v>507</v>
+      </c>
+      <c r="K10" s="26"/>
+      <c r="L10" s="26"/>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="38" t="s">
+        <v>157</v>
+      </c>
+      <c r="B11" s="38" t="s">
+        <v>158</v>
+      </c>
+      <c r="C11" s="60"/>
+      <c r="D11" s="26" t="s">
+        <v>151</v>
+      </c>
+      <c r="E11" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="F11" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="G11" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="H11" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="I11" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="J11" s="26" t="s">
+        <v>512</v>
+      </c>
+      <c r="K11" s="26"/>
+      <c r="L11" s="26"/>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" s="57" t="s">
+        <v>174</v>
+      </c>
+      <c r="B12" s="57" t="s">
         <v>155</v>
       </c>
-      <c r="C1" s="24" t="s">
-        <v>124</v>
-      </c>
-      <c r="D1" s="26" t="s">
+      <c r="C12" s="60"/>
+      <c r="D12" s="26" t="s">
+        <v>135</v>
+      </c>
+      <c r="E12" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="G12" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="H12" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="I12" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="J12" s="26" t="s">
+        <v>139</v>
+      </c>
+      <c r="K12" s="26"/>
+      <c r="L12" s="26"/>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" s="57"/>
+      <c r="B13" s="57"/>
+      <c r="C13" s="61"/>
+      <c r="D13" s="26" t="s">
+        <v>152</v>
+      </c>
+      <c r="E13" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="F13" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="G13" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="H13" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="I13" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="J13" s="26" t="s">
+        <v>139</v>
+      </c>
+      <c r="K13" s="26"/>
+      <c r="L13" s="26"/>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" s="38"/>
+      <c r="B14" s="38"/>
+      <c r="C14" s="38"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="26"/>
+      <c r="G14" s="26"/>
+      <c r="H14" s="26"/>
+      <c r="I14" s="26"/>
+      <c r="J14" s="26"/>
+      <c r="K14" s="26"/>
+      <c r="L14" s="26"/>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" s="57" t="s">
+        <v>176</v>
+      </c>
+      <c r="B15" s="57" t="s">
+        <v>160</v>
+      </c>
+      <c r="C15" s="59" t="s">
+        <v>159</v>
+      </c>
+      <c r="D15" s="26" t="s">
+        <v>161</v>
+      </c>
+      <c r="E15" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="F15" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="G15" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="H15" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="I15" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="J15" s="26" t="s">
+        <v>508</v>
+      </c>
+      <c r="K15" s="26"/>
+      <c r="L15" s="26"/>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16" s="57"/>
+      <c r="B16" s="57"/>
+      <c r="C16" s="60"/>
+      <c r="D16" s="26" t="s">
+        <v>162</v>
+      </c>
+      <c r="E16" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="F16" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="G16" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="H16" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="I16" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="J16" s="26" t="s">
+        <v>508</v>
+      </c>
+      <c r="K16" s="26"/>
+      <c r="L16" s="26"/>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17" s="57"/>
+      <c r="B17" s="57"/>
+      <c r="C17" s="60"/>
+      <c r="D17" s="26" t="s">
+        <v>163</v>
+      </c>
+      <c r="E17" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="F17" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="G17" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="H17" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="I17" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="J17" s="26" t="s">
+        <v>508</v>
+      </c>
+      <c r="K17" s="26"/>
+      <c r="L17" s="26"/>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18" s="57"/>
+      <c r="B18" s="57"/>
+      <c r="C18" s="60"/>
+      <c r="D18" s="26" t="s">
+        <v>164</v>
+      </c>
+      <c r="E18" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="F18" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="G18" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="H18" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="I18" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="J18" s="26" t="s">
+        <v>508</v>
+      </c>
+      <c r="K18" s="26"/>
+      <c r="L18" s="26"/>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19" s="57"/>
+      <c r="B19" s="57"/>
+      <c r="C19" s="60"/>
+      <c r="D19" s="26" t="s">
+        <v>165</v>
+      </c>
+      <c r="E19" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="F19" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="G19" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="H19" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="I19" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="J19" s="26" t="s">
+        <v>508</v>
+      </c>
+      <c r="K19" s="26"/>
+      <c r="L19" s="26"/>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20" s="57"/>
+      <c r="B20" s="57"/>
+      <c r="C20" s="61"/>
+      <c r="D20" s="26" t="s">
+        <v>166</v>
+      </c>
+      <c r="E20" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="F20" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="G20" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="H20" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="I20" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="J20" s="26" t="s">
+        <v>508</v>
+      </c>
+      <c r="K20" s="26"/>
+      <c r="L20" s="26"/>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21" s="38"/>
+      <c r="B21" s="38"/>
+      <c r="C21" s="38"/>
+      <c r="D21" s="26"/>
+      <c r="E21" s="26"/>
+      <c r="F21" s="26"/>
+      <c r="G21" s="26"/>
+      <c r="H21" s="26"/>
+      <c r="I21" s="26"/>
+      <c r="J21" s="26"/>
+      <c r="K21" s="26"/>
+      <c r="L21" s="26"/>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="A22" s="57" t="s">
+        <v>176</v>
+      </c>
+      <c r="B22" s="57" t="s">
+        <v>180</v>
+      </c>
+      <c r="C22" s="59" t="s">
+        <v>168</v>
+      </c>
+      <c r="D22" s="26" t="s">
         <v>169</v>
       </c>
-      <c r="E1" s="26" t="s">
-        <v>146</v>
-      </c>
-      <c r="F1" s="18" t="s">
-        <v>125</v>
-      </c>
-      <c r="G1" s="18" t="s">
-        <v>127</v>
-      </c>
-      <c r="H1" s="19" t="s">
-        <v>128</v>
-      </c>
-      <c r="I1" s="20" t="s">
-        <v>130</v>
-      </c>
-      <c r="J1" s="20" t="s">
-        <v>129</v>
-      </c>
-      <c r="K1" s="18" t="s">
-        <v>126</v>
-      </c>
-      <c r="L1" s="19" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12">
-      <c r="A2" s="64" t="s">
+      <c r="E22" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="F22" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="G22" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="H22" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="I22" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="J22" s="26" t="s">
+        <v>509</v>
+      </c>
+      <c r="K22" s="26"/>
+      <c r="L22" s="26"/>
+    </row>
+    <row r="23" spans="1:12">
+      <c r="A23" s="57"/>
+      <c r="B23" s="57"/>
+      <c r="C23" s="60"/>
+      <c r="D23" s="26" t="s">
+        <v>170</v>
+      </c>
+      <c r="E23" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="F23" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="G23" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="H23" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="I23" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="J23" s="26" t="s">
+        <v>509</v>
+      </c>
+      <c r="K23" s="26"/>
+      <c r="L23" s="26"/>
+    </row>
+    <row r="24" spans="1:12">
+      <c r="A24" s="57"/>
+      <c r="B24" s="57"/>
+      <c r="C24" s="60"/>
+      <c r="D24" s="26" t="s">
+        <v>171</v>
+      </c>
+      <c r="E24" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="F24" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="G24" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="H24" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="I24" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="J24" s="26" t="s">
+        <v>509</v>
+      </c>
+      <c r="K24" s="26"/>
+      <c r="L24" s="26"/>
+    </row>
+    <row r="25" spans="1:12">
+      <c r="A25" s="57"/>
+      <c r="B25" s="57"/>
+      <c r="C25" s="60"/>
+      <c r="D25" s="26" t="s">
+        <v>172</v>
+      </c>
+      <c r="E25" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="F25" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="G25" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="H25" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="I25" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="J25" s="26" t="s">
+        <v>509</v>
+      </c>
+      <c r="K25" s="26"/>
+      <c r="L25" s="26"/>
+    </row>
+    <row r="26" spans="1:12">
+      <c r="A26" s="57"/>
+      <c r="B26" s="57"/>
+      <c r="C26" s="61"/>
+      <c r="D26" s="26" t="s">
+        <v>173</v>
+      </c>
+      <c r="E26" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="F26" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="G26" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="H26" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="I26" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="J26" s="26" t="s">
+        <v>509</v>
+      </c>
+      <c r="K26" s="26"/>
+      <c r="L26" s="26"/>
+    </row>
+    <row r="27" spans="1:12">
+      <c r="A27" s="38"/>
+      <c r="B27" s="38"/>
+      <c r="C27" s="38"/>
+      <c r="D27" s="26"/>
+      <c r="E27" s="26"/>
+      <c r="F27" s="26"/>
+      <c r="G27" s="26"/>
+      <c r="H27" s="26"/>
+      <c r="I27" s="26"/>
+      <c r="J27" s="26"/>
+      <c r="K27" s="26"/>
+      <c r="L27" s="26"/>
+    </row>
+    <row r="28" spans="1:12">
+      <c r="A28" s="57" t="s">
         <v>178</v>
       </c>
-      <c r="B2" s="64" t="s">
+      <c r="B28" s="57" t="s">
+        <v>179</v>
+      </c>
+      <c r="C28" s="59" t="s">
+        <v>177</v>
+      </c>
+      <c r="D28" s="26" t="s">
+        <v>181</v>
+      </c>
+      <c r="E28" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="F28" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="G28" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="H28" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="I28" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="J28" s="26" t="s">
+        <v>510</v>
+      </c>
+      <c r="K28" s="26"/>
+      <c r="L28" s="26"/>
+    </row>
+    <row r="29" spans="1:12">
+      <c r="A29" s="57"/>
+      <c r="B29" s="57"/>
+      <c r="C29" s="60"/>
+      <c r="D29" s="26" t="s">
+        <v>182</v>
+      </c>
+      <c r="E29" s="21" t="s">
+        <v>112</v>
+      </c>
+      <c r="F29" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="G29" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="H29" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="I29" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="J29" s="26" t="s">
+        <v>510</v>
+      </c>
+      <c r="K29" s="26"/>
+      <c r="L29" s="26"/>
+    </row>
+    <row r="30" spans="1:12">
+      <c r="A30" s="57"/>
+      <c r="B30" s="57"/>
+      <c r="C30" s="60"/>
+      <c r="D30" s="26" t="s">
+        <v>183</v>
+      </c>
+      <c r="E30" s="21" t="s">
+        <v>113</v>
+      </c>
+      <c r="F30" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="G30" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="H30" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="I30" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="J30" s="26" t="s">
+        <v>510</v>
+      </c>
+      <c r="K30" s="26"/>
+      <c r="L30" s="26"/>
+    </row>
+    <row r="31" spans="1:12">
+      <c r="A31" s="57"/>
+      <c r="B31" s="57"/>
+      <c r="C31" s="60"/>
+      <c r="D31" s="26" t="s">
+        <v>184</v>
+      </c>
+      <c r="E31" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="F31" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="G31" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="H31" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="I31" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="J31" s="26" t="s">
+        <v>510</v>
+      </c>
+      <c r="K31" s="26"/>
+      <c r="L31" s="26"/>
+    </row>
+    <row r="32" spans="1:12">
+      <c r="A32" s="57"/>
+      <c r="B32" s="57"/>
+      <c r="C32" s="60"/>
+      <c r="D32" s="26" t="s">
+        <v>185</v>
+      </c>
+      <c r="E32" s="21" t="s">
+        <v>115</v>
+      </c>
+      <c r="F32" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="G32" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="H32" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="I32" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="J32" s="26" t="s">
+        <v>510</v>
+      </c>
+      <c r="K32" s="26"/>
+      <c r="L32" s="26"/>
+    </row>
+    <row r="33" spans="1:12">
+      <c r="A33" s="57"/>
+      <c r="B33" s="57"/>
+      <c r="C33" s="61"/>
+      <c r="D33" s="26" t="s">
+        <v>186</v>
+      </c>
+      <c r="E33" s="21" t="s">
+        <v>122</v>
+      </c>
+      <c r="F33" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="G33" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="H33" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="I33" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="J33" s="26" t="s">
+        <v>510</v>
+      </c>
+      <c r="K33" s="26"/>
+      <c r="L33" s="26"/>
+    </row>
+    <row r="34" spans="1:12">
+      <c r="A34" s="38"/>
+      <c r="B34" s="38"/>
+      <c r="C34" s="38"/>
+      <c r="D34" s="26"/>
+      <c r="E34" s="26"/>
+      <c r="F34" s="26"/>
+      <c r="G34" s="26"/>
+      <c r="H34" s="26"/>
+      <c r="I34" s="26"/>
+      <c r="J34" s="26"/>
+    </row>
+    <row r="35" spans="1:12">
+      <c r="A35" s="57" t="s">
+        <v>226</v>
+      </c>
+      <c r="B35" s="57" t="s">
+        <v>180</v>
+      </c>
+      <c r="C35" s="59" t="s">
+        <v>225</v>
+      </c>
+      <c r="D35" s="26" t="s">
+        <v>235</v>
+      </c>
+      <c r="E35" s="30" t="s">
+        <v>191</v>
+      </c>
+      <c r="F35" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="G35" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="H35" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="I35" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="J35" s="31" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12">
+      <c r="A36" s="57"/>
+      <c r="B36" s="57"/>
+      <c r="C36" s="60"/>
+      <c r="D36" s="26" t="s">
+        <v>170</v>
+      </c>
+      <c r="E36" s="30" t="s">
+        <v>193</v>
+      </c>
+      <c r="F36" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="G36" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="H36" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="I36" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="J36" s="31" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12">
+      <c r="A37" s="57"/>
+      <c r="B37" s="57"/>
+      <c r="C37" s="60"/>
+      <c r="D37" s="26" t="s">
+        <v>171</v>
+      </c>
+      <c r="E37" s="30" t="s">
+        <v>195</v>
+      </c>
+      <c r="F37" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="G37" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="H37" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="I37" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="J37" s="31" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12">
+      <c r="A38" s="57"/>
+      <c r="B38" s="57"/>
+      <c r="C38" s="60"/>
+      <c r="D38" s="26" t="s">
+        <v>236</v>
+      </c>
+      <c r="E38" s="30" t="s">
+        <v>196</v>
+      </c>
+      <c r="F38" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="G38" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="H38" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="I38" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="J38" s="31" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12">
+      <c r="A39" s="57"/>
+      <c r="B39" s="57"/>
+      <c r="C39" s="61"/>
+      <c r="D39" s="26" t="s">
+        <v>237</v>
+      </c>
+      <c r="E39" s="30" t="s">
+        <v>197</v>
+      </c>
+      <c r="F39" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="G39" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="H39" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="I39" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="J39" s="31" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12">
+      <c r="A40" s="38"/>
+      <c r="B40" s="38"/>
+      <c r="C40" s="38"/>
+      <c r="D40" s="26"/>
+      <c r="E40" s="26"/>
+      <c r="F40" s="26"/>
+      <c r="G40" s="26"/>
+      <c r="H40" s="26"/>
+      <c r="I40" s="26"/>
+      <c r="J40" s="26"/>
+    </row>
+    <row r="41" spans="1:12">
+      <c r="A41" s="57" t="s">
+        <v>233</v>
+      </c>
+      <c r="B41" s="58" t="s">
+        <v>430</v>
+      </c>
+      <c r="C41" s="59" t="s">
+        <v>227</v>
+      </c>
+      <c r="D41" s="26" t="s">
+        <v>238</v>
+      </c>
+      <c r="E41" s="32" t="s">
+        <v>228</v>
+      </c>
+      <c r="F41" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="G41" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="H41" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="I41" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="J41" s="35" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12">
+      <c r="A42" s="57"/>
+      <c r="B42" s="57"/>
+      <c r="C42" s="60"/>
+      <c r="D42" s="26" t="s">
+        <v>239</v>
+      </c>
+      <c r="E42" s="32" t="s">
+        <v>229</v>
+      </c>
+      <c r="F42" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="G42" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="H42" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="I42" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="J42" s="35" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12">
+      <c r="A43" s="57"/>
+      <c r="B43" s="57"/>
+      <c r="C43" s="60"/>
+      <c r="D43" s="26" t="s">
         <v>240</v>
       </c>
-      <c r="C2" s="58" t="s">
-        <v>132</v>
-      </c>
-      <c r="D2" s="27" t="s">
-        <v>137</v>
-      </c>
-      <c r="E2" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" s="27" t="s">
-        <v>138</v>
-      </c>
-      <c r="G2" s="27" t="s">
-        <v>138</v>
-      </c>
-      <c r="H2" s="27" t="s">
-        <v>138</v>
-      </c>
-      <c r="I2" s="27" t="s">
-        <v>138</v>
-      </c>
-      <c r="J2" s="27" t="s">
-        <v>139</v>
-      </c>
-      <c r="K2" s="27"/>
-      <c r="L2" s="27"/>
-    </row>
-    <row r="3" spans="1:12">
-      <c r="A3" s="64"/>
-      <c r="B3" s="64"/>
-      <c r="C3" s="59"/>
-      <c r="D3" s="27" t="s">
+      <c r="E43" s="32" t="s">
+        <v>230</v>
+      </c>
+      <c r="F43" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="G43" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="H43" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="I43" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="J43" s="35" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12">
+      <c r="A44" s="57"/>
+      <c r="B44" s="57"/>
+      <c r="C44" s="60"/>
+      <c r="D44" s="26" t="s">
         <v>133</v>
       </c>
-      <c r="E3" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="F3" s="27" t="s">
-        <v>138</v>
-      </c>
-      <c r="G3" s="27" t="s">
-        <v>138</v>
-      </c>
-      <c r="H3" s="27" t="s">
-        <v>138</v>
-      </c>
-      <c r="I3" s="27" t="s">
-        <v>138</v>
-      </c>
-      <c r="J3" s="27" t="s">
-        <v>139</v>
-      </c>
-      <c r="K3" s="27"/>
-      <c r="L3" s="27"/>
-    </row>
-    <row r="4" spans="1:12">
-      <c r="A4" s="64"/>
-      <c r="B4" s="64"/>
-      <c r="C4" s="59"/>
-      <c r="D4" s="27" t="s">
+      <c r="E44" s="32" t="s">
+        <v>231</v>
+      </c>
+      <c r="F44" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="G44" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="H44" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="I44" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="J44" s="35" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12">
+      <c r="A45" s="57"/>
+      <c r="B45" s="57"/>
+      <c r="C45" s="61"/>
+      <c r="D45" s="33" t="s">
         <v>134</v>
       </c>
-      <c r="E4" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="F4" s="27" t="s">
-        <v>138</v>
-      </c>
-      <c r="G4" s="27" t="s">
-        <v>138</v>
-      </c>
-      <c r="H4" s="27" t="s">
-        <v>138</v>
-      </c>
-      <c r="I4" s="27" t="s">
-        <v>138</v>
-      </c>
-      <c r="J4" s="27" t="s">
-        <v>139</v>
-      </c>
-      <c r="K4" s="27"/>
-      <c r="L4" s="27"/>
-    </row>
-    <row r="5" spans="1:12">
-      <c r="A5" s="64"/>
-      <c r="B5" s="64"/>
-      <c r="C5" s="60"/>
-      <c r="D5" s="27" t="s">
-        <v>136</v>
-      </c>
-      <c r="E5" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="F5" s="27" t="s">
-        <v>138</v>
-      </c>
-      <c r="G5" s="27" t="s">
-        <v>138</v>
-      </c>
-      <c r="H5" s="27" t="s">
-        <v>138</v>
-      </c>
-      <c r="I5" s="27" t="s">
-        <v>138</v>
-      </c>
-      <c r="J5" s="27" t="s">
-        <v>139</v>
-      </c>
-      <c r="K5" s="27"/>
-      <c r="L5" s="27"/>
-    </row>
-    <row r="6" spans="1:12">
-      <c r="A6" s="39"/>
-      <c r="B6" s="39"/>
-      <c r="C6" s="39"/>
-      <c r="D6" s="27"/>
-      <c r="E6" s="27"/>
-      <c r="F6" s="27"/>
-      <c r="G6" s="27"/>
-      <c r="H6" s="27"/>
-      <c r="I6" s="27"/>
-      <c r="J6" s="27"/>
-      <c r="K6" s="27"/>
-      <c r="L6" s="27"/>
-    </row>
-    <row r="7" spans="1:12">
-      <c r="A7" s="64" t="s">
-        <v>179</v>
-      </c>
-      <c r="B7" s="64" t="s">
-        <v>158</v>
-      </c>
-      <c r="C7" s="58" t="s">
-        <v>145</v>
-      </c>
-      <c r="D7" s="23" t="s">
-        <v>147</v>
-      </c>
-      <c r="E7" s="22" t="s">
-        <v>140</v>
-      </c>
-      <c r="F7" s="27" t="s">
-        <v>138</v>
-      </c>
-      <c r="G7" s="27" t="s">
-        <v>138</v>
-      </c>
-      <c r="H7" s="27" t="s">
-        <v>138</v>
-      </c>
-      <c r="I7" s="27" t="s">
-        <v>138</v>
-      </c>
-      <c r="J7" s="27" t="s">
-        <v>153</v>
-      </c>
-      <c r="K7" s="27"/>
-      <c r="L7" s="27"/>
-    </row>
-    <row r="8" spans="1:12">
-      <c r="A8" s="64"/>
-      <c r="B8" s="64"/>
-      <c r="C8" s="59"/>
-      <c r="D8" s="27" t="s">
-        <v>148</v>
-      </c>
-      <c r="E8" s="22" t="s">
-        <v>141</v>
-      </c>
-      <c r="F8" s="27" t="s">
-        <v>138</v>
-      </c>
-      <c r="G8" s="27" t="s">
-        <v>138</v>
-      </c>
-      <c r="H8" s="27" t="s">
-        <v>138</v>
-      </c>
-      <c r="I8" s="27" t="s">
-        <v>138</v>
-      </c>
-      <c r="J8" s="27" t="s">
-        <v>153</v>
-      </c>
-      <c r="K8" s="27"/>
-      <c r="L8" s="27"/>
-    </row>
-    <row r="9" spans="1:12">
-      <c r="A9" s="64"/>
-      <c r="B9" s="64"/>
-      <c r="C9" s="59"/>
-      <c r="D9" s="27" t="s">
-        <v>149</v>
-      </c>
-      <c r="E9" s="22" t="s">
-        <v>142</v>
-      </c>
-      <c r="F9" s="27" t="s">
-        <v>138</v>
-      </c>
-      <c r="G9" s="27" t="s">
-        <v>138</v>
-      </c>
-      <c r="H9" s="27" t="s">
-        <v>138</v>
-      </c>
-      <c r="I9" s="27" t="s">
-        <v>138</v>
-      </c>
-      <c r="J9" s="27" t="s">
-        <v>153</v>
-      </c>
-      <c r="K9" s="27"/>
-      <c r="L9" s="27"/>
-    </row>
-    <row r="10" spans="1:12">
-      <c r="A10" s="64"/>
-      <c r="B10" s="64"/>
-      <c r="C10" s="59"/>
-      <c r="D10" s="27" t="s">
-        <v>150</v>
-      </c>
-      <c r="E10" s="22" t="s">
-        <v>143</v>
-      </c>
-      <c r="F10" s="27" t="s">
-        <v>138</v>
-      </c>
-      <c r="G10" s="27" t="s">
-        <v>138</v>
-      </c>
-      <c r="H10" s="27" t="s">
-        <v>138</v>
-      </c>
-      <c r="I10" s="27" t="s">
-        <v>138</v>
-      </c>
-      <c r="J10" s="27" t="s">
-        <v>153</v>
-      </c>
-      <c r="K10" s="27"/>
-      <c r="L10" s="27"/>
-    </row>
-    <row r="11" spans="1:12">
-      <c r="A11" s="39" t="s">
-        <v>159</v>
-      </c>
-      <c r="B11" s="39" t="s">
-        <v>160</v>
-      </c>
-      <c r="C11" s="59"/>
-      <c r="D11" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="E11" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="F11" s="27" t="s">
-        <v>138</v>
-      </c>
-      <c r="G11" s="27" t="s">
-        <v>138</v>
-      </c>
-      <c r="H11" s="27" t="s">
-        <v>138</v>
-      </c>
-      <c r="I11" s="27" t="s">
-        <v>138</v>
-      </c>
-      <c r="J11" s="27" t="s">
-        <v>154</v>
-      </c>
-      <c r="K11" s="27"/>
-      <c r="L11" s="27"/>
-    </row>
-    <row r="12" spans="1:12">
-      <c r="A12" s="64" t="s">
-        <v>178</v>
-      </c>
-      <c r="B12" s="64" t="s">
-        <v>157</v>
-      </c>
-      <c r="C12" s="59"/>
-      <c r="D12" s="27" t="s">
-        <v>135</v>
-      </c>
-      <c r="E12" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="F12" s="27" t="s">
-        <v>138</v>
-      </c>
-      <c r="G12" s="27" t="s">
-        <v>138</v>
-      </c>
-      <c r="H12" s="27" t="s">
-        <v>138</v>
-      </c>
-      <c r="I12" s="27" t="s">
-        <v>138</v>
-      </c>
-      <c r="J12" s="27" t="s">
-        <v>139</v>
-      </c>
-      <c r="K12" s="27"/>
-      <c r="L12" s="27"/>
-    </row>
-    <row r="13" spans="1:12">
-      <c r="A13" s="64"/>
-      <c r="B13" s="64"/>
-      <c r="C13" s="60"/>
-      <c r="D13" s="27" t="s">
-        <v>152</v>
-      </c>
-      <c r="E13" s="22" t="s">
-        <v>144</v>
-      </c>
-      <c r="F13" s="27" t="s">
-        <v>138</v>
-      </c>
-      <c r="G13" s="27" t="s">
-        <v>138</v>
-      </c>
-      <c r="H13" s="27" t="s">
-        <v>138</v>
-      </c>
-      <c r="I13" s="27" t="s">
-        <v>138</v>
-      </c>
-      <c r="J13" s="27" t="s">
-        <v>139</v>
-      </c>
-      <c r="K13" s="27"/>
-      <c r="L13" s="27"/>
-    </row>
-    <row r="14" spans="1:12">
-      <c r="A14" s="39"/>
-      <c r="B14" s="39"/>
-      <c r="C14" s="39"/>
-      <c r="D14" s="27"/>
-      <c r="E14" s="27"/>
-      <c r="F14" s="27"/>
-      <c r="G14" s="27"/>
-      <c r="H14" s="27"/>
-      <c r="I14" s="27"/>
-      <c r="J14" s="27"/>
-      <c r="K14" s="27"/>
-      <c r="L14" s="27"/>
-    </row>
-    <row r="15" spans="1:12">
-      <c r="A15" s="64" t="s">
-        <v>180</v>
-      </c>
-      <c r="B15" s="64" t="s">
-        <v>162</v>
-      </c>
-      <c r="C15" s="58" t="s">
-        <v>161</v>
-      </c>
-      <c r="D15" s="27" t="s">
-        <v>163</v>
-      </c>
-      <c r="E15" s="22" t="s">
-        <v>59</v>
-      </c>
-      <c r="F15" s="27" t="s">
-        <v>138</v>
-      </c>
-      <c r="G15" s="27" t="s">
-        <v>138</v>
-      </c>
-      <c r="H15" s="27" t="s">
-        <v>138</v>
-      </c>
-      <c r="I15" s="27" t="s">
-        <v>138</v>
-      </c>
-      <c r="J15" s="27" t="s">
-        <v>170</v>
-      </c>
-      <c r="K15" s="27"/>
-      <c r="L15" s="27"/>
-    </row>
-    <row r="16" spans="1:12">
-      <c r="A16" s="64"/>
-      <c r="B16" s="64"/>
-      <c r="C16" s="59"/>
-      <c r="D16" s="27" t="s">
-        <v>164</v>
-      </c>
-      <c r="E16" s="22" t="s">
-        <v>63</v>
-      </c>
-      <c r="F16" s="27" t="s">
-        <v>138</v>
-      </c>
-      <c r="G16" s="27" t="s">
-        <v>138</v>
-      </c>
-      <c r="H16" s="27" t="s">
-        <v>138</v>
-      </c>
-      <c r="I16" s="27" t="s">
-        <v>138</v>
-      </c>
-      <c r="J16" s="27" t="s">
-        <v>170</v>
-      </c>
-      <c r="K16" s="27"/>
-      <c r="L16" s="27"/>
-    </row>
-    <row r="17" spans="1:12">
-      <c r="A17" s="64"/>
-      <c r="B17" s="64"/>
-      <c r="C17" s="59"/>
-      <c r="D17" s="27" t="s">
-        <v>165</v>
-      </c>
-      <c r="E17" s="22" t="s">
-        <v>64</v>
-      </c>
-      <c r="F17" s="27" t="s">
-        <v>138</v>
-      </c>
-      <c r="G17" s="27" t="s">
-        <v>138</v>
-      </c>
-      <c r="H17" s="27" t="s">
-        <v>138</v>
-      </c>
-      <c r="I17" s="27" t="s">
-        <v>138</v>
-      </c>
-      <c r="J17" s="27" t="s">
-        <v>170</v>
-      </c>
-      <c r="K17" s="27"/>
-      <c r="L17" s="27"/>
-    </row>
-    <row r="18" spans="1:12">
-      <c r="A18" s="64"/>
-      <c r="B18" s="64"/>
-      <c r="C18" s="59"/>
-      <c r="D18" s="27" t="s">
-        <v>166</v>
-      </c>
-      <c r="E18" s="22" t="s">
-        <v>65</v>
-      </c>
-      <c r="F18" s="27" t="s">
-        <v>138</v>
-      </c>
-      <c r="G18" s="27" t="s">
-        <v>138</v>
-      </c>
-      <c r="H18" s="27" t="s">
-        <v>138</v>
-      </c>
-      <c r="I18" s="27" t="s">
-        <v>138</v>
-      </c>
-      <c r="J18" s="27" t="s">
-        <v>170</v>
-      </c>
-      <c r="K18" s="27"/>
-      <c r="L18" s="27"/>
-    </row>
-    <row r="19" spans="1:12">
-      <c r="A19" s="64"/>
-      <c r="B19" s="64"/>
-      <c r="C19" s="59"/>
-      <c r="D19" s="27" t="s">
-        <v>167</v>
-      </c>
-      <c r="E19" s="22" t="s">
-        <v>70</v>
-      </c>
-      <c r="F19" s="27" t="s">
-        <v>138</v>
-      </c>
-      <c r="G19" s="27" t="s">
-        <v>138</v>
-      </c>
-      <c r="H19" s="27" t="s">
-        <v>138</v>
-      </c>
-      <c r="I19" s="27" t="s">
-        <v>138</v>
-      </c>
-      <c r="J19" s="27" t="s">
-        <v>170</v>
-      </c>
-      <c r="K19" s="27"/>
-      <c r="L19" s="27"/>
-    </row>
-    <row r="20" spans="1:12">
-      <c r="A20" s="64"/>
-      <c r="B20" s="64"/>
-      <c r="C20" s="60"/>
-      <c r="D20" s="27" t="s">
-        <v>168</v>
-      </c>
-      <c r="E20" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="F20" s="27" t="s">
-        <v>138</v>
-      </c>
-      <c r="G20" s="27" t="s">
-        <v>138</v>
-      </c>
-      <c r="H20" s="27" t="s">
-        <v>138</v>
-      </c>
-      <c r="I20" s="27" t="s">
-        <v>138</v>
-      </c>
-      <c r="J20" s="27" t="s">
-        <v>170</v>
-      </c>
-      <c r="K20" s="27"/>
-      <c r="L20" s="27"/>
-    </row>
-    <row r="21" spans="1:12">
-      <c r="A21" s="39"/>
-      <c r="B21" s="39"/>
-      <c r="C21" s="39"/>
-      <c r="D21" s="27"/>
-      <c r="E21" s="27"/>
-      <c r="F21" s="27"/>
-      <c r="G21" s="27"/>
-      <c r="H21" s="27"/>
-      <c r="I21" s="27"/>
-      <c r="J21" s="27"/>
-      <c r="K21" s="27"/>
-      <c r="L21" s="27"/>
-    </row>
-    <row r="22" spans="1:12">
-      <c r="A22" s="64" t="s">
-        <v>180</v>
-      </c>
-      <c r="B22" s="64" t="s">
-        <v>184</v>
-      </c>
-      <c r="C22" s="58" t="s">
-        <v>171</v>
-      </c>
-      <c r="D22" s="27" t="s">
-        <v>172</v>
-      </c>
-      <c r="E22" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="F22" s="27" t="s">
-        <v>138</v>
-      </c>
-      <c r="G22" s="27" t="s">
-        <v>138</v>
-      </c>
-      <c r="H22" s="27" t="s">
-        <v>138</v>
-      </c>
-      <c r="I22" s="27" t="s">
-        <v>138</v>
-      </c>
-      <c r="J22" s="27" t="s">
-        <v>177</v>
-      </c>
-      <c r="K22" s="27"/>
-      <c r="L22" s="27"/>
-    </row>
-    <row r="23" spans="1:12">
-      <c r="A23" s="64"/>
-      <c r="B23" s="64"/>
-      <c r="C23" s="59"/>
-      <c r="D23" s="27" t="s">
-        <v>173</v>
-      </c>
-      <c r="E23" s="22" t="s">
-        <v>76</v>
-      </c>
-      <c r="F23" s="27" t="s">
-        <v>138</v>
-      </c>
-      <c r="G23" s="27" t="s">
-        <v>138</v>
-      </c>
-      <c r="H23" s="27" t="s">
-        <v>138</v>
-      </c>
-      <c r="I23" s="27" t="s">
-        <v>138</v>
-      </c>
-      <c r="J23" s="27" t="s">
-        <v>177</v>
-      </c>
-      <c r="K23" s="27"/>
-      <c r="L23" s="27"/>
-    </row>
-    <row r="24" spans="1:12">
-      <c r="A24" s="64"/>
-      <c r="B24" s="64"/>
-      <c r="C24" s="59"/>
-      <c r="D24" s="27" t="s">
-        <v>174</v>
-      </c>
-      <c r="E24" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="F24" s="27" t="s">
-        <v>138</v>
-      </c>
-      <c r="G24" s="27" t="s">
-        <v>138</v>
-      </c>
-      <c r="H24" s="27" t="s">
-        <v>138</v>
-      </c>
-      <c r="I24" s="27" t="s">
-        <v>138</v>
-      </c>
-      <c r="J24" s="27" t="s">
-        <v>177</v>
-      </c>
-      <c r="K24" s="27"/>
-      <c r="L24" s="27"/>
-    </row>
-    <row r="25" spans="1:12">
-      <c r="A25" s="64"/>
-      <c r="B25" s="64"/>
-      <c r="C25" s="59"/>
-      <c r="D25" s="27" t="s">
-        <v>175</v>
-      </c>
-      <c r="E25" s="22" t="s">
-        <v>79</v>
-      </c>
-      <c r="F25" s="27" t="s">
-        <v>138</v>
-      </c>
-      <c r="G25" s="27" t="s">
-        <v>138</v>
-      </c>
-      <c r="H25" s="27" t="s">
-        <v>138</v>
-      </c>
-      <c r="I25" s="27" t="s">
-        <v>138</v>
-      </c>
-      <c r="J25" s="27" t="s">
-        <v>177</v>
-      </c>
-      <c r="K25" s="27"/>
-      <c r="L25" s="27"/>
-    </row>
-    <row r="26" spans="1:12">
-      <c r="A26" s="64"/>
-      <c r="B26" s="64"/>
-      <c r="C26" s="60"/>
-      <c r="D26" s="27" t="s">
-        <v>176</v>
-      </c>
-      <c r="E26" s="22" t="s">
-        <v>99</v>
-      </c>
-      <c r="F26" s="27" t="s">
-        <v>138</v>
-      </c>
-      <c r="G26" s="27" t="s">
-        <v>138</v>
-      </c>
-      <c r="H26" s="27" t="s">
-        <v>138</v>
-      </c>
-      <c r="I26" s="27" t="s">
-        <v>138</v>
-      </c>
-      <c r="J26" s="27" t="s">
-        <v>177</v>
-      </c>
-      <c r="K26" s="27"/>
-      <c r="L26" s="27"/>
-    </row>
-    <row r="27" spans="1:12">
-      <c r="A27" s="39"/>
-      <c r="B27" s="39"/>
-      <c r="C27" s="39"/>
-      <c r="D27" s="27"/>
-      <c r="E27" s="27"/>
-      <c r="F27" s="27"/>
-      <c r="G27" s="27"/>
-      <c r="H27" s="27"/>
-      <c r="I27" s="27"/>
-      <c r="J27" s="27"/>
-      <c r="K27" s="27"/>
-      <c r="L27" s="27"/>
-    </row>
-    <row r="28" spans="1:12">
-      <c r="A28" s="64" t="s">
-        <v>182</v>
-      </c>
-      <c r="B28" s="64" t="s">
-        <v>183</v>
-      </c>
-      <c r="C28" s="58" t="s">
-        <v>181</v>
-      </c>
-      <c r="D28" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="E28" s="22" t="s">
-        <v>105</v>
-      </c>
-      <c r="F28" s="27" t="s">
-        <v>138</v>
-      </c>
-      <c r="G28" s="27" t="s">
-        <v>138</v>
-      </c>
-      <c r="H28" s="27" t="s">
-        <v>138</v>
-      </c>
-      <c r="I28" s="27" t="s">
-        <v>138</v>
-      </c>
-      <c r="J28" s="27" t="s">
-        <v>191</v>
-      </c>
-      <c r="K28" s="27"/>
-      <c r="L28" s="27"/>
-    </row>
-    <row r="29" spans="1:12">
-      <c r="A29" s="64"/>
-      <c r="B29" s="64"/>
-      <c r="C29" s="59"/>
-      <c r="D29" s="27" t="s">
-        <v>186</v>
-      </c>
-      <c r="E29" s="22" t="s">
-        <v>112</v>
-      </c>
-      <c r="F29" s="27" t="s">
-        <v>138</v>
-      </c>
-      <c r="G29" s="27" t="s">
-        <v>138</v>
-      </c>
-      <c r="H29" s="27" t="s">
-        <v>138</v>
-      </c>
-      <c r="I29" s="27" t="s">
-        <v>138</v>
-      </c>
-      <c r="J29" s="27" t="s">
-        <v>191</v>
-      </c>
-      <c r="K29" s="27"/>
-      <c r="L29" s="27"/>
-    </row>
-    <row r="30" spans="1:12">
-      <c r="A30" s="64"/>
-      <c r="B30" s="64"/>
-      <c r="C30" s="59"/>
-      <c r="D30" s="27" t="s">
-        <v>187</v>
-      </c>
-      <c r="E30" s="22" t="s">
-        <v>113</v>
-      </c>
-      <c r="F30" s="27" t="s">
-        <v>138</v>
-      </c>
-      <c r="G30" s="27" t="s">
-        <v>138</v>
-      </c>
-      <c r="H30" s="27" t="s">
-        <v>138</v>
-      </c>
-      <c r="I30" s="27" t="s">
-        <v>138</v>
-      </c>
-      <c r="J30" s="27" t="s">
-        <v>191</v>
-      </c>
-      <c r="K30" s="27"/>
-      <c r="L30" s="27"/>
-    </row>
-    <row r="31" spans="1:12">
-      <c r="A31" s="64"/>
-      <c r="B31" s="64"/>
-      <c r="C31" s="59"/>
-      <c r="D31" s="27" t="s">
-        <v>188</v>
-      </c>
-      <c r="E31" s="22" t="s">
-        <v>114</v>
-      </c>
-      <c r="F31" s="27" t="s">
-        <v>138</v>
-      </c>
-      <c r="G31" s="27" t="s">
-        <v>138</v>
-      </c>
-      <c r="H31" s="27" t="s">
-        <v>138</v>
-      </c>
-      <c r="I31" s="27" t="s">
-        <v>138</v>
-      </c>
-      <c r="J31" s="27" t="s">
-        <v>191</v>
-      </c>
-      <c r="K31" s="27"/>
-      <c r="L31" s="27"/>
-    </row>
-    <row r="32" spans="1:12">
-      <c r="A32" s="64"/>
-      <c r="B32" s="64"/>
-      <c r="C32" s="59"/>
-      <c r="D32" s="27" t="s">
-        <v>189</v>
-      </c>
-      <c r="E32" s="22" t="s">
-        <v>115</v>
-      </c>
-      <c r="F32" s="27" t="s">
-        <v>138</v>
-      </c>
-      <c r="G32" s="27" t="s">
-        <v>138</v>
-      </c>
-      <c r="H32" s="27" t="s">
-        <v>138</v>
-      </c>
-      <c r="I32" s="27" t="s">
-        <v>138</v>
-      </c>
-      <c r="J32" s="27" t="s">
-        <v>191</v>
-      </c>
-      <c r="K32" s="27"/>
-      <c r="L32" s="27"/>
-    </row>
-    <row r="33" spans="1:12">
-      <c r="A33" s="64"/>
-      <c r="B33" s="64"/>
-      <c r="C33" s="60"/>
-      <c r="D33" s="27" t="s">
-        <v>190</v>
-      </c>
-      <c r="E33" s="22" t="s">
-        <v>122</v>
-      </c>
-      <c r="F33" s="27" t="s">
-        <v>138</v>
-      </c>
-      <c r="G33" s="27" t="s">
-        <v>138</v>
-      </c>
-      <c r="H33" s="27" t="s">
-        <v>138</v>
-      </c>
-      <c r="I33" s="27" t="s">
-        <v>138</v>
-      </c>
-      <c r="J33" s="27" t="s">
-        <v>191</v>
-      </c>
-      <c r="K33" s="27"/>
-      <c r="L33" s="27"/>
-    </row>
-    <row r="34" spans="1:12">
-      <c r="A34" s="39"/>
-      <c r="B34" s="39"/>
-      <c r="C34" s="39"/>
-      <c r="D34" s="27"/>
-      <c r="E34" s="27"/>
-      <c r="F34" s="27"/>
-      <c r="G34" s="27"/>
-      <c r="H34" s="27"/>
-      <c r="I34" s="27"/>
-      <c r="J34" s="27"/>
-    </row>
-    <row r="35" spans="1:12">
-      <c r="A35" s="64" t="s">
-        <v>231</v>
-      </c>
-      <c r="B35" s="64" t="s">
-        <v>184</v>
-      </c>
-      <c r="C35" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="D35" s="27" t="s">
-        <v>241</v>
-      </c>
-      <c r="E35" s="31" t="s">
-        <v>196</v>
-      </c>
-      <c r="F35" s="27" t="s">
-        <v>138</v>
-      </c>
-      <c r="G35" s="27" t="s">
-        <v>138</v>
-      </c>
-      <c r="H35" s="27" t="s">
-        <v>138</v>
-      </c>
-      <c r="I35" s="27" t="s">
-        <v>138</v>
-      </c>
-      <c r="J35" s="32" t="s">
+      <c r="E45" s="34" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="36" spans="1:12">
-      <c r="A36" s="64"/>
-      <c r="B36" s="64"/>
-      <c r="C36" s="59"/>
-      <c r="D36" s="27" t="s">
-        <v>173</v>
-      </c>
-      <c r="E36" s="31" t="s">
-        <v>198</v>
-      </c>
-      <c r="F36" s="27" t="s">
-        <v>138</v>
-      </c>
-      <c r="G36" s="27" t="s">
-        <v>138</v>
-      </c>
-      <c r="H36" s="27" t="s">
-        <v>138</v>
-      </c>
-      <c r="I36" s="27" t="s">
-        <v>138</v>
-      </c>
-      <c r="J36" s="32" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12">
-      <c r="A37" s="64"/>
-      <c r="B37" s="64"/>
-      <c r="C37" s="59"/>
-      <c r="D37" s="27" t="s">
-        <v>174</v>
-      </c>
-      <c r="E37" s="31" t="s">
-        <v>200</v>
-      </c>
-      <c r="F37" s="27" t="s">
-        <v>138</v>
-      </c>
-      <c r="G37" s="27" t="s">
-        <v>138</v>
-      </c>
-      <c r="H37" s="27" t="s">
-        <v>138</v>
-      </c>
-      <c r="I37" s="27" t="s">
-        <v>138</v>
-      </c>
-      <c r="J37" s="32" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12">
-      <c r="A38" s="64"/>
-      <c r="B38" s="64"/>
-      <c r="C38" s="59"/>
-      <c r="D38" s="27" t="s">
-        <v>242</v>
-      </c>
-      <c r="E38" s="31" t="s">
-        <v>201</v>
-      </c>
-      <c r="F38" s="27" t="s">
-        <v>138</v>
-      </c>
-      <c r="G38" s="27" t="s">
-        <v>138</v>
-      </c>
-      <c r="H38" s="27" t="s">
-        <v>138</v>
-      </c>
-      <c r="I38" s="27" t="s">
-        <v>138</v>
-      </c>
-      <c r="J38" s="32" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12">
-      <c r="A39" s="64"/>
-      <c r="B39" s="64"/>
-      <c r="C39" s="60"/>
-      <c r="D39" s="27" t="s">
-        <v>243</v>
-      </c>
-      <c r="E39" s="31" t="s">
-        <v>202</v>
-      </c>
-      <c r="F39" s="27" t="s">
-        <v>138</v>
-      </c>
-      <c r="G39" s="27" t="s">
-        <v>138</v>
-      </c>
-      <c r="H39" s="27" t="s">
-        <v>138</v>
-      </c>
-      <c r="I39" s="27" t="s">
-        <v>138</v>
-      </c>
-      <c r="J39" s="32" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12">
-      <c r="A40" s="39"/>
-      <c r="B40" s="39"/>
-      <c r="C40" s="39"/>
-      <c r="D40" s="27"/>
-      <c r="E40" s="27"/>
-      <c r="F40" s="27"/>
-      <c r="G40" s="27"/>
-      <c r="H40" s="27"/>
-      <c r="I40" s="27"/>
-      <c r="J40" s="27"/>
-    </row>
-    <row r="41" spans="1:12">
-      <c r="A41" s="64" t="s">
-        <v>239</v>
-      </c>
-      <c r="B41" s="65" t="s">
-        <v>436</v>
-      </c>
-      <c r="C41" s="58" t="s">
+      <c r="F45" s="33" t="s">
+        <v>138</v>
+      </c>
+      <c r="G45" s="33" t="s">
+        <v>138</v>
+      </c>
+      <c r="H45" s="33" t="s">
+        <v>138</v>
+      </c>
+      <c r="I45" s="33" t="s">
+        <v>138</v>
+      </c>
+      <c r="J45" s="35" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" s="26" customFormat="1">
+      <c r="A46" s="38"/>
+      <c r="B46" s="38"/>
+      <c r="C46" s="38"/>
+    </row>
+    <row r="47" spans="1:12">
+      <c r="A47" s="57" t="s">
         <v>233</v>
       </c>
-      <c r="D41" s="27" t="s">
-        <v>244</v>
-      </c>
-      <c r="E41" s="33" t="s">
-        <v>234</v>
-      </c>
-      <c r="F41" s="27" t="s">
-        <v>138</v>
-      </c>
-      <c r="G41" s="27" t="s">
-        <v>138</v>
-      </c>
-      <c r="H41" s="27" t="s">
-        <v>138</v>
-      </c>
-      <c r="I41" s="27" t="s">
-        <v>138</v>
-      </c>
-      <c r="J41" s="36" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12">
-      <c r="A42" s="64"/>
-      <c r="B42" s="64"/>
-      <c r="C42" s="59"/>
-      <c r="D42" s="27" t="s">
-        <v>245</v>
-      </c>
-      <c r="E42" s="33" t="s">
-        <v>235</v>
-      </c>
-      <c r="F42" s="27" t="s">
-        <v>138</v>
-      </c>
-      <c r="G42" s="27" t="s">
-        <v>138</v>
-      </c>
-      <c r="H42" s="27" t="s">
-        <v>138</v>
-      </c>
-      <c r="I42" s="27" t="s">
-        <v>138</v>
-      </c>
-      <c r="J42" s="36" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12">
-      <c r="A43" s="64"/>
-      <c r="B43" s="64"/>
-      <c r="C43" s="59"/>
-      <c r="D43" s="27" t="s">
-        <v>246</v>
-      </c>
-      <c r="E43" s="33" t="s">
-        <v>236</v>
-      </c>
-      <c r="F43" s="27" t="s">
-        <v>138</v>
-      </c>
-      <c r="G43" s="27" t="s">
-        <v>138</v>
-      </c>
-      <c r="H43" s="27" t="s">
-        <v>138</v>
-      </c>
-      <c r="I43" s="27" t="s">
-        <v>138</v>
-      </c>
-      <c r="J43" s="36" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12">
-      <c r="A44" s="64"/>
-      <c r="B44" s="64"/>
-      <c r="C44" s="59"/>
-      <c r="D44" s="27" t="s">
-        <v>133</v>
-      </c>
-      <c r="E44" s="33" t="s">
-        <v>237</v>
-      </c>
-      <c r="F44" s="27" t="s">
-        <v>138</v>
-      </c>
-      <c r="G44" s="27" t="s">
-        <v>138</v>
-      </c>
-      <c r="H44" s="27" t="s">
-        <v>138</v>
-      </c>
-      <c r="I44" s="27" t="s">
-        <v>138</v>
-      </c>
-      <c r="J44" s="36" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12">
-      <c r="A45" s="64"/>
-      <c r="B45" s="64"/>
-      <c r="C45" s="60"/>
-      <c r="D45" s="34" t="s">
-        <v>134</v>
-      </c>
-      <c r="E45" s="35" t="s">
-        <v>238</v>
-      </c>
-      <c r="F45" s="34" t="s">
-        <v>138</v>
-      </c>
-      <c r="G45" s="34" t="s">
-        <v>138</v>
-      </c>
-      <c r="H45" s="34" t="s">
-        <v>138</v>
-      </c>
-      <c r="I45" s="34" t="s">
-        <v>138</v>
-      </c>
-      <c r="J45" s="36" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12" s="27" customFormat="1">
-      <c r="A46" s="39"/>
-      <c r="B46" s="39"/>
-      <c r="C46" s="39"/>
-    </row>
-    <row r="47" spans="1:12">
-      <c r="A47" s="64" t="s">
-        <v>239</v>
-      </c>
-      <c r="B47" s="65" t="s">
-        <v>436</v>
-      </c>
-      <c r="C47" s="61" t="s">
-        <v>272</v>
-      </c>
-      <c r="D47" s="36"/>
-      <c r="E47" s="37" t="s">
-        <v>268</v>
-      </c>
-      <c r="F47" s="36" t="s">
-        <v>138</v>
-      </c>
-      <c r="G47" s="36" t="s">
-        <v>138</v>
-      </c>
-      <c r="H47" s="36" t="s">
-        <v>138</v>
-      </c>
-      <c r="I47" s="36" t="s">
-        <v>138</v>
-      </c>
-      <c r="J47" s="36" t="s">
-        <v>365</v>
+      <c r="B47" s="58" t="s">
+        <v>430</v>
+      </c>
+      <c r="C47" s="62" t="s">
+        <v>266</v>
+      </c>
+      <c r="D47" s="35"/>
+      <c r="E47" s="36" t="s">
+        <v>262</v>
+      </c>
+      <c r="F47" s="35" t="s">
+        <v>138</v>
+      </c>
+      <c r="G47" s="35" t="s">
+        <v>138</v>
+      </c>
+      <c r="H47" s="35" t="s">
+        <v>138</v>
+      </c>
+      <c r="I47" s="35" t="s">
+        <v>138</v>
+      </c>
+      <c r="J47" s="35" t="s">
+        <v>359</v>
       </c>
     </row>
     <row r="48" spans="1:12">
-      <c r="A48" s="64"/>
-      <c r="B48" s="64"/>
-      <c r="C48" s="62"/>
-      <c r="D48" s="27"/>
-      <c r="E48" s="33" t="s">
-        <v>269</v>
-      </c>
-      <c r="F48" s="27" t="s">
-        <v>138</v>
-      </c>
-      <c r="G48" s="27" t="s">
-        <v>138</v>
-      </c>
-      <c r="H48" s="27" t="s">
-        <v>138</v>
-      </c>
-      <c r="I48" s="27" t="s">
-        <v>138</v>
-      </c>
-      <c r="J48" s="36" t="s">
-        <v>365</v>
+      <c r="A48" s="57"/>
+      <c r="B48" s="57"/>
+      <c r="C48" s="63"/>
+      <c r="D48" s="26"/>
+      <c r="E48" s="32" t="s">
+        <v>263</v>
+      </c>
+      <c r="F48" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="G48" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="H48" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="I48" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="J48" s="35" t="s">
+        <v>359</v>
       </c>
     </row>
     <row r="49" spans="1:10">
-      <c r="A49" s="64"/>
-      <c r="B49" s="64"/>
-      <c r="C49" s="62"/>
-      <c r="D49" s="27"/>
-      <c r="E49" s="33" t="s">
-        <v>270</v>
-      </c>
-      <c r="F49" s="27" t="s">
-        <v>138</v>
-      </c>
-      <c r="G49" s="27" t="s">
-        <v>138</v>
-      </c>
-      <c r="H49" s="27" t="s">
-        <v>138</v>
-      </c>
-      <c r="I49" s="27" t="s">
-        <v>138</v>
-      </c>
-      <c r="J49" s="36" t="s">
-        <v>365</v>
+      <c r="A49" s="57"/>
+      <c r="B49" s="57"/>
+      <c r="C49" s="63"/>
+      <c r="D49" s="26"/>
+      <c r="E49" s="32" t="s">
+        <v>264</v>
+      </c>
+      <c r="F49" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="G49" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="H49" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="I49" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="J49" s="35" t="s">
+        <v>359</v>
       </c>
     </row>
     <row r="50" spans="1:10">
-      <c r="A50" s="64"/>
-      <c r="B50" s="64"/>
-      <c r="C50" s="62"/>
-      <c r="D50" s="27"/>
-      <c r="E50" s="33" t="s">
-        <v>271</v>
-      </c>
-      <c r="F50" s="27" t="s">
-        <v>138</v>
-      </c>
-      <c r="G50" s="27" t="s">
-        <v>138</v>
-      </c>
-      <c r="H50" s="27" t="s">
-        <v>138</v>
-      </c>
-      <c r="I50" s="27" t="s">
-        <v>138</v>
-      </c>
-      <c r="J50" s="36" t="s">
-        <v>365</v>
+      <c r="A50" s="57"/>
+      <c r="B50" s="57"/>
+      <c r="C50" s="63"/>
+      <c r="D50" s="26"/>
+      <c r="E50" s="32" t="s">
+        <v>265</v>
+      </c>
+      <c r="F50" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="G50" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="H50" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="I50" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="J50" s="35" t="s">
+        <v>359</v>
       </c>
     </row>
     <row r="51" spans="1:10">
-      <c r="A51" s="64" t="s">
+      <c r="A51" s="57" t="s">
+        <v>267</v>
+      </c>
+      <c r="B51" s="58" t="s">
+        <v>429</v>
+      </c>
+      <c r="C51" s="63"/>
+      <c r="D51" s="26"/>
+      <c r="E51" s="21" t="s">
         <v>273</v>
       </c>
-      <c r="B51" s="65" t="s">
-        <v>435</v>
-      </c>
-      <c r="C51" s="62"/>
-      <c r="D51" s="27"/>
-      <c r="E51" s="22" t="s">
-        <v>279</v>
-      </c>
-      <c r="F51" s="27" t="s">
-        <v>138</v>
-      </c>
-      <c r="G51" s="27" t="s">
-        <v>138</v>
-      </c>
-      <c r="H51" s="27" t="s">
-        <v>138</v>
-      </c>
-      <c r="I51" s="27" t="s">
-        <v>138</v>
-      </c>
-      <c r="J51" s="27" t="s">
-        <v>366</v>
+      <c r="F51" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="G51" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="H51" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="I51" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="J51" s="26" t="s">
+        <v>360</v>
       </c>
     </row>
     <row r="52" spans="1:10">
-      <c r="A52" s="64"/>
-      <c r="B52" s="64"/>
-      <c r="C52" s="62"/>
-      <c r="D52" s="27"/>
-      <c r="E52" s="22" t="s">
-        <v>280</v>
-      </c>
-      <c r="F52" s="27" t="s">
-        <v>138</v>
-      </c>
-      <c r="G52" s="27" t="s">
-        <v>138</v>
-      </c>
-      <c r="H52" s="27" t="s">
-        <v>138</v>
-      </c>
-      <c r="I52" s="27" t="s">
-        <v>138</v>
-      </c>
-      <c r="J52" s="27" t="s">
-        <v>366</v>
+      <c r="A52" s="57"/>
+      <c r="B52" s="57"/>
+      <c r="C52" s="63"/>
+      <c r="D52" s="26"/>
+      <c r="E52" s="21" t="s">
+        <v>274</v>
+      </c>
+      <c r="F52" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="G52" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="H52" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="I52" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="J52" s="26" t="s">
+        <v>360</v>
       </c>
     </row>
     <row r="53" spans="1:10">
-      <c r="A53" s="64"/>
-      <c r="B53" s="64"/>
-      <c r="C53" s="62"/>
-      <c r="D53" s="27"/>
-      <c r="E53" s="22" t="s">
-        <v>281</v>
-      </c>
-      <c r="F53" s="27" t="s">
-        <v>138</v>
-      </c>
-      <c r="G53" s="27" t="s">
-        <v>138</v>
-      </c>
-      <c r="H53" s="27" t="s">
-        <v>138</v>
-      </c>
-      <c r="I53" s="27" t="s">
-        <v>138</v>
-      </c>
-      <c r="J53" s="27" t="s">
-        <v>366</v>
+      <c r="A53" s="57"/>
+      <c r="B53" s="57"/>
+      <c r="C53" s="63"/>
+      <c r="D53" s="26"/>
+      <c r="E53" s="21" t="s">
+        <v>275</v>
+      </c>
+      <c r="F53" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="G53" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="H53" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="I53" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="J53" s="26" t="s">
+        <v>360</v>
       </c>
     </row>
     <row r="54" spans="1:10">
-      <c r="A54" s="64"/>
-      <c r="B54" s="64"/>
-      <c r="C54" s="62"/>
-      <c r="D54" s="27"/>
-      <c r="E54" s="22" t="s">
-        <v>282</v>
-      </c>
-      <c r="F54" s="27" t="s">
-        <v>138</v>
-      </c>
-      <c r="G54" s="27" t="s">
-        <v>138</v>
-      </c>
-      <c r="H54" s="27" t="s">
-        <v>138</v>
-      </c>
-      <c r="I54" s="27" t="s">
-        <v>138</v>
-      </c>
-      <c r="J54" s="27" t="s">
-        <v>366</v>
+      <c r="A54" s="57"/>
+      <c r="B54" s="57"/>
+      <c r="C54" s="63"/>
+      <c r="D54" s="26"/>
+      <c r="E54" s="21" t="s">
+        <v>276</v>
+      </c>
+      <c r="F54" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="G54" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="H54" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="I54" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="J54" s="26" t="s">
+        <v>360</v>
       </c>
     </row>
     <row r="55" spans="1:10">
-      <c r="A55" s="64"/>
-      <c r="B55" s="64"/>
-      <c r="C55" s="63"/>
-      <c r="D55" s="27"/>
-      <c r="E55" s="22" t="s">
-        <v>283</v>
-      </c>
-      <c r="F55" s="27" t="s">
-        <v>138</v>
-      </c>
-      <c r="G55" s="27" t="s">
-        <v>138</v>
-      </c>
-      <c r="H55" s="27" t="s">
-        <v>138</v>
-      </c>
-      <c r="I55" s="27" t="s">
-        <v>138</v>
-      </c>
-      <c r="J55" s="27" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10" s="48" customFormat="1" ht="28.8">
-      <c r="A57" s="64" t="s">
+      <c r="A55" s="57"/>
+      <c r="B55" s="57"/>
+      <c r="C55" s="64"/>
+      <c r="D55" s="26"/>
+      <c r="E55" s="21" t="s">
+        <v>277</v>
+      </c>
+      <c r="F55" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="G55" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="H55" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="I55" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="J55" s="26" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" s="47" customFormat="1" ht="28.8">
+      <c r="A57" s="57" t="s">
+        <v>314</v>
+      </c>
+      <c r="B57" s="46" t="s">
+        <v>431</v>
+      </c>
+      <c r="C57" s="57" t="s">
+        <v>313</v>
+      </c>
+      <c r="D57" s="55" t="s">
+        <v>317</v>
+      </c>
+      <c r="E57" s="56" t="s">
+        <v>308</v>
+      </c>
+      <c r="F57" s="55" t="s">
+        <v>138</v>
+      </c>
+      <c r="G57" s="55" t="s">
+        <v>138</v>
+      </c>
+      <c r="H57" s="55" t="s">
+        <v>138</v>
+      </c>
+      <c r="I57" s="55" t="s">
+        <v>138</v>
+      </c>
+      <c r="J57" s="55" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
+      <c r="A58" s="57"/>
+      <c r="B58" s="58" t="s">
+        <v>432</v>
+      </c>
+      <c r="C58" s="57"/>
+      <c r="D58" s="26" t="s">
+        <v>319</v>
+      </c>
+      <c r="E58" s="39" t="s">
+        <v>293</v>
+      </c>
+      <c r="F58" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="G58" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="H58" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="I58" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="J58" s="26" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
+      <c r="A59" s="57"/>
+      <c r="B59" s="57"/>
+      <c r="C59" s="57"/>
+      <c r="D59" s="26" t="s">
+        <v>318</v>
+      </c>
+      <c r="E59" s="32" t="s">
+        <v>296</v>
+      </c>
+      <c r="F59" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="G59" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="H59" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="I59" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="J59" s="26" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
+      <c r="A60" s="57"/>
+      <c r="B60" s="57"/>
+      <c r="C60" s="57"/>
+      <c r="D60" s="26" t="s">
         <v>320</v>
       </c>
-      <c r="B57" s="47" t="s">
+      <c r="E60" s="39" t="s">
+        <v>288</v>
+      </c>
+      <c r="F60" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="G60" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="H60" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="I60" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="J60" s="26" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
+      <c r="A62" s="57" t="s">
+        <v>233</v>
+      </c>
+      <c r="B62" s="58" t="s">
+        <v>433</v>
+      </c>
+      <c r="C62" s="57" t="s">
+        <v>321</v>
+      </c>
+      <c r="D62" s="26" t="s">
+        <v>356</v>
+      </c>
+      <c r="E62" s="40" t="s">
+        <v>322</v>
+      </c>
+      <c r="F62" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="G62" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="H62" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="I62" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="J62" s="26" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
+      <c r="A63" s="57"/>
+      <c r="B63" s="57"/>
+      <c r="C63" s="57"/>
+      <c r="D63" s="26" t="s">
+        <v>357</v>
+      </c>
+      <c r="E63" s="40" t="s">
+        <v>323</v>
+      </c>
+      <c r="F63" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="G63" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="H63" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="I63" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="J63" s="26" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
+      <c r="A64" s="57"/>
+      <c r="B64" s="57"/>
+      <c r="C64" s="57"/>
+      <c r="D64" s="26" t="s">
+        <v>376</v>
+      </c>
+      <c r="E64" s="40" t="s">
+        <v>324</v>
+      </c>
+      <c r="F64" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="G64" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="H64" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="I64" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="J64" s="26" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
+      <c r="A65" s="57"/>
+      <c r="B65" s="57"/>
+      <c r="C65" s="57"/>
+      <c r="D65" s="26" t="s">
+        <v>377</v>
+      </c>
+      <c r="E65" s="40" t="s">
+        <v>325</v>
+      </c>
+      <c r="F65" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="G65" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="H65" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="I65" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="J65" s="26" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
+      <c r="A66" s="57"/>
+      <c r="B66" s="57"/>
+      <c r="C66" s="57"/>
+      <c r="D66" s="26" t="s">
+        <v>385</v>
+      </c>
+      <c r="E66" s="40" t="s">
+        <v>326</v>
+      </c>
+      <c r="F66" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="G66" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="H66" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="I66" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="J66" s="26" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
+      <c r="A67" s="57"/>
+      <c r="B67" s="57"/>
+      <c r="C67" s="57"/>
+      <c r="D67" s="26" t="s">
+        <v>386</v>
+      </c>
+      <c r="E67" s="40" t="s">
+        <v>327</v>
+      </c>
+      <c r="F67" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="G67" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="H67" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="I67" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="J67" s="26" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
+      <c r="A68" s="57"/>
+      <c r="B68" s="57"/>
+      <c r="C68" s="57"/>
+      <c r="D68" s="26" t="s">
+        <v>387</v>
+      </c>
+      <c r="E68" s="40" t="s">
+        <v>328</v>
+      </c>
+      <c r="F68" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="G68" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="H68" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="I68" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="J68" s="26" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
+      <c r="A69" s="57"/>
+      <c r="B69" s="57"/>
+      <c r="C69" s="57"/>
+      <c r="D69" s="26" t="s">
+        <v>388</v>
+      </c>
+      <c r="E69" s="40" t="s">
+        <v>329</v>
+      </c>
+      <c r="F69" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="G69" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="H69" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="I69" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="J69" s="26" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
+      <c r="B71" s="58" t="s">
+        <v>434</v>
+      </c>
+      <c r="C71" s="57" t="s">
+        <v>421</v>
+      </c>
+      <c r="D71" s="26" t="s">
+        <v>422</v>
+      </c>
+      <c r="E71" s="45" t="s">
+        <v>390</v>
+      </c>
+      <c r="F71" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="G71" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="H71" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="I71" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="J71" s="26" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
+      <c r="B72" s="57"/>
+      <c r="C72" s="57"/>
+      <c r="D72" s="26" t="s">
+        <v>423</v>
+      </c>
+      <c r="E72" s="45" t="s">
+        <v>392</v>
+      </c>
+      <c r="F72" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="G72" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="H72" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="I72" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="J72" s="26" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
+      <c r="B73" s="57"/>
+      <c r="C73" s="57"/>
+      <c r="D73" s="26" t="s">
+        <v>424</v>
+      </c>
+      <c r="E73" s="45" t="s">
+        <v>394</v>
+      </c>
+      <c r="F73" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="G73" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="H73" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="I73" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="J73" s="26" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
+      <c r="B74" s="57"/>
+      <c r="C74" s="57"/>
+      <c r="D74" s="26" t="s">
+        <v>425</v>
+      </c>
+      <c r="E74" s="45" t="s">
+        <v>395</v>
+      </c>
+      <c r="F74" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="G74" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="H74" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="I74" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="J74" s="26" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
+      <c r="B75" s="57"/>
+      <c r="C75" s="57"/>
+      <c r="D75" s="26" t="s">
+        <v>426</v>
+      </c>
+      <c r="E75" s="45" t="s">
+        <v>396</v>
+      </c>
+      <c r="F75" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="G75" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="H75" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="I75" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="J75" s="26" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
+      <c r="B76" s="57"/>
+      <c r="C76" s="57"/>
+      <c r="D76" s="26" t="s">
+        <v>427</v>
+      </c>
+      <c r="E76" s="45" t="s">
+        <v>397</v>
+      </c>
+      <c r="F76" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="G76" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="H76" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="I76" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="J76" s="26" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
+      <c r="B78" s="58" t="s">
+        <v>434</v>
+      </c>
+      <c r="C78" s="57" t="s">
+        <v>445</v>
+      </c>
+      <c r="D78" s="26" t="s">
+        <v>446</v>
+      </c>
+      <c r="E78" s="52" t="s">
+        <v>398</v>
+      </c>
+      <c r="F78" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="G78" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="H78" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="I78" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="J78" s="26" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
+      <c r="B79" s="57"/>
+      <c r="C79" s="57"/>
+      <c r="D79" s="26" t="s">
+        <v>447</v>
+      </c>
+      <c r="E79" s="52" t="s">
+        <v>399</v>
+      </c>
+      <c r="F79" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="G79" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="H79" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="I79" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="J79" s="26" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
+      <c r="B80" s="57"/>
+      <c r="C80" s="57"/>
+      <c r="D80" s="26" t="s">
+        <v>448</v>
+      </c>
+      <c r="E80" s="52" t="s">
         <v>437</v>
       </c>
-      <c r="C57" s="64" t="s">
-        <v>319</v>
-      </c>
-      <c r="D57" s="56" t="s">
-        <v>323</v>
-      </c>
-      <c r="E57" s="57" t="s">
-        <v>314</v>
-      </c>
-      <c r="F57" s="56" t="s">
-        <v>138</v>
-      </c>
-      <c r="G57" s="56" t="s">
-        <v>138</v>
-      </c>
-      <c r="H57" s="56" t="s">
-        <v>138</v>
-      </c>
-      <c r="I57" s="56" t="s">
-        <v>138</v>
-      </c>
-      <c r="J57" s="56" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10">
-      <c r="A58" s="64"/>
-      <c r="B58" s="65" t="s">
-        <v>438</v>
-      </c>
-      <c r="C58" s="64"/>
-      <c r="D58" s="27" t="s">
-        <v>325</v>
-      </c>
-      <c r="E58" s="40" t="s">
-        <v>299</v>
-      </c>
-      <c r="F58" s="27" t="s">
-        <v>138</v>
-      </c>
-      <c r="G58" s="27" t="s">
-        <v>138</v>
-      </c>
-      <c r="H58" s="27" t="s">
-        <v>138</v>
-      </c>
-      <c r="I58" s="27" t="s">
-        <v>138</v>
-      </c>
-      <c r="J58" s="27" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10">
-      <c r="A59" s="64"/>
-      <c r="B59" s="64"/>
-      <c r="C59" s="64"/>
-      <c r="D59" s="27" t="s">
-        <v>324</v>
-      </c>
-      <c r="E59" s="33" t="s">
-        <v>302</v>
-      </c>
-      <c r="F59" s="27" t="s">
-        <v>138</v>
-      </c>
-      <c r="G59" s="27" t="s">
-        <v>138</v>
-      </c>
-      <c r="H59" s="27" t="s">
-        <v>138</v>
-      </c>
-      <c r="I59" s="27" t="s">
-        <v>138</v>
-      </c>
-      <c r="J59" s="27" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10">
-      <c r="A60" s="64"/>
-      <c r="B60" s="64"/>
-      <c r="C60" s="64"/>
-      <c r="D60" s="27" t="s">
-        <v>326</v>
-      </c>
-      <c r="E60" s="40" t="s">
-        <v>294</v>
-      </c>
-      <c r="F60" s="27" t="s">
-        <v>138</v>
-      </c>
-      <c r="G60" s="27" t="s">
-        <v>138</v>
-      </c>
-      <c r="H60" s="27" t="s">
-        <v>138</v>
-      </c>
-      <c r="I60" s="27" t="s">
-        <v>138</v>
-      </c>
-      <c r="J60" s="27" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10">
-      <c r="A62" s="64" t="s">
-        <v>239</v>
-      </c>
-      <c r="B62" s="65" t="s">
-        <v>439</v>
-      </c>
-      <c r="C62" s="64" t="s">
-        <v>327</v>
-      </c>
-      <c r="D62" s="27" t="s">
-        <v>362</v>
-      </c>
-      <c r="E62" s="41" t="s">
-        <v>328</v>
-      </c>
-      <c r="F62" s="27" t="s">
-        <v>138</v>
-      </c>
-      <c r="G62" s="27" t="s">
-        <v>138</v>
-      </c>
-      <c r="H62" s="27" t="s">
-        <v>138</v>
-      </c>
-      <c r="I62" s="27" t="s">
-        <v>138</v>
-      </c>
-      <c r="J62" s="27" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10">
-      <c r="A63" s="64"/>
-      <c r="B63" s="64"/>
-      <c r="C63" s="64"/>
-      <c r="D63" s="27" t="s">
-        <v>363</v>
-      </c>
-      <c r="E63" s="41" t="s">
-        <v>329</v>
-      </c>
-      <c r="F63" s="27" t="s">
-        <v>138</v>
-      </c>
-      <c r="G63" s="27" t="s">
-        <v>138</v>
-      </c>
-      <c r="H63" s="27" t="s">
-        <v>138</v>
-      </c>
-      <c r="I63" s="27" t="s">
-        <v>138</v>
-      </c>
-      <c r="J63" s="27" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10">
-      <c r="A64" s="64"/>
-      <c r="B64" s="64"/>
-      <c r="C64" s="64"/>
-      <c r="D64" s="27" t="s">
-        <v>382</v>
-      </c>
-      <c r="E64" s="41" t="s">
-        <v>330</v>
-      </c>
-      <c r="F64" s="27" t="s">
-        <v>138</v>
-      </c>
-      <c r="G64" s="27" t="s">
-        <v>138</v>
-      </c>
-      <c r="H64" s="27" t="s">
-        <v>138</v>
-      </c>
-      <c r="I64" s="27" t="s">
-        <v>138</v>
-      </c>
-      <c r="J64" s="27" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="65" spans="1:10">
-      <c r="A65" s="64"/>
-      <c r="B65" s="64"/>
-      <c r="C65" s="64"/>
-      <c r="D65" s="27" t="s">
-        <v>383</v>
-      </c>
-      <c r="E65" s="41" t="s">
-        <v>331</v>
-      </c>
-      <c r="F65" s="27" t="s">
-        <v>138</v>
-      </c>
-      <c r="G65" s="27" t="s">
-        <v>138</v>
-      </c>
-      <c r="H65" s="27" t="s">
-        <v>138</v>
-      </c>
-      <c r="I65" s="27" t="s">
-        <v>138</v>
-      </c>
-      <c r="J65" s="27" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="66" spans="1:10">
-      <c r="A66" s="64"/>
-      <c r="B66" s="64"/>
-      <c r="C66" s="64"/>
-      <c r="D66" s="27" t="s">
-        <v>391</v>
-      </c>
-      <c r="E66" s="41" t="s">
-        <v>332</v>
-      </c>
-      <c r="F66" s="27" t="s">
-        <v>138</v>
-      </c>
-      <c r="G66" s="27" t="s">
-        <v>138</v>
-      </c>
-      <c r="H66" s="27" t="s">
-        <v>138</v>
-      </c>
-      <c r="I66" s="27" t="s">
-        <v>138</v>
-      </c>
-      <c r="J66" s="27" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="67" spans="1:10">
-      <c r="A67" s="64"/>
-      <c r="B67" s="64"/>
-      <c r="C67" s="64"/>
-      <c r="D67" s="27" t="s">
-        <v>392</v>
-      </c>
-      <c r="E67" s="41" t="s">
-        <v>333</v>
-      </c>
-      <c r="F67" s="27" t="s">
-        <v>138</v>
-      </c>
-      <c r="G67" s="27" t="s">
-        <v>138</v>
-      </c>
-      <c r="H67" s="27" t="s">
-        <v>138</v>
-      </c>
-      <c r="I67" s="27" t="s">
-        <v>138</v>
-      </c>
-      <c r="J67" s="27" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="68" spans="1:10">
-      <c r="A68" s="64"/>
-      <c r="B68" s="64"/>
-      <c r="C68" s="64"/>
-      <c r="D68" s="27" t="s">
-        <v>393</v>
-      </c>
-      <c r="E68" s="41" t="s">
-        <v>334</v>
-      </c>
-      <c r="F68" s="27" t="s">
-        <v>138</v>
-      </c>
-      <c r="G68" s="27" t="s">
-        <v>138</v>
-      </c>
-      <c r="H68" s="27" t="s">
-        <v>138</v>
-      </c>
-      <c r="I68" s="27" t="s">
-        <v>138</v>
-      </c>
-      <c r="J68" s="27" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="69" spans="1:10">
-      <c r="A69" s="64"/>
-      <c r="B69" s="64"/>
-      <c r="C69" s="64"/>
-      <c r="D69" s="27" t="s">
-        <v>394</v>
-      </c>
-      <c r="E69" s="41" t="s">
-        <v>335</v>
-      </c>
-      <c r="F69" s="27" t="s">
-        <v>138</v>
-      </c>
-      <c r="G69" s="27" t="s">
-        <v>138</v>
-      </c>
-      <c r="H69" s="27" t="s">
-        <v>138</v>
-      </c>
-      <c r="I69" s="27" t="s">
-        <v>138</v>
-      </c>
-      <c r="J69" s="27" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="71" spans="1:10">
-      <c r="B71" s="65" t="s">
-        <v>440</v>
-      </c>
-      <c r="C71" s="64" t="s">
-        <v>427</v>
-      </c>
-      <c r="D71" s="27" t="s">
+      <c r="F80" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="G80" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="H80" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="I80" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="J80" s="26" t="s">
         <v>428</v>
       </c>
-      <c r="E71" s="46" t="s">
-        <v>396</v>
-      </c>
-      <c r="F71" s="27" t="s">
-        <v>138</v>
-      </c>
-      <c r="G71" s="27" t="s">
-        <v>138</v>
-      </c>
-      <c r="H71" s="27" t="s">
-        <v>138</v>
-      </c>
-      <c r="I71" s="27" t="s">
-        <v>138</v>
-      </c>
-      <c r="J71" s="27" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="72" spans="1:10">
-      <c r="B72" s="64"/>
-      <c r="C72" s="64"/>
-      <c r="D72" s="27" t="s">
-        <v>429</v>
-      </c>
-      <c r="E72" s="46" t="s">
-        <v>398</v>
-      </c>
-      <c r="F72" s="27" t="s">
-        <v>138</v>
-      </c>
-      <c r="G72" s="27" t="s">
-        <v>138</v>
-      </c>
-      <c r="H72" s="27" t="s">
-        <v>138</v>
-      </c>
-      <c r="I72" s="27" t="s">
-        <v>138</v>
-      </c>
-      <c r="J72" s="27" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="73" spans="1:10">
-      <c r="B73" s="64"/>
-      <c r="C73" s="64"/>
-      <c r="D73" s="27" t="s">
-        <v>430</v>
-      </c>
-      <c r="E73" s="46" t="s">
-        <v>400</v>
-      </c>
-      <c r="F73" s="27" t="s">
-        <v>138</v>
-      </c>
-      <c r="G73" s="27" t="s">
-        <v>138</v>
-      </c>
-      <c r="H73" s="27" t="s">
-        <v>138</v>
-      </c>
-      <c r="I73" s="27" t="s">
-        <v>138</v>
-      </c>
-      <c r="J73" s="27" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="74" spans="1:10">
-      <c r="B74" s="64"/>
-      <c r="C74" s="64"/>
-      <c r="D74" s="27" t="s">
-        <v>431</v>
-      </c>
-      <c r="E74" s="46" t="s">
-        <v>401</v>
-      </c>
-      <c r="F74" s="27" t="s">
-        <v>138</v>
-      </c>
-      <c r="G74" s="27" t="s">
-        <v>138</v>
-      </c>
-      <c r="H74" s="27" t="s">
-        <v>138</v>
-      </c>
-      <c r="I74" s="27" t="s">
-        <v>138</v>
-      </c>
-      <c r="J74" s="27" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="75" spans="1:10">
-      <c r="B75" s="64"/>
-      <c r="C75" s="64"/>
-      <c r="D75" s="27" t="s">
-        <v>432</v>
-      </c>
-      <c r="E75" s="46" t="s">
-        <v>402</v>
-      </c>
-      <c r="F75" s="27" t="s">
-        <v>138</v>
-      </c>
-      <c r="G75" s="27" t="s">
-        <v>138</v>
-      </c>
-      <c r="H75" s="27" t="s">
-        <v>138</v>
-      </c>
-      <c r="I75" s="27" t="s">
-        <v>138</v>
-      </c>
-      <c r="J75" s="27" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="76" spans="1:10">
-      <c r="B76" s="64"/>
-      <c r="C76" s="64"/>
-      <c r="D76" s="27" t="s">
-        <v>433</v>
-      </c>
-      <c r="E76" s="46" t="s">
-        <v>403</v>
-      </c>
-      <c r="F76" s="27" t="s">
-        <v>138</v>
-      </c>
-      <c r="G76" s="27" t="s">
-        <v>138</v>
-      </c>
-      <c r="H76" s="27" t="s">
-        <v>138</v>
-      </c>
-      <c r="I76" s="27" t="s">
-        <v>138</v>
-      </c>
-      <c r="J76" s="27" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="78" spans="1:10">
-      <c r="B78" s="65" t="s">
-        <v>440</v>
-      </c>
-      <c r="C78" s="64" t="s">
-        <v>451</v>
-      </c>
-      <c r="D78" s="27" t="s">
-        <v>452</v>
-      </c>
-      <c r="E78" s="53" t="s">
-        <v>404</v>
-      </c>
-      <c r="F78" s="27" t="s">
-        <v>138</v>
-      </c>
-      <c r="G78" s="27" t="s">
-        <v>138</v>
-      </c>
-      <c r="H78" s="27" t="s">
-        <v>138</v>
-      </c>
-      <c r="I78" s="27" t="s">
-        <v>138</v>
-      </c>
-      <c r="J78" s="27" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="79" spans="1:10">
-      <c r="B79" s="64"/>
-      <c r="C79" s="64"/>
-      <c r="D79" s="27" t="s">
+    </row>
+    <row r="81" spans="1:10" s="51" customFormat="1" ht="28.8">
+      <c r="A81" s="50"/>
+      <c r="B81" s="49" t="s">
+        <v>444</v>
+      </c>
+      <c r="C81" s="57"/>
+      <c r="D81" s="22" t="s">
+        <v>449</v>
+      </c>
+      <c r="E81" s="53" t="s">
+        <v>441</v>
+      </c>
+      <c r="F81" s="22" t="s">
+        <v>138</v>
+      </c>
+      <c r="G81" s="22" t="s">
+        <v>138</v>
+      </c>
+      <c r="H81" s="22" t="s">
+        <v>138</v>
+      </c>
+      <c r="I81" s="22" t="s">
+        <v>138</v>
+      </c>
+      <c r="J81" s="54" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
+      <c r="B83" s="58" t="s">
+        <v>481</v>
+      </c>
+      <c r="C83" s="57" t="s">
+        <v>476</v>
+      </c>
+      <c r="D83" s="26" t="s">
+        <v>477</v>
+      </c>
+      <c r="E83" s="30" t="s">
+        <v>450</v>
+      </c>
+      <c r="F83" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="G83" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="H83" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="I83" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="J83" s="26" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
+      <c r="B84" s="57"/>
+      <c r="C84" s="57"/>
+      <c r="D84" s="26" t="s">
+        <v>478</v>
+      </c>
+      <c r="E84" s="30" t="s">
         <v>453</v>
       </c>
-      <c r="E79" s="53" t="s">
-        <v>405</v>
-      </c>
-      <c r="F79" s="27" t="s">
-        <v>138</v>
-      </c>
-      <c r="G79" s="27" t="s">
-        <v>138</v>
-      </c>
-      <c r="H79" s="27" t="s">
-        <v>138</v>
-      </c>
-      <c r="I79" s="27" t="s">
-        <v>138</v>
-      </c>
-      <c r="J79" s="27" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="80" spans="1:10">
-      <c r="B80" s="64"/>
-      <c r="C80" s="64"/>
-      <c r="D80" s="27" t="s">
+      <c r="F84" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="G84" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="H84" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="I84" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="J84" s="26" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
+      <c r="B85" s="57"/>
+      <c r="C85" s="57"/>
+      <c r="D85" s="26" t="s">
+        <v>479</v>
+      </c>
+      <c r="E85" s="30" t="s">
         <v>454</v>
       </c>
-      <c r="E80" s="53" t="s">
-        <v>443</v>
-      </c>
-      <c r="F80" s="27" t="s">
-        <v>138</v>
-      </c>
-      <c r="G80" s="27" t="s">
-        <v>138</v>
-      </c>
-      <c r="H80" s="27" t="s">
-        <v>138</v>
-      </c>
-      <c r="I80" s="27" t="s">
-        <v>138</v>
-      </c>
-      <c r="J80" s="27" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="81" spans="1:10" s="52" customFormat="1" ht="28.8">
-      <c r="A81" s="51"/>
-      <c r="B81" s="50" t="s">
-        <v>450</v>
-      </c>
-      <c r="C81" s="64"/>
-      <c r="D81" s="23" t="s">
+      <c r="F85" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="G85" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="H85" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="I85" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="J85" s="26" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
+      <c r="B86" s="57"/>
+      <c r="C86" s="57"/>
+      <c r="D86" s="26" t="s">
+        <v>480</v>
+      </c>
+      <c r="E86" s="30" t="s">
         <v>455</v>
       </c>
-      <c r="E81" s="54" t="s">
-        <v>447</v>
-      </c>
-      <c r="F81" s="23" t="s">
-        <v>138</v>
-      </c>
-      <c r="G81" s="23" t="s">
-        <v>138</v>
-      </c>
-      <c r="H81" s="23" t="s">
-        <v>138</v>
-      </c>
-      <c r="I81" s="23" t="s">
-        <v>138</v>
-      </c>
-      <c r="J81" s="55" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="83" spans="1:10">
-      <c r="B83" s="65" t="s">
+      <c r="F86" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="G86" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="H86" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="I86" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="J86" s="26" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
+      <c r="B87" s="57"/>
+      <c r="C87" s="57"/>
+      <c r="D87" s="26" t="s">
         <v>487</v>
       </c>
-      <c r="C83" s="64" t="s">
-        <v>482</v>
-      </c>
-      <c r="D83" s="27" t="s">
-        <v>483</v>
-      </c>
-      <c r="E83" s="31" t="s">
+      <c r="E87" s="30" t="s">
         <v>456</v>
       </c>
-      <c r="F83" s="27" t="s">
-        <v>138</v>
-      </c>
-      <c r="G83" s="27" t="s">
-        <v>138</v>
-      </c>
-      <c r="H83" s="27" t="s">
-        <v>138</v>
-      </c>
-      <c r="I83" s="27" t="s">
-        <v>138</v>
-      </c>
-      <c r="J83" s="27" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="84" spans="1:10">
-      <c r="B84" s="64"/>
-      <c r="C84" s="64"/>
-      <c r="D84" s="27" t="s">
-        <v>484</v>
-      </c>
-      <c r="E84" s="31" t="s">
-        <v>459</v>
-      </c>
-      <c r="F84" s="27" t="s">
-        <v>138</v>
-      </c>
-      <c r="G84" s="27" t="s">
-        <v>138</v>
-      </c>
-      <c r="H84" s="27" t="s">
-        <v>138</v>
-      </c>
-      <c r="I84" s="27" t="s">
-        <v>138</v>
-      </c>
-      <c r="J84" s="27" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="85" spans="1:10">
-      <c r="B85" s="64"/>
-      <c r="C85" s="64"/>
-      <c r="D85" s="27" t="s">
-        <v>485</v>
-      </c>
-      <c r="E85" s="31" t="s">
-        <v>460</v>
-      </c>
-      <c r="F85" s="27" t="s">
-        <v>138</v>
-      </c>
-      <c r="G85" s="27" t="s">
-        <v>138</v>
-      </c>
-      <c r="H85" s="27" t="s">
-        <v>138</v>
-      </c>
-      <c r="I85" s="27" t="s">
-        <v>138</v>
-      </c>
-      <c r="J85" s="27" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="86" spans="1:10">
-      <c r="B86" s="64"/>
-      <c r="C86" s="64"/>
-      <c r="D86" s="27" t="s">
-        <v>486</v>
-      </c>
-      <c r="E86" s="31" t="s">
-        <v>461</v>
-      </c>
-      <c r="F86" s="27" t="s">
-        <v>138</v>
-      </c>
-      <c r="G86" s="27" t="s">
-        <v>138</v>
-      </c>
-      <c r="H86" s="27" t="s">
-        <v>138</v>
-      </c>
-      <c r="I86" s="27" t="s">
-        <v>138</v>
-      </c>
-      <c r="J86" s="27" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="87" spans="1:10">
-      <c r="B87" s="64"/>
-      <c r="C87" s="64"/>
-      <c r="D87" s="27" t="s">
-        <v>493</v>
-      </c>
-      <c r="E87" s="31" t="s">
-        <v>462</v>
-      </c>
-      <c r="F87" s="27"/>
-      <c r="G87" s="27"/>
-      <c r="H87" s="27"/>
-      <c r="I87" s="27"/>
-      <c r="J87" s="27" t="s">
-        <v>481</v>
+      <c r="F87" s="26"/>
+      <c r="G87" s="26"/>
+      <c r="H87" s="26"/>
+      <c r="I87" s="26"/>
+      <c r="J87" s="26" t="s">
+        <v>475</v>
       </c>
     </row>
     <row r="88" spans="1:10">
-      <c r="B88" s="64"/>
-      <c r="C88" s="64"/>
-      <c r="D88" s="27" t="s">
-        <v>494</v>
-      </c>
-      <c r="E88" s="31" t="s">
-        <v>463</v>
-      </c>
-      <c r="F88" s="27"/>
-      <c r="G88" s="27"/>
-      <c r="H88" s="27"/>
-      <c r="I88" s="27"/>
-      <c r="J88" s="27" t="s">
-        <v>481</v>
+      <c r="B88" s="57"/>
+      <c r="C88" s="57"/>
+      <c r="D88" s="26" t="s">
+        <v>488</v>
+      </c>
+      <c r="E88" s="30" t="s">
+        <v>457</v>
+      </c>
+      <c r="F88" s="26"/>
+      <c r="G88" s="26"/>
+      <c r="H88" s="26"/>
+      <c r="I88" s="26"/>
+      <c r="J88" s="26" t="s">
+        <v>475</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="C83:C88"/>
-    <mergeCell ref="B83:B88"/>
-    <mergeCell ref="C57:C60"/>
-    <mergeCell ref="A57:A60"/>
-    <mergeCell ref="B58:B60"/>
-    <mergeCell ref="C78:C81"/>
-    <mergeCell ref="B78:B80"/>
-    <mergeCell ref="A51:A55"/>
-    <mergeCell ref="B51:B55"/>
-    <mergeCell ref="C71:C76"/>
-    <mergeCell ref="B71:B76"/>
-    <mergeCell ref="C62:C69"/>
-    <mergeCell ref="A62:A69"/>
-    <mergeCell ref="B62:B69"/>
-    <mergeCell ref="C28:C33"/>
-    <mergeCell ref="C22:C26"/>
-    <mergeCell ref="C15:C20"/>
-    <mergeCell ref="A47:A50"/>
-    <mergeCell ref="B47:B50"/>
-    <mergeCell ref="B35:B39"/>
-    <mergeCell ref="A41:A45"/>
-    <mergeCell ref="B41:B45"/>
-    <mergeCell ref="C41:C45"/>
-    <mergeCell ref="C35:C39"/>
     <mergeCell ref="C2:C5"/>
     <mergeCell ref="C47:C55"/>
     <mergeCell ref="B2:B5"/>
@@ -4447,6 +4464,30 @@
     <mergeCell ref="A22:A26"/>
     <mergeCell ref="C7:C13"/>
     <mergeCell ref="A35:A39"/>
+    <mergeCell ref="C28:C33"/>
+    <mergeCell ref="C22:C26"/>
+    <mergeCell ref="C15:C20"/>
+    <mergeCell ref="A47:A50"/>
+    <mergeCell ref="B47:B50"/>
+    <mergeCell ref="B35:B39"/>
+    <mergeCell ref="A41:A45"/>
+    <mergeCell ref="B41:B45"/>
+    <mergeCell ref="C41:C45"/>
+    <mergeCell ref="C35:C39"/>
+    <mergeCell ref="A51:A55"/>
+    <mergeCell ref="B51:B55"/>
+    <mergeCell ref="C71:C76"/>
+    <mergeCell ref="B71:B76"/>
+    <mergeCell ref="C62:C69"/>
+    <mergeCell ref="A62:A69"/>
+    <mergeCell ref="B62:B69"/>
+    <mergeCell ref="C83:C88"/>
+    <mergeCell ref="B83:B88"/>
+    <mergeCell ref="C57:C60"/>
+    <mergeCell ref="A57:A60"/>
+    <mergeCell ref="B58:B60"/>
+    <mergeCell ref="C78:C81"/>
+    <mergeCell ref="B78:B80"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4463,19 +4504,19 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="5" width="15.44140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="5" width="18.33203125" collapsed="true"/>
-    <col min="3" max="3" style="5" width="8.88671875" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="5" width="13.0" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="5" width="18.44140625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="5" width="14.109375" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="5" width="13.0" collapsed="true"/>
-    <col min="8" max="9" customWidth="true" style="5" width="13.6640625" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" style="5" width="11.33203125" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" style="5" width="15.88671875" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" style="5" width="16.33203125" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" style="5" width="18.6640625" collapsed="true"/>
-    <col min="14" max="16384" style="5" width="8.88671875" collapsed="true"/>
+    <col min="1" max="1" width="15.44140625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="18.33203125" style="5" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="5"/>
+    <col min="4" max="4" width="13" style="5" customWidth="1"/>
+    <col min="5" max="5" width="18.44140625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="14.109375" style="5" customWidth="1"/>
+    <col min="7" max="7" width="13" style="5" customWidth="1"/>
+    <col min="8" max="9" width="13.6640625" style="5" customWidth="1"/>
+    <col min="10" max="10" width="11.33203125" style="5" customWidth="1"/>
+    <col min="11" max="11" width="15.88671875" style="5" customWidth="1"/>
+    <col min="12" max="12" width="16.33203125" style="5" customWidth="1"/>
+    <col min="13" max="13" width="18.6640625" style="5" customWidth="1"/>
+    <col min="14" max="16384" width="8.88671875" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
@@ -4492,10 +4533,10 @@
         <v>10</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>15</v>
@@ -4507,7 +4548,7 @@
         <v>17</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="K1" s="3" t="s">
         <v>18</v>
@@ -4521,13 +4562,13 @@
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="10" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
@@ -4542,50 +4583,50 @@
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="10" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="H3" s="4" t="s">
         <v>26</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="L3" s="4"/>
       <c r="M3" s="4"/>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="10" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
@@ -4600,56 +4641,56 @@
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="10" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="H5" s="4" t="s">
         <v>26</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="J5" s="4"/>
       <c r="K5" s="4" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="L5" s="4"/>
       <c r="M5" s="4"/>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="10" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
       <c r="G6" s="4" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="H6" s="4"/>
       <c r="I6" s="4" t="s">
@@ -4662,13 +4703,13 @@
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="B7" s="10" t="s">
         <v>268</v>
       </c>
-      <c r="B7" s="10" t="s">
-        <v>274</v>
-      </c>
       <c r="C7" s="4" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
@@ -4683,13 +4724,13 @@
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="10" t="s">
+        <v>263</v>
+      </c>
+      <c r="B8" s="10" t="s">
         <v>269</v>
       </c>
-      <c r="B8" s="10" t="s">
-        <v>275</v>
-      </c>
       <c r="C8" s="4" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
@@ -4700,21 +4741,21 @@
       <c r="J8" s="4"/>
       <c r="K8" s="4"/>
       <c r="L8" s="4" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="M8" s="4" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="10" t="s">
+        <v>264</v>
+      </c>
+      <c r="B9" s="10" t="s">
         <v>270</v>
       </c>
-      <c r="B9" s="10" t="s">
-        <v>276</v>
-      </c>
       <c r="C9" s="4" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
@@ -4729,13 +4770,13 @@
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="10" t="s">
+        <v>265</v>
+      </c>
+      <c r="B10" s="10" t="s">
         <v>271</v>
       </c>
-      <c r="B10" s="10" t="s">
-        <v>277</v>
-      </c>
       <c r="C10" s="4" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
@@ -4764,9 +4805,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="16.44140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="17.109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="10.6640625" collapsed="true"/>
+    <col min="1" max="1" width="16.44140625" customWidth="1"/>
+    <col min="2" max="2" width="17.109375" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -4782,57 +4823,57 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="10" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="10" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="10" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="10" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="10" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
     </row>
   </sheetData>
@@ -4850,16 +4891,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="20.109375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="29.0" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="10.6640625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="9.6640625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="12.5546875" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="15.109375" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="5" width="14.0" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="16.44140625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="17.33203125" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="20.109375" collapsed="true"/>
+    <col min="1" max="1" width="20.109375" customWidth="1"/>
+    <col min="2" max="2" width="29" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" customWidth="1"/>
+    <col min="4" max="4" width="9.6640625" customWidth="1"/>
+    <col min="5" max="5" width="12.5546875" customWidth="1"/>
+    <col min="6" max="6" width="15.109375" customWidth="1"/>
+    <col min="7" max="7" width="14" style="5" customWidth="1"/>
+    <col min="8" max="8" width="16.44140625" customWidth="1"/>
+    <col min="9" max="9" width="17.33203125" customWidth="1"/>
+    <col min="10" max="10" width="20.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -4873,36 +4914,36 @@
         <v>11</v>
       </c>
       <c r="D1" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>303</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>304</v>
       </c>
-      <c r="F1" s="3" t="s">
-        <v>305</v>
-      </c>
-      <c r="G1" s="3" t="s">
+      <c r="I1" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="J1" s="3" t="s">
         <v>309</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>310</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>316</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>315</v>
       </c>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="10" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
@@ -4914,13 +4955,13 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="10" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
@@ -4932,68 +4973,68 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="10" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="D4" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="G4" s="37" t="s">
+        <v>305</v>
+      </c>
+      <c r="H4" s="4" t="s">
         <v>306</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>307</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>308</v>
-      </c>
-      <c r="G4" s="38" t="s">
-        <v>311</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>312</v>
       </c>
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="10" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
-      <c r="G5" s="38"/>
+      <c r="G5" s="37"/>
       <c r="H5" s="4"/>
       <c r="I5" s="4" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="49" t="s">
-        <v>447</v>
-      </c>
-      <c r="B6" s="49" t="s">
-        <v>448</v>
+      <c r="A6" s="48" t="s">
+        <v>441</v>
+      </c>
+      <c r="B6" s="48" t="s">
+        <v>442</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
-      <c r="G6" s="38"/>
+      <c r="G6" s="37"/>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
@@ -5016,22 +5057,22 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="19.6640625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="27.44140625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="8.44140625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="16.33203125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="14.33203125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="19.6640625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="18.0" collapsed="true"/>
-    <col min="8" max="10" customWidth="true" width="12.6640625" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="12.5546875" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="11.88671875" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" width="15.6640625" collapsed="true"/>
-    <col min="14" max="14" customWidth="true" width="15.88671875" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" width="20.33203125" collapsed="true"/>
-    <col min="16" max="17" customWidth="true" width="15.88671875" collapsed="true"/>
-    <col min="18" max="18" customWidth="true" width="13.33203125" collapsed="true"/>
-    <col min="19" max="19" customWidth="true" width="20.44140625" collapsed="true"/>
+    <col min="1" max="1" width="19.6640625" customWidth="1"/>
+    <col min="2" max="2" width="27.44140625" customWidth="1"/>
+    <col min="3" max="3" width="8.44140625" customWidth="1"/>
+    <col min="4" max="4" width="16.33203125" customWidth="1"/>
+    <col min="5" max="5" width="14.33203125" customWidth="1"/>
+    <col min="6" max="6" width="19.6640625" customWidth="1"/>
+    <col min="7" max="7" width="18" customWidth="1"/>
+    <col min="8" max="10" width="12.6640625" customWidth="1"/>
+    <col min="11" max="11" width="12.5546875" customWidth="1"/>
+    <col min="12" max="12" width="11.88671875" customWidth="1"/>
+    <col min="13" max="13" width="15.6640625" customWidth="1"/>
+    <col min="14" max="14" width="15.88671875" customWidth="1"/>
+    <col min="15" max="15" width="20.33203125" customWidth="1"/>
+    <col min="16" max="17" width="15.88671875" customWidth="1"/>
+    <col min="18" max="18" width="13.33203125" customWidth="1"/>
+    <col min="19" max="19" width="20.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19">
@@ -5045,63 +5086,63 @@
         <v>11</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>31</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="O1" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="P1" s="3" t="s">
         <v>373</v>
       </c>
-      <c r="P1" s="3" t="s">
-        <v>379</v>
-      </c>
       <c r="Q1" s="3" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="R1" s="3" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="S1" s="3" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:19">
-      <c r="A2" s="45" t="s">
-        <v>328</v>
+      <c r="A2" s="44" t="s">
+        <v>322</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
@@ -5111,7 +5152,7 @@
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
       <c r="K2" s="4" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="L2" s="4"/>
       <c r="M2" s="4"/>
@@ -5123,128 +5164,128 @@
       <c r="S2" s="4"/>
     </row>
     <row r="3" spans="1:19">
-      <c r="A3" s="45" t="s">
-        <v>329</v>
+      <c r="A3" s="44" t="s">
+        <v>323</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="I3" s="4"/>
       <c r="J3" s="4" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="M3" s="4" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="N3" s="4" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="O3" s="4" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="P3" s="4" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="Q3" s="4" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="R3" s="4" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="S3" s="4"/>
     </row>
     <row r="4" spans="1:19">
-      <c r="A4" s="45" t="s">
-        <v>330</v>
+      <c r="A4" s="44" t="s">
+        <v>324</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
       <c r="F4" s="4" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="I4" s="4"/>
       <c r="J4" s="4" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="K4" s="4"/>
       <c r="L4" s="4" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="M4" s="4" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="N4" s="4" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="O4" s="4" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="P4" s="4" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="Q4" s="4" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="R4" s="4"/>
       <c r="S4" s="4"/>
     </row>
     <row r="5" spans="1:19">
-      <c r="A5" s="45" t="s">
-        <v>331</v>
+      <c r="A5" s="44" t="s">
+        <v>325</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
@@ -5260,32 +5301,32 @@
       <c r="S5" s="4"/>
     </row>
     <row r="6" spans="1:19">
-      <c r="A6" s="45" t="s">
-        <v>332</v>
+      <c r="A6" s="44" t="s">
+        <v>326</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="F6" s="4" t="s">
+        <v>378</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>383</v>
+      </c>
+      <c r="I6" s="4" t="s">
         <v>384</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>353</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>389</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>390</v>
       </c>
       <c r="J6" s="4"/>
       <c r="K6" s="4"/>
@@ -5299,14 +5340,14 @@
       <c r="S6" s="4"/>
     </row>
     <row r="7" spans="1:19">
-      <c r="A7" s="45" t="s">
-        <v>333</v>
+      <c r="A7" s="44" t="s">
+        <v>327</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
@@ -5326,14 +5367,14 @@
       <c r="S7" s="4"/>
     </row>
     <row r="8" spans="1:19">
-      <c r="A8" s="45" t="s">
-        <v>334</v>
+      <c r="A8" s="44" t="s">
+        <v>328</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
@@ -5350,38 +5391,38 @@
       <c r="P8" s="4"/>
       <c r="Q8" s="4"/>
       <c r="R8" s="4" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="S8" s="4" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
     </row>
     <row r="9" spans="1:19">
-      <c r="A9" s="42" t="s">
-        <v>335</v>
-      </c>
-      <c r="B9" s="43" t="s">
-        <v>344</v>
+      <c r="A9" s="41" t="s">
+        <v>329</v>
+      </c>
+      <c r="B9" s="42" t="s">
+        <v>338</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>252</v>
-      </c>
-      <c r="D9" s="44"/>
-      <c r="E9" s="44"/>
-      <c r="F9" s="44"/>
-      <c r="G9" s="44"/>
-      <c r="H9" s="44"/>
-      <c r="I9" s="44"/>
-      <c r="J9" s="44"/>
-      <c r="K9" s="44"/>
-      <c r="L9" s="44"/>
-      <c r="M9" s="44"/>
-      <c r="N9" s="44"/>
-      <c r="O9" s="44"/>
-      <c r="P9" s="44"/>
-      <c r="Q9" s="44"/>
-      <c r="R9" s="44"/>
-      <c r="S9" s="44"/>
+        <v>246</v>
+      </c>
+      <c r="D9" s="43"/>
+      <c r="E9" s="43"/>
+      <c r="F9" s="43"/>
+      <c r="G9" s="43"/>
+      <c r="H9" s="43"/>
+      <c r="I9" s="43"/>
+      <c r="J9" s="43"/>
+      <c r="K9" s="43"/>
+      <c r="L9" s="43"/>
+      <c r="M9" s="43"/>
+      <c r="N9" s="43"/>
+      <c r="O9" s="43"/>
+      <c r="P9" s="43"/>
+      <c r="Q9" s="43"/>
+      <c r="R9" s="43"/>
+      <c r="S9" s="43"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5398,16 +5439,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="23.109375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="21.6640625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="13.109375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="20.5546875" collapsed="true"/>
-    <col min="5" max="6" customWidth="true" width="21.33203125" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="13.33203125" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="15.33203125" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="16.6640625" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="19.77734375" collapsed="true"/>
-    <col min="11" max="12" customWidth="true" width="19.5546875" collapsed="true"/>
+    <col min="1" max="1" width="23.109375" customWidth="1"/>
+    <col min="2" max="2" width="21.6640625" customWidth="1"/>
+    <col min="3" max="3" width="13.109375" customWidth="1"/>
+    <col min="4" max="4" width="20.5546875" customWidth="1"/>
+    <col min="5" max="6" width="21.33203125" customWidth="1"/>
+    <col min="7" max="7" width="13.33203125" customWidth="1"/>
+    <col min="8" max="8" width="15.33203125" customWidth="1"/>
+    <col min="9" max="9" width="16.6640625" customWidth="1"/>
+    <col min="10" max="10" width="19.77734375" customWidth="1"/>
+    <col min="11" max="12" width="19.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -5421,76 +5462,76 @@
         <v>11</v>
       </c>
       <c r="D1" s="3" t="s">
+        <v>406</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>407</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>408</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>409</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>410</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>411</v>
+      </c>
+      <c r="J1" s="3" t="s">
         <v>412</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="K1" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" s="44" t="s">
+        <v>390</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>391</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>413</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="E2" s="4" t="s">
         <v>414</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="F2" s="4" t="s">
         <v>415</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="G2" s="4" t="s">
         <v>416</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="H2" s="4" t="s">
         <v>417</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="I2" s="4" t="s">
         <v>418</v>
       </c>
-      <c r="K1" s="3" t="s">
-        <v>444</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12">
-      <c r="A2" s="45" t="s">
-        <v>396</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>397</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>292</v>
-      </c>
-      <c r="D2" s="4" t="s">
+      <c r="J2" s="4" t="s">
         <v>419</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>420</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>421</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>422</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>423</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>424</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>425</v>
       </c>
       <c r="K2" s="4"/>
       <c r="L2" s="4"/>
     </row>
     <row r="3" spans="1:12">
-      <c r="A3" s="45" t="s">
-        <v>398</v>
+      <c r="A3" s="44" t="s">
+        <v>392</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
@@ -5503,14 +5544,14 @@
       <c r="L3" s="4"/>
     </row>
     <row r="4" spans="1:12">
-      <c r="A4" s="45" t="s">
+      <c r="A4" s="44" t="s">
+        <v>394</v>
+      </c>
+      <c r="B4" s="10" t="s">
         <v>400</v>
       </c>
-      <c r="B4" s="10" t="s">
-        <v>406</v>
-      </c>
       <c r="C4" s="4" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
@@ -5523,14 +5564,14 @@
       <c r="L4" s="4"/>
     </row>
     <row r="5" spans="1:12">
-      <c r="A5" s="45" t="s">
+      <c r="A5" s="44" t="s">
+        <v>395</v>
+      </c>
+      <c r="B5" s="10" t="s">
         <v>401</v>
       </c>
-      <c r="B5" s="10" t="s">
-        <v>407</v>
-      </c>
       <c r="C5" s="4" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
@@ -5543,14 +5584,14 @@
       <c r="L5" s="4"/>
     </row>
     <row r="6" spans="1:12">
-      <c r="A6" s="45" t="s">
+      <c r="A6" s="44" t="s">
+        <v>396</v>
+      </c>
+      <c r="B6" s="10" t="s">
         <v>402</v>
       </c>
-      <c r="B6" s="10" t="s">
-        <v>408</v>
-      </c>
       <c r="C6" s="4" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
@@ -5563,14 +5604,14 @@
       <c r="L6" s="4"/>
     </row>
     <row r="7" spans="1:12">
-      <c r="A7" s="45" t="s">
+      <c r="A7" s="44" t="s">
+        <v>397</v>
+      </c>
+      <c r="B7" s="10" t="s">
         <v>403</v>
       </c>
-      <c r="B7" s="10" t="s">
-        <v>409</v>
-      </c>
       <c r="C7" s="4" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
@@ -5583,14 +5624,14 @@
       <c r="L7" s="4"/>
     </row>
     <row r="8" spans="1:12">
-      <c r="A8" s="45" t="s">
+      <c r="A8" s="44" t="s">
+        <v>398</v>
+      </c>
+      <c r="B8" s="10" t="s">
         <v>404</v>
       </c>
-      <c r="B8" s="10" t="s">
-        <v>410</v>
-      </c>
       <c r="C8" s="4" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
@@ -5603,14 +5644,14 @@
       <c r="L8" s="4"/>
     </row>
     <row r="9" spans="1:12">
-      <c r="A9" s="45" t="s">
+      <c r="A9" s="44" t="s">
+        <v>399</v>
+      </c>
+      <c r="B9" s="10" t="s">
         <v>405</v>
       </c>
-      <c r="B9" s="10" t="s">
-        <v>411</v>
-      </c>
       <c r="C9" s="4" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
@@ -5623,14 +5664,14 @@
       <c r="L9" s="4"/>
     </row>
     <row r="10" spans="1:12">
-      <c r="A10" s="45" t="s">
-        <v>443</v>
+      <c r="A10" s="44" t="s">
+        <v>437</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
@@ -5640,10 +5681,10 @@
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
       <c r="K10" s="4" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="L10" s="4" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
     </row>
   </sheetData>
@@ -5662,11 +5703,11 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="5" width="19.33203125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="5" width="16.44140625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="5" width="13.6640625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="5" width="26.6640625" collapsed="true"/>
-    <col min="5" max="16384" style="5" width="8.88671875" collapsed="true"/>
+    <col min="1" max="1" width="19.33203125" style="5" customWidth="1"/>
+    <col min="2" max="2" width="16.44140625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" style="5" customWidth="1"/>
+    <col min="4" max="4" width="26.6640625" style="5" customWidth="1"/>
+    <col min="5" max="16384" width="8.88671875" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -5694,7 +5735,7 @@
         <v>5</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -5739,74 +5780,74 @@
         <v>104</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="8" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>32</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="8" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>32</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="8" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>32</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="8" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>32</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="16"/>
-      <c r="B11" s="16"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
+      <c r="A11" s="15"/>
+      <c r="B11" s="15"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -5832,19 +5873,19 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="15.33203125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="20.33203125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="5" width="9.5546875" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="5" width="13.33203125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="5" width="12.88671875" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="5" width="15.44140625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="5" width="14.5546875" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" style="5" width="16.0" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="15.109375" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="17.6640625" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="19.33203125" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="16.44140625" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" width="14.33203125" collapsed="true"/>
+    <col min="1" max="1" width="15.33203125" customWidth="1"/>
+    <col min="2" max="2" width="20.33203125" customWidth="1"/>
+    <col min="3" max="3" width="9.5546875" style="5" customWidth="1"/>
+    <col min="4" max="4" width="13.33203125" style="5" customWidth="1"/>
+    <col min="5" max="5" width="12.88671875" style="5" customWidth="1"/>
+    <col min="6" max="6" width="15.44140625" style="5" customWidth="1"/>
+    <col min="7" max="7" width="14.5546875" style="5" customWidth="1"/>
+    <col min="8" max="8" width="16" style="5" customWidth="1"/>
+    <col min="9" max="9" width="15.109375" customWidth="1"/>
+    <col min="10" max="10" width="17.6640625" customWidth="1"/>
+    <col min="11" max="11" width="19.33203125" customWidth="1"/>
+    <col min="12" max="12" width="16.44140625" customWidth="1"/>
+    <col min="13" max="13" width="14.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
@@ -6065,23 +6106,29 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="5" width="14.44140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="5" width="23.109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="5" width="20.0" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="5" width="20.33203125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="5" width="21.44140625" collapsed="true"/>
-    <col min="6" max="16384" style="5" width="8.88671875" collapsed="true"/>
+    <col min="1" max="1" width="14.44140625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="23.109375" style="5" customWidth="1"/>
+    <col min="3" max="3" width="13.109375" style="5" customWidth="1"/>
+    <col min="4" max="4" width="17.33203125" style="5" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" style="5" customWidth="1"/>
+    <col min="6" max="6" width="16" style="5" customWidth="1"/>
+    <col min="7" max="7" width="11.21875" style="5" customWidth="1"/>
+    <col min="8" max="8" width="10.21875" style="5" customWidth="1"/>
+    <col min="9" max="9" width="19.109375" style="5" customWidth="1"/>
+    <col min="10" max="10" width="14.21875" style="5" customWidth="1"/>
+    <col min="11" max="11" width="12.33203125" style="5" customWidth="1"/>
+    <col min="12" max="16384" width="8.88671875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:11">
       <c r="A1" s="3" t="s">
         <v>8</v>
       </c>
@@ -6097,8 +6144,26 @@
       <c r="E1" s="3" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="3" t="s">
+        <v>492</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>493</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>494</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>495</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>496</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="10" t="s">
         <v>34</v>
       </c>
@@ -6110,8 +6175,14 @@
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="10" t="s">
         <v>34</v>
       </c>
@@ -6125,8 +6196,14 @@
         <v>38</v>
       </c>
       <c r="E3" s="4"/>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="10" t="s">
         <v>40</v>
       </c>
@@ -6142,9 +6219,75 @@
       <c r="E4" s="4" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="E5" s="15"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="10" t="s">
+        <v>490</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>491</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4" t="s">
+        <v>498</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>499</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>500</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>501</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>502</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="10" t="s">
+        <v>505</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>504</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="10"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6155,24 +6298,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="5" width="23.33203125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="5" width="37.109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="5" width="14.44140625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="5" width="16.6640625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="5" width="26.21875" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="5" width="22.6640625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="5" width="15.77734375" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" style="5" width="15.44140625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" style="5" width="20.44140625" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" style="5" width="15.33203125" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" style="5" width="10.34375" collapsed="true"/>
-    <col min="12" max="16384" style="5" width="8.88671875" collapsed="true"/>
+    <col min="1" max="1" width="23.33203125" style="5" customWidth="1"/>
+    <col min="2" max="2" width="37.109375" style="5" customWidth="1"/>
+    <col min="3" max="3" width="14.44140625" style="5" customWidth="1"/>
+    <col min="4" max="4" width="16.6640625" style="5" customWidth="1"/>
+    <col min="5" max="5" width="22.44140625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="22.6640625" style="5" customWidth="1"/>
+    <col min="7" max="7" width="15.77734375" style="5" customWidth="1"/>
+    <col min="8" max="8" width="13.5546875" style="5" customWidth="1"/>
+    <col min="9" max="9" width="20.44140625" style="5" customWidth="1"/>
+    <col min="10" max="10" width="15.33203125" style="5" customWidth="1"/>
+    <col min="11" max="11" width="9.5546875" style="5" customWidth="1"/>
+    <col min="12" max="16384" width="8.88671875" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -6186,28 +6329,28 @@
         <v>11</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>478</v>
+        <v>472</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>495</v>
+        <v>489</v>
       </c>
     </row>
     <row r="2" spans="1:11">
@@ -6221,7 +6364,7 @@
         <v>120</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>479</v>
+        <v>473</v>
       </c>
       <c r="E2" s="12" t="s">
         <v>54</v>
@@ -6239,26 +6382,26 @@
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="11" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>479</v>
+        <v>473</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="F3" s="12"/>
       <c r="G3" s="12" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
       <c r="H3" s="12" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="I3" s="12" t="s">
         <v>55</v>
@@ -6270,13 +6413,13 @@
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="11" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="D4" s="12"/>
       <c r="E4" s="12"/>
@@ -6289,26 +6432,26 @@
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="11" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
       <c r="E5" s="12"/>
       <c r="F5" s="12" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="G5" s="12" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
       <c r="H5" s="12" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="I5" s="12" t="s">
         <v>55</v>
@@ -6320,22 +6463,22 @@
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="11" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="G6" s="12"/>
       <c r="H6" s="12"/>
@@ -6349,13 +6492,13 @@
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="11" t="s">
+        <v>456</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>460</v>
+      </c>
+      <c r="C7" s="12" t="s">
         <v>462</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>466</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>468</v>
       </c>
       <c r="D7" s="12"/>
       <c r="E7" s="12"/>
@@ -6364,19 +6507,17 @@
       <c r="H7" s="12"/>
       <c r="I7" s="12"/>
       <c r="J7" s="12"/>
-      <c r="K7" s="12" t="s">
-        <v>497</v>
-      </c>
+      <c r="K7" s="12"/>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="11" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="D8" s="12"/>
       <c r="E8" s="12"/>
@@ -6402,9 +6543,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="19.109375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="21.109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="17.6640625" collapsed="true"/>
+    <col min="1" max="1" width="19.109375" customWidth="1"/>
+    <col min="2" max="2" width="21.109375" customWidth="1"/>
+    <col min="3" max="3" width="17.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -6499,20 +6640,20 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="5" width="18.109375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="5" width="23.6640625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="5" width="9.5546875" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="5" width="24.33203125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="5" width="23.6640625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="5" width="15.6640625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="5" width="15.5546875" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" style="5" width="14.88671875" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" style="5" width="26.33203125" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" style="5" width="13.5546875" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" style="5" width="19.33203125" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" style="5" width="16.44140625" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" style="5" width="20.5546875" collapsed="true"/>
-    <col min="14" max="16384" style="5" width="8.88671875" collapsed="true"/>
+    <col min="1" max="1" width="18.109375" style="5" customWidth="1"/>
+    <col min="2" max="2" width="23.6640625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="9.5546875" style="5" customWidth="1"/>
+    <col min="4" max="4" width="24.33203125" style="5" customWidth="1"/>
+    <col min="5" max="5" width="23.6640625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="15.6640625" style="5" customWidth="1"/>
+    <col min="7" max="7" width="15.5546875" style="5" customWidth="1"/>
+    <col min="8" max="8" width="14.88671875" style="5" customWidth="1"/>
+    <col min="9" max="9" width="26.33203125" style="5" customWidth="1"/>
+    <col min="10" max="10" width="13.5546875" style="5" customWidth="1"/>
+    <col min="11" max="11" width="19.33203125" style="5" customWidth="1"/>
+    <col min="12" max="12" width="16.44140625" style="5" customWidth="1"/>
+    <col min="13" max="13" width="20.5546875" style="5" customWidth="1"/>
+    <col min="14" max="16384" width="8.88671875" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="14" customFormat="1">
@@ -6698,9 +6839,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="14.6640625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="18.5546875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="17.5546875" collapsed="true"/>
+    <col min="1" max="1" width="14.6640625" customWidth="1"/>
+    <col min="2" max="2" width="18.5546875" customWidth="1"/>
+    <col min="3" max="3" width="17.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -6795,28 +6936,28 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="15.88671875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="18.109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="10.33203125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="20.6640625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="19.5546875" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="17.33203125" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="23.33203125" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="26.6640625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="27.33203125" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="18.33203125" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="29.44140625" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="16.6640625" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" width="17.33203125" collapsed="true"/>
-    <col min="14" max="14" customWidth="true" width="16.33203125" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" width="14.33203125" collapsed="true"/>
-    <col min="16" max="16" customWidth="true" width="15.5546875" collapsed="true"/>
-    <col min="17" max="17" customWidth="true" width="12.6640625" collapsed="true"/>
-    <col min="18" max="18" customWidth="true" width="13.33203125" collapsed="true"/>
-    <col min="19" max="19" customWidth="true" width="19.5546875" collapsed="true"/>
-    <col min="20" max="20" customWidth="true" width="13.33203125" collapsed="true"/>
-    <col min="21" max="21" customWidth="true" width="13.6640625" collapsed="true"/>
-    <col min="22" max="22" customWidth="true" style="30" width="14.44140625" collapsed="true"/>
+    <col min="1" max="1" width="15.88671875" customWidth="1"/>
+    <col min="2" max="2" width="18.109375" customWidth="1"/>
+    <col min="3" max="3" width="10.33203125" customWidth="1"/>
+    <col min="4" max="4" width="20.6640625" customWidth="1"/>
+    <col min="5" max="5" width="19.5546875" customWidth="1"/>
+    <col min="6" max="6" width="17.33203125" customWidth="1"/>
+    <col min="7" max="7" width="23.33203125" customWidth="1"/>
+    <col min="8" max="8" width="26.6640625" customWidth="1"/>
+    <col min="9" max="9" width="27.33203125" customWidth="1"/>
+    <col min="10" max="10" width="18.33203125" customWidth="1"/>
+    <col min="11" max="11" width="29.44140625" customWidth="1"/>
+    <col min="12" max="12" width="16.6640625" customWidth="1"/>
+    <col min="13" max="13" width="17.33203125" customWidth="1"/>
+    <col min="14" max="14" width="16.33203125" customWidth="1"/>
+    <col min="15" max="15" width="14.33203125" customWidth="1"/>
+    <col min="16" max="16" width="15.5546875" customWidth="1"/>
+    <col min="17" max="17" width="12.6640625" customWidth="1"/>
+    <col min="18" max="18" width="13.33203125" customWidth="1"/>
+    <col min="19" max="19" width="19.5546875" customWidth="1"/>
+    <col min="20" max="20" width="13.33203125" customWidth="1"/>
+    <col min="21" max="21" width="13.6640625" customWidth="1"/>
+    <col min="22" max="22" width="14.44140625" style="29" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" s="14" customFormat="1">
@@ -6842,10 +6983,10 @@
         <v>83</v>
       </c>
       <c r="H1" s="13" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="I1" s="13" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="J1" s="13" t="s">
         <v>84</v>
@@ -6863,39 +7004,39 @@
         <v>88</v>
       </c>
       <c r="O1" s="13" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="P1" s="13" t="s">
         <v>89</v>
       </c>
       <c r="Q1" s="13" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="R1" s="13" t="s">
+        <v>216</v>
+      </c>
+      <c r="S1" s="13" t="s">
+        <v>217</v>
+      </c>
+      <c r="T1" s="13" t="s">
         <v>221</v>
       </c>
-      <c r="S1" s="13" t="s">
-        <v>222</v>
-      </c>
-      <c r="T1" s="13" t="s">
-        <v>226</v>
-      </c>
       <c r="U1" s="13" t="s">
-        <v>223</v>
-      </c>
-      <c r="V1" s="28" t="s">
-        <v>224</v>
+        <v>218</v>
+      </c>
+      <c r="V1" s="27" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="2" spans="1:22" s="5" customFormat="1">
       <c r="A2" s="10" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="D2" s="12" t="s">
         <v>90</v>
@@ -6904,54 +7045,54 @@
         <v>90</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="G2" s="12" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="H2" s="12" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="I2" s="12" t="s">
+        <v>203</v>
+      </c>
+      <c r="J2" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="K2" s="12" t="s">
         <v>208</v>
-      </c>
-      <c r="J2" s="12" t="s">
-        <v>218</v>
-      </c>
-      <c r="K2" s="12" t="s">
-        <v>213</v>
       </c>
       <c r="L2" s="12" t="s">
         <v>95</v>
       </c>
       <c r="M2" s="12" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="N2" s="12" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="O2" s="12" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="P2" s="12" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="Q2" s="12"/>
       <c r="R2" s="12"/>
       <c r="S2" s="12"/>
       <c r="T2" s="12"/>
       <c r="U2" s="12"/>
-      <c r="V2" s="29"/>
+      <c r="V2" s="28"/>
     </row>
     <row r="3" spans="1:22" s="5" customFormat="1">
       <c r="A3" s="10" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="D3" s="12"/>
       <c r="E3" s="12"/>
@@ -6971,17 +7112,17 @@
       <c r="S3" s="12"/>
       <c r="T3" s="12"/>
       <c r="U3" s="12"/>
-      <c r="V3" s="29"/>
+      <c r="V3" s="28"/>
     </row>
     <row r="4" spans="1:22" s="5" customFormat="1">
       <c r="A4" s="10" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="D4" s="12"/>
       <c r="E4" s="12"/>
@@ -7001,17 +7142,17 @@
       <c r="S4" s="12"/>
       <c r="T4" s="12"/>
       <c r="U4" s="12"/>
-      <c r="V4" s="29"/>
+      <c r="V4" s="28"/>
     </row>
     <row r="5" spans="1:22" s="5" customFormat="1">
       <c r="A5" s="10" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="D5" s="12" t="s">
         <v>90</v>
@@ -7020,54 +7161,54 @@
         <v>90</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="G5" s="12" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="H5" s="12" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="I5" s="12" t="s">
+        <v>203</v>
+      </c>
+      <c r="J5" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="K5" s="12" t="s">
         <v>208</v>
-      </c>
-      <c r="J5" s="12" t="s">
-        <v>218</v>
-      </c>
-      <c r="K5" s="12" t="s">
-        <v>213</v>
       </c>
       <c r="L5" s="12" t="s">
         <v>95</v>
       </c>
       <c r="M5" s="12" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="N5" s="12" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="O5" s="12" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="P5" s="12" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="Q5" s="12"/>
       <c r="R5" s="12"/>
       <c r="S5" s="12"/>
       <c r="T5" s="12"/>
       <c r="U5" s="12"/>
-      <c r="V5" s="29"/>
+      <c r="V5" s="28"/>
     </row>
     <row r="6" spans="1:22" s="5" customFormat="1">
       <c r="A6" s="10" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="D6" s="12"/>
       <c r="E6" s="12"/>
@@ -7086,19 +7227,19 @@
         <v>95</v>
       </c>
       <c r="R6" s="12" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="S6" s="12" t="s">
         <v>96</v>
       </c>
       <c r="T6" s="12" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="U6" s="12" t="s">
-        <v>228</v>
-      </c>
-      <c r="V6" s="29" t="s">
-        <v>229</v>
+        <v>223</v>
+      </c>
+      <c r="V6" s="28" t="s">
+        <v>224</v>
       </c>
     </row>
   </sheetData>

--- a/KULS_Sankar/TestData/ijaraTestData.xlsx
+++ b/KULS_Sankar/TestData/ijaraTestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="72" windowWidth="23256" windowHeight="12600"/>
+    <workbookView xWindow="0" yWindow="72" windowWidth="23256" windowHeight="12600" firstSheet="11" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="AllFeaturesAutomationInfo" sheetId="8" r:id="rId1"/>
@@ -21,13 +21,14 @@
     <sheet name="TW_AppData_CustomerDetails" sheetId="12" r:id="rId12"/>
     <sheet name="MU_AppData_Income" sheetId="13" r:id="rId13"/>
     <sheet name="MU_DataCheck_EmpDetails" sheetId="14" r:id="rId14"/>
+    <sheet name="TW_Offering_OfferDetails" sheetId="15" r:id="rId15"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1118" uniqueCount="513">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1143" uniqueCount="524">
   <si>
     <t>UserName</t>
   </si>
@@ -210,9 +211,6 @@
   </si>
   <si>
     <t>DS_AT_INCD_01</t>
-  </si>
-  <si>
-    <t>0343</t>
   </si>
   <si>
     <t>DS_AT_INCD_02</t>
@@ -1599,6 +1597,42 @@
   </si>
   <si>
     <t>TW_AppData_IdentificationDetails.feature</t>
+  </si>
+  <si>
+    <t>DS_AT_UNW_004</t>
+  </si>
+  <si>
+    <t>AT_UNW_004</t>
+  </si>
+  <si>
+    <t>Deviation_Amount</t>
+  </si>
+  <si>
+    <t>Deviation_Tenure</t>
+  </si>
+  <si>
+    <t>50000</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>3129</t>
+  </si>
+  <si>
+    <t>Tawaruh -- Offering</t>
+  </si>
+  <si>
+    <t>userType09</t>
+  </si>
+  <si>
+    <t>AT_TW_OFO_12</t>
+  </si>
+  <si>
+    <t>DS_AT_TW_OFO_12</t>
+  </si>
+  <si>
+    <t>3841</t>
   </si>
 </sst>
 </file>
@@ -1935,12 +1969,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1958,6 +1986,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2257,9 +2291,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F17" sqref="F17"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G92" sqref="G92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2280,156 +2314,156 @@
   <sheetData>
     <row r="1" spans="1:12" s="20" customFormat="1">
       <c r="A1" s="23" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B1" s="23" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C1" s="23" t="s">
+        <v>123</v>
+      </c>
+      <c r="D1" s="25" t="s">
+        <v>166</v>
+      </c>
+      <c r="E1" s="25" t="s">
+        <v>145</v>
+      </c>
+      <c r="F1" s="17" t="s">
         <v>124</v>
       </c>
-      <c r="D1" s="25" t="s">
-        <v>167</v>
-      </c>
-      <c r="E1" s="25" t="s">
-        <v>146</v>
-      </c>
-      <c r="F1" s="17" t="s">
+      <c r="G1" s="17" t="s">
+        <v>126</v>
+      </c>
+      <c r="H1" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="I1" s="19" t="s">
+        <v>129</v>
+      </c>
+      <c r="J1" s="19" t="s">
+        <v>128</v>
+      </c>
+      <c r="K1" s="17" t="s">
         <v>125</v>
       </c>
-      <c r="G1" s="17" t="s">
-        <v>127</v>
-      </c>
-      <c r="H1" s="18" t="s">
-        <v>128</v>
-      </c>
-      <c r="I1" s="19" t="s">
+      <c r="L1" s="18" t="s">
         <v>130</v>
       </c>
-      <c r="J1" s="19" t="s">
-        <v>129</v>
-      </c>
-      <c r="K1" s="17" t="s">
-        <v>126</v>
-      </c>
-      <c r="L1" s="18" t="s">
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" s="63" t="s">
+        <v>173</v>
+      </c>
+      <c r="B2" s="63" t="s">
+        <v>233</v>
+      </c>
+      <c r="C2" s="57" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
-      <c r="A2" s="57" t="s">
-        <v>174</v>
-      </c>
-      <c r="B2" s="57" t="s">
-        <v>234</v>
-      </c>
-      <c r="C2" s="59" t="s">
-        <v>132</v>
-      </c>
       <c r="D2" s="26" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E2" s="21" t="s">
         <v>12</v>
       </c>
       <c r="F2" s="26" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G2" s="26" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H2" s="26" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I2" s="26" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="J2" s="26" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="K2" s="26"/>
       <c r="L2" s="26"/>
     </row>
     <row r="3" spans="1:12">
-      <c r="A3" s="57"/>
-      <c r="B3" s="57"/>
-      <c r="C3" s="60"/>
+      <c r="A3" s="63"/>
+      <c r="B3" s="63"/>
+      <c r="C3" s="58"/>
       <c r="D3" s="26" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E3" s="21" t="s">
         <v>22</v>
       </c>
       <c r="F3" s="26" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G3" s="26" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H3" s="26" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I3" s="26" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="J3" s="26" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="K3" s="26"/>
       <c r="L3" s="26"/>
     </row>
     <row r="4" spans="1:12">
-      <c r="A4" s="57"/>
-      <c r="B4" s="57"/>
-      <c r="C4" s="60"/>
+      <c r="A4" s="63"/>
+      <c r="B4" s="63"/>
+      <c r="C4" s="58"/>
       <c r="D4" s="26" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E4" s="21" t="s">
         <v>28</v>
       </c>
       <c r="F4" s="26" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G4" s="26" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H4" s="26" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I4" s="26" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="J4" s="26" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="K4" s="26"/>
       <c r="L4" s="26"/>
     </row>
     <row r="5" spans="1:12">
-      <c r="A5" s="57"/>
-      <c r="B5" s="57"/>
-      <c r="C5" s="61"/>
+      <c r="A5" s="63"/>
+      <c r="B5" s="63"/>
+      <c r="C5" s="59"/>
       <c r="D5" s="26" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E5" s="21" t="s">
         <v>20</v>
       </c>
       <c r="F5" s="26" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G5" s="26" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H5" s="26" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I5" s="26" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="J5" s="26" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="K5" s="26"/>
       <c r="L5" s="26"/>
@@ -2449,211 +2483,211 @@
       <c r="L6" s="26"/>
     </row>
     <row r="7" spans="1:12">
-      <c r="A7" s="57" t="s">
-        <v>175</v>
-      </c>
-      <c r="B7" s="57" t="s">
-        <v>156</v>
-      </c>
-      <c r="C7" s="59" t="s">
-        <v>145</v>
+      <c r="A7" s="63" t="s">
+        <v>174</v>
+      </c>
+      <c r="B7" s="63" t="s">
+        <v>155</v>
+      </c>
+      <c r="C7" s="57" t="s">
+        <v>144</v>
       </c>
       <c r="D7" s="22" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E7" s="21" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F7" s="26" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G7" s="26" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H7" s="26" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I7" s="26" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="J7" s="26" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="K7" s="26"/>
       <c r="L7" s="26"/>
     </row>
     <row r="8" spans="1:12">
-      <c r="A8" s="57"/>
-      <c r="B8" s="57"/>
-      <c r="C8" s="60"/>
+      <c r="A8" s="63"/>
+      <c r="B8" s="63"/>
+      <c r="C8" s="58"/>
       <c r="D8" s="26" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E8" s="21" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F8" s="26" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G8" s="26" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H8" s="26" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I8" s="26" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="J8" s="26" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="K8" s="26"/>
       <c r="L8" s="26"/>
     </row>
     <row r="9" spans="1:12">
-      <c r="A9" s="57"/>
-      <c r="B9" s="57"/>
-      <c r="C9" s="60"/>
+      <c r="A9" s="63"/>
+      <c r="B9" s="63"/>
+      <c r="C9" s="58"/>
       <c r="D9" s="26" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E9" s="21" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F9" s="26" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G9" s="26" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H9" s="26" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I9" s="26" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="J9" s="26" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="K9" s="26"/>
       <c r="L9" s="26"/>
     </row>
     <row r="10" spans="1:12">
-      <c r="A10" s="57"/>
-      <c r="B10" s="57"/>
-      <c r="C10" s="60"/>
+      <c r="A10" s="63"/>
+      <c r="B10" s="63"/>
+      <c r="C10" s="58"/>
       <c r="D10" s="26" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E10" s="21" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F10" s="26" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G10" s="26" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H10" s="26" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I10" s="26" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="J10" s="26" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="K10" s="26"/>
       <c r="L10" s="26"/>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="38" t="s">
+        <v>156</v>
+      </c>
+      <c r="B11" s="38" t="s">
         <v>157</v>
       </c>
-      <c r="B11" s="38" t="s">
-        <v>158</v>
-      </c>
-      <c r="C11" s="60"/>
+      <c r="C11" s="58"/>
       <c r="D11" s="26" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E11" s="21" t="s">
         <v>52</v>
       </c>
       <c r="F11" s="26" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G11" s="26" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H11" s="26" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I11" s="26" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="J11" s="26" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="K11" s="26"/>
       <c r="L11" s="26"/>
     </row>
     <row r="12" spans="1:12">
-      <c r="A12" s="57" t="s">
-        <v>174</v>
-      </c>
-      <c r="B12" s="57" t="s">
-        <v>155</v>
-      </c>
-      <c r="C12" s="60"/>
+      <c r="A12" s="63" t="s">
+        <v>173</v>
+      </c>
+      <c r="B12" s="63" t="s">
+        <v>154</v>
+      </c>
+      <c r="C12" s="58"/>
       <c r="D12" s="26" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E12" s="21" t="s">
         <v>43</v>
       </c>
       <c r="F12" s="26" t="s">
+        <v>137</v>
+      </c>
+      <c r="G12" s="26" t="s">
+        <v>137</v>
+      </c>
+      <c r="H12" s="26" t="s">
+        <v>137</v>
+      </c>
+      <c r="I12" s="26" t="s">
+        <v>137</v>
+      </c>
+      <c r="J12" s="26" t="s">
         <v>138</v>
-      </c>
-      <c r="G12" s="26" t="s">
-        <v>138</v>
-      </c>
-      <c r="H12" s="26" t="s">
-        <v>138</v>
-      </c>
-      <c r="I12" s="26" t="s">
-        <v>138</v>
-      </c>
-      <c r="J12" s="26" t="s">
-        <v>139</v>
       </c>
       <c r="K12" s="26"/>
       <c r="L12" s="26"/>
     </row>
     <row r="13" spans="1:12">
-      <c r="A13" s="57"/>
-      <c r="B13" s="57"/>
-      <c r="C13" s="61"/>
+      <c r="A13" s="63"/>
+      <c r="B13" s="63"/>
+      <c r="C13" s="59"/>
       <c r="D13" s="26" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E13" s="21" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F13" s="26" t="s">
+        <v>137</v>
+      </c>
+      <c r="G13" s="26" t="s">
+        <v>137</v>
+      </c>
+      <c r="H13" s="26" t="s">
+        <v>137</v>
+      </c>
+      <c r="I13" s="26" t="s">
+        <v>137</v>
+      </c>
+      <c r="J13" s="26" t="s">
         <v>138</v>
-      </c>
-      <c r="G13" s="26" t="s">
-        <v>138</v>
-      </c>
-      <c r="H13" s="26" t="s">
-        <v>138</v>
-      </c>
-      <c r="I13" s="26" t="s">
-        <v>138</v>
-      </c>
-      <c r="J13" s="26" t="s">
-        <v>139</v>
       </c>
       <c r="K13" s="26"/>
       <c r="L13" s="26"/>
@@ -2673,175 +2707,175 @@
       <c r="L14" s="26"/>
     </row>
     <row r="15" spans="1:12">
-      <c r="A15" s="57" t="s">
-        <v>176</v>
-      </c>
-      <c r="B15" s="57" t="s">
+      <c r="A15" s="63" t="s">
+        <v>175</v>
+      </c>
+      <c r="B15" s="63" t="s">
+        <v>159</v>
+      </c>
+      <c r="C15" s="57" t="s">
+        <v>158</v>
+      </c>
+      <c r="D15" s="26" t="s">
         <v>160</v>
-      </c>
-      <c r="C15" s="59" t="s">
-        <v>159</v>
-      </c>
-      <c r="D15" s="26" t="s">
-        <v>161</v>
       </c>
       <c r="E15" s="21" t="s">
         <v>59</v>
       </c>
       <c r="F15" s="26" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G15" s="26" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H15" s="26" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I15" s="26" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="J15" s="26" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="K15" s="26"/>
       <c r="L15" s="26"/>
     </row>
     <row r="16" spans="1:12">
-      <c r="A16" s="57"/>
-      <c r="B16" s="57"/>
-      <c r="C16" s="60"/>
+      <c r="A16" s="63"/>
+      <c r="B16" s="63"/>
+      <c r="C16" s="58"/>
       <c r="D16" s="26" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E16" s="21" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F16" s="26" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G16" s="26" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H16" s="26" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I16" s="26" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="J16" s="26" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="K16" s="26"/>
       <c r="L16" s="26"/>
     </row>
     <row r="17" spans="1:12">
-      <c r="A17" s="57"/>
-      <c r="B17" s="57"/>
-      <c r="C17" s="60"/>
+      <c r="A17" s="63"/>
+      <c r="B17" s="63"/>
+      <c r="C17" s="58"/>
       <c r="D17" s="26" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E17" s="21" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F17" s="26" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G17" s="26" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H17" s="26" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I17" s="26" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="J17" s="26" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="K17" s="26"/>
       <c r="L17" s="26"/>
     </row>
     <row r="18" spans="1:12">
-      <c r="A18" s="57"/>
-      <c r="B18" s="57"/>
-      <c r="C18" s="60"/>
+      <c r="A18" s="63"/>
+      <c r="B18" s="63"/>
+      <c r="C18" s="58"/>
       <c r="D18" s="26" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E18" s="21" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F18" s="26" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G18" s="26" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H18" s="26" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I18" s="26" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="J18" s="26" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="K18" s="26"/>
       <c r="L18" s="26"/>
     </row>
     <row r="19" spans="1:12">
-      <c r="A19" s="57"/>
-      <c r="B19" s="57"/>
-      <c r="C19" s="60"/>
+      <c r="A19" s="63"/>
+      <c r="B19" s="63"/>
+      <c r="C19" s="58"/>
       <c r="D19" s="26" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E19" s="21" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F19" s="26" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G19" s="26" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H19" s="26" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I19" s="26" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="J19" s="26" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="K19" s="26"/>
       <c r="L19" s="26"/>
     </row>
     <row r="20" spans="1:12">
-      <c r="A20" s="57"/>
-      <c r="B20" s="57"/>
-      <c r="C20" s="61"/>
+      <c r="A20" s="63"/>
+      <c r="B20" s="63"/>
+      <c r="C20" s="59"/>
       <c r="D20" s="26" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E20" s="21" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F20" s="26" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G20" s="26" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H20" s="26" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I20" s="26" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="J20" s="26" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="K20" s="26"/>
       <c r="L20" s="26"/>
@@ -2861,147 +2895,147 @@
       <c r="L21" s="26"/>
     </row>
     <row r="22" spans="1:12">
-      <c r="A22" s="57" t="s">
-        <v>176</v>
-      </c>
-      <c r="B22" s="57" t="s">
-        <v>180</v>
-      </c>
-      <c r="C22" s="59" t="s">
+      <c r="A22" s="63" t="s">
+        <v>175</v>
+      </c>
+      <c r="B22" s="63" t="s">
+        <v>179</v>
+      </c>
+      <c r="C22" s="57" t="s">
+        <v>167</v>
+      </c>
+      <c r="D22" s="26" t="s">
         <v>168</v>
       </c>
-      <c r="D22" s="26" t="s">
-        <v>169</v>
-      </c>
       <c r="E22" s="21" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F22" s="26" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G22" s="26" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H22" s="26" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I22" s="26" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="J22" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="K22" s="26"/>
       <c r="L22" s="26"/>
     </row>
     <row r="23" spans="1:12">
-      <c r="A23" s="57"/>
-      <c r="B23" s="57"/>
-      <c r="C23" s="60"/>
+      <c r="A23" s="63"/>
+      <c r="B23" s="63"/>
+      <c r="C23" s="58"/>
       <c r="D23" s="26" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E23" s="21" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F23" s="26" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G23" s="26" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H23" s="26" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I23" s="26" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="J23" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="K23" s="26"/>
       <c r="L23" s="26"/>
     </row>
     <row r="24" spans="1:12">
-      <c r="A24" s="57"/>
-      <c r="B24" s="57"/>
-      <c r="C24" s="60"/>
+      <c r="A24" s="63"/>
+      <c r="B24" s="63"/>
+      <c r="C24" s="58"/>
       <c r="D24" s="26" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E24" s="21" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F24" s="26" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G24" s="26" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H24" s="26" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I24" s="26" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="J24" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="K24" s="26"/>
       <c r="L24" s="26"/>
     </row>
     <row r="25" spans="1:12">
-      <c r="A25" s="57"/>
-      <c r="B25" s="57"/>
-      <c r="C25" s="60"/>
+      <c r="A25" s="63"/>
+      <c r="B25" s="63"/>
+      <c r="C25" s="58"/>
       <c r="D25" s="26" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E25" s="21" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F25" s="26" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G25" s="26" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H25" s="26" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I25" s="26" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="J25" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="K25" s="26"/>
       <c r="L25" s="26"/>
     </row>
     <row r="26" spans="1:12">
-      <c r="A26" s="57"/>
-      <c r="B26" s="57"/>
-      <c r="C26" s="61"/>
+      <c r="A26" s="63"/>
+      <c r="B26" s="63"/>
+      <c r="C26" s="59"/>
       <c r="D26" s="26" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E26" s="21" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F26" s="26" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G26" s="26" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H26" s="26" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I26" s="26" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="J26" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="K26" s="26"/>
       <c r="L26" s="26"/>
@@ -3021,175 +3055,175 @@
       <c r="L27" s="26"/>
     </row>
     <row r="28" spans="1:12">
-      <c r="A28" s="57" t="s">
+      <c r="A28" s="63" t="s">
+        <v>177</v>
+      </c>
+      <c r="B28" s="63" t="s">
         <v>178</v>
       </c>
-      <c r="B28" s="57" t="s">
-        <v>179</v>
-      </c>
-      <c r="C28" s="59" t="s">
-        <v>177</v>
+      <c r="C28" s="57" t="s">
+        <v>176</v>
       </c>
       <c r="D28" s="26" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E28" s="21" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F28" s="26" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G28" s="26" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H28" s="26" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I28" s="26" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="J28" s="26" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="K28" s="26"/>
       <c r="L28" s="26"/>
     </row>
     <row r="29" spans="1:12">
-      <c r="A29" s="57"/>
-      <c r="B29" s="57"/>
-      <c r="C29" s="60"/>
+      <c r="A29" s="63"/>
+      <c r="B29" s="63"/>
+      <c r="C29" s="58"/>
       <c r="D29" s="26" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E29" s="21" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F29" s="26" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G29" s="26" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H29" s="26" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I29" s="26" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="J29" s="26" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="K29" s="26"/>
       <c r="L29" s="26"/>
     </row>
     <row r="30" spans="1:12">
-      <c r="A30" s="57"/>
-      <c r="B30" s="57"/>
-      <c r="C30" s="60"/>
+      <c r="A30" s="63"/>
+      <c r="B30" s="63"/>
+      <c r="C30" s="58"/>
       <c r="D30" s="26" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E30" s="21" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F30" s="26" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G30" s="26" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H30" s="26" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I30" s="26" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="J30" s="26" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="K30" s="26"/>
       <c r="L30" s="26"/>
     </row>
     <row r="31" spans="1:12">
-      <c r="A31" s="57"/>
-      <c r="B31" s="57"/>
-      <c r="C31" s="60"/>
+      <c r="A31" s="63"/>
+      <c r="B31" s="63"/>
+      <c r="C31" s="58"/>
       <c r="D31" s="26" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E31" s="21" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F31" s="26" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G31" s="26" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H31" s="26" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I31" s="26" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="J31" s="26" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="K31" s="26"/>
       <c r="L31" s="26"/>
     </row>
     <row r="32" spans="1:12">
-      <c r="A32" s="57"/>
-      <c r="B32" s="57"/>
-      <c r="C32" s="60"/>
+      <c r="A32" s="63"/>
+      <c r="B32" s="63"/>
+      <c r="C32" s="58"/>
       <c r="D32" s="26" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E32" s="21" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F32" s="26" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G32" s="26" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H32" s="26" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I32" s="26" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="J32" s="26" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="K32" s="26"/>
       <c r="L32" s="26"/>
     </row>
     <row r="33" spans="1:12">
-      <c r="A33" s="57"/>
-      <c r="B33" s="57"/>
-      <c r="C33" s="61"/>
+      <c r="A33" s="63"/>
+      <c r="B33" s="63"/>
+      <c r="C33" s="59"/>
       <c r="D33" s="26" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E33" s="21" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F33" s="26" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G33" s="26" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H33" s="26" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I33" s="26" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="J33" s="26" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="K33" s="26"/>
       <c r="L33" s="26"/>
@@ -3207,139 +3241,139 @@
       <c r="J34" s="26"/>
     </row>
     <row r="35" spans="1:12">
-      <c r="A35" s="57" t="s">
-        <v>226</v>
-      </c>
-      <c r="B35" s="57" t="s">
-        <v>180</v>
-      </c>
-      <c r="C35" s="59" t="s">
+      <c r="A35" s="63" t="s">
         <v>225</v>
       </c>
+      <c r="B35" s="63" t="s">
+        <v>179</v>
+      </c>
+      <c r="C35" s="57" t="s">
+        <v>224</v>
+      </c>
       <c r="D35" s="26" t="s">
+        <v>234</v>
+      </c>
+      <c r="E35" s="30" t="s">
+        <v>190</v>
+      </c>
+      <c r="F35" s="26" t="s">
+        <v>137</v>
+      </c>
+      <c r="G35" s="26" t="s">
+        <v>137</v>
+      </c>
+      <c r="H35" s="26" t="s">
+        <v>137</v>
+      </c>
+      <c r="I35" s="26" t="s">
+        <v>137</v>
+      </c>
+      <c r="J35" s="31" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12">
+      <c r="A36" s="63"/>
+      <c r="B36" s="63"/>
+      <c r="C36" s="58"/>
+      <c r="D36" s="26" t="s">
+        <v>169</v>
+      </c>
+      <c r="E36" s="30" t="s">
+        <v>192</v>
+      </c>
+      <c r="F36" s="26" t="s">
+        <v>137</v>
+      </c>
+      <c r="G36" s="26" t="s">
+        <v>137</v>
+      </c>
+      <c r="H36" s="26" t="s">
+        <v>137</v>
+      </c>
+      <c r="I36" s="26" t="s">
+        <v>137</v>
+      </c>
+      <c r="J36" s="31" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12">
+      <c r="A37" s="63"/>
+      <c r="B37" s="63"/>
+      <c r="C37" s="58"/>
+      <c r="D37" s="26" t="s">
+        <v>170</v>
+      </c>
+      <c r="E37" s="30" t="s">
+        <v>194</v>
+      </c>
+      <c r="F37" s="26" t="s">
+        <v>137</v>
+      </c>
+      <c r="G37" s="26" t="s">
+        <v>137</v>
+      </c>
+      <c r="H37" s="26" t="s">
+        <v>137</v>
+      </c>
+      <c r="I37" s="26" t="s">
+        <v>137</v>
+      </c>
+      <c r="J37" s="31" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12">
+      <c r="A38" s="63"/>
+      <c r="B38" s="63"/>
+      <c r="C38" s="58"/>
+      <c r="D38" s="26" t="s">
         <v>235</v>
       </c>
-      <c r="E35" s="30" t="s">
-        <v>191</v>
-      </c>
-      <c r="F35" s="26" t="s">
-        <v>138</v>
-      </c>
-      <c r="G35" s="26" t="s">
-        <v>138</v>
-      </c>
-      <c r="H35" s="26" t="s">
-        <v>138</v>
-      </c>
-      <c r="I35" s="26" t="s">
-        <v>138</v>
-      </c>
-      <c r="J35" s="31" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12">
-      <c r="A36" s="57"/>
-      <c r="B36" s="57"/>
-      <c r="C36" s="60"/>
-      <c r="D36" s="26" t="s">
-        <v>170</v>
-      </c>
-      <c r="E36" s="30" t="s">
-        <v>193</v>
-      </c>
-      <c r="F36" s="26" t="s">
-        <v>138</v>
-      </c>
-      <c r="G36" s="26" t="s">
-        <v>138</v>
-      </c>
-      <c r="H36" s="26" t="s">
-        <v>138</v>
-      </c>
-      <c r="I36" s="26" t="s">
-        <v>138</v>
-      </c>
-      <c r="J36" s="31" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12">
-      <c r="A37" s="57"/>
-      <c r="B37" s="57"/>
-      <c r="C37" s="60"/>
-      <c r="D37" s="26" t="s">
-        <v>171</v>
-      </c>
-      <c r="E37" s="30" t="s">
+      <c r="E38" s="30" t="s">
         <v>195</v>
       </c>
-      <c r="F37" s="26" t="s">
-        <v>138</v>
-      </c>
-      <c r="G37" s="26" t="s">
-        <v>138</v>
-      </c>
-      <c r="H37" s="26" t="s">
-        <v>138</v>
-      </c>
-      <c r="I37" s="26" t="s">
-        <v>138</v>
-      </c>
-      <c r="J37" s="31" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12">
-      <c r="A38" s="57"/>
-      <c r="B38" s="57"/>
-      <c r="C38" s="60"/>
-      <c r="D38" s="26" t="s">
+      <c r="F38" s="26" t="s">
+        <v>137</v>
+      </c>
+      <c r="G38" s="26" t="s">
+        <v>137</v>
+      </c>
+      <c r="H38" s="26" t="s">
+        <v>137</v>
+      </c>
+      <c r="I38" s="26" t="s">
+        <v>137</v>
+      </c>
+      <c r="J38" s="31" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12">
+      <c r="A39" s="63"/>
+      <c r="B39" s="63"/>
+      <c r="C39" s="59"/>
+      <c r="D39" s="26" t="s">
         <v>236</v>
       </c>
-      <c r="E38" s="30" t="s">
+      <c r="E39" s="30" t="s">
         <v>196</v>
       </c>
-      <c r="F38" s="26" t="s">
-        <v>138</v>
-      </c>
-      <c r="G38" s="26" t="s">
-        <v>138</v>
-      </c>
-      <c r="H38" s="26" t="s">
-        <v>138</v>
-      </c>
-      <c r="I38" s="26" t="s">
-        <v>138</v>
-      </c>
-      <c r="J38" s="31" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12">
-      <c r="A39" s="57"/>
-      <c r="B39" s="57"/>
-      <c r="C39" s="61"/>
-      <c r="D39" s="26" t="s">
-        <v>237</v>
-      </c>
-      <c r="E39" s="30" t="s">
-        <v>197</v>
-      </c>
       <c r="F39" s="26" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G39" s="26" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H39" s="26" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I39" s="26" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="J39" s="31" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="40" spans="1:12">
@@ -3355,139 +3389,139 @@
       <c r="J40" s="26"/>
     </row>
     <row r="41" spans="1:12">
-      <c r="A41" s="57" t="s">
-        <v>233</v>
-      </c>
-      <c r="B41" s="58" t="s">
-        <v>430</v>
-      </c>
-      <c r="C41" s="59" t="s">
+      <c r="A41" s="63" t="s">
+        <v>232</v>
+      </c>
+      <c r="B41" s="64" t="s">
+        <v>429</v>
+      </c>
+      <c r="C41" s="57" t="s">
+        <v>226</v>
+      </c>
+      <c r="D41" s="26" t="s">
+        <v>237</v>
+      </c>
+      <c r="E41" s="32" t="s">
         <v>227</v>
       </c>
-      <c r="D41" s="26" t="s">
+      <c r="F41" s="26" t="s">
+        <v>137</v>
+      </c>
+      <c r="G41" s="26" t="s">
+        <v>137</v>
+      </c>
+      <c r="H41" s="26" t="s">
+        <v>137</v>
+      </c>
+      <c r="I41" s="26" t="s">
+        <v>137</v>
+      </c>
+      <c r="J41" s="35" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12">
+      <c r="A42" s="63"/>
+      <c r="B42" s="63"/>
+      <c r="C42" s="58"/>
+      <c r="D42" s="26" t="s">
         <v>238</v>
       </c>
-      <c r="E41" s="32" t="s">
+      <c r="E42" s="32" t="s">
         <v>228</v>
       </c>
-      <c r="F41" s="26" t="s">
-        <v>138</v>
-      </c>
-      <c r="G41" s="26" t="s">
-        <v>138</v>
-      </c>
-      <c r="H41" s="26" t="s">
-        <v>138</v>
-      </c>
-      <c r="I41" s="26" t="s">
-        <v>138</v>
-      </c>
-      <c r="J41" s="35" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12">
-      <c r="A42" s="57"/>
-      <c r="B42" s="57"/>
-      <c r="C42" s="60"/>
-      <c r="D42" s="26" t="s">
+      <c r="F42" s="26" t="s">
+        <v>137</v>
+      </c>
+      <c r="G42" s="26" t="s">
+        <v>137</v>
+      </c>
+      <c r="H42" s="26" t="s">
+        <v>137</v>
+      </c>
+      <c r="I42" s="26" t="s">
+        <v>137</v>
+      </c>
+      <c r="J42" s="35" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12">
+      <c r="A43" s="63"/>
+      <c r="B43" s="63"/>
+      <c r="C43" s="58"/>
+      <c r="D43" s="26" t="s">
         <v>239</v>
       </c>
-      <c r="E42" s="32" t="s">
+      <c r="E43" s="32" t="s">
         <v>229</v>
       </c>
-      <c r="F42" s="26" t="s">
-        <v>138</v>
-      </c>
-      <c r="G42" s="26" t="s">
-        <v>138</v>
-      </c>
-      <c r="H42" s="26" t="s">
-        <v>138</v>
-      </c>
-      <c r="I42" s="26" t="s">
-        <v>138</v>
-      </c>
-      <c r="J42" s="35" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12">
-      <c r="A43" s="57"/>
-      <c r="B43" s="57"/>
-      <c r="C43" s="60"/>
-      <c r="D43" s="26" t="s">
-        <v>240</v>
-      </c>
-      <c r="E43" s="32" t="s">
+      <c r="F43" s="26" t="s">
+        <v>137</v>
+      </c>
+      <c r="G43" s="26" t="s">
+        <v>137</v>
+      </c>
+      <c r="H43" s="26" t="s">
+        <v>137</v>
+      </c>
+      <c r="I43" s="26" t="s">
+        <v>137</v>
+      </c>
+      <c r="J43" s="35" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12">
+      <c r="A44" s="63"/>
+      <c r="B44" s="63"/>
+      <c r="C44" s="58"/>
+      <c r="D44" s="26" t="s">
+        <v>132</v>
+      </c>
+      <c r="E44" s="32" t="s">
         <v>230</v>
       </c>
-      <c r="F43" s="26" t="s">
-        <v>138</v>
-      </c>
-      <c r="G43" s="26" t="s">
-        <v>138</v>
-      </c>
-      <c r="H43" s="26" t="s">
-        <v>138</v>
-      </c>
-      <c r="I43" s="26" t="s">
-        <v>138</v>
-      </c>
-      <c r="J43" s="35" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12">
-      <c r="A44" s="57"/>
-      <c r="B44" s="57"/>
-      <c r="C44" s="60"/>
-      <c r="D44" s="26" t="s">
+      <c r="F44" s="26" t="s">
+        <v>137</v>
+      </c>
+      <c r="G44" s="26" t="s">
+        <v>137</v>
+      </c>
+      <c r="H44" s="26" t="s">
+        <v>137</v>
+      </c>
+      <c r="I44" s="26" t="s">
+        <v>137</v>
+      </c>
+      <c r="J44" s="35" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12">
+      <c r="A45" s="63"/>
+      <c r="B45" s="63"/>
+      <c r="C45" s="59"/>
+      <c r="D45" s="33" t="s">
         <v>133</v>
       </c>
-      <c r="E44" s="32" t="s">
+      <c r="E45" s="34" t="s">
         <v>231</v>
       </c>
-      <c r="F44" s="26" t="s">
-        <v>138</v>
-      </c>
-      <c r="G44" s="26" t="s">
-        <v>138</v>
-      </c>
-      <c r="H44" s="26" t="s">
-        <v>138</v>
-      </c>
-      <c r="I44" s="26" t="s">
-        <v>138</v>
-      </c>
-      <c r="J44" s="35" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12">
-      <c r="A45" s="57"/>
-      <c r="B45" s="57"/>
-      <c r="C45" s="61"/>
-      <c r="D45" s="33" t="s">
-        <v>134</v>
-      </c>
-      <c r="E45" s="34" t="s">
-        <v>232</v>
-      </c>
       <c r="F45" s="33" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G45" s="33" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H45" s="33" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I45" s="33" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="J45" s="35" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="46" spans="1:12" s="26" customFormat="1">
@@ -3496,958 +3530,998 @@
       <c r="C46" s="38"/>
     </row>
     <row r="47" spans="1:12">
-      <c r="A47" s="57" t="s">
-        <v>233</v>
-      </c>
-      <c r="B47" s="58" t="s">
-        <v>430</v>
-      </c>
-      <c r="C47" s="62" t="s">
-        <v>266</v>
+      <c r="A47" s="63" t="s">
+        <v>232</v>
+      </c>
+      <c r="B47" s="64" t="s">
+        <v>429</v>
+      </c>
+      <c r="C47" s="60" t="s">
+        <v>265</v>
       </c>
       <c r="D47" s="35"/>
       <c r="E47" s="36" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F47" s="35" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G47" s="35" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H47" s="35" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I47" s="35" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="J47" s="35" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="48" spans="1:12">
-      <c r="A48" s="57"/>
-      <c r="B48" s="57"/>
-      <c r="C48" s="63"/>
+      <c r="A48" s="63"/>
+      <c r="B48" s="63"/>
+      <c r="C48" s="61"/>
       <c r="D48" s="26"/>
       <c r="E48" s="32" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F48" s="26" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G48" s="26" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H48" s="26" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I48" s="26" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="J48" s="35" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="49" spans="1:10">
-      <c r="A49" s="57"/>
-      <c r="B49" s="57"/>
-      <c r="C49" s="63"/>
+      <c r="A49" s="63"/>
+      <c r="B49" s="63"/>
+      <c r="C49" s="61"/>
       <c r="D49" s="26"/>
       <c r="E49" s="32" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F49" s="26" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G49" s="26" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H49" s="26" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I49" s="26" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="J49" s="35" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="50" spans="1:10">
-      <c r="A50" s="57"/>
-      <c r="B50" s="57"/>
-      <c r="C50" s="63"/>
+      <c r="A50" s="63"/>
+      <c r="B50" s="63"/>
+      <c r="C50" s="61"/>
       <c r="D50" s="26"/>
       <c r="E50" s="32" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F50" s="26" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G50" s="26" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H50" s="26" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I50" s="26" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="J50" s="35" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="51" spans="1:10">
-      <c r="A51" s="57" t="s">
-        <v>267</v>
-      </c>
-      <c r="B51" s="58" t="s">
-        <v>429</v>
-      </c>
-      <c r="C51" s="63"/>
+      <c r="A51" s="63" t="s">
+        <v>266</v>
+      </c>
+      <c r="B51" s="64" t="s">
+        <v>428</v>
+      </c>
+      <c r="C51" s="61"/>
       <c r="D51" s="26"/>
       <c r="E51" s="21" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="F51" s="26" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G51" s="26" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H51" s="26" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I51" s="26" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="J51" s="26" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="52" spans="1:10">
-      <c r="A52" s="57"/>
-      <c r="B52" s="57"/>
-      <c r="C52" s="63"/>
+      <c r="A52" s="63"/>
+      <c r="B52" s="63"/>
+      <c r="C52" s="61"/>
       <c r="D52" s="26"/>
       <c r="E52" s="21" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F52" s="26" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G52" s="26" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H52" s="26" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I52" s="26" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="J52" s="26" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="53" spans="1:10">
-      <c r="A53" s="57"/>
-      <c r="B53" s="57"/>
-      <c r="C53" s="63"/>
+      <c r="A53" s="63"/>
+      <c r="B53" s="63"/>
+      <c r="C53" s="61"/>
       <c r="D53" s="26"/>
       <c r="E53" s="21" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F53" s="26" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G53" s="26" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H53" s="26" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I53" s="26" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="J53" s="26" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="54" spans="1:10">
-      <c r="A54" s="57"/>
-      <c r="B54" s="57"/>
-      <c r="C54" s="63"/>
+      <c r="A54" s="63"/>
+      <c r="B54" s="63"/>
+      <c r="C54" s="61"/>
       <c r="D54" s="26"/>
       <c r="E54" s="21" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F54" s="26" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G54" s="26" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H54" s="26" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I54" s="26" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="J54" s="26" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="55" spans="1:10">
-      <c r="A55" s="57"/>
-      <c r="B55" s="57"/>
-      <c r="C55" s="64"/>
+      <c r="A55" s="63"/>
+      <c r="B55" s="63"/>
+      <c r="C55" s="62"/>
       <c r="D55" s="26"/>
       <c r="E55" s="21" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F55" s="26" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G55" s="26" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H55" s="26" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I55" s="26" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="J55" s="26" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="57" spans="1:10" s="47" customFormat="1" ht="28.8">
-      <c r="A57" s="57" t="s">
+      <c r="A57" s="63" t="s">
+        <v>313</v>
+      </c>
+      <c r="B57" s="46" t="s">
+        <v>430</v>
+      </c>
+      <c r="C57" s="63" t="s">
+        <v>312</v>
+      </c>
+      <c r="D57" s="55" t="s">
+        <v>316</v>
+      </c>
+      <c r="E57" s="56" t="s">
+        <v>307</v>
+      </c>
+      <c r="F57" s="55" t="s">
+        <v>137</v>
+      </c>
+      <c r="G57" s="55" t="s">
+        <v>137</v>
+      </c>
+      <c r="H57" s="55" t="s">
+        <v>137</v>
+      </c>
+      <c r="I57" s="55" t="s">
+        <v>137</v>
+      </c>
+      <c r="J57" s="55" t="s">
         <v>314</v>
       </c>
-      <c r="B57" s="46" t="s">
+    </row>
+    <row r="58" spans="1:10">
+      <c r="A58" s="63"/>
+      <c r="B58" s="64" t="s">
         <v>431</v>
       </c>
-      <c r="C57" s="57" t="s">
-        <v>313</v>
-      </c>
-      <c r="D57" s="55" t="s">
+      <c r="C58" s="63"/>
+      <c r="D58" s="26" t="s">
+        <v>318</v>
+      </c>
+      <c r="E58" s="39" t="s">
+        <v>292</v>
+      </c>
+      <c r="F58" s="26" t="s">
+        <v>137</v>
+      </c>
+      <c r="G58" s="26" t="s">
+        <v>137</v>
+      </c>
+      <c r="H58" s="26" t="s">
+        <v>137</v>
+      </c>
+      <c r="I58" s="26" t="s">
+        <v>137</v>
+      </c>
+      <c r="J58" s="26" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
+      <c r="A59" s="63"/>
+      <c r="B59" s="63"/>
+      <c r="C59" s="63"/>
+      <c r="D59" s="26" t="s">
         <v>317</v>
       </c>
-      <c r="E57" s="56" t="s">
-        <v>308</v>
-      </c>
-      <c r="F57" s="55" t="s">
-        <v>138</v>
-      </c>
-      <c r="G57" s="55" t="s">
-        <v>138</v>
-      </c>
-      <c r="H57" s="55" t="s">
-        <v>138</v>
-      </c>
-      <c r="I57" s="55" t="s">
-        <v>138</v>
-      </c>
-      <c r="J57" s="55" t="s">
+      <c r="E59" s="32" t="s">
+        <v>295</v>
+      </c>
+      <c r="F59" s="26" t="s">
+        <v>137</v>
+      </c>
+      <c r="G59" s="26" t="s">
+        <v>137</v>
+      </c>
+      <c r="H59" s="26" t="s">
+        <v>137</v>
+      </c>
+      <c r="I59" s="26" t="s">
+        <v>137</v>
+      </c>
+      <c r="J59" s="26" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="58" spans="1:10">
-      <c r="A58" s="57"/>
-      <c r="B58" s="58" t="s">
+    <row r="60" spans="1:10">
+      <c r="A60" s="63"/>
+      <c r="B60" s="63"/>
+      <c r="C60" s="63"/>
+      <c r="D60" s="26" t="s">
+        <v>319</v>
+      </c>
+      <c r="E60" s="39" t="s">
+        <v>287</v>
+      </c>
+      <c r="F60" s="26" t="s">
+        <v>137</v>
+      </c>
+      <c r="G60" s="26" t="s">
+        <v>137</v>
+      </c>
+      <c r="H60" s="26" t="s">
+        <v>137</v>
+      </c>
+      <c r="I60" s="26" t="s">
+        <v>137</v>
+      </c>
+      <c r="J60" s="26" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
+      <c r="A62" s="63" t="s">
+        <v>232</v>
+      </c>
+      <c r="B62" s="64" t="s">
         <v>432</v>
       </c>
-      <c r="C58" s="57"/>
-      <c r="D58" s="26" t="s">
-        <v>319</v>
-      </c>
-      <c r="E58" s="39" t="s">
-        <v>293</v>
-      </c>
-      <c r="F58" s="26" t="s">
-        <v>138</v>
-      </c>
-      <c r="G58" s="26" t="s">
-        <v>138</v>
-      </c>
-      <c r="H58" s="26" t="s">
-        <v>138</v>
-      </c>
-      <c r="I58" s="26" t="s">
-        <v>138</v>
-      </c>
-      <c r="J58" s="26" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10">
-      <c r="A59" s="57"/>
-      <c r="B59" s="57"/>
-      <c r="C59" s="57"/>
-      <c r="D59" s="26" t="s">
-        <v>318</v>
-      </c>
-      <c r="E59" s="32" t="s">
-        <v>296</v>
-      </c>
-      <c r="F59" s="26" t="s">
-        <v>138</v>
-      </c>
-      <c r="G59" s="26" t="s">
-        <v>138</v>
-      </c>
-      <c r="H59" s="26" t="s">
-        <v>138</v>
-      </c>
-      <c r="I59" s="26" t="s">
-        <v>138</v>
-      </c>
-      <c r="J59" s="26" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10">
-      <c r="A60" s="57"/>
-      <c r="B60" s="57"/>
-      <c r="C60" s="57"/>
-      <c r="D60" s="26" t="s">
+      <c r="C62" s="63" t="s">
         <v>320</v>
       </c>
-      <c r="E60" s="39" t="s">
-        <v>288</v>
-      </c>
-      <c r="F60" s="26" t="s">
-        <v>138</v>
-      </c>
-      <c r="G60" s="26" t="s">
-        <v>138</v>
-      </c>
-      <c r="H60" s="26" t="s">
-        <v>138</v>
-      </c>
-      <c r="I60" s="26" t="s">
-        <v>138</v>
-      </c>
-      <c r="J60" s="26" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10">
-      <c r="A62" s="57" t="s">
-        <v>233</v>
-      </c>
-      <c r="B62" s="58" t="s">
+      <c r="D62" s="26" t="s">
+        <v>355</v>
+      </c>
+      <c r="E62" s="40" t="s">
+        <v>321</v>
+      </c>
+      <c r="F62" s="26" t="s">
+        <v>137</v>
+      </c>
+      <c r="G62" s="26" t="s">
+        <v>137</v>
+      </c>
+      <c r="H62" s="26" t="s">
+        <v>137</v>
+      </c>
+      <c r="I62" s="26" t="s">
+        <v>137</v>
+      </c>
+      <c r="J62" s="26" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
+      <c r="A63" s="63"/>
+      <c r="B63" s="63"/>
+      <c r="C63" s="63"/>
+      <c r="D63" s="26" t="s">
+        <v>356</v>
+      </c>
+      <c r="E63" s="40" t="s">
+        <v>322</v>
+      </c>
+      <c r="F63" s="26" t="s">
+        <v>137</v>
+      </c>
+      <c r="G63" s="26" t="s">
+        <v>137</v>
+      </c>
+      <c r="H63" s="26" t="s">
+        <v>137</v>
+      </c>
+      <c r="I63" s="26" t="s">
+        <v>137</v>
+      </c>
+      <c r="J63" s="26" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
+      <c r="A64" s="63"/>
+      <c r="B64" s="63"/>
+      <c r="C64" s="63"/>
+      <c r="D64" s="26" t="s">
+        <v>375</v>
+      </c>
+      <c r="E64" s="40" t="s">
+        <v>323</v>
+      </c>
+      <c r="F64" s="26" t="s">
+        <v>137</v>
+      </c>
+      <c r="G64" s="26" t="s">
+        <v>137</v>
+      </c>
+      <c r="H64" s="26" t="s">
+        <v>137</v>
+      </c>
+      <c r="I64" s="26" t="s">
+        <v>137</v>
+      </c>
+      <c r="J64" s="26" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
+      <c r="A65" s="63"/>
+      <c r="B65" s="63"/>
+      <c r="C65" s="63"/>
+      <c r="D65" s="26" t="s">
+        <v>376</v>
+      </c>
+      <c r="E65" s="40" t="s">
+        <v>324</v>
+      </c>
+      <c r="F65" s="26" t="s">
+        <v>137</v>
+      </c>
+      <c r="G65" s="26" t="s">
+        <v>137</v>
+      </c>
+      <c r="H65" s="26" t="s">
+        <v>137</v>
+      </c>
+      <c r="I65" s="26" t="s">
+        <v>137</v>
+      </c>
+      <c r="J65" s="26" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
+      <c r="A66" s="63"/>
+      <c r="B66" s="63"/>
+      <c r="C66" s="63"/>
+      <c r="D66" s="26" t="s">
+        <v>384</v>
+      </c>
+      <c r="E66" s="40" t="s">
+        <v>325</v>
+      </c>
+      <c r="F66" s="26" t="s">
+        <v>137</v>
+      </c>
+      <c r="G66" s="26" t="s">
+        <v>137</v>
+      </c>
+      <c r="H66" s="26" t="s">
+        <v>137</v>
+      </c>
+      <c r="I66" s="26" t="s">
+        <v>137</v>
+      </c>
+      <c r="J66" s="26" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
+      <c r="A67" s="63"/>
+      <c r="B67" s="63"/>
+      <c r="C67" s="63"/>
+      <c r="D67" s="26" t="s">
+        <v>385</v>
+      </c>
+      <c r="E67" s="40" t="s">
+        <v>326</v>
+      </c>
+      <c r="F67" s="26" t="s">
+        <v>137</v>
+      </c>
+      <c r="G67" s="26" t="s">
+        <v>137</v>
+      </c>
+      <c r="H67" s="26" t="s">
+        <v>137</v>
+      </c>
+      <c r="I67" s="26" t="s">
+        <v>137</v>
+      </c>
+      <c r="J67" s="26" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
+      <c r="A68" s="63"/>
+      <c r="B68" s="63"/>
+      <c r="C68" s="63"/>
+      <c r="D68" s="26" t="s">
+        <v>386</v>
+      </c>
+      <c r="E68" s="40" t="s">
+        <v>327</v>
+      </c>
+      <c r="F68" s="26" t="s">
+        <v>137</v>
+      </c>
+      <c r="G68" s="26" t="s">
+        <v>137</v>
+      </c>
+      <c r="H68" s="26" t="s">
+        <v>137</v>
+      </c>
+      <c r="I68" s="26" t="s">
+        <v>137</v>
+      </c>
+      <c r="J68" s="26" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
+      <c r="A69" s="63"/>
+      <c r="B69" s="63"/>
+      <c r="C69" s="63"/>
+      <c r="D69" s="26" t="s">
+        <v>387</v>
+      </c>
+      <c r="E69" s="40" t="s">
+        <v>328</v>
+      </c>
+      <c r="F69" s="26" t="s">
+        <v>137</v>
+      </c>
+      <c r="G69" s="26" t="s">
+        <v>137</v>
+      </c>
+      <c r="H69" s="26" t="s">
+        <v>137</v>
+      </c>
+      <c r="I69" s="26" t="s">
+        <v>137</v>
+      </c>
+      <c r="J69" s="26" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
+      <c r="B71" s="64" t="s">
         <v>433</v>
       </c>
-      <c r="C62" s="57" t="s">
-        <v>321</v>
-      </c>
-      <c r="D62" s="26" t="s">
-        <v>356</v>
-      </c>
-      <c r="E62" s="40" t="s">
-        <v>322</v>
-      </c>
-      <c r="F62" s="26" t="s">
-        <v>138</v>
-      </c>
-      <c r="G62" s="26" t="s">
-        <v>138</v>
-      </c>
-      <c r="H62" s="26" t="s">
-        <v>138</v>
-      </c>
-      <c r="I62" s="26" t="s">
-        <v>138</v>
-      </c>
-      <c r="J62" s="26" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10">
-      <c r="A63" s="57"/>
-      <c r="B63" s="57"/>
-      <c r="C63" s="57"/>
-      <c r="D63" s="26" t="s">
-        <v>357</v>
-      </c>
-      <c r="E63" s="40" t="s">
-        <v>323</v>
-      </c>
-      <c r="F63" s="26" t="s">
-        <v>138</v>
-      </c>
-      <c r="G63" s="26" t="s">
-        <v>138</v>
-      </c>
-      <c r="H63" s="26" t="s">
-        <v>138</v>
-      </c>
-      <c r="I63" s="26" t="s">
-        <v>138</v>
-      </c>
-      <c r="J63" s="26" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10">
-      <c r="A64" s="57"/>
-      <c r="B64" s="57"/>
-      <c r="C64" s="57"/>
-      <c r="D64" s="26" t="s">
-        <v>376</v>
-      </c>
-      <c r="E64" s="40" t="s">
-        <v>324</v>
-      </c>
-      <c r="F64" s="26" t="s">
-        <v>138</v>
-      </c>
-      <c r="G64" s="26" t="s">
-        <v>138</v>
-      </c>
-      <c r="H64" s="26" t="s">
-        <v>138</v>
-      </c>
-      <c r="I64" s="26" t="s">
-        <v>138</v>
-      </c>
-      <c r="J64" s="26" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="65" spans="1:10">
-      <c r="A65" s="57"/>
-      <c r="B65" s="57"/>
-      <c r="C65" s="57"/>
-      <c r="D65" s="26" t="s">
-        <v>377</v>
-      </c>
-      <c r="E65" s="40" t="s">
-        <v>325</v>
-      </c>
-      <c r="F65" s="26" t="s">
-        <v>138</v>
-      </c>
-      <c r="G65" s="26" t="s">
-        <v>138</v>
-      </c>
-      <c r="H65" s="26" t="s">
-        <v>138</v>
-      </c>
-      <c r="I65" s="26" t="s">
-        <v>138</v>
-      </c>
-      <c r="J65" s="26" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="66" spans="1:10">
-      <c r="A66" s="57"/>
-      <c r="B66" s="57"/>
-      <c r="C66" s="57"/>
-      <c r="D66" s="26" t="s">
-        <v>385</v>
-      </c>
-      <c r="E66" s="40" t="s">
-        <v>326</v>
-      </c>
-      <c r="F66" s="26" t="s">
-        <v>138</v>
-      </c>
-      <c r="G66" s="26" t="s">
-        <v>138</v>
-      </c>
-      <c r="H66" s="26" t="s">
-        <v>138</v>
-      </c>
-      <c r="I66" s="26" t="s">
-        <v>138</v>
-      </c>
-      <c r="J66" s="26" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="67" spans="1:10">
-      <c r="A67" s="57"/>
-      <c r="B67" s="57"/>
-      <c r="C67" s="57"/>
-      <c r="D67" s="26" t="s">
-        <v>386</v>
-      </c>
-      <c r="E67" s="40" t="s">
-        <v>327</v>
-      </c>
-      <c r="F67" s="26" t="s">
-        <v>138</v>
-      </c>
-      <c r="G67" s="26" t="s">
-        <v>138</v>
-      </c>
-      <c r="H67" s="26" t="s">
-        <v>138</v>
-      </c>
-      <c r="I67" s="26" t="s">
-        <v>138</v>
-      </c>
-      <c r="J67" s="26" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="68" spans="1:10">
-      <c r="A68" s="57"/>
-      <c r="B68" s="57"/>
-      <c r="C68" s="57"/>
-      <c r="D68" s="26" t="s">
-        <v>387</v>
-      </c>
-      <c r="E68" s="40" t="s">
-        <v>328</v>
-      </c>
-      <c r="F68" s="26" t="s">
-        <v>138</v>
-      </c>
-      <c r="G68" s="26" t="s">
-        <v>138</v>
-      </c>
-      <c r="H68" s="26" t="s">
-        <v>138</v>
-      </c>
-      <c r="I68" s="26" t="s">
-        <v>138</v>
-      </c>
-      <c r="J68" s="26" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="69" spans="1:10">
-      <c r="A69" s="57"/>
-      <c r="B69" s="57"/>
-      <c r="C69" s="57"/>
-      <c r="D69" s="26" t="s">
-        <v>388</v>
-      </c>
-      <c r="E69" s="40" t="s">
-        <v>329</v>
-      </c>
-      <c r="F69" s="26" t="s">
-        <v>138</v>
-      </c>
-      <c r="G69" s="26" t="s">
-        <v>138</v>
-      </c>
-      <c r="H69" s="26" t="s">
-        <v>138</v>
-      </c>
-      <c r="I69" s="26" t="s">
-        <v>138</v>
-      </c>
-      <c r="J69" s="26" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="71" spans="1:10">
-      <c r="B71" s="58" t="s">
-        <v>434</v>
-      </c>
-      <c r="C71" s="57" t="s">
+      <c r="C71" s="63" t="s">
+        <v>420</v>
+      </c>
+      <c r="D71" s="26" t="s">
         <v>421</v>
       </c>
-      <c r="D71" s="26" t="s">
+      <c r="E71" s="45" t="s">
+        <v>389</v>
+      </c>
+      <c r="F71" s="26" t="s">
+        <v>137</v>
+      </c>
+      <c r="G71" s="26" t="s">
+        <v>137</v>
+      </c>
+      <c r="H71" s="26" t="s">
+        <v>137</v>
+      </c>
+      <c r="I71" s="26" t="s">
+        <v>137</v>
+      </c>
+      <c r="J71" s="26" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
+      <c r="B72" s="63"/>
+      <c r="C72" s="63"/>
+      <c r="D72" s="26" t="s">
         <v>422</v>
       </c>
-      <c r="E71" s="45" t="s">
-        <v>390</v>
-      </c>
-      <c r="F71" s="26" t="s">
-        <v>138</v>
-      </c>
-      <c r="G71" s="26" t="s">
-        <v>138</v>
-      </c>
-      <c r="H71" s="26" t="s">
-        <v>138</v>
-      </c>
-      <c r="I71" s="26" t="s">
-        <v>138</v>
-      </c>
-      <c r="J71" s="26" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="72" spans="1:10">
-      <c r="B72" s="57"/>
-      <c r="C72" s="57"/>
-      <c r="D72" s="26" t="s">
+      <c r="E72" s="45" t="s">
+        <v>391</v>
+      </c>
+      <c r="F72" s="26" t="s">
+        <v>137</v>
+      </c>
+      <c r="G72" s="26" t="s">
+        <v>137</v>
+      </c>
+      <c r="H72" s="26" t="s">
+        <v>137</v>
+      </c>
+      <c r="I72" s="26" t="s">
+        <v>137</v>
+      </c>
+      <c r="J72" s="26" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
+      <c r="B73" s="63"/>
+      <c r="C73" s="63"/>
+      <c r="D73" s="26" t="s">
         <v>423</v>
       </c>
-      <c r="E72" s="45" t="s">
-        <v>392</v>
-      </c>
-      <c r="F72" s="26" t="s">
-        <v>138</v>
-      </c>
-      <c r="G72" s="26" t="s">
-        <v>138</v>
-      </c>
-      <c r="H72" s="26" t="s">
-        <v>138</v>
-      </c>
-      <c r="I72" s="26" t="s">
-        <v>138</v>
-      </c>
-      <c r="J72" s="26" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="73" spans="1:10">
-      <c r="B73" s="57"/>
-      <c r="C73" s="57"/>
-      <c r="D73" s="26" t="s">
+      <c r="E73" s="45" t="s">
+        <v>393</v>
+      </c>
+      <c r="F73" s="26" t="s">
+        <v>137</v>
+      </c>
+      <c r="G73" s="26" t="s">
+        <v>137</v>
+      </c>
+      <c r="H73" s="26" t="s">
+        <v>137</v>
+      </c>
+      <c r="I73" s="26" t="s">
+        <v>137</v>
+      </c>
+      <c r="J73" s="26" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
+      <c r="B74" s="63"/>
+      <c r="C74" s="63"/>
+      <c r="D74" s="26" t="s">
         <v>424</v>
       </c>
-      <c r="E73" s="45" t="s">
+      <c r="E74" s="45" t="s">
         <v>394</v>
       </c>
-      <c r="F73" s="26" t="s">
-        <v>138</v>
-      </c>
-      <c r="G73" s="26" t="s">
-        <v>138</v>
-      </c>
-      <c r="H73" s="26" t="s">
-        <v>138</v>
-      </c>
-      <c r="I73" s="26" t="s">
-        <v>138</v>
-      </c>
-      <c r="J73" s="26" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="74" spans="1:10">
-      <c r="B74" s="57"/>
-      <c r="C74" s="57"/>
-      <c r="D74" s="26" t="s">
+      <c r="F74" s="26" t="s">
+        <v>137</v>
+      </c>
+      <c r="G74" s="26" t="s">
+        <v>137</v>
+      </c>
+      <c r="H74" s="26" t="s">
+        <v>137</v>
+      </c>
+      <c r="I74" s="26" t="s">
+        <v>137</v>
+      </c>
+      <c r="J74" s="26" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
+      <c r="B75" s="63"/>
+      <c r="C75" s="63"/>
+      <c r="D75" s="26" t="s">
         <v>425</v>
       </c>
-      <c r="E74" s="45" t="s">
+      <c r="E75" s="45" t="s">
         <v>395</v>
       </c>
-      <c r="F74" s="26" t="s">
-        <v>138</v>
-      </c>
-      <c r="G74" s="26" t="s">
-        <v>138</v>
-      </c>
-      <c r="H74" s="26" t="s">
-        <v>138</v>
-      </c>
-      <c r="I74" s="26" t="s">
-        <v>138</v>
-      </c>
-      <c r="J74" s="26" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="75" spans="1:10">
-      <c r="B75" s="57"/>
-      <c r="C75" s="57"/>
-      <c r="D75" s="26" t="s">
+      <c r="F75" s="26" t="s">
+        <v>137</v>
+      </c>
+      <c r="G75" s="26" t="s">
+        <v>137</v>
+      </c>
+      <c r="H75" s="26" t="s">
+        <v>137</v>
+      </c>
+      <c r="I75" s="26" t="s">
+        <v>137</v>
+      </c>
+      <c r="J75" s="26" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
+      <c r="B76" s="63"/>
+      <c r="C76" s="63"/>
+      <c r="D76" s="26" t="s">
         <v>426</v>
       </c>
-      <c r="E75" s="45" t="s">
+      <c r="E76" s="45" t="s">
         <v>396</v>
       </c>
-      <c r="F75" s="26" t="s">
-        <v>138</v>
-      </c>
-      <c r="G75" s="26" t="s">
-        <v>138</v>
-      </c>
-      <c r="H75" s="26" t="s">
-        <v>138</v>
-      </c>
-      <c r="I75" s="26" t="s">
-        <v>138</v>
-      </c>
-      <c r="J75" s="26" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="76" spans="1:10">
-      <c r="B76" s="57"/>
-      <c r="C76" s="57"/>
-      <c r="D76" s="26" t="s">
+      <c r="F76" s="26" t="s">
+        <v>137</v>
+      </c>
+      <c r="G76" s="26" t="s">
+        <v>137</v>
+      </c>
+      <c r="H76" s="26" t="s">
+        <v>137</v>
+      </c>
+      <c r="I76" s="26" t="s">
+        <v>137</v>
+      </c>
+      <c r="J76" s="26" t="s">
         <v>427</v>
       </c>
-      <c r="E76" s="45" t="s">
+    </row>
+    <row r="78" spans="1:10">
+      <c r="B78" s="64" t="s">
+        <v>433</v>
+      </c>
+      <c r="C78" s="63" t="s">
+        <v>444</v>
+      </c>
+      <c r="D78" s="26" t="s">
+        <v>445</v>
+      </c>
+      <c r="E78" s="52" t="s">
         <v>397</v>
       </c>
-      <c r="F76" s="26" t="s">
-        <v>138</v>
-      </c>
-      <c r="G76" s="26" t="s">
-        <v>138</v>
-      </c>
-      <c r="H76" s="26" t="s">
-        <v>138</v>
-      </c>
-      <c r="I76" s="26" t="s">
-        <v>138</v>
-      </c>
-      <c r="J76" s="26" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="78" spans="1:10">
-      <c r="B78" s="58" t="s">
-        <v>434</v>
-      </c>
-      <c r="C78" s="57" t="s">
-        <v>445</v>
-      </c>
-      <c r="D78" s="26" t="s">
+      <c r="F78" s="26" t="s">
+        <v>137</v>
+      </c>
+      <c r="G78" s="26" t="s">
+        <v>137</v>
+      </c>
+      <c r="H78" s="26" t="s">
+        <v>137</v>
+      </c>
+      <c r="I78" s="26" t="s">
+        <v>137</v>
+      </c>
+      <c r="J78" s="26" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
+      <c r="B79" s="63"/>
+      <c r="C79" s="63"/>
+      <c r="D79" s="26" t="s">
         <v>446</v>
       </c>
-      <c r="E78" s="52" t="s">
+      <c r="E79" s="52" t="s">
         <v>398</v>
       </c>
-      <c r="F78" s="26" t="s">
-        <v>138</v>
-      </c>
-      <c r="G78" s="26" t="s">
-        <v>138</v>
-      </c>
-      <c r="H78" s="26" t="s">
-        <v>138</v>
-      </c>
-      <c r="I78" s="26" t="s">
-        <v>138</v>
-      </c>
-      <c r="J78" s="26" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="79" spans="1:10">
-      <c r="B79" s="57"/>
-      <c r="C79" s="57"/>
-      <c r="D79" s="26" t="s">
+      <c r="F79" s="26" t="s">
+        <v>137</v>
+      </c>
+      <c r="G79" s="26" t="s">
+        <v>137</v>
+      </c>
+      <c r="H79" s="26" t="s">
+        <v>137</v>
+      </c>
+      <c r="I79" s="26" t="s">
+        <v>137</v>
+      </c>
+      <c r="J79" s="26" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
+      <c r="B80" s="63"/>
+      <c r="C80" s="63"/>
+      <c r="D80" s="26" t="s">
         <v>447</v>
       </c>
-      <c r="E79" s="52" t="s">
-        <v>399</v>
-      </c>
-      <c r="F79" s="26" t="s">
-        <v>138</v>
-      </c>
-      <c r="G79" s="26" t="s">
-        <v>138</v>
-      </c>
-      <c r="H79" s="26" t="s">
-        <v>138</v>
-      </c>
-      <c r="I79" s="26" t="s">
-        <v>138</v>
-      </c>
-      <c r="J79" s="26" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="80" spans="1:10">
-      <c r="B80" s="57"/>
-      <c r="C80" s="57"/>
-      <c r="D80" s="26" t="s">
-        <v>448</v>
-      </c>
       <c r="E80" s="52" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="F80" s="26" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G80" s="26" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H80" s="26" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I80" s="26" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="J80" s="26" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="81" spans="1:10" s="51" customFormat="1" ht="28.8">
       <c r="A81" s="50"/>
       <c r="B81" s="49" t="s">
-        <v>444</v>
-      </c>
-      <c r="C81" s="57"/>
+        <v>443</v>
+      </c>
+      <c r="C81" s="63"/>
       <c r="D81" s="22" t="s">
+        <v>448</v>
+      </c>
+      <c r="E81" s="53" t="s">
+        <v>440</v>
+      </c>
+      <c r="F81" s="22" t="s">
+        <v>137</v>
+      </c>
+      <c r="G81" s="22" t="s">
+        <v>137</v>
+      </c>
+      <c r="H81" s="22" t="s">
+        <v>137</v>
+      </c>
+      <c r="I81" s="22" t="s">
+        <v>137</v>
+      </c>
+      <c r="J81" s="54" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
+      <c r="B83" s="64" t="s">
+        <v>480</v>
+      </c>
+      <c r="C83" s="63" t="s">
+        <v>475</v>
+      </c>
+      <c r="D83" s="26" t="s">
+        <v>476</v>
+      </c>
+      <c r="E83" s="30" t="s">
         <v>449</v>
       </c>
-      <c r="E81" s="53" t="s">
-        <v>441</v>
-      </c>
-      <c r="F81" s="22" t="s">
-        <v>138</v>
-      </c>
-      <c r="G81" s="22" t="s">
-        <v>138</v>
-      </c>
-      <c r="H81" s="22" t="s">
-        <v>138</v>
-      </c>
-      <c r="I81" s="22" t="s">
-        <v>138</v>
-      </c>
-      <c r="J81" s="54" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="83" spans="1:10">
-      <c r="B83" s="58" t="s">
-        <v>481</v>
-      </c>
-      <c r="C83" s="57" t="s">
-        <v>476</v>
-      </c>
-      <c r="D83" s="26" t="s">
+      <c r="F83" s="26" t="s">
+        <v>137</v>
+      </c>
+      <c r="G83" s="26" t="s">
+        <v>137</v>
+      </c>
+      <c r="H83" s="26" t="s">
+        <v>137</v>
+      </c>
+      <c r="I83" s="26" t="s">
+        <v>137</v>
+      </c>
+      <c r="J83" s="26" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
+      <c r="B84" s="63"/>
+      <c r="C84" s="63"/>
+      <c r="D84" s="26" t="s">
         <v>477</v>
       </c>
-      <c r="E83" s="30" t="s">
-        <v>450</v>
-      </c>
-      <c r="F83" s="26" t="s">
-        <v>138</v>
-      </c>
-      <c r="G83" s="26" t="s">
-        <v>138</v>
-      </c>
-      <c r="H83" s="26" t="s">
-        <v>138</v>
-      </c>
-      <c r="I83" s="26" t="s">
-        <v>138</v>
-      </c>
-      <c r="J83" s="26" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="84" spans="1:10">
-      <c r="B84" s="57"/>
-      <c r="C84" s="57"/>
-      <c r="D84" s="26" t="s">
+      <c r="E84" s="30" t="s">
+        <v>452</v>
+      </c>
+      <c r="F84" s="26" t="s">
+        <v>137</v>
+      </c>
+      <c r="G84" s="26" t="s">
+        <v>137</v>
+      </c>
+      <c r="H84" s="26" t="s">
+        <v>137</v>
+      </c>
+      <c r="I84" s="26" t="s">
+        <v>137</v>
+      </c>
+      <c r="J84" s="26" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
+      <c r="B85" s="63"/>
+      <c r="C85" s="63"/>
+      <c r="D85" s="26" t="s">
         <v>478</v>
       </c>
-      <c r="E84" s="30" t="s">
+      <c r="E85" s="30" t="s">
         <v>453</v>
       </c>
-      <c r="F84" s="26" t="s">
-        <v>138</v>
-      </c>
-      <c r="G84" s="26" t="s">
-        <v>138</v>
-      </c>
-      <c r="H84" s="26" t="s">
-        <v>138</v>
-      </c>
-      <c r="I84" s="26" t="s">
-        <v>138</v>
-      </c>
-      <c r="J84" s="26" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="85" spans="1:10">
-      <c r="B85" s="57"/>
-      <c r="C85" s="57"/>
-      <c r="D85" s="26" t="s">
+      <c r="F85" s="26" t="s">
+        <v>137</v>
+      </c>
+      <c r="G85" s="26" t="s">
+        <v>137</v>
+      </c>
+      <c r="H85" s="26" t="s">
+        <v>137</v>
+      </c>
+      <c r="I85" s="26" t="s">
+        <v>137</v>
+      </c>
+      <c r="J85" s="26" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
+      <c r="B86" s="63"/>
+      <c r="C86" s="63"/>
+      <c r="D86" s="26" t="s">
         <v>479</v>
       </c>
-      <c r="E85" s="30" t="s">
+      <c r="E86" s="30" t="s">
         <v>454</v>
       </c>
-      <c r="F85" s="26" t="s">
-        <v>138</v>
-      </c>
-      <c r="G85" s="26" t="s">
-        <v>138</v>
-      </c>
-      <c r="H85" s="26" t="s">
-        <v>138</v>
-      </c>
-      <c r="I85" s="26" t="s">
-        <v>138</v>
-      </c>
-      <c r="J85" s="26" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="86" spans="1:10">
-      <c r="B86" s="57"/>
-      <c r="C86" s="57"/>
-      <c r="D86" s="26" t="s">
-        <v>480</v>
-      </c>
-      <c r="E86" s="30" t="s">
+      <c r="F86" s="26" t="s">
+        <v>137</v>
+      </c>
+      <c r="G86" s="26" t="s">
+        <v>137</v>
+      </c>
+      <c r="H86" s="26" t="s">
+        <v>137</v>
+      </c>
+      <c r="I86" s="26" t="s">
+        <v>137</v>
+      </c>
+      <c r="J86" s="26" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
+      <c r="B87" s="63"/>
+      <c r="C87" s="63"/>
+      <c r="D87" s="26" t="s">
+        <v>486</v>
+      </c>
+      <c r="E87" s="30" t="s">
         <v>455</v>
       </c>
-      <c r="F86" s="26" t="s">
-        <v>138</v>
-      </c>
-      <c r="G86" s="26" t="s">
-        <v>138</v>
-      </c>
-      <c r="H86" s="26" t="s">
-        <v>138</v>
-      </c>
-      <c r="I86" s="26" t="s">
-        <v>138</v>
-      </c>
-      <c r="J86" s="26" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="87" spans="1:10">
-      <c r="B87" s="57"/>
-      <c r="C87" s="57"/>
-      <c r="D87" s="26" t="s">
+      <c r="F87" s="26" t="s">
+        <v>137</v>
+      </c>
+      <c r="G87" s="26" t="s">
+        <v>137</v>
+      </c>
+      <c r="H87" s="26" t="s">
+        <v>137</v>
+      </c>
+      <c r="I87" s="26" t="s">
+        <v>137</v>
+      </c>
+      <c r="J87" s="26" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
+      <c r="B88" s="63"/>
+      <c r="C88" s="63"/>
+      <c r="D88" s="26" t="s">
         <v>487</v>
       </c>
-      <c r="E87" s="30" t="s">
+      <c r="E88" s="30" t="s">
         <v>456</v>
       </c>
-      <c r="F87" s="26"/>
-      <c r="G87" s="26"/>
-      <c r="H87" s="26"/>
-      <c r="I87" s="26"/>
-      <c r="J87" s="26" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="88" spans="1:10">
-      <c r="B88" s="57"/>
-      <c r="C88" s="57"/>
-      <c r="D88" s="26" t="s">
-        <v>488</v>
-      </c>
-      <c r="E88" s="30" t="s">
-        <v>457</v>
-      </c>
-      <c r="F88" s="26"/>
-      <c r="G88" s="26"/>
-      <c r="H88" s="26"/>
-      <c r="I88" s="26"/>
+      <c r="F88" s="26" t="s">
+        <v>137</v>
+      </c>
+      <c r="G88" s="26" t="s">
+        <v>137</v>
+      </c>
+      <c r="H88" s="26" t="s">
+        <v>137</v>
+      </c>
+      <c r="I88" s="26" t="s">
+        <v>137</v>
+      </c>
       <c r="J88" s="26" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="40">
+    <mergeCell ref="C83:C88"/>
+    <mergeCell ref="B83:B88"/>
+    <mergeCell ref="C57:C60"/>
+    <mergeCell ref="A57:A60"/>
+    <mergeCell ref="B58:B60"/>
+    <mergeCell ref="C78:C81"/>
+    <mergeCell ref="B78:B80"/>
+    <mergeCell ref="A51:A55"/>
+    <mergeCell ref="B51:B55"/>
+    <mergeCell ref="C71:C76"/>
+    <mergeCell ref="B71:B76"/>
+    <mergeCell ref="C62:C69"/>
+    <mergeCell ref="A62:A69"/>
+    <mergeCell ref="B62:B69"/>
+    <mergeCell ref="C28:C33"/>
+    <mergeCell ref="C22:C26"/>
+    <mergeCell ref="C15:C20"/>
+    <mergeCell ref="A47:A50"/>
+    <mergeCell ref="B47:B50"/>
+    <mergeCell ref="B35:B39"/>
+    <mergeCell ref="A41:A45"/>
+    <mergeCell ref="B41:B45"/>
+    <mergeCell ref="C41:C45"/>
+    <mergeCell ref="C35:C39"/>
     <mergeCell ref="C2:C5"/>
     <mergeCell ref="C47:C55"/>
     <mergeCell ref="B2:B5"/>
@@ -4464,30 +4538,6 @@
     <mergeCell ref="A22:A26"/>
     <mergeCell ref="C7:C13"/>
     <mergeCell ref="A35:A39"/>
-    <mergeCell ref="C28:C33"/>
-    <mergeCell ref="C22:C26"/>
-    <mergeCell ref="C15:C20"/>
-    <mergeCell ref="A47:A50"/>
-    <mergeCell ref="B47:B50"/>
-    <mergeCell ref="B35:B39"/>
-    <mergeCell ref="A41:A45"/>
-    <mergeCell ref="B41:B45"/>
-    <mergeCell ref="C41:C45"/>
-    <mergeCell ref="C35:C39"/>
-    <mergeCell ref="A51:A55"/>
-    <mergeCell ref="B51:B55"/>
-    <mergeCell ref="C71:C76"/>
-    <mergeCell ref="B71:B76"/>
-    <mergeCell ref="C62:C69"/>
-    <mergeCell ref="A62:A69"/>
-    <mergeCell ref="B62:B69"/>
-    <mergeCell ref="C83:C88"/>
-    <mergeCell ref="B83:B88"/>
-    <mergeCell ref="C57:C60"/>
-    <mergeCell ref="A57:A60"/>
-    <mergeCell ref="B58:B60"/>
-    <mergeCell ref="C78:C81"/>
-    <mergeCell ref="B78:B80"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4533,10 +4583,10 @@
         <v>10</v>
       </c>
       <c r="E1" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>251</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>252</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>15</v>
@@ -4548,7 +4598,7 @@
         <v>17</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="K1" s="3" t="s">
         <v>18</v>
@@ -4562,13 +4612,13 @@
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="10" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
@@ -4583,50 +4633,50 @@
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="10" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F3" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="G3" s="4" t="s">
         <v>257</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>258</v>
       </c>
       <c r="H3" s="4" t="s">
         <v>26</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="L3" s="4"/>
       <c r="M3" s="4"/>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="10" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
@@ -4641,60 +4691,60 @@
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="10" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F5" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="G5" s="4" t="s">
         <v>257</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>258</v>
       </c>
       <c r="H5" s="4" t="s">
         <v>26</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="J5" s="4"/>
       <c r="K5" s="4" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="L5" s="4"/>
       <c r="M5" s="4"/>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="10" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B6" s="10" t="s">
+        <v>244</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>245</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>246</v>
-      </c>
       <c r="D6" s="4" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
       <c r="G6" s="4" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="H6" s="4"/>
       <c r="I6" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J6" s="4"/>
       <c r="K6" s="4"/>
@@ -4703,13 +4753,13 @@
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="10" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
@@ -4724,13 +4774,13 @@
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="10" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
@@ -4741,21 +4791,21 @@
       <c r="J8" s="4"/>
       <c r="K8" s="4"/>
       <c r="L8" s="4" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="M8" s="4" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="10" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
@@ -4770,13 +4820,13 @@
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="10" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
@@ -4823,57 +4873,57 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="10" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="10" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="10" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="10" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="10" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B6" s="10" t="s">
+        <v>284</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>285</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>286</v>
       </c>
     </row>
   </sheetData>
@@ -4914,36 +4964,36 @@
         <v>11</v>
       </c>
       <c r="D1" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>297</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>298</v>
       </c>
-      <c r="F1" s="3" t="s">
-        <v>299</v>
-      </c>
       <c r="G1" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>303</v>
       </c>
-      <c r="H1" s="3" t="s">
-        <v>304</v>
-      </c>
       <c r="I1" s="3" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="10" t="s">
+        <v>292</v>
+      </c>
+      <c r="B2" s="10" t="s">
         <v>293</v>
       </c>
-      <c r="B2" s="10" t="s">
-        <v>294</v>
-      </c>
       <c r="C2" s="4" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
@@ -4955,13 +5005,13 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="10" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
@@ -4973,41 +5023,41 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="10" t="s">
+        <v>287</v>
+      </c>
+      <c r="B4" s="10" t="s">
         <v>288</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="C4" s="4" t="s">
         <v>289</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>290</v>
-      </c>
       <c r="D4" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>300</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="F4" s="4" t="s">
         <v>301</v>
       </c>
-      <c r="F4" s="4" t="s">
-        <v>302</v>
-      </c>
       <c r="G4" s="37" t="s">
+        <v>304</v>
+      </c>
+      <c r="H4" s="4" t="s">
         <v>305</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>306</v>
       </c>
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="10" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
@@ -5015,21 +5065,21 @@
       <c r="G5" s="37"/>
       <c r="H5" s="4"/>
       <c r="I5" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="J5" s="4" t="s">
         <v>311</v>
-      </c>
-      <c r="J5" s="4" t="s">
-        <v>312</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="48" t="s">
+        <v>440</v>
+      </c>
+      <c r="B6" s="48" t="s">
         <v>441</v>
       </c>
-      <c r="B6" s="48" t="s">
-        <v>442</v>
-      </c>
       <c r="C6" s="4" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
@@ -5086,49 +5136,49 @@
         <v>11</v>
       </c>
       <c r="D1" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>341</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>342</v>
       </c>
-      <c r="F1" s="3" t="s">
-        <v>330</v>
-      </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>343</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>344</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>31</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="L1" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="M1" s="3" t="s">
         <v>349</v>
       </c>
-      <c r="M1" s="3" t="s">
-        <v>350</v>
-      </c>
       <c r="N1" s="3" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="O1" s="3" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="P1" s="3" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="Q1" s="3" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="R1" s="3" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="S1" s="3" t="s">
         <v>50</v>
@@ -5136,13 +5186,13 @@
     </row>
     <row r="2" spans="1:19">
       <c r="A2" s="44" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
@@ -5152,7 +5202,7 @@
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
       <c r="K2" s="4" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="L2" s="4"/>
       <c r="M2" s="4"/>
@@ -5165,127 +5215,127 @@
     </row>
     <row r="3" spans="1:19">
       <c r="A3" s="44" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D3" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="E3" s="4" t="s">
         <v>353</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="F3" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="H3" s="4" t="s">
         <v>354</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>346</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>347</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>355</v>
       </c>
       <c r="I3" s="4"/>
       <c r="J3" s="4" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="L3" s="4" t="s">
+        <v>350</v>
+      </c>
+      <c r="M3" s="4" t="s">
         <v>351</v>
       </c>
-      <c r="M3" s="4" t="s">
-        <v>352</v>
-      </c>
       <c r="N3" s="4" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="O3" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="P3" s="4" t="s">
+        <v>368</v>
+      </c>
+      <c r="Q3" s="4" t="s">
         <v>347</v>
       </c>
-      <c r="P3" s="4" t="s">
-        <v>369</v>
-      </c>
-      <c r="Q3" s="4" t="s">
-        <v>348</v>
-      </c>
       <c r="R3" s="4" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="S3" s="4"/>
     </row>
     <row r="4" spans="1:19">
       <c r="A4" s="44" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
       <c r="F4" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="G4" s="4" t="s">
         <v>361</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="H4" s="4" t="s">
         <v>362</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>363</v>
       </c>
       <c r="I4" s="4"/>
       <c r="J4" s="4" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="K4" s="4"/>
       <c r="L4" s="4" t="s">
+        <v>373</v>
+      </c>
+      <c r="M4" s="4" t="s">
         <v>374</v>
       </c>
-      <c r="M4" s="4" t="s">
-        <v>375</v>
-      </c>
       <c r="N4" s="4" t="s">
+        <v>369</v>
+      </c>
+      <c r="O4" s="4" t="s">
         <v>370</v>
       </c>
-      <c r="O4" s="4" t="s">
+      <c r="P4" s="4" t="s">
         <v>371</v>
       </c>
-      <c r="P4" s="4" t="s">
-        <v>372</v>
-      </c>
       <c r="Q4" s="4" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="R4" s="4"/>
       <c r="S4" s="4"/>
     </row>
     <row r="5" spans="1:19">
       <c r="A5" s="44" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D5" s="4" t="s">
+        <v>378</v>
+      </c>
+      <c r="E5" s="4" t="s">
         <v>379</v>
       </c>
-      <c r="E5" s="4" t="s">
-        <v>380</v>
-      </c>
       <c r="F5" s="4" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
@@ -5302,31 +5352,31 @@
     </row>
     <row r="6" spans="1:19">
       <c r="A6" s="44" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D6" s="4" t="s">
+        <v>380</v>
+      </c>
+      <c r="E6" s="4" t="s">
         <v>381</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="F6" s="4" t="s">
+        <v>377</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="H6" s="4" t="s">
         <v>382</v>
       </c>
-      <c r="F6" s="4" t="s">
-        <v>378</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>347</v>
-      </c>
-      <c r="H6" s="4" t="s">
+      <c r="I6" s="4" t="s">
         <v>383</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>384</v>
       </c>
       <c r="J6" s="4"/>
       <c r="K6" s="4"/>
@@ -5341,13 +5391,13 @@
     </row>
     <row r="7" spans="1:19">
       <c r="A7" s="44" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
@@ -5368,13 +5418,13 @@
     </row>
     <row r="8" spans="1:19">
       <c r="A8" s="44" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
@@ -5391,21 +5441,21 @@
       <c r="P8" s="4"/>
       <c r="Q8" s="4"/>
       <c r="R8" s="4" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="S8" s="4" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="9" spans="1:19">
       <c r="A9" s="41" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B9" s="42" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D9" s="43"/>
       <c r="E9" s="43"/>
@@ -5433,8 +5483,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L10"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -5462,76 +5512,76 @@
         <v>11</v>
       </c>
       <c r="D1" s="3" t="s">
+        <v>405</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>406</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>407</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>408</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>409</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>410</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>411</v>
       </c>
-      <c r="J1" s="3" t="s">
-        <v>412</v>
-      </c>
       <c r="K1" s="3" t="s">
+        <v>437</v>
+      </c>
+      <c r="L1" s="3" t="s">
         <v>438</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>439</v>
       </c>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="44" t="s">
+        <v>389</v>
+      </c>
+      <c r="B2" s="10" t="s">
         <v>390</v>
       </c>
-      <c r="B2" s="10" t="s">
-        <v>391</v>
-      </c>
       <c r="C2" s="4" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D2" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>413</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="F2" s="4" t="s">
         <v>414</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="G2" s="4" t="s">
         <v>415</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="H2" s="4" t="s">
         <v>416</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="I2" s="4" t="s">
         <v>417</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="J2" s="4" t="s">
         <v>418</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>419</v>
       </c>
       <c r="K2" s="4"/>
       <c r="L2" s="4"/>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="44" t="s">
+        <v>391</v>
+      </c>
+      <c r="B3" s="10" t="s">
         <v>392</v>
       </c>
-      <c r="B3" s="10" t="s">
-        <v>393</v>
-      </c>
       <c r="C3" s="4" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
@@ -5545,13 +5595,13 @@
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="44" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
@@ -5565,13 +5615,13 @@
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="44" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
@@ -5585,13 +5635,13 @@
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="44" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
@@ -5605,13 +5655,13 @@
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="44" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
@@ -5625,13 +5675,13 @@
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="44" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
@@ -5645,13 +5695,13 @@
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="44" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
@@ -5665,13 +5715,13 @@
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="44" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
@@ -5681,15 +5731,67 @@
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
       <c r="K10" s="4" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="L10" s="4" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="18.44140625" customWidth="1"/>
+    <col min="2" max="2" width="27.44140625" customWidth="1"/>
+    <col min="3" max="3" width="14.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="44" t="s">
+        <v>521</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>522</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="44"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="4"/>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="44"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -5698,7 +5800,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
@@ -5721,7 +5823,7 @@
         <v>1</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -5735,7 +5837,7 @@
         <v>5</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -5743,13 +5845,13 @@
         <v>6</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>32</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -5757,13 +5859,13 @@
         <v>7</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>61</v>
+        <v>188</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>32</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -5771,75 +5873,89 @@
         <v>33</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>32</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="8" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>32</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="8" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>32</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="8" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>32</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="8" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>32</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>292</v>
+        <v>291</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="8" t="s">
+        <v>520</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>518</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>519</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -5858,6 +5974,7 @@
     <hyperlink ref="C7" r:id="rId5"/>
     <hyperlink ref="C8" r:id="rId6"/>
     <hyperlink ref="C9" r:id="rId7"/>
+    <hyperlink ref="C10" r:id="rId8"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5937,7 +6054,7 @@
         <v>13</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
@@ -5958,7 +6075,7 @@
         <v>21</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>14</v>
@@ -5989,7 +6106,7 @@
         <v>27</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4" t="s">
@@ -6016,7 +6133,7 @@
         <v>42</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
@@ -6045,7 +6162,7 @@
         <v>19</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>14</v>
@@ -6106,10 +6223,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
@@ -6122,13 +6239,15 @@
     <col min="6" max="6" width="16" style="5" customWidth="1"/>
     <col min="7" max="7" width="11.21875" style="5" customWidth="1"/>
     <col min="8" max="8" width="10.21875" style="5" customWidth="1"/>
-    <col min="9" max="9" width="19.109375" style="5" customWidth="1"/>
-    <col min="10" max="10" width="14.21875" style="5" customWidth="1"/>
+    <col min="9" max="9" width="16.88671875" style="5" customWidth="1"/>
+    <col min="10" max="10" width="12.77734375" style="5" customWidth="1"/>
     <col min="11" max="11" width="12.33203125" style="5" customWidth="1"/>
-    <col min="12" max="16384" width="8.88671875" style="5"/>
+    <col min="12" max="12" width="17.77734375" style="5" customWidth="1"/>
+    <col min="13" max="13" width="18.109375" style="5" customWidth="1"/>
+    <col min="14" max="16384" width="8.88671875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:13">
       <c r="A1" s="3" t="s">
         <v>8</v>
       </c>
@@ -6142,28 +6261,34 @@
         <v>37</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F1" s="3" t="s">
+        <v>491</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>492</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>493</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>494</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>495</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>496</v>
       </c>
-      <c r="K1" s="3" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11">
+      <c r="L1" s="3" t="s">
+        <v>514</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="10" t="s">
         <v>34</v>
       </c>
@@ -6171,7 +6296,7 @@
         <v>36</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
@@ -6181,8 +6306,10 @@
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
       <c r="K2" s="4"/>
-    </row>
-    <row r="3" spans="1:11">
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="10" t="s">
         <v>34</v>
       </c>
@@ -6190,7 +6317,7 @@
         <v>35</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>38</v>
@@ -6202,8 +6329,10 @@
       <c r="I3" s="4"/>
       <c r="J3" s="4"/>
       <c r="K3" s="4"/>
-    </row>
-    <row r="4" spans="1:11">
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="10" t="s">
         <v>40</v>
       </c>
@@ -6211,13 +6340,13 @@
         <v>39</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>41</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
@@ -6225,47 +6354,51 @@
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
       <c r="K4" s="4"/>
-    </row>
-    <row r="5" spans="1:11">
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="10" t="s">
+        <v>489</v>
+      </c>
+      <c r="B5" s="10" t="s">
         <v>490</v>
       </c>
-      <c r="B5" s="10" t="s">
-        <v>491</v>
-      </c>
       <c r="C5" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
       <c r="F5" s="4" t="s">
+        <v>497</v>
+      </c>
+      <c r="G5" s="4" t="s">
         <v>498</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="H5" s="4" t="s">
         <v>499</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="I5" s="4" t="s">
         <v>500</v>
       </c>
-      <c r="I5" s="4" t="s">
+      <c r="J5" s="4" t="s">
         <v>501</v>
       </c>
-      <c r="J5" s="4" t="s">
+      <c r="K5" s="4" t="s">
         <v>502</v>
       </c>
-      <c r="K5" s="4" t="s">
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="10" t="s">
+        <v>504</v>
+      </c>
+      <c r="B6" s="10" t="s">
         <v>503</v>
       </c>
-    </row>
-    <row r="6" spans="1:11">
-      <c r="A6" s="10" t="s">
-        <v>505</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>504</v>
-      </c>
       <c r="C6" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
@@ -6275,11 +6408,19 @@
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
       <c r="K6" s="4"/>
-    </row>
-    <row r="7" spans="1:11">
-      <c r="A7" s="10"/>
-      <c r="B7" s="10"/>
-      <c r="C7" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" s="10" t="s">
+        <v>513</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>512</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>116</v>
+      </c>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
@@ -6288,6 +6429,12 @@
       <c r="I7" s="4"/>
       <c r="J7" s="4"/>
       <c r="K7" s="4"/>
+      <c r="L7" s="4" t="s">
+        <v>516</v>
+      </c>
+      <c r="M7" s="4" t="s">
+        <v>517</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6329,28 +6476,28 @@
         <v>11</v>
       </c>
       <c r="D1" s="3" t="s">
+        <v>469</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>470</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>471</v>
       </c>
-      <c r="F1" s="3" t="s">
-        <v>472</v>
-      </c>
       <c r="G1" s="3" t="s">
+        <v>463</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>464</v>
       </c>
-      <c r="H1" s="3" t="s">
-        <v>465</v>
-      </c>
       <c r="I1" s="3" t="s">
+        <v>467</v>
+      </c>
+      <c r="J1" s="3" t="s">
         <v>468</v>
       </c>
-      <c r="J1" s="3" t="s">
-        <v>469</v>
-      </c>
       <c r="K1" s="3" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="2" spans="1:11">
@@ -6361,10 +6508,10 @@
         <v>53</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="E2" s="12" t="s">
         <v>54</v>
@@ -6382,26 +6529,26 @@
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="11" t="s">
+        <v>449</v>
+      </c>
+      <c r="B3" s="11" t="s">
         <v>450</v>
       </c>
-      <c r="B3" s="11" t="s">
-        <v>451</v>
-      </c>
       <c r="C3" s="12" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="F3" s="12"/>
       <c r="G3" s="12" t="s">
+        <v>465</v>
+      </c>
+      <c r="H3" s="12" t="s">
         <v>466</v>
-      </c>
-      <c r="H3" s="12" t="s">
-        <v>467</v>
       </c>
       <c r="I3" s="12" t="s">
         <v>55</v>
@@ -6413,13 +6560,13 @@
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="11" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="D4" s="12"/>
       <c r="E4" s="12"/>
@@ -6432,26 +6579,26 @@
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="11" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="E5" s="12"/>
       <c r="F5" s="12" t="s">
+        <v>482</v>
+      </c>
+      <c r="G5" s="12" t="s">
         <v>483</v>
       </c>
-      <c r="G5" s="12" t="s">
+      <c r="H5" s="12" t="s">
         <v>484</v>
-      </c>
-      <c r="H5" s="12" t="s">
-        <v>485</v>
       </c>
       <c r="I5" s="12" t="s">
         <v>55</v>
@@ -6463,22 +6610,22 @@
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="11" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="D6" s="12" t="s">
+        <v>481</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>485</v>
+      </c>
+      <c r="F6" s="12" t="s">
         <v>482</v>
-      </c>
-      <c r="E6" s="12" t="s">
-        <v>486</v>
-      </c>
-      <c r="F6" s="12" t="s">
-        <v>483</v>
       </c>
       <c r="G6" s="12"/>
       <c r="H6" s="12"/>
@@ -6492,13 +6639,13 @@
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="11" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="D7" s="12"/>
       <c r="E7" s="12"/>
@@ -6511,13 +6658,13 @@
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="11" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B8" s="11" t="s">
+        <v>460</v>
+      </c>
+      <c r="C8" s="12" t="s">
         <v>461</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>462</v>
       </c>
       <c r="D8" s="12"/>
       <c r="E8" s="12"/>
@@ -6572,10 +6719,10 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>58</v>
@@ -6583,10 +6730,10 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>58</v>
@@ -6594,10 +6741,10 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>58</v>
@@ -6605,10 +6752,10 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>58</v>
@@ -6616,10 +6763,10 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>58</v>
@@ -6634,8 +6781,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
@@ -6651,7 +6798,7 @@
     <col min="9" max="9" width="26.33203125" style="5" customWidth="1"/>
     <col min="10" max="10" width="13.5546875" style="5" customWidth="1"/>
     <col min="11" max="11" width="19.33203125" style="5" customWidth="1"/>
-    <col min="12" max="12" width="16.44140625" style="5" customWidth="1"/>
+    <col min="12" max="12" width="24.77734375" style="5" customWidth="1"/>
     <col min="13" max="13" width="20.5546875" style="5" customWidth="1"/>
     <col min="14" max="16384" width="8.88671875" style="5"/>
   </cols>
@@ -6667,85 +6814,85 @@
         <v>11</v>
       </c>
       <c r="D1" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="E1" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="F1" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="G1" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="H1" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="I1" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="I1" s="13" t="s">
+      <c r="J1" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="J1" s="13" t="s">
+      <c r="K1" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="K1" s="13" t="s">
+      <c r="L1" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="L1" s="13" t="s">
+      <c r="M1" s="13" t="s">
         <v>88</v>
-      </c>
-      <c r="M1" s="13" t="s">
-        <v>89</v>
       </c>
       <c r="N1" s="13"/>
       <c r="O1" s="13"/>
     </row>
     <row r="2" spans="1:15">
       <c r="A2" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="B2" s="10" t="s">
         <v>72</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>73</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>58</v>
       </c>
       <c r="D2" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="F2" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="E2" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="F2" s="12" t="s">
+      <c r="G2" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="H2" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="H2" s="12" t="s">
+      <c r="I2" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="I2" s="12" t="s">
+      <c r="J2" s="12" t="s">
         <v>94</v>
-      </c>
-      <c r="J2" s="12" t="s">
-        <v>95</v>
       </c>
       <c r="K2" s="12" t="s">
         <v>96</v>
       </c>
       <c r="L2" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="M2" s="12" t="s">
         <v>97</v>
-      </c>
-      <c r="M2" s="12" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>58</v>
@@ -6763,10 +6910,10 @@
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>58</v>
@@ -6784,10 +6931,10 @@
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>58</v>
@@ -6805,10 +6952,10 @@
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="B6" s="10" t="s">
         <v>99</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>100</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>58</v>
@@ -6857,68 +7004,68 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="B2" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="C2" s="4" t="s">
         <v>106</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="10" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="10" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="10" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="B7" s="10" t="s">
         <v>122</v>
       </c>
-      <c r="B7" s="10" t="s">
-        <v>123</v>
-      </c>
       <c r="C7" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -6971,111 +7118,111 @@
         <v>11</v>
       </c>
       <c r="D1" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="E1" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="F1" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="G1" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="H1" s="13" t="s">
+        <v>200</v>
+      </c>
+      <c r="I1" s="13" t="s">
+        <v>201</v>
+      </c>
+      <c r="J1" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="H1" s="13" t="s">
-        <v>201</v>
-      </c>
-      <c r="I1" s="13" t="s">
-        <v>202</v>
-      </c>
-      <c r="J1" s="13" t="s">
+      <c r="K1" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="K1" s="13" t="s">
+      <c r="L1" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="L1" s="13" t="s">
+      <c r="M1" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="M1" s="13" t="s">
+      <c r="N1" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="N1" s="13" t="s">
+      <c r="O1" s="13" t="s">
+        <v>204</v>
+      </c>
+      <c r="P1" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="O1" s="13" t="s">
-        <v>205</v>
-      </c>
-      <c r="P1" s="13" t="s">
-        <v>89</v>
-      </c>
       <c r="Q1" s="13" t="s">
+        <v>214</v>
+      </c>
+      <c r="R1" s="13" t="s">
         <v>215</v>
       </c>
-      <c r="R1" s="13" t="s">
+      <c r="S1" s="13" t="s">
         <v>216</v>
       </c>
-      <c r="S1" s="13" t="s">
+      <c r="T1" s="13" t="s">
+        <v>220</v>
+      </c>
+      <c r="U1" s="13" t="s">
         <v>217</v>
       </c>
-      <c r="T1" s="13" t="s">
-        <v>221</v>
-      </c>
-      <c r="U1" s="13" t="s">
+      <c r="V1" s="27" t="s">
         <v>218</v>
-      </c>
-      <c r="V1" s="27" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="2" spans="1:22" s="5" customFormat="1">
       <c r="A2" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="B2" s="10" t="s">
         <v>191</v>
       </c>
-      <c r="B2" s="10" t="s">
-        <v>192</v>
-      </c>
       <c r="C2" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="F2" s="12" t="s">
         <v>209</v>
       </c>
-      <c r="D2" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="E2" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="F2" s="12" t="s">
+      <c r="G2" s="12" t="s">
         <v>210</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="H2" s="12" t="s">
         <v>211</v>
       </c>
-      <c r="H2" s="12" t="s">
+      <c r="I2" s="12" t="s">
+        <v>202</v>
+      </c>
+      <c r="J2" s="12" t="s">
         <v>212</v>
       </c>
-      <c r="I2" s="12" t="s">
+      <c r="K2" s="12" t="s">
+        <v>207</v>
+      </c>
+      <c r="L2" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="M2" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="N2" s="12" t="s">
+        <v>206</v>
+      </c>
+      <c r="O2" s="12" t="s">
         <v>203</v>
       </c>
-      <c r="J2" s="12" t="s">
-        <v>213</v>
-      </c>
-      <c r="K2" s="12" t="s">
-        <v>208</v>
-      </c>
-      <c r="L2" s="12" t="s">
-        <v>95</v>
-      </c>
-      <c r="M2" s="12" t="s">
-        <v>214</v>
-      </c>
-      <c r="N2" s="12" t="s">
-        <v>207</v>
-      </c>
-      <c r="O2" s="12" t="s">
-        <v>204</v>
-      </c>
       <c r="P2" s="12" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="Q2" s="12"/>
       <c r="R2" s="12"/>
@@ -7086,13 +7233,13 @@
     </row>
     <row r="3" spans="1:22" s="5" customFormat="1">
       <c r="A3" s="10" t="s">
+        <v>192</v>
+      </c>
+      <c r="B3" s="10" t="s">
         <v>193</v>
       </c>
-      <c r="B3" s="10" t="s">
-        <v>194</v>
-      </c>
       <c r="C3" s="4" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D3" s="12"/>
       <c r="E3" s="12"/>
@@ -7116,13 +7263,13 @@
     </row>
     <row r="4" spans="1:22" s="5" customFormat="1">
       <c r="A4" s="10" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D4" s="12"/>
       <c r="E4" s="12"/>
@@ -7146,52 +7293,52 @@
     </row>
     <row r="5" spans="1:22" s="5" customFormat="1">
       <c r="A5" s="10" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C5" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="F5" s="12" t="s">
         <v>209</v>
       </c>
-      <c r="D5" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="E5" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="F5" s="12" t="s">
+      <c r="G5" s="12" t="s">
         <v>210</v>
       </c>
-      <c r="G5" s="12" t="s">
+      <c r="H5" s="12" t="s">
         <v>211</v>
       </c>
-      <c r="H5" s="12" t="s">
+      <c r="I5" s="12" t="s">
+        <v>202</v>
+      </c>
+      <c r="J5" s="12" t="s">
         <v>212</v>
       </c>
-      <c r="I5" s="12" t="s">
+      <c r="K5" s="12" t="s">
+        <v>207</v>
+      </c>
+      <c r="L5" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="M5" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="N5" s="12" t="s">
+        <v>206</v>
+      </c>
+      <c r="O5" s="12" t="s">
         <v>203</v>
       </c>
-      <c r="J5" s="12" t="s">
-        <v>213</v>
-      </c>
-      <c r="K5" s="12" t="s">
-        <v>208</v>
-      </c>
-      <c r="L5" s="12" t="s">
-        <v>95</v>
-      </c>
-      <c r="M5" s="12" t="s">
-        <v>214</v>
-      </c>
-      <c r="N5" s="12" t="s">
-        <v>207</v>
-      </c>
-      <c r="O5" s="12" t="s">
-        <v>204</v>
-      </c>
       <c r="P5" s="12" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="Q5" s="12"/>
       <c r="R5" s="12"/>
@@ -7202,13 +7349,13 @@
     </row>
     <row r="6" spans="1:22" s="5" customFormat="1">
       <c r="A6" s="10" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D6" s="12"/>
       <c r="E6" s="12"/>
@@ -7224,22 +7371,22 @@
       <c r="O6" s="12"/>
       <c r="P6" s="12"/>
       <c r="Q6" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="R6" s="12" t="s">
+        <v>219</v>
+      </c>
+      <c r="S6" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="R6" s="12" t="s">
-        <v>220</v>
-      </c>
-      <c r="S6" s="12" t="s">
-        <v>96</v>
-      </c>
       <c r="T6" s="12" t="s">
+        <v>221</v>
+      </c>
+      <c r="U6" s="12" t="s">
         <v>222</v>
       </c>
-      <c r="U6" s="12" t="s">
+      <c r="V6" s="28" t="s">
         <v>223</v>
-      </c>
-      <c r="V6" s="28" t="s">
-        <v>224</v>
       </c>
     </row>
   </sheetData>

--- a/KULS_Sankar/TestData/ijaraTestData.xlsx
+++ b/KULS_Sankar/TestData/ijaraTestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="72" windowWidth="23256" windowHeight="12600" firstSheet="11" activeTab="14"/>
+    <workbookView xWindow="0" yWindow="72" windowWidth="23256" windowHeight="12600" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="AllFeaturesAutomationInfo" sheetId="8" r:id="rId1"/>
@@ -22,13 +22,14 @@
     <sheet name="MU_AppData_Income" sheetId="13" r:id="rId13"/>
     <sheet name="MU_DataCheck_EmpDetails" sheetId="14" r:id="rId14"/>
     <sheet name="TW_Offering_OfferDetails" sheetId="15" r:id="rId15"/>
+    <sheet name="AL_AppData_AppDetails" sheetId="16" r:id="rId16"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1143" uniqueCount="524">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1217" uniqueCount="574">
   <si>
     <t>UserName</t>
   </si>
@@ -43,9 +44,6 @@
   </si>
   <si>
     <t>in02040</t>
-  </si>
-  <si>
-    <t>admin</t>
   </si>
   <si>
     <t>userType02</t>
@@ -1633,6 +1631,159 @@
   </si>
   <si>
     <t>3841</t>
+  </si>
+  <si>
+    <t>AT_AL_APP_01</t>
+  </si>
+  <si>
+    <t>AT_AL_APP_02</t>
+  </si>
+  <si>
+    <t>AT_AL_APP_03</t>
+  </si>
+  <si>
+    <t>AT_AL_APP_04</t>
+  </si>
+  <si>
+    <t>AT_AL_APP_05</t>
+  </si>
+  <si>
+    <t>AT_AL_APP_06</t>
+  </si>
+  <si>
+    <t>AT_AL_APP_07</t>
+  </si>
+  <si>
+    <t>DS_AT_AL_APP_01</t>
+  </si>
+  <si>
+    <t>DS_AT_AL_APP_02</t>
+  </si>
+  <si>
+    <t>DS_AT_AL_APP_03</t>
+  </si>
+  <si>
+    <t>DS_AT_AL_APP_04</t>
+  </si>
+  <si>
+    <t>DS_AT_AL_APP_05</t>
+  </si>
+  <si>
+    <t>DS_AT_AL_APP_06</t>
+  </si>
+  <si>
+    <t>DS_AT_AL_APP_07</t>
+  </si>
+  <si>
+    <t>userType10</t>
+  </si>
+  <si>
+    <t>v0169</t>
+  </si>
+  <si>
+    <t>Auto Loan -- App Data Entry</t>
+  </si>
+  <si>
+    <t>Customer_Type</t>
+  </si>
+  <si>
+    <t>Customer_Name</t>
+  </si>
+  <si>
+    <t>Individual Customer</t>
+  </si>
+  <si>
+    <t>Ram</t>
+  </si>
+  <si>
+    <t>DOB</t>
+  </si>
+  <si>
+    <t>11-May-1996</t>
+  </si>
+  <si>
+    <t>8956748511</t>
+  </si>
+  <si>
+    <t>Sub_Product</t>
+  </si>
+  <si>
+    <t>Finance_Amt</t>
+  </si>
+  <si>
+    <t>Monthly_Income</t>
+  </si>
+  <si>
+    <t>Sourcing_Channel</t>
+  </si>
+  <si>
+    <t>Business_Code</t>
+  </si>
+  <si>
+    <t>Servicing_Type</t>
+  </si>
+  <si>
+    <t>Servicing_Branch</t>
+  </si>
+  <si>
+    <t>Closing_Staff</t>
+  </si>
+  <si>
+    <t>Auto Loan-Auto Loan Scheme</t>
+  </si>
+  <si>
+    <t>1428500</t>
+  </si>
+  <si>
+    <t>DSA</t>
+  </si>
+  <si>
+    <t>Saudi National Bank</t>
+  </si>
+  <si>
+    <t>Bangalore</t>
+  </si>
+  <si>
+    <t>Ramesh</t>
+  </si>
+  <si>
+    <t>Sourcing_Type</t>
+  </si>
+  <si>
+    <t>Sourcing_Office</t>
+  </si>
+  <si>
+    <t>Sourcing_Entity</t>
+  </si>
+  <si>
+    <t>Sourcing_Staff</t>
+  </si>
+  <si>
+    <t>28-Nov-1991</t>
+  </si>
+  <si>
+    <t>335895644</t>
+  </si>
+  <si>
+    <t>Kumar</t>
+  </si>
+  <si>
+    <t>01-Feb-1985</t>
+  </si>
+  <si>
+    <t>123456789</t>
+  </si>
+  <si>
+    <t>Anbu</t>
+  </si>
+  <si>
+    <t>01-Apr-1985</t>
+  </si>
+  <si>
+    <t>98765432111</t>
+  </si>
+  <si>
+    <t>Arivu</t>
   </si>
 </sst>
 </file>
@@ -1853,7 +2004,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1876,7 +2027,6 @@
     <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1969,6 +2119,25 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1986,12 +2155,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2298,9 +2461,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="27.44140625" style="24" customWidth="1"/>
-    <col min="2" max="2" width="28" style="24" customWidth="1"/>
-    <col min="3" max="3" width="13.33203125" style="24" customWidth="1"/>
+    <col min="1" max="1" width="27.44140625" style="23" customWidth="1"/>
+    <col min="2" max="2" width="28" style="23" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" style="23" customWidth="1"/>
     <col min="4" max="4" width="43" customWidth="1"/>
     <col min="5" max="5" width="26.6640625" customWidth="1"/>
     <col min="6" max="6" width="11.5546875" customWidth="1"/>
@@ -2312,2216 +2475,2192 @@
     <col min="12" max="12" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="20" customFormat="1">
-      <c r="A1" s="23" t="s">
+    <row r="1" spans="1:12" s="19" customFormat="1">
+      <c r="A1" s="22" t="s">
+        <v>152</v>
+      </c>
+      <c r="B1" s="22" t="s">
+        <v>151</v>
+      </c>
+      <c r="C1" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="D1" s="24" t="s">
+        <v>165</v>
+      </c>
+      <c r="E1" s="24" t="s">
+        <v>144</v>
+      </c>
+      <c r="F1" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="G1" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="H1" s="17" t="s">
+        <v>126</v>
+      </c>
+      <c r="I1" s="18" t="s">
+        <v>128</v>
+      </c>
+      <c r="J1" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="K1" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="L1" s="17" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" s="61" t="s">
+        <v>172</v>
+      </c>
+      <c r="B2" s="61" t="s">
+        <v>232</v>
+      </c>
+      <c r="C2" s="63" t="s">
+        <v>130</v>
+      </c>
+      <c r="D2" s="25" t="s">
+        <v>135</v>
+      </c>
+      <c r="E2" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="G2" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="H2" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="I2" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="J2" s="25" t="s">
+        <v>504</v>
+      </c>
+      <c r="K2" s="25"/>
+      <c r="L2" s="25"/>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" s="61"/>
+      <c r="B3" s="61"/>
+      <c r="C3" s="64"/>
+      <c r="D3" s="25" t="s">
+        <v>131</v>
+      </c>
+      <c r="E3" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="G3" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="H3" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="I3" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="J3" s="25" t="s">
+        <v>504</v>
+      </c>
+      <c r="K3" s="25"/>
+      <c r="L3" s="25"/>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" s="61"/>
+      <c r="B4" s="61"/>
+      <c r="C4" s="64"/>
+      <c r="D4" s="25" t="s">
+        <v>132</v>
+      </c>
+      <c r="E4" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="G4" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="H4" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="I4" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="J4" s="25" t="s">
+        <v>504</v>
+      </c>
+      <c r="K4" s="25"/>
+      <c r="L4" s="25"/>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" s="61"/>
+      <c r="B5" s="61"/>
+      <c r="C5" s="65"/>
+      <c r="D5" s="25" t="s">
+        <v>134</v>
+      </c>
+      <c r="E5" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="G5" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="H5" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="I5" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="J5" s="25" t="s">
+        <v>504</v>
+      </c>
+      <c r="K5" s="25"/>
+      <c r="L5" s="25"/>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="37"/>
+      <c r="B6" s="37"/>
+      <c r="C6" s="37"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="25"/>
+      <c r="G6" s="25"/>
+      <c r="H6" s="25"/>
+      <c r="I6" s="25"/>
+      <c r="J6" s="25"/>
+      <c r="K6" s="25"/>
+      <c r="L6" s="25"/>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="61" t="s">
+        <v>173</v>
+      </c>
+      <c r="B7" s="61" t="s">
+        <v>154</v>
+      </c>
+      <c r="C7" s="63" t="s">
+        <v>143</v>
+      </c>
+      <c r="D7" s="21" t="s">
+        <v>145</v>
+      </c>
+      <c r="E7" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="F7" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="G7" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="H7" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="I7" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="J7" s="25" t="s">
+        <v>505</v>
+      </c>
+      <c r="K7" s="25"/>
+      <c r="L7" s="25"/>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="61"/>
+      <c r="B8" s="61"/>
+      <c r="C8" s="64"/>
+      <c r="D8" s="25" t="s">
+        <v>146</v>
+      </c>
+      <c r="E8" s="20" t="s">
+        <v>139</v>
+      </c>
+      <c r="F8" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="G8" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="H8" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="I8" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="J8" s="25" t="s">
+        <v>505</v>
+      </c>
+      <c r="K8" s="25"/>
+      <c r="L8" s="25"/>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="61"/>
+      <c r="B9" s="61"/>
+      <c r="C9" s="64"/>
+      <c r="D9" s="25" t="s">
+        <v>147</v>
+      </c>
+      <c r="E9" s="20" t="s">
+        <v>140</v>
+      </c>
+      <c r="F9" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="G9" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="H9" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="I9" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="J9" s="25" t="s">
+        <v>505</v>
+      </c>
+      <c r="K9" s="25"/>
+      <c r="L9" s="25"/>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="61"/>
+      <c r="B10" s="61"/>
+      <c r="C10" s="64"/>
+      <c r="D10" s="25" t="s">
+        <v>148</v>
+      </c>
+      <c r="E10" s="20" t="s">
+        <v>141</v>
+      </c>
+      <c r="F10" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="G10" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="H10" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="I10" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="J10" s="25" t="s">
+        <v>505</v>
+      </c>
+      <c r="K10" s="25"/>
+      <c r="L10" s="25"/>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="37" t="s">
+        <v>155</v>
+      </c>
+      <c r="B11" s="37" t="s">
+        <v>156</v>
+      </c>
+      <c r="C11" s="64"/>
+      <c r="D11" s="25" t="s">
+        <v>149</v>
+      </c>
+      <c r="E11" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="F11" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="G11" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="H11" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="I11" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="J11" s="25" t="s">
+        <v>510</v>
+      </c>
+      <c r="K11" s="25"/>
+      <c r="L11" s="25"/>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" s="61" t="s">
+        <v>172</v>
+      </c>
+      <c r="B12" s="61" t="s">
         <v>153</v>
       </c>
-      <c r="B1" s="23" t="s">
-        <v>152</v>
-      </c>
-      <c r="C1" s="23" t="s">
-        <v>123</v>
-      </c>
-      <c r="D1" s="25" t="s">
+      <c r="C12" s="64"/>
+      <c r="D12" s="25" t="s">
+        <v>133</v>
+      </c>
+      <c r="E12" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="F12" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="G12" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="H12" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="I12" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="J12" s="25" t="s">
+        <v>137</v>
+      </c>
+      <c r="K12" s="25"/>
+      <c r="L12" s="25"/>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" s="61"/>
+      <c r="B13" s="61"/>
+      <c r="C13" s="65"/>
+      <c r="D13" s="25" t="s">
+        <v>150</v>
+      </c>
+      <c r="E13" s="20" t="s">
+        <v>142</v>
+      </c>
+      <c r="F13" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="G13" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="H13" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="I13" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="J13" s="25" t="s">
+        <v>137</v>
+      </c>
+      <c r="K13" s="25"/>
+      <c r="L13" s="25"/>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" s="37"/>
+      <c r="B14" s="37"/>
+      <c r="C14" s="37"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="25"/>
+      <c r="G14" s="25"/>
+      <c r="H14" s="25"/>
+      <c r="I14" s="25"/>
+      <c r="J14" s="25"/>
+      <c r="K14" s="25"/>
+      <c r="L14" s="25"/>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" s="61" t="s">
+        <v>174</v>
+      </c>
+      <c r="B15" s="61" t="s">
+        <v>158</v>
+      </c>
+      <c r="C15" s="63" t="s">
+        <v>157</v>
+      </c>
+      <c r="D15" s="25" t="s">
+        <v>159</v>
+      </c>
+      <c r="E15" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="F15" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="G15" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="H15" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="I15" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="J15" s="25" t="s">
+        <v>506</v>
+      </c>
+      <c r="K15" s="25"/>
+      <c r="L15" s="25"/>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16" s="61"/>
+      <c r="B16" s="61"/>
+      <c r="C16" s="64"/>
+      <c r="D16" s="25" t="s">
+        <v>160</v>
+      </c>
+      <c r="E16" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="F16" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="G16" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="H16" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="I16" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="J16" s="25" t="s">
+        <v>506</v>
+      </c>
+      <c r="K16" s="25"/>
+      <c r="L16" s="25"/>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17" s="61"/>
+      <c r="B17" s="61"/>
+      <c r="C17" s="64"/>
+      <c r="D17" s="25" t="s">
+        <v>161</v>
+      </c>
+      <c r="E17" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="F17" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="G17" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="H17" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="I17" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="J17" s="25" t="s">
+        <v>506</v>
+      </c>
+      <c r="K17" s="25"/>
+      <c r="L17" s="25"/>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18" s="61"/>
+      <c r="B18" s="61"/>
+      <c r="C18" s="64"/>
+      <c r="D18" s="25" t="s">
+        <v>162</v>
+      </c>
+      <c r="E18" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="F18" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="G18" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="H18" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="I18" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="J18" s="25" t="s">
+        <v>506</v>
+      </c>
+      <c r="K18" s="25"/>
+      <c r="L18" s="25"/>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19" s="61"/>
+      <c r="B19" s="61"/>
+      <c r="C19" s="64"/>
+      <c r="D19" s="25" t="s">
+        <v>163</v>
+      </c>
+      <c r="E19" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="F19" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="G19" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="H19" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="I19" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="J19" s="25" t="s">
+        <v>506</v>
+      </c>
+      <c r="K19" s="25"/>
+      <c r="L19" s="25"/>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20" s="61"/>
+      <c r="B20" s="61"/>
+      <c r="C20" s="65"/>
+      <c r="D20" s="25" t="s">
+        <v>164</v>
+      </c>
+      <c r="E20" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="F20" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="G20" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="H20" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="I20" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="J20" s="25" t="s">
+        <v>506</v>
+      </c>
+      <c r="K20" s="25"/>
+      <c r="L20" s="25"/>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21" s="37"/>
+      <c r="B21" s="37"/>
+      <c r="C21" s="37"/>
+      <c r="D21" s="25"/>
+      <c r="E21" s="25"/>
+      <c r="F21" s="25"/>
+      <c r="G21" s="25"/>
+      <c r="H21" s="25"/>
+      <c r="I21" s="25"/>
+      <c r="J21" s="25"/>
+      <c r="K21" s="25"/>
+      <c r="L21" s="25"/>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="A22" s="61" t="s">
+        <v>174</v>
+      </c>
+      <c r="B22" s="61" t="s">
+        <v>178</v>
+      </c>
+      <c r="C22" s="63" t="s">
         <v>166</v>
       </c>
-      <c r="E1" s="25" t="s">
-        <v>145</v>
-      </c>
-      <c r="F1" s="17" t="s">
-        <v>124</v>
-      </c>
-      <c r="G1" s="17" t="s">
-        <v>126</v>
-      </c>
-      <c r="H1" s="18" t="s">
-        <v>127</v>
-      </c>
-      <c r="I1" s="19" t="s">
-        <v>129</v>
-      </c>
-      <c r="J1" s="19" t="s">
-        <v>128</v>
-      </c>
-      <c r="K1" s="17" t="s">
-        <v>125</v>
-      </c>
-      <c r="L1" s="18" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12">
-      <c r="A2" s="63" t="s">
-        <v>173</v>
-      </c>
-      <c r="B2" s="63" t="s">
+      <c r="D22" s="25" t="s">
+        <v>167</v>
+      </c>
+      <c r="E22" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="F22" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="G22" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="H22" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="I22" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="J22" s="25" t="s">
+        <v>507</v>
+      </c>
+      <c r="K22" s="25"/>
+      <c r="L22" s="25"/>
+    </row>
+    <row r="23" spans="1:12">
+      <c r="A23" s="61"/>
+      <c r="B23" s="61"/>
+      <c r="C23" s="64"/>
+      <c r="D23" s="25" t="s">
+        <v>168</v>
+      </c>
+      <c r="E23" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="F23" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="G23" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="H23" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="I23" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="J23" s="25" t="s">
+        <v>507</v>
+      </c>
+      <c r="K23" s="25"/>
+      <c r="L23" s="25"/>
+    </row>
+    <row r="24" spans="1:12">
+      <c r="A24" s="61"/>
+      <c r="B24" s="61"/>
+      <c r="C24" s="64"/>
+      <c r="D24" s="25" t="s">
+        <v>169</v>
+      </c>
+      <c r="E24" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="F24" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="G24" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="H24" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="I24" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="J24" s="25" t="s">
+        <v>507</v>
+      </c>
+      <c r="K24" s="25"/>
+      <c r="L24" s="25"/>
+    </row>
+    <row r="25" spans="1:12">
+      <c r="A25" s="61"/>
+      <c r="B25" s="61"/>
+      <c r="C25" s="64"/>
+      <c r="D25" s="25" t="s">
+        <v>170</v>
+      </c>
+      <c r="E25" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="F25" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="G25" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="H25" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="I25" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="J25" s="25" t="s">
+        <v>507</v>
+      </c>
+      <c r="K25" s="25"/>
+      <c r="L25" s="25"/>
+    </row>
+    <row r="26" spans="1:12">
+      <c r="A26" s="61"/>
+      <c r="B26" s="61"/>
+      <c r="C26" s="65"/>
+      <c r="D26" s="25" t="s">
+        <v>171</v>
+      </c>
+      <c r="E26" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="F26" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="G26" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="H26" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="I26" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="J26" s="25" t="s">
+        <v>507</v>
+      </c>
+      <c r="K26" s="25"/>
+      <c r="L26" s="25"/>
+    </row>
+    <row r="27" spans="1:12">
+      <c r="A27" s="37"/>
+      <c r="B27" s="37"/>
+      <c r="C27" s="37"/>
+      <c r="D27" s="25"/>
+      <c r="E27" s="25"/>
+      <c r="F27" s="25"/>
+      <c r="G27" s="25"/>
+      <c r="H27" s="25"/>
+      <c r="I27" s="25"/>
+      <c r="J27" s="25"/>
+      <c r="K27" s="25"/>
+      <c r="L27" s="25"/>
+    </row>
+    <row r="28" spans="1:12">
+      <c r="A28" s="61" t="s">
+        <v>176</v>
+      </c>
+      <c r="B28" s="61" t="s">
+        <v>177</v>
+      </c>
+      <c r="C28" s="63" t="s">
+        <v>175</v>
+      </c>
+      <c r="D28" s="25" t="s">
+        <v>179</v>
+      </c>
+      <c r="E28" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="F28" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="G28" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="H28" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="I28" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="J28" s="25" t="s">
+        <v>508</v>
+      </c>
+      <c r="K28" s="25"/>
+      <c r="L28" s="25"/>
+    </row>
+    <row r="29" spans="1:12">
+      <c r="A29" s="61"/>
+      <c r="B29" s="61"/>
+      <c r="C29" s="64"/>
+      <c r="D29" s="25" t="s">
+        <v>180</v>
+      </c>
+      <c r="E29" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="F29" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="G29" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="H29" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="I29" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="J29" s="25" t="s">
+        <v>508</v>
+      </c>
+      <c r="K29" s="25"/>
+      <c r="L29" s="25"/>
+    </row>
+    <row r="30" spans="1:12">
+      <c r="A30" s="61"/>
+      <c r="B30" s="61"/>
+      <c r="C30" s="64"/>
+      <c r="D30" s="25" t="s">
+        <v>181</v>
+      </c>
+      <c r="E30" s="20" t="s">
+        <v>111</v>
+      </c>
+      <c r="F30" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="G30" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="H30" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="I30" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="J30" s="25" t="s">
+        <v>508</v>
+      </c>
+      <c r="K30" s="25"/>
+      <c r="L30" s="25"/>
+    </row>
+    <row r="31" spans="1:12">
+      <c r="A31" s="61"/>
+      <c r="B31" s="61"/>
+      <c r="C31" s="64"/>
+      <c r="D31" s="25" t="s">
+        <v>182</v>
+      </c>
+      <c r="E31" s="20" t="s">
+        <v>112</v>
+      </c>
+      <c r="F31" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="G31" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="H31" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="I31" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="J31" s="25" t="s">
+        <v>508</v>
+      </c>
+      <c r="K31" s="25"/>
+      <c r="L31" s="25"/>
+    </row>
+    <row r="32" spans="1:12">
+      <c r="A32" s="61"/>
+      <c r="B32" s="61"/>
+      <c r="C32" s="64"/>
+      <c r="D32" s="25" t="s">
+        <v>183</v>
+      </c>
+      <c r="E32" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="F32" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="G32" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="H32" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="I32" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="J32" s="25" t="s">
+        <v>508</v>
+      </c>
+      <c r="K32" s="25"/>
+      <c r="L32" s="25"/>
+    </row>
+    <row r="33" spans="1:12">
+      <c r="A33" s="61"/>
+      <c r="B33" s="61"/>
+      <c r="C33" s="65"/>
+      <c r="D33" s="25" t="s">
+        <v>184</v>
+      </c>
+      <c r="E33" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="F33" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="G33" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="H33" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="I33" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="J33" s="25" t="s">
+        <v>508</v>
+      </c>
+      <c r="K33" s="25"/>
+      <c r="L33" s="25"/>
+    </row>
+    <row r="34" spans="1:12">
+      <c r="A34" s="37"/>
+      <c r="B34" s="37"/>
+      <c r="C34" s="37"/>
+      <c r="D34" s="25"/>
+      <c r="E34" s="25"/>
+      <c r="F34" s="25"/>
+      <c r="G34" s="25"/>
+      <c r="H34" s="25"/>
+      <c r="I34" s="25"/>
+      <c r="J34" s="25"/>
+    </row>
+    <row r="35" spans="1:12">
+      <c r="A35" s="61" t="s">
+        <v>224</v>
+      </c>
+      <c r="B35" s="61" t="s">
+        <v>178</v>
+      </c>
+      <c r="C35" s="63" t="s">
+        <v>223</v>
+      </c>
+      <c r="D35" s="25" t="s">
         <v>233</v>
       </c>
-      <c r="C2" s="57" t="s">
+      <c r="E35" s="29" t="s">
+        <v>189</v>
+      </c>
+      <c r="F35" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="G35" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="H35" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="I35" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="J35" s="30" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12">
+      <c r="A36" s="61"/>
+      <c r="B36" s="61"/>
+      <c r="C36" s="64"/>
+      <c r="D36" s="25" t="s">
+        <v>168</v>
+      </c>
+      <c r="E36" s="29" t="s">
+        <v>191</v>
+      </c>
+      <c r="F36" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="G36" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="H36" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="I36" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="J36" s="30" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12">
+      <c r="A37" s="61"/>
+      <c r="B37" s="61"/>
+      <c r="C37" s="64"/>
+      <c r="D37" s="25" t="s">
+        <v>169</v>
+      </c>
+      <c r="E37" s="29" t="s">
+        <v>193</v>
+      </c>
+      <c r="F37" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="G37" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="H37" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="I37" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="J37" s="30" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12">
+      <c r="A38" s="61"/>
+      <c r="B38" s="61"/>
+      <c r="C38" s="64"/>
+      <c r="D38" s="25" t="s">
+        <v>234</v>
+      </c>
+      <c r="E38" s="29" t="s">
+        <v>194</v>
+      </c>
+      <c r="F38" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="G38" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="H38" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="I38" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="J38" s="30" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12">
+      <c r="A39" s="61"/>
+      <c r="B39" s="61"/>
+      <c r="C39" s="65"/>
+      <c r="D39" s="25" t="s">
+        <v>235</v>
+      </c>
+      <c r="E39" s="29" t="s">
+        <v>195</v>
+      </c>
+      <c r="F39" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="G39" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="H39" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="I39" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="J39" s="30" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12">
+      <c r="A40" s="37"/>
+      <c r="B40" s="37"/>
+      <c r="C40" s="37"/>
+      <c r="D40" s="25"/>
+      <c r="E40" s="25"/>
+      <c r="F40" s="25"/>
+      <c r="G40" s="25"/>
+      <c r="H40" s="25"/>
+      <c r="I40" s="25"/>
+      <c r="J40" s="25"/>
+    </row>
+    <row r="41" spans="1:12">
+      <c r="A41" s="61" t="s">
+        <v>231</v>
+      </c>
+      <c r="B41" s="62" t="s">
+        <v>428</v>
+      </c>
+      <c r="C41" s="63" t="s">
+        <v>225</v>
+      </c>
+      <c r="D41" s="25" t="s">
+        <v>236</v>
+      </c>
+      <c r="E41" s="31" t="s">
+        <v>226</v>
+      </c>
+      <c r="F41" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="G41" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="H41" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="I41" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="J41" s="34" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12">
+      <c r="A42" s="61"/>
+      <c r="B42" s="61"/>
+      <c r="C42" s="64"/>
+      <c r="D42" s="25" t="s">
+        <v>237</v>
+      </c>
+      <c r="E42" s="31" t="s">
+        <v>227</v>
+      </c>
+      <c r="F42" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="G42" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="H42" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="I42" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="J42" s="34" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12">
+      <c r="A43" s="61"/>
+      <c r="B43" s="61"/>
+      <c r="C43" s="64"/>
+      <c r="D43" s="25" t="s">
+        <v>238</v>
+      </c>
+      <c r="E43" s="31" t="s">
+        <v>228</v>
+      </c>
+      <c r="F43" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="G43" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="H43" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="I43" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="J43" s="34" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12">
+      <c r="A44" s="61"/>
+      <c r="B44" s="61"/>
+      <c r="C44" s="64"/>
+      <c r="D44" s="25" t="s">
         <v>131</v>
       </c>
-      <c r="D2" s="26" t="s">
-        <v>136</v>
-      </c>
-      <c r="E2" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" s="26" t="s">
-        <v>137</v>
-      </c>
-      <c r="G2" s="26" t="s">
-        <v>137</v>
-      </c>
-      <c r="H2" s="26" t="s">
-        <v>137</v>
-      </c>
-      <c r="I2" s="26" t="s">
-        <v>137</v>
-      </c>
-      <c r="J2" s="26" t="s">
-        <v>505</v>
-      </c>
-      <c r="K2" s="26"/>
-      <c r="L2" s="26"/>
-    </row>
-    <row r="3" spans="1:12">
-      <c r="A3" s="63"/>
-      <c r="B3" s="63"/>
-      <c r="C3" s="58"/>
-      <c r="D3" s="26" t="s">
+      <c r="E44" s="31" t="s">
+        <v>229</v>
+      </c>
+      <c r="F44" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="G44" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="H44" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="I44" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="J44" s="34" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12">
+      <c r="A45" s="61"/>
+      <c r="B45" s="61"/>
+      <c r="C45" s="65"/>
+      <c r="D45" s="32" t="s">
         <v>132</v>
       </c>
-      <c r="E3" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="F3" s="26" t="s">
-        <v>137</v>
-      </c>
-      <c r="G3" s="26" t="s">
-        <v>137</v>
-      </c>
-      <c r="H3" s="26" t="s">
-        <v>137</v>
-      </c>
-      <c r="I3" s="26" t="s">
-        <v>137</v>
-      </c>
-      <c r="J3" s="26" t="s">
-        <v>505</v>
-      </c>
-      <c r="K3" s="26"/>
-      <c r="L3" s="26"/>
-    </row>
-    <row r="4" spans="1:12">
-      <c r="A4" s="63"/>
-      <c r="B4" s="63"/>
-      <c r="C4" s="58"/>
-      <c r="D4" s="26" t="s">
-        <v>133</v>
-      </c>
-      <c r="E4" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="F4" s="26" t="s">
-        <v>137</v>
-      </c>
-      <c r="G4" s="26" t="s">
-        <v>137</v>
-      </c>
-      <c r="H4" s="26" t="s">
-        <v>137</v>
-      </c>
-      <c r="I4" s="26" t="s">
-        <v>137</v>
-      </c>
-      <c r="J4" s="26" t="s">
-        <v>505</v>
-      </c>
-      <c r="K4" s="26"/>
-      <c r="L4" s="26"/>
-    </row>
-    <row r="5" spans="1:12">
-      <c r="A5" s="63"/>
-      <c r="B5" s="63"/>
-      <c r="C5" s="59"/>
-      <c r="D5" s="26" t="s">
-        <v>135</v>
-      </c>
-      <c r="E5" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="F5" s="26" t="s">
-        <v>137</v>
-      </c>
-      <c r="G5" s="26" t="s">
-        <v>137</v>
-      </c>
-      <c r="H5" s="26" t="s">
-        <v>137</v>
-      </c>
-      <c r="I5" s="26" t="s">
-        <v>137</v>
-      </c>
-      <c r="J5" s="26" t="s">
-        <v>505</v>
-      </c>
-      <c r="K5" s="26"/>
-      <c r="L5" s="26"/>
-    </row>
-    <row r="6" spans="1:12">
-      <c r="A6" s="38"/>
-      <c r="B6" s="38"/>
-      <c r="C6" s="38"/>
-      <c r="D6" s="26"/>
-      <c r="E6" s="26"/>
-      <c r="F6" s="26"/>
-      <c r="G6" s="26"/>
-      <c r="H6" s="26"/>
-      <c r="I6" s="26"/>
-      <c r="J6" s="26"/>
-      <c r="K6" s="26"/>
-      <c r="L6" s="26"/>
-    </row>
-    <row r="7" spans="1:12">
-      <c r="A7" s="63" t="s">
-        <v>174</v>
-      </c>
-      <c r="B7" s="63" t="s">
-        <v>155</v>
-      </c>
-      <c r="C7" s="57" t="s">
-        <v>144</v>
-      </c>
-      <c r="D7" s="22" t="s">
-        <v>146</v>
-      </c>
-      <c r="E7" s="21" t="s">
-        <v>139</v>
-      </c>
-      <c r="F7" s="26" t="s">
-        <v>137</v>
-      </c>
-      <c r="G7" s="26" t="s">
-        <v>137</v>
-      </c>
-      <c r="H7" s="26" t="s">
-        <v>137</v>
-      </c>
-      <c r="I7" s="26" t="s">
-        <v>137</v>
-      </c>
-      <c r="J7" s="26" t="s">
-        <v>506</v>
-      </c>
-      <c r="K7" s="26"/>
-      <c r="L7" s="26"/>
-    </row>
-    <row r="8" spans="1:12">
-      <c r="A8" s="63"/>
-      <c r="B8" s="63"/>
-      <c r="C8" s="58"/>
-      <c r="D8" s="26" t="s">
-        <v>147</v>
-      </c>
-      <c r="E8" s="21" t="s">
-        <v>140</v>
-      </c>
-      <c r="F8" s="26" t="s">
-        <v>137</v>
-      </c>
-      <c r="G8" s="26" t="s">
-        <v>137</v>
-      </c>
-      <c r="H8" s="26" t="s">
-        <v>137</v>
-      </c>
-      <c r="I8" s="26" t="s">
-        <v>137</v>
-      </c>
-      <c r="J8" s="26" t="s">
-        <v>506</v>
-      </c>
-      <c r="K8" s="26"/>
-      <c r="L8" s="26"/>
-    </row>
-    <row r="9" spans="1:12">
-      <c r="A9" s="63"/>
-      <c r="B9" s="63"/>
-      <c r="C9" s="58"/>
-      <c r="D9" s="26" t="s">
-        <v>148</v>
-      </c>
-      <c r="E9" s="21" t="s">
-        <v>141</v>
-      </c>
-      <c r="F9" s="26" t="s">
-        <v>137</v>
-      </c>
-      <c r="G9" s="26" t="s">
-        <v>137</v>
-      </c>
-      <c r="H9" s="26" t="s">
-        <v>137</v>
-      </c>
-      <c r="I9" s="26" t="s">
-        <v>137</v>
-      </c>
-      <c r="J9" s="26" t="s">
-        <v>506</v>
-      </c>
-      <c r="K9" s="26"/>
-      <c r="L9" s="26"/>
-    </row>
-    <row r="10" spans="1:12">
-      <c r="A10" s="63"/>
-      <c r="B10" s="63"/>
-      <c r="C10" s="58"/>
-      <c r="D10" s="26" t="s">
-        <v>149</v>
-      </c>
-      <c r="E10" s="21" t="s">
-        <v>142</v>
-      </c>
-      <c r="F10" s="26" t="s">
-        <v>137</v>
-      </c>
-      <c r="G10" s="26" t="s">
-        <v>137</v>
-      </c>
-      <c r="H10" s="26" t="s">
-        <v>137</v>
-      </c>
-      <c r="I10" s="26" t="s">
-        <v>137</v>
-      </c>
-      <c r="J10" s="26" t="s">
-        <v>506</v>
-      </c>
-      <c r="K10" s="26"/>
-      <c r="L10" s="26"/>
-    </row>
-    <row r="11" spans="1:12">
-      <c r="A11" s="38" t="s">
-        <v>156</v>
-      </c>
-      <c r="B11" s="38" t="s">
-        <v>157</v>
-      </c>
-      <c r="C11" s="58"/>
-      <c r="D11" s="26" t="s">
-        <v>150</v>
-      </c>
-      <c r="E11" s="21" t="s">
-        <v>52</v>
-      </c>
-      <c r="F11" s="26" t="s">
-        <v>137</v>
-      </c>
-      <c r="G11" s="26" t="s">
-        <v>137</v>
-      </c>
-      <c r="H11" s="26" t="s">
-        <v>137</v>
-      </c>
-      <c r="I11" s="26" t="s">
-        <v>137</v>
-      </c>
-      <c r="J11" s="26" t="s">
-        <v>511</v>
-      </c>
-      <c r="K11" s="26"/>
-      <c r="L11" s="26"/>
-    </row>
-    <row r="12" spans="1:12">
-      <c r="A12" s="63" t="s">
-        <v>173</v>
-      </c>
-      <c r="B12" s="63" t="s">
-        <v>154</v>
-      </c>
-      <c r="C12" s="58"/>
-      <c r="D12" s="26" t="s">
-        <v>134</v>
-      </c>
-      <c r="E12" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="F12" s="26" t="s">
-        <v>137</v>
-      </c>
-      <c r="G12" s="26" t="s">
-        <v>137</v>
-      </c>
-      <c r="H12" s="26" t="s">
-        <v>137</v>
-      </c>
-      <c r="I12" s="26" t="s">
-        <v>137</v>
-      </c>
-      <c r="J12" s="26" t="s">
-        <v>138</v>
-      </c>
-      <c r="K12" s="26"/>
-      <c r="L12" s="26"/>
-    </row>
-    <row r="13" spans="1:12">
-      <c r="A13" s="63"/>
-      <c r="B13" s="63"/>
-      <c r="C13" s="59"/>
-      <c r="D13" s="26" t="s">
-        <v>151</v>
-      </c>
-      <c r="E13" s="21" t="s">
-        <v>143</v>
-      </c>
-      <c r="F13" s="26" t="s">
-        <v>137</v>
-      </c>
-      <c r="G13" s="26" t="s">
-        <v>137</v>
-      </c>
-      <c r="H13" s="26" t="s">
-        <v>137</v>
-      </c>
-      <c r="I13" s="26" t="s">
-        <v>137</v>
-      </c>
-      <c r="J13" s="26" t="s">
-        <v>138</v>
-      </c>
-      <c r="K13" s="26"/>
-      <c r="L13" s="26"/>
-    </row>
-    <row r="14" spans="1:12">
-      <c r="A14" s="38"/>
-      <c r="B14" s="38"/>
-      <c r="C14" s="38"/>
-      <c r="D14" s="26"/>
-      <c r="E14" s="26"/>
-      <c r="F14" s="26"/>
-      <c r="G14" s="26"/>
-      <c r="H14" s="26"/>
-      <c r="I14" s="26"/>
-      <c r="J14" s="26"/>
-      <c r="K14" s="26"/>
-      <c r="L14" s="26"/>
-    </row>
-    <row r="15" spans="1:12">
-      <c r="A15" s="63" t="s">
-        <v>175</v>
-      </c>
-      <c r="B15" s="63" t="s">
-        <v>159</v>
-      </c>
-      <c r="C15" s="57" t="s">
-        <v>158</v>
-      </c>
-      <c r="D15" s="26" t="s">
-        <v>160</v>
-      </c>
-      <c r="E15" s="21" t="s">
-        <v>59</v>
-      </c>
-      <c r="F15" s="26" t="s">
-        <v>137</v>
-      </c>
-      <c r="G15" s="26" t="s">
-        <v>137</v>
-      </c>
-      <c r="H15" s="26" t="s">
-        <v>137</v>
-      </c>
-      <c r="I15" s="26" t="s">
-        <v>137</v>
-      </c>
-      <c r="J15" s="26" t="s">
-        <v>507</v>
-      </c>
-      <c r="K15" s="26"/>
-      <c r="L15" s="26"/>
-    </row>
-    <row r="16" spans="1:12">
-      <c r="A16" s="63"/>
-      <c r="B16" s="63"/>
-      <c r="C16" s="58"/>
-      <c r="D16" s="26" t="s">
-        <v>161</v>
-      </c>
-      <c r="E16" s="21" t="s">
-        <v>62</v>
-      </c>
-      <c r="F16" s="26" t="s">
-        <v>137</v>
-      </c>
-      <c r="G16" s="26" t="s">
-        <v>137</v>
-      </c>
-      <c r="H16" s="26" t="s">
-        <v>137</v>
-      </c>
-      <c r="I16" s="26" t="s">
-        <v>137</v>
-      </c>
-      <c r="J16" s="26" t="s">
-        <v>507</v>
-      </c>
-      <c r="K16" s="26"/>
-      <c r="L16" s="26"/>
-    </row>
-    <row r="17" spans="1:12">
-      <c r="A17" s="63"/>
-      <c r="B17" s="63"/>
-      <c r="C17" s="58"/>
-      <c r="D17" s="26" t="s">
-        <v>162</v>
-      </c>
-      <c r="E17" s="21" t="s">
-        <v>63</v>
-      </c>
-      <c r="F17" s="26" t="s">
-        <v>137</v>
-      </c>
-      <c r="G17" s="26" t="s">
-        <v>137</v>
-      </c>
-      <c r="H17" s="26" t="s">
-        <v>137</v>
-      </c>
-      <c r="I17" s="26" t="s">
-        <v>137</v>
-      </c>
-      <c r="J17" s="26" t="s">
-        <v>507</v>
-      </c>
-      <c r="K17" s="26"/>
-      <c r="L17" s="26"/>
-    </row>
-    <row r="18" spans="1:12">
-      <c r="A18" s="63"/>
-      <c r="B18" s="63"/>
-      <c r="C18" s="58"/>
-      <c r="D18" s="26" t="s">
-        <v>163</v>
-      </c>
-      <c r="E18" s="21" t="s">
-        <v>64</v>
-      </c>
-      <c r="F18" s="26" t="s">
-        <v>137</v>
-      </c>
-      <c r="G18" s="26" t="s">
-        <v>137</v>
-      </c>
-      <c r="H18" s="26" t="s">
-        <v>137</v>
-      </c>
-      <c r="I18" s="26" t="s">
-        <v>137</v>
-      </c>
-      <c r="J18" s="26" t="s">
-        <v>507</v>
-      </c>
-      <c r="K18" s="26"/>
-      <c r="L18" s="26"/>
-    </row>
-    <row r="19" spans="1:12">
-      <c r="A19" s="63"/>
-      <c r="B19" s="63"/>
-      <c r="C19" s="58"/>
-      <c r="D19" s="26" t="s">
-        <v>164</v>
-      </c>
-      <c r="E19" s="21" t="s">
-        <v>69</v>
-      </c>
-      <c r="F19" s="26" t="s">
-        <v>137</v>
-      </c>
-      <c r="G19" s="26" t="s">
-        <v>137</v>
-      </c>
-      <c r="H19" s="26" t="s">
-        <v>137</v>
-      </c>
-      <c r="I19" s="26" t="s">
-        <v>137</v>
-      </c>
-      <c r="J19" s="26" t="s">
-        <v>507</v>
-      </c>
-      <c r="K19" s="26"/>
-      <c r="L19" s="26"/>
-    </row>
-    <row r="20" spans="1:12">
-      <c r="A20" s="63"/>
-      <c r="B20" s="63"/>
-      <c r="C20" s="59"/>
-      <c r="D20" s="26" t="s">
-        <v>165</v>
-      </c>
-      <c r="E20" s="21" t="s">
-        <v>70</v>
-      </c>
-      <c r="F20" s="26" t="s">
-        <v>137</v>
-      </c>
-      <c r="G20" s="26" t="s">
-        <v>137</v>
-      </c>
-      <c r="H20" s="26" t="s">
-        <v>137</v>
-      </c>
-      <c r="I20" s="26" t="s">
-        <v>137</v>
-      </c>
-      <c r="J20" s="26" t="s">
-        <v>507</v>
-      </c>
-      <c r="K20" s="26"/>
-      <c r="L20" s="26"/>
-    </row>
-    <row r="21" spans="1:12">
-      <c r="A21" s="38"/>
-      <c r="B21" s="38"/>
-      <c r="C21" s="38"/>
-      <c r="D21" s="26"/>
-      <c r="E21" s="26"/>
-      <c r="F21" s="26"/>
-      <c r="G21" s="26"/>
-      <c r="H21" s="26"/>
-      <c r="I21" s="26"/>
-      <c r="J21" s="26"/>
-      <c r="K21" s="26"/>
-      <c r="L21" s="26"/>
-    </row>
-    <row r="22" spans="1:12">
-      <c r="A22" s="63" t="s">
-        <v>175</v>
-      </c>
-      <c r="B22" s="63" t="s">
-        <v>179</v>
-      </c>
-      <c r="C22" s="57" t="s">
-        <v>167</v>
-      </c>
-      <c r="D22" s="26" t="s">
-        <v>168</v>
-      </c>
-      <c r="E22" s="21" t="s">
-        <v>71</v>
-      </c>
-      <c r="F22" s="26" t="s">
-        <v>137</v>
-      </c>
-      <c r="G22" s="26" t="s">
-        <v>137</v>
-      </c>
-      <c r="H22" s="26" t="s">
-        <v>137</v>
-      </c>
-      <c r="I22" s="26" t="s">
-        <v>137</v>
-      </c>
-      <c r="J22" s="26" t="s">
-        <v>508</v>
-      </c>
-      <c r="K22" s="26"/>
-      <c r="L22" s="26"/>
-    </row>
-    <row r="23" spans="1:12">
-      <c r="A23" s="63"/>
-      <c r="B23" s="63"/>
-      <c r="C23" s="58"/>
-      <c r="D23" s="26" t="s">
-        <v>169</v>
-      </c>
-      <c r="E23" s="21" t="s">
-        <v>75</v>
-      </c>
-      <c r="F23" s="26" t="s">
-        <v>137</v>
-      </c>
-      <c r="G23" s="26" t="s">
-        <v>137</v>
-      </c>
-      <c r="H23" s="26" t="s">
-        <v>137</v>
-      </c>
-      <c r="I23" s="26" t="s">
-        <v>137</v>
-      </c>
-      <c r="J23" s="26" t="s">
-        <v>508</v>
-      </c>
-      <c r="K23" s="26"/>
-      <c r="L23" s="26"/>
-    </row>
-    <row r="24" spans="1:12">
-      <c r="A24" s="63"/>
-      <c r="B24" s="63"/>
-      <c r="C24" s="58"/>
-      <c r="D24" s="26" t="s">
-        <v>170</v>
-      </c>
-      <c r="E24" s="21" t="s">
-        <v>76</v>
-      </c>
-      <c r="F24" s="26" t="s">
-        <v>137</v>
-      </c>
-      <c r="G24" s="26" t="s">
-        <v>137</v>
-      </c>
-      <c r="H24" s="26" t="s">
-        <v>137</v>
-      </c>
-      <c r="I24" s="26" t="s">
-        <v>137</v>
-      </c>
-      <c r="J24" s="26" t="s">
-        <v>508</v>
-      </c>
-      <c r="K24" s="26"/>
-      <c r="L24" s="26"/>
-    </row>
-    <row r="25" spans="1:12">
-      <c r="A25" s="63"/>
-      <c r="B25" s="63"/>
-      <c r="C25" s="58"/>
-      <c r="D25" s="26" t="s">
-        <v>171</v>
-      </c>
-      <c r="E25" s="21" t="s">
-        <v>78</v>
-      </c>
-      <c r="F25" s="26" t="s">
-        <v>137</v>
-      </c>
-      <c r="G25" s="26" t="s">
-        <v>137</v>
-      </c>
-      <c r="H25" s="26" t="s">
-        <v>137</v>
-      </c>
-      <c r="I25" s="26" t="s">
-        <v>137</v>
-      </c>
-      <c r="J25" s="26" t="s">
-        <v>508</v>
-      </c>
-      <c r="K25" s="26"/>
-      <c r="L25" s="26"/>
-    </row>
-    <row r="26" spans="1:12">
-      <c r="A26" s="63"/>
-      <c r="B26" s="63"/>
-      <c r="C26" s="59"/>
-      <c r="D26" s="26" t="s">
-        <v>172</v>
-      </c>
-      <c r="E26" s="21" t="s">
-        <v>98</v>
-      </c>
-      <c r="F26" s="26" t="s">
-        <v>137</v>
-      </c>
-      <c r="G26" s="26" t="s">
-        <v>137</v>
-      </c>
-      <c r="H26" s="26" t="s">
-        <v>137</v>
-      </c>
-      <c r="I26" s="26" t="s">
-        <v>137</v>
-      </c>
-      <c r="J26" s="26" t="s">
-        <v>508</v>
-      </c>
-      <c r="K26" s="26"/>
-      <c r="L26" s="26"/>
-    </row>
-    <row r="27" spans="1:12">
-      <c r="A27" s="38"/>
-      <c r="B27" s="38"/>
-      <c r="C27" s="38"/>
-      <c r="D27" s="26"/>
-      <c r="E27" s="26"/>
-      <c r="F27" s="26"/>
-      <c r="G27" s="26"/>
-      <c r="H27" s="26"/>
-      <c r="I27" s="26"/>
-      <c r="J27" s="26"/>
-      <c r="K27" s="26"/>
-      <c r="L27" s="26"/>
-    </row>
-    <row r="28" spans="1:12">
-      <c r="A28" s="63" t="s">
-        <v>177</v>
-      </c>
-      <c r="B28" s="63" t="s">
-        <v>178</v>
-      </c>
-      <c r="C28" s="57" t="s">
-        <v>176</v>
-      </c>
-      <c r="D28" s="26" t="s">
-        <v>180</v>
-      </c>
-      <c r="E28" s="21" t="s">
-        <v>104</v>
-      </c>
-      <c r="F28" s="26" t="s">
-        <v>137</v>
-      </c>
-      <c r="G28" s="26" t="s">
-        <v>137</v>
-      </c>
-      <c r="H28" s="26" t="s">
-        <v>137</v>
-      </c>
-      <c r="I28" s="26" t="s">
-        <v>137</v>
-      </c>
-      <c r="J28" s="26" t="s">
-        <v>509</v>
-      </c>
-      <c r="K28" s="26"/>
-      <c r="L28" s="26"/>
-    </row>
-    <row r="29" spans="1:12">
-      <c r="A29" s="63"/>
-      <c r="B29" s="63"/>
-      <c r="C29" s="58"/>
-      <c r="D29" s="26" t="s">
-        <v>181</v>
-      </c>
-      <c r="E29" s="21" t="s">
-        <v>111</v>
-      </c>
-      <c r="F29" s="26" t="s">
-        <v>137</v>
-      </c>
-      <c r="G29" s="26" t="s">
-        <v>137</v>
-      </c>
-      <c r="H29" s="26" t="s">
-        <v>137</v>
-      </c>
-      <c r="I29" s="26" t="s">
-        <v>137</v>
-      </c>
-      <c r="J29" s="26" t="s">
-        <v>509</v>
-      </c>
-      <c r="K29" s="26"/>
-      <c r="L29" s="26"/>
-    </row>
-    <row r="30" spans="1:12">
-      <c r="A30" s="63"/>
-      <c r="B30" s="63"/>
-      <c r="C30" s="58"/>
-      <c r="D30" s="26" t="s">
-        <v>182</v>
-      </c>
-      <c r="E30" s="21" t="s">
-        <v>112</v>
-      </c>
-      <c r="F30" s="26" t="s">
-        <v>137</v>
-      </c>
-      <c r="G30" s="26" t="s">
-        <v>137</v>
-      </c>
-      <c r="H30" s="26" t="s">
-        <v>137</v>
-      </c>
-      <c r="I30" s="26" t="s">
-        <v>137</v>
-      </c>
-      <c r="J30" s="26" t="s">
-        <v>509</v>
-      </c>
-      <c r="K30" s="26"/>
-      <c r="L30" s="26"/>
-    </row>
-    <row r="31" spans="1:12">
-      <c r="A31" s="63"/>
-      <c r="B31" s="63"/>
-      <c r="C31" s="58"/>
-      <c r="D31" s="26" t="s">
-        <v>183</v>
-      </c>
-      <c r="E31" s="21" t="s">
-        <v>113</v>
-      </c>
-      <c r="F31" s="26" t="s">
-        <v>137</v>
-      </c>
-      <c r="G31" s="26" t="s">
-        <v>137</v>
-      </c>
-      <c r="H31" s="26" t="s">
-        <v>137</v>
-      </c>
-      <c r="I31" s="26" t="s">
-        <v>137</v>
-      </c>
-      <c r="J31" s="26" t="s">
-        <v>509</v>
-      </c>
-      <c r="K31" s="26"/>
-      <c r="L31" s="26"/>
-    </row>
-    <row r="32" spans="1:12">
-      <c r="A32" s="63"/>
-      <c r="B32" s="63"/>
-      <c r="C32" s="58"/>
-      <c r="D32" s="26" t="s">
-        <v>184</v>
-      </c>
-      <c r="E32" s="21" t="s">
-        <v>114</v>
-      </c>
-      <c r="F32" s="26" t="s">
-        <v>137</v>
-      </c>
-      <c r="G32" s="26" t="s">
-        <v>137</v>
-      </c>
-      <c r="H32" s="26" t="s">
-        <v>137</v>
-      </c>
-      <c r="I32" s="26" t="s">
-        <v>137</v>
-      </c>
-      <c r="J32" s="26" t="s">
-        <v>509</v>
-      </c>
-      <c r="K32" s="26"/>
-      <c r="L32" s="26"/>
-    </row>
-    <row r="33" spans="1:12">
-      <c r="A33" s="63"/>
-      <c r="B33" s="63"/>
-      <c r="C33" s="59"/>
-      <c r="D33" s="26" t="s">
-        <v>185</v>
-      </c>
-      <c r="E33" s="21" t="s">
-        <v>121</v>
-      </c>
-      <c r="F33" s="26" t="s">
-        <v>137</v>
-      </c>
-      <c r="G33" s="26" t="s">
-        <v>137</v>
-      </c>
-      <c r="H33" s="26" t="s">
-        <v>137</v>
-      </c>
-      <c r="I33" s="26" t="s">
-        <v>137</v>
-      </c>
-      <c r="J33" s="26" t="s">
-        <v>509</v>
-      </c>
-      <c r="K33" s="26"/>
-      <c r="L33" s="26"/>
-    </row>
-    <row r="34" spans="1:12">
-      <c r="A34" s="38"/>
-      <c r="B34" s="38"/>
-      <c r="C34" s="38"/>
-      <c r="D34" s="26"/>
-      <c r="E34" s="26"/>
-      <c r="F34" s="26"/>
-      <c r="G34" s="26"/>
-      <c r="H34" s="26"/>
-      <c r="I34" s="26"/>
-      <c r="J34" s="26"/>
-    </row>
-    <row r="35" spans="1:12">
-      <c r="A35" s="63" t="s">
-        <v>225</v>
-      </c>
-      <c r="B35" s="63" t="s">
-        <v>179</v>
-      </c>
-      <c r="C35" s="57" t="s">
-        <v>224</v>
-      </c>
-      <c r="D35" s="26" t="s">
-        <v>234</v>
-      </c>
-      <c r="E35" s="30" t="s">
-        <v>190</v>
-      </c>
-      <c r="F35" s="26" t="s">
-        <v>137</v>
-      </c>
-      <c r="G35" s="26" t="s">
-        <v>137</v>
-      </c>
-      <c r="H35" s="26" t="s">
-        <v>137</v>
-      </c>
-      <c r="I35" s="26" t="s">
-        <v>137</v>
-      </c>
-      <c r="J35" s="31" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12">
-      <c r="A36" s="63"/>
-      <c r="B36" s="63"/>
-      <c r="C36" s="58"/>
-      <c r="D36" s="26" t="s">
-        <v>169</v>
-      </c>
-      <c r="E36" s="30" t="s">
-        <v>192</v>
-      </c>
-      <c r="F36" s="26" t="s">
-        <v>137</v>
-      </c>
-      <c r="G36" s="26" t="s">
-        <v>137</v>
-      </c>
-      <c r="H36" s="26" t="s">
-        <v>137</v>
-      </c>
-      <c r="I36" s="26" t="s">
-        <v>137</v>
-      </c>
-      <c r="J36" s="31" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12">
-      <c r="A37" s="63"/>
-      <c r="B37" s="63"/>
-      <c r="C37" s="58"/>
-      <c r="D37" s="26" t="s">
-        <v>170</v>
-      </c>
-      <c r="E37" s="30" t="s">
-        <v>194</v>
-      </c>
-      <c r="F37" s="26" t="s">
-        <v>137</v>
-      </c>
-      <c r="G37" s="26" t="s">
-        <v>137</v>
-      </c>
-      <c r="H37" s="26" t="s">
-        <v>137</v>
-      </c>
-      <c r="I37" s="26" t="s">
-        <v>137</v>
-      </c>
-      <c r="J37" s="31" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12">
-      <c r="A38" s="63"/>
-      <c r="B38" s="63"/>
-      <c r="C38" s="58"/>
-      <c r="D38" s="26" t="s">
-        <v>235</v>
-      </c>
-      <c r="E38" s="30" t="s">
-        <v>195</v>
-      </c>
-      <c r="F38" s="26" t="s">
-        <v>137</v>
-      </c>
-      <c r="G38" s="26" t="s">
-        <v>137</v>
-      </c>
-      <c r="H38" s="26" t="s">
-        <v>137</v>
-      </c>
-      <c r="I38" s="26" t="s">
-        <v>137</v>
-      </c>
-      <c r="J38" s="31" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12">
-      <c r="A39" s="63"/>
-      <c r="B39" s="63"/>
-      <c r="C39" s="59"/>
-      <c r="D39" s="26" t="s">
-        <v>236</v>
-      </c>
-      <c r="E39" s="30" t="s">
-        <v>196</v>
-      </c>
-      <c r="F39" s="26" t="s">
-        <v>137</v>
-      </c>
-      <c r="G39" s="26" t="s">
-        <v>137</v>
-      </c>
-      <c r="H39" s="26" t="s">
-        <v>137</v>
-      </c>
-      <c r="I39" s="26" t="s">
-        <v>137</v>
-      </c>
-      <c r="J39" s="31" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12">
-      <c r="A40" s="38"/>
-      <c r="B40" s="38"/>
-      <c r="C40" s="38"/>
-      <c r="D40" s="26"/>
-      <c r="E40" s="26"/>
-      <c r="F40" s="26"/>
-      <c r="G40" s="26"/>
-      <c r="H40" s="26"/>
-      <c r="I40" s="26"/>
-      <c r="J40" s="26"/>
-    </row>
-    <row r="41" spans="1:12">
-      <c r="A41" s="63" t="s">
-        <v>232</v>
-      </c>
-      <c r="B41" s="64" t="s">
+      <c r="E45" s="33" t="s">
+        <v>230</v>
+      </c>
+      <c r="F45" s="32" t="s">
+        <v>136</v>
+      </c>
+      <c r="G45" s="32" t="s">
+        <v>136</v>
+      </c>
+      <c r="H45" s="32" t="s">
+        <v>136</v>
+      </c>
+      <c r="I45" s="32" t="s">
+        <v>136</v>
+      </c>
+      <c r="J45" s="34" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" s="25" customFormat="1">
+      <c r="A46" s="37"/>
+      <c r="B46" s="37"/>
+      <c r="C46" s="37"/>
+    </row>
+    <row r="47" spans="1:12">
+      <c r="A47" s="61" t="s">
+        <v>231</v>
+      </c>
+      <c r="B47" s="62" t="s">
+        <v>428</v>
+      </c>
+      <c r="C47" s="66" t="s">
+        <v>264</v>
+      </c>
+      <c r="D47" s="34"/>
+      <c r="E47" s="35" t="s">
+        <v>260</v>
+      </c>
+      <c r="F47" s="34" t="s">
+        <v>136</v>
+      </c>
+      <c r="G47" s="34" t="s">
+        <v>136</v>
+      </c>
+      <c r="H47" s="34" t="s">
+        <v>136</v>
+      </c>
+      <c r="I47" s="34" t="s">
+        <v>136</v>
+      </c>
+      <c r="J47" s="34" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12">
+      <c r="A48" s="61"/>
+      <c r="B48" s="61"/>
+      <c r="C48" s="67"/>
+      <c r="D48" s="25"/>
+      <c r="E48" s="31" t="s">
+        <v>261</v>
+      </c>
+      <c r="F48" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="G48" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="H48" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="I48" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="J48" s="34" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
+      <c r="A49" s="61"/>
+      <c r="B49" s="61"/>
+      <c r="C49" s="67"/>
+      <c r="D49" s="25"/>
+      <c r="E49" s="31" t="s">
+        <v>262</v>
+      </c>
+      <c r="F49" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="G49" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="H49" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="I49" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="J49" s="34" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
+      <c r="A50" s="61"/>
+      <c r="B50" s="61"/>
+      <c r="C50" s="67"/>
+      <c r="D50" s="25"/>
+      <c r="E50" s="31" t="s">
+        <v>263</v>
+      </c>
+      <c r="F50" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="G50" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="H50" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="I50" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="J50" s="34" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
+      <c r="A51" s="61" t="s">
+        <v>265</v>
+      </c>
+      <c r="B51" s="62" t="s">
+        <v>427</v>
+      </c>
+      <c r="C51" s="67"/>
+      <c r="D51" s="25"/>
+      <c r="E51" s="20" t="s">
+        <v>271</v>
+      </c>
+      <c r="F51" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="G51" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="H51" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="I51" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="J51" s="25" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
+      <c r="A52" s="61"/>
+      <c r="B52" s="61"/>
+      <c r="C52" s="67"/>
+      <c r="D52" s="25"/>
+      <c r="E52" s="20" t="s">
+        <v>272</v>
+      </c>
+      <c r="F52" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="G52" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="H52" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="I52" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="J52" s="25" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
+      <c r="A53" s="61"/>
+      <c r="B53" s="61"/>
+      <c r="C53" s="67"/>
+      <c r="D53" s="25"/>
+      <c r="E53" s="20" t="s">
+        <v>273</v>
+      </c>
+      <c r="F53" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="G53" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="H53" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="I53" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="J53" s="25" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
+      <c r="A54" s="61"/>
+      <c r="B54" s="61"/>
+      <c r="C54" s="67"/>
+      <c r="D54" s="25"/>
+      <c r="E54" s="20" t="s">
+        <v>274</v>
+      </c>
+      <c r="F54" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="G54" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="H54" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="I54" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="J54" s="25" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
+      <c r="A55" s="61"/>
+      <c r="B55" s="61"/>
+      <c r="C55" s="68"/>
+      <c r="D55" s="25"/>
+      <c r="E55" s="20" t="s">
+        <v>275</v>
+      </c>
+      <c r="F55" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="G55" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="H55" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="I55" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="J55" s="25" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" s="46" customFormat="1" ht="28.8">
+      <c r="A57" s="61" t="s">
+        <v>312</v>
+      </c>
+      <c r="B57" s="45" t="s">
         <v>429</v>
       </c>
-      <c r="C41" s="57" t="s">
-        <v>226</v>
-      </c>
-      <c r="D41" s="26" t="s">
-        <v>237</v>
-      </c>
-      <c r="E41" s="32" t="s">
-        <v>227</v>
-      </c>
-      <c r="F41" s="26" t="s">
-        <v>137</v>
-      </c>
-      <c r="G41" s="26" t="s">
-        <v>137</v>
-      </c>
-      <c r="H41" s="26" t="s">
-        <v>137</v>
-      </c>
-      <c r="I41" s="26" t="s">
-        <v>137</v>
-      </c>
-      <c r="J41" s="35" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12">
-      <c r="A42" s="63"/>
-      <c r="B42" s="63"/>
-      <c r="C42" s="58"/>
-      <c r="D42" s="26" t="s">
-        <v>238</v>
-      </c>
-      <c r="E42" s="32" t="s">
-        <v>228</v>
-      </c>
-      <c r="F42" s="26" t="s">
-        <v>137</v>
-      </c>
-      <c r="G42" s="26" t="s">
-        <v>137</v>
-      </c>
-      <c r="H42" s="26" t="s">
-        <v>137</v>
-      </c>
-      <c r="I42" s="26" t="s">
-        <v>137</v>
-      </c>
-      <c r="J42" s="35" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12">
-      <c r="A43" s="63"/>
-      <c r="B43" s="63"/>
-      <c r="C43" s="58"/>
-      <c r="D43" s="26" t="s">
-        <v>239</v>
-      </c>
-      <c r="E43" s="32" t="s">
-        <v>229</v>
-      </c>
-      <c r="F43" s="26" t="s">
-        <v>137</v>
-      </c>
-      <c r="G43" s="26" t="s">
-        <v>137</v>
-      </c>
-      <c r="H43" s="26" t="s">
-        <v>137</v>
-      </c>
-      <c r="I43" s="26" t="s">
-        <v>137</v>
-      </c>
-      <c r="J43" s="35" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12">
-      <c r="A44" s="63"/>
-      <c r="B44" s="63"/>
-      <c r="C44" s="58"/>
-      <c r="D44" s="26" t="s">
-        <v>132</v>
-      </c>
-      <c r="E44" s="32" t="s">
-        <v>230</v>
-      </c>
-      <c r="F44" s="26" t="s">
-        <v>137</v>
-      </c>
-      <c r="G44" s="26" t="s">
-        <v>137</v>
-      </c>
-      <c r="H44" s="26" t="s">
-        <v>137</v>
-      </c>
-      <c r="I44" s="26" t="s">
-        <v>137</v>
-      </c>
-      <c r="J44" s="35" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12">
-      <c r="A45" s="63"/>
-      <c r="B45" s="63"/>
-      <c r="C45" s="59"/>
-      <c r="D45" s="33" t="s">
-        <v>133</v>
-      </c>
-      <c r="E45" s="34" t="s">
+      <c r="C57" s="61" t="s">
+        <v>311</v>
+      </c>
+      <c r="D57" s="54" t="s">
+        <v>315</v>
+      </c>
+      <c r="E57" s="55" t="s">
+        <v>306</v>
+      </c>
+      <c r="F57" s="54" t="s">
+        <v>136</v>
+      </c>
+      <c r="G57" s="54" t="s">
+        <v>136</v>
+      </c>
+      <c r="H57" s="54" t="s">
+        <v>136</v>
+      </c>
+      <c r="I57" s="54" t="s">
+        <v>136</v>
+      </c>
+      <c r="J57" s="54" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
+      <c r="A58" s="61"/>
+      <c r="B58" s="62" t="s">
+        <v>430</v>
+      </c>
+      <c r="C58" s="61"/>
+      <c r="D58" s="25" t="s">
+        <v>317</v>
+      </c>
+      <c r="E58" s="38" t="s">
+        <v>291</v>
+      </c>
+      <c r="F58" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="G58" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="H58" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="I58" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="J58" s="25" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
+      <c r="A59" s="61"/>
+      <c r="B59" s="61"/>
+      <c r="C59" s="61"/>
+      <c r="D59" s="25" t="s">
+        <v>316</v>
+      </c>
+      <c r="E59" s="31" t="s">
+        <v>294</v>
+      </c>
+      <c r="F59" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="G59" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="H59" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="I59" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="J59" s="25" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
+      <c r="A60" s="61"/>
+      <c r="B60" s="61"/>
+      <c r="C60" s="61"/>
+      <c r="D60" s="25" t="s">
+        <v>318</v>
+      </c>
+      <c r="E60" s="38" t="s">
+        <v>286</v>
+      </c>
+      <c r="F60" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="G60" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="H60" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="I60" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="J60" s="25" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
+      <c r="A62" s="61" t="s">
         <v>231</v>
       </c>
-      <c r="F45" s="33" t="s">
-        <v>137</v>
-      </c>
-      <c r="G45" s="33" t="s">
-        <v>137</v>
-      </c>
-      <c r="H45" s="33" t="s">
-        <v>137</v>
-      </c>
-      <c r="I45" s="33" t="s">
-        <v>137</v>
-      </c>
-      <c r="J45" s="35" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12" s="26" customFormat="1">
-      <c r="A46" s="38"/>
-      <c r="B46" s="38"/>
-      <c r="C46" s="38"/>
-    </row>
-    <row r="47" spans="1:12">
-      <c r="A47" s="63" t="s">
-        <v>232</v>
-      </c>
-      <c r="B47" s="64" t="s">
-        <v>429</v>
-      </c>
-      <c r="C47" s="60" t="s">
-        <v>265</v>
-      </c>
-      <c r="D47" s="35"/>
-      <c r="E47" s="36" t="s">
-        <v>261</v>
-      </c>
-      <c r="F47" s="35" t="s">
-        <v>137</v>
-      </c>
-      <c r="G47" s="35" t="s">
-        <v>137</v>
-      </c>
-      <c r="H47" s="35" t="s">
-        <v>137</v>
-      </c>
-      <c r="I47" s="35" t="s">
-        <v>137</v>
-      </c>
-      <c r="J47" s="35" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12">
-      <c r="A48" s="63"/>
-      <c r="B48" s="63"/>
-      <c r="C48" s="61"/>
-      <c r="D48" s="26"/>
-      <c r="E48" s="32" t="s">
-        <v>262</v>
-      </c>
-      <c r="F48" s="26" t="s">
-        <v>137</v>
-      </c>
-      <c r="G48" s="26" t="s">
-        <v>137</v>
-      </c>
-      <c r="H48" s="26" t="s">
-        <v>137</v>
-      </c>
-      <c r="I48" s="26" t="s">
-        <v>137</v>
-      </c>
-      <c r="J48" s="35" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10">
-      <c r="A49" s="63"/>
-      <c r="B49" s="63"/>
-      <c r="C49" s="61"/>
-      <c r="D49" s="26"/>
-      <c r="E49" s="32" t="s">
-        <v>263</v>
-      </c>
-      <c r="F49" s="26" t="s">
-        <v>137</v>
-      </c>
-      <c r="G49" s="26" t="s">
-        <v>137</v>
-      </c>
-      <c r="H49" s="26" t="s">
-        <v>137</v>
-      </c>
-      <c r="I49" s="26" t="s">
-        <v>137</v>
-      </c>
-      <c r="J49" s="35" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10">
-      <c r="A50" s="63"/>
-      <c r="B50" s="63"/>
-      <c r="C50" s="61"/>
-      <c r="D50" s="26"/>
-      <c r="E50" s="32" t="s">
-        <v>264</v>
-      </c>
-      <c r="F50" s="26" t="s">
-        <v>137</v>
-      </c>
-      <c r="G50" s="26" t="s">
-        <v>137</v>
-      </c>
-      <c r="H50" s="26" t="s">
-        <v>137</v>
-      </c>
-      <c r="I50" s="26" t="s">
-        <v>137</v>
-      </c>
-      <c r="J50" s="35" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10">
-      <c r="A51" s="63" t="s">
-        <v>266</v>
-      </c>
-      <c r="B51" s="64" t="s">
-        <v>428</v>
-      </c>
-      <c r="C51" s="61"/>
-      <c r="D51" s="26"/>
-      <c r="E51" s="21" t="s">
-        <v>272</v>
-      </c>
-      <c r="F51" s="26" t="s">
-        <v>137</v>
-      </c>
-      <c r="G51" s="26" t="s">
-        <v>137</v>
-      </c>
-      <c r="H51" s="26" t="s">
-        <v>137</v>
-      </c>
-      <c r="I51" s="26" t="s">
-        <v>137</v>
-      </c>
-      <c r="J51" s="26" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10">
-      <c r="A52" s="63"/>
-      <c r="B52" s="63"/>
-      <c r="C52" s="61"/>
-      <c r="D52" s="26"/>
-      <c r="E52" s="21" t="s">
-        <v>273</v>
-      </c>
-      <c r="F52" s="26" t="s">
-        <v>137</v>
-      </c>
-      <c r="G52" s="26" t="s">
-        <v>137</v>
-      </c>
-      <c r="H52" s="26" t="s">
-        <v>137</v>
-      </c>
-      <c r="I52" s="26" t="s">
-        <v>137</v>
-      </c>
-      <c r="J52" s="26" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10">
-      <c r="A53" s="63"/>
-      <c r="B53" s="63"/>
-      <c r="C53" s="61"/>
-      <c r="D53" s="26"/>
-      <c r="E53" s="21" t="s">
-        <v>274</v>
-      </c>
-      <c r="F53" s="26" t="s">
-        <v>137</v>
-      </c>
-      <c r="G53" s="26" t="s">
-        <v>137</v>
-      </c>
-      <c r="H53" s="26" t="s">
-        <v>137</v>
-      </c>
-      <c r="I53" s="26" t="s">
-        <v>137</v>
-      </c>
-      <c r="J53" s="26" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10">
-      <c r="A54" s="63"/>
-      <c r="B54" s="63"/>
-      <c r="C54" s="61"/>
-      <c r="D54" s="26"/>
-      <c r="E54" s="21" t="s">
-        <v>275</v>
-      </c>
-      <c r="F54" s="26" t="s">
-        <v>137</v>
-      </c>
-      <c r="G54" s="26" t="s">
-        <v>137</v>
-      </c>
-      <c r="H54" s="26" t="s">
-        <v>137</v>
-      </c>
-      <c r="I54" s="26" t="s">
-        <v>137</v>
-      </c>
-      <c r="J54" s="26" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10">
-      <c r="A55" s="63"/>
-      <c r="B55" s="63"/>
-      <c r="C55" s="62"/>
-      <c r="D55" s="26"/>
-      <c r="E55" s="21" t="s">
-        <v>276</v>
-      </c>
-      <c r="F55" s="26" t="s">
-        <v>137</v>
-      </c>
-      <c r="G55" s="26" t="s">
-        <v>137</v>
-      </c>
-      <c r="H55" s="26" t="s">
-        <v>137</v>
-      </c>
-      <c r="I55" s="26" t="s">
-        <v>137</v>
-      </c>
-      <c r="J55" s="26" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10" s="47" customFormat="1" ht="28.8">
-      <c r="A57" s="63" t="s">
-        <v>313</v>
-      </c>
-      <c r="B57" s="46" t="s">
-        <v>430</v>
-      </c>
-      <c r="C57" s="63" t="s">
-        <v>312</v>
-      </c>
-      <c r="D57" s="55" t="s">
-        <v>316</v>
-      </c>
-      <c r="E57" s="56" t="s">
-        <v>307</v>
-      </c>
-      <c r="F57" s="55" t="s">
-        <v>137</v>
-      </c>
-      <c r="G57" s="55" t="s">
-        <v>137</v>
-      </c>
-      <c r="H57" s="55" t="s">
-        <v>137</v>
-      </c>
-      <c r="I57" s="55" t="s">
-        <v>137</v>
-      </c>
-      <c r="J57" s="55" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10">
-      <c r="A58" s="63"/>
-      <c r="B58" s="64" t="s">
+      <c r="B62" s="62" t="s">
         <v>431</v>
       </c>
-      <c r="C58" s="63"/>
-      <c r="D58" s="26" t="s">
-        <v>318</v>
-      </c>
-      <c r="E58" s="39" t="s">
-        <v>292</v>
-      </c>
-      <c r="F58" s="26" t="s">
-        <v>137</v>
-      </c>
-      <c r="G58" s="26" t="s">
-        <v>137</v>
-      </c>
-      <c r="H58" s="26" t="s">
-        <v>137</v>
-      </c>
-      <c r="I58" s="26" t="s">
-        <v>137</v>
-      </c>
-      <c r="J58" s="26" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10">
-      <c r="A59" s="63"/>
-      <c r="B59" s="63"/>
-      <c r="C59" s="63"/>
-      <c r="D59" s="26" t="s">
-        <v>317</v>
-      </c>
-      <c r="E59" s="32" t="s">
-        <v>295</v>
-      </c>
-      <c r="F59" s="26" t="s">
-        <v>137</v>
-      </c>
-      <c r="G59" s="26" t="s">
-        <v>137</v>
-      </c>
-      <c r="H59" s="26" t="s">
-        <v>137</v>
-      </c>
-      <c r="I59" s="26" t="s">
-        <v>137</v>
-      </c>
-      <c r="J59" s="26" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10">
-      <c r="A60" s="63"/>
-      <c r="B60" s="63"/>
-      <c r="C60" s="63"/>
-      <c r="D60" s="26" t="s">
+      <c r="C62" s="61" t="s">
         <v>319</v>
       </c>
-      <c r="E60" s="39" t="s">
-        <v>287</v>
-      </c>
-      <c r="F60" s="26" t="s">
-        <v>137</v>
-      </c>
-      <c r="G60" s="26" t="s">
-        <v>137</v>
-      </c>
-      <c r="H60" s="26" t="s">
-        <v>137</v>
-      </c>
-      <c r="I60" s="26" t="s">
-        <v>137</v>
-      </c>
-      <c r="J60" s="26" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10">
-      <c r="A62" s="63" t="s">
-        <v>232</v>
-      </c>
-      <c r="B62" s="64" t="s">
+      <c r="D62" s="25" t="s">
+        <v>354</v>
+      </c>
+      <c r="E62" s="39" t="s">
+        <v>320</v>
+      </c>
+      <c r="F62" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="G62" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="H62" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="I62" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="J62" s="25" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
+      <c r="A63" s="61"/>
+      <c r="B63" s="61"/>
+      <c r="C63" s="61"/>
+      <c r="D63" s="25" t="s">
+        <v>355</v>
+      </c>
+      <c r="E63" s="39" t="s">
+        <v>321</v>
+      </c>
+      <c r="F63" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="G63" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="H63" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="I63" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="J63" s="25" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
+      <c r="A64" s="61"/>
+      <c r="B64" s="61"/>
+      <c r="C64" s="61"/>
+      <c r="D64" s="25" t="s">
+        <v>374</v>
+      </c>
+      <c r="E64" s="39" t="s">
+        <v>322</v>
+      </c>
+      <c r="F64" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="G64" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="H64" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="I64" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="J64" s="25" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
+      <c r="A65" s="61"/>
+      <c r="B65" s="61"/>
+      <c r="C65" s="61"/>
+      <c r="D65" s="25" t="s">
+        <v>375</v>
+      </c>
+      <c r="E65" s="39" t="s">
+        <v>323</v>
+      </c>
+      <c r="F65" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="G65" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="H65" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="I65" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="J65" s="25" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
+      <c r="A66" s="61"/>
+      <c r="B66" s="61"/>
+      <c r="C66" s="61"/>
+      <c r="D66" s="25" t="s">
+        <v>383</v>
+      </c>
+      <c r="E66" s="39" t="s">
+        <v>324</v>
+      </c>
+      <c r="F66" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="G66" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="H66" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="I66" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="J66" s="25" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
+      <c r="A67" s="61"/>
+      <c r="B67" s="61"/>
+      <c r="C67" s="61"/>
+      <c r="D67" s="25" t="s">
+        <v>384</v>
+      </c>
+      <c r="E67" s="39" t="s">
+        <v>325</v>
+      </c>
+      <c r="F67" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="G67" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="H67" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="I67" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="J67" s="25" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
+      <c r="A68" s="61"/>
+      <c r="B68" s="61"/>
+      <c r="C68" s="61"/>
+      <c r="D68" s="25" t="s">
+        <v>385</v>
+      </c>
+      <c r="E68" s="39" t="s">
+        <v>326</v>
+      </c>
+      <c r="F68" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="G68" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="H68" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="I68" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="J68" s="25" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
+      <c r="A69" s="61"/>
+      <c r="B69" s="61"/>
+      <c r="C69" s="61"/>
+      <c r="D69" s="25" t="s">
+        <v>386</v>
+      </c>
+      <c r="E69" s="39" t="s">
+        <v>327</v>
+      </c>
+      <c r="F69" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="G69" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="H69" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="I69" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="J69" s="25" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
+      <c r="B71" s="62" t="s">
         <v>432</v>
       </c>
-      <c r="C62" s="63" t="s">
-        <v>320</v>
-      </c>
-      <c r="D62" s="26" t="s">
-        <v>355</v>
-      </c>
-      <c r="E62" s="40" t="s">
-        <v>321</v>
-      </c>
-      <c r="F62" s="26" t="s">
-        <v>137</v>
-      </c>
-      <c r="G62" s="26" t="s">
-        <v>137</v>
-      </c>
-      <c r="H62" s="26" t="s">
-        <v>137</v>
-      </c>
-      <c r="I62" s="26" t="s">
-        <v>137</v>
-      </c>
-      <c r="J62" s="26" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10">
-      <c r="A63" s="63"/>
-      <c r="B63" s="63"/>
-      <c r="C63" s="63"/>
-      <c r="D63" s="26" t="s">
-        <v>356</v>
-      </c>
-      <c r="E63" s="40" t="s">
-        <v>322</v>
-      </c>
-      <c r="F63" s="26" t="s">
-        <v>137</v>
-      </c>
-      <c r="G63" s="26" t="s">
-        <v>137</v>
-      </c>
-      <c r="H63" s="26" t="s">
-        <v>137</v>
-      </c>
-      <c r="I63" s="26" t="s">
-        <v>137</v>
-      </c>
-      <c r="J63" s="26" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10">
-      <c r="A64" s="63"/>
-      <c r="B64" s="63"/>
-      <c r="C64" s="63"/>
-      <c r="D64" s="26" t="s">
-        <v>375</v>
-      </c>
-      <c r="E64" s="40" t="s">
-        <v>323</v>
-      </c>
-      <c r="F64" s="26" t="s">
-        <v>137</v>
-      </c>
-      <c r="G64" s="26" t="s">
-        <v>137</v>
-      </c>
-      <c r="H64" s="26" t="s">
-        <v>137</v>
-      </c>
-      <c r="I64" s="26" t="s">
-        <v>137</v>
-      </c>
-      <c r="J64" s="26" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="65" spans="1:10">
-      <c r="A65" s="63"/>
-      <c r="B65" s="63"/>
-      <c r="C65" s="63"/>
-      <c r="D65" s="26" t="s">
-        <v>376</v>
-      </c>
-      <c r="E65" s="40" t="s">
-        <v>324</v>
-      </c>
-      <c r="F65" s="26" t="s">
-        <v>137</v>
-      </c>
-      <c r="G65" s="26" t="s">
-        <v>137</v>
-      </c>
-      <c r="H65" s="26" t="s">
-        <v>137</v>
-      </c>
-      <c r="I65" s="26" t="s">
-        <v>137</v>
-      </c>
-      <c r="J65" s="26" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="66" spans="1:10">
-      <c r="A66" s="63"/>
-      <c r="B66" s="63"/>
-      <c r="C66" s="63"/>
-      <c r="D66" s="26" t="s">
-        <v>384</v>
-      </c>
-      <c r="E66" s="40" t="s">
-        <v>325</v>
-      </c>
-      <c r="F66" s="26" t="s">
-        <v>137</v>
-      </c>
-      <c r="G66" s="26" t="s">
-        <v>137</v>
-      </c>
-      <c r="H66" s="26" t="s">
-        <v>137</v>
-      </c>
-      <c r="I66" s="26" t="s">
-        <v>137</v>
-      </c>
-      <c r="J66" s="26" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="67" spans="1:10">
-      <c r="A67" s="63"/>
-      <c r="B67" s="63"/>
-      <c r="C67" s="63"/>
-      <c r="D67" s="26" t="s">
-        <v>385</v>
-      </c>
-      <c r="E67" s="40" t="s">
-        <v>326</v>
-      </c>
-      <c r="F67" s="26" t="s">
-        <v>137</v>
-      </c>
-      <c r="G67" s="26" t="s">
-        <v>137</v>
-      </c>
-      <c r="H67" s="26" t="s">
-        <v>137</v>
-      </c>
-      <c r="I67" s="26" t="s">
-        <v>137</v>
-      </c>
-      <c r="J67" s="26" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="68" spans="1:10">
-      <c r="A68" s="63"/>
-      <c r="B68" s="63"/>
-      <c r="C68" s="63"/>
-      <c r="D68" s="26" t="s">
-        <v>386</v>
-      </c>
-      <c r="E68" s="40" t="s">
-        <v>327</v>
-      </c>
-      <c r="F68" s="26" t="s">
-        <v>137</v>
-      </c>
-      <c r="G68" s="26" t="s">
-        <v>137</v>
-      </c>
-      <c r="H68" s="26" t="s">
-        <v>137</v>
-      </c>
-      <c r="I68" s="26" t="s">
-        <v>137</v>
-      </c>
-      <c r="J68" s="26" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="69" spans="1:10">
-      <c r="A69" s="63"/>
-      <c r="B69" s="63"/>
-      <c r="C69" s="63"/>
-      <c r="D69" s="26" t="s">
-        <v>387</v>
-      </c>
-      <c r="E69" s="40" t="s">
-        <v>328</v>
-      </c>
-      <c r="F69" s="26" t="s">
-        <v>137</v>
-      </c>
-      <c r="G69" s="26" t="s">
-        <v>137</v>
-      </c>
-      <c r="H69" s="26" t="s">
-        <v>137</v>
-      </c>
-      <c r="I69" s="26" t="s">
-        <v>137</v>
-      </c>
-      <c r="J69" s="26" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="71" spans="1:10">
-      <c r="B71" s="64" t="s">
-        <v>433</v>
-      </c>
-      <c r="C71" s="63" t="s">
+      <c r="C71" s="61" t="s">
+        <v>419</v>
+      </c>
+      <c r="D71" s="25" t="s">
         <v>420</v>
       </c>
-      <c r="D71" s="26" t="s">
+      <c r="E71" s="44" t="s">
+        <v>388</v>
+      </c>
+      <c r="F71" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="G71" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="H71" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="I71" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="J71" s="25" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
+      <c r="B72" s="61"/>
+      <c r="C72" s="61"/>
+      <c r="D72" s="25" t="s">
         <v>421</v>
       </c>
-      <c r="E71" s="45" t="s">
-        <v>389</v>
-      </c>
-      <c r="F71" s="26" t="s">
-        <v>137</v>
-      </c>
-      <c r="G71" s="26" t="s">
-        <v>137</v>
-      </c>
-      <c r="H71" s="26" t="s">
-        <v>137</v>
-      </c>
-      <c r="I71" s="26" t="s">
-        <v>137</v>
-      </c>
-      <c r="J71" s="26" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="72" spans="1:10">
-      <c r="B72" s="63"/>
-      <c r="C72" s="63"/>
-      <c r="D72" s="26" t="s">
+      <c r="E72" s="44" t="s">
+        <v>390</v>
+      </c>
+      <c r="F72" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="G72" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="H72" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="I72" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="J72" s="25" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
+      <c r="B73" s="61"/>
+      <c r="C73" s="61"/>
+      <c r="D73" s="25" t="s">
         <v>422</v>
       </c>
-      <c r="E72" s="45" t="s">
-        <v>391</v>
-      </c>
-      <c r="F72" s="26" t="s">
-        <v>137</v>
-      </c>
-      <c r="G72" s="26" t="s">
-        <v>137</v>
-      </c>
-      <c r="H72" s="26" t="s">
-        <v>137</v>
-      </c>
-      <c r="I72" s="26" t="s">
-        <v>137</v>
-      </c>
-      <c r="J72" s="26" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="73" spans="1:10">
-      <c r="B73" s="63"/>
-      <c r="C73" s="63"/>
-      <c r="D73" s="26" t="s">
+      <c r="E73" s="44" t="s">
+        <v>392</v>
+      </c>
+      <c r="F73" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="G73" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="H73" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="I73" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="J73" s="25" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
+      <c r="B74" s="61"/>
+      <c r="C74" s="61"/>
+      <c r="D74" s="25" t="s">
         <v>423</v>
       </c>
-      <c r="E73" s="45" t="s">
+      <c r="E74" s="44" t="s">
         <v>393</v>
       </c>
-      <c r="F73" s="26" t="s">
-        <v>137</v>
-      </c>
-      <c r="G73" s="26" t="s">
-        <v>137</v>
-      </c>
-      <c r="H73" s="26" t="s">
-        <v>137</v>
-      </c>
-      <c r="I73" s="26" t="s">
-        <v>137</v>
-      </c>
-      <c r="J73" s="26" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="74" spans="1:10">
-      <c r="B74" s="63"/>
-      <c r="C74" s="63"/>
-      <c r="D74" s="26" t="s">
+      <c r="F74" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="G74" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="H74" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="I74" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="J74" s="25" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
+      <c r="B75" s="61"/>
+      <c r="C75" s="61"/>
+      <c r="D75" s="25" t="s">
         <v>424</v>
       </c>
-      <c r="E74" s="45" t="s">
+      <c r="E75" s="44" t="s">
         <v>394</v>
       </c>
-      <c r="F74" s="26" t="s">
-        <v>137</v>
-      </c>
-      <c r="G74" s="26" t="s">
-        <v>137</v>
-      </c>
-      <c r="H74" s="26" t="s">
-        <v>137</v>
-      </c>
-      <c r="I74" s="26" t="s">
-        <v>137</v>
-      </c>
-      <c r="J74" s="26" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="75" spans="1:10">
-      <c r="B75" s="63"/>
-      <c r="C75" s="63"/>
-      <c r="D75" s="26" t="s">
+      <c r="F75" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="G75" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="H75" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="I75" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="J75" s="25" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
+      <c r="B76" s="61"/>
+      <c r="C76" s="61"/>
+      <c r="D76" s="25" t="s">
         <v>425</v>
       </c>
-      <c r="E75" s="45" t="s">
+      <c r="E76" s="44" t="s">
         <v>395</v>
       </c>
-      <c r="F75" s="26" t="s">
-        <v>137</v>
-      </c>
-      <c r="G75" s="26" t="s">
-        <v>137</v>
-      </c>
-      <c r="H75" s="26" t="s">
-        <v>137</v>
-      </c>
-      <c r="I75" s="26" t="s">
-        <v>137</v>
-      </c>
-      <c r="J75" s="26" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="76" spans="1:10">
-      <c r="B76" s="63"/>
-      <c r="C76" s="63"/>
-      <c r="D76" s="26" t="s">
+      <c r="F76" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="G76" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="H76" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="I76" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="J76" s="25" t="s">
         <v>426</v>
       </c>
-      <c r="E76" s="45" t="s">
+    </row>
+    <row r="78" spans="1:10">
+      <c r="B78" s="62" t="s">
+        <v>432</v>
+      </c>
+      <c r="C78" s="61" t="s">
+        <v>443</v>
+      </c>
+      <c r="D78" s="25" t="s">
+        <v>444</v>
+      </c>
+      <c r="E78" s="51" t="s">
         <v>396</v>
       </c>
-      <c r="F76" s="26" t="s">
-        <v>137</v>
-      </c>
-      <c r="G76" s="26" t="s">
-        <v>137</v>
-      </c>
-      <c r="H76" s="26" t="s">
-        <v>137</v>
-      </c>
-      <c r="I76" s="26" t="s">
-        <v>137</v>
-      </c>
-      <c r="J76" s="26" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="78" spans="1:10">
-      <c r="B78" s="64" t="s">
-        <v>433</v>
-      </c>
-      <c r="C78" s="63" t="s">
-        <v>444</v>
-      </c>
-      <c r="D78" s="26" t="s">
+      <c r="F78" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="G78" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="H78" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="I78" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="J78" s="25" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
+      <c r="B79" s="61"/>
+      <c r="C79" s="61"/>
+      <c r="D79" s="25" t="s">
         <v>445</v>
       </c>
-      <c r="E78" s="52" t="s">
+      <c r="E79" s="51" t="s">
         <v>397</v>
       </c>
-      <c r="F78" s="26" t="s">
-        <v>137</v>
-      </c>
-      <c r="G78" s="26" t="s">
-        <v>137</v>
-      </c>
-      <c r="H78" s="26" t="s">
-        <v>137</v>
-      </c>
-      <c r="I78" s="26" t="s">
-        <v>137</v>
-      </c>
-      <c r="J78" s="26" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="79" spans="1:10">
-      <c r="B79" s="63"/>
-      <c r="C79" s="63"/>
-      <c r="D79" s="26" t="s">
+      <c r="F79" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="G79" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="H79" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="I79" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="J79" s="25" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
+      <c r="B80" s="61"/>
+      <c r="C80" s="61"/>
+      <c r="D80" s="25" t="s">
         <v>446</v>
       </c>
-      <c r="E79" s="52" t="s">
-        <v>398</v>
-      </c>
-      <c r="F79" s="26" t="s">
-        <v>137</v>
-      </c>
-      <c r="G79" s="26" t="s">
-        <v>137</v>
-      </c>
-      <c r="H79" s="26" t="s">
-        <v>137</v>
-      </c>
-      <c r="I79" s="26" t="s">
-        <v>137</v>
-      </c>
-      <c r="J79" s="26" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="80" spans="1:10">
-      <c r="B80" s="63"/>
-      <c r="C80" s="63"/>
-      <c r="D80" s="26" t="s">
+      <c r="E80" s="51" t="s">
+        <v>435</v>
+      </c>
+      <c r="F80" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="G80" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="H80" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="I80" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="J80" s="25" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" s="50" customFormat="1" ht="28.8">
+      <c r="A81" s="49"/>
+      <c r="B81" s="48" t="s">
+        <v>442</v>
+      </c>
+      <c r="C81" s="61"/>
+      <c r="D81" s="21" t="s">
         <v>447</v>
       </c>
-      <c r="E80" s="52" t="s">
-        <v>436</v>
-      </c>
-      <c r="F80" s="26" t="s">
-        <v>137</v>
-      </c>
-      <c r="G80" s="26" t="s">
-        <v>137</v>
-      </c>
-      <c r="H80" s="26" t="s">
-        <v>137</v>
-      </c>
-      <c r="I80" s="26" t="s">
-        <v>137</v>
-      </c>
-      <c r="J80" s="26" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="81" spans="1:10" s="51" customFormat="1" ht="28.8">
-      <c r="A81" s="50"/>
-      <c r="B81" s="49" t="s">
-        <v>443</v>
-      </c>
-      <c r="C81" s="63"/>
-      <c r="D81" s="22" t="s">
+      <c r="E81" s="52" t="s">
+        <v>439</v>
+      </c>
+      <c r="F81" s="21" t="s">
+        <v>136</v>
+      </c>
+      <c r="G81" s="21" t="s">
+        <v>136</v>
+      </c>
+      <c r="H81" s="21" t="s">
+        <v>136</v>
+      </c>
+      <c r="I81" s="21" t="s">
+        <v>136</v>
+      </c>
+      <c r="J81" s="53" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
+      <c r="B83" s="62" t="s">
+        <v>479</v>
+      </c>
+      <c r="C83" s="61" t="s">
+        <v>474</v>
+      </c>
+      <c r="D83" s="25" t="s">
+        <v>475</v>
+      </c>
+      <c r="E83" s="29" t="s">
         <v>448</v>
       </c>
-      <c r="E81" s="53" t="s">
-        <v>440</v>
-      </c>
-      <c r="F81" s="22" t="s">
-        <v>137</v>
-      </c>
-      <c r="G81" s="22" t="s">
-        <v>137</v>
-      </c>
-      <c r="H81" s="22" t="s">
-        <v>137</v>
-      </c>
-      <c r="I81" s="22" t="s">
-        <v>137</v>
-      </c>
-      <c r="J81" s="54" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="83" spans="1:10">
-      <c r="B83" s="64" t="s">
-        <v>480</v>
-      </c>
-      <c r="C83" s="63" t="s">
-        <v>475</v>
-      </c>
-      <c r="D83" s="26" t="s">
+      <c r="F83" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="G83" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="H83" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="I83" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="J83" s="25" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
+      <c r="B84" s="61"/>
+      <c r="C84" s="61"/>
+      <c r="D84" s="25" t="s">
         <v>476</v>
       </c>
-      <c r="E83" s="30" t="s">
-        <v>449</v>
-      </c>
-      <c r="F83" s="26" t="s">
-        <v>137</v>
-      </c>
-      <c r="G83" s="26" t="s">
-        <v>137</v>
-      </c>
-      <c r="H83" s="26" t="s">
-        <v>137</v>
-      </c>
-      <c r="I83" s="26" t="s">
-        <v>137</v>
-      </c>
-      <c r="J83" s="26" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="84" spans="1:10">
-      <c r="B84" s="63"/>
-      <c r="C84" s="63"/>
-      <c r="D84" s="26" t="s">
+      <c r="E84" s="29" t="s">
+        <v>451</v>
+      </c>
+      <c r="F84" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="G84" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="H84" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="I84" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="J84" s="25" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
+      <c r="B85" s="61"/>
+      <c r="C85" s="61"/>
+      <c r="D85" s="25" t="s">
         <v>477</v>
       </c>
-      <c r="E84" s="30" t="s">
+      <c r="E85" s="29" t="s">
         <v>452</v>
       </c>
-      <c r="F84" s="26" t="s">
-        <v>137</v>
-      </c>
-      <c r="G84" s="26" t="s">
-        <v>137</v>
-      </c>
-      <c r="H84" s="26" t="s">
-        <v>137</v>
-      </c>
-      <c r="I84" s="26" t="s">
-        <v>137</v>
-      </c>
-      <c r="J84" s="26" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="85" spans="1:10">
-      <c r="B85" s="63"/>
-      <c r="C85" s="63"/>
-      <c r="D85" s="26" t="s">
+      <c r="F85" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="G85" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="H85" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="I85" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="J85" s="25" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
+      <c r="B86" s="61"/>
+      <c r="C86" s="61"/>
+      <c r="D86" s="25" t="s">
         <v>478</v>
       </c>
-      <c r="E85" s="30" t="s">
+      <c r="E86" s="29" t="s">
         <v>453</v>
       </c>
-      <c r="F85" s="26" t="s">
-        <v>137</v>
-      </c>
-      <c r="G85" s="26" t="s">
-        <v>137</v>
-      </c>
-      <c r="H85" s="26" t="s">
-        <v>137</v>
-      </c>
-      <c r="I85" s="26" t="s">
-        <v>137</v>
-      </c>
-      <c r="J85" s="26" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="86" spans="1:10">
-      <c r="B86" s="63"/>
-      <c r="C86" s="63"/>
-      <c r="D86" s="26" t="s">
-        <v>479</v>
-      </c>
-      <c r="E86" s="30" t="s">
+      <c r="F86" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="G86" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="H86" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="I86" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="J86" s="25" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
+      <c r="B87" s="61"/>
+      <c r="C87" s="61"/>
+      <c r="D87" s="25" t="s">
+        <v>485</v>
+      </c>
+      <c r="E87" s="29" t="s">
         <v>454</v>
       </c>
-      <c r="F86" s="26" t="s">
-        <v>137</v>
-      </c>
-      <c r="G86" s="26" t="s">
-        <v>137</v>
-      </c>
-      <c r="H86" s="26" t="s">
-        <v>137</v>
-      </c>
-      <c r="I86" s="26" t="s">
-        <v>137</v>
-      </c>
-      <c r="J86" s="26" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="87" spans="1:10">
-      <c r="B87" s="63"/>
-      <c r="C87" s="63"/>
-      <c r="D87" s="26" t="s">
+      <c r="F87" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="G87" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="H87" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="I87" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="J87" s="25" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
+      <c r="B88" s="61"/>
+      <c r="C88" s="61"/>
+      <c r="D88" s="25" t="s">
         <v>486</v>
       </c>
-      <c r="E87" s="30" t="s">
+      <c r="E88" s="29" t="s">
         <v>455</v>
       </c>
-      <c r="F87" s="26" t="s">
-        <v>137</v>
-      </c>
-      <c r="G87" s="26" t="s">
-        <v>137</v>
-      </c>
-      <c r="H87" s="26" t="s">
-        <v>137</v>
-      </c>
-      <c r="I87" s="26" t="s">
-        <v>137</v>
-      </c>
-      <c r="J87" s="26" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="88" spans="1:10">
-      <c r="B88" s="63"/>
-      <c r="C88" s="63"/>
-      <c r="D88" s="26" t="s">
-        <v>487</v>
-      </c>
-      <c r="E88" s="30" t="s">
-        <v>456</v>
-      </c>
-      <c r="F88" s="26" t="s">
-        <v>137</v>
-      </c>
-      <c r="G88" s="26" t="s">
-        <v>137</v>
-      </c>
-      <c r="H88" s="26" t="s">
-        <v>137</v>
-      </c>
-      <c r="I88" s="26" t="s">
-        <v>137</v>
-      </c>
-      <c r="J88" s="26" t="s">
-        <v>474</v>
+      <c r="F88" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="G88" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="H88" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="I88" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="J88" s="25" t="s">
+        <v>473</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="C83:C88"/>
-    <mergeCell ref="B83:B88"/>
-    <mergeCell ref="C57:C60"/>
-    <mergeCell ref="A57:A60"/>
-    <mergeCell ref="B58:B60"/>
-    <mergeCell ref="C78:C81"/>
-    <mergeCell ref="B78:B80"/>
-    <mergeCell ref="A51:A55"/>
-    <mergeCell ref="B51:B55"/>
-    <mergeCell ref="C71:C76"/>
-    <mergeCell ref="B71:B76"/>
-    <mergeCell ref="C62:C69"/>
-    <mergeCell ref="A62:A69"/>
-    <mergeCell ref="B62:B69"/>
-    <mergeCell ref="C28:C33"/>
-    <mergeCell ref="C22:C26"/>
-    <mergeCell ref="C15:C20"/>
-    <mergeCell ref="A47:A50"/>
-    <mergeCell ref="B47:B50"/>
-    <mergeCell ref="B35:B39"/>
-    <mergeCell ref="A41:A45"/>
-    <mergeCell ref="B41:B45"/>
-    <mergeCell ref="C41:C45"/>
-    <mergeCell ref="C35:C39"/>
     <mergeCell ref="C2:C5"/>
     <mergeCell ref="C47:C55"/>
     <mergeCell ref="B2:B5"/>
@@ -4538,6 +4677,30 @@
     <mergeCell ref="A22:A26"/>
     <mergeCell ref="C7:C13"/>
     <mergeCell ref="A35:A39"/>
+    <mergeCell ref="C28:C33"/>
+    <mergeCell ref="C22:C26"/>
+    <mergeCell ref="C15:C20"/>
+    <mergeCell ref="A47:A50"/>
+    <mergeCell ref="B47:B50"/>
+    <mergeCell ref="B35:B39"/>
+    <mergeCell ref="A41:A45"/>
+    <mergeCell ref="B41:B45"/>
+    <mergeCell ref="C41:C45"/>
+    <mergeCell ref="C35:C39"/>
+    <mergeCell ref="A51:A55"/>
+    <mergeCell ref="B51:B55"/>
+    <mergeCell ref="C71:C76"/>
+    <mergeCell ref="B71:B76"/>
+    <mergeCell ref="C62:C69"/>
+    <mergeCell ref="A62:A69"/>
+    <mergeCell ref="B62:B69"/>
+    <mergeCell ref="C83:C88"/>
+    <mergeCell ref="B83:B88"/>
+    <mergeCell ref="C57:C60"/>
+    <mergeCell ref="A57:A60"/>
+    <mergeCell ref="B58:B60"/>
+    <mergeCell ref="C78:C81"/>
+    <mergeCell ref="B78:B80"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4571,54 +4734,54 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="E1" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>250</v>
       </c>
-      <c r="F1" s="3" t="s">
-        <v>251</v>
-      </c>
       <c r="G1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="K1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="J1" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>18</v>
-      </c>
       <c r="L1" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="M1" s="3" t="s">
         <v>49</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="10" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
@@ -4633,50 +4796,50 @@
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="10" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F3" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="G3" s="4" t="s">
         <v>256</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="H3" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="I3" s="4" t="s">
         <v>257</v>
       </c>
-      <c r="H3" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>258</v>
-      </c>
       <c r="J3" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="L3" s="4"/>
       <c r="M3" s="4"/>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="10" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
@@ -4691,60 +4854,60 @@
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="10" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F5" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="G5" s="4" t="s">
         <v>256</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="H5" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="I5" s="4" t="s">
         <v>257</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="I5" s="4" t="s">
-        <v>258</v>
       </c>
       <c r="J5" s="4"/>
       <c r="K5" s="4" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="L5" s="4"/>
       <c r="M5" s="4"/>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="10" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B6" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>244</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>245</v>
-      </c>
       <c r="D6" s="4" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
       <c r="G6" s="4" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="H6" s="4"/>
       <c r="I6" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="J6" s="4"/>
       <c r="K6" s="4"/>
@@ -4753,13 +4916,13 @@
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="10" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
@@ -4774,13 +4937,13 @@
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="10" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
@@ -4791,21 +4954,21 @@
       <c r="J8" s="4"/>
       <c r="K8" s="4"/>
       <c r="L8" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="M8" s="4" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="10" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
@@ -4820,13 +4983,13 @@
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="10" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
@@ -4850,7 +5013,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -4862,68 +5025,68 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>9</v>
-      </c>
       <c r="C1" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="10" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="10" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="10" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="10" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="10" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B6" s="10" t="s">
+        <v>283</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>284</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>285</v>
       </c>
     </row>
   </sheetData>
@@ -4955,45 +5118,45 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>9</v>
-      </c>
       <c r="C1" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D1" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>296</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>297</v>
       </c>
-      <c r="F1" s="3" t="s">
-        <v>298</v>
-      </c>
       <c r="G1" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>302</v>
       </c>
-      <c r="H1" s="3" t="s">
-        <v>303</v>
-      </c>
       <c r="I1" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="10" t="s">
+        <v>291</v>
+      </c>
+      <c r="B2" s="10" t="s">
         <v>292</v>
       </c>
-      <c r="B2" s="10" t="s">
-        <v>293</v>
-      </c>
       <c r="C2" s="4" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
@@ -5005,13 +5168,13 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="10" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
@@ -5023,68 +5186,68 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="10" t="s">
+        <v>286</v>
+      </c>
+      <c r="B4" s="10" t="s">
         <v>287</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="C4" s="4" t="s">
         <v>288</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>289</v>
-      </c>
       <c r="D4" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>299</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="F4" s="4" t="s">
         <v>300</v>
       </c>
-      <c r="F4" s="4" t="s">
-        <v>301</v>
-      </c>
-      <c r="G4" s="37" t="s">
+      <c r="G4" s="36" t="s">
+        <v>303</v>
+      </c>
+      <c r="H4" s="4" t="s">
         <v>304</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>305</v>
       </c>
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="10" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
-      <c r="G5" s="37"/>
+      <c r="G5" s="36"/>
       <c r="H5" s="4"/>
       <c r="I5" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="J5" s="4" t="s">
         <v>310</v>
       </c>
-      <c r="J5" s="4" t="s">
-        <v>311</v>
-      </c>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="48" t="s">
+      <c r="A6" s="47" t="s">
+        <v>439</v>
+      </c>
+      <c r="B6" s="47" t="s">
         <v>440</v>
       </c>
-      <c r="B6" s="48" t="s">
-        <v>441</v>
-      </c>
       <c r="C6" s="4" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
-      <c r="G6" s="37"/>
+      <c r="G6" s="36"/>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
@@ -5127,72 +5290,72 @@
   <sheetData>
     <row r="1" spans="1:19">
       <c r="A1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>9</v>
-      </c>
       <c r="C1" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D1" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>340</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>341</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="H1" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>365</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>364</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
+      <c r="A2" s="43" t="s">
+        <v>320</v>
+      </c>
+      <c r="B2" s="10" t="s">
         <v>329</v>
       </c>
-      <c r="G1" s="3" t="s">
-        <v>342</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>343</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>344</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>338</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>348</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>349</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>363</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>366</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>372</v>
-      </c>
-      <c r="Q1" s="3" t="s">
-        <v>365</v>
-      </c>
-      <c r="R1" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="S1" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19">
-      <c r="A2" s="44" t="s">
-        <v>321</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>330</v>
-      </c>
       <c r="C2" s="4" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
@@ -5202,7 +5365,7 @@
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
       <c r="K2" s="4" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="L2" s="4"/>
       <c r="M2" s="4"/>
@@ -5214,128 +5377,128 @@
       <c r="S2" s="4"/>
     </row>
     <row r="3" spans="1:19">
-      <c r="A3" s="44" t="s">
-        <v>322</v>
+      <c r="A3" s="43" t="s">
+        <v>321</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D3" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="E3" s="4" t="s">
         <v>352</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="F3" s="4" t="s">
+        <v>344</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="H3" s="4" t="s">
         <v>353</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>345</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>346</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>354</v>
       </c>
       <c r="I3" s="4"/>
       <c r="J3" s="4" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="L3" s="4" t="s">
+        <v>349</v>
+      </c>
+      <c r="M3" s="4" t="s">
         <v>350</v>
       </c>
-      <c r="M3" s="4" t="s">
-        <v>351</v>
-      </c>
       <c r="N3" s="4" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="O3" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="P3" s="4" t="s">
+        <v>367</v>
+      </c>
+      <c r="Q3" s="4" t="s">
         <v>346</v>
       </c>
-      <c r="P3" s="4" t="s">
-        <v>368</v>
-      </c>
-      <c r="Q3" s="4" t="s">
-        <v>347</v>
-      </c>
       <c r="R3" s="4" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="S3" s="4"/>
     </row>
     <row r="4" spans="1:19">
-      <c r="A4" s="44" t="s">
-        <v>323</v>
+      <c r="A4" s="43" t="s">
+        <v>322</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
       <c r="F4" s="4" t="s">
+        <v>359</v>
+      </c>
+      <c r="G4" s="4" t="s">
         <v>360</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="H4" s="4" t="s">
         <v>361</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>362</v>
       </c>
       <c r="I4" s="4"/>
       <c r="J4" s="4" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="K4" s="4"/>
       <c r="L4" s="4" t="s">
+        <v>372</v>
+      </c>
+      <c r="M4" s="4" t="s">
         <v>373</v>
       </c>
-      <c r="M4" s="4" t="s">
-        <v>374</v>
-      </c>
       <c r="N4" s="4" t="s">
+        <v>368</v>
+      </c>
+      <c r="O4" s="4" t="s">
         <v>369</v>
       </c>
-      <c r="O4" s="4" t="s">
+      <c r="P4" s="4" t="s">
         <v>370</v>
       </c>
-      <c r="P4" s="4" t="s">
-        <v>371</v>
-      </c>
       <c r="Q4" s="4" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="R4" s="4"/>
       <c r="S4" s="4"/>
     </row>
     <row r="5" spans="1:19">
-      <c r="A5" s="44" t="s">
-        <v>324</v>
+      <c r="A5" s="43" t="s">
+        <v>323</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D5" s="4" t="s">
+        <v>377</v>
+      </c>
+      <c r="E5" s="4" t="s">
         <v>378</v>
       </c>
-      <c r="E5" s="4" t="s">
-        <v>379</v>
-      </c>
       <c r="F5" s="4" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
@@ -5351,32 +5514,32 @@
       <c r="S5" s="4"/>
     </row>
     <row r="6" spans="1:19">
-      <c r="A6" s="44" t="s">
-        <v>325</v>
+      <c r="A6" s="43" t="s">
+        <v>324</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D6" s="4" t="s">
+        <v>379</v>
+      </c>
+      <c r="E6" s="4" t="s">
         <v>380</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="F6" s="4" t="s">
+        <v>376</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="H6" s="4" t="s">
         <v>381</v>
       </c>
-      <c r="F6" s="4" t="s">
-        <v>377</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>346</v>
-      </c>
-      <c r="H6" s="4" t="s">
+      <c r="I6" s="4" t="s">
         <v>382</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>383</v>
       </c>
       <c r="J6" s="4"/>
       <c r="K6" s="4"/>
@@ -5390,14 +5553,14 @@
       <c r="S6" s="4"/>
     </row>
     <row r="7" spans="1:19">
-      <c r="A7" s="44" t="s">
-        <v>326</v>
+      <c r="A7" s="43" t="s">
+        <v>325</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
@@ -5417,14 +5580,14 @@
       <c r="S7" s="4"/>
     </row>
     <row r="8" spans="1:19">
-      <c r="A8" s="44" t="s">
-        <v>327</v>
+      <c r="A8" s="43" t="s">
+        <v>326</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
@@ -5441,38 +5604,38 @@
       <c r="P8" s="4"/>
       <c r="Q8" s="4"/>
       <c r="R8" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="S8" s="4" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="9" spans="1:19">
-      <c r="A9" s="41" t="s">
-        <v>328</v>
-      </c>
-      <c r="B9" s="42" t="s">
-        <v>337</v>
+      <c r="A9" s="40" t="s">
+        <v>327</v>
+      </c>
+      <c r="B9" s="41" t="s">
+        <v>336</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>245</v>
-      </c>
-      <c r="D9" s="43"/>
-      <c r="E9" s="43"/>
-      <c r="F9" s="43"/>
-      <c r="G9" s="43"/>
-      <c r="H9" s="43"/>
-      <c r="I9" s="43"/>
-      <c r="J9" s="43"/>
-      <c r="K9" s="43"/>
-      <c r="L9" s="43"/>
-      <c r="M9" s="43"/>
-      <c r="N9" s="43"/>
-      <c r="O9" s="43"/>
-      <c r="P9" s="43"/>
-      <c r="Q9" s="43"/>
-      <c r="R9" s="43"/>
-      <c r="S9" s="43"/>
+        <v>244</v>
+      </c>
+      <c r="D9" s="42"/>
+      <c r="E9" s="42"/>
+      <c r="F9" s="42"/>
+      <c r="G9" s="42"/>
+      <c r="H9" s="42"/>
+      <c r="I9" s="42"/>
+      <c r="J9" s="42"/>
+      <c r="K9" s="42"/>
+      <c r="L9" s="42"/>
+      <c r="M9" s="42"/>
+      <c r="N9" s="42"/>
+      <c r="O9" s="42"/>
+      <c r="P9" s="42"/>
+      <c r="Q9" s="42"/>
+      <c r="R9" s="42"/>
+      <c r="S9" s="42"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5503,85 +5666,85 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>9</v>
-      </c>
       <c r="C1" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D1" s="3" t="s">
+        <v>404</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>405</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>406</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>407</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>408</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>409</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>410</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
+        <v>436</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" s="43" t="s">
+        <v>388</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>389</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>411</v>
       </c>
-      <c r="K1" s="3" t="s">
-        <v>437</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12">
-      <c r="A2" s="44" t="s">
-        <v>389</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>390</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="D2" s="4" t="s">
+      <c r="E2" s="4" t="s">
         <v>412</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="F2" s="4" t="s">
         <v>413</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="G2" s="4" t="s">
         <v>414</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="H2" s="4" t="s">
         <v>415</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="I2" s="4" t="s">
         <v>416</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="J2" s="4" t="s">
         <v>417</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>418</v>
       </c>
       <c r="K2" s="4"/>
       <c r="L2" s="4"/>
     </row>
     <row r="3" spans="1:12">
-      <c r="A3" s="44" t="s">
+      <c r="A3" s="43" t="s">
+        <v>390</v>
+      </c>
+      <c r="B3" s="10" t="s">
         <v>391</v>
       </c>
-      <c r="B3" s="10" t="s">
-        <v>392</v>
-      </c>
       <c r="C3" s="4" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
@@ -5594,14 +5757,14 @@
       <c r="L3" s="4"/>
     </row>
     <row r="4" spans="1:12">
-      <c r="A4" s="44" t="s">
-        <v>393</v>
+      <c r="A4" s="43" t="s">
+        <v>392</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
@@ -5614,14 +5777,14 @@
       <c r="L4" s="4"/>
     </row>
     <row r="5" spans="1:12">
-      <c r="A5" s="44" t="s">
-        <v>394</v>
+      <c r="A5" s="43" t="s">
+        <v>393</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
@@ -5634,14 +5797,14 @@
       <c r="L5" s="4"/>
     </row>
     <row r="6" spans="1:12">
-      <c r="A6" s="44" t="s">
-        <v>395</v>
+      <c r="A6" s="43" t="s">
+        <v>394</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
@@ -5654,14 +5817,14 @@
       <c r="L6" s="4"/>
     </row>
     <row r="7" spans="1:12">
-      <c r="A7" s="44" t="s">
-        <v>396</v>
+      <c r="A7" s="43" t="s">
+        <v>395</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
@@ -5674,14 +5837,14 @@
       <c r="L7" s="4"/>
     </row>
     <row r="8" spans="1:12">
-      <c r="A8" s="44" t="s">
-        <v>397</v>
+      <c r="A8" s="43" t="s">
+        <v>396</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
@@ -5694,14 +5857,14 @@
       <c r="L8" s="4"/>
     </row>
     <row r="9" spans="1:12">
-      <c r="A9" s="44" t="s">
-        <v>398</v>
+      <c r="A9" s="43" t="s">
+        <v>397</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
@@ -5714,14 +5877,14 @@
       <c r="L9" s="4"/>
     </row>
     <row r="10" spans="1:12">
-      <c r="A10" s="44" t="s">
-        <v>436</v>
+      <c r="A10" s="43" t="s">
+        <v>435</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
@@ -5731,10 +5894,10 @@
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
       <c r="K10" s="4" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="L10" s="4" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
   </sheetData>
@@ -5747,8 +5910,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -5760,35 +5923,420 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>9</v>
-      </c>
       <c r="C1" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="43" t="s">
+        <v>520</v>
+      </c>
+      <c r="B2" s="10" t="s">
         <v>521</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="C2" s="4" t="s">
         <v>522</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>523</v>
-      </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="44"/>
+      <c r="A3" s="43"/>
       <c r="B3" s="10"/>
       <c r="C3" s="4"/>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="44"/>
+      <c r="A4" s="43"/>
       <c r="B4" s="10"/>
       <c r="C4" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:V8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="21.88671875" customWidth="1"/>
+    <col min="2" max="2" width="25.33203125" customWidth="1"/>
+    <col min="3" max="3" width="8.21875" style="57" customWidth="1"/>
+    <col min="4" max="4" width="16.77734375" customWidth="1"/>
+    <col min="5" max="5" width="14.6640625" customWidth="1"/>
+    <col min="6" max="6" width="13.77734375" customWidth="1"/>
+    <col min="7" max="7" width="13.109375" style="5" customWidth="1"/>
+    <col min="8" max="8" width="11.5546875" style="5" customWidth="1"/>
+    <col min="9" max="9" width="12.44140625" customWidth="1"/>
+    <col min="10" max="10" width="17" customWidth="1"/>
+    <col min="11" max="11" width="12.109375" customWidth="1"/>
+    <col min="12" max="12" width="15" customWidth="1"/>
+    <col min="13" max="13" width="15.88671875" customWidth="1"/>
+    <col min="14" max="14" width="17.33203125" customWidth="1"/>
+    <col min="15" max="15" width="13.33203125" customWidth="1"/>
+    <col min="16" max="16" width="11.33203125" customWidth="1"/>
+    <col min="17" max="17" width="15.5546875" customWidth="1"/>
+    <col min="18" max="18" width="12.6640625" customWidth="1"/>
+    <col min="19" max="19" width="14.21875" customWidth="1"/>
+    <col min="20" max="20" width="17.33203125" customWidth="1"/>
+    <col min="21" max="21" width="16.5546875" customWidth="1"/>
+    <col min="22" max="22" width="15.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22">
+      <c r="A1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="56" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="56" t="s">
+        <v>540</v>
+      </c>
+      <c r="E1" s="56" t="s">
+        <v>541</v>
+      </c>
+      <c r="F1" s="56" t="s">
+        <v>468</v>
+      </c>
+      <c r="G1" s="56" t="s">
+        <v>469</v>
+      </c>
+      <c r="H1" s="56" t="s">
+        <v>544</v>
+      </c>
+      <c r="I1" s="56" t="s">
+        <v>79</v>
+      </c>
+      <c r="J1" s="56" t="s">
+        <v>547</v>
+      </c>
+      <c r="K1" s="56" t="s">
+        <v>548</v>
+      </c>
+      <c r="L1" s="56" t="s">
+        <v>549</v>
+      </c>
+      <c r="M1" s="56" t="s">
+        <v>550</v>
+      </c>
+      <c r="N1" s="56" t="s">
+        <v>551</v>
+      </c>
+      <c r="O1" s="56" t="s">
+        <v>552</v>
+      </c>
+      <c r="P1" s="56" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q1" s="56" t="s">
+        <v>553</v>
+      </c>
+      <c r="R1" s="56" t="s">
+        <v>554</v>
+      </c>
+      <c r="S1" s="56" t="s">
+        <v>561</v>
+      </c>
+      <c r="T1" s="56" t="s">
+        <v>562</v>
+      </c>
+      <c r="U1" s="56" t="s">
+        <v>563</v>
+      </c>
+      <c r="V1" s="56" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22">
+      <c r="A2" s="58" t="s">
+        <v>523</v>
+      </c>
+      <c r="B2" s="58" t="s">
+        <v>530</v>
+      </c>
+      <c r="C2" s="59">
+        <v>4138</v>
+      </c>
+      <c r="D2" s="59" t="s">
+        <v>542</v>
+      </c>
+      <c r="E2" s="59" t="s">
+        <v>543</v>
+      </c>
+      <c r="F2" s="59" t="s">
+        <v>471</v>
+      </c>
+      <c r="G2" s="60" t="s">
+        <v>546</v>
+      </c>
+      <c r="H2" s="60" t="s">
+        <v>545</v>
+      </c>
+      <c r="I2" s="60"/>
+      <c r="J2" s="60"/>
+      <c r="K2" s="60"/>
+      <c r="L2" s="60"/>
+      <c r="M2" s="60"/>
+      <c r="N2" s="60"/>
+      <c r="O2" s="60"/>
+      <c r="P2" s="60"/>
+      <c r="Q2" s="60"/>
+      <c r="R2" s="60"/>
+      <c r="S2" s="60"/>
+      <c r="T2" s="60"/>
+      <c r="U2" s="60"/>
+      <c r="V2" s="60"/>
+    </row>
+    <row r="3" spans="1:22">
+      <c r="A3" s="58" t="s">
+        <v>524</v>
+      </c>
+      <c r="B3" s="58" t="s">
+        <v>531</v>
+      </c>
+      <c r="C3" s="59">
+        <v>4138</v>
+      </c>
+      <c r="D3" s="59" t="s">
+        <v>542</v>
+      </c>
+      <c r="E3" s="59" t="s">
+        <v>567</v>
+      </c>
+      <c r="F3" s="59" t="s">
+        <v>471</v>
+      </c>
+      <c r="G3" s="60" t="s">
+        <v>566</v>
+      </c>
+      <c r="H3" s="60" t="s">
+        <v>565</v>
+      </c>
+      <c r="I3" s="60" t="s">
+        <v>258</v>
+      </c>
+      <c r="J3" s="60" t="s">
+        <v>555</v>
+      </c>
+      <c r="K3" s="60" t="s">
+        <v>556</v>
+      </c>
+      <c r="L3" s="60" t="s">
+        <v>210</v>
+      </c>
+      <c r="M3" s="60" t="s">
+        <v>557</v>
+      </c>
+      <c r="N3" s="60" t="s">
+        <v>206</v>
+      </c>
+      <c r="O3" s="60" t="s">
+        <v>93</v>
+      </c>
+      <c r="P3" s="60" t="s">
+        <v>558</v>
+      </c>
+      <c r="Q3" s="60" t="s">
+        <v>559</v>
+      </c>
+      <c r="R3" s="60" t="s">
+        <v>560</v>
+      </c>
+      <c r="S3" s="60" t="s">
+        <v>93</v>
+      </c>
+      <c r="T3" s="60" t="s">
+        <v>95</v>
+      </c>
+      <c r="U3" s="60" t="s">
+        <v>558</v>
+      </c>
+      <c r="V3" s="60" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22">
+      <c r="A4" s="58" t="s">
+        <v>525</v>
+      </c>
+      <c r="B4" s="58" t="s">
+        <v>532</v>
+      </c>
+      <c r="C4" s="59">
+        <v>4138</v>
+      </c>
+      <c r="D4" s="59" t="s">
+        <v>542</v>
+      </c>
+      <c r="E4" s="59" t="s">
+        <v>570</v>
+      </c>
+      <c r="F4" s="59" t="s">
+        <v>471</v>
+      </c>
+      <c r="G4" s="60" t="s">
+        <v>569</v>
+      </c>
+      <c r="H4" s="60" t="s">
+        <v>568</v>
+      </c>
+      <c r="I4" s="60"/>
+      <c r="J4" s="60"/>
+      <c r="K4" s="60"/>
+      <c r="L4" s="60"/>
+      <c r="M4" s="60"/>
+      <c r="N4" s="60"/>
+      <c r="O4" s="60"/>
+      <c r="P4" s="60"/>
+      <c r="Q4" s="60"/>
+      <c r="R4" s="60"/>
+      <c r="S4" s="60"/>
+      <c r="T4" s="60"/>
+      <c r="U4" s="60"/>
+      <c r="V4" s="60"/>
+    </row>
+    <row r="5" spans="1:22">
+      <c r="A5" s="58" t="s">
+        <v>526</v>
+      </c>
+      <c r="B5" s="58" t="s">
+        <v>533</v>
+      </c>
+      <c r="C5" s="59">
+        <v>4138</v>
+      </c>
+      <c r="D5" s="59" t="s">
+        <v>542</v>
+      </c>
+      <c r="E5" s="59" t="s">
+        <v>573</v>
+      </c>
+      <c r="F5" s="59" t="s">
+        <v>471</v>
+      </c>
+      <c r="G5" s="60" t="s">
+        <v>572</v>
+      </c>
+      <c r="H5" s="60" t="s">
+        <v>571</v>
+      </c>
+      <c r="I5" s="60"/>
+      <c r="J5" s="60"/>
+      <c r="K5" s="60"/>
+      <c r="L5" s="60"/>
+      <c r="M5" s="60"/>
+      <c r="N5" s="60"/>
+      <c r="O5" s="60"/>
+      <c r="P5" s="60"/>
+      <c r="Q5" s="60"/>
+      <c r="R5" s="60"/>
+      <c r="S5" s="60"/>
+      <c r="T5" s="60"/>
+      <c r="U5" s="60"/>
+      <c r="V5" s="60"/>
+    </row>
+    <row r="6" spans="1:22">
+      <c r="A6" s="58" t="s">
+        <v>527</v>
+      </c>
+      <c r="B6" s="58" t="s">
+        <v>534</v>
+      </c>
+      <c r="C6" s="59">
+        <v>4138</v>
+      </c>
+      <c r="D6" s="59"/>
+      <c r="E6" s="59"/>
+      <c r="F6" s="59"/>
+      <c r="G6" s="60"/>
+      <c r="H6" s="60"/>
+      <c r="I6" s="60"/>
+      <c r="J6" s="60"/>
+      <c r="K6" s="60"/>
+      <c r="L6" s="60"/>
+      <c r="M6" s="60"/>
+      <c r="N6" s="60"/>
+      <c r="O6" s="60"/>
+      <c r="P6" s="60"/>
+      <c r="Q6" s="60"/>
+      <c r="R6" s="60"/>
+      <c r="S6" s="60"/>
+      <c r="T6" s="60"/>
+      <c r="U6" s="60"/>
+      <c r="V6" s="60"/>
+    </row>
+    <row r="7" spans="1:22">
+      <c r="A7" s="58" t="s">
+        <v>528</v>
+      </c>
+      <c r="B7" s="58" t="s">
+        <v>535</v>
+      </c>
+      <c r="C7" s="59">
+        <v>4138</v>
+      </c>
+      <c r="D7" s="59"/>
+      <c r="E7" s="59"/>
+      <c r="F7" s="59"/>
+      <c r="G7" s="60"/>
+      <c r="H7" s="60"/>
+      <c r="I7" s="60"/>
+      <c r="J7" s="60"/>
+      <c r="K7" s="60"/>
+      <c r="L7" s="60"/>
+      <c r="M7" s="60"/>
+      <c r="N7" s="60"/>
+      <c r="O7" s="60"/>
+      <c r="P7" s="60"/>
+      <c r="Q7" s="60"/>
+      <c r="R7" s="60"/>
+      <c r="S7" s="60"/>
+      <c r="T7" s="60"/>
+      <c r="U7" s="60"/>
+      <c r="V7" s="60"/>
+    </row>
+    <row r="8" spans="1:22">
+      <c r="A8" s="58" t="s">
+        <v>529</v>
+      </c>
+      <c r="B8" s="58" t="s">
+        <v>536</v>
+      </c>
+      <c r="C8" s="59">
+        <v>4138</v>
+      </c>
+      <c r="D8" s="59"/>
+      <c r="E8" s="59"/>
+      <c r="F8" s="59"/>
+      <c r="G8" s="60"/>
+      <c r="H8" s="60"/>
+      <c r="I8" s="60"/>
+      <c r="J8" s="60"/>
+      <c r="K8" s="60"/>
+      <c r="L8" s="60"/>
+      <c r="M8" s="60"/>
+      <c r="N8" s="60"/>
+      <c r="O8" s="60"/>
+      <c r="P8" s="60"/>
+      <c r="Q8" s="60"/>
+      <c r="R8" s="60"/>
+      <c r="S8" s="60"/>
+      <c r="T8" s="60"/>
+      <c r="U8" s="60"/>
+      <c r="V8" s="60"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5800,7 +6348,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
@@ -5808,7 +6356,7 @@
     <col min="1" max="1" width="19.33203125" style="5" customWidth="1"/>
     <col min="2" max="2" width="16.44140625" style="5" customWidth="1"/>
     <col min="3" max="3" width="13.6640625" style="5" customWidth="1"/>
-    <col min="4" max="4" width="26.6640625" style="5" customWidth="1"/>
+    <col min="4" max="4" width="27.88671875" style="5" customWidth="1"/>
     <col min="5" max="16384" width="8.88671875" style="5"/>
   </cols>
   <sheetData>
@@ -5823,7 +6371,7 @@
         <v>1</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -5833,136 +6381,144 @@
       <c r="B2" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="8" t="s">
-        <v>5</v>
+      <c r="C2" s="7" t="s">
+        <v>31</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B5" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="C5" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>103</v>
-      </c>
       <c r="E5" s="5" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="8" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="8" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="8" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="8" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B9" s="8" t="s">
+        <v>289</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" s="8" t="s">
         <v>290</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>291</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="8" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B10" s="8" t="s">
+        <v>517</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="8" t="s">
         <v>518</v>
       </c>
-      <c r="C10" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>519</v>
-      </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="15"/>
-      <c r="B11" s="15"/>
-      <c r="C11" s="16"/>
-      <c r="D11" s="15"/>
+      <c r="A11" s="8" t="s">
+        <v>537</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>538</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>539</v>
+      </c>
       <c r="E11" s="15"/>
     </row>
   </sheetData>
@@ -5975,6 +6531,8 @@
     <hyperlink ref="C8" r:id="rId6"/>
     <hyperlink ref="C9" r:id="rId7"/>
     <hyperlink ref="C10" r:id="rId8"/>
+    <hyperlink ref="C11" r:id="rId9"/>
+    <hyperlink ref="C2" r:id="rId10"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5984,8 +6542,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M8"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1:K1"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -6007,54 +6565,54 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="E1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="H1" s="3" t="s">
-        <v>18</v>
-      </c>
       <c r="I1" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J1" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="K1" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="K1" s="6" t="s">
-        <v>50</v>
-      </c>
       <c r="L1" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M1" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>13</v>
-      </c>
       <c r="C2" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
@@ -6069,28 +6627,28 @@
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3" s="4" t="s">
         <v>22</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>23</v>
       </c>
       <c r="I3" s="4"/>
       <c r="J3" s="4"/>
@@ -6100,25 +6658,25 @@
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H4" s="4"/>
       <c r="I4" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J4" s="4"/>
       <c r="K4" s="4"/>
@@ -6127,13 +6685,13 @@
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
@@ -6142,30 +6700,30 @@
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
       <c r="J5" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L5" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="M5" s="4" t="s">
         <v>45</v>
-      </c>
-      <c r="M5" s="4" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E6" s="4">
         <v>100000</v>
@@ -6249,54 +6807,54 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>9</v>
-      </c>
       <c r="C1" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F1" s="3" t="s">
+        <v>490</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>491</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>492</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>493</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>494</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>495</v>
       </c>
-      <c r="K1" s="3" t="s">
-        <v>496</v>
-      </c>
       <c r="L1" s="3" t="s">
+        <v>513</v>
+      </c>
+      <c r="M1" s="3" t="s">
         <v>514</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>515</v>
       </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
@@ -6311,16 +6869,16 @@
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="B3" s="10" t="s">
-        <v>35</v>
-      </c>
       <c r="C3" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
@@ -6334,19 +6892,19 @@
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B4" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>41</v>
-      </c>
       <c r="E4" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
@@ -6359,46 +6917,46 @@
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="10" t="s">
+        <v>488</v>
+      </c>
+      <c r="B5" s="10" t="s">
         <v>489</v>
       </c>
-      <c r="B5" s="10" t="s">
-        <v>490</v>
-      </c>
       <c r="C5" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
       <c r="F5" s="4" t="s">
+        <v>496</v>
+      </c>
+      <c r="G5" s="4" t="s">
         <v>497</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="H5" s="4" t="s">
         <v>498</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="I5" s="4" t="s">
         <v>499</v>
       </c>
-      <c r="I5" s="4" t="s">
+      <c r="J5" s="4" t="s">
         <v>500</v>
       </c>
-      <c r="J5" s="4" t="s">
+      <c r="K5" s="4" t="s">
         <v>501</v>
-      </c>
-      <c r="K5" s="4" t="s">
-        <v>502</v>
       </c>
       <c r="L5" s="4"/>
       <c r="M5" s="4"/>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="10" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
@@ -6413,13 +6971,13 @@
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="10" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
@@ -6430,10 +6988,10 @@
       <c r="J7" s="4"/>
       <c r="K7" s="4"/>
       <c r="L7" s="4" t="s">
+        <v>515</v>
+      </c>
+      <c r="M7" s="4" t="s">
         <v>516</v>
-      </c>
-      <c r="M7" s="4" t="s">
-        <v>517</v>
       </c>
     </row>
   </sheetData>
@@ -6467,106 +7025,106 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>9</v>
-      </c>
       <c r="C1" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D1" s="3" t="s">
+        <v>468</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>469</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>470</v>
       </c>
-      <c r="F1" s="3" t="s">
-        <v>471</v>
-      </c>
       <c r="G1" s="3" t="s">
+        <v>462</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>463</v>
       </c>
-      <c r="H1" s="3" t="s">
-        <v>464</v>
-      </c>
       <c r="I1" s="3" t="s">
+        <v>466</v>
+      </c>
+      <c r="J1" s="3" t="s">
         <v>467</v>
       </c>
-      <c r="J1" s="3" t="s">
-        <v>468</v>
-      </c>
       <c r="K1" s="3" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="C2" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>471</v>
+      </c>
+      <c r="E2" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>472</v>
-      </c>
-      <c r="E2" s="12" t="s">
-        <v>54</v>
-      </c>
       <c r="F2" s="12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G2" s="12"/>
       <c r="H2" s="12"/>
       <c r="I2" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J2" s="12"/>
       <c r="K2" s="12"/>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="11" t="s">
+        <v>448</v>
+      </c>
+      <c r="B3" s="11" t="s">
         <v>449</v>
       </c>
-      <c r="B3" s="11" t="s">
-        <v>450</v>
-      </c>
       <c r="C3" s="12" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="F3" s="12"/>
       <c r="G3" s="12" t="s">
+        <v>464</v>
+      </c>
+      <c r="H3" s="12" t="s">
         <v>465</v>
       </c>
-      <c r="H3" s="12" t="s">
-        <v>466</v>
-      </c>
       <c r="I3" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="J3" s="12" t="s">
         <v>55</v>
-      </c>
-      <c r="J3" s="12" t="s">
-        <v>56</v>
       </c>
       <c r="K3" s="12"/>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="11" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="D4" s="12"/>
       <c r="E4" s="12"/>
@@ -6579,73 +7137,73 @@
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="11" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="E5" s="12"/>
       <c r="F5" s="12" t="s">
+        <v>481</v>
+      </c>
+      <c r="G5" s="12" t="s">
         <v>482</v>
       </c>
-      <c r="G5" s="12" t="s">
+      <c r="H5" s="12" t="s">
         <v>483</v>
       </c>
-      <c r="H5" s="12" t="s">
-        <v>484</v>
-      </c>
       <c r="I5" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="J5" s="12" t="s">
         <v>55</v>
-      </c>
-      <c r="J5" s="12" t="s">
-        <v>56</v>
       </c>
       <c r="K5" s="12"/>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="11" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="D6" s="12" t="s">
+        <v>480</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>484</v>
+      </c>
+      <c r="F6" s="12" t="s">
         <v>481</v>
-      </c>
-      <c r="E6" s="12" t="s">
-        <v>485</v>
-      </c>
-      <c r="F6" s="12" t="s">
-        <v>482</v>
       </c>
       <c r="G6" s="12"/>
       <c r="H6" s="12"/>
       <c r="I6" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="J6" s="12" t="s">
         <v>55</v>
-      </c>
-      <c r="J6" s="12" t="s">
-        <v>56</v>
       </c>
       <c r="K6" s="12"/>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="11" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="D7" s="12"/>
       <c r="E7" s="12"/>
@@ -6658,13 +7216,13 @@
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="11" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B8" s="11" t="s">
+        <v>459</v>
+      </c>
+      <c r="C8" s="12" t="s">
         <v>460</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>461</v>
       </c>
       <c r="D8" s="12"/>
       <c r="E8" s="12"/>
@@ -6697,79 +7255,79 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>9</v>
-      </c>
       <c r="C1" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="B2" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="10" t="s">
-        <v>60</v>
-      </c>
       <c r="C2" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -6805,97 +7363,97 @@
   <sheetData>
     <row r="1" spans="1:15" s="14" customFormat="1">
       <c r="A1" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="13" t="s">
-        <v>9</v>
-      </c>
       <c r="C1" s="13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D1" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="E1" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="F1" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="G1" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="H1" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="I1" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="I1" s="13" t="s">
+      <c r="J1" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="J1" s="13" t="s">
+      <c r="K1" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="K1" s="13" t="s">
+      <c r="L1" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="L1" s="13" t="s">
+      <c r="M1" s="13" t="s">
         <v>87</v>
-      </c>
-      <c r="M1" s="13" t="s">
-        <v>88</v>
       </c>
       <c r="N1" s="13"/>
       <c r="O1" s="13"/>
     </row>
     <row r="2" spans="1:15">
       <c r="A2" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="B2" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="B2" s="10" t="s">
-        <v>72</v>
-      </c>
       <c r="C2" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D2" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="F2" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="E2" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="F2" s="12" t="s">
+      <c r="G2" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="H2" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="H2" s="12" t="s">
+      <c r="I2" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="I2" s="12" t="s">
+      <c r="J2" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="J2" s="12" t="s">
-        <v>94</v>
-      </c>
       <c r="K2" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="L2" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="M2" s="12" t="s">
         <v>96</v>
-      </c>
-      <c r="L2" s="12" t="s">
-        <v>96</v>
-      </c>
-      <c r="M2" s="12" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D3" s="12"/>
       <c r="E3" s="12"/>
@@ -6910,13 +7468,13 @@
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D4" s="12"/>
       <c r="E4" s="12"/>
@@ -6931,13 +7489,13 @@
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D5" s="12"/>
       <c r="E5" s="12"/>
@@ -6952,13 +7510,13 @@
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="B6" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="B6" s="10" t="s">
-        <v>99</v>
-      </c>
       <c r="C6" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D6" s="12"/>
       <c r="E6" s="12"/>
@@ -6993,79 +7551,79 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="13" t="s">
-        <v>9</v>
-      </c>
       <c r="C1" s="13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="B2" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="C2" s="4" t="s">
         <v>105</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="10" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="10" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="B7" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="B7" s="10" t="s">
-        <v>122</v>
-      </c>
       <c r="C7" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -7104,142 +7662,142 @@
     <col min="19" max="19" width="19.5546875" customWidth="1"/>
     <col min="20" max="20" width="13.33203125" customWidth="1"/>
     <col min="21" max="21" width="13.6640625" customWidth="1"/>
-    <col min="22" max="22" width="14.44140625" style="29" customWidth="1"/>
+    <col min="22" max="22" width="14.44140625" style="28" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" s="14" customFormat="1">
       <c r="A1" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="13" t="s">
-        <v>9</v>
-      </c>
       <c r="C1" s="13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D1" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="E1" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="F1" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="G1" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="H1" s="13" t="s">
+        <v>199</v>
+      </c>
+      <c r="I1" s="13" t="s">
+        <v>200</v>
+      </c>
+      <c r="J1" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="H1" s="13" t="s">
-        <v>200</v>
-      </c>
-      <c r="I1" s="13" t="s">
-        <v>201</v>
-      </c>
-      <c r="J1" s="13" t="s">
+      <c r="K1" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="K1" s="13" t="s">
+      <c r="L1" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="L1" s="13" t="s">
+      <c r="M1" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="M1" s="13" t="s">
+      <c r="N1" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="N1" s="13" t="s">
+      <c r="O1" s="13" t="s">
+        <v>203</v>
+      </c>
+      <c r="P1" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="O1" s="13" t="s">
-        <v>204</v>
-      </c>
-      <c r="P1" s="13" t="s">
-        <v>88</v>
-      </c>
       <c r="Q1" s="13" t="s">
+        <v>213</v>
+      </c>
+      <c r="R1" s="13" t="s">
         <v>214</v>
       </c>
-      <c r="R1" s="13" t="s">
+      <c r="S1" s="13" t="s">
         <v>215</v>
       </c>
-      <c r="S1" s="13" t="s">
+      <c r="T1" s="13" t="s">
+        <v>219</v>
+      </c>
+      <c r="U1" s="13" t="s">
         <v>216</v>
       </c>
-      <c r="T1" s="13" t="s">
-        <v>220</v>
-      </c>
-      <c r="U1" s="13" t="s">
+      <c r="V1" s="26" t="s">
         <v>217</v>
-      </c>
-      <c r="V1" s="27" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="2" spans="1:22" s="5" customFormat="1">
       <c r="A2" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="B2" s="10" t="s">
         <v>190</v>
       </c>
-      <c r="B2" s="10" t="s">
-        <v>191</v>
-      </c>
       <c r="C2" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="F2" s="12" t="s">
         <v>208</v>
       </c>
-      <c r="D2" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="E2" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="F2" s="12" t="s">
+      <c r="G2" s="12" t="s">
         <v>209</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="H2" s="12" t="s">
         <v>210</v>
       </c>
-      <c r="H2" s="12" t="s">
+      <c r="I2" s="12" t="s">
+        <v>201</v>
+      </c>
+      <c r="J2" s="12" t="s">
         <v>211</v>
       </c>
-      <c r="I2" s="12" t="s">
+      <c r="K2" s="12" t="s">
+        <v>206</v>
+      </c>
+      <c r="L2" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="M2" s="12" t="s">
+        <v>212</v>
+      </c>
+      <c r="N2" s="12" t="s">
+        <v>205</v>
+      </c>
+      <c r="O2" s="12" t="s">
         <v>202</v>
       </c>
-      <c r="J2" s="12" t="s">
-        <v>212</v>
-      </c>
-      <c r="K2" s="12" t="s">
-        <v>207</v>
-      </c>
-      <c r="L2" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="M2" s="12" t="s">
-        <v>213</v>
-      </c>
-      <c r="N2" s="12" t="s">
-        <v>206</v>
-      </c>
-      <c r="O2" s="12" t="s">
-        <v>203</v>
-      </c>
       <c r="P2" s="12" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="Q2" s="12"/>
       <c r="R2" s="12"/>
       <c r="S2" s="12"/>
       <c r="T2" s="12"/>
       <c r="U2" s="12"/>
-      <c r="V2" s="28"/>
+      <c r="V2" s="27"/>
     </row>
     <row r="3" spans="1:22" s="5" customFormat="1">
       <c r="A3" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="B3" s="10" t="s">
         <v>192</v>
       </c>
-      <c r="B3" s="10" t="s">
-        <v>193</v>
-      </c>
       <c r="C3" s="4" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D3" s="12"/>
       <c r="E3" s="12"/>
@@ -7259,17 +7817,17 @@
       <c r="S3" s="12"/>
       <c r="T3" s="12"/>
       <c r="U3" s="12"/>
-      <c r="V3" s="28"/>
+      <c r="V3" s="27"/>
     </row>
     <row r="4" spans="1:22" s="5" customFormat="1">
       <c r="A4" s="10" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D4" s="12"/>
       <c r="E4" s="12"/>
@@ -7289,73 +7847,73 @@
       <c r="S4" s="12"/>
       <c r="T4" s="12"/>
       <c r="U4" s="12"/>
-      <c r="V4" s="28"/>
+      <c r="V4" s="27"/>
     </row>
     <row r="5" spans="1:22" s="5" customFormat="1">
       <c r="A5" s="10" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C5" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="F5" s="12" t="s">
         <v>208</v>
       </c>
-      <c r="D5" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="E5" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="F5" s="12" t="s">
+      <c r="G5" s="12" t="s">
         <v>209</v>
       </c>
-      <c r="G5" s="12" t="s">
+      <c r="H5" s="12" t="s">
         <v>210</v>
       </c>
-      <c r="H5" s="12" t="s">
+      <c r="I5" s="12" t="s">
+        <v>201</v>
+      </c>
+      <c r="J5" s="12" t="s">
         <v>211</v>
       </c>
-      <c r="I5" s="12" t="s">
+      <c r="K5" s="12" t="s">
+        <v>206</v>
+      </c>
+      <c r="L5" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="M5" s="12" t="s">
+        <v>212</v>
+      </c>
+      <c r="N5" s="12" t="s">
+        <v>205</v>
+      </c>
+      <c r="O5" s="12" t="s">
         <v>202</v>
       </c>
-      <c r="J5" s="12" t="s">
-        <v>212</v>
-      </c>
-      <c r="K5" s="12" t="s">
-        <v>207</v>
-      </c>
-      <c r="L5" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="M5" s="12" t="s">
-        <v>213</v>
-      </c>
-      <c r="N5" s="12" t="s">
-        <v>206</v>
-      </c>
-      <c r="O5" s="12" t="s">
-        <v>203</v>
-      </c>
       <c r="P5" s="12" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="Q5" s="12"/>
       <c r="R5" s="12"/>
       <c r="S5" s="12"/>
       <c r="T5" s="12"/>
       <c r="U5" s="12"/>
-      <c r="V5" s="28"/>
+      <c r="V5" s="27"/>
     </row>
     <row r="6" spans="1:22" s="5" customFormat="1">
       <c r="A6" s="10" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D6" s="12"/>
       <c r="E6" s="12"/>
@@ -7371,22 +7929,22 @@
       <c r="O6" s="12"/>
       <c r="P6" s="12"/>
       <c r="Q6" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="R6" s="12" t="s">
+        <v>218</v>
+      </c>
+      <c r="S6" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="R6" s="12" t="s">
-        <v>219</v>
-      </c>
-      <c r="S6" s="12" t="s">
-        <v>95</v>
-      </c>
       <c r="T6" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="U6" s="12" t="s">
         <v>221</v>
       </c>
-      <c r="U6" s="12" t="s">
+      <c r="V6" s="27" t="s">
         <v>222</v>
-      </c>
-      <c r="V6" s="28" t="s">
-        <v>223</v>
       </c>
     </row>
   </sheetData>

--- a/KULS_Sankar/TestData/ijaraTestData.xlsx
+++ b/KULS_Sankar/TestData/ijaraTestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="72" windowWidth="23256" windowHeight="12600" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="72" windowWidth="23256" windowHeight="12600" firstSheet="12" activeTab="15"/>
   </bookViews>
   <sheets>
     <sheet name="AllFeaturesAutomationInfo" sheetId="8" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1217" uniqueCount="574">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1239" uniqueCount="582">
   <si>
     <t>UserName</t>
   </si>
@@ -1784,6 +1784,30 @@
   </si>
   <si>
     <t>Arivu</t>
+  </si>
+  <si>
+    <t>DS_AT_CUD_006</t>
+  </si>
+  <si>
+    <t>AT_CUD_007</t>
+  </si>
+  <si>
+    <t>DS_AT_CUD_007</t>
+  </si>
+  <si>
+    <t>1145500</t>
+  </si>
+  <si>
+    <t>38000</t>
+  </si>
+  <si>
+    <t>8654711265</t>
+  </si>
+  <si>
+    <t>19-Apr-1998</t>
+  </si>
+  <si>
+    <t>Karan</t>
   </si>
 </sst>
 </file>
@@ -2132,12 +2156,6 @@
     <xf numFmtId="49" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2155,6 +2173,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2455,8 +2479,8 @@
   <dimension ref="A1:L88"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G92" sqref="G92"/>
+      <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D95" sqref="D95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2514,13 +2538,13 @@
       </c>
     </row>
     <row r="2" spans="1:12">
-      <c r="A2" s="61" t="s">
+      <c r="A2" s="67" t="s">
         <v>172</v>
       </c>
-      <c r="B2" s="61" t="s">
+      <c r="B2" s="67" t="s">
         <v>232</v>
       </c>
-      <c r="C2" s="63" t="s">
+      <c r="C2" s="61" t="s">
         <v>130</v>
       </c>
       <c r="D2" s="25" t="s">
@@ -2548,9 +2572,9 @@
       <c r="L2" s="25"/>
     </row>
     <row r="3" spans="1:12">
-      <c r="A3" s="61"/>
-      <c r="B3" s="61"/>
-      <c r="C3" s="64"/>
+      <c r="A3" s="67"/>
+      <c r="B3" s="67"/>
+      <c r="C3" s="62"/>
       <c r="D3" s="25" t="s">
         <v>131</v>
       </c>
@@ -2576,9 +2600,9 @@
       <c r="L3" s="25"/>
     </row>
     <row r="4" spans="1:12">
-      <c r="A4" s="61"/>
-      <c r="B4" s="61"/>
-      <c r="C4" s="64"/>
+      <c r="A4" s="67"/>
+      <c r="B4" s="67"/>
+      <c r="C4" s="62"/>
       <c r="D4" s="25" t="s">
         <v>132</v>
       </c>
@@ -2604,9 +2628,9 @@
       <c r="L4" s="25"/>
     </row>
     <row r="5" spans="1:12">
-      <c r="A5" s="61"/>
-      <c r="B5" s="61"/>
-      <c r="C5" s="65"/>
+      <c r="A5" s="67"/>
+      <c r="B5" s="67"/>
+      <c r="C5" s="63"/>
       <c r="D5" s="25" t="s">
         <v>134</v>
       </c>
@@ -2646,13 +2670,13 @@
       <c r="L6" s="25"/>
     </row>
     <row r="7" spans="1:12">
-      <c r="A7" s="61" t="s">
+      <c r="A7" s="67" t="s">
         <v>173</v>
       </c>
-      <c r="B7" s="61" t="s">
+      <c r="B7" s="67" t="s">
         <v>154</v>
       </c>
-      <c r="C7" s="63" t="s">
+      <c r="C7" s="61" t="s">
         <v>143</v>
       </c>
       <c r="D7" s="21" t="s">
@@ -2680,9 +2704,9 @@
       <c r="L7" s="25"/>
     </row>
     <row r="8" spans="1:12">
-      <c r="A8" s="61"/>
-      <c r="B8" s="61"/>
-      <c r="C8" s="64"/>
+      <c r="A8" s="67"/>
+      <c r="B8" s="67"/>
+      <c r="C8" s="62"/>
       <c r="D8" s="25" t="s">
         <v>146</v>
       </c>
@@ -2708,9 +2732,9 @@
       <c r="L8" s="25"/>
     </row>
     <row r="9" spans="1:12">
-      <c r="A9" s="61"/>
-      <c r="B9" s="61"/>
-      <c r="C9" s="64"/>
+      <c r="A9" s="67"/>
+      <c r="B9" s="67"/>
+      <c r="C9" s="62"/>
       <c r="D9" s="25" t="s">
         <v>147</v>
       </c>
@@ -2736,9 +2760,9 @@
       <c r="L9" s="25"/>
     </row>
     <row r="10" spans="1:12">
-      <c r="A10" s="61"/>
-      <c r="B10" s="61"/>
-      <c r="C10" s="64"/>
+      <c r="A10" s="67"/>
+      <c r="B10" s="67"/>
+      <c r="C10" s="62"/>
       <c r="D10" s="25" t="s">
         <v>148</v>
       </c>
@@ -2770,7 +2794,7 @@
       <c r="B11" s="37" t="s">
         <v>156</v>
       </c>
-      <c r="C11" s="64"/>
+      <c r="C11" s="62"/>
       <c r="D11" s="25" t="s">
         <v>149</v>
       </c>
@@ -2796,13 +2820,13 @@
       <c r="L11" s="25"/>
     </row>
     <row r="12" spans="1:12">
-      <c r="A12" s="61" t="s">
+      <c r="A12" s="67" t="s">
         <v>172</v>
       </c>
-      <c r="B12" s="61" t="s">
+      <c r="B12" s="67" t="s">
         <v>153</v>
       </c>
-      <c r="C12" s="64"/>
+      <c r="C12" s="62"/>
       <c r="D12" s="25" t="s">
         <v>133</v>
       </c>
@@ -2828,9 +2852,9 @@
       <c r="L12" s="25"/>
     </row>
     <row r="13" spans="1:12">
-      <c r="A13" s="61"/>
-      <c r="B13" s="61"/>
-      <c r="C13" s="65"/>
+      <c r="A13" s="67"/>
+      <c r="B13" s="67"/>
+      <c r="C13" s="63"/>
       <c r="D13" s="25" t="s">
         <v>150</v>
       </c>
@@ -2870,13 +2894,13 @@
       <c r="L14" s="25"/>
     </row>
     <row r="15" spans="1:12">
-      <c r="A15" s="61" t="s">
+      <c r="A15" s="67" t="s">
         <v>174</v>
       </c>
-      <c r="B15" s="61" t="s">
+      <c r="B15" s="67" t="s">
         <v>158</v>
       </c>
-      <c r="C15" s="63" t="s">
+      <c r="C15" s="61" t="s">
         <v>157</v>
       </c>
       <c r="D15" s="25" t="s">
@@ -2904,9 +2928,9 @@
       <c r="L15" s="25"/>
     </row>
     <row r="16" spans="1:12">
-      <c r="A16" s="61"/>
-      <c r="B16" s="61"/>
-      <c r="C16" s="64"/>
+      <c r="A16" s="67"/>
+      <c r="B16" s="67"/>
+      <c r="C16" s="62"/>
       <c r="D16" s="25" t="s">
         <v>160</v>
       </c>
@@ -2932,9 +2956,9 @@
       <c r="L16" s="25"/>
     </row>
     <row r="17" spans="1:12">
-      <c r="A17" s="61"/>
-      <c r="B17" s="61"/>
-      <c r="C17" s="64"/>
+      <c r="A17" s="67"/>
+      <c r="B17" s="67"/>
+      <c r="C17" s="62"/>
       <c r="D17" s="25" t="s">
         <v>161</v>
       </c>
@@ -2960,9 +2984,9 @@
       <c r="L17" s="25"/>
     </row>
     <row r="18" spans="1:12">
-      <c r="A18" s="61"/>
-      <c r="B18" s="61"/>
-      <c r="C18" s="64"/>
+      <c r="A18" s="67"/>
+      <c r="B18" s="67"/>
+      <c r="C18" s="62"/>
       <c r="D18" s="25" t="s">
         <v>162</v>
       </c>
@@ -2988,9 +3012,9 @@
       <c r="L18" s="25"/>
     </row>
     <row r="19" spans="1:12">
-      <c r="A19" s="61"/>
-      <c r="B19" s="61"/>
-      <c r="C19" s="64"/>
+      <c r="A19" s="67"/>
+      <c r="B19" s="67"/>
+      <c r="C19" s="62"/>
       <c r="D19" s="25" t="s">
         <v>163</v>
       </c>
@@ -3016,9 +3040,9 @@
       <c r="L19" s="25"/>
     </row>
     <row r="20" spans="1:12">
-      <c r="A20" s="61"/>
-      <c r="B20" s="61"/>
-      <c r="C20" s="65"/>
+      <c r="A20" s="67"/>
+      <c r="B20" s="67"/>
+      <c r="C20" s="63"/>
       <c r="D20" s="25" t="s">
         <v>164</v>
       </c>
@@ -3058,13 +3082,13 @@
       <c r="L21" s="25"/>
     </row>
     <row r="22" spans="1:12">
-      <c r="A22" s="61" t="s">
+      <c r="A22" s="67" t="s">
         <v>174</v>
       </c>
-      <c r="B22" s="61" t="s">
+      <c r="B22" s="67" t="s">
         <v>178</v>
       </c>
-      <c r="C22" s="63" t="s">
+      <c r="C22" s="61" t="s">
         <v>166</v>
       </c>
       <c r="D22" s="25" t="s">
@@ -3092,9 +3116,9 @@
       <c r="L22" s="25"/>
     </row>
     <row r="23" spans="1:12">
-      <c r="A23" s="61"/>
-      <c r="B23" s="61"/>
-      <c r="C23" s="64"/>
+      <c r="A23" s="67"/>
+      <c r="B23" s="67"/>
+      <c r="C23" s="62"/>
       <c r="D23" s="25" t="s">
         <v>168</v>
       </c>
@@ -3120,9 +3144,9 @@
       <c r="L23" s="25"/>
     </row>
     <row r="24" spans="1:12">
-      <c r="A24" s="61"/>
-      <c r="B24" s="61"/>
-      <c r="C24" s="64"/>
+      <c r="A24" s="67"/>
+      <c r="B24" s="67"/>
+      <c r="C24" s="62"/>
       <c r="D24" s="25" t="s">
         <v>169</v>
       </c>
@@ -3148,9 +3172,9 @@
       <c r="L24" s="25"/>
     </row>
     <row r="25" spans="1:12">
-      <c r="A25" s="61"/>
-      <c r="B25" s="61"/>
-      <c r="C25" s="64"/>
+      <c r="A25" s="67"/>
+      <c r="B25" s="67"/>
+      <c r="C25" s="62"/>
       <c r="D25" s="25" t="s">
         <v>170</v>
       </c>
@@ -3176,9 +3200,9 @@
       <c r="L25" s="25"/>
     </row>
     <row r="26" spans="1:12">
-      <c r="A26" s="61"/>
-      <c r="B26" s="61"/>
-      <c r="C26" s="65"/>
+      <c r="A26" s="67"/>
+      <c r="B26" s="67"/>
+      <c r="C26" s="63"/>
       <c r="D26" s="25" t="s">
         <v>171</v>
       </c>
@@ -3218,13 +3242,13 @@
       <c r="L27" s="25"/>
     </row>
     <row r="28" spans="1:12">
-      <c r="A28" s="61" t="s">
+      <c r="A28" s="67" t="s">
         <v>176</v>
       </c>
-      <c r="B28" s="61" t="s">
+      <c r="B28" s="67" t="s">
         <v>177</v>
       </c>
-      <c r="C28" s="63" t="s">
+      <c r="C28" s="61" t="s">
         <v>175</v>
       </c>
       <c r="D28" s="25" t="s">
@@ -3252,9 +3276,9 @@
       <c r="L28" s="25"/>
     </row>
     <row r="29" spans="1:12">
-      <c r="A29" s="61"/>
-      <c r="B29" s="61"/>
-      <c r="C29" s="64"/>
+      <c r="A29" s="67"/>
+      <c r="B29" s="67"/>
+      <c r="C29" s="62"/>
       <c r="D29" s="25" t="s">
         <v>180</v>
       </c>
@@ -3280,9 +3304,9 @@
       <c r="L29" s="25"/>
     </row>
     <row r="30" spans="1:12">
-      <c r="A30" s="61"/>
-      <c r="B30" s="61"/>
-      <c r="C30" s="64"/>
+      <c r="A30" s="67"/>
+      <c r="B30" s="67"/>
+      <c r="C30" s="62"/>
       <c r="D30" s="25" t="s">
         <v>181</v>
       </c>
@@ -3308,9 +3332,9 @@
       <c r="L30" s="25"/>
     </row>
     <row r="31" spans="1:12">
-      <c r="A31" s="61"/>
-      <c r="B31" s="61"/>
-      <c r="C31" s="64"/>
+      <c r="A31" s="67"/>
+      <c r="B31" s="67"/>
+      <c r="C31" s="62"/>
       <c r="D31" s="25" t="s">
         <v>182</v>
       </c>
@@ -3336,9 +3360,9 @@
       <c r="L31" s="25"/>
     </row>
     <row r="32" spans="1:12">
-      <c r="A32" s="61"/>
-      <c r="B32" s="61"/>
-      <c r="C32" s="64"/>
+      <c r="A32" s="67"/>
+      <c r="B32" s="67"/>
+      <c r="C32" s="62"/>
       <c r="D32" s="25" t="s">
         <v>183</v>
       </c>
@@ -3364,9 +3388,9 @@
       <c r="L32" s="25"/>
     </row>
     <row r="33" spans="1:12">
-      <c r="A33" s="61"/>
-      <c r="B33" s="61"/>
-      <c r="C33" s="65"/>
+      <c r="A33" s="67"/>
+      <c r="B33" s="67"/>
+      <c r="C33" s="63"/>
       <c r="D33" s="25" t="s">
         <v>184</v>
       </c>
@@ -3404,13 +3428,13 @@
       <c r="J34" s="25"/>
     </row>
     <row r="35" spans="1:12">
-      <c r="A35" s="61" t="s">
+      <c r="A35" s="67" t="s">
         <v>224</v>
       </c>
-      <c r="B35" s="61" t="s">
+      <c r="B35" s="67" t="s">
         <v>178</v>
       </c>
-      <c r="C35" s="63" t="s">
+      <c r="C35" s="61" t="s">
         <v>223</v>
       </c>
       <c r="D35" s="25" t="s">
@@ -3436,9 +3460,9 @@
       </c>
     </row>
     <row r="36" spans="1:12">
-      <c r="A36" s="61"/>
-      <c r="B36" s="61"/>
-      <c r="C36" s="64"/>
+      <c r="A36" s="67"/>
+      <c r="B36" s="67"/>
+      <c r="C36" s="62"/>
       <c r="D36" s="25" t="s">
         <v>168</v>
       </c>
@@ -3462,9 +3486,9 @@
       </c>
     </row>
     <row r="37" spans="1:12">
-      <c r="A37" s="61"/>
-      <c r="B37" s="61"/>
-      <c r="C37" s="64"/>
+      <c r="A37" s="67"/>
+      <c r="B37" s="67"/>
+      <c r="C37" s="62"/>
       <c r="D37" s="25" t="s">
         <v>169</v>
       </c>
@@ -3488,9 +3512,9 @@
       </c>
     </row>
     <row r="38" spans="1:12">
-      <c r="A38" s="61"/>
-      <c r="B38" s="61"/>
-      <c r="C38" s="64"/>
+      <c r="A38" s="67"/>
+      <c r="B38" s="67"/>
+      <c r="C38" s="62"/>
       <c r="D38" s="25" t="s">
         <v>234</v>
       </c>
@@ -3514,9 +3538,9 @@
       </c>
     </row>
     <row r="39" spans="1:12">
-      <c r="A39" s="61"/>
-      <c r="B39" s="61"/>
-      <c r="C39" s="65"/>
+      <c r="A39" s="67"/>
+      <c r="B39" s="67"/>
+      <c r="C39" s="63"/>
       <c r="D39" s="25" t="s">
         <v>235</v>
       </c>
@@ -3552,13 +3576,13 @@
       <c r="J40" s="25"/>
     </row>
     <row r="41" spans="1:12">
-      <c r="A41" s="61" t="s">
+      <c r="A41" s="67" t="s">
         <v>231</v>
       </c>
-      <c r="B41" s="62" t="s">
+      <c r="B41" s="68" t="s">
         <v>428</v>
       </c>
-      <c r="C41" s="63" t="s">
+      <c r="C41" s="61" t="s">
         <v>225</v>
       </c>
       <c r="D41" s="25" t="s">
@@ -3584,9 +3608,9 @@
       </c>
     </row>
     <row r="42" spans="1:12">
-      <c r="A42" s="61"/>
-      <c r="B42" s="61"/>
-      <c r="C42" s="64"/>
+      <c r="A42" s="67"/>
+      <c r="B42" s="67"/>
+      <c r="C42" s="62"/>
       <c r="D42" s="25" t="s">
         <v>237</v>
       </c>
@@ -3610,9 +3634,9 @@
       </c>
     </row>
     <row r="43" spans="1:12">
-      <c r="A43" s="61"/>
-      <c r="B43" s="61"/>
-      <c r="C43" s="64"/>
+      <c r="A43" s="67"/>
+      <c r="B43" s="67"/>
+      <c r="C43" s="62"/>
       <c r="D43" s="25" t="s">
         <v>238</v>
       </c>
@@ -3636,9 +3660,9 @@
       </c>
     </row>
     <row r="44" spans="1:12">
-      <c r="A44" s="61"/>
-      <c r="B44" s="61"/>
-      <c r="C44" s="64"/>
+      <c r="A44" s="67"/>
+      <c r="B44" s="67"/>
+      <c r="C44" s="62"/>
       <c r="D44" s="25" t="s">
         <v>131</v>
       </c>
@@ -3662,9 +3686,9 @@
       </c>
     </row>
     <row r="45" spans="1:12">
-      <c r="A45" s="61"/>
-      <c r="B45" s="61"/>
-      <c r="C45" s="65"/>
+      <c r="A45" s="67"/>
+      <c r="B45" s="67"/>
+      <c r="C45" s="63"/>
       <c r="D45" s="32" t="s">
         <v>132</v>
       </c>
@@ -3693,13 +3717,13 @@
       <c r="C46" s="37"/>
     </row>
     <row r="47" spans="1:12">
-      <c r="A47" s="61" t="s">
+      <c r="A47" s="67" t="s">
         <v>231</v>
       </c>
-      <c r="B47" s="62" t="s">
+      <c r="B47" s="68" t="s">
         <v>428</v>
       </c>
-      <c r="C47" s="66" t="s">
+      <c r="C47" s="64" t="s">
         <v>264</v>
       </c>
       <c r="D47" s="34"/>
@@ -3723,9 +3747,9 @@
       </c>
     </row>
     <row r="48" spans="1:12">
-      <c r="A48" s="61"/>
-      <c r="B48" s="61"/>
-      <c r="C48" s="67"/>
+      <c r="A48" s="67"/>
+      <c r="B48" s="67"/>
+      <c r="C48" s="65"/>
       <c r="D48" s="25"/>
       <c r="E48" s="31" t="s">
         <v>261</v>
@@ -3747,9 +3771,9 @@
       </c>
     </row>
     <row r="49" spans="1:10">
-      <c r="A49" s="61"/>
-      <c r="B49" s="61"/>
-      <c r="C49" s="67"/>
+      <c r="A49" s="67"/>
+      <c r="B49" s="67"/>
+      <c r="C49" s="65"/>
       <c r="D49" s="25"/>
       <c r="E49" s="31" t="s">
         <v>262</v>
@@ -3771,9 +3795,9 @@
       </c>
     </row>
     <row r="50" spans="1:10">
-      <c r="A50" s="61"/>
-      <c r="B50" s="61"/>
-      <c r="C50" s="67"/>
+      <c r="A50" s="67"/>
+      <c r="B50" s="67"/>
+      <c r="C50" s="65"/>
       <c r="D50" s="25"/>
       <c r="E50" s="31" t="s">
         <v>263</v>
@@ -3795,13 +3819,13 @@
       </c>
     </row>
     <row r="51" spans="1:10">
-      <c r="A51" s="61" t="s">
+      <c r="A51" s="67" t="s">
         <v>265</v>
       </c>
-      <c r="B51" s="62" t="s">
+      <c r="B51" s="68" t="s">
         <v>427</v>
       </c>
-      <c r="C51" s="67"/>
+      <c r="C51" s="65"/>
       <c r="D51" s="25"/>
       <c r="E51" s="20" t="s">
         <v>271</v>
@@ -3823,9 +3847,9 @@
       </c>
     </row>
     <row r="52" spans="1:10">
-      <c r="A52" s="61"/>
-      <c r="B52" s="61"/>
-      <c r="C52" s="67"/>
+      <c r="A52" s="67"/>
+      <c r="B52" s="67"/>
+      <c r="C52" s="65"/>
       <c r="D52" s="25"/>
       <c r="E52" s="20" t="s">
         <v>272</v>
@@ -3847,9 +3871,9 @@
       </c>
     </row>
     <row r="53" spans="1:10">
-      <c r="A53" s="61"/>
-      <c r="B53" s="61"/>
-      <c r="C53" s="67"/>
+      <c r="A53" s="67"/>
+      <c r="B53" s="67"/>
+      <c r="C53" s="65"/>
       <c r="D53" s="25"/>
       <c r="E53" s="20" t="s">
         <v>273</v>
@@ -3871,9 +3895,9 @@
       </c>
     </row>
     <row r="54" spans="1:10">
-      <c r="A54" s="61"/>
-      <c r="B54" s="61"/>
-      <c r="C54" s="67"/>
+      <c r="A54" s="67"/>
+      <c r="B54" s="67"/>
+      <c r="C54" s="65"/>
       <c r="D54" s="25"/>
       <c r="E54" s="20" t="s">
         <v>274</v>
@@ -3895,9 +3919,9 @@
       </c>
     </row>
     <row r="55" spans="1:10">
-      <c r="A55" s="61"/>
-      <c r="B55" s="61"/>
-      <c r="C55" s="68"/>
+      <c r="A55" s="67"/>
+      <c r="B55" s="67"/>
+      <c r="C55" s="66"/>
       <c r="D55" s="25"/>
       <c r="E55" s="20" t="s">
         <v>275</v>
@@ -3919,13 +3943,13 @@
       </c>
     </row>
     <row r="57" spans="1:10" s="46" customFormat="1" ht="28.8">
-      <c r="A57" s="61" t="s">
+      <c r="A57" s="67" t="s">
         <v>312</v>
       </c>
       <c r="B57" s="45" t="s">
         <v>429</v>
       </c>
-      <c r="C57" s="61" t="s">
+      <c r="C57" s="67" t="s">
         <v>311</v>
       </c>
       <c r="D57" s="54" t="s">
@@ -3951,11 +3975,11 @@
       </c>
     </row>
     <row r="58" spans="1:10">
-      <c r="A58" s="61"/>
-      <c r="B58" s="62" t="s">
+      <c r="A58" s="67"/>
+      <c r="B58" s="68" t="s">
         <v>430</v>
       </c>
-      <c r="C58" s="61"/>
+      <c r="C58" s="67"/>
       <c r="D58" s="25" t="s">
         <v>317</v>
       </c>
@@ -3979,9 +4003,9 @@
       </c>
     </row>
     <row r="59" spans="1:10">
-      <c r="A59" s="61"/>
-      <c r="B59" s="61"/>
-      <c r="C59" s="61"/>
+      <c r="A59" s="67"/>
+      <c r="B59" s="67"/>
+      <c r="C59" s="67"/>
       <c r="D59" s="25" t="s">
         <v>316</v>
       </c>
@@ -4005,9 +4029,9 @@
       </c>
     </row>
     <row r="60" spans="1:10">
-      <c r="A60" s="61"/>
-      <c r="B60" s="61"/>
-      <c r="C60" s="61"/>
+      <c r="A60" s="67"/>
+      <c r="B60" s="67"/>
+      <c r="C60" s="67"/>
       <c r="D60" s="25" t="s">
         <v>318</v>
       </c>
@@ -4031,13 +4055,13 @@
       </c>
     </row>
     <row r="62" spans="1:10">
-      <c r="A62" s="61" t="s">
+      <c r="A62" s="67" t="s">
         <v>231</v>
       </c>
-      <c r="B62" s="62" t="s">
+      <c r="B62" s="68" t="s">
         <v>431</v>
       </c>
-      <c r="C62" s="61" t="s">
+      <c r="C62" s="67" t="s">
         <v>319</v>
       </c>
       <c r="D62" s="25" t="s">
@@ -4063,9 +4087,9 @@
       </c>
     </row>
     <row r="63" spans="1:10">
-      <c r="A63" s="61"/>
-      <c r="B63" s="61"/>
-      <c r="C63" s="61"/>
+      <c r="A63" s="67"/>
+      <c r="B63" s="67"/>
+      <c r="C63" s="67"/>
       <c r="D63" s="25" t="s">
         <v>355</v>
       </c>
@@ -4089,9 +4113,9 @@
       </c>
     </row>
     <row r="64" spans="1:10">
-      <c r="A64" s="61"/>
-      <c r="B64" s="61"/>
-      <c r="C64" s="61"/>
+      <c r="A64" s="67"/>
+      <c r="B64" s="67"/>
+      <c r="C64" s="67"/>
       <c r="D64" s="25" t="s">
         <v>374</v>
       </c>
@@ -4115,9 +4139,9 @@
       </c>
     </row>
     <row r="65" spans="1:10">
-      <c r="A65" s="61"/>
-      <c r="B65" s="61"/>
-      <c r="C65" s="61"/>
+      <c r="A65" s="67"/>
+      <c r="B65" s="67"/>
+      <c r="C65" s="67"/>
       <c r="D65" s="25" t="s">
         <v>375</v>
       </c>
@@ -4141,9 +4165,9 @@
       </c>
     </row>
     <row r="66" spans="1:10">
-      <c r="A66" s="61"/>
-      <c r="B66" s="61"/>
-      <c r="C66" s="61"/>
+      <c r="A66" s="67"/>
+      <c r="B66" s="67"/>
+      <c r="C66" s="67"/>
       <c r="D66" s="25" t="s">
         <v>383</v>
       </c>
@@ -4167,9 +4191,9 @@
       </c>
     </row>
     <row r="67" spans="1:10">
-      <c r="A67" s="61"/>
-      <c r="B67" s="61"/>
-      <c r="C67" s="61"/>
+      <c r="A67" s="67"/>
+      <c r="B67" s="67"/>
+      <c r="C67" s="67"/>
       <c r="D67" s="25" t="s">
         <v>384</v>
       </c>
@@ -4193,9 +4217,9 @@
       </c>
     </row>
     <row r="68" spans="1:10">
-      <c r="A68" s="61"/>
-      <c r="B68" s="61"/>
-      <c r="C68" s="61"/>
+      <c r="A68" s="67"/>
+      <c r="B68" s="67"/>
+      <c r="C68" s="67"/>
       <c r="D68" s="25" t="s">
         <v>385</v>
       </c>
@@ -4219,9 +4243,9 @@
       </c>
     </row>
     <row r="69" spans="1:10">
-      <c r="A69" s="61"/>
-      <c r="B69" s="61"/>
-      <c r="C69" s="61"/>
+      <c r="A69" s="67"/>
+      <c r="B69" s="67"/>
+      <c r="C69" s="67"/>
       <c r="D69" s="25" t="s">
         <v>386</v>
       </c>
@@ -4245,10 +4269,10 @@
       </c>
     </row>
     <row r="71" spans="1:10">
-      <c r="B71" s="62" t="s">
+      <c r="B71" s="68" t="s">
         <v>432</v>
       </c>
-      <c r="C71" s="61" t="s">
+      <c r="C71" s="67" t="s">
         <v>419</v>
       </c>
       <c r="D71" s="25" t="s">
@@ -4274,8 +4298,8 @@
       </c>
     </row>
     <row r="72" spans="1:10">
-      <c r="B72" s="61"/>
-      <c r="C72" s="61"/>
+      <c r="B72" s="67"/>
+      <c r="C72" s="67"/>
       <c r="D72" s="25" t="s">
         <v>421</v>
       </c>
@@ -4299,8 +4323,8 @@
       </c>
     </row>
     <row r="73" spans="1:10">
-      <c r="B73" s="61"/>
-      <c r="C73" s="61"/>
+      <c r="B73" s="67"/>
+      <c r="C73" s="67"/>
       <c r="D73" s="25" t="s">
         <v>422</v>
       </c>
@@ -4324,8 +4348,8 @@
       </c>
     </row>
     <row r="74" spans="1:10">
-      <c r="B74" s="61"/>
-      <c r="C74" s="61"/>
+      <c r="B74" s="67"/>
+      <c r="C74" s="67"/>
       <c r="D74" s="25" t="s">
         <v>423</v>
       </c>
@@ -4349,8 +4373,8 @@
       </c>
     </row>
     <row r="75" spans="1:10">
-      <c r="B75" s="61"/>
-      <c r="C75" s="61"/>
+      <c r="B75" s="67"/>
+      <c r="C75" s="67"/>
       <c r="D75" s="25" t="s">
         <v>424</v>
       </c>
@@ -4374,8 +4398,8 @@
       </c>
     </row>
     <row r="76" spans="1:10">
-      <c r="B76" s="61"/>
-      <c r="C76" s="61"/>
+      <c r="B76" s="67"/>
+      <c r="C76" s="67"/>
       <c r="D76" s="25" t="s">
         <v>425</v>
       </c>
@@ -4399,10 +4423,10 @@
       </c>
     </row>
     <row r="78" spans="1:10">
-      <c r="B78" s="62" t="s">
+      <c r="B78" s="68" t="s">
         <v>432</v>
       </c>
-      <c r="C78" s="61" t="s">
+      <c r="C78" s="67" t="s">
         <v>443</v>
       </c>
       <c r="D78" s="25" t="s">
@@ -4428,8 +4452,8 @@
       </c>
     </row>
     <row r="79" spans="1:10">
-      <c r="B79" s="61"/>
-      <c r="C79" s="61"/>
+      <c r="B79" s="67"/>
+      <c r="C79" s="67"/>
       <c r="D79" s="25" t="s">
         <v>445</v>
       </c>
@@ -4453,8 +4477,8 @@
       </c>
     </row>
     <row r="80" spans="1:10">
-      <c r="B80" s="61"/>
-      <c r="C80" s="61"/>
+      <c r="B80" s="67"/>
+      <c r="C80" s="67"/>
       <c r="D80" s="25" t="s">
         <v>446</v>
       </c>
@@ -4482,7 +4506,7 @@
       <c r="B81" s="48" t="s">
         <v>442</v>
       </c>
-      <c r="C81" s="61"/>
+      <c r="C81" s="67"/>
       <c r="D81" s="21" t="s">
         <v>447</v>
       </c>
@@ -4506,10 +4530,10 @@
       </c>
     </row>
     <row r="83" spans="1:10">
-      <c r="B83" s="62" t="s">
+      <c r="B83" s="68" t="s">
         <v>479</v>
       </c>
-      <c r="C83" s="61" t="s">
+      <c r="C83" s="67" t="s">
         <v>474</v>
       </c>
       <c r="D83" s="25" t="s">
@@ -4535,8 +4559,8 @@
       </c>
     </row>
     <row r="84" spans="1:10">
-      <c r="B84" s="61"/>
-      <c r="C84" s="61"/>
+      <c r="B84" s="67"/>
+      <c r="C84" s="67"/>
       <c r="D84" s="25" t="s">
         <v>476</v>
       </c>
@@ -4560,8 +4584,8 @@
       </c>
     </row>
     <row r="85" spans="1:10">
-      <c r="B85" s="61"/>
-      <c r="C85" s="61"/>
+      <c r="B85" s="67"/>
+      <c r="C85" s="67"/>
       <c r="D85" s="25" t="s">
         <v>477</v>
       </c>
@@ -4585,8 +4609,8 @@
       </c>
     </row>
     <row r="86" spans="1:10">
-      <c r="B86" s="61"/>
-      <c r="C86" s="61"/>
+      <c r="B86" s="67"/>
+      <c r="C86" s="67"/>
       <c r="D86" s="25" t="s">
         <v>478</v>
       </c>
@@ -4610,8 +4634,8 @@
       </c>
     </row>
     <row r="87" spans="1:10">
-      <c r="B87" s="61"/>
-      <c r="C87" s="61"/>
+      <c r="B87" s="67"/>
+      <c r="C87" s="67"/>
       <c r="D87" s="25" t="s">
         <v>485</v>
       </c>
@@ -4635,8 +4659,8 @@
       </c>
     </row>
     <row r="88" spans="1:10">
-      <c r="B88" s="61"/>
-      <c r="C88" s="61"/>
+      <c r="B88" s="67"/>
+      <c r="C88" s="67"/>
       <c r="D88" s="25" t="s">
         <v>486</v>
       </c>
@@ -4661,6 +4685,30 @@
     </row>
   </sheetData>
   <mergeCells count="40">
+    <mergeCell ref="C83:C88"/>
+    <mergeCell ref="B83:B88"/>
+    <mergeCell ref="C57:C60"/>
+    <mergeCell ref="A57:A60"/>
+    <mergeCell ref="B58:B60"/>
+    <mergeCell ref="C78:C81"/>
+    <mergeCell ref="B78:B80"/>
+    <mergeCell ref="A51:A55"/>
+    <mergeCell ref="B51:B55"/>
+    <mergeCell ref="C71:C76"/>
+    <mergeCell ref="B71:B76"/>
+    <mergeCell ref="C62:C69"/>
+    <mergeCell ref="A62:A69"/>
+    <mergeCell ref="B62:B69"/>
+    <mergeCell ref="C28:C33"/>
+    <mergeCell ref="C22:C26"/>
+    <mergeCell ref="C15:C20"/>
+    <mergeCell ref="A47:A50"/>
+    <mergeCell ref="B47:B50"/>
+    <mergeCell ref="B35:B39"/>
+    <mergeCell ref="A41:A45"/>
+    <mergeCell ref="B41:B45"/>
+    <mergeCell ref="C41:C45"/>
+    <mergeCell ref="C35:C39"/>
     <mergeCell ref="C2:C5"/>
     <mergeCell ref="C47:C55"/>
     <mergeCell ref="B2:B5"/>
@@ -4677,30 +4725,6 @@
     <mergeCell ref="A22:A26"/>
     <mergeCell ref="C7:C13"/>
     <mergeCell ref="A35:A39"/>
-    <mergeCell ref="C28:C33"/>
-    <mergeCell ref="C22:C26"/>
-    <mergeCell ref="C15:C20"/>
-    <mergeCell ref="A47:A50"/>
-    <mergeCell ref="B47:B50"/>
-    <mergeCell ref="B35:B39"/>
-    <mergeCell ref="A41:A45"/>
-    <mergeCell ref="B41:B45"/>
-    <mergeCell ref="C41:C45"/>
-    <mergeCell ref="C35:C39"/>
-    <mergeCell ref="A51:A55"/>
-    <mergeCell ref="B51:B55"/>
-    <mergeCell ref="C71:C76"/>
-    <mergeCell ref="B71:B76"/>
-    <mergeCell ref="C62:C69"/>
-    <mergeCell ref="A62:A69"/>
-    <mergeCell ref="B62:B69"/>
-    <mergeCell ref="C83:C88"/>
-    <mergeCell ref="B83:B88"/>
-    <mergeCell ref="C57:C60"/>
-    <mergeCell ref="A57:A60"/>
-    <mergeCell ref="B58:B60"/>
-    <mergeCell ref="C78:C81"/>
-    <mergeCell ref="B78:B80"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5962,8 +5986,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:V8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="K23" sqref="K22:K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -6258,20 +6282,48 @@
       <c r="C6" s="59">
         <v>4138</v>
       </c>
-      <c r="D6" s="59"/>
-      <c r="E6" s="59"/>
-      <c r="F6" s="59"/>
-      <c r="G6" s="60"/>
-      <c r="H6" s="60"/>
-      <c r="I6" s="60"/>
-      <c r="J6" s="60"/>
-      <c r="K6" s="60"/>
-      <c r="L6" s="60"/>
-      <c r="M6" s="60"/>
-      <c r="N6" s="60"/>
-      <c r="O6" s="60"/>
-      <c r="P6" s="60"/>
-      <c r="Q6" s="60"/>
+      <c r="D6" s="59" t="s">
+        <v>542</v>
+      </c>
+      <c r="E6" s="59" t="s">
+        <v>581</v>
+      </c>
+      <c r="F6" s="59" t="s">
+        <v>471</v>
+      </c>
+      <c r="G6" s="60" t="s">
+        <v>579</v>
+      </c>
+      <c r="H6" s="60" t="s">
+        <v>580</v>
+      </c>
+      <c r="I6" s="60" t="s">
+        <v>258</v>
+      </c>
+      <c r="J6" s="60" t="s">
+        <v>555</v>
+      </c>
+      <c r="K6" s="60" t="s">
+        <v>577</v>
+      </c>
+      <c r="L6" s="60" t="s">
+        <v>578</v>
+      </c>
+      <c r="M6" s="60" t="s">
+        <v>557</v>
+      </c>
+      <c r="N6" s="60" t="s">
+        <v>206</v>
+      </c>
+      <c r="O6" s="60" t="s">
+        <v>93</v>
+      </c>
+      <c r="P6" s="60" t="s">
+        <v>558</v>
+      </c>
+      <c r="Q6" s="60" t="s">
+        <v>559</v>
+      </c>
       <c r="R6" s="60"/>
       <c r="S6" s="60"/>
       <c r="T6" s="60"/>
@@ -6325,8 +6377,12 @@
       <c r="H8" s="60"/>
       <c r="I8" s="60"/>
       <c r="J8" s="60"/>
-      <c r="K8" s="60"/>
-      <c r="L8" s="60"/>
+      <c r="K8" s="60" t="s">
+        <v>577</v>
+      </c>
+      <c r="L8" s="60" t="s">
+        <v>578</v>
+      </c>
       <c r="M8" s="60"/>
       <c r="N8" s="60"/>
       <c r="O8" s="60"/>
@@ -6542,8 +6598,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -6744,9 +6800,15 @@
       <c r="M6" s="4"/>
     </row>
     <row r="7" spans="1:13">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="4"/>
+      <c r="A7" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>574</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>114</v>
+      </c>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
@@ -6759,9 +6821,15 @@
       <c r="M7" s="4"/>
     </row>
     <row r="8" spans="1:13">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="4"/>
+      <c r="A8" s="2" t="s">
+        <v>575</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>576</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>114</v>
+      </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
@@ -7539,7 +7607,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>

--- a/KULS_Sankar/TestData/ijaraTestData.xlsx
+++ b/KULS_Sankar/TestData/ijaraTestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="72" windowWidth="23256" windowHeight="12600" firstSheet="12" activeTab="15"/>
+    <workbookView xWindow="0" yWindow="72" windowWidth="23256" windowHeight="12600" firstSheet="7" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="AllFeaturesAutomationInfo" sheetId="8" r:id="rId1"/>
@@ -23,13 +23,14 @@
     <sheet name="MU_DataCheck_EmpDetails" sheetId="14" r:id="rId14"/>
     <sheet name="TW_Offering_OfferDetails" sheetId="15" r:id="rId15"/>
     <sheet name="AL_AppData_AppDetails" sheetId="16" r:id="rId16"/>
+    <sheet name="AL_AppData_CustomerDebt" sheetId="17" r:id="rId17"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1239" uniqueCount="582">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1549" uniqueCount="659">
   <si>
     <t>UserName</t>
   </si>
@@ -493,9 +494,6 @@
     <t>Customer Debt</t>
   </si>
   <si>
-    <t>Offer Decision</t>
-  </si>
-  <si>
     <t>Tawarruq-App Data Entry</t>
   </si>
   <si>
@@ -950,12 +948,6 @@
   </si>
   <si>
     <t>AT_TW_AD_06</t>
-  </si>
-  <si>
-    <t>Mismatched Value</t>
-  </si>
-  <si>
-    <t>Matching Value</t>
   </si>
   <si>
     <t>Chennai</t>
@@ -1809,6 +1801,249 @@
   <si>
     <t>Karan</t>
   </si>
+  <si>
+    <t>AT_UNW_005</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>AT_TW_CSM_16</t>
+  </si>
+  <si>
+    <t>AT_TW_OFO_15</t>
+  </si>
+  <si>
+    <t>Blocked</t>
+  </si>
+  <si>
+    <t>TW_Offering_OfferDetails.feature</t>
+  </si>
+  <si>
+    <t>Sprint - 72</t>
+  </si>
+  <si>
+    <t>Ijarah - Underwriter</t>
+  </si>
+  <si>
+    <t>Tawarruq - Offering - 
+offering stage</t>
+  </si>
+  <si>
+    <t>Unw_11 --&gt; Unw_13 &amp; Unw_18</t>
+  </si>
+  <si>
+    <t>Unw_19, Unw_20, Unw_23, Unw_25</t>
+  </si>
+  <si>
+    <t>Unw_21, Unw_22, Unw_24</t>
+  </si>
+  <si>
+    <t>Unw_27 --&gt;Unw_38</t>
+  </si>
+  <si>
+    <t>AT_MU_UNW_001_01</t>
+  </si>
+  <si>
+    <t>AT_MU_UNW_001_02</t>
+  </si>
+  <si>
+    <t>AT_MU_UNW_002_01</t>
+  </si>
+  <si>
+    <t>AT_MU_UNW_002_02</t>
+  </si>
+  <si>
+    <t>AT_MU_UNW_003</t>
+  </si>
+  <si>
+    <t>AT_MU_UNW_004</t>
+  </si>
+  <si>
+    <t>AT_MU_UNW_005</t>
+  </si>
+  <si>
+    <t>AT_MU_UNW_006_01</t>
+  </si>
+  <si>
+    <t>AT_MU_UNW_006_02</t>
+  </si>
+  <si>
+    <t>AT_MU_UNW_006_03</t>
+  </si>
+  <si>
+    <t>AT_MU_UNW_006_04</t>
+  </si>
+  <si>
+    <t>Sprint - 73</t>
+  </si>
+  <si>
+    <t>Murabaha - Underwriter</t>
+  </si>
+  <si>
+    <t>ULS_Yoki -- MU_Underwriter.feature</t>
+  </si>
+  <si>
+    <t>AL_AppData_ApplicationDetails.feature</t>
+  </si>
+  <si>
+    <t>Sprint - 74</t>
+  </si>
+  <si>
+    <t>Auto-Loan - App data entry - 
+Application details</t>
+  </si>
+  <si>
+    <t>NEWAPP_01 ,NEWAPP_02, NEWAPP_03</t>
+  </si>
+  <si>
+    <t>NEWAPP_04, NEWAPP_05</t>
+  </si>
+  <si>
+    <t>NEWAPP_06 --&gt; NEWAPP_18</t>
+  </si>
+  <si>
+    <t>NEWAPP_21 --&gt; NEWAPP_27</t>
+  </si>
+  <si>
+    <t>NEWAPP_30 , NEWAPP_31</t>
+  </si>
+  <si>
+    <t>NEWAPP_34</t>
+  </si>
+  <si>
+    <t>NEWAPP_35 --&gt; NEWAPP_37 &amp; NEWAPP_39</t>
+  </si>
+  <si>
+    <t>AT_AL_APP_08</t>
+  </si>
+  <si>
+    <t>AT_AL_APP_09</t>
+  </si>
+  <si>
+    <t>AT_AL_APP_10</t>
+  </si>
+  <si>
+    <t>AT_AL_APP_11</t>
+  </si>
+  <si>
+    <t>AT_AL_APP_12</t>
+  </si>
+  <si>
+    <t>AT_AL_CUD_01</t>
+  </si>
+  <si>
+    <t>AT_AL_CUD_02</t>
+  </si>
+  <si>
+    <t>AT_AL_CUD_03</t>
+  </si>
+  <si>
+    <t>Auto-Loan - App data entry - 
+Financial Commitments</t>
+  </si>
+  <si>
+    <t>Sprint - 75</t>
+  </si>
+  <si>
+    <t>NEWAPP_45, NEWAPP_46</t>
+  </si>
+  <si>
+    <t>NEWAPP_42, NEWAPP_43, NEWAPP_44</t>
+  </si>
+  <si>
+    <t>NEWAPP_47, NEWAPP_48 , NEWAPP_49</t>
+  </si>
+  <si>
+    <t>NEWAPP_50, NEWAPP_51</t>
+  </si>
+  <si>
+    <t>NEWAPP_52, NEWAPP_53</t>
+  </si>
+  <si>
+    <t>CUD_01_01, CUD_01_04</t>
+  </si>
+  <si>
+    <t>CUD_01_02, CUD_01_03</t>
+  </si>
+  <si>
+    <t>DS_AT_AL_APP_08</t>
+  </si>
+  <si>
+    <t>DS_AT_AL_APP_09</t>
+  </si>
+  <si>
+    <t>DS_AT_AL_APP_10</t>
+  </si>
+  <si>
+    <t>DS_AT_AL_APP_11</t>
+  </si>
+  <si>
+    <t>DS_AT_AL_APP_12</t>
+  </si>
+  <si>
+    <t>4138</t>
+  </si>
+  <si>
+    <t>Matching_Value</t>
+  </si>
+  <si>
+    <t>Mismatched_Value</t>
+  </si>
+  <si>
+    <t>Mumbai</t>
+  </si>
+  <si>
+    <t>Pondicherry</t>
+  </si>
+  <si>
+    <t>DS_AT_AL_CUD_01</t>
+  </si>
+  <si>
+    <t>DS_AT_AL_CUD_02</t>
+  </si>
+  <si>
+    <t>DS_AT_AL_CUD_03</t>
+  </si>
+  <si>
+    <t>3356897745</t>
+  </si>
+  <si>
+    <t>1458800</t>
+  </si>
+  <si>
+    <t>47</t>
+  </si>
+  <si>
+    <t>Interest_Rate</t>
+  </si>
+  <si>
+    <t>Current_Principal</t>
+  </si>
+  <si>
+    <t>Amt_Consider</t>
+  </si>
+  <si>
+    <t>Collateral_Type</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>last_Payment_Amt</t>
+  </si>
+  <si>
+    <t>Azentio</t>
+  </si>
+  <si>
+    <t>AL_AppData_FinancialCommitments.feature</t>
+  </si>
+  <si>
+    <t>Invalid_data</t>
+  </si>
+  <si>
+    <t>4800</t>
+  </si>
 </sst>
 </file>
 
@@ -1817,7 +2052,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1895,8 +2130,15 @@
       <charset val="1"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1942,6 +2184,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
@@ -2028,7 +2276,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2156,6 +2404,32 @@
     <xf numFmtId="49" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2173,12 +2447,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2476,11 +2744,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L88"/>
+  <dimension ref="A1:L129"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D95" sqref="D95"/>
+      <pane ySplit="1" topLeftCell="A89" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H131" sqref="H131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2510,7 +2778,7 @@
         <v>122</v>
       </c>
       <c r="D1" s="24" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E1" s="24" t="s">
         <v>144</v>
@@ -2538,13 +2806,13 @@
       </c>
     </row>
     <row r="2" spans="1:12">
-      <c r="A2" s="67" t="s">
-        <v>172</v>
-      </c>
-      <c r="B2" s="67" t="s">
-        <v>232</v>
-      </c>
-      <c r="C2" s="61" t="s">
+      <c r="A2" s="69" t="s">
+        <v>171</v>
+      </c>
+      <c r="B2" s="69" t="s">
+        <v>231</v>
+      </c>
+      <c r="C2" s="71" t="s">
         <v>130</v>
       </c>
       <c r="D2" s="25" t="s">
@@ -2566,15 +2834,15 @@
         <v>136</v>
       </c>
       <c r="J2" s="25" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="K2" s="25"/>
       <c r="L2" s="25"/>
     </row>
     <row r="3" spans="1:12">
-      <c r="A3" s="67"/>
-      <c r="B3" s="67"/>
-      <c r="C3" s="62"/>
+      <c r="A3" s="69"/>
+      <c r="B3" s="69"/>
+      <c r="C3" s="72"/>
       <c r="D3" s="25" t="s">
         <v>131</v>
       </c>
@@ -2594,15 +2862,15 @@
         <v>136</v>
       </c>
       <c r="J3" s="25" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="K3" s="25"/>
       <c r="L3" s="25"/>
     </row>
     <row r="4" spans="1:12">
-      <c r="A4" s="67"/>
-      <c r="B4" s="67"/>
-      <c r="C4" s="62"/>
+      <c r="A4" s="69"/>
+      <c r="B4" s="69"/>
+      <c r="C4" s="72"/>
       <c r="D4" s="25" t="s">
         <v>132</v>
       </c>
@@ -2622,15 +2890,15 @@
         <v>136</v>
       </c>
       <c r="J4" s="25" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="K4" s="25"/>
       <c r="L4" s="25"/>
     </row>
     <row r="5" spans="1:12">
-      <c r="A5" s="67"/>
-      <c r="B5" s="67"/>
-      <c r="C5" s="63"/>
+      <c r="A5" s="69"/>
+      <c r="B5" s="69"/>
+      <c r="C5" s="73"/>
       <c r="D5" s="25" t="s">
         <v>134</v>
       </c>
@@ -2650,7 +2918,7 @@
         <v>136</v>
       </c>
       <c r="J5" s="25" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="K5" s="25"/>
       <c r="L5" s="25"/>
@@ -2670,13 +2938,13 @@
       <c r="L6" s="25"/>
     </row>
     <row r="7" spans="1:12">
-      <c r="A7" s="67" t="s">
-        <v>173</v>
-      </c>
-      <c r="B7" s="67" t="s">
-        <v>154</v>
-      </c>
-      <c r="C7" s="61" t="s">
+      <c r="A7" s="69" t="s">
+        <v>172</v>
+      </c>
+      <c r="B7" s="69" t="s">
+        <v>586</v>
+      </c>
+      <c r="C7" s="71" t="s">
         <v>143</v>
       </c>
       <c r="D7" s="21" t="s">
@@ -2698,15 +2966,15 @@
         <v>136</v>
       </c>
       <c r="J7" s="25" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="K7" s="25"/>
       <c r="L7" s="25"/>
     </row>
     <row r="8" spans="1:12">
-      <c r="A8" s="67"/>
-      <c r="B8" s="67"/>
-      <c r="C8" s="62"/>
+      <c r="A8" s="69"/>
+      <c r="B8" s="69"/>
+      <c r="C8" s="72"/>
       <c r="D8" s="25" t="s">
         <v>146</v>
       </c>
@@ -2726,15 +2994,15 @@
         <v>136</v>
       </c>
       <c r="J8" s="25" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="K8" s="25"/>
       <c r="L8" s="25"/>
     </row>
     <row r="9" spans="1:12">
-      <c r="A9" s="67"/>
-      <c r="B9" s="67"/>
-      <c r="C9" s="62"/>
+      <c r="A9" s="69"/>
+      <c r="B9" s="69"/>
+      <c r="C9" s="72"/>
       <c r="D9" s="25" t="s">
         <v>147</v>
       </c>
@@ -2754,15 +3022,15 @@
         <v>136</v>
       </c>
       <c r="J9" s="25" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="K9" s="25"/>
       <c r="L9" s="25"/>
     </row>
     <row r="10" spans="1:12">
-      <c r="A10" s="67"/>
-      <c r="B10" s="67"/>
-      <c r="C10" s="62"/>
+      <c r="A10" s="69"/>
+      <c r="B10" s="69"/>
+      <c r="C10" s="72"/>
       <c r="D10" s="25" t="s">
         <v>148</v>
       </c>
@@ -2782,19 +3050,19 @@
         <v>136</v>
       </c>
       <c r="J10" s="25" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="K10" s="25"/>
       <c r="L10" s="25"/>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="37" t="s">
+        <v>154</v>
+      </c>
+      <c r="B11" s="37" t="s">
         <v>155</v>
       </c>
-      <c r="B11" s="37" t="s">
-        <v>156</v>
-      </c>
-      <c r="C11" s="62"/>
+      <c r="C11" s="72"/>
       <c r="D11" s="25" t="s">
         <v>149</v>
       </c>
@@ -2814,19 +3082,19 @@
         <v>136</v>
       </c>
       <c r="J11" s="25" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="K11" s="25"/>
       <c r="L11" s="25"/>
     </row>
     <row r="12" spans="1:12">
-      <c r="A12" s="67" t="s">
-        <v>172</v>
-      </c>
-      <c r="B12" s="67" t="s">
+      <c r="A12" s="69" t="s">
+        <v>171</v>
+      </c>
+      <c r="B12" s="69" t="s">
         <v>153</v>
       </c>
-      <c r="C12" s="62"/>
+      <c r="C12" s="72"/>
       <c r="D12" s="25" t="s">
         <v>133</v>
       </c>
@@ -2852,9 +3120,9 @@
       <c r="L12" s="25"/>
     </row>
     <row r="13" spans="1:12">
-      <c r="A13" s="67"/>
-      <c r="B13" s="67"/>
-      <c r="C13" s="63"/>
+      <c r="A13" s="69"/>
+      <c r="B13" s="69"/>
+      <c r="C13" s="73"/>
       <c r="D13" s="25" t="s">
         <v>150</v>
       </c>
@@ -2894,17 +3162,17 @@
       <c r="L14" s="25"/>
     </row>
     <row r="15" spans="1:12">
-      <c r="A15" s="67" t="s">
-        <v>174</v>
-      </c>
-      <c r="B15" s="67" t="s">
+      <c r="A15" s="69" t="s">
+        <v>173</v>
+      </c>
+      <c r="B15" s="69" t="s">
+        <v>157</v>
+      </c>
+      <c r="C15" s="71" t="s">
+        <v>156</v>
+      </c>
+      <c r="D15" s="25" t="s">
         <v>158</v>
-      </c>
-      <c r="C15" s="61" t="s">
-        <v>157</v>
-      </c>
-      <c r="D15" s="25" t="s">
-        <v>159</v>
       </c>
       <c r="E15" s="20" t="s">
         <v>58</v>
@@ -2922,17 +3190,17 @@
         <v>136</v>
       </c>
       <c r="J15" s="25" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="K15" s="25"/>
       <c r="L15" s="25"/>
     </row>
     <row r="16" spans="1:12">
-      <c r="A16" s="67"/>
-      <c r="B16" s="67"/>
-      <c r="C16" s="62"/>
+      <c r="A16" s="69"/>
+      <c r="B16" s="69"/>
+      <c r="C16" s="72"/>
       <c r="D16" s="25" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E16" s="20" t="s">
         <v>61</v>
@@ -2950,17 +3218,17 @@
         <v>136</v>
       </c>
       <c r="J16" s="25" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="K16" s="25"/>
       <c r="L16" s="25"/>
     </row>
     <row r="17" spans="1:12">
-      <c r="A17" s="67"/>
-      <c r="B17" s="67"/>
-      <c r="C17" s="62"/>
+      <c r="A17" s="69"/>
+      <c r="B17" s="69"/>
+      <c r="C17" s="72"/>
       <c r="D17" s="25" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E17" s="20" t="s">
         <v>62</v>
@@ -2978,17 +3246,17 @@
         <v>136</v>
       </c>
       <c r="J17" s="25" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="K17" s="25"/>
       <c r="L17" s="25"/>
     </row>
     <row r="18" spans="1:12">
-      <c r="A18" s="67"/>
-      <c r="B18" s="67"/>
-      <c r="C18" s="62"/>
+      <c r="A18" s="69"/>
+      <c r="B18" s="69"/>
+      <c r="C18" s="72"/>
       <c r="D18" s="25" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E18" s="20" t="s">
         <v>63</v>
@@ -3006,17 +3274,17 @@
         <v>136</v>
       </c>
       <c r="J18" s="25" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="K18" s="25"/>
       <c r="L18" s="25"/>
     </row>
     <row r="19" spans="1:12">
-      <c r="A19" s="67"/>
-      <c r="B19" s="67"/>
-      <c r="C19" s="62"/>
+      <c r="A19" s="69"/>
+      <c r="B19" s="69"/>
+      <c r="C19" s="72"/>
       <c r="D19" s="25" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E19" s="20" t="s">
         <v>68</v>
@@ -3034,17 +3302,17 @@
         <v>136</v>
       </c>
       <c r="J19" s="25" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="K19" s="25"/>
       <c r="L19" s="25"/>
     </row>
     <row r="20" spans="1:12">
-      <c r="A20" s="67"/>
-      <c r="B20" s="67"/>
-      <c r="C20" s="63"/>
+      <c r="A20" s="69"/>
+      <c r="B20" s="69"/>
+      <c r="C20" s="73"/>
       <c r="D20" s="25" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E20" s="20" t="s">
         <v>69</v>
@@ -3062,7 +3330,7 @@
         <v>136</v>
       </c>
       <c r="J20" s="25" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="K20" s="25"/>
       <c r="L20" s="25"/>
@@ -3082,17 +3350,17 @@
       <c r="L21" s="25"/>
     </row>
     <row r="22" spans="1:12">
-      <c r="A22" s="67" t="s">
-        <v>174</v>
-      </c>
-      <c r="B22" s="67" t="s">
-        <v>178</v>
-      </c>
-      <c r="C22" s="61" t="s">
+      <c r="A22" s="69" t="s">
+        <v>173</v>
+      </c>
+      <c r="B22" s="69" t="s">
+        <v>177</v>
+      </c>
+      <c r="C22" s="71" t="s">
+        <v>165</v>
+      </c>
+      <c r="D22" s="25" t="s">
         <v>166</v>
-      </c>
-      <c r="D22" s="25" t="s">
-        <v>167</v>
       </c>
       <c r="E22" s="20" t="s">
         <v>70</v>
@@ -3110,17 +3378,17 @@
         <v>136</v>
       </c>
       <c r="J22" s="25" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="K22" s="25"/>
       <c r="L22" s="25"/>
     </row>
     <row r="23" spans="1:12">
-      <c r="A23" s="67"/>
-      <c r="B23" s="67"/>
-      <c r="C23" s="62"/>
+      <c r="A23" s="69"/>
+      <c r="B23" s="69"/>
+      <c r="C23" s="72"/>
       <c r="D23" s="25" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E23" s="20" t="s">
         <v>74</v>
@@ -3138,17 +3406,17 @@
         <v>136</v>
       </c>
       <c r="J23" s="25" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="K23" s="25"/>
       <c r="L23" s="25"/>
     </row>
     <row r="24" spans="1:12">
-      <c r="A24" s="67"/>
-      <c r="B24" s="67"/>
-      <c r="C24" s="62"/>
+      <c r="A24" s="69"/>
+      <c r="B24" s="69"/>
+      <c r="C24" s="72"/>
       <c r="D24" s="25" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E24" s="20" t="s">
         <v>75</v>
@@ -3166,17 +3434,17 @@
         <v>136</v>
       </c>
       <c r="J24" s="25" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="K24" s="25"/>
       <c r="L24" s="25"/>
     </row>
     <row r="25" spans="1:12">
-      <c r="A25" s="67"/>
-      <c r="B25" s="67"/>
-      <c r="C25" s="62"/>
+      <c r="A25" s="69"/>
+      <c r="B25" s="69"/>
+      <c r="C25" s="72"/>
       <c r="D25" s="25" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E25" s="20" t="s">
         <v>77</v>
@@ -3194,17 +3462,17 @@
         <v>136</v>
       </c>
       <c r="J25" s="25" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="K25" s="25"/>
       <c r="L25" s="25"/>
     </row>
     <row r="26" spans="1:12">
-      <c r="A26" s="67"/>
-      <c r="B26" s="67"/>
-      <c r="C26" s="63"/>
+      <c r="A26" s="69"/>
+      <c r="B26" s="69"/>
+      <c r="C26" s="73"/>
       <c r="D26" s="25" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E26" s="20" t="s">
         <v>97</v>
@@ -3222,7 +3490,7 @@
         <v>136</v>
       </c>
       <c r="J26" s="25" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="K26" s="25"/>
       <c r="L26" s="25"/>
@@ -3242,17 +3510,17 @@
       <c r="L27" s="25"/>
     </row>
     <row r="28" spans="1:12">
-      <c r="A28" s="67" t="s">
+      <c r="A28" s="69" t="s">
+        <v>175</v>
+      </c>
+      <c r="B28" s="69" t="s">
         <v>176</v>
       </c>
-      <c r="B28" s="67" t="s">
-        <v>177</v>
-      </c>
-      <c r="C28" s="61" t="s">
-        <v>175</v>
+      <c r="C28" s="71" t="s">
+        <v>174</v>
       </c>
       <c r="D28" s="25" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E28" s="20" t="s">
         <v>103</v>
@@ -3270,17 +3538,17 @@
         <v>136</v>
       </c>
       <c r="J28" s="25" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="K28" s="25"/>
       <c r="L28" s="25"/>
     </row>
     <row r="29" spans="1:12">
-      <c r="A29" s="67"/>
-      <c r="B29" s="67"/>
-      <c r="C29" s="62"/>
+      <c r="A29" s="69"/>
+      <c r="B29" s="69"/>
+      <c r="C29" s="72"/>
       <c r="D29" s="25" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E29" s="20" t="s">
         <v>110</v>
@@ -3298,17 +3566,17 @@
         <v>136</v>
       </c>
       <c r="J29" s="25" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="K29" s="25"/>
       <c r="L29" s="25"/>
     </row>
     <row r="30" spans="1:12">
-      <c r="A30" s="67"/>
-      <c r="B30" s="67"/>
-      <c r="C30" s="62"/>
+      <c r="A30" s="69"/>
+      <c r="B30" s="69"/>
+      <c r="C30" s="72"/>
       <c r="D30" s="25" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E30" s="20" t="s">
         <v>111</v>
@@ -3326,17 +3594,17 @@
         <v>136</v>
       </c>
       <c r="J30" s="25" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="K30" s="25"/>
       <c r="L30" s="25"/>
     </row>
     <row r="31" spans="1:12">
-      <c r="A31" s="67"/>
-      <c r="B31" s="67"/>
-      <c r="C31" s="62"/>
+      <c r="A31" s="69"/>
+      <c r="B31" s="69"/>
+      <c r="C31" s="72"/>
       <c r="D31" s="25" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E31" s="20" t="s">
         <v>112</v>
@@ -3354,17 +3622,17 @@
         <v>136</v>
       </c>
       <c r="J31" s="25" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="K31" s="25"/>
       <c r="L31" s="25"/>
     </row>
     <row r="32" spans="1:12">
-      <c r="A32" s="67"/>
-      <c r="B32" s="67"/>
-      <c r="C32" s="62"/>
+      <c r="A32" s="69"/>
+      <c r="B32" s="69"/>
+      <c r="C32" s="72"/>
       <c r="D32" s="25" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E32" s="20" t="s">
         <v>113</v>
@@ -3382,17 +3650,17 @@
         <v>136</v>
       </c>
       <c r="J32" s="25" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="K32" s="25"/>
       <c r="L32" s="25"/>
     </row>
     <row r="33" spans="1:12">
-      <c r="A33" s="67"/>
-      <c r="B33" s="67"/>
-      <c r="C33" s="63"/>
+      <c r="A33" s="69"/>
+      <c r="B33" s="69"/>
+      <c r="C33" s="73"/>
       <c r="D33" s="25" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E33" s="20" t="s">
         <v>120</v>
@@ -3410,7 +3678,7 @@
         <v>136</v>
       </c>
       <c r="J33" s="25" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="K33" s="25"/>
       <c r="L33" s="25"/>
@@ -3428,125 +3696,125 @@
       <c r="J34" s="25"/>
     </row>
     <row r="35" spans="1:12">
-      <c r="A35" s="67" t="s">
-        <v>224</v>
-      </c>
-      <c r="B35" s="67" t="s">
-        <v>178</v>
-      </c>
-      <c r="C35" s="61" t="s">
+      <c r="A35" s="69" t="s">
         <v>223</v>
       </c>
+      <c r="B35" s="69" t="s">
+        <v>177</v>
+      </c>
+      <c r="C35" s="71" t="s">
+        <v>222</v>
+      </c>
       <c r="D35" s="25" t="s">
+        <v>232</v>
+      </c>
+      <c r="E35" s="29" t="s">
+        <v>188</v>
+      </c>
+      <c r="F35" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="G35" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="H35" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="I35" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="J35" s="30" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12">
+      <c r="A36" s="69"/>
+      <c r="B36" s="69"/>
+      <c r="C36" s="72"/>
+      <c r="D36" s="25" t="s">
+        <v>167</v>
+      </c>
+      <c r="E36" s="29" t="s">
+        <v>190</v>
+      </c>
+      <c r="F36" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="G36" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="H36" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="I36" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="J36" s="30" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12">
+      <c r="A37" s="69"/>
+      <c r="B37" s="69"/>
+      <c r="C37" s="72"/>
+      <c r="D37" s="25" t="s">
+        <v>168</v>
+      </c>
+      <c r="E37" s="29" t="s">
+        <v>192</v>
+      </c>
+      <c r="F37" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="G37" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="H37" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="I37" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="J37" s="30" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12">
+      <c r="A38" s="69"/>
+      <c r="B38" s="69"/>
+      <c r="C38" s="72"/>
+      <c r="D38" s="25" t="s">
         <v>233</v>
       </c>
-      <c r="E35" s="29" t="s">
-        <v>189</v>
-      </c>
-      <c r="F35" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="G35" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="H35" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="I35" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="J35" s="30" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12">
-      <c r="A36" s="67"/>
-      <c r="B36" s="67"/>
-      <c r="C36" s="62"/>
-      <c r="D36" s="25" t="s">
-        <v>168</v>
-      </c>
-      <c r="E36" s="29" t="s">
-        <v>191</v>
-      </c>
-      <c r="F36" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="G36" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="H36" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="I36" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="J36" s="30" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12">
-      <c r="A37" s="67"/>
-      <c r="B37" s="67"/>
-      <c r="C37" s="62"/>
-      <c r="D37" s="25" t="s">
-        <v>169</v>
-      </c>
-      <c r="E37" s="29" t="s">
+      <c r="E38" s="29" t="s">
         <v>193</v>
       </c>
-      <c r="F37" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="G37" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="H37" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="I37" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="J37" s="30" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12">
-      <c r="A38" s="67"/>
-      <c r="B38" s="67"/>
-      <c r="C38" s="62"/>
-      <c r="D38" s="25" t="s">
+      <c r="F38" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="G38" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="H38" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="I38" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="J38" s="30" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12">
+      <c r="A39" s="69"/>
+      <c r="B39" s="69"/>
+      <c r="C39" s="73"/>
+      <c r="D39" s="25" t="s">
         <v>234</v>
       </c>
-      <c r="E38" s="29" t="s">
+      <c r="E39" s="29" t="s">
         <v>194</v>
       </c>
-      <c r="F38" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="G38" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="H38" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="I38" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="J38" s="30" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12">
-      <c r="A39" s="67"/>
-      <c r="B39" s="67"/>
-      <c r="C39" s="63"/>
-      <c r="D39" s="25" t="s">
-        <v>235</v>
-      </c>
-      <c r="E39" s="29" t="s">
-        <v>195</v>
-      </c>
       <c r="F39" s="25" t="s">
         <v>136</v>
       </c>
@@ -3560,7 +3828,7 @@
         <v>136</v>
       </c>
       <c r="J39" s="30" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
     </row>
     <row r="40" spans="1:12">
@@ -3576,73 +3844,73 @@
       <c r="J40" s="25"/>
     </row>
     <row r="41" spans="1:12">
-      <c r="A41" s="67" t="s">
-        <v>231</v>
-      </c>
-      <c r="B41" s="68" t="s">
-        <v>428</v>
-      </c>
-      <c r="C41" s="61" t="s">
+      <c r="A41" s="69" t="s">
+        <v>230</v>
+      </c>
+      <c r="B41" s="70" t="s">
+        <v>425</v>
+      </c>
+      <c r="C41" s="71" t="s">
+        <v>224</v>
+      </c>
+      <c r="D41" s="25" t="s">
+        <v>235</v>
+      </c>
+      <c r="E41" s="31" t="s">
         <v>225</v>
       </c>
-      <c r="D41" s="25" t="s">
+      <c r="F41" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="G41" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="H41" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="I41" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="J41" s="34" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12">
+      <c r="A42" s="69"/>
+      <c r="B42" s="69"/>
+      <c r="C42" s="72"/>
+      <c r="D42" s="25" t="s">
         <v>236</v>
       </c>
-      <c r="E41" s="31" t="s">
+      <c r="E42" s="31" t="s">
         <v>226</v>
       </c>
-      <c r="F41" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="G41" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="H41" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="I41" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="J41" s="34" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12">
-      <c r="A42" s="67"/>
-      <c r="B42" s="67"/>
-      <c r="C42" s="62"/>
-      <c r="D42" s="25" t="s">
+      <c r="F42" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="G42" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="H42" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="I42" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="J42" s="34" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12">
+      <c r="A43" s="69"/>
+      <c r="B43" s="69"/>
+      <c r="C43" s="72"/>
+      <c r="D43" s="25" t="s">
         <v>237</v>
       </c>
-      <c r="E42" s="31" t="s">
+      <c r="E43" s="31" t="s">
         <v>227</v>
       </c>
-      <c r="F42" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="G42" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="H42" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="I42" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="J42" s="34" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12">
-      <c r="A43" s="67"/>
-      <c r="B43" s="67"/>
-      <c r="C43" s="62"/>
-      <c r="D43" s="25" t="s">
-        <v>238</v>
-      </c>
-      <c r="E43" s="31" t="s">
-        <v>228</v>
-      </c>
       <c r="F43" s="25" t="s">
         <v>136</v>
       </c>
@@ -3656,18 +3924,18 @@
         <v>136</v>
       </c>
       <c r="J43" s="34" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
     </row>
     <row r="44" spans="1:12">
-      <c r="A44" s="67"/>
-      <c r="B44" s="67"/>
-      <c r="C44" s="62"/>
+      <c r="A44" s="69"/>
+      <c r="B44" s="69"/>
+      <c r="C44" s="72"/>
       <c r="D44" s="25" t="s">
         <v>131</v>
       </c>
       <c r="E44" s="31" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F44" s="25" t="s">
         <v>136</v>
@@ -3682,18 +3950,18 @@
         <v>136</v>
       </c>
       <c r="J44" s="34" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
     </row>
     <row r="45" spans="1:12">
-      <c r="A45" s="67"/>
-      <c r="B45" s="67"/>
-      <c r="C45" s="63"/>
+      <c r="A45" s="69"/>
+      <c r="B45" s="69"/>
+      <c r="C45" s="73"/>
       <c r="D45" s="32" t="s">
         <v>132</v>
       </c>
       <c r="E45" s="33" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F45" s="32" t="s">
         <v>136</v>
@@ -3708,7 +3976,7 @@
         <v>136</v>
       </c>
       <c r="J45" s="34" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
     </row>
     <row r="46" spans="1:12" s="25" customFormat="1">
@@ -3717,18 +3985,18 @@
       <c r="C46" s="37"/>
     </row>
     <row r="47" spans="1:12">
-      <c r="A47" s="67" t="s">
-        <v>231</v>
-      </c>
-      <c r="B47" s="68" t="s">
-        <v>428</v>
-      </c>
-      <c r="C47" s="64" t="s">
-        <v>264</v>
+      <c r="A47" s="69" t="s">
+        <v>230</v>
+      </c>
+      <c r="B47" s="70" t="s">
+        <v>425</v>
+      </c>
+      <c r="C47" s="74" t="s">
+        <v>263</v>
       </c>
       <c r="D47" s="34"/>
       <c r="E47" s="35" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F47" s="34" t="s">
         <v>136</v>
@@ -3743,16 +4011,16 @@
         <v>136</v>
       </c>
       <c r="J47" s="34" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
     </row>
     <row r="48" spans="1:12">
-      <c r="A48" s="67"/>
-      <c r="B48" s="67"/>
-      <c r="C48" s="65"/>
+      <c r="A48" s="69"/>
+      <c r="B48" s="69"/>
+      <c r="C48" s="75"/>
       <c r="D48" s="25"/>
       <c r="E48" s="31" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F48" s="25" t="s">
         <v>136</v>
@@ -3767,16 +4035,16 @@
         <v>136</v>
       </c>
       <c r="J48" s="34" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
     </row>
     <row r="49" spans="1:10">
-      <c r="A49" s="67"/>
-      <c r="B49" s="67"/>
-      <c r="C49" s="65"/>
+      <c r="A49" s="69"/>
+      <c r="B49" s="69"/>
+      <c r="C49" s="75"/>
       <c r="D49" s="25"/>
       <c r="E49" s="31" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F49" s="25" t="s">
         <v>136</v>
@@ -3791,16 +4059,16 @@
         <v>136</v>
       </c>
       <c r="J49" s="34" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
     </row>
     <row r="50" spans="1:10">
-      <c r="A50" s="67"/>
-      <c r="B50" s="67"/>
-      <c r="C50" s="65"/>
+      <c r="A50" s="69"/>
+      <c r="B50" s="69"/>
+      <c r="C50" s="75"/>
       <c r="D50" s="25"/>
       <c r="E50" s="31" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F50" s="25" t="s">
         <v>136</v>
@@ -3815,20 +4083,20 @@
         <v>136</v>
       </c>
       <c r="J50" s="34" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
     </row>
     <row r="51" spans="1:10">
-      <c r="A51" s="67" t="s">
-        <v>265</v>
-      </c>
-      <c r="B51" s="68" t="s">
-        <v>427</v>
-      </c>
-      <c r="C51" s="65"/>
+      <c r="A51" s="69" t="s">
+        <v>264</v>
+      </c>
+      <c r="B51" s="70" t="s">
+        <v>424</v>
+      </c>
+      <c r="C51" s="75"/>
       <c r="D51" s="25"/>
       <c r="E51" s="20" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="F51" s="25" t="s">
         <v>136</v>
@@ -3843,16 +4111,16 @@
         <v>136</v>
       </c>
       <c r="J51" s="25" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
     </row>
     <row r="52" spans="1:10">
-      <c r="A52" s="67"/>
-      <c r="B52" s="67"/>
-      <c r="C52" s="65"/>
+      <c r="A52" s="69"/>
+      <c r="B52" s="69"/>
+      <c r="C52" s="75"/>
       <c r="D52" s="25"/>
       <c r="E52" s="20" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="F52" s="25" t="s">
         <v>136</v>
@@ -3867,16 +4135,16 @@
         <v>136</v>
       </c>
       <c r="J52" s="25" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
     </row>
     <row r="53" spans="1:10">
-      <c r="A53" s="67"/>
-      <c r="B53" s="67"/>
-      <c r="C53" s="65"/>
+      <c r="A53" s="69"/>
+      <c r="B53" s="69"/>
+      <c r="C53" s="75"/>
       <c r="D53" s="25"/>
       <c r="E53" s="20" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="F53" s="25" t="s">
         <v>136</v>
@@ -3891,16 +4159,16 @@
         <v>136</v>
       </c>
       <c r="J53" s="25" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
     </row>
     <row r="54" spans="1:10">
-      <c r="A54" s="67"/>
-      <c r="B54" s="67"/>
-      <c r="C54" s="65"/>
+      <c r="A54" s="69"/>
+      <c r="B54" s="69"/>
+      <c r="C54" s="75"/>
       <c r="D54" s="25"/>
       <c r="E54" s="20" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F54" s="25" t="s">
         <v>136</v>
@@ -3915,16 +4183,16 @@
         <v>136</v>
       </c>
       <c r="J54" s="25" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
     </row>
     <row r="55" spans="1:10">
-      <c r="A55" s="67"/>
-      <c r="B55" s="67"/>
-      <c r="C55" s="66"/>
+      <c r="A55" s="69"/>
+      <c r="B55" s="69"/>
+      <c r="C55" s="76"/>
       <c r="D55" s="25"/>
       <c r="E55" s="20" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F55" s="25" t="s">
         <v>136</v>
@@ -3939,579 +4207,579 @@
         <v>136</v>
       </c>
       <c r="J55" s="25" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
     </row>
     <row r="57" spans="1:10" s="46" customFormat="1" ht="28.8">
-      <c r="A57" s="67" t="s">
+      <c r="A57" s="69" t="s">
+        <v>309</v>
+      </c>
+      <c r="B57" s="45" t="s">
+        <v>426</v>
+      </c>
+      <c r="C57" s="69" t="s">
+        <v>308</v>
+      </c>
+      <c r="D57" s="54" t="s">
         <v>312</v>
       </c>
-      <c r="B57" s="45" t="s">
+      <c r="E57" s="55" t="s">
+        <v>305</v>
+      </c>
+      <c r="F57" s="54" t="s">
+        <v>136</v>
+      </c>
+      <c r="G57" s="54" t="s">
+        <v>136</v>
+      </c>
+      <c r="H57" s="54" t="s">
+        <v>136</v>
+      </c>
+      <c r="I57" s="54" t="s">
+        <v>136</v>
+      </c>
+      <c r="J57" s="54" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
+      <c r="A58" s="69"/>
+      <c r="B58" s="70" t="s">
+        <v>427</v>
+      </c>
+      <c r="C58" s="69"/>
+      <c r="D58" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="E58" s="38" t="s">
+        <v>290</v>
+      </c>
+      <c r="F58" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="G58" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="H58" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="I58" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="J58" s="25" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
+      <c r="A59" s="69"/>
+      <c r="B59" s="69"/>
+      <c r="C59" s="69"/>
+      <c r="D59" s="25" t="s">
+        <v>313</v>
+      </c>
+      <c r="E59" s="31" t="s">
+        <v>293</v>
+      </c>
+      <c r="F59" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="G59" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="H59" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="I59" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="J59" s="25" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
+      <c r="A60" s="69"/>
+      <c r="B60" s="69"/>
+      <c r="C60" s="69"/>
+      <c r="D60" s="25" t="s">
+        <v>315</v>
+      </c>
+      <c r="E60" s="38" t="s">
+        <v>285</v>
+      </c>
+      <c r="F60" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="G60" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="H60" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="I60" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="J60" s="25" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
+      <c r="A62" s="69" t="s">
+        <v>230</v>
+      </c>
+      <c r="B62" s="70" t="s">
+        <v>428</v>
+      </c>
+      <c r="C62" s="69" t="s">
+        <v>316</v>
+      </c>
+      <c r="D62" s="25" t="s">
+        <v>351</v>
+      </c>
+      <c r="E62" s="39" t="s">
+        <v>317</v>
+      </c>
+      <c r="F62" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="G62" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="H62" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="I62" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="J62" s="25" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
+      <c r="A63" s="69"/>
+      <c r="B63" s="69"/>
+      <c r="C63" s="69"/>
+      <c r="D63" s="25" t="s">
+        <v>352</v>
+      </c>
+      <c r="E63" s="39" t="s">
+        <v>318</v>
+      </c>
+      <c r="F63" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="G63" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="H63" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="I63" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="J63" s="25" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
+      <c r="A64" s="69"/>
+      <c r="B64" s="69"/>
+      <c r="C64" s="69"/>
+      <c r="D64" s="25" t="s">
+        <v>371</v>
+      </c>
+      <c r="E64" s="39" t="s">
+        <v>319</v>
+      </c>
+      <c r="F64" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="G64" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="H64" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="I64" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="J64" s="25" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
+      <c r="A65" s="69"/>
+      <c r="B65" s="69"/>
+      <c r="C65" s="69"/>
+      <c r="D65" s="25" t="s">
+        <v>372</v>
+      </c>
+      <c r="E65" s="39" t="s">
+        <v>320</v>
+      </c>
+      <c r="F65" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="G65" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="H65" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="I65" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="J65" s="25" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
+      <c r="A66" s="69"/>
+      <c r="B66" s="69"/>
+      <c r="C66" s="69"/>
+      <c r="D66" s="25" t="s">
+        <v>380</v>
+      </c>
+      <c r="E66" s="39" t="s">
+        <v>321</v>
+      </c>
+      <c r="F66" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="G66" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="H66" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="I66" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="J66" s="25" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
+      <c r="A67" s="69"/>
+      <c r="B67" s="69"/>
+      <c r="C67" s="69"/>
+      <c r="D67" s="25" t="s">
+        <v>381</v>
+      </c>
+      <c r="E67" s="39" t="s">
+        <v>322</v>
+      </c>
+      <c r="F67" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="G67" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="H67" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="I67" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="J67" s="25" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
+      <c r="A68" s="69"/>
+      <c r="B68" s="69"/>
+      <c r="C68" s="69"/>
+      <c r="D68" s="25" t="s">
+        <v>382</v>
+      </c>
+      <c r="E68" s="39" t="s">
+        <v>323</v>
+      </c>
+      <c r="F68" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="G68" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="H68" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="I68" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="J68" s="25" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
+      <c r="A69" s="69"/>
+      <c r="B69" s="69"/>
+      <c r="C69" s="69"/>
+      <c r="D69" s="25" t="s">
+        <v>383</v>
+      </c>
+      <c r="E69" s="39" t="s">
+        <v>324</v>
+      </c>
+      <c r="F69" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="G69" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="H69" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="I69" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="J69" s="25" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
+      <c r="B71" s="70" t="s">
         <v>429</v>
       </c>
-      <c r="C57" s="67" t="s">
-        <v>311</v>
-      </c>
-      <c r="D57" s="54" t="s">
-        <v>315</v>
-      </c>
-      <c r="E57" s="55" t="s">
-        <v>306</v>
-      </c>
-      <c r="F57" s="54" t="s">
-        <v>136</v>
-      </c>
-      <c r="G57" s="54" t="s">
-        <v>136</v>
-      </c>
-      <c r="H57" s="54" t="s">
-        <v>136</v>
-      </c>
-      <c r="I57" s="54" t="s">
-        <v>136</v>
-      </c>
-      <c r="J57" s="54" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10">
-      <c r="A58" s="67"/>
-      <c r="B58" s="68" t="s">
-        <v>430</v>
-      </c>
-      <c r="C58" s="67"/>
-      <c r="D58" s="25" t="s">
-        <v>317</v>
-      </c>
-      <c r="E58" s="38" t="s">
-        <v>291</v>
-      </c>
-      <c r="F58" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="G58" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="H58" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="I58" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="J58" s="25" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10">
-      <c r="A59" s="67"/>
-      <c r="B59" s="67"/>
-      <c r="C59" s="67"/>
-      <c r="D59" s="25" t="s">
-        <v>316</v>
-      </c>
-      <c r="E59" s="31" t="s">
-        <v>294</v>
-      </c>
-      <c r="F59" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="G59" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="H59" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="I59" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="J59" s="25" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10">
-      <c r="A60" s="67"/>
-      <c r="B60" s="67"/>
-      <c r="C60" s="67"/>
-      <c r="D60" s="25" t="s">
-        <v>318</v>
-      </c>
-      <c r="E60" s="38" t="s">
-        <v>286</v>
-      </c>
-      <c r="F60" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="G60" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="H60" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="I60" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="J60" s="25" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10">
-      <c r="A62" s="67" t="s">
-        <v>231</v>
-      </c>
-      <c r="B62" s="68" t="s">
-        <v>431</v>
-      </c>
-      <c r="C62" s="67" t="s">
-        <v>319</v>
-      </c>
-      <c r="D62" s="25" t="s">
-        <v>354</v>
-      </c>
-      <c r="E62" s="39" t="s">
-        <v>320</v>
-      </c>
-      <c r="F62" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="G62" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="H62" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="I62" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="J62" s="25" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10">
-      <c r="A63" s="67"/>
-      <c r="B63" s="67"/>
-      <c r="C63" s="67"/>
-      <c r="D63" s="25" t="s">
-        <v>355</v>
-      </c>
-      <c r="E63" s="39" t="s">
-        <v>321</v>
-      </c>
-      <c r="F63" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="G63" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="H63" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="I63" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="J63" s="25" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10">
-      <c r="A64" s="67"/>
-      <c r="B64" s="67"/>
-      <c r="C64" s="67"/>
-      <c r="D64" s="25" t="s">
-        <v>374</v>
-      </c>
-      <c r="E64" s="39" t="s">
-        <v>322</v>
-      </c>
-      <c r="F64" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="G64" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="H64" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="I64" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="J64" s="25" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="65" spans="1:10">
-      <c r="A65" s="67"/>
-      <c r="B65" s="67"/>
-      <c r="C65" s="67"/>
-      <c r="D65" s="25" t="s">
-        <v>375</v>
-      </c>
-      <c r="E65" s="39" t="s">
-        <v>323</v>
-      </c>
-      <c r="F65" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="G65" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="H65" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="I65" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="J65" s="25" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="66" spans="1:10">
-      <c r="A66" s="67"/>
-      <c r="B66" s="67"/>
-      <c r="C66" s="67"/>
-      <c r="D66" s="25" t="s">
-        <v>383</v>
-      </c>
-      <c r="E66" s="39" t="s">
-        <v>324</v>
-      </c>
-      <c r="F66" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="G66" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="H66" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="I66" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="J66" s="25" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="67" spans="1:10">
-      <c r="A67" s="67"/>
-      <c r="B67" s="67"/>
-      <c r="C67" s="67"/>
-      <c r="D67" s="25" t="s">
-        <v>384</v>
-      </c>
-      <c r="E67" s="39" t="s">
-        <v>325</v>
-      </c>
-      <c r="F67" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="G67" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="H67" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="I67" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="J67" s="25" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="68" spans="1:10">
-      <c r="A68" s="67"/>
-      <c r="B68" s="67"/>
-      <c r="C68" s="67"/>
-      <c r="D68" s="25" t="s">
+      <c r="C71" s="69" t="s">
+        <v>416</v>
+      </c>
+      <c r="D71" s="25" t="s">
+        <v>417</v>
+      </c>
+      <c r="E71" s="44" t="s">
         <v>385</v>
       </c>
-      <c r="E68" s="39" t="s">
-        <v>326</v>
-      </c>
-      <c r="F68" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="G68" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="H68" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="I68" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="J68" s="25" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="69" spans="1:10">
-      <c r="A69" s="67"/>
-      <c r="B69" s="67"/>
-      <c r="C69" s="67"/>
-      <c r="D69" s="25" t="s">
-        <v>386</v>
-      </c>
-      <c r="E69" s="39" t="s">
-        <v>327</v>
-      </c>
-      <c r="F69" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="G69" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="H69" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="I69" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="J69" s="25" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="71" spans="1:10">
-      <c r="B71" s="68" t="s">
+      <c r="F71" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="G71" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="H71" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="I71" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="J71" s="25" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
+      <c r="B72" s="69"/>
+      <c r="C72" s="69"/>
+      <c r="D72" s="25" t="s">
+        <v>418</v>
+      </c>
+      <c r="E72" s="44" t="s">
+        <v>387</v>
+      </c>
+      <c r="F72" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="G72" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="H72" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="I72" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="J72" s="25" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
+      <c r="B73" s="69"/>
+      <c r="C73" s="69"/>
+      <c r="D73" s="25" t="s">
+        <v>419</v>
+      </c>
+      <c r="E73" s="44" t="s">
+        <v>389</v>
+      </c>
+      <c r="F73" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="G73" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="H73" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="I73" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="J73" s="25" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
+      <c r="B74" s="69"/>
+      <c r="C74" s="69"/>
+      <c r="D74" s="25" t="s">
+        <v>420</v>
+      </c>
+      <c r="E74" s="44" t="s">
+        <v>390</v>
+      </c>
+      <c r="F74" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="G74" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="H74" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="I74" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="J74" s="25" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
+      <c r="B75" s="69"/>
+      <c r="C75" s="69"/>
+      <c r="D75" s="25" t="s">
+        <v>421</v>
+      </c>
+      <c r="E75" s="44" t="s">
+        <v>391</v>
+      </c>
+      <c r="F75" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="G75" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="H75" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="I75" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="J75" s="25" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
+      <c r="B76" s="69"/>
+      <c r="C76" s="69"/>
+      <c r="D76" s="25" t="s">
+        <v>422</v>
+      </c>
+      <c r="E76" s="44" t="s">
+        <v>392</v>
+      </c>
+      <c r="F76" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="G76" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="H76" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="I76" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="J76" s="25" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
+      <c r="B78" s="70" t="s">
+        <v>429</v>
+      </c>
+      <c r="C78" s="69" t="s">
+        <v>440</v>
+      </c>
+      <c r="D78" s="25" t="s">
+        <v>441</v>
+      </c>
+      <c r="E78" s="51" t="s">
+        <v>393</v>
+      </c>
+      <c r="F78" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="G78" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="H78" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="I78" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="J78" s="25" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
+      <c r="B79" s="69"/>
+      <c r="C79" s="69"/>
+      <c r="D79" s="25" t="s">
+        <v>442</v>
+      </c>
+      <c r="E79" s="51" t="s">
+        <v>394</v>
+      </c>
+      <c r="F79" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="G79" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="H79" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="I79" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="J79" s="25" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
+      <c r="B80" s="69"/>
+      <c r="C80" s="69"/>
+      <c r="D80" s="25" t="s">
+        <v>443</v>
+      </c>
+      <c r="E80" s="51" t="s">
         <v>432</v>
       </c>
-      <c r="C71" s="67" t="s">
-        <v>419</v>
-      </c>
-      <c r="D71" s="25" t="s">
-        <v>420</v>
-      </c>
-      <c r="E71" s="44" t="s">
-        <v>388</v>
-      </c>
-      <c r="F71" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="G71" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="H71" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="I71" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="J71" s="25" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="72" spans="1:10">
-      <c r="B72" s="67"/>
-      <c r="C72" s="67"/>
-      <c r="D72" s="25" t="s">
-        <v>421</v>
-      </c>
-      <c r="E72" s="44" t="s">
-        <v>390</v>
-      </c>
-      <c r="F72" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="G72" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="H72" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="I72" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="J72" s="25" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="73" spans="1:10">
-      <c r="B73" s="67"/>
-      <c r="C73" s="67"/>
-      <c r="D73" s="25" t="s">
-        <v>422</v>
-      </c>
-      <c r="E73" s="44" t="s">
-        <v>392</v>
-      </c>
-      <c r="F73" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="G73" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="H73" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="I73" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="J73" s="25" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="74" spans="1:10">
-      <c r="B74" s="67"/>
-      <c r="C74" s="67"/>
-      <c r="D74" s="25" t="s">
+      <c r="F80" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="G80" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="H80" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="I80" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="J80" s="25" t="s">
         <v>423</v>
-      </c>
-      <c r="E74" s="44" t="s">
-        <v>393</v>
-      </c>
-      <c r="F74" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="G74" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="H74" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="I74" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="J74" s="25" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="75" spans="1:10">
-      <c r="B75" s="67"/>
-      <c r="C75" s="67"/>
-      <c r="D75" s="25" t="s">
-        <v>424</v>
-      </c>
-      <c r="E75" s="44" t="s">
-        <v>394</v>
-      </c>
-      <c r="F75" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="G75" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="H75" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="I75" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="J75" s="25" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="76" spans="1:10">
-      <c r="B76" s="67"/>
-      <c r="C76" s="67"/>
-      <c r="D76" s="25" t="s">
-        <v>425</v>
-      </c>
-      <c r="E76" s="44" t="s">
-        <v>395</v>
-      </c>
-      <c r="F76" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="G76" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="H76" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="I76" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="J76" s="25" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="78" spans="1:10">
-      <c r="B78" s="68" t="s">
-        <v>432</v>
-      </c>
-      <c r="C78" s="67" t="s">
-        <v>443</v>
-      </c>
-      <c r="D78" s="25" t="s">
-        <v>444</v>
-      </c>
-      <c r="E78" s="51" t="s">
-        <v>396</v>
-      </c>
-      <c r="F78" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="G78" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="H78" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="I78" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="J78" s="25" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="79" spans="1:10">
-      <c r="B79" s="67"/>
-      <c r="C79" s="67"/>
-      <c r="D79" s="25" t="s">
-        <v>445</v>
-      </c>
-      <c r="E79" s="51" t="s">
-        <v>397</v>
-      </c>
-      <c r="F79" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="G79" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="H79" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="I79" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="J79" s="25" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="80" spans="1:10">
-      <c r="B80" s="67"/>
-      <c r="C80" s="67"/>
-      <c r="D80" s="25" t="s">
-        <v>446</v>
-      </c>
-      <c r="E80" s="51" t="s">
-        <v>435</v>
-      </c>
-      <c r="F80" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="G80" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="H80" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="I80" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="J80" s="25" t="s">
-        <v>426</v>
       </c>
     </row>
     <row r="81" spans="1:10" s="50" customFormat="1" ht="28.8">
       <c r="A81" s="49"/>
       <c r="B81" s="48" t="s">
-        <v>442</v>
-      </c>
-      <c r="C81" s="67"/>
+        <v>439</v>
+      </c>
+      <c r="C81" s="69"/>
       <c r="D81" s="21" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="E81" s="52" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="F81" s="21" t="s">
         <v>136</v>
@@ -4526,192 +4794,1140 @@
         <v>136</v>
       </c>
       <c r="J81" s="53" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
     </row>
     <row r="83" spans="1:10">
-      <c r="B83" s="68" t="s">
-        <v>479</v>
-      </c>
-      <c r="C83" s="67" t="s">
+      <c r="B83" s="70" t="s">
+        <v>476</v>
+      </c>
+      <c r="C83" s="69" t="s">
+        <v>471</v>
+      </c>
+      <c r="D83" s="25" t="s">
+        <v>472</v>
+      </c>
+      <c r="E83" s="29" t="s">
+        <v>445</v>
+      </c>
+      <c r="F83" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="G83" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="H83" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="I83" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="J83" s="25" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
+      <c r="B84" s="69"/>
+      <c r="C84" s="69"/>
+      <c r="D84" s="25" t="s">
+        <v>473</v>
+      </c>
+      <c r="E84" s="29" t="s">
+        <v>448</v>
+      </c>
+      <c r="F84" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="G84" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="H84" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="I84" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="J84" s="25" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
+      <c r="B85" s="69"/>
+      <c r="C85" s="69"/>
+      <c r="D85" s="25" t="s">
         <v>474</v>
       </c>
-      <c r="D83" s="25" t="s">
+      <c r="E85" s="29" t="s">
+        <v>449</v>
+      </c>
+      <c r="F85" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="G85" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="H85" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="I85" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="J85" s="25" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
+      <c r="B86" s="69"/>
+      <c r="C86" s="69"/>
+      <c r="D86" s="25" t="s">
         <v>475</v>
       </c>
-      <c r="E83" s="29" t="s">
-        <v>448</v>
-      </c>
-      <c r="F83" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="G83" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="H83" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="I83" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="J83" s="25" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="84" spans="1:10">
-      <c r="B84" s="67"/>
-      <c r="C84" s="67"/>
-      <c r="D84" s="25" t="s">
-        <v>476</v>
-      </c>
-      <c r="E84" s="29" t="s">
+      <c r="E86" s="29" t="s">
+        <v>450</v>
+      </c>
+      <c r="F86" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="G86" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="H86" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="I86" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="J86" s="25" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
+      <c r="B87" s="69"/>
+      <c r="C87" s="69"/>
+      <c r="D87" s="25" t="s">
+        <v>482</v>
+      </c>
+      <c r="E87" s="29" t="s">
         <v>451</v>
       </c>
-      <c r="F84" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="G84" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="H84" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="I84" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="J84" s="25" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="85" spans="1:10">
-      <c r="B85" s="67"/>
-      <c r="C85" s="67"/>
-      <c r="D85" s="25" t="s">
-        <v>477</v>
-      </c>
-      <c r="E85" s="29" t="s">
+      <c r="F87" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="G87" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="H87" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="I87" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="J87" s="25" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
+      <c r="B88" s="69"/>
+      <c r="C88" s="69"/>
+      <c r="D88" s="25" t="s">
+        <v>483</v>
+      </c>
+      <c r="E88" s="29" t="s">
         <v>452</v>
       </c>
-      <c r="F85" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="G85" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="H85" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="I85" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="J85" s="25" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="86" spans="1:10">
-      <c r="B86" s="67"/>
-      <c r="C86" s="67"/>
-      <c r="D86" s="25" t="s">
-        <v>478</v>
-      </c>
-      <c r="E86" s="29" t="s">
-        <v>453</v>
-      </c>
-      <c r="F86" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="G86" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="H86" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="I86" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="J86" s="25" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="87" spans="1:10">
-      <c r="B87" s="67"/>
-      <c r="C87" s="67"/>
-      <c r="D87" s="25" t="s">
+      <c r="F88" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="G88" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="H88" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="I88" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="J88" s="25" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
+      <c r="B89" s="61"/>
+      <c r="C89" s="61"/>
+      <c r="D89" s="25"/>
+      <c r="E89" s="25"/>
+      <c r="F89" s="25"/>
+      <c r="G89" s="25"/>
+      <c r="H89" s="25"/>
+      <c r="I89" s="25"/>
+      <c r="J89" s="25"/>
+    </row>
+    <row r="90" spans="1:10">
+      <c r="B90" s="69" t="s">
+        <v>586</v>
+      </c>
+      <c r="C90" s="69" t="s">
+        <v>585</v>
+      </c>
+      <c r="D90" s="21" t="s">
+        <v>145</v>
+      </c>
+      <c r="E90" s="62" t="s">
+        <v>138</v>
+      </c>
+      <c r="F90" s="25" t="s">
+        <v>580</v>
+      </c>
+      <c r="G90" s="25" t="s">
+        <v>580</v>
+      </c>
+      <c r="H90" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="I90" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="J90" s="25" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
+      <c r="B91" s="69"/>
+      <c r="C91" s="69"/>
+      <c r="D91" s="25" t="s">
+        <v>146</v>
+      </c>
+      <c r="E91" s="62" t="s">
+        <v>139</v>
+      </c>
+      <c r="F91" s="25" t="s">
+        <v>580</v>
+      </c>
+      <c r="G91" s="25" t="s">
+        <v>580</v>
+      </c>
+      <c r="H91" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="I91" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="J91" s="25" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
+      <c r="B92" s="69"/>
+      <c r="C92" s="69"/>
+      <c r="D92" s="25" t="s">
+        <v>147</v>
+      </c>
+      <c r="E92" s="62" t="s">
+        <v>140</v>
+      </c>
+      <c r="F92" s="25" t="s">
+        <v>580</v>
+      </c>
+      <c r="G92" s="25" t="s">
+        <v>580</v>
+      </c>
+      <c r="H92" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="I92" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="J92" s="25" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
+      <c r="B93" s="69"/>
+      <c r="C93" s="69"/>
+      <c r="D93" s="25" t="s">
+        <v>148</v>
+      </c>
+      <c r="E93" s="62" t="s">
+        <v>141</v>
+      </c>
+      <c r="F93" s="25" t="s">
+        <v>580</v>
+      </c>
+      <c r="G93" s="25" t="s">
+        <v>580</v>
+      </c>
+      <c r="H93" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="I93" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="J93" s="25" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
+      <c r="B94" s="69"/>
+      <c r="C94" s="69"/>
+      <c r="D94" s="64" t="s">
+        <v>588</v>
+      </c>
+      <c r="E94" s="20" t="s">
         <v>485</v>
       </c>
-      <c r="E87" s="29" t="s">
-        <v>454</v>
-      </c>
-      <c r="F87" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="G87" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="H87" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="I87" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="J87" s="25" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="88" spans="1:10">
-      <c r="B88" s="67"/>
-      <c r="C88" s="67"/>
-      <c r="D88" s="25" t="s">
-        <v>486</v>
-      </c>
-      <c r="E88" s="29" t="s">
-        <v>455</v>
-      </c>
-      <c r="F88" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="G88" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="H88" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="I88" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="J88" s="25" t="s">
-        <v>473</v>
+      <c r="F94" s="25" t="s">
+        <v>580</v>
+      </c>
+      <c r="G94" s="25" t="s">
+        <v>580</v>
+      </c>
+      <c r="H94" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="I94" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="J94" s="25" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
+      <c r="B95" s="69"/>
+      <c r="C95" s="69"/>
+      <c r="D95" s="64" t="s">
+        <v>589</v>
+      </c>
+      <c r="E95" s="20" t="s">
+        <v>509</v>
+      </c>
+      <c r="F95" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="G95" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="H95" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="I95" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="J95" s="25" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
+      <c r="B96" s="69"/>
+      <c r="C96" s="69"/>
+      <c r="D96" s="64" t="s">
+        <v>590</v>
+      </c>
+      <c r="E96" s="20" t="s">
+        <v>579</v>
+      </c>
+      <c r="F96" s="58" t="s">
+        <v>583</v>
+      </c>
+      <c r="G96" s="25" t="s">
+        <v>580</v>
+      </c>
+      <c r="H96" s="25" t="s">
+        <v>580</v>
+      </c>
+      <c r="I96" s="25" t="s">
+        <v>580</v>
+      </c>
+      <c r="J96" s="25" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="97" spans="2:10">
+      <c r="B97" s="69"/>
+      <c r="C97" s="69"/>
+      <c r="D97" s="64" t="s">
+        <v>591</v>
+      </c>
+      <c r="E97" s="20" t="s">
+        <v>500</v>
+      </c>
+      <c r="F97" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="G97" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="H97" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="I97" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="J97" s="25" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="98" spans="2:10">
+      <c r="B98" s="61"/>
+      <c r="C98" s="69"/>
+      <c r="D98" s="25" t="s">
+        <v>580</v>
+      </c>
+      <c r="E98" s="65" t="s">
+        <v>581</v>
+      </c>
+      <c r="F98" s="58" t="s">
+        <v>583</v>
+      </c>
+      <c r="G98" s="25" t="s">
+        <v>580</v>
+      </c>
+      <c r="H98" s="25" t="s">
+        <v>580</v>
+      </c>
+      <c r="I98" s="25" t="s">
+        <v>580</v>
+      </c>
+      <c r="J98" s="25" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="99" spans="2:10">
+      <c r="B99" s="70" t="s">
+        <v>587</v>
+      </c>
+      <c r="C99" s="69"/>
+      <c r="D99" s="25" t="s">
+        <v>580</v>
+      </c>
+      <c r="E99" s="63" t="s">
+        <v>517</v>
+      </c>
+      <c r="F99" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="G99" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="H99" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="I99" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="J99" s="30" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="100" spans="2:10">
+      <c r="B100" s="69"/>
+      <c r="C100" s="69"/>
+      <c r="D100" s="25" t="s">
+        <v>580</v>
+      </c>
+      <c r="E100" s="63" t="s">
+        <v>582</v>
+      </c>
+      <c r="F100" s="58" t="s">
+        <v>583</v>
+      </c>
+      <c r="G100" s="25" t="s">
+        <v>580</v>
+      </c>
+      <c r="H100" s="25" t="s">
+        <v>580</v>
+      </c>
+      <c r="I100" s="25" t="s">
+        <v>580</v>
+      </c>
+      <c r="J100" s="25" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="101" spans="2:10">
+      <c r="B101" s="61"/>
+      <c r="C101" s="61"/>
+      <c r="D101" s="25"/>
+      <c r="E101" s="25"/>
+      <c r="F101" s="25"/>
+      <c r="G101" s="25"/>
+      <c r="H101" s="25"/>
+      <c r="I101" s="25"/>
+      <c r="J101" s="25"/>
+    </row>
+    <row r="102" spans="2:10">
+      <c r="B102" s="69" t="s">
+        <v>604</v>
+      </c>
+      <c r="C102" s="69" t="s">
+        <v>603</v>
+      </c>
+      <c r="D102" s="25"/>
+      <c r="E102" s="66" t="s">
+        <v>592</v>
+      </c>
+      <c r="F102" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="G102" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="H102" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="I102" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="J102" s="30" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="103" spans="2:10">
+      <c r="B103" s="69"/>
+      <c r="C103" s="69"/>
+      <c r="D103" s="25"/>
+      <c r="E103" s="67" t="s">
+        <v>593</v>
+      </c>
+      <c r="F103" s="58" t="s">
+        <v>583</v>
+      </c>
+      <c r="G103" s="25" t="s">
+        <v>580</v>
+      </c>
+      <c r="H103" s="25" t="s">
+        <v>580</v>
+      </c>
+      <c r="I103" s="25" t="s">
+        <v>580</v>
+      </c>
+      <c r="J103" s="25"/>
+    </row>
+    <row r="104" spans="2:10">
+      <c r="B104" s="69"/>
+      <c r="C104" s="69"/>
+      <c r="D104" s="25"/>
+      <c r="E104" s="66" t="s">
+        <v>594</v>
+      </c>
+      <c r="F104" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="G104" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="H104" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="I104" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="J104" s="25" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="105" spans="2:10">
+      <c r="B105" s="69"/>
+      <c r="C105" s="69"/>
+      <c r="D105" s="25"/>
+      <c r="E105" s="67" t="s">
+        <v>595</v>
+      </c>
+      <c r="F105" s="58" t="s">
+        <v>583</v>
+      </c>
+      <c r="G105" s="25" t="s">
+        <v>580</v>
+      </c>
+      <c r="H105" s="25" t="s">
+        <v>580</v>
+      </c>
+      <c r="I105" s="25" t="s">
+        <v>580</v>
+      </c>
+      <c r="J105" s="25"/>
+    </row>
+    <row r="106" spans="2:10">
+      <c r="B106" s="69"/>
+      <c r="C106" s="69"/>
+      <c r="D106" s="25"/>
+      <c r="E106" s="67" t="s">
+        <v>596</v>
+      </c>
+      <c r="F106" s="58" t="s">
+        <v>583</v>
+      </c>
+      <c r="G106" s="25" t="s">
+        <v>580</v>
+      </c>
+      <c r="H106" s="25" t="s">
+        <v>580</v>
+      </c>
+      <c r="I106" s="25" t="s">
+        <v>580</v>
+      </c>
+      <c r="J106" s="25"/>
+    </row>
+    <row r="107" spans="2:10">
+      <c r="B107" s="69"/>
+      <c r="C107" s="69"/>
+      <c r="D107" s="25"/>
+      <c r="E107" s="67" t="s">
+        <v>597</v>
+      </c>
+      <c r="F107" s="58" t="s">
+        <v>583</v>
+      </c>
+      <c r="G107" s="25" t="s">
+        <v>580</v>
+      </c>
+      <c r="H107" s="25" t="s">
+        <v>580</v>
+      </c>
+      <c r="I107" s="25" t="s">
+        <v>580</v>
+      </c>
+      <c r="J107" s="25"/>
+    </row>
+    <row r="108" spans="2:10">
+      <c r="B108" s="69"/>
+      <c r="C108" s="69"/>
+      <c r="D108" s="25"/>
+      <c r="E108" s="67" t="s">
+        <v>598</v>
+      </c>
+      <c r="F108" s="58" t="s">
+        <v>583</v>
+      </c>
+      <c r="G108" s="25" t="s">
+        <v>580</v>
+      </c>
+      <c r="H108" s="25" t="s">
+        <v>580</v>
+      </c>
+      <c r="I108" s="25" t="s">
+        <v>580</v>
+      </c>
+      <c r="J108" s="25"/>
+    </row>
+    <row r="109" spans="2:10">
+      <c r="B109" s="69"/>
+      <c r="C109" s="69"/>
+      <c r="D109" s="25"/>
+      <c r="E109" s="66" t="s">
+        <v>599</v>
+      </c>
+      <c r="F109" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="G109" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="H109" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="I109" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="J109" s="25" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="110" spans="2:10">
+      <c r="B110" s="69"/>
+      <c r="C110" s="69"/>
+      <c r="D110" s="25"/>
+      <c r="E110" s="66" t="s">
+        <v>600</v>
+      </c>
+      <c r="F110" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="G110" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="H110" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="I110" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="J110" s="25" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="111" spans="2:10">
+      <c r="B111" s="69"/>
+      <c r="C111" s="69"/>
+      <c r="D111" s="25"/>
+      <c r="E111" s="66" t="s">
+        <v>601</v>
+      </c>
+      <c r="F111" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="G111" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="H111" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="I111" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="J111" s="25" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="112" spans="2:10">
+      <c r="B112" s="69"/>
+      <c r="C112" s="69"/>
+      <c r="D112" s="25"/>
+      <c r="E112" s="66" t="s">
+        <v>602</v>
+      </c>
+      <c r="F112" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="G112" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="H112" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="I112" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="J112" s="25" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="113" spans="2:10">
+      <c r="B113" s="61"/>
+      <c r="C113" s="61"/>
+      <c r="D113" s="25"/>
+      <c r="E113" s="25"/>
+      <c r="F113" s="25"/>
+      <c r="G113" s="25"/>
+      <c r="H113" s="25"/>
+      <c r="I113" s="25"/>
+      <c r="J113" s="25"/>
+    </row>
+    <row r="114" spans="2:10" ht="14.4" customHeight="1">
+      <c r="B114" s="70" t="s">
+        <v>608</v>
+      </c>
+      <c r="C114" s="69" t="s">
+        <v>607</v>
+      </c>
+      <c r="D114" s="25" t="s">
+        <v>609</v>
+      </c>
+      <c r="E114" s="29" t="s">
+        <v>520</v>
+      </c>
+      <c r="F114" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="G114" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="H114" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="I114" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="J114" s="30" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="115" spans="2:10">
+      <c r="B115" s="70"/>
+      <c r="C115" s="69"/>
+      <c r="D115" s="25" t="s">
+        <v>610</v>
+      </c>
+      <c r="E115" s="29" t="s">
+        <v>521</v>
+      </c>
+      <c r="F115" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="G115" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="H115" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="I115" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="J115" s="30" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="116" spans="2:10">
+      <c r="B116" s="70"/>
+      <c r="C116" s="69"/>
+      <c r="D116" s="25" t="s">
+        <v>611</v>
+      </c>
+      <c r="E116" s="29" t="s">
+        <v>522</v>
+      </c>
+      <c r="F116" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="G116" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="H116" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="I116" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="J116" s="30" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="117" spans="2:10">
+      <c r="B117" s="70"/>
+      <c r="C117" s="69"/>
+      <c r="D117" s="25" t="s">
+        <v>612</v>
+      </c>
+      <c r="E117" s="29" t="s">
+        <v>523</v>
+      </c>
+      <c r="F117" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="G117" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="H117" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="I117" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="J117" s="30" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="118" spans="2:10">
+      <c r="B118" s="70"/>
+      <c r="C118" s="69"/>
+      <c r="D118" s="25" t="s">
+        <v>613</v>
+      </c>
+      <c r="E118" s="29" t="s">
+        <v>524</v>
+      </c>
+      <c r="F118" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="G118" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="H118" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="I118" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="J118" s="30" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="119" spans="2:10">
+      <c r="B119" s="70"/>
+      <c r="C119" s="69"/>
+      <c r="D119" s="25" t="s">
+        <v>614</v>
+      </c>
+      <c r="E119" s="29" t="s">
+        <v>525</v>
+      </c>
+      <c r="F119" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="G119" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="H119" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="I119" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="J119" s="30" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="120" spans="2:10">
+      <c r="B120" s="70"/>
+      <c r="C120" s="69"/>
+      <c r="D120" s="25" t="s">
+        <v>615</v>
+      </c>
+      <c r="E120" s="29" t="s">
+        <v>526</v>
+      </c>
+      <c r="F120" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="G120" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="H120" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="I120" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="J120" s="30" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="121" spans="2:10">
+      <c r="B121" s="61"/>
+      <c r="C121" s="61"/>
+      <c r="D121" s="25"/>
+      <c r="E121" s="25"/>
+      <c r="F121" s="25"/>
+      <c r="G121" s="25"/>
+      <c r="H121" s="25"/>
+      <c r="I121" s="25"/>
+      <c r="J121" s="25"/>
+    </row>
+    <row r="122" spans="2:10">
+      <c r="B122" s="70" t="s">
+        <v>608</v>
+      </c>
+      <c r="C122" s="69" t="s">
+        <v>625</v>
+      </c>
+      <c r="D122" s="25" t="s">
+        <v>626</v>
+      </c>
+      <c r="E122" s="68" t="s">
+        <v>616</v>
+      </c>
+      <c r="F122" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="G122" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="H122" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="I122" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="J122" s="30" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="123" spans="2:10">
+      <c r="B123" s="69"/>
+      <c r="C123" s="69"/>
+      <c r="D123" s="25" t="s">
+        <v>627</v>
+      </c>
+      <c r="E123" s="68" t="s">
+        <v>617</v>
+      </c>
+      <c r="F123" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="G123" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="H123" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="I123" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="J123" s="30" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="124" spans="2:10">
+      <c r="B124" s="69"/>
+      <c r="C124" s="69"/>
+      <c r="D124" s="25" t="s">
+        <v>628</v>
+      </c>
+      <c r="E124" s="68" t="s">
+        <v>618</v>
+      </c>
+      <c r="F124" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="G124" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="H124" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="I124" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="J124" s="30" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="125" spans="2:10">
+      <c r="B125" s="69"/>
+      <c r="C125" s="69"/>
+      <c r="D125" s="25" t="s">
+        <v>629</v>
+      </c>
+      <c r="E125" s="68" t="s">
+        <v>619</v>
+      </c>
+      <c r="F125" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="G125" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="H125" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="I125" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="J125" s="30" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="126" spans="2:10">
+      <c r="B126" s="69"/>
+      <c r="C126" s="69"/>
+      <c r="D126" s="25" t="s">
+        <v>630</v>
+      </c>
+      <c r="E126" s="68" t="s">
+        <v>620</v>
+      </c>
+      <c r="F126" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="G126" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="H126" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="I126" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="J126" s="30" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="127" spans="2:10">
+      <c r="B127" s="70" t="s">
+        <v>624</v>
+      </c>
+      <c r="C127" s="69"/>
+      <c r="D127" s="25" t="s">
+        <v>631</v>
+      </c>
+      <c r="E127" s="68" t="s">
+        <v>621</v>
+      </c>
+      <c r="F127" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="G127" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="H127" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="I127" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="J127" s="25" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="128" spans="2:10">
+      <c r="B128" s="69"/>
+      <c r="C128" s="69"/>
+      <c r="D128" s="25" t="s">
+        <v>632</v>
+      </c>
+      <c r="E128" s="68" t="s">
+        <v>622</v>
+      </c>
+      <c r="F128" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="G128" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="H128" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="I128" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="J128" s="25" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="129" spans="2:10">
+      <c r="B129" s="69"/>
+      <c r="C129" s="69"/>
+      <c r="D129" s="25" t="s">
+        <v>237</v>
+      </c>
+      <c r="E129" s="68" t="s">
+        <v>623</v>
+      </c>
+      <c r="F129" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="G129" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="H129" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="I129" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="J129" s="25" t="s">
+        <v>656</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="40">
-    <mergeCell ref="C83:C88"/>
-    <mergeCell ref="B83:B88"/>
-    <mergeCell ref="C57:C60"/>
-    <mergeCell ref="A57:A60"/>
-    <mergeCell ref="B58:B60"/>
-    <mergeCell ref="C78:C81"/>
-    <mergeCell ref="B78:B80"/>
-    <mergeCell ref="A51:A55"/>
-    <mergeCell ref="B51:B55"/>
-    <mergeCell ref="C71:C76"/>
-    <mergeCell ref="B71:B76"/>
-    <mergeCell ref="C62:C69"/>
-    <mergeCell ref="A62:A69"/>
-    <mergeCell ref="B62:B69"/>
-    <mergeCell ref="C28:C33"/>
-    <mergeCell ref="C22:C26"/>
-    <mergeCell ref="C15:C20"/>
-    <mergeCell ref="A47:A50"/>
-    <mergeCell ref="B47:B50"/>
-    <mergeCell ref="B35:B39"/>
-    <mergeCell ref="A41:A45"/>
-    <mergeCell ref="B41:B45"/>
-    <mergeCell ref="C41:C45"/>
-    <mergeCell ref="C35:C39"/>
+  <mergeCells count="50">
+    <mergeCell ref="B122:B126"/>
+    <mergeCell ref="B127:B129"/>
+    <mergeCell ref="C122:C129"/>
+    <mergeCell ref="C102:C112"/>
+    <mergeCell ref="B102:B112"/>
+    <mergeCell ref="C114:C120"/>
+    <mergeCell ref="B114:B120"/>
+    <mergeCell ref="C90:C100"/>
+    <mergeCell ref="B90:B97"/>
+    <mergeCell ref="B99:B100"/>
     <mergeCell ref="C2:C5"/>
     <mergeCell ref="C47:C55"/>
     <mergeCell ref="B2:B5"/>
+    <mergeCell ref="C7:C13"/>
+    <mergeCell ref="C83:C88"/>
+    <mergeCell ref="B83:B88"/>
+    <mergeCell ref="C78:C81"/>
+    <mergeCell ref="B78:B80"/>
     <mergeCell ref="A2:A5"/>
     <mergeCell ref="B7:B10"/>
     <mergeCell ref="A7:A10"/>
@@ -4723,8 +5939,27 @@
     <mergeCell ref="A15:A20"/>
     <mergeCell ref="B22:B26"/>
     <mergeCell ref="A22:A26"/>
-    <mergeCell ref="C7:C13"/>
     <mergeCell ref="A35:A39"/>
+    <mergeCell ref="C28:C33"/>
+    <mergeCell ref="C22:C26"/>
+    <mergeCell ref="C15:C20"/>
+    <mergeCell ref="A47:A50"/>
+    <mergeCell ref="B47:B50"/>
+    <mergeCell ref="B35:B39"/>
+    <mergeCell ref="A41:A45"/>
+    <mergeCell ref="B41:B45"/>
+    <mergeCell ref="C41:C45"/>
+    <mergeCell ref="C35:C39"/>
+    <mergeCell ref="A51:A55"/>
+    <mergeCell ref="B51:B55"/>
+    <mergeCell ref="C71:C76"/>
+    <mergeCell ref="B71:B76"/>
+    <mergeCell ref="C62:C69"/>
+    <mergeCell ref="A62:A69"/>
+    <mergeCell ref="B62:B69"/>
+    <mergeCell ref="C57:C60"/>
+    <mergeCell ref="A57:A60"/>
+    <mergeCell ref="B58:B60"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4733,10 +5968,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M29"/>
+  <dimension ref="A1:N29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
@@ -4751,12 +5986,13 @@
     <col min="8" max="9" width="13.6640625" style="5" customWidth="1"/>
     <col min="10" max="10" width="11.33203125" style="5" customWidth="1"/>
     <col min="11" max="11" width="15.88671875" style="5" customWidth="1"/>
-    <col min="12" max="12" width="16.33203125" style="5" customWidth="1"/>
-    <col min="13" max="13" width="18.6640625" style="5" customWidth="1"/>
-    <col min="14" max="16384" width="8.88671875" style="5"/>
+    <col min="12" max="12" width="11.88671875" style="5" customWidth="1"/>
+    <col min="13" max="13" width="16.33203125" style="5" customWidth="1"/>
+    <col min="14" max="14" width="18.6640625" style="5" customWidth="1"/>
+    <col min="15" max="16384" width="8.88671875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:14">
       <c r="A1" s="3" t="s">
         <v>7</v>
       </c>
@@ -4770,10 +6006,10 @@
         <v>9</v>
       </c>
       <c r="E1" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>249</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>250</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>14</v>
@@ -4785,27 +6021,30 @@
         <v>16</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="K1" s="3" t="s">
         <v>17</v>
       </c>
       <c r="L1" s="3" t="s">
+        <v>657</v>
+      </c>
+      <c r="M1" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:14">
       <c r="A2" s="10" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
@@ -4817,53 +6056,55 @@
       <c r="K2" s="4"/>
       <c r="L2" s="4"/>
       <c r="M2" s="4"/>
-    </row>
-    <row r="3" spans="1:13">
+      <c r="N2" s="4"/>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="10" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F3" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="G3" s="4" t="s">
         <v>255</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>256</v>
       </c>
       <c r="H3" s="4" t="s">
         <v>25</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="L3" s="4"/>
       <c r="M3" s="4"/>
-    </row>
-    <row r="4" spans="1:13">
+      <c r="N3" s="4"/>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" s="10" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
@@ -4875,78 +6116,83 @@
       <c r="K4" s="4"/>
       <c r="L4" s="4"/>
       <c r="M4" s="4"/>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="4"/>
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5" s="10" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F5" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="G5" s="4" t="s">
         <v>255</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>256</v>
       </c>
       <c r="H5" s="4" t="s">
         <v>25</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="J5" s="4"/>
       <c r="K5" s="4" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="L5" s="4"/>
       <c r="M5" s="4"/>
-    </row>
-    <row r="6" spans="1:13">
+      <c r="N5" s="4"/>
+    </row>
+    <row r="6" spans="1:14">
       <c r="A6" s="10" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B6" s="10" t="s">
+        <v>242</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>244</v>
-      </c>
       <c r="D6" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
       <c r="G6" s="4" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="H6" s="4"/>
       <c r="I6" s="4" t="s">
-        <v>125</v>
+        <v>658</v>
       </c>
       <c r="J6" s="4"/>
       <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
+      <c r="L6" s="4" t="s">
+        <v>125</v>
+      </c>
       <c r="M6" s="4"/>
-    </row>
-    <row r="7" spans="1:13">
+      <c r="N6" s="4"/>
+    </row>
+    <row r="7" spans="1:14">
       <c r="A7" s="10" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
@@ -4958,16 +6204,17 @@
       <c r="K7" s="4"/>
       <c r="L7" s="4"/>
       <c r="M7" s="4"/>
-    </row>
-    <row r="8" spans="1:13">
+      <c r="N7" s="4"/>
+    </row>
+    <row r="8" spans="1:14">
       <c r="A8" s="10" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
@@ -4977,22 +6224,23 @@
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
       <c r="K8" s="4"/>
-      <c r="L8" s="4" t="s">
-        <v>254</v>
-      </c>
+      <c r="L8" s="4"/>
       <c r="M8" s="4" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>253</v>
+      </c>
+      <c r="N8" s="4" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
       <c r="A9" s="10" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
@@ -5004,16 +6252,17 @@
       <c r="K9" s="4"/>
       <c r="L9" s="4"/>
       <c r="M9" s="4"/>
-    </row>
-    <row r="10" spans="1:13">
+      <c r="N9" s="4"/>
+    </row>
+    <row r="10" spans="1:14">
       <c r="A10" s="10" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
@@ -5025,6 +6274,7 @@
       <c r="K10" s="4"/>
       <c r="L10" s="4"/>
       <c r="M10" s="4"/>
+      <c r="N10" s="4"/>
     </row>
     <row r="29" ht="18" customHeight="1"/>
   </sheetData>
@@ -5060,57 +6310,57 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="10" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="10" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="10" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="10" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="10" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B6" s="10" t="s">
+        <v>282</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>283</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>284</v>
       </c>
     </row>
   </sheetData>
@@ -5123,7 +6373,7 @@
   <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="I1" sqref="I1:J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -5151,36 +6401,36 @@
         <v>10</v>
       </c>
       <c r="D1" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>295</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>296</v>
       </c>
-      <c r="F1" s="3" t="s">
-        <v>297</v>
-      </c>
       <c r="G1" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>301</v>
       </c>
-      <c r="H1" s="3" t="s">
-        <v>302</v>
-      </c>
       <c r="I1" s="3" t="s">
-        <v>308</v>
+        <v>639</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>307</v>
+        <v>640</v>
       </c>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="10" t="s">
+        <v>290</v>
+      </c>
+      <c r="B2" s="10" t="s">
         <v>291</v>
       </c>
-      <c r="B2" s="10" t="s">
-        <v>292</v>
-      </c>
       <c r="C2" s="4" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
@@ -5192,13 +6442,13 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="10" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
@@ -5210,41 +6460,41 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="B4" s="10" t="s">
         <v>286</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="C4" s="4" t="s">
         <v>287</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>288</v>
-      </c>
       <c r="D4" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>298</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="F4" s="4" t="s">
         <v>299</v>
       </c>
-      <c r="F4" s="4" t="s">
-        <v>300</v>
-      </c>
       <c r="G4" s="36" t="s">
+        <v>302</v>
+      </c>
+      <c r="H4" s="4" t="s">
         <v>303</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>304</v>
       </c>
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="10" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
@@ -5252,21 +6502,21 @@
       <c r="G5" s="36"/>
       <c r="H5" s="4"/>
       <c r="I5" s="4" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="47" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="B6" s="47" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
@@ -5323,49 +6573,49 @@
         <v>10</v>
       </c>
       <c r="D1" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>339</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>340</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>328</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>341</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>342</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>30</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="N1" s="3" t="s">
+        <v>359</v>
+      </c>
+      <c r="O1" s="3" t="s">
         <v>362</v>
       </c>
-      <c r="O1" s="3" t="s">
-        <v>365</v>
-      </c>
       <c r="P1" s="3" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="Q1" s="3" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="R1" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="S1" s="3" t="s">
         <v>49</v>
@@ -5373,13 +6623,13 @@
     </row>
     <row r="2" spans="1:19">
       <c r="A2" s="43" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
@@ -5389,7 +6639,7 @@
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
       <c r="K2" s="4" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="L2" s="4"/>
       <c r="M2" s="4"/>
@@ -5402,127 +6652,127 @@
     </row>
     <row r="3" spans="1:19">
       <c r="A3" s="43" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="I3" s="4"/>
       <c r="J3" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>335</v>
+      </c>
+      <c r="L3" s="4" t="s">
         <v>346</v>
       </c>
-      <c r="K3" s="4" t="s">
-        <v>338</v>
-      </c>
-      <c r="L3" s="4" t="s">
-        <v>349</v>
-      </c>
       <c r="M3" s="4" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="N3" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="O3" s="4" t="s">
+        <v>342</v>
+      </c>
+      <c r="P3" s="4" t="s">
+        <v>364</v>
+      </c>
+      <c r="Q3" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="R3" s="4" t="s">
         <v>363</v>
-      </c>
-      <c r="O3" s="4" t="s">
-        <v>345</v>
-      </c>
-      <c r="P3" s="4" t="s">
-        <v>367</v>
-      </c>
-      <c r="Q3" s="4" t="s">
-        <v>346</v>
-      </c>
-      <c r="R3" s="4" t="s">
-        <v>366</v>
       </c>
       <c r="S3" s="4"/>
     </row>
     <row r="4" spans="1:19">
       <c r="A4" s="43" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
       <c r="F4" s="4" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="I4" s="4"/>
       <c r="J4" s="4" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="K4" s="4"/>
       <c r="L4" s="4" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="M4" s="4" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="N4" s="4" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="O4" s="4" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="P4" s="4" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="Q4" s="4" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="R4" s="4"/>
       <c r="S4" s="4"/>
     </row>
     <row r="5" spans="1:19">
       <c r="A5" s="43" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
@@ -5539,31 +6789,31 @@
     </row>
     <row r="6" spans="1:19">
       <c r="A6" s="43" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D6" s="4" t="s">
+        <v>376</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>377</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>373</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>342</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>378</v>
+      </c>
+      <c r="I6" s="4" t="s">
         <v>379</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>380</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>376</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>345</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>381</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>382</v>
       </c>
       <c r="J6" s="4"/>
       <c r="K6" s="4"/>
@@ -5578,13 +6828,13 @@
     </row>
     <row r="7" spans="1:19">
       <c r="A7" s="43" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
@@ -5605,13 +6855,13 @@
     </row>
     <row r="8" spans="1:19">
       <c r="A8" s="43" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
@@ -5628,21 +6878,21 @@
       <c r="P8" s="4"/>
       <c r="Q8" s="4"/>
       <c r="R8" s="4" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="S8" s="4" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
     </row>
     <row r="9" spans="1:19">
       <c r="A9" s="40" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="B9" s="41" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D9" s="42"/>
       <c r="E9" s="42"/>
@@ -5671,7 +6921,7 @@
   <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C4"/>
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -5699,76 +6949,76 @@
         <v>10</v>
       </c>
       <c r="D1" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>402</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>403</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>404</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>405</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>406</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>407</v>
       </c>
-      <c r="H1" s="3" t="s">
-        <v>408</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>409</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>410</v>
-      </c>
       <c r="K1" s="3" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="43" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D2" s="4" t="s">
+        <v>408</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>409</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>410</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>411</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="H2" s="4" t="s">
         <v>412</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="I2" s="4" t="s">
         <v>413</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="J2" s="4" t="s">
         <v>414</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>415</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>416</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>417</v>
       </c>
       <c r="K2" s="4"/>
       <c r="L2" s="4"/>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="43" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
@@ -5782,13 +7032,13 @@
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="43" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
@@ -5802,13 +7052,13 @@
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="43" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
@@ -5822,13 +7072,13 @@
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="43" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
@@ -5842,13 +7092,13 @@
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="43" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
@@ -5862,13 +7112,13 @@
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="43" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
@@ -5882,13 +7132,13 @@
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="43" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
@@ -5902,13 +7152,13 @@
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="43" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
@@ -5918,10 +7168,10 @@
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
       <c r="K10" s="4" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="L10" s="4" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
     </row>
   </sheetData>
@@ -5958,13 +7208,13 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="43" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -5984,10 +7234,10 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:V8"/>
+  <dimension ref="A1:Y13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="K23" sqref="K22:K23"/>
+    <sheetView topLeftCell="I1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="P20" sqref="P20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -6011,12 +7261,15 @@
     <col min="17" max="17" width="15.5546875" customWidth="1"/>
     <col min="18" max="18" width="12.6640625" customWidth="1"/>
     <col min="19" max="19" width="14.21875" customWidth="1"/>
-    <col min="20" max="20" width="17.33203125" customWidth="1"/>
+    <col min="20" max="20" width="19.5546875" customWidth="1"/>
     <col min="21" max="21" width="16.5546875" customWidth="1"/>
-    <col min="22" max="22" width="15.109375" customWidth="1"/>
+    <col min="22" max="22" width="13.77734375" customWidth="1"/>
+    <col min="23" max="23" width="10.21875" customWidth="1"/>
+    <col min="24" max="24" width="15" customWidth="1"/>
+    <col min="25" max="25" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22">
+    <row r="1" spans="1:25">
       <c r="A1" s="3" t="s">
         <v>7</v>
       </c>
@@ -6027,87 +7280,96 @@
         <v>10</v>
       </c>
       <c r="D1" s="56" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="E1" s="56" t="s">
+        <v>538</v>
+      </c>
+      <c r="F1" s="56" t="s">
+        <v>465</v>
+      </c>
+      <c r="G1" s="56" t="s">
+        <v>466</v>
+      </c>
+      <c r="H1" s="56" t="s">
         <v>541</v>
-      </c>
-      <c r="F1" s="56" t="s">
-        <v>468</v>
-      </c>
-      <c r="G1" s="56" t="s">
-        <v>469</v>
-      </c>
-      <c r="H1" s="56" t="s">
-        <v>544</v>
       </c>
       <c r="I1" s="56" t="s">
         <v>79</v>
       </c>
       <c r="J1" s="56" t="s">
+        <v>544</v>
+      </c>
+      <c r="K1" s="56" t="s">
+        <v>545</v>
+      </c>
+      <c r="L1" s="56" t="s">
+        <v>546</v>
+      </c>
+      <c r="M1" s="56" t="s">
         <v>547</v>
       </c>
-      <c r="K1" s="56" t="s">
+      <c r="N1" s="56" t="s">
         <v>548</v>
       </c>
-      <c r="L1" s="56" t="s">
+      <c r="O1" s="56" t="s">
         <v>549</v>
-      </c>
-      <c r="M1" s="56" t="s">
-        <v>550</v>
-      </c>
-      <c r="N1" s="56" t="s">
-        <v>551</v>
-      </c>
-      <c r="O1" s="56" t="s">
-        <v>552</v>
       </c>
       <c r="P1" s="56" t="s">
         <v>85</v>
       </c>
       <c r="Q1" s="56" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="R1" s="56" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="S1" s="56" t="s">
+        <v>558</v>
+      </c>
+      <c r="T1" s="56" t="s">
+        <v>559</v>
+      </c>
+      <c r="U1" s="56" t="s">
+        <v>560</v>
+      </c>
+      <c r="V1" s="56" t="s">
         <v>561</v>
       </c>
-      <c r="T1" s="56" t="s">
-        <v>562</v>
-      </c>
-      <c r="U1" s="56" t="s">
-        <v>563</v>
-      </c>
-      <c r="V1" s="56" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="2" spans="1:22">
+      <c r="W1" s="56" t="s">
+        <v>484</v>
+      </c>
+      <c r="X1" s="3" t="s">
+        <v>639</v>
+      </c>
+      <c r="Y1" s="3" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25">
       <c r="A2" s="58" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="B2" s="58" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="C2" s="59">
         <v>4138</v>
       </c>
       <c r="D2" s="59" t="s">
+        <v>539</v>
+      </c>
+      <c r="E2" s="59" t="s">
+        <v>540</v>
+      </c>
+      <c r="F2" s="59" t="s">
+        <v>468</v>
+      </c>
+      <c r="G2" s="60" t="s">
+        <v>543</v>
+      </c>
+      <c r="H2" s="60" t="s">
         <v>542</v>
-      </c>
-      <c r="E2" s="59" t="s">
-        <v>543</v>
-      </c>
-      <c r="F2" s="59" t="s">
-        <v>471</v>
-      </c>
-      <c r="G2" s="60" t="s">
-        <v>546</v>
-      </c>
-      <c r="H2" s="60" t="s">
-        <v>545</v>
       </c>
       <c r="I2" s="60"/>
       <c r="J2" s="60"/>
@@ -6123,61 +7385,64 @@
       <c r="T2" s="60"/>
       <c r="U2" s="60"/>
       <c r="V2" s="60"/>
-    </row>
-    <row r="3" spans="1:22">
+      <c r="W2" s="60"/>
+      <c r="X2" s="60"/>
+      <c r="Y2" s="60"/>
+    </row>
+    <row r="3" spans="1:25">
       <c r="A3" s="58" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="B3" s="58" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="C3" s="59">
         <v>4138</v>
       </c>
       <c r="D3" s="59" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="E3" s="59" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="F3" s="59" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="G3" s="60" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="H3" s="60" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="I3" s="60" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="J3" s="60" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="K3" s="60" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="L3" s="60" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="M3" s="60" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="N3" s="60" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="O3" s="60" t="s">
         <v>93</v>
       </c>
       <c r="P3" s="60" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="Q3" s="60" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="R3" s="60" t="s">
-        <v>560</v>
+        <v>655</v>
       </c>
       <c r="S3" s="60" t="s">
         <v>93</v>
@@ -6186,36 +7451,39 @@
         <v>95</v>
       </c>
       <c r="U3" s="60" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="V3" s="60" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22">
+        <v>557</v>
+      </c>
+      <c r="W3" s="60"/>
+      <c r="X3" s="60"/>
+      <c r="Y3" s="60"/>
+    </row>
+    <row r="4" spans="1:25">
       <c r="A4" s="58" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="B4" s="58" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="C4" s="59">
         <v>4138</v>
       </c>
       <c r="D4" s="59" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="E4" s="59" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="F4" s="59" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="G4" s="60" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="H4" s="60" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="I4" s="60"/>
       <c r="J4" s="60"/>
@@ -6231,31 +7499,34 @@
       <c r="T4" s="60"/>
       <c r="U4" s="60"/>
       <c r="V4" s="60"/>
-    </row>
-    <row r="5" spans="1:22">
+      <c r="W4" s="60"/>
+      <c r="X4" s="60"/>
+      <c r="Y4" s="60"/>
+    </row>
+    <row r="5" spans="1:25">
       <c r="A5" s="58" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="B5" s="58" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="C5" s="59">
         <v>4138</v>
       </c>
       <c r="D5" s="59" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="E5" s="59" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="F5" s="59" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="G5" s="60" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="H5" s="60" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="I5" s="60"/>
       <c r="J5" s="60"/>
@@ -6271,71 +7542,77 @@
       <c r="T5" s="60"/>
       <c r="U5" s="60"/>
       <c r="V5" s="60"/>
-    </row>
-    <row r="6" spans="1:22">
+      <c r="W5" s="60"/>
+      <c r="X5" s="60"/>
+      <c r="Y5" s="60"/>
+    </row>
+    <row r="6" spans="1:25">
       <c r="A6" s="58" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="B6" s="58" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="C6" s="59">
         <v>4138</v>
       </c>
       <c r="D6" s="59" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="E6" s="59" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="F6" s="59" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="G6" s="60" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="H6" s="60" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="I6" s="60" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="J6" s="60" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="K6" s="60" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="L6" s="60" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="M6" s="60" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="N6" s="60" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="O6" s="60" t="s">
         <v>93</v>
       </c>
       <c r="P6" s="60" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="Q6" s="60" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="R6" s="60"/>
       <c r="S6" s="60"/>
       <c r="T6" s="60"/>
       <c r="U6" s="60"/>
       <c r="V6" s="60"/>
-    </row>
-    <row r="7" spans="1:22">
+      <c r="W6" s="60"/>
+      <c r="X6" s="60"/>
+      <c r="Y6" s="60"/>
+    </row>
+    <row r="7" spans="1:25">
       <c r="A7" s="58" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="B7" s="58" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="C7" s="59">
         <v>4138</v>
@@ -6359,13 +7636,16 @@
       <c r="T7" s="60"/>
       <c r="U7" s="60"/>
       <c r="V7" s="60"/>
-    </row>
-    <row r="8" spans="1:22">
+      <c r="W7" s="60"/>
+      <c r="X7" s="60"/>
+      <c r="Y7" s="60"/>
+    </row>
+    <row r="8" spans="1:25">
       <c r="A8" s="58" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="B8" s="58" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="C8" s="59">
         <v>4138</v>
@@ -6378,10 +7658,10 @@
       <c r="I8" s="60"/>
       <c r="J8" s="60"/>
       <c r="K8" s="60" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="L8" s="60" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="M8" s="60"/>
       <c r="N8" s="60"/>
@@ -6393,6 +7673,405 @@
       <c r="T8" s="60"/>
       <c r="U8" s="60"/>
       <c r="V8" s="60"/>
+      <c r="W8" s="60"/>
+      <c r="X8" s="60"/>
+      <c r="Y8" s="60"/>
+    </row>
+    <row r="9" spans="1:25">
+      <c r="A9" s="58" t="s">
+        <v>616</v>
+      </c>
+      <c r="B9" s="58" t="s">
+        <v>633</v>
+      </c>
+      <c r="C9" s="59">
+        <v>4138</v>
+      </c>
+      <c r="D9" s="59"/>
+      <c r="E9" s="59"/>
+      <c r="F9" s="59"/>
+      <c r="G9" s="60"/>
+      <c r="H9" s="60"/>
+      <c r="I9" s="60"/>
+      <c r="J9" s="60"/>
+      <c r="K9" s="60"/>
+      <c r="L9" s="60"/>
+      <c r="M9" s="60"/>
+      <c r="N9" s="60"/>
+      <c r="O9" s="60"/>
+      <c r="P9" s="60"/>
+      <c r="Q9" s="60"/>
+      <c r="R9" s="60"/>
+      <c r="S9" s="60"/>
+      <c r="T9" s="60"/>
+      <c r="U9" s="60"/>
+      <c r="V9" s="60"/>
+      <c r="W9" s="60"/>
+      <c r="X9" s="60"/>
+      <c r="Y9" s="60"/>
+    </row>
+    <row r="10" spans="1:25">
+      <c r="A10" s="58" t="s">
+        <v>617</v>
+      </c>
+      <c r="B10" s="58" t="s">
+        <v>634</v>
+      </c>
+      <c r="C10" s="59">
+        <v>4138</v>
+      </c>
+      <c r="D10" s="59"/>
+      <c r="E10" s="59"/>
+      <c r="F10" s="59"/>
+      <c r="G10" s="60"/>
+      <c r="H10" s="60"/>
+      <c r="I10" s="60"/>
+      <c r="J10" s="60"/>
+      <c r="K10" s="60"/>
+      <c r="L10" s="60"/>
+      <c r="M10" s="60"/>
+      <c r="N10" s="60"/>
+      <c r="O10" s="60"/>
+      <c r="P10" s="60"/>
+      <c r="Q10" s="60"/>
+      <c r="R10" s="60"/>
+      <c r="S10" s="60"/>
+      <c r="T10" s="60"/>
+      <c r="U10" s="60"/>
+      <c r="V10" s="60"/>
+      <c r="W10" s="60" t="s">
+        <v>638</v>
+      </c>
+      <c r="X10" s="60"/>
+      <c r="Y10" s="60"/>
+    </row>
+    <row r="11" spans="1:25">
+      <c r="A11" s="58" t="s">
+        <v>618</v>
+      </c>
+      <c r="B11" s="58" t="s">
+        <v>635</v>
+      </c>
+      <c r="C11" s="59">
+        <v>4138</v>
+      </c>
+      <c r="D11" s="59"/>
+      <c r="E11" s="59"/>
+      <c r="F11" s="59"/>
+      <c r="G11" s="60"/>
+      <c r="H11" s="60"/>
+      <c r="I11" s="60"/>
+      <c r="J11" s="60"/>
+      <c r="K11" s="60"/>
+      <c r="L11" s="60"/>
+      <c r="M11" s="60"/>
+      <c r="N11" s="60"/>
+      <c r="O11" s="60"/>
+      <c r="P11" s="60"/>
+      <c r="Q11" s="60"/>
+      <c r="R11" s="60"/>
+      <c r="S11" s="60"/>
+      <c r="T11" s="60"/>
+      <c r="U11" s="60"/>
+      <c r="V11" s="60"/>
+      <c r="W11" s="60" t="s">
+        <v>638</v>
+      </c>
+      <c r="X11" s="60"/>
+      <c r="Y11" s="60"/>
+    </row>
+    <row r="12" spans="1:25">
+      <c r="A12" s="58" t="s">
+        <v>619</v>
+      </c>
+      <c r="B12" s="58" t="s">
+        <v>636</v>
+      </c>
+      <c r="C12" s="59">
+        <v>4138</v>
+      </c>
+      <c r="D12" s="59"/>
+      <c r="E12" s="59"/>
+      <c r="F12" s="59"/>
+      <c r="G12" s="60"/>
+      <c r="H12" s="60"/>
+      <c r="I12" s="60"/>
+      <c r="J12" s="60"/>
+      <c r="K12" s="60"/>
+      <c r="L12" s="60"/>
+      <c r="M12" s="60"/>
+      <c r="N12" s="60"/>
+      <c r="O12" s="60"/>
+      <c r="P12" s="60"/>
+      <c r="Q12" s="60"/>
+      <c r="R12" s="60"/>
+      <c r="S12" s="60"/>
+      <c r="T12" s="60"/>
+      <c r="U12" s="60"/>
+      <c r="V12" s="60"/>
+      <c r="W12" s="60"/>
+      <c r="X12" s="60" t="s">
+        <v>641</v>
+      </c>
+      <c r="Y12" s="60" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25">
+      <c r="A13" s="58" t="s">
+        <v>620</v>
+      </c>
+      <c r="B13" s="58" t="s">
+        <v>637</v>
+      </c>
+      <c r="C13" s="59">
+        <v>4138</v>
+      </c>
+      <c r="D13" s="59"/>
+      <c r="E13" s="59"/>
+      <c r="F13" s="59"/>
+      <c r="G13" s="60"/>
+      <c r="H13" s="60"/>
+      <c r="I13" s="60"/>
+      <c r="J13" s="60"/>
+      <c r="K13" s="60"/>
+      <c r="L13" s="60"/>
+      <c r="M13" s="60"/>
+      <c r="N13" s="60"/>
+      <c r="O13" s="60"/>
+      <c r="P13" s="60"/>
+      <c r="Q13" s="60"/>
+      <c r="R13" s="60"/>
+      <c r="S13" s="60"/>
+      <c r="T13" s="60"/>
+      <c r="U13" s="60"/>
+      <c r="V13" s="60"/>
+      <c r="W13" s="60"/>
+      <c r="X13" s="60"/>
+      <c r="Y13" s="60"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:U4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q19" sqref="Q19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="19.33203125" customWidth="1"/>
+    <col min="2" max="2" width="23.88671875" customWidth="1"/>
+    <col min="3" max="3" width="9.109375" customWidth="1"/>
+    <col min="4" max="4" width="14.109375" customWidth="1"/>
+    <col min="5" max="5" width="18.77734375" customWidth="1"/>
+    <col min="6" max="6" width="15.77734375" customWidth="1"/>
+    <col min="7" max="8" width="15" customWidth="1"/>
+    <col min="9" max="9" width="14.21875" customWidth="1"/>
+    <col min="10" max="10" width="10.44140625" customWidth="1"/>
+    <col min="11" max="11" width="16.21875" customWidth="1"/>
+    <col min="12" max="12" width="14" customWidth="1"/>
+    <col min="13" max="13" width="15.5546875" customWidth="1"/>
+    <col min="14" max="14" width="14" customWidth="1"/>
+    <col min="15" max="15" width="14.33203125" customWidth="1"/>
+    <col min="16" max="16" width="10.77734375" customWidth="1"/>
+    <col min="17" max="17" width="17.88671875" customWidth="1"/>
+    <col min="18" max="18" width="12.5546875" customWidth="1"/>
+    <col min="19" max="19" width="14.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21">
+      <c r="A1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="56" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>649</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>650</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>651</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>652</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>654</v>
+      </c>
+      <c r="R1" s="3"/>
+      <c r="S1" s="3"/>
+      <c r="T1" s="3"/>
+      <c r="U1" s="3"/>
+    </row>
+    <row r="2" spans="1:21">
+      <c r="A2" s="58" t="s">
+        <v>621</v>
+      </c>
+      <c r="B2" s="58" t="s">
+        <v>643</v>
+      </c>
+      <c r="C2" s="59">
+        <v>4138</v>
+      </c>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="4"/>
+      <c r="P2" s="4"/>
+      <c r="Q2" s="4"/>
+      <c r="R2" s="4"/>
+      <c r="S2" s="4"/>
+      <c r="T2" s="4"/>
+      <c r="U2" s="4"/>
+    </row>
+    <row r="3" spans="1:21">
+      <c r="A3" s="58" t="s">
+        <v>622</v>
+      </c>
+      <c r="B3" s="58" t="s">
+        <v>644</v>
+      </c>
+      <c r="C3" s="59">
+        <v>4138</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>648</v>
+      </c>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="4"/>
+      <c r="R3" s="4"/>
+      <c r="S3" s="4"/>
+      <c r="T3" s="4"/>
+      <c r="U3" s="4"/>
+    </row>
+    <row r="4" spans="1:21">
+      <c r="A4" s="58" t="s">
+        <v>623</v>
+      </c>
+      <c r="B4" s="58" t="s">
+        <v>645</v>
+      </c>
+      <c r="C4" s="59">
+        <v>4138</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>646</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>647</v>
+      </c>
+      <c r="H4" s="59">
+        <v>72</v>
+      </c>
+      <c r="I4" s="59">
+        <v>6800</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="K4" s="59">
+        <v>71</v>
+      </c>
+      <c r="L4" s="59">
+        <v>12</v>
+      </c>
+      <c r="M4" s="59">
+        <v>3500</v>
+      </c>
+      <c r="N4" s="59">
+        <v>50000</v>
+      </c>
+      <c r="O4" s="59" t="s">
+        <v>653</v>
+      </c>
+      <c r="P4" s="59" t="s">
+        <v>342</v>
+      </c>
+      <c r="Q4" s="59">
+        <v>6800</v>
+      </c>
+      <c r="R4" s="59"/>
+      <c r="S4" s="59"/>
+      <c r="T4" s="59"/>
+      <c r="U4" s="59"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6404,7 +8083,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
@@ -6441,7 +8120,7 @@
         <v>31</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -6463,7 +8142,7 @@
         <v>6</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>31</v>
@@ -6486,94 +8165,94 @@
         <v>102</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="8" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>31</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="8" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>31</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="8" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>31</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="8" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>31</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="8" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="C10" s="7" t="s">
         <v>31</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="8" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>31</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="E11" s="15"/>
     </row>
@@ -6804,7 +8483,7 @@
         <v>142</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>114</v>
@@ -6822,10 +8501,10 @@
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="2" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>114</v>
@@ -6890,28 +8569,28 @@
         <v>116</v>
       </c>
       <c r="F1" s="3" t="s">
+        <v>487</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>488</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>489</v>
+      </c>
+      <c r="I1" s="3" t="s">
         <v>490</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>491</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>492</v>
       </c>
-      <c r="I1" s="3" t="s">
-        <v>493</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>494</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>495</v>
-      </c>
       <c r="L1" s="3" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
     </row>
     <row r="2" spans="1:13">
@@ -6985,10 +8664,10 @@
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="10" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>115</v>
@@ -6996,32 +8675,32 @@
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
       <c r="F5" s="4" t="s">
+        <v>493</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>494</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>495</v>
+      </c>
+      <c r="I5" s="4" t="s">
         <v>496</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="J5" s="4" t="s">
         <v>497</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="K5" s="4" t="s">
         <v>498</v>
-      </c>
-      <c r="I5" s="4" t="s">
-        <v>499</v>
-      </c>
-      <c r="J5" s="4" t="s">
-        <v>500</v>
-      </c>
-      <c r="K5" s="4" t="s">
-        <v>501</v>
       </c>
       <c r="L5" s="4"/>
       <c r="M5" s="4"/>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="10" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>115</v>
@@ -7039,10 +8718,10 @@
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="10" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>115</v>
@@ -7056,10 +8735,10 @@
       <c r="J7" s="4"/>
       <c r="K7" s="4"/>
       <c r="L7" s="4" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="M7" s="4" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
     </row>
   </sheetData>
@@ -7102,28 +8781,28 @@
         <v>10</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="H1" s="3" t="s">
+        <v>460</v>
+      </c>
+      <c r="I1" s="3" t="s">
         <v>463</v>
       </c>
-      <c r="I1" s="3" t="s">
-        <v>466</v>
-      </c>
       <c r="J1" s="3" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
     </row>
     <row r="2" spans="1:11">
@@ -7137,7 +8816,7 @@
         <v>118</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="E2" s="12" t="s">
         <v>53</v>
@@ -7155,26 +8834,26 @@
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="11" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="F3" s="12"/>
       <c r="G3" s="12" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="H3" s="12" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="I3" s="12" t="s">
         <v>54</v>
@@ -7186,13 +8865,13 @@
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="11" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="D4" s="12"/>
       <c r="E4" s="12"/>
@@ -7205,26 +8884,26 @@
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="11" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="E5" s="12"/>
       <c r="F5" s="12" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="G5" s="12" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="H5" s="12" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="I5" s="12" t="s">
         <v>54</v>
@@ -7236,22 +8915,22 @@
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="11" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="B6" s="11" t="s">
+        <v>454</v>
+      </c>
+      <c r="C6" s="12" t="s">
         <v>457</v>
       </c>
-      <c r="C6" s="12" t="s">
-        <v>460</v>
-      </c>
       <c r="D6" s="12" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="G6" s="12"/>
       <c r="H6" s="12"/>
@@ -7265,13 +8944,13 @@
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="11" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="D7" s="12"/>
       <c r="E7" s="12"/>
@@ -7284,13 +8963,13 @@
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="11" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="D8" s="12"/>
       <c r="E8" s="12"/>
@@ -7407,7 +9086,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O6"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
@@ -7756,10 +9435,10 @@
         <v>81</v>
       </c>
       <c r="H1" s="13" t="s">
+        <v>198</v>
+      </c>
+      <c r="I1" s="13" t="s">
         <v>199</v>
-      </c>
-      <c r="I1" s="13" t="s">
-        <v>200</v>
       </c>
       <c r="J1" s="13" t="s">
         <v>82</v>
@@ -7777,39 +9456,39 @@
         <v>86</v>
       </c>
       <c r="O1" s="13" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="P1" s="13" t="s">
         <v>87</v>
       </c>
       <c r="Q1" s="13" t="s">
+        <v>212</v>
+      </c>
+      <c r="R1" s="13" t="s">
         <v>213</v>
       </c>
-      <c r="R1" s="13" t="s">
+      <c r="S1" s="13" t="s">
         <v>214</v>
       </c>
-      <c r="S1" s="13" t="s">
+      <c r="T1" s="13" t="s">
+        <v>218</v>
+      </c>
+      <c r="U1" s="13" t="s">
         <v>215</v>
       </c>
-      <c r="T1" s="13" t="s">
-        <v>219</v>
-      </c>
-      <c r="U1" s="13" t="s">
+      <c r="V1" s="26" t="s">
         <v>216</v>
-      </c>
-      <c r="V1" s="26" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="2" spans="1:22" s="5" customFormat="1">
       <c r="A2" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="B2" s="10" t="s">
         <v>189</v>
       </c>
-      <c r="B2" s="10" t="s">
-        <v>190</v>
-      </c>
       <c r="C2" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D2" s="12" t="s">
         <v>88</v>
@@ -7818,37 +9497,37 @@
         <v>88</v>
       </c>
       <c r="F2" s="12" t="s">
+        <v>207</v>
+      </c>
+      <c r="G2" s="12" t="s">
         <v>208</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="H2" s="12" t="s">
         <v>209</v>
       </c>
-      <c r="H2" s="12" t="s">
+      <c r="I2" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="J2" s="12" t="s">
         <v>210</v>
       </c>
-      <c r="I2" s="12" t="s">
-        <v>201</v>
-      </c>
-      <c r="J2" s="12" t="s">
-        <v>211</v>
-      </c>
       <c r="K2" s="12" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="L2" s="12" t="s">
         <v>93</v>
       </c>
       <c r="M2" s="12" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="N2" s="12" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="O2" s="12" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="P2" s="12" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="Q2" s="12"/>
       <c r="R2" s="12"/>
@@ -7859,13 +9538,13 @@
     </row>
     <row r="3" spans="1:22" s="5" customFormat="1">
       <c r="A3" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="B3" s="10" t="s">
         <v>191</v>
       </c>
-      <c r="B3" s="10" t="s">
-        <v>192</v>
-      </c>
       <c r="C3" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D3" s="12"/>
       <c r="E3" s="12"/>
@@ -7889,13 +9568,13 @@
     </row>
     <row r="4" spans="1:22" s="5" customFormat="1">
       <c r="A4" s="10" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D4" s="12"/>
       <c r="E4" s="12"/>
@@ -7919,13 +9598,13 @@
     </row>
     <row r="5" spans="1:22" s="5" customFormat="1">
       <c r="A5" s="10" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D5" s="12" t="s">
         <v>88</v>
@@ -7934,37 +9613,37 @@
         <v>88</v>
       </c>
       <c r="F5" s="12" t="s">
+        <v>207</v>
+      </c>
+      <c r="G5" s="12" t="s">
         <v>208</v>
       </c>
-      <c r="G5" s="12" t="s">
+      <c r="H5" s="12" t="s">
         <v>209</v>
       </c>
-      <c r="H5" s="12" t="s">
+      <c r="I5" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="J5" s="12" t="s">
         <v>210</v>
       </c>
-      <c r="I5" s="12" t="s">
-        <v>201</v>
-      </c>
-      <c r="J5" s="12" t="s">
-        <v>211</v>
-      </c>
       <c r="K5" s="12" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="L5" s="12" t="s">
         <v>93</v>
       </c>
       <c r="M5" s="12" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="N5" s="12" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="O5" s="12" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="P5" s="12" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="Q5" s="12"/>
       <c r="R5" s="12"/>
@@ -7975,13 +9654,13 @@
     </row>
     <row r="6" spans="1:22" s="5" customFormat="1">
       <c r="A6" s="10" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D6" s="12"/>
       <c r="E6" s="12"/>
@@ -8000,19 +9679,19 @@
         <v>93</v>
       </c>
       <c r="R6" s="12" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="S6" s="12" t="s">
         <v>94</v>
       </c>
       <c r="T6" s="12" t="s">
+        <v>219</v>
+      </c>
+      <c r="U6" s="12" t="s">
         <v>220</v>
       </c>
-      <c r="U6" s="12" t="s">
+      <c r="V6" s="27" t="s">
         <v>221</v>
-      </c>
-      <c r="V6" s="27" t="s">
-        <v>222</v>
       </c>
     </row>
   </sheetData>

--- a/KULS_Sankar/TestData/ijaraTestData.xlsx
+++ b/KULS_Sankar/TestData/ijaraTestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="72" windowWidth="23256" windowHeight="12600" firstSheet="7" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="72" windowWidth="23256" windowHeight="12600" firstSheet="13" activeTab="16"/>
   </bookViews>
   <sheets>
     <sheet name="AllFeaturesAutomationInfo" sheetId="8" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1549" uniqueCount="659">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1606" uniqueCount="678">
   <si>
     <t>UserName</t>
   </si>
@@ -488,24 +488,9 @@
     <t>Screen Name</t>
   </si>
   <si>
-    <t>Stage Name</t>
-  </si>
-  <si>
-    <t>Customer Debt</t>
-  </si>
-  <si>
-    <t>Tawarruq-App Data Entry</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Customer Additional info </t>
-  </si>
-  <si>
     <t>Sprint - 61</t>
   </si>
   <si>
-    <t>Income Screen</t>
-  </si>
-  <si>
     <t>IDC_01_01, IDC_01_02</t>
   </si>
   <si>
@@ -545,27 +530,9 @@
     <t>ADC_01_12 --&gt; ADC_01_17</t>
   </si>
   <si>
-    <t>IJARAH-App Data Entry</t>
-  </si>
-  <si>
-    <t>IJARAH-Underwriter</t>
-  </si>
-  <si>
-    <t>IJARAH-Data Check</t>
-  </si>
-  <si>
     <t>Sprint - 63</t>
   </si>
   <si>
-    <t>IJARAH - Offering</t>
-  </si>
-  <si>
-    <t>Offer Details</t>
-  </si>
-  <si>
-    <t>Application Details</t>
-  </si>
-  <si>
     <t>OFO_01_01</t>
   </si>
   <si>
@@ -701,9 +668,6 @@
     <t>Sprint - 64</t>
   </si>
   <si>
-    <t>IJARAH- Contract Signing</t>
-  </si>
-  <si>
     <t>Sprint - 65</t>
   </si>
   <si>
@@ -722,12 +686,6 @@
     <t>AT_MCUD_06</t>
   </si>
   <si>
-    <t>MURABAHA - App Data Entry</t>
-  </si>
-  <si>
-    <t>Customer Debt Screen</t>
-  </si>
-  <si>
     <t>ADC_01_01 &amp; ADC_01_02</t>
   </si>
   <si>
@@ -824,9 +782,6 @@
     <t>Sprint - 66</t>
   </si>
   <si>
-    <t>MURABAHA - App Data Check</t>
-  </si>
-  <si>
     <t>DS_AT_MCUD_07</t>
   </si>
   <si>
@@ -957,9 +912,6 @@
   </si>
   <si>
     <t>Sprint - 67</t>
-  </si>
-  <si>
-    <t>Tawarruq -- App Data Check</t>
   </si>
   <si>
     <t>TW_AppData_AppDetails.feature</t>
@@ -2043,6 +1995,118 @@
   </si>
   <si>
     <t>4800</t>
+  </si>
+  <si>
+    <t>AT_AL_CUD_04</t>
+  </si>
+  <si>
+    <t>DS_AT_AL_CUD_04</t>
+  </si>
+  <si>
+    <t>AT_AL_CUD_05</t>
+  </si>
+  <si>
+    <t>DS_AT_AL_CUD_05</t>
+  </si>
+  <si>
+    <t>AT_AL_CUD_06</t>
+  </si>
+  <si>
+    <t>DS_AT_AL_CUD_06</t>
+  </si>
+  <si>
+    <t>AT_AL_CUD_07</t>
+  </si>
+  <si>
+    <t>DS_AT_AL_CUD_07</t>
+  </si>
+  <si>
+    <t>AT_AL_CUD_08</t>
+  </si>
+  <si>
+    <t>DS_AT_AL_CUD_08</t>
+  </si>
+  <si>
+    <t>AT_AL_CUD_09</t>
+  </si>
+  <si>
+    <t>DS_AT_AL_CUD_09</t>
+  </si>
+  <si>
+    <t>98655521022</t>
+  </si>
+  <si>
+    <t>1500000</t>
+  </si>
+  <si>
+    <t>7300</t>
+  </si>
+  <si>
+    <t>TEST</t>
+  </si>
+  <si>
+    <t>@#</t>
+  </si>
+  <si>
+    <t>3300</t>
+  </si>
+  <si>
+    <t>Yet to start</t>
+  </si>
+  <si>
+    <t>Not completed</t>
+  </si>
+  <si>
+    <t>IJARAH-Data Check
+Application Details</t>
+  </si>
+  <si>
+    <t>IJARAH - Offering
+Offer Details</t>
+  </si>
+  <si>
+    <t>IJARAH-Data Check
+Income Screen</t>
+  </si>
+  <si>
+    <t>IJARAH- Contract Signing
+Application Details</t>
+  </si>
+  <si>
+    <t>IJARAH-App Data Entry
+Customer Debt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tawarruq-App Data Entry
+Customer Additional info </t>
+  </si>
+  <si>
+    <t>IJARAH - Underwriter</t>
+  </si>
+  <si>
+    <t>IJARAH-App Data Entry
+Customer Debt Screen</t>
+  </si>
+  <si>
+    <t>AZ1LN-8897</t>
+  </si>
+  <si>
+    <t>CUD_02_01, CUD_02_02, CUD_02_03</t>
+  </si>
+  <si>
+    <t>CUD_04_01, CUD_04_02, CUD_04_03</t>
+  </si>
+  <si>
+    <t>CUD_04_04 &amp; CUD_04_05</t>
+  </si>
+  <si>
+    <t>CUD_04_06 &amp; CUD_04_07</t>
+  </si>
+  <si>
+    <t>CUD_04_08 &amp; CUD_04_09</t>
+  </si>
+  <si>
+    <t>SGD</t>
   </si>
 </sst>
 </file>
@@ -2194,7 +2258,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -2267,6 +2331,54 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -2276,7 +2388,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="92">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2370,9 +2482,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2423,6 +2532,42 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="6" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2744,972 +2889,922 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L129"/>
+  <dimension ref="A1:K138"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A89" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H131" sqref="H131"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A110" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C118" sqref="C118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="27.44140625" style="23" customWidth="1"/>
-    <col min="2" max="2" width="28" style="23" customWidth="1"/>
-    <col min="3" max="3" width="13.33203125" style="23" customWidth="1"/>
-    <col min="4" max="4" width="43" customWidth="1"/>
-    <col min="5" max="5" width="26.6640625" customWidth="1"/>
-    <col min="6" max="6" width="11.5546875" customWidth="1"/>
-    <col min="7" max="7" width="11" customWidth="1"/>
-    <col min="8" max="8" width="17.109375" customWidth="1"/>
-    <col min="9" max="9" width="10.33203125" customWidth="1"/>
-    <col min="10" max="10" width="45.5546875" customWidth="1"/>
-    <col min="11" max="11" width="21.88671875" customWidth="1"/>
-    <col min="12" max="12" width="15.6640625" customWidth="1"/>
+    <col min="1" max="1" width="28" style="23" customWidth="1"/>
+    <col min="2" max="2" width="13.33203125" style="23" customWidth="1"/>
+    <col min="3" max="3" width="35.88671875" customWidth="1"/>
+    <col min="4" max="4" width="23.33203125" customWidth="1"/>
+    <col min="5" max="5" width="13.5546875" customWidth="1"/>
+    <col min="6" max="6" width="11" customWidth="1"/>
+    <col min="7" max="7" width="17.109375" customWidth="1"/>
+    <col min="8" max="8" width="10.33203125" customWidth="1"/>
+    <col min="9" max="9" width="39.77734375" customWidth="1"/>
+    <col min="10" max="10" width="21.88671875" customWidth="1"/>
+    <col min="11" max="11" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="19" customFormat="1">
+    <row r="1" spans="1:11" s="19" customFormat="1">
       <c r="A1" s="22" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B1" s="22" t="s">
-        <v>151</v>
-      </c>
-      <c r="C1" s="22" t="s">
         <v>122</v>
       </c>
+      <c r="C1" s="24" t="s">
+        <v>159</v>
+      </c>
       <c r="D1" s="24" t="s">
-        <v>164</v>
-      </c>
-      <c r="E1" s="24" t="s">
         <v>144</v>
       </c>
+      <c r="E1" s="16" t="s">
+        <v>123</v>
+      </c>
       <c r="F1" s="16" t="s">
-        <v>123</v>
-      </c>
-      <c r="G1" s="16" t="s">
         <v>125</v>
       </c>
-      <c r="H1" s="17" t="s">
+      <c r="G1" s="17" t="s">
         <v>126</v>
       </c>
+      <c r="H1" s="73" t="s">
+        <v>128</v>
+      </c>
       <c r="I1" s="18" t="s">
-        <v>128</v>
-      </c>
-      <c r="J1" s="18" t="s">
         <v>127</v>
       </c>
-      <c r="K1" s="16" t="s">
+      <c r="J1" s="16" t="s">
         <v>124</v>
       </c>
-      <c r="L1" s="17" t="s">
+      <c r="K1" s="80" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
-      <c r="A2" s="69" t="s">
-        <v>171</v>
-      </c>
-      <c r="B2" s="69" t="s">
-        <v>231</v>
-      </c>
-      <c r="C2" s="71" t="s">
+    <row r="2" spans="1:11">
+      <c r="A2" s="85" t="s">
+        <v>670</v>
+      </c>
+      <c r="B2" s="86" t="s">
         <v>130</v>
       </c>
-      <c r="D2" s="25" t="s">
+      <c r="C2" s="25" t="s">
         <v>135</v>
       </c>
-      <c r="E2" s="20" t="s">
+      <c r="D2" s="20" t="s">
         <v>11</v>
       </c>
+      <c r="E2" s="25" t="s">
+        <v>136</v>
+      </c>
       <c r="F2" s="25" t="s">
         <v>136</v>
       </c>
       <c r="G2" s="25" t="s">
         <v>136</v>
       </c>
-      <c r="H2" s="25" t="s">
+      <c r="H2" s="74" t="s">
         <v>136</v>
       </c>
       <c r="I2" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="J2" s="25" t="s">
-        <v>501</v>
-      </c>
-      <c r="K2" s="25"/>
-      <c r="L2" s="25"/>
-    </row>
-    <row r="3" spans="1:12">
-      <c r="A3" s="69"/>
-      <c r="B3" s="69"/>
-      <c r="C3" s="72"/>
-      <c r="D3" s="25" t="s">
+        <v>485</v>
+      </c>
+      <c r="J2" s="25"/>
+      <c r="K2" s="81"/>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="84"/>
+      <c r="B3" s="87"/>
+      <c r="C3" s="25" t="s">
         <v>131</v>
       </c>
-      <c r="E3" s="20" t="s">
+      <c r="D3" s="20" t="s">
         <v>21</v>
       </c>
+      <c r="E3" s="25" t="s">
+        <v>136</v>
+      </c>
       <c r="F3" s="25" t="s">
         <v>136</v>
       </c>
       <c r="G3" s="25" t="s">
         <v>136</v>
       </c>
-      <c r="H3" s="25" t="s">
+      <c r="H3" s="74" t="s">
         <v>136</v>
       </c>
       <c r="I3" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="J3" s="25" t="s">
-        <v>501</v>
-      </c>
-      <c r="K3" s="25"/>
-      <c r="L3" s="25"/>
-    </row>
-    <row r="4" spans="1:12">
-      <c r="A4" s="69"/>
-      <c r="B4" s="69"/>
-      <c r="C4" s="72"/>
-      <c r="D4" s="25" t="s">
+        <v>485</v>
+      </c>
+      <c r="J3" s="25"/>
+      <c r="K3" s="81"/>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="84"/>
+      <c r="B4" s="87"/>
+      <c r="C4" s="25" t="s">
         <v>132</v>
       </c>
-      <c r="E4" s="20" t="s">
+      <c r="D4" s="20" t="s">
         <v>27</v>
       </c>
+      <c r="E4" s="25" t="s">
+        <v>136</v>
+      </c>
       <c r="F4" s="25" t="s">
         <v>136</v>
       </c>
       <c r="G4" s="25" t="s">
         <v>136</v>
       </c>
-      <c r="H4" s="25" t="s">
+      <c r="H4" s="74" t="s">
         <v>136</v>
       </c>
       <c r="I4" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="J4" s="25" t="s">
-        <v>501</v>
-      </c>
-      <c r="K4" s="25"/>
-      <c r="L4" s="25"/>
-    </row>
-    <row r="5" spans="1:12">
-      <c r="A5" s="69"/>
-      <c r="B5" s="69"/>
-      <c r="C5" s="73"/>
-      <c r="D5" s="25" t="s">
+        <v>485</v>
+      </c>
+      <c r="J4" s="25"/>
+      <c r="K4" s="81"/>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="84"/>
+      <c r="B5" s="88"/>
+      <c r="C5" s="25" t="s">
         <v>134</v>
       </c>
-      <c r="E5" s="20" t="s">
+      <c r="D5" s="20" t="s">
         <v>19</v>
       </c>
+      <c r="E5" s="25" t="s">
+        <v>136</v>
+      </c>
       <c r="F5" s="25" t="s">
         <v>136</v>
       </c>
       <c r="G5" s="25" t="s">
         <v>136</v>
       </c>
-      <c r="H5" s="25" t="s">
+      <c r="H5" s="74" t="s">
         <v>136</v>
       </c>
       <c r="I5" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="J5" s="25" t="s">
-        <v>501</v>
-      </c>
-      <c r="K5" s="25"/>
-      <c r="L5" s="25"/>
-    </row>
-    <row r="6" spans="1:12">
+        <v>485</v>
+      </c>
+      <c r="J5" s="25"/>
+      <c r="K5" s="81"/>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="37"/>
       <c r="B6" s="37"/>
-      <c r="C6" s="37"/>
+      <c r="C6" s="25"/>
       <c r="D6" s="25"/>
       <c r="E6" s="25"/>
       <c r="F6" s="25"/>
       <c r="G6" s="25"/>
-      <c r="H6" s="25"/>
+      <c r="H6" s="74"/>
       <c r="I6" s="25"/>
       <c r="J6" s="25"/>
-      <c r="K6" s="25"/>
-      <c r="L6" s="25"/>
-    </row>
-    <row r="7" spans="1:12">
-      <c r="A7" s="69" t="s">
-        <v>172</v>
-      </c>
-      <c r="B7" s="69" t="s">
-        <v>586</v>
-      </c>
-      <c r="C7" s="71" t="s">
+      <c r="K6" s="81"/>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="84" t="s">
+        <v>669</v>
+      </c>
+      <c r="B7" s="86" t="s">
         <v>143</v>
       </c>
-      <c r="D7" s="21" t="s">
+      <c r="C7" s="21" t="s">
         <v>145</v>
       </c>
-      <c r="E7" s="20" t="s">
+      <c r="D7" s="20" t="s">
         <v>138</v>
       </c>
+      <c r="E7" s="25" t="s">
+        <v>136</v>
+      </c>
       <c r="F7" s="25" t="s">
         <v>136</v>
       </c>
       <c r="G7" s="25" t="s">
         <v>136</v>
       </c>
-      <c r="H7" s="25" t="s">
+      <c r="H7" s="74" t="s">
         <v>136</v>
       </c>
       <c r="I7" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="J7" s="25" t="s">
-        <v>502</v>
-      </c>
-      <c r="K7" s="25"/>
-      <c r="L7" s="25"/>
-    </row>
-    <row r="8" spans="1:12">
-      <c r="A8" s="69"/>
-      <c r="B8" s="69"/>
-      <c r="C8" s="72"/>
-      <c r="D8" s="25" t="s">
+        <v>486</v>
+      </c>
+      <c r="J7" s="25"/>
+      <c r="K7" s="81"/>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="84"/>
+      <c r="B8" s="87"/>
+      <c r="C8" s="25" t="s">
         <v>146</v>
       </c>
-      <c r="E8" s="20" t="s">
+      <c r="D8" s="20" t="s">
         <v>139</v>
       </c>
+      <c r="E8" s="25" t="s">
+        <v>136</v>
+      </c>
       <c r="F8" s="25" t="s">
         <v>136</v>
       </c>
       <c r="G8" s="25" t="s">
         <v>136</v>
       </c>
-      <c r="H8" s="25" t="s">
+      <c r="H8" s="74" t="s">
         <v>136</v>
       </c>
       <c r="I8" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="J8" s="25" t="s">
-        <v>502</v>
-      </c>
-      <c r="K8" s="25"/>
-      <c r="L8" s="25"/>
-    </row>
-    <row r="9" spans="1:12">
-      <c r="A9" s="69"/>
-      <c r="B9" s="69"/>
-      <c r="C9" s="72"/>
-      <c r="D9" s="25" t="s">
+        <v>486</v>
+      </c>
+      <c r="J8" s="25"/>
+      <c r="K8" s="81"/>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="84"/>
+      <c r="B9" s="87"/>
+      <c r="C9" s="25" t="s">
         <v>147</v>
       </c>
-      <c r="E9" s="20" t="s">
+      <c r="D9" s="20" t="s">
         <v>140</v>
       </c>
+      <c r="E9" s="25" t="s">
+        <v>136</v>
+      </c>
       <c r="F9" s="25" t="s">
         <v>136</v>
       </c>
       <c r="G9" s="25" t="s">
         <v>136</v>
       </c>
-      <c r="H9" s="25" t="s">
+      <c r="H9" s="74" t="s">
         <v>136</v>
       </c>
       <c r="I9" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="J9" s="25" t="s">
-        <v>502</v>
-      </c>
-      <c r="K9" s="25"/>
-      <c r="L9" s="25"/>
-    </row>
-    <row r="10" spans="1:12">
-      <c r="A10" s="69"/>
-      <c r="B10" s="69"/>
-      <c r="C10" s="72"/>
-      <c r="D10" s="25" t="s">
+        <v>486</v>
+      </c>
+      <c r="J9" s="25"/>
+      <c r="K9" s="81"/>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="84"/>
+      <c r="B10" s="87"/>
+      <c r="C10" s="25" t="s">
         <v>148</v>
       </c>
-      <c r="E10" s="20" t="s">
+      <c r="D10" s="20" t="s">
         <v>141</v>
       </c>
+      <c r="E10" s="25" t="s">
+        <v>136</v>
+      </c>
       <c r="F10" s="25" t="s">
         <v>136</v>
       </c>
       <c r="G10" s="25" t="s">
         <v>136</v>
       </c>
-      <c r="H10" s="25" t="s">
+      <c r="H10" s="74" t="s">
         <v>136</v>
       </c>
       <c r="I10" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="J10" s="25" t="s">
-        <v>502</v>
-      </c>
-      <c r="K10" s="25"/>
-      <c r="L10" s="25"/>
-    </row>
-    <row r="11" spans="1:12">
-      <c r="A11" s="37" t="s">
-        <v>154</v>
-      </c>
-      <c r="B11" s="37" t="s">
-        <v>155</v>
-      </c>
-      <c r="C11" s="72"/>
-      <c r="D11" s="25" t="s">
+        <v>486</v>
+      </c>
+      <c r="J10" s="25"/>
+      <c r="K10" s="81"/>
+    </row>
+    <row r="11" spans="1:11" s="72" customFormat="1" ht="28.8">
+      <c r="A11" s="68" t="s">
+        <v>668</v>
+      </c>
+      <c r="B11" s="87"/>
+      <c r="C11" s="53" t="s">
         <v>149</v>
       </c>
-      <c r="E11" s="20" t="s">
+      <c r="D11" s="71" t="s">
         <v>51</v>
       </c>
-      <c r="F11" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="G11" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="H11" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="I11" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="J11" s="25" t="s">
-        <v>507</v>
-      </c>
-      <c r="K11" s="25"/>
-      <c r="L11" s="25"/>
-    </row>
-    <row r="12" spans="1:12">
-      <c r="A12" s="69" t="s">
-        <v>171</v>
-      </c>
-      <c r="B12" s="69" t="s">
-        <v>153</v>
-      </c>
-      <c r="C12" s="72"/>
-      <c r="D12" s="25" t="s">
+      <c r="E11" s="53" t="s">
+        <v>136</v>
+      </c>
+      <c r="F11" s="53" t="s">
+        <v>136</v>
+      </c>
+      <c r="G11" s="53" t="s">
+        <v>136</v>
+      </c>
+      <c r="H11" s="75" t="s">
+        <v>136</v>
+      </c>
+      <c r="I11" s="53" t="s">
+        <v>491</v>
+      </c>
+      <c r="J11" s="53"/>
+      <c r="K11" s="82"/>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="85" t="s">
+        <v>667</v>
+      </c>
+      <c r="B12" s="87"/>
+      <c r="C12" s="25" t="s">
         <v>133</v>
       </c>
-      <c r="E12" s="20" t="s">
+      <c r="D12" s="20" t="s">
         <v>42</v>
       </c>
+      <c r="E12" s="25" t="s">
+        <v>136</v>
+      </c>
       <c r="F12" s="25" t="s">
         <v>136</v>
       </c>
       <c r="G12" s="25" t="s">
         <v>136</v>
       </c>
-      <c r="H12" s="25" t="s">
+      <c r="H12" s="74" t="s">
         <v>136</v>
       </c>
       <c r="I12" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="J12" s="25" t="s">
         <v>137</v>
       </c>
-      <c r="K12" s="25"/>
-      <c r="L12" s="25"/>
-    </row>
-    <row r="13" spans="1:12">
-      <c r="A13" s="69"/>
-      <c r="B13" s="69"/>
-      <c r="C13" s="73"/>
-      <c r="D13" s="25" t="s">
+      <c r="J12" s="25"/>
+      <c r="K12" s="81"/>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="84"/>
+      <c r="B13" s="88"/>
+      <c r="C13" s="25" t="s">
         <v>150</v>
       </c>
-      <c r="E13" s="20" t="s">
+      <c r="D13" s="20" t="s">
         <v>142</v>
       </c>
+      <c r="E13" s="25" t="s">
+        <v>136</v>
+      </c>
       <c r="F13" s="25" t="s">
         <v>136</v>
       </c>
       <c r="G13" s="25" t="s">
         <v>136</v>
       </c>
-      <c r="H13" s="25" t="s">
+      <c r="H13" s="74" t="s">
         <v>136</v>
       </c>
       <c r="I13" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="J13" s="25" t="s">
         <v>137</v>
       </c>
-      <c r="K13" s="25"/>
-      <c r="L13" s="25"/>
-    </row>
-    <row r="14" spans="1:12">
+      <c r="J13" s="25"/>
+      <c r="K13" s="81"/>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14" s="37"/>
       <c r="B14" s="37"/>
-      <c r="C14" s="37"/>
+      <c r="C14" s="25"/>
       <c r="D14" s="25"/>
       <c r="E14" s="25"/>
       <c r="F14" s="25"/>
       <c r="G14" s="25"/>
-      <c r="H14" s="25"/>
+      <c r="H14" s="74"/>
       <c r="I14" s="25"/>
       <c r="J14" s="25"/>
-      <c r="K14" s="25"/>
-      <c r="L14" s="25"/>
-    </row>
-    <row r="15" spans="1:12">
-      <c r="A15" s="69" t="s">
-        <v>173</v>
-      </c>
-      <c r="B15" s="69" t="s">
+      <c r="K14" s="81"/>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="85" t="s">
+        <v>665</v>
+      </c>
+      <c r="B15" s="86" t="s">
+        <v>152</v>
+      </c>
+      <c r="C15" s="25" t="s">
+        <v>153</v>
+      </c>
+      <c r="D15" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="E15" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="F15" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="G15" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="H15" s="74" t="s">
+        <v>136</v>
+      </c>
+      <c r="I15" s="25" t="s">
+        <v>487</v>
+      </c>
+      <c r="J15" s="25"/>
+      <c r="K15" s="81"/>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" s="84"/>
+      <c r="B16" s="87"/>
+      <c r="C16" s="25" t="s">
+        <v>154</v>
+      </c>
+      <c r="D16" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="E16" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="F16" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="G16" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="H16" s="74" t="s">
+        <v>136</v>
+      </c>
+      <c r="I16" s="25" t="s">
+        <v>487</v>
+      </c>
+      <c r="J16" s="25"/>
+      <c r="K16" s="81"/>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" s="84"/>
+      <c r="B17" s="87"/>
+      <c r="C17" s="25" t="s">
+        <v>155</v>
+      </c>
+      <c r="D17" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="E17" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="F17" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="G17" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="H17" s="74" t="s">
+        <v>136</v>
+      </c>
+      <c r="I17" s="25" t="s">
+        <v>487</v>
+      </c>
+      <c r="J17" s="25"/>
+      <c r="K17" s="81"/>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" s="84"/>
+      <c r="B18" s="87"/>
+      <c r="C18" s="25" t="s">
+        <v>156</v>
+      </c>
+      <c r="D18" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="E18" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="F18" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="G18" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="H18" s="74" t="s">
+        <v>136</v>
+      </c>
+      <c r="I18" s="25" t="s">
+        <v>487</v>
+      </c>
+      <c r="J18" s="25"/>
+      <c r="K18" s="81"/>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" s="84"/>
+      <c r="B19" s="87"/>
+      <c r="C19" s="25" t="s">
         <v>157</v>
       </c>
-      <c r="C15" s="71" t="s">
-        <v>156</v>
-      </c>
-      <c r="D15" s="25" t="s">
+      <c r="D19" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="E19" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="F19" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="G19" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="H19" s="74" t="s">
+        <v>136</v>
+      </c>
+      <c r="I19" s="25" t="s">
+        <v>487</v>
+      </c>
+      <c r="J19" s="25"/>
+      <c r="K19" s="81"/>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20" s="84"/>
+      <c r="B20" s="88"/>
+      <c r="C20" s="25" t="s">
         <v>158</v>
       </c>
-      <c r="E15" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="F15" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="G15" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="H15" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="I15" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="J15" s="25" t="s">
-        <v>503</v>
-      </c>
-      <c r="K15" s="25"/>
-      <c r="L15" s="25"/>
-    </row>
-    <row r="16" spans="1:12">
-      <c r="A16" s="69"/>
-      <c r="B16" s="69"/>
-      <c r="C16" s="72"/>
-      <c r="D16" s="25" t="s">
-        <v>159</v>
-      </c>
-      <c r="E16" s="20" t="s">
-        <v>61</v>
-      </c>
-      <c r="F16" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="G16" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="H16" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="I16" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="J16" s="25" t="s">
-        <v>503</v>
-      </c>
-      <c r="K16" s="25"/>
-      <c r="L16" s="25"/>
-    </row>
-    <row r="17" spans="1:12">
-      <c r="A17" s="69"/>
-      <c r="B17" s="69"/>
-      <c r="C17" s="72"/>
-      <c r="D17" s="25" t="s">
-        <v>160</v>
-      </c>
-      <c r="E17" s="20" t="s">
-        <v>62</v>
-      </c>
-      <c r="F17" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="G17" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="H17" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="I17" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="J17" s="25" t="s">
-        <v>503</v>
-      </c>
-      <c r="K17" s="25"/>
-      <c r="L17" s="25"/>
-    </row>
-    <row r="18" spans="1:12">
-      <c r="A18" s="69"/>
-      <c r="B18" s="69"/>
-      <c r="C18" s="72"/>
-      <c r="D18" s="25" t="s">
-        <v>161</v>
-      </c>
-      <c r="E18" s="20" t="s">
-        <v>63</v>
-      </c>
-      <c r="F18" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="G18" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="H18" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="I18" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="J18" s="25" t="s">
-        <v>503</v>
-      </c>
-      <c r="K18" s="25"/>
-      <c r="L18" s="25"/>
-    </row>
-    <row r="19" spans="1:12">
-      <c r="A19" s="69"/>
-      <c r="B19" s="69"/>
-      <c r="C19" s="72"/>
-      <c r="D19" s="25" t="s">
-        <v>162</v>
-      </c>
-      <c r="E19" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="F19" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="G19" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="H19" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="I19" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="J19" s="25" t="s">
-        <v>503</v>
-      </c>
-      <c r="K19" s="25"/>
-      <c r="L19" s="25"/>
-    </row>
-    <row r="20" spans="1:12">
-      <c r="A20" s="69"/>
-      <c r="B20" s="69"/>
-      <c r="C20" s="73"/>
-      <c r="D20" s="25" t="s">
-        <v>163</v>
-      </c>
-      <c r="E20" s="20" t="s">
+      <c r="D20" s="20" t="s">
         <v>69</v>
       </c>
+      <c r="E20" s="25" t="s">
+        <v>136</v>
+      </c>
       <c r="F20" s="25" t="s">
         <v>136</v>
       </c>
       <c r="G20" s="25" t="s">
         <v>136</v>
       </c>
-      <c r="H20" s="25" t="s">
+      <c r="H20" s="74" t="s">
         <v>136</v>
       </c>
       <c r="I20" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="J20" s="25" t="s">
-        <v>503</v>
-      </c>
-      <c r="K20" s="25"/>
-      <c r="L20" s="25"/>
-    </row>
-    <row r="21" spans="1:12">
+        <v>487</v>
+      </c>
+      <c r="J20" s="25"/>
+      <c r="K20" s="81"/>
+    </row>
+    <row r="21" spans="1:11">
       <c r="A21" s="37"/>
       <c r="B21" s="37"/>
-      <c r="C21" s="37"/>
+      <c r="C21" s="25"/>
       <c r="D21" s="25"/>
       <c r="E21" s="25"/>
       <c r="F21" s="25"/>
       <c r="G21" s="25"/>
-      <c r="H21" s="25"/>
+      <c r="H21" s="74"/>
       <c r="I21" s="25"/>
       <c r="J21" s="25"/>
-      <c r="K21" s="25"/>
-      <c r="L21" s="25"/>
-    </row>
-    <row r="22" spans="1:12">
-      <c r="A22" s="69" t="s">
-        <v>173</v>
-      </c>
-      <c r="B22" s="69" t="s">
-        <v>177</v>
-      </c>
-      <c r="C22" s="71" t="s">
+      <c r="K21" s="81"/>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22" s="85" t="s">
+        <v>663</v>
+      </c>
+      <c r="B22" s="86" t="s">
+        <v>160</v>
+      </c>
+      <c r="C22" s="25" t="s">
+        <v>161</v>
+      </c>
+      <c r="D22" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="E22" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="F22" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="G22" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="H22" s="74" t="s">
+        <v>136</v>
+      </c>
+      <c r="I22" s="25" t="s">
+        <v>488</v>
+      </c>
+      <c r="J22" s="25"/>
+      <c r="K22" s="81"/>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23" s="84"/>
+      <c r="B23" s="87"/>
+      <c r="C23" s="25" t="s">
+        <v>162</v>
+      </c>
+      <c r="D23" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="E23" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="F23" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="G23" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="H23" s="74" t="s">
+        <v>136</v>
+      </c>
+      <c r="I23" s="25" t="s">
+        <v>488</v>
+      </c>
+      <c r="J23" s="25"/>
+      <c r="K23" s="81"/>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24" s="84"/>
+      <c r="B24" s="87"/>
+      <c r="C24" s="25" t="s">
+        <v>163</v>
+      </c>
+      <c r="D24" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="E24" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="F24" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="G24" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="H24" s="74" t="s">
+        <v>136</v>
+      </c>
+      <c r="I24" s="25" t="s">
+        <v>488</v>
+      </c>
+      <c r="J24" s="25"/>
+      <c r="K24" s="81"/>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="A25" s="84"/>
+      <c r="B25" s="87"/>
+      <c r="C25" s="25" t="s">
+        <v>164</v>
+      </c>
+      <c r="D25" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="E25" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="F25" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="G25" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="H25" s="74" t="s">
+        <v>136</v>
+      </c>
+      <c r="I25" s="25" t="s">
+        <v>488</v>
+      </c>
+      <c r="J25" s="25"/>
+      <c r="K25" s="81"/>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="A26" s="84"/>
+      <c r="B26" s="88"/>
+      <c r="C26" s="25" t="s">
         <v>165</v>
       </c>
-      <c r="D22" s="25" t="s">
-        <v>166</v>
-      </c>
-      <c r="E22" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="F22" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="G22" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="H22" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="I22" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="J22" s="25" t="s">
-        <v>504</v>
-      </c>
-      <c r="K22" s="25"/>
-      <c r="L22" s="25"/>
-    </row>
-    <row r="23" spans="1:12">
-      <c r="A23" s="69"/>
-      <c r="B23" s="69"/>
-      <c r="C23" s="72"/>
-      <c r="D23" s="25" t="s">
-        <v>167</v>
-      </c>
-      <c r="E23" s="20" t="s">
-        <v>74</v>
-      </c>
-      <c r="F23" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="G23" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="H23" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="I23" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="J23" s="25" t="s">
-        <v>504</v>
-      </c>
-      <c r="K23" s="25"/>
-      <c r="L23" s="25"/>
-    </row>
-    <row r="24" spans="1:12">
-      <c r="A24" s="69"/>
-      <c r="B24" s="69"/>
-      <c r="C24" s="72"/>
-      <c r="D24" s="25" t="s">
-        <v>168</v>
-      </c>
-      <c r="E24" s="20" t="s">
-        <v>75</v>
-      </c>
-      <c r="F24" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="G24" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="H24" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="I24" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="J24" s="25" t="s">
-        <v>504</v>
-      </c>
-      <c r="K24" s="25"/>
-      <c r="L24" s="25"/>
-    </row>
-    <row r="25" spans="1:12">
-      <c r="A25" s="69"/>
-      <c r="B25" s="69"/>
-      <c r="C25" s="72"/>
-      <c r="D25" s="25" t="s">
-        <v>169</v>
-      </c>
-      <c r="E25" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="F25" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="G25" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="H25" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="I25" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="J25" s="25" t="s">
-        <v>504</v>
-      </c>
-      <c r="K25" s="25"/>
-      <c r="L25" s="25"/>
-    </row>
-    <row r="26" spans="1:12">
-      <c r="A26" s="69"/>
-      <c r="B26" s="69"/>
-      <c r="C26" s="73"/>
-      <c r="D26" s="25" t="s">
-        <v>170</v>
-      </c>
-      <c r="E26" s="20" t="s">
+      <c r="D26" s="20" t="s">
         <v>97</v>
       </c>
+      <c r="E26" s="25" t="s">
+        <v>136</v>
+      </c>
       <c r="F26" s="25" t="s">
         <v>136</v>
       </c>
       <c r="G26" s="25" t="s">
         <v>136</v>
       </c>
-      <c r="H26" s="25" t="s">
+      <c r="H26" s="74" t="s">
         <v>136</v>
       </c>
       <c r="I26" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="J26" s="25" t="s">
-        <v>504</v>
-      </c>
-      <c r="K26" s="25"/>
-      <c r="L26" s="25"/>
-    </row>
-    <row r="27" spans="1:12">
+        <v>488</v>
+      </c>
+      <c r="J26" s="25"/>
+      <c r="K26" s="81"/>
+    </row>
+    <row r="27" spans="1:11">
       <c r="A27" s="37"/>
       <c r="B27" s="37"/>
-      <c r="C27" s="37"/>
+      <c r="C27" s="25"/>
       <c r="D27" s="25"/>
       <c r="E27" s="25"/>
       <c r="F27" s="25"/>
       <c r="G27" s="25"/>
-      <c r="H27" s="25"/>
+      <c r="H27" s="74"/>
       <c r="I27" s="25"/>
       <c r="J27" s="25"/>
-      <c r="K27" s="25"/>
-      <c r="L27" s="25"/>
-    </row>
-    <row r="28" spans="1:12">
-      <c r="A28" s="69" t="s">
-        <v>175</v>
-      </c>
-      <c r="B28" s="69" t="s">
-        <v>176</v>
-      </c>
-      <c r="C28" s="71" t="s">
-        <v>174</v>
-      </c>
-      <c r="D28" s="25" t="s">
-        <v>178</v>
-      </c>
-      <c r="E28" s="20" t="s">
+      <c r="K27" s="81"/>
+    </row>
+    <row r="28" spans="1:11">
+      <c r="A28" s="85" t="s">
+        <v>664</v>
+      </c>
+      <c r="B28" s="86" t="s">
+        <v>166</v>
+      </c>
+      <c r="C28" s="25" t="s">
+        <v>167</v>
+      </c>
+      <c r="D28" s="20" t="s">
         <v>103</v>
       </c>
+      <c r="E28" s="25" t="s">
+        <v>136</v>
+      </c>
       <c r="F28" s="25" t="s">
         <v>136</v>
       </c>
       <c r="G28" s="25" t="s">
         <v>136</v>
       </c>
-      <c r="H28" s="25" t="s">
+      <c r="H28" s="74" t="s">
         <v>136</v>
       </c>
       <c r="I28" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="J28" s="25" t="s">
-        <v>505</v>
-      </c>
-      <c r="K28" s="25"/>
-      <c r="L28" s="25"/>
-    </row>
-    <row r="29" spans="1:12">
-      <c r="A29" s="69"/>
-      <c r="B29" s="69"/>
-      <c r="C29" s="72"/>
-      <c r="D29" s="25" t="s">
-        <v>179</v>
-      </c>
-      <c r="E29" s="20" t="s">
+        <v>489</v>
+      </c>
+      <c r="J28" s="25"/>
+      <c r="K28" s="81"/>
+    </row>
+    <row r="29" spans="1:11">
+      <c r="A29" s="84"/>
+      <c r="B29" s="87"/>
+      <c r="C29" s="25" t="s">
+        <v>168</v>
+      </c>
+      <c r="D29" s="20" t="s">
         <v>110</v>
       </c>
+      <c r="E29" s="25" t="s">
+        <v>136</v>
+      </c>
       <c r="F29" s="25" t="s">
         <v>136</v>
       </c>
       <c r="G29" s="25" t="s">
         <v>136</v>
       </c>
-      <c r="H29" s="25" t="s">
+      <c r="H29" s="74" t="s">
         <v>136</v>
       </c>
       <c r="I29" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="J29" s="25" t="s">
-        <v>505</v>
-      </c>
-      <c r="K29" s="25"/>
-      <c r="L29" s="25"/>
-    </row>
-    <row r="30" spans="1:12">
-      <c r="A30" s="69"/>
-      <c r="B30" s="69"/>
-      <c r="C30" s="72"/>
-      <c r="D30" s="25" t="s">
-        <v>180</v>
-      </c>
-      <c r="E30" s="20" t="s">
+        <v>489</v>
+      </c>
+      <c r="J29" s="25"/>
+      <c r="K29" s="81"/>
+    </row>
+    <row r="30" spans="1:11">
+      <c r="A30" s="84"/>
+      <c r="B30" s="87"/>
+      <c r="C30" s="25" t="s">
+        <v>169</v>
+      </c>
+      <c r="D30" s="20" t="s">
         <v>111</v>
       </c>
+      <c r="E30" s="25" t="s">
+        <v>136</v>
+      </c>
       <c r="F30" s="25" t="s">
         <v>136</v>
       </c>
       <c r="G30" s="25" t="s">
         <v>136</v>
       </c>
-      <c r="H30" s="25" t="s">
+      <c r="H30" s="74" t="s">
         <v>136</v>
       </c>
       <c r="I30" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="J30" s="25" t="s">
-        <v>505</v>
-      </c>
-      <c r="K30" s="25"/>
-      <c r="L30" s="25"/>
-    </row>
-    <row r="31" spans="1:12">
-      <c r="A31" s="69"/>
-      <c r="B31" s="69"/>
-      <c r="C31" s="72"/>
-      <c r="D31" s="25" t="s">
-        <v>181</v>
-      </c>
-      <c r="E31" s="20" t="s">
+        <v>489</v>
+      </c>
+      <c r="J30" s="25"/>
+      <c r="K30" s="81"/>
+    </row>
+    <row r="31" spans="1:11">
+      <c r="A31" s="84"/>
+      <c r="B31" s="87"/>
+      <c r="C31" s="25" t="s">
+        <v>170</v>
+      </c>
+      <c r="D31" s="20" t="s">
         <v>112</v>
       </c>
+      <c r="E31" s="25" t="s">
+        <v>136</v>
+      </c>
       <c r="F31" s="25" t="s">
         <v>136</v>
       </c>
       <c r="G31" s="25" t="s">
         <v>136</v>
       </c>
-      <c r="H31" s="25" t="s">
+      <c r="H31" s="74" t="s">
         <v>136</v>
       </c>
       <c r="I31" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="J31" s="25" t="s">
-        <v>505</v>
-      </c>
-      <c r="K31" s="25"/>
-      <c r="L31" s="25"/>
-    </row>
-    <row r="32" spans="1:12">
-      <c r="A32" s="69"/>
-      <c r="B32" s="69"/>
-      <c r="C32" s="72"/>
-      <c r="D32" s="25" t="s">
-        <v>182</v>
-      </c>
-      <c r="E32" s="20" t="s">
+        <v>489</v>
+      </c>
+      <c r="J31" s="25"/>
+      <c r="K31" s="81"/>
+    </row>
+    <row r="32" spans="1:11">
+      <c r="A32" s="84"/>
+      <c r="B32" s="87"/>
+      <c r="C32" s="25" t="s">
+        <v>171</v>
+      </c>
+      <c r="D32" s="20" t="s">
         <v>113</v>
       </c>
+      <c r="E32" s="25" t="s">
+        <v>136</v>
+      </c>
       <c r="F32" s="25" t="s">
         <v>136</v>
       </c>
       <c r="G32" s="25" t="s">
         <v>136</v>
       </c>
-      <c r="H32" s="25" t="s">
+      <c r="H32" s="74" t="s">
         <v>136</v>
       </c>
       <c r="I32" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="J32" s="25" t="s">
-        <v>505</v>
-      </c>
-      <c r="K32" s="25"/>
-      <c r="L32" s="25"/>
-    </row>
-    <row r="33" spans="1:12">
-      <c r="A33" s="69"/>
-      <c r="B33" s="69"/>
-      <c r="C33" s="73"/>
-      <c r="D33" s="25" t="s">
-        <v>183</v>
-      </c>
-      <c r="E33" s="20" t="s">
+        <v>489</v>
+      </c>
+      <c r="J32" s="25"/>
+      <c r="K32" s="81"/>
+    </row>
+    <row r="33" spans="1:11">
+      <c r="A33" s="84"/>
+      <c r="B33" s="88"/>
+      <c r="C33" s="25" t="s">
+        <v>172</v>
+      </c>
+      <c r="D33" s="20" t="s">
         <v>120</v>
       </c>
+      <c r="E33" s="25" t="s">
+        <v>136</v>
+      </c>
       <c r="F33" s="25" t="s">
         <v>136</v>
       </c>
       <c r="G33" s="25" t="s">
         <v>136</v>
       </c>
-      <c r="H33" s="25" t="s">
+      <c r="H33" s="74" t="s">
         <v>136</v>
       </c>
       <c r="I33" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="J33" s="25" t="s">
-        <v>505</v>
-      </c>
-      <c r="K33" s="25"/>
-      <c r="L33" s="25"/>
-    </row>
-    <row r="34" spans="1:12">
+        <v>489</v>
+      </c>
+      <c r="J33" s="25"/>
+      <c r="K33" s="81"/>
+    </row>
+    <row r="34" spans="1:11">
       <c r="A34" s="37"/>
       <c r="B34" s="37"/>
-      <c r="C34" s="37"/>
+      <c r="C34" s="25"/>
       <c r="D34" s="25"/>
       <c r="E34" s="25"/>
       <c r="F34" s="25"/>
       <c r="G34" s="25"/>
-      <c r="H34" s="25"/>
+      <c r="H34" s="74"/>
       <c r="I34" s="25"/>
       <c r="J34" s="25"/>
     </row>
-    <row r="35" spans="1:12">
-      <c r="A35" s="69" t="s">
-        <v>223</v>
-      </c>
-      <c r="B35" s="69" t="s">
+    <row r="35" spans="1:11">
+      <c r="A35" s="85" t="s">
+        <v>666</v>
+      </c>
+      <c r="B35" s="86" t="s">
+        <v>211</v>
+      </c>
+      <c r="C35" s="25" t="s">
+        <v>218</v>
+      </c>
+      <c r="D35" s="29" t="s">
         <v>177</v>
       </c>
-      <c r="C35" s="71" t="s">
-        <v>222</v>
-      </c>
-      <c r="D35" s="25" t="s">
-        <v>232</v>
-      </c>
-      <c r="E35" s="29" t="s">
-        <v>188</v>
+      <c r="E35" s="25" t="s">
+        <v>136</v>
       </c>
       <c r="F35" s="25" t="s">
         <v>136</v>
@@ -3717,25 +3812,25 @@
       <c r="G35" s="25" t="s">
         <v>136</v>
       </c>
-      <c r="H35" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="I35" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="J35" s="30" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12">
-      <c r="A36" s="69"/>
-      <c r="B36" s="69"/>
-      <c r="C36" s="72"/>
-      <c r="D36" s="25" t="s">
-        <v>167</v>
-      </c>
-      <c r="E36" s="29" t="s">
-        <v>190</v>
+      <c r="H35" s="74" t="s">
+        <v>136</v>
+      </c>
+      <c r="I35" s="30" t="s">
+        <v>490</v>
+      </c>
+      <c r="J35" s="25"/>
+    </row>
+    <row r="36" spans="1:11">
+      <c r="A36" s="84"/>
+      <c r="B36" s="87"/>
+      <c r="C36" s="25" t="s">
+        <v>162</v>
+      </c>
+      <c r="D36" s="29" t="s">
+        <v>179</v>
+      </c>
+      <c r="E36" s="25" t="s">
+        <v>136</v>
       </c>
       <c r="F36" s="25" t="s">
         <v>136</v>
@@ -3743,25 +3838,25 @@
       <c r="G36" s="25" t="s">
         <v>136</v>
       </c>
-      <c r="H36" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="I36" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="J36" s="30" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12">
-      <c r="A37" s="69"/>
-      <c r="B37" s="69"/>
-      <c r="C37" s="72"/>
-      <c r="D37" s="25" t="s">
-        <v>168</v>
-      </c>
-      <c r="E37" s="29" t="s">
-        <v>192</v>
+      <c r="H36" s="74" t="s">
+        <v>136</v>
+      </c>
+      <c r="I36" s="30" t="s">
+        <v>490</v>
+      </c>
+      <c r="J36" s="25"/>
+    </row>
+    <row r="37" spans="1:11">
+      <c r="A37" s="84"/>
+      <c r="B37" s="87"/>
+      <c r="C37" s="25" t="s">
+        <v>163</v>
+      </c>
+      <c r="D37" s="29" t="s">
+        <v>181</v>
+      </c>
+      <c r="E37" s="25" t="s">
+        <v>136</v>
       </c>
       <c r="F37" s="25" t="s">
         <v>136</v>
@@ -3769,25 +3864,25 @@
       <c r="G37" s="25" t="s">
         <v>136</v>
       </c>
-      <c r="H37" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="I37" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="J37" s="30" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12">
-      <c r="A38" s="69"/>
-      <c r="B38" s="69"/>
-      <c r="C38" s="72"/>
-      <c r="D38" s="25" t="s">
-        <v>233</v>
-      </c>
-      <c r="E38" s="29" t="s">
-        <v>193</v>
+      <c r="H37" s="74" t="s">
+        <v>136</v>
+      </c>
+      <c r="I37" s="30" t="s">
+        <v>490</v>
+      </c>
+      <c r="J37" s="25"/>
+    </row>
+    <row r="38" spans="1:11">
+      <c r="A38" s="84"/>
+      <c r="B38" s="87"/>
+      <c r="C38" s="25" t="s">
+        <v>219</v>
+      </c>
+      <c r="D38" s="29" t="s">
+        <v>182</v>
+      </c>
+      <c r="E38" s="25" t="s">
+        <v>136</v>
       </c>
       <c r="F38" s="25" t="s">
         <v>136</v>
@@ -3795,25 +3890,25 @@
       <c r="G38" s="25" t="s">
         <v>136</v>
       </c>
-      <c r="H38" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="I38" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="J38" s="30" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12">
-      <c r="A39" s="69"/>
-      <c r="B39" s="69"/>
-      <c r="C39" s="73"/>
-      <c r="D39" s="25" t="s">
-        <v>234</v>
-      </c>
-      <c r="E39" s="29" t="s">
-        <v>194</v>
+      <c r="H38" s="74" t="s">
+        <v>136</v>
+      </c>
+      <c r="I38" s="30" t="s">
+        <v>490</v>
+      </c>
+      <c r="J38" s="25"/>
+    </row>
+    <row r="39" spans="1:11">
+      <c r="A39" s="84"/>
+      <c r="B39" s="88"/>
+      <c r="C39" s="25" t="s">
+        <v>220</v>
+      </c>
+      <c r="D39" s="29" t="s">
+        <v>183</v>
+      </c>
+      <c r="E39" s="25" t="s">
+        <v>136</v>
       </c>
       <c r="F39" s="25" t="s">
         <v>136</v>
@@ -3821,43 +3916,41 @@
       <c r="G39" s="25" t="s">
         <v>136</v>
       </c>
-      <c r="H39" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="I39" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="J39" s="30" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12">
+      <c r="H39" s="74" t="s">
+        <v>136</v>
+      </c>
+      <c r="I39" s="30" t="s">
+        <v>490</v>
+      </c>
+      <c r="J39" s="25"/>
+    </row>
+    <row r="40" spans="1:11">
       <c r="A40" s="37"/>
       <c r="B40" s="37"/>
-      <c r="C40" s="37"/>
+      <c r="C40" s="25"/>
       <c r="D40" s="25"/>
       <c r="E40" s="25"/>
       <c r="F40" s="25"/>
       <c r="G40" s="25"/>
-      <c r="H40" s="25"/>
+      <c r="H40" s="74"/>
       <c r="I40" s="25"/>
       <c r="J40" s="25"/>
     </row>
-    <row r="41" spans="1:12">
-      <c r="A41" s="69" t="s">
-        <v>230</v>
-      </c>
-      <c r="B41" s="70" t="s">
-        <v>425</v>
-      </c>
-      <c r="C41" s="71" t="s">
-        <v>224</v>
-      </c>
-      <c r="D41" s="25" t="s">
-        <v>235</v>
-      </c>
-      <c r="E41" s="31" t="s">
-        <v>225</v>
+    <row r="41" spans="1:11">
+      <c r="A41" s="85" t="s">
+        <v>409</v>
+      </c>
+      <c r="B41" s="86" t="s">
+        <v>212</v>
+      </c>
+      <c r="C41" s="25" t="s">
+        <v>221</v>
+      </c>
+      <c r="D41" s="31" t="s">
+        <v>213</v>
+      </c>
+      <c r="E41" s="25" t="s">
+        <v>136</v>
       </c>
       <c r="F41" s="25" t="s">
         <v>136</v>
@@ -3865,25 +3958,25 @@
       <c r="G41" s="25" t="s">
         <v>136</v>
       </c>
-      <c r="H41" s="25" t="s">
+      <c r="H41" s="74" t="s">
         <v>136</v>
       </c>
       <c r="I41" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="J41" s="34" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12">
-      <c r="A42" s="69"/>
-      <c r="B42" s="69"/>
-      <c r="C42" s="72"/>
-      <c r="D42" s="25" t="s">
-        <v>236</v>
-      </c>
-      <c r="E42" s="31" t="s">
-        <v>226</v>
+        <v>338</v>
+      </c>
+      <c r="J41" s="25"/>
+    </row>
+    <row r="42" spans="1:11">
+      <c r="A42" s="84"/>
+      <c r="B42" s="87"/>
+      <c r="C42" s="25" t="s">
+        <v>222</v>
+      </c>
+      <c r="D42" s="31" t="s">
+        <v>214</v>
+      </c>
+      <c r="E42" s="25" t="s">
+        <v>136</v>
       </c>
       <c r="F42" s="25" t="s">
         <v>136</v>
@@ -3891,25 +3984,25 @@
       <c r="G42" s="25" t="s">
         <v>136</v>
       </c>
-      <c r="H42" s="25" t="s">
+      <c r="H42" s="74" t="s">
         <v>136</v>
       </c>
       <c r="I42" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="J42" s="34" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12">
-      <c r="A43" s="69"/>
-      <c r="B43" s="69"/>
-      <c r="C43" s="72"/>
-      <c r="D43" s="25" t="s">
-        <v>237</v>
-      </c>
-      <c r="E43" s="31" t="s">
-        <v>227</v>
+        <v>338</v>
+      </c>
+      <c r="J42" s="25"/>
+    </row>
+    <row r="43" spans="1:11">
+      <c r="A43" s="84"/>
+      <c r="B43" s="87"/>
+      <c r="C43" s="25" t="s">
+        <v>223</v>
+      </c>
+      <c r="D43" s="31" t="s">
+        <v>215</v>
+      </c>
+      <c r="E43" s="25" t="s">
+        <v>136</v>
       </c>
       <c r="F43" s="25" t="s">
         <v>136</v>
@@ -3917,25 +4010,25 @@
       <c r="G43" s="25" t="s">
         <v>136</v>
       </c>
-      <c r="H43" s="25" t="s">
+      <c r="H43" s="74" t="s">
         <v>136</v>
       </c>
       <c r="I43" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="J43" s="34" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12">
-      <c r="A44" s="69"/>
-      <c r="B44" s="69"/>
-      <c r="C44" s="72"/>
-      <c r="D44" s="25" t="s">
+        <v>338</v>
+      </c>
+      <c r="J43" s="25"/>
+    </row>
+    <row r="44" spans="1:11">
+      <c r="A44" s="84"/>
+      <c r="B44" s="87"/>
+      <c r="C44" s="25" t="s">
         <v>131</v>
       </c>
-      <c r="E44" s="31" t="s">
-        <v>228</v>
+      <c r="D44" s="31" t="s">
+        <v>216</v>
+      </c>
+      <c r="E44" s="25" t="s">
+        <v>136</v>
       </c>
       <c r="F44" s="25" t="s">
         <v>136</v>
@@ -3943,25 +4036,25 @@
       <c r="G44" s="25" t="s">
         <v>136</v>
       </c>
-      <c r="H44" s="25" t="s">
+      <c r="H44" s="74" t="s">
         <v>136</v>
       </c>
       <c r="I44" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="J44" s="34" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12">
-      <c r="A45" s="69"/>
-      <c r="B45" s="69"/>
-      <c r="C45" s="73"/>
-      <c r="D45" s="32" t="s">
+        <v>338</v>
+      </c>
+      <c r="J44" s="25"/>
+    </row>
+    <row r="45" spans="1:11">
+      <c r="A45" s="84"/>
+      <c r="B45" s="88"/>
+      <c r="C45" s="32" t="s">
         <v>132</v>
       </c>
-      <c r="E45" s="33" t="s">
-        <v>229</v>
+      <c r="D45" s="33" t="s">
+        <v>217</v>
+      </c>
+      <c r="E45" s="32" t="s">
+        <v>136</v>
       </c>
       <c r="F45" s="32" t="s">
         <v>136</v>
@@ -3969,971 +4062,999 @@
       <c r="G45" s="32" t="s">
         <v>136</v>
       </c>
-      <c r="H45" s="32" t="s">
-        <v>136</v>
-      </c>
-      <c r="I45" s="32" t="s">
-        <v>136</v>
-      </c>
-      <c r="J45" s="34" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12" s="25" customFormat="1">
+      <c r="H45" s="76" t="s">
+        <v>136</v>
+      </c>
+      <c r="I45" s="25" t="s">
+        <v>338</v>
+      </c>
+      <c r="J45" s="25"/>
+    </row>
+    <row r="46" spans="1:11" s="25" customFormat="1">
       <c r="A46" s="37"/>
       <c r="B46" s="37"/>
-      <c r="C46" s="37"/>
-    </row>
-    <row r="47" spans="1:12">
-      <c r="A47" s="69" t="s">
-        <v>230</v>
-      </c>
-      <c r="B47" s="70" t="s">
+      <c r="H46" s="74"/>
+      <c r="K46" s="81"/>
+    </row>
+    <row r="47" spans="1:11">
+      <c r="A47" s="85" t="s">
+        <v>409</v>
+      </c>
+      <c r="B47" s="89" t="s">
+        <v>249</v>
+      </c>
+      <c r="C47" s="34"/>
+      <c r="D47" s="35" t="s">
+        <v>245</v>
+      </c>
+      <c r="E47" s="34" t="s">
+        <v>136</v>
+      </c>
+      <c r="F47" s="34" t="s">
+        <v>136</v>
+      </c>
+      <c r="G47" s="34" t="s">
+        <v>136</v>
+      </c>
+      <c r="H47" s="77" t="s">
+        <v>136</v>
+      </c>
+      <c r="I47" s="25" t="s">
+        <v>338</v>
+      </c>
+      <c r="J47" s="25"/>
+    </row>
+    <row r="48" spans="1:11">
+      <c r="A48" s="84"/>
+      <c r="B48" s="90"/>
+      <c r="C48" s="25"/>
+      <c r="D48" s="31" t="s">
+        <v>246</v>
+      </c>
+      <c r="E48" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="F48" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="G48" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="H48" s="74" t="s">
+        <v>136</v>
+      </c>
+      <c r="I48" s="25" t="s">
+        <v>338</v>
+      </c>
+      <c r="J48" s="25"/>
+    </row>
+    <row r="49" spans="1:10">
+      <c r="A49" s="84"/>
+      <c r="B49" s="90"/>
+      <c r="C49" s="25"/>
+      <c r="D49" s="31" t="s">
+        <v>247</v>
+      </c>
+      <c r="E49" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="F49" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="G49" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="H49" s="74" t="s">
+        <v>136</v>
+      </c>
+      <c r="I49" s="25" t="s">
+        <v>338</v>
+      </c>
+      <c r="J49" s="25"/>
+    </row>
+    <row r="50" spans="1:10">
+      <c r="A50" s="84"/>
+      <c r="B50" s="90"/>
+      <c r="C50" s="25"/>
+      <c r="D50" s="31" t="s">
+        <v>248</v>
+      </c>
+      <c r="E50" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="F50" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="G50" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="H50" s="74" t="s">
+        <v>136</v>
+      </c>
+      <c r="I50" s="25" t="s">
+        <v>338</v>
+      </c>
+      <c r="J50" s="25"/>
+    </row>
+    <row r="51" spans="1:10">
+      <c r="A51" s="85" t="s">
+        <v>408</v>
+      </c>
+      <c r="B51" s="90"/>
+      <c r="C51" s="25"/>
+      <c r="D51" s="20" t="s">
+        <v>255</v>
+      </c>
+      <c r="E51" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="F51" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="G51" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="H51" s="74" t="s">
+        <v>136</v>
+      </c>
+      <c r="I51" s="25" t="s">
+        <v>339</v>
+      </c>
+      <c r="J51" s="25"/>
+    </row>
+    <row r="52" spans="1:10">
+      <c r="A52" s="84"/>
+      <c r="B52" s="90"/>
+      <c r="C52" s="25"/>
+      <c r="D52" s="20" t="s">
+        <v>256</v>
+      </c>
+      <c r="E52" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="F52" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="G52" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="H52" s="74" t="s">
+        <v>136</v>
+      </c>
+      <c r="I52" s="25" t="s">
+        <v>339</v>
+      </c>
+      <c r="J52" s="25"/>
+    </row>
+    <row r="53" spans="1:10">
+      <c r="A53" s="84"/>
+      <c r="B53" s="90"/>
+      <c r="C53" s="25"/>
+      <c r="D53" s="20" t="s">
+        <v>257</v>
+      </c>
+      <c r="E53" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="F53" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="G53" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="H53" s="74" t="s">
+        <v>136</v>
+      </c>
+      <c r="I53" s="25" t="s">
+        <v>339</v>
+      </c>
+      <c r="J53" s="25"/>
+    </row>
+    <row r="54" spans="1:10">
+      <c r="A54" s="84"/>
+      <c r="B54" s="90"/>
+      <c r="C54" s="25"/>
+      <c r="D54" s="20" t="s">
+        <v>258</v>
+      </c>
+      <c r="E54" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="F54" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="G54" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="H54" s="74" t="s">
+        <v>136</v>
+      </c>
+      <c r="I54" s="25" t="s">
+        <v>339</v>
+      </c>
+      <c r="J54" s="25"/>
+    </row>
+    <row r="55" spans="1:10">
+      <c r="A55" s="84"/>
+      <c r="B55" s="91"/>
+      <c r="C55" s="25"/>
+      <c r="D55" s="20" t="s">
+        <v>259</v>
+      </c>
+      <c r="E55" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="F55" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="G55" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="H55" s="74" t="s">
+        <v>136</v>
+      </c>
+      <c r="I55" s="25" t="s">
+        <v>339</v>
+      </c>
+      <c r="J55" s="25"/>
+    </row>
+    <row r="56" spans="1:10">
+      <c r="I56" s="25"/>
+      <c r="J56" s="25"/>
+    </row>
+    <row r="57" spans="1:10" s="46" customFormat="1" ht="28.8">
+      <c r="A57" s="45" t="s">
+        <v>410</v>
+      </c>
+      <c r="B57" s="84" t="s">
+        <v>293</v>
+      </c>
+      <c r="C57" s="53" t="s">
+        <v>296</v>
+      </c>
+      <c r="D57" s="54" t="s">
+        <v>290</v>
+      </c>
+      <c r="E57" s="53" t="s">
+        <v>136</v>
+      </c>
+      <c r="F57" s="53" t="s">
+        <v>136</v>
+      </c>
+      <c r="G57" s="53" t="s">
+        <v>136</v>
+      </c>
+      <c r="H57" s="75" t="s">
+        <v>136</v>
+      </c>
+      <c r="I57" s="53" t="s">
+        <v>294</v>
+      </c>
+      <c r="J57" s="83"/>
+    </row>
+    <row r="58" spans="1:10">
+      <c r="A58" s="85" t="s">
+        <v>411</v>
+      </c>
+      <c r="B58" s="84"/>
+      <c r="C58" s="25" t="s">
+        <v>298</v>
+      </c>
+      <c r="D58" s="38" t="s">
+        <v>275</v>
+      </c>
+      <c r="E58" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="F58" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="G58" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="H58" s="74" t="s">
+        <v>136</v>
+      </c>
+      <c r="I58" s="25" t="s">
+        <v>295</v>
+      </c>
+      <c r="J58" s="25"/>
+    </row>
+    <row r="59" spans="1:10">
+      <c r="A59" s="84"/>
+      <c r="B59" s="84"/>
+      <c r="C59" s="25" t="s">
+        <v>297</v>
+      </c>
+      <c r="D59" s="31" t="s">
+        <v>278</v>
+      </c>
+      <c r="E59" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="F59" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="G59" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="H59" s="74" t="s">
+        <v>136</v>
+      </c>
+      <c r="I59" s="25" t="s">
+        <v>295</v>
+      </c>
+      <c r="J59" s="25"/>
+    </row>
+    <row r="60" spans="1:10">
+      <c r="A60" s="84"/>
+      <c r="B60" s="84"/>
+      <c r="C60" s="25" t="s">
+        <v>299</v>
+      </c>
+      <c r="D60" s="38" t="s">
+        <v>270</v>
+      </c>
+      <c r="E60" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="F60" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="G60" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="H60" s="74" t="s">
+        <v>136</v>
+      </c>
+      <c r="I60" s="25" t="s">
+        <v>295</v>
+      </c>
+      <c r="J60" s="25"/>
+    </row>
+    <row r="61" spans="1:10">
+      <c r="I61" s="25"/>
+      <c r="J61" s="25"/>
+    </row>
+    <row r="62" spans="1:10">
+      <c r="A62" s="85" t="s">
+        <v>412</v>
+      </c>
+      <c r="B62" s="84" t="s">
+        <v>300</v>
+      </c>
+      <c r="C62" s="25" t="s">
+        <v>335</v>
+      </c>
+      <c r="D62" s="39" t="s">
+        <v>301</v>
+      </c>
+      <c r="E62" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="F62" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="G62" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="H62" s="74" t="s">
+        <v>136</v>
+      </c>
+      <c r="I62" s="25" t="s">
+        <v>337</v>
+      </c>
+      <c r="J62" s="25"/>
+    </row>
+    <row r="63" spans="1:10">
+      <c r="A63" s="84"/>
+      <c r="B63" s="84"/>
+      <c r="C63" s="25" t="s">
+        <v>336</v>
+      </c>
+      <c r="D63" s="39" t="s">
+        <v>302</v>
+      </c>
+      <c r="E63" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="F63" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="G63" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="H63" s="74" t="s">
+        <v>136</v>
+      </c>
+      <c r="I63" s="25" t="s">
+        <v>337</v>
+      </c>
+      <c r="J63" s="25"/>
+    </row>
+    <row r="64" spans="1:10">
+      <c r="A64" s="84"/>
+      <c r="B64" s="84"/>
+      <c r="C64" s="25" t="s">
+        <v>355</v>
+      </c>
+      <c r="D64" s="39" t="s">
+        <v>303</v>
+      </c>
+      <c r="E64" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="F64" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="G64" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="H64" s="74" t="s">
+        <v>136</v>
+      </c>
+      <c r="I64" s="25" t="s">
+        <v>337</v>
+      </c>
+      <c r="J64" s="25"/>
+    </row>
+    <row r="65" spans="1:10">
+      <c r="A65" s="84"/>
+      <c r="B65" s="84"/>
+      <c r="C65" s="25" t="s">
+        <v>356</v>
+      </c>
+      <c r="D65" s="39" t="s">
+        <v>304</v>
+      </c>
+      <c r="E65" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="F65" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="G65" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="H65" s="74" t="s">
+        <v>136</v>
+      </c>
+      <c r="I65" s="25" t="s">
+        <v>337</v>
+      </c>
+      <c r="J65" s="25"/>
+    </row>
+    <row r="66" spans="1:10">
+      <c r="A66" s="84"/>
+      <c r="B66" s="84"/>
+      <c r="C66" s="25" t="s">
+        <v>364</v>
+      </c>
+      <c r="D66" s="39" t="s">
+        <v>305</v>
+      </c>
+      <c r="E66" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="F66" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="G66" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="H66" s="74" t="s">
+        <v>136</v>
+      </c>
+      <c r="I66" s="25" t="s">
+        <v>337</v>
+      </c>
+      <c r="J66" s="25"/>
+    </row>
+    <row r="67" spans="1:10">
+      <c r="A67" s="84"/>
+      <c r="B67" s="84"/>
+      <c r="C67" s="25" t="s">
+        <v>365</v>
+      </c>
+      <c r="D67" s="39" t="s">
+        <v>306</v>
+      </c>
+      <c r="E67" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="F67" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="G67" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="H67" s="74" t="s">
+        <v>136</v>
+      </c>
+      <c r="I67" s="25" t="s">
+        <v>337</v>
+      </c>
+      <c r="J67" s="25"/>
+    </row>
+    <row r="68" spans="1:10">
+      <c r="A68" s="84"/>
+      <c r="B68" s="84"/>
+      <c r="C68" s="25" t="s">
+        <v>366</v>
+      </c>
+      <c r="D68" s="39" t="s">
+        <v>307</v>
+      </c>
+      <c r="E68" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="F68" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="G68" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="H68" s="74" t="s">
+        <v>136</v>
+      </c>
+      <c r="I68" s="25" t="s">
+        <v>337</v>
+      </c>
+      <c r="J68" s="25"/>
+    </row>
+    <row r="69" spans="1:10">
+      <c r="A69" s="84"/>
+      <c r="B69" s="84"/>
+      <c r="C69" s="25" t="s">
+        <v>367</v>
+      </c>
+      <c r="D69" s="39" t="s">
+        <v>308</v>
+      </c>
+      <c r="E69" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="F69" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="G69" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="H69" s="74" t="s">
+        <v>136</v>
+      </c>
+      <c r="I69" s="25" t="s">
+        <v>337</v>
+      </c>
+      <c r="J69" s="25"/>
+    </row>
+    <row r="70" spans="1:10">
+      <c r="I70" s="25"/>
+      <c r="J70" s="25"/>
+    </row>
+    <row r="71" spans="1:10">
+      <c r="A71" s="85" t="s">
+        <v>413</v>
+      </c>
+      <c r="B71" s="84" t="s">
+        <v>400</v>
+      </c>
+      <c r="C71" s="25" t="s">
+        <v>401</v>
+      </c>
+      <c r="D71" s="44" t="s">
+        <v>369</v>
+      </c>
+      <c r="E71" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="F71" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="G71" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="H71" s="74" t="s">
+        <v>136</v>
+      </c>
+      <c r="I71" s="25" t="s">
+        <v>407</v>
+      </c>
+      <c r="J71" s="25"/>
+    </row>
+    <row r="72" spans="1:10">
+      <c r="A72" s="84"/>
+      <c r="B72" s="84"/>
+      <c r="C72" s="25" t="s">
+        <v>402</v>
+      </c>
+      <c r="D72" s="44" t="s">
+        <v>371</v>
+      </c>
+      <c r="E72" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="F72" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="G72" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="H72" s="74" t="s">
+        <v>136</v>
+      </c>
+      <c r="I72" s="25" t="s">
+        <v>407</v>
+      </c>
+      <c r="J72" s="25"/>
+    </row>
+    <row r="73" spans="1:10">
+      <c r="A73" s="84"/>
+      <c r="B73" s="84"/>
+      <c r="C73" s="25" t="s">
+        <v>403</v>
+      </c>
+      <c r="D73" s="44" t="s">
+        <v>373</v>
+      </c>
+      <c r="E73" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="F73" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="G73" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="H73" s="74" t="s">
+        <v>136</v>
+      </c>
+      <c r="I73" s="25" t="s">
+        <v>407</v>
+      </c>
+      <c r="J73" s="25"/>
+    </row>
+    <row r="74" spans="1:10">
+      <c r="A74" s="84"/>
+      <c r="B74" s="84"/>
+      <c r="C74" s="25" t="s">
+        <v>404</v>
+      </c>
+      <c r="D74" s="44" t="s">
+        <v>374</v>
+      </c>
+      <c r="E74" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="F74" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="G74" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="H74" s="74" t="s">
+        <v>136</v>
+      </c>
+      <c r="I74" s="25" t="s">
+        <v>407</v>
+      </c>
+      <c r="J74" s="25"/>
+    </row>
+    <row r="75" spans="1:10">
+      <c r="A75" s="84"/>
+      <c r="B75" s="84"/>
+      <c r="C75" s="25" t="s">
+        <v>405</v>
+      </c>
+      <c r="D75" s="44" t="s">
+        <v>375</v>
+      </c>
+      <c r="E75" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="F75" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="G75" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="H75" s="74" t="s">
+        <v>136</v>
+      </c>
+      <c r="I75" s="25" t="s">
+        <v>407</v>
+      </c>
+      <c r="J75" s="25"/>
+    </row>
+    <row r="76" spans="1:10">
+      <c r="A76" s="84"/>
+      <c r="B76" s="84"/>
+      <c r="C76" s="25" t="s">
+        <v>406</v>
+      </c>
+      <c r="D76" s="44" t="s">
+        <v>376</v>
+      </c>
+      <c r="E76" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="F76" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="G76" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="H76" s="74" t="s">
+        <v>136</v>
+      </c>
+      <c r="I76" s="25" t="s">
+        <v>407</v>
+      </c>
+      <c r="J76" s="25"/>
+    </row>
+    <row r="77" spans="1:10">
+      <c r="I77" s="25"/>
+      <c r="J77" s="25"/>
+    </row>
+    <row r="78" spans="1:10">
+      <c r="A78" s="85" t="s">
+        <v>413</v>
+      </c>
+      <c r="B78" s="84" t="s">
+        <v>424</v>
+      </c>
+      <c r="C78" s="25" t="s">
         <v>425</v>
       </c>
-      <c r="C47" s="74" t="s">
-        <v>263</v>
-      </c>
-      <c r="D47" s="34"/>
-      <c r="E47" s="35" t="s">
-        <v>259</v>
-      </c>
-      <c r="F47" s="34" t="s">
-        <v>136</v>
-      </c>
-      <c r="G47" s="34" t="s">
-        <v>136</v>
-      </c>
-      <c r="H47" s="34" t="s">
-        <v>136</v>
-      </c>
-      <c r="I47" s="34" t="s">
-        <v>136</v>
-      </c>
-      <c r="J47" s="34" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12">
-      <c r="A48" s="69"/>
-      <c r="B48" s="69"/>
-      <c r="C48" s="75"/>
-      <c r="D48" s="25"/>
-      <c r="E48" s="31" t="s">
-        <v>260</v>
-      </c>
-      <c r="F48" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="G48" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="H48" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="I48" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="J48" s="34" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10">
-      <c r="A49" s="69"/>
-      <c r="B49" s="69"/>
-      <c r="C49" s="75"/>
-      <c r="D49" s="25"/>
-      <c r="E49" s="31" t="s">
-        <v>261</v>
-      </c>
-      <c r="F49" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="G49" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="H49" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="I49" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="J49" s="34" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10">
-      <c r="A50" s="69"/>
-      <c r="B50" s="69"/>
-      <c r="C50" s="75"/>
-      <c r="D50" s="25"/>
-      <c r="E50" s="31" t="s">
-        <v>262</v>
-      </c>
-      <c r="F50" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="G50" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="H50" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="I50" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="J50" s="34" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10">
-      <c r="A51" s="69" t="s">
-        <v>264</v>
-      </c>
-      <c r="B51" s="70" t="s">
-        <v>424</v>
-      </c>
-      <c r="C51" s="75"/>
-      <c r="D51" s="25"/>
-      <c r="E51" s="20" t="s">
-        <v>270</v>
-      </c>
-      <c r="F51" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="G51" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="H51" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="I51" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="J51" s="25" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10">
-      <c r="A52" s="69"/>
-      <c r="B52" s="69"/>
-      <c r="C52" s="75"/>
-      <c r="D52" s="25"/>
-      <c r="E52" s="20" t="s">
-        <v>271</v>
-      </c>
-      <c r="F52" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="G52" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="H52" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="I52" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="J52" s="25" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10">
-      <c r="A53" s="69"/>
-      <c r="B53" s="69"/>
-      <c r="C53" s="75"/>
-      <c r="D53" s="25"/>
-      <c r="E53" s="20" t="s">
-        <v>272</v>
-      </c>
-      <c r="F53" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="G53" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="H53" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="I53" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="J53" s="25" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10">
-      <c r="A54" s="69"/>
-      <c r="B54" s="69"/>
-      <c r="C54" s="75"/>
-      <c r="D54" s="25"/>
-      <c r="E54" s="20" t="s">
-        <v>273</v>
-      </c>
-      <c r="F54" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="G54" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="H54" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="I54" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="J54" s="25" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10">
-      <c r="A55" s="69"/>
-      <c r="B55" s="69"/>
-      <c r="C55" s="76"/>
-      <c r="D55" s="25"/>
-      <c r="E55" s="20" t="s">
-        <v>274</v>
-      </c>
-      <c r="F55" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="G55" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="H55" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="I55" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="J55" s="25" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10" s="46" customFormat="1" ht="28.8">
-      <c r="A57" s="69" t="s">
-        <v>309</v>
-      </c>
-      <c r="B57" s="45" t="s">
+      <c r="D78" s="50" t="s">
+        <v>377</v>
+      </c>
+      <c r="E78" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="F78" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="G78" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="H78" s="74" t="s">
+        <v>136</v>
+      </c>
+      <c r="I78" s="25" t="s">
+        <v>407</v>
+      </c>
+      <c r="J78" s="25"/>
+    </row>
+    <row r="79" spans="1:10">
+      <c r="A79" s="84"/>
+      <c r="B79" s="84"/>
+      <c r="C79" s="25" t="s">
         <v>426</v>
       </c>
-      <c r="C57" s="69" t="s">
-        <v>308</v>
-      </c>
-      <c r="D57" s="54" t="s">
-        <v>312</v>
-      </c>
-      <c r="E57" s="55" t="s">
-        <v>305</v>
-      </c>
-      <c r="F57" s="54" t="s">
-        <v>136</v>
-      </c>
-      <c r="G57" s="54" t="s">
-        <v>136</v>
-      </c>
-      <c r="H57" s="54" t="s">
-        <v>136</v>
-      </c>
-      <c r="I57" s="54" t="s">
-        <v>136</v>
-      </c>
-      <c r="J57" s="54" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10">
-      <c r="A58" s="69"/>
-      <c r="B58" s="70" t="s">
+      <c r="D79" s="50" t="s">
+        <v>378</v>
+      </c>
+      <c r="E79" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="F79" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="G79" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="H79" s="74" t="s">
+        <v>136</v>
+      </c>
+      <c r="I79" s="25" t="s">
+        <v>407</v>
+      </c>
+      <c r="J79" s="25"/>
+    </row>
+    <row r="80" spans="1:10">
+      <c r="A80" s="84"/>
+      <c r="B80" s="84"/>
+      <c r="C80" s="25" t="s">
         <v>427</v>
       </c>
-      <c r="C58" s="69"/>
-      <c r="D58" s="25" t="s">
-        <v>314</v>
-      </c>
-      <c r="E58" s="38" t="s">
-        <v>290</v>
-      </c>
-      <c r="F58" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="G58" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="H58" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="I58" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="J58" s="25" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10">
-      <c r="A59" s="69"/>
-      <c r="B59" s="69"/>
-      <c r="C59" s="69"/>
-      <c r="D59" s="25" t="s">
-        <v>313</v>
-      </c>
-      <c r="E59" s="31" t="s">
-        <v>293</v>
-      </c>
-      <c r="F59" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="G59" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="H59" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="I59" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="J59" s="25" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10">
-      <c r="A60" s="69"/>
-      <c r="B60" s="69"/>
-      <c r="C60" s="69"/>
-      <c r="D60" s="25" t="s">
-        <v>315</v>
-      </c>
-      <c r="E60" s="38" t="s">
-        <v>285</v>
-      </c>
-      <c r="F60" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="G60" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="H60" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="I60" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="J60" s="25" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10">
-      <c r="A62" s="69" t="s">
-        <v>230</v>
-      </c>
-      <c r="B62" s="70" t="s">
+      <c r="D80" s="50" t="s">
+        <v>416</v>
+      </c>
+      <c r="E80" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="F80" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="G80" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="H80" s="74" t="s">
+        <v>136</v>
+      </c>
+      <c r="I80" s="25" t="s">
+        <v>407</v>
+      </c>
+      <c r="J80" s="25"/>
+    </row>
+    <row r="81" spans="1:10" s="49" customFormat="1" ht="28.8">
+      <c r="A81" s="48" t="s">
+        <v>423</v>
+      </c>
+      <c r="B81" s="84"/>
+      <c r="C81" s="21" t="s">
         <v>428</v>
       </c>
-      <c r="C62" s="69" t="s">
-        <v>316</v>
-      </c>
-      <c r="D62" s="25" t="s">
-        <v>351</v>
-      </c>
-      <c r="E62" s="39" t="s">
-        <v>317</v>
-      </c>
-      <c r="F62" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="G62" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="H62" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="I62" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="J62" s="25" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10">
-      <c r="A63" s="69"/>
-      <c r="B63" s="69"/>
-      <c r="C63" s="69"/>
-      <c r="D63" s="25" t="s">
-        <v>352</v>
-      </c>
-      <c r="E63" s="39" t="s">
-        <v>318</v>
-      </c>
-      <c r="F63" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="G63" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="H63" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="I63" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="J63" s="25" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10">
-      <c r="A64" s="69"/>
-      <c r="B64" s="69"/>
-      <c r="C64" s="69"/>
-      <c r="D64" s="25" t="s">
-        <v>371</v>
-      </c>
-      <c r="E64" s="39" t="s">
-        <v>319</v>
-      </c>
-      <c r="F64" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="G64" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="H64" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="I64" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="J64" s="25" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="65" spans="1:10">
-      <c r="A65" s="69"/>
-      <c r="B65" s="69"/>
-      <c r="C65" s="69"/>
-      <c r="D65" s="25" t="s">
-        <v>372</v>
-      </c>
-      <c r="E65" s="39" t="s">
-        <v>320</v>
-      </c>
-      <c r="F65" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="G65" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="H65" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="I65" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="J65" s="25" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="66" spans="1:10">
-      <c r="A66" s="69"/>
-      <c r="B66" s="69"/>
-      <c r="C66" s="69"/>
-      <c r="D66" s="25" t="s">
-        <v>380</v>
-      </c>
-      <c r="E66" s="39" t="s">
-        <v>321</v>
-      </c>
-      <c r="F66" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="G66" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="H66" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="I66" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="J66" s="25" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="67" spans="1:10">
-      <c r="A67" s="69"/>
-      <c r="B67" s="69"/>
-      <c r="C67" s="69"/>
-      <c r="D67" s="25" t="s">
-        <v>381</v>
-      </c>
-      <c r="E67" s="39" t="s">
-        <v>322</v>
-      </c>
-      <c r="F67" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="G67" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="H67" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="I67" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="J67" s="25" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="68" spans="1:10">
-      <c r="A68" s="69"/>
-      <c r="B68" s="69"/>
-      <c r="C68" s="69"/>
-      <c r="D68" s="25" t="s">
-        <v>382</v>
-      </c>
-      <c r="E68" s="39" t="s">
-        <v>323</v>
-      </c>
-      <c r="F68" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="G68" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="H68" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="I68" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="J68" s="25" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="69" spans="1:10">
-      <c r="A69" s="69"/>
-      <c r="B69" s="69"/>
-      <c r="C69" s="69"/>
-      <c r="D69" s="25" t="s">
-        <v>383</v>
-      </c>
-      <c r="E69" s="39" t="s">
-        <v>324</v>
-      </c>
-      <c r="F69" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="G69" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="H69" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="I69" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="J69" s="25" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="71" spans="1:10">
-      <c r="B71" s="70" t="s">
+      <c r="D81" s="51" t="s">
+        <v>420</v>
+      </c>
+      <c r="E81" s="21" t="s">
+        <v>136</v>
+      </c>
+      <c r="F81" s="21" t="s">
+        <v>136</v>
+      </c>
+      <c r="G81" s="21" t="s">
+        <v>136</v>
+      </c>
+      <c r="H81" s="78" t="s">
+        <v>136</v>
+      </c>
+      <c r="I81" s="52" t="s">
+        <v>422</v>
+      </c>
+      <c r="J81" s="21"/>
+    </row>
+    <row r="82" spans="1:10">
+      <c r="I82" s="25"/>
+      <c r="J82" s="25"/>
+    </row>
+    <row r="83" spans="1:10">
+      <c r="A83" s="85" t="s">
+        <v>460</v>
+      </c>
+      <c r="B83" s="84" t="s">
+        <v>455</v>
+      </c>
+      <c r="C83" s="25" t="s">
+        <v>456</v>
+      </c>
+      <c r="D83" s="29" t="s">
         <v>429</v>
       </c>
-      <c r="C71" s="69" t="s">
-        <v>416</v>
-      </c>
-      <c r="D71" s="25" t="s">
-        <v>417</v>
-      </c>
-      <c r="E71" s="44" t="s">
-        <v>385</v>
-      </c>
-      <c r="F71" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="G71" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="H71" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="I71" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="J71" s="25" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="72" spans="1:10">
-      <c r="B72" s="69"/>
-      <c r="C72" s="69"/>
-      <c r="D72" s="25" t="s">
-        <v>418</v>
-      </c>
-      <c r="E72" s="44" t="s">
-        <v>387</v>
-      </c>
-      <c r="F72" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="G72" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="H72" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="I72" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="J72" s="25" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="73" spans="1:10">
-      <c r="B73" s="69"/>
-      <c r="C73" s="69"/>
-      <c r="D73" s="25" t="s">
-        <v>419</v>
-      </c>
-      <c r="E73" s="44" t="s">
-        <v>389</v>
-      </c>
-      <c r="F73" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="G73" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="H73" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="I73" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="J73" s="25" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="74" spans="1:10">
-      <c r="B74" s="69"/>
-      <c r="C74" s="69"/>
-      <c r="D74" s="25" t="s">
-        <v>420</v>
-      </c>
-      <c r="E74" s="44" t="s">
-        <v>390</v>
-      </c>
-      <c r="F74" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="G74" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="H74" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="I74" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="J74" s="25" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="75" spans="1:10">
-      <c r="B75" s="69"/>
-      <c r="C75" s="69"/>
-      <c r="D75" s="25" t="s">
-        <v>421</v>
-      </c>
-      <c r="E75" s="44" t="s">
-        <v>391</v>
-      </c>
-      <c r="F75" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="G75" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="H75" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="I75" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="J75" s="25" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="76" spans="1:10">
-      <c r="B76" s="69"/>
-      <c r="C76" s="69"/>
-      <c r="D76" s="25" t="s">
-        <v>422</v>
-      </c>
-      <c r="E76" s="44" t="s">
-        <v>392</v>
-      </c>
-      <c r="F76" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="G76" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="H76" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="I76" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="J76" s="25" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="78" spans="1:10">
-      <c r="B78" s="70" t="s">
-        <v>429</v>
-      </c>
-      <c r="C78" s="69" t="s">
-        <v>440</v>
-      </c>
-      <c r="D78" s="25" t="s">
-        <v>441</v>
-      </c>
-      <c r="E78" s="51" t="s">
-        <v>393</v>
-      </c>
-      <c r="F78" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="G78" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="H78" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="I78" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="J78" s="25" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="79" spans="1:10">
-      <c r="B79" s="69"/>
-      <c r="C79" s="69"/>
-      <c r="D79" s="25" t="s">
-        <v>442</v>
-      </c>
-      <c r="E79" s="51" t="s">
-        <v>394</v>
-      </c>
-      <c r="F79" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="G79" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="H79" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="I79" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="J79" s="25" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="80" spans="1:10">
-      <c r="B80" s="69"/>
-      <c r="C80" s="69"/>
-      <c r="D80" s="25" t="s">
-        <v>443</v>
-      </c>
-      <c r="E80" s="51" t="s">
+      <c r="E83" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="F83" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="G83" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="H83" s="74" t="s">
+        <v>136</v>
+      </c>
+      <c r="I83" s="25" t="s">
+        <v>454</v>
+      </c>
+      <c r="J83" s="25"/>
+    </row>
+    <row r="84" spans="1:10">
+      <c r="A84" s="84"/>
+      <c r="B84" s="84"/>
+      <c r="C84" s="25" t="s">
+        <v>457</v>
+      </c>
+      <c r="D84" s="29" t="s">
         <v>432</v>
       </c>
-      <c r="F80" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="G80" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="H80" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="I80" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="J80" s="25" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="81" spans="1:10" s="50" customFormat="1" ht="28.8">
-      <c r="A81" s="49"/>
-      <c r="B81" s="48" t="s">
-        <v>439</v>
-      </c>
-      <c r="C81" s="69"/>
-      <c r="D81" s="21" t="s">
-        <v>444</v>
-      </c>
-      <c r="E81" s="52" t="s">
+      <c r="E84" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="F84" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="G84" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="H84" s="74" t="s">
+        <v>136</v>
+      </c>
+      <c r="I84" s="25" t="s">
+        <v>454</v>
+      </c>
+      <c r="J84" s="25"/>
+    </row>
+    <row r="85" spans="1:10">
+      <c r="A85" s="84"/>
+      <c r="B85" s="84"/>
+      <c r="C85" s="25" t="s">
+        <v>458</v>
+      </c>
+      <c r="D85" s="29" t="s">
+        <v>433</v>
+      </c>
+      <c r="E85" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="F85" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="G85" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="H85" s="74" t="s">
+        <v>136</v>
+      </c>
+      <c r="I85" s="25" t="s">
+        <v>454</v>
+      </c>
+      <c r="J85" s="25"/>
+    </row>
+    <row r="86" spans="1:10">
+      <c r="A86" s="84"/>
+      <c r="B86" s="84"/>
+      <c r="C86" s="25" t="s">
+        <v>459</v>
+      </c>
+      <c r="D86" s="29" t="s">
+        <v>434</v>
+      </c>
+      <c r="E86" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="F86" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="G86" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="H86" s="74" t="s">
+        <v>136</v>
+      </c>
+      <c r="I86" s="25" t="s">
+        <v>454</v>
+      </c>
+      <c r="J86" s="25"/>
+    </row>
+    <row r="87" spans="1:10">
+      <c r="A87" s="84"/>
+      <c r="B87" s="84"/>
+      <c r="C87" s="25" t="s">
+        <v>466</v>
+      </c>
+      <c r="D87" s="29" t="s">
+        <v>435</v>
+      </c>
+      <c r="E87" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="F87" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="G87" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="H87" s="74" t="s">
+        <v>136</v>
+      </c>
+      <c r="I87" s="25" t="s">
+        <v>454</v>
+      </c>
+      <c r="J87" s="25"/>
+    </row>
+    <row r="88" spans="1:10">
+      <c r="A88" s="84"/>
+      <c r="B88" s="84"/>
+      <c r="C88" s="25" t="s">
+        <v>467</v>
+      </c>
+      <c r="D88" s="29" t="s">
         <v>436</v>
       </c>
-      <c r="F81" s="21" t="s">
-        <v>136</v>
-      </c>
-      <c r="G81" s="21" t="s">
-        <v>136</v>
-      </c>
-      <c r="H81" s="21" t="s">
-        <v>136</v>
-      </c>
-      <c r="I81" s="21" t="s">
-        <v>136</v>
-      </c>
-      <c r="J81" s="53" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="83" spans="1:10">
-      <c r="B83" s="70" t="s">
-        <v>476</v>
-      </c>
-      <c r="C83" s="69" t="s">
-        <v>471</v>
-      </c>
-      <c r="D83" s="25" t="s">
-        <v>472</v>
-      </c>
-      <c r="E83" s="29" t="s">
-        <v>445</v>
-      </c>
-      <c r="F83" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="G83" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="H83" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="I83" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="J83" s="25" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="84" spans="1:10">
-      <c r="B84" s="69"/>
-      <c r="C84" s="69"/>
-      <c r="D84" s="25" t="s">
-        <v>473</v>
-      </c>
-      <c r="E84" s="29" t="s">
-        <v>448</v>
-      </c>
-      <c r="F84" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="G84" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="H84" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="I84" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="J84" s="25" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="85" spans="1:10">
-      <c r="B85" s="69"/>
-      <c r="C85" s="69"/>
-      <c r="D85" s="25" t="s">
-        <v>474</v>
-      </c>
-      <c r="E85" s="29" t="s">
-        <v>449</v>
-      </c>
-      <c r="F85" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="G85" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="H85" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="I85" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="J85" s="25" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="86" spans="1:10">
-      <c r="B86" s="69"/>
-      <c r="C86" s="69"/>
-      <c r="D86" s="25" t="s">
-        <v>475</v>
-      </c>
-      <c r="E86" s="29" t="s">
-        <v>450</v>
-      </c>
-      <c r="F86" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="G86" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="H86" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="I86" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="J86" s="25" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="87" spans="1:10">
-      <c r="B87" s="69"/>
-      <c r="C87" s="69"/>
-      <c r="D87" s="25" t="s">
-        <v>482</v>
-      </c>
-      <c r="E87" s="29" t="s">
-        <v>451</v>
-      </c>
-      <c r="F87" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="G87" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="H87" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="I87" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="J87" s="25" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="88" spans="1:10">
-      <c r="B88" s="69"/>
-      <c r="C88" s="69"/>
-      <c r="D88" s="25" t="s">
-        <v>483</v>
-      </c>
-      <c r="E88" s="29" t="s">
-        <v>452</v>
+      <c r="E88" s="25" t="s">
+        <v>136</v>
       </c>
       <c r="F88" s="25" t="s">
         <v>136</v>
@@ -4941,164 +5062,171 @@
       <c r="G88" s="25" t="s">
         <v>136</v>
       </c>
-      <c r="H88" s="25" t="s">
+      <c r="H88" s="74" t="s">
         <v>136</v>
       </c>
       <c r="I88" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="J88" s="25" t="s">
-        <v>470</v>
-      </c>
+        <v>454</v>
+      </c>
+      <c r="J88" s="25"/>
     </row>
     <row r="89" spans="1:10">
-      <c r="B89" s="61"/>
-      <c r="C89" s="61"/>
+      <c r="A89" s="60"/>
+      <c r="B89" s="60"/>
+      <c r="C89" s="25"/>
       <c r="D89" s="25"/>
       <c r="E89" s="25"/>
       <c r="F89" s="25"/>
       <c r="G89" s="25"/>
-      <c r="H89" s="25"/>
+      <c r="H89" s="74"/>
       <c r="I89" s="25"/>
       <c r="J89" s="25"/>
     </row>
     <row r="90" spans="1:10">
-      <c r="B90" s="69" t="s">
-        <v>586</v>
-      </c>
-      <c r="C90" s="69" t="s">
-        <v>585</v>
-      </c>
-      <c r="D90" s="21" t="s">
+      <c r="A90" s="84" t="s">
+        <v>570</v>
+      </c>
+      <c r="B90" s="84" t="s">
+        <v>569</v>
+      </c>
+      <c r="C90" s="21" t="s">
         <v>145</v>
       </c>
-      <c r="E90" s="62" t="s">
+      <c r="D90" s="61" t="s">
         <v>138</v>
       </c>
+      <c r="E90" s="25" t="s">
+        <v>564</v>
+      </c>
       <c r="F90" s="25" t="s">
-        <v>580</v>
+        <v>564</v>
       </c>
       <c r="G90" s="25" t="s">
-        <v>580</v>
-      </c>
-      <c r="H90" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="H90" s="74" t="s">
         <v>136</v>
       </c>
       <c r="I90" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="J90" s="25" t="s">
-        <v>502</v>
-      </c>
+        <v>486</v>
+      </c>
+      <c r="J90" s="25"/>
     </row>
     <row r="91" spans="1:10">
-      <c r="B91" s="69"/>
-      <c r="C91" s="69"/>
-      <c r="D91" s="25" t="s">
+      <c r="A91" s="84"/>
+      <c r="B91" s="84"/>
+      <c r="C91" s="25" t="s">
         <v>146</v>
       </c>
-      <c r="E91" s="62" t="s">
+      <c r="D91" s="61" t="s">
         <v>139</v>
       </c>
+      <c r="E91" s="25" t="s">
+        <v>564</v>
+      </c>
       <c r="F91" s="25" t="s">
-        <v>580</v>
+        <v>564</v>
       </c>
       <c r="G91" s="25" t="s">
-        <v>580</v>
-      </c>
-      <c r="H91" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="H91" s="74" t="s">
         <v>136</v>
       </c>
       <c r="I91" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="J91" s="25" t="s">
-        <v>502</v>
-      </c>
+        <v>486</v>
+      </c>
+      <c r="J91" s="25"/>
     </row>
     <row r="92" spans="1:10">
-      <c r="B92" s="69"/>
-      <c r="C92" s="69"/>
-      <c r="D92" s="25" t="s">
+      <c r="A92" s="84"/>
+      <c r="B92" s="84"/>
+      <c r="C92" s="25" t="s">
         <v>147</v>
       </c>
-      <c r="E92" s="62" t="s">
+      <c r="D92" s="61" t="s">
         <v>140</v>
       </c>
+      <c r="E92" s="25" t="s">
+        <v>564</v>
+      </c>
       <c r="F92" s="25" t="s">
-        <v>580</v>
+        <v>564</v>
       </c>
       <c r="G92" s="25" t="s">
-        <v>580</v>
-      </c>
-      <c r="H92" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="H92" s="74" t="s">
         <v>136</v>
       </c>
       <c r="I92" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="J92" s="25" t="s">
-        <v>502</v>
-      </c>
+        <v>486</v>
+      </c>
+      <c r="J92" s="25"/>
     </row>
     <row r="93" spans="1:10">
-      <c r="B93" s="69"/>
-      <c r="C93" s="69"/>
-      <c r="D93" s="25" t="s">
+      <c r="A93" s="84"/>
+      <c r="B93" s="84"/>
+      <c r="C93" s="25" t="s">
         <v>148</v>
       </c>
-      <c r="E93" s="62" t="s">
+      <c r="D93" s="61" t="s">
         <v>141</v>
       </c>
+      <c r="E93" s="25" t="s">
+        <v>564</v>
+      </c>
       <c r="F93" s="25" t="s">
-        <v>580</v>
+        <v>564</v>
       </c>
       <c r="G93" s="25" t="s">
-        <v>580</v>
-      </c>
-      <c r="H93" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="H93" s="74" t="s">
         <v>136</v>
       </c>
       <c r="I93" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="J93" s="25" t="s">
-        <v>502</v>
-      </c>
+        <v>486</v>
+      </c>
+      <c r="J93" s="25"/>
     </row>
     <row r="94" spans="1:10">
-      <c r="B94" s="69"/>
-      <c r="C94" s="69"/>
-      <c r="D94" s="64" t="s">
-        <v>588</v>
-      </c>
-      <c r="E94" s="20" t="s">
-        <v>485</v>
+      <c r="A94" s="84"/>
+      <c r="B94" s="84"/>
+      <c r="C94" s="63" t="s">
+        <v>572</v>
+      </c>
+      <c r="D94" s="20" t="s">
+        <v>469</v>
+      </c>
+      <c r="E94" s="25" t="s">
+        <v>564</v>
       </c>
       <c r="F94" s="25" t="s">
-        <v>580</v>
+        <v>564</v>
       </c>
       <c r="G94" s="25" t="s">
-        <v>580</v>
-      </c>
-      <c r="H94" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="H94" s="74" t="s">
         <v>136</v>
       </c>
       <c r="I94" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="J94" s="25" t="s">
-        <v>502</v>
-      </c>
+        <v>486</v>
+      </c>
+      <c r="J94" s="25"/>
     </row>
     <row r="95" spans="1:10">
-      <c r="B95" s="69"/>
-      <c r="C95" s="69"/>
-      <c r="D95" s="64" t="s">
-        <v>589</v>
-      </c>
-      <c r="E95" s="20" t="s">
-        <v>509</v>
+      <c r="A95" s="84"/>
+      <c r="B95" s="84"/>
+      <c r="C95" s="63" t="s">
+        <v>573</v>
+      </c>
+      <c r="D95" s="20" t="s">
+        <v>493</v>
+      </c>
+      <c r="E95" s="25" t="s">
+        <v>136</v>
       </c>
       <c r="F95" s="25" t="s">
         <v>136</v>
@@ -5106,49 +5234,51 @@
       <c r="G95" s="25" t="s">
         <v>136</v>
       </c>
-      <c r="H95" s="25" t="s">
+      <c r="H95" s="74" t="s">
         <v>136</v>
       </c>
       <c r="I95" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="J95" s="25" t="s">
-        <v>502</v>
-      </c>
+        <v>486</v>
+      </c>
+      <c r="J95" s="25"/>
     </row>
     <row r="96" spans="1:10">
-      <c r="B96" s="69"/>
-      <c r="C96" s="69"/>
-      <c r="D96" s="64" t="s">
-        <v>590</v>
-      </c>
-      <c r="E96" s="20" t="s">
-        <v>579</v>
-      </c>
-      <c r="F96" s="58" t="s">
-        <v>583</v>
+      <c r="A96" s="84"/>
+      <c r="B96" s="84"/>
+      <c r="C96" s="63" t="s">
+        <v>574</v>
+      </c>
+      <c r="D96" s="20" t="s">
+        <v>563</v>
+      </c>
+      <c r="E96" s="57" t="s">
+        <v>567</v>
+      </c>
+      <c r="F96" s="25" t="s">
+        <v>564</v>
       </c>
       <c r="G96" s="25" t="s">
-        <v>580</v>
-      </c>
-      <c r="H96" s="25" t="s">
-        <v>580</v>
+        <v>564</v>
+      </c>
+      <c r="H96" s="74" t="s">
+        <v>564</v>
       </c>
       <c r="I96" s="25" t="s">
-        <v>580</v>
-      </c>
-      <c r="J96" s="25" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="97" spans="2:10">
-      <c r="B97" s="69"/>
-      <c r="C97" s="69"/>
-      <c r="D97" s="64" t="s">
-        <v>591</v>
-      </c>
-      <c r="E97" s="20" t="s">
-        <v>500</v>
+        <v>564</v>
+      </c>
+      <c r="J96" s="25"/>
+    </row>
+    <row r="97" spans="1:10">
+      <c r="A97" s="84"/>
+      <c r="B97" s="84"/>
+      <c r="C97" s="63" t="s">
+        <v>575</v>
+      </c>
+      <c r="D97" s="20" t="s">
+        <v>484</v>
+      </c>
+      <c r="E97" s="25" t="s">
+        <v>136</v>
       </c>
       <c r="F97" s="25" t="s">
         <v>136</v>
@@ -5156,51 +5286,53 @@
       <c r="G97" s="25" t="s">
         <v>136</v>
       </c>
-      <c r="H97" s="25" t="s">
+      <c r="H97" s="74" t="s">
         <v>136</v>
       </c>
       <c r="I97" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="J97" s="25" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="98" spans="2:10">
-      <c r="B98" s="61"/>
-      <c r="C98" s="69"/>
-      <c r="D98" s="25" t="s">
-        <v>580</v>
-      </c>
-      <c r="E98" s="65" t="s">
-        <v>581</v>
-      </c>
-      <c r="F98" s="58" t="s">
-        <v>583</v>
+        <v>486</v>
+      </c>
+      <c r="J97" s="25"/>
+    </row>
+    <row r="98" spans="1:10">
+      <c r="A98" s="60"/>
+      <c r="B98" s="84"/>
+      <c r="C98" s="25" t="s">
+        <v>564</v>
+      </c>
+      <c r="D98" s="64" t="s">
+        <v>565</v>
+      </c>
+      <c r="E98" s="57" t="s">
+        <v>567</v>
+      </c>
+      <c r="F98" s="25" t="s">
+        <v>564</v>
       </c>
       <c r="G98" s="25" t="s">
-        <v>580</v>
-      </c>
-      <c r="H98" s="25" t="s">
-        <v>580</v>
+        <v>564</v>
+      </c>
+      <c r="H98" s="74" t="s">
+        <v>564</v>
       </c>
       <c r="I98" s="25" t="s">
-        <v>580</v>
-      </c>
-      <c r="J98" s="25" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="99" spans="2:10">
-      <c r="B99" s="70" t="s">
-        <v>587</v>
-      </c>
-      <c r="C99" s="69"/>
-      <c r="D99" s="25" t="s">
-        <v>580</v>
-      </c>
-      <c r="E99" s="63" t="s">
-        <v>517</v>
+        <v>564</v>
+      </c>
+      <c r="J98" s="25"/>
+    </row>
+    <row r="99" spans="1:10">
+      <c r="A99" s="85" t="s">
+        <v>571</v>
+      </c>
+      <c r="B99" s="84"/>
+      <c r="C99" s="25" t="s">
+        <v>564</v>
+      </c>
+      <c r="D99" s="62" t="s">
+        <v>501</v>
+      </c>
+      <c r="E99" s="25" t="s">
+        <v>136</v>
       </c>
       <c r="F99" s="25" t="s">
         <v>136</v>
@@ -5208,62 +5340,65 @@
       <c r="G99" s="25" t="s">
         <v>136</v>
       </c>
-      <c r="H99" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="I99" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="J99" s="30" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="100" spans="2:10">
-      <c r="B100" s="69"/>
-      <c r="C100" s="69"/>
-      <c r="D100" s="25" t="s">
-        <v>580</v>
-      </c>
-      <c r="E100" s="63" t="s">
-        <v>582</v>
-      </c>
-      <c r="F100" s="58" t="s">
-        <v>583</v>
+      <c r="H99" s="74" t="s">
+        <v>136</v>
+      </c>
+      <c r="I99" s="30" t="s">
+        <v>568</v>
+      </c>
+      <c r="J99" s="25"/>
+    </row>
+    <row r="100" spans="1:10">
+      <c r="A100" s="84"/>
+      <c r="B100" s="84"/>
+      <c r="C100" s="25" t="s">
+        <v>564</v>
+      </c>
+      <c r="D100" s="62" t="s">
+        <v>566</v>
+      </c>
+      <c r="E100" s="57" t="s">
+        <v>567</v>
+      </c>
+      <c r="F100" s="25" t="s">
+        <v>564</v>
       </c>
       <c r="G100" s="25" t="s">
-        <v>580</v>
-      </c>
-      <c r="H100" s="25" t="s">
-        <v>580</v>
+        <v>564</v>
+      </c>
+      <c r="H100" s="74" t="s">
+        <v>564</v>
       </c>
       <c r="I100" s="25" t="s">
-        <v>580</v>
-      </c>
-      <c r="J100" s="25" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="101" spans="2:10">
-      <c r="B101" s="61"/>
-      <c r="C101" s="61"/>
+        <v>564</v>
+      </c>
+      <c r="J100" s="25"/>
+    </row>
+    <row r="101" spans="1:10">
+      <c r="A101" s="60"/>
+      <c r="B101" s="60"/>
+      <c r="C101" s="25"/>
       <c r="D101" s="25"/>
       <c r="E101" s="25"/>
       <c r="F101" s="25"/>
       <c r="G101" s="25"/>
-      <c r="H101" s="25"/>
+      <c r="H101" s="74"/>
       <c r="I101" s="25"/>
       <c r="J101" s="25"/>
     </row>
-    <row r="102" spans="2:10">
-      <c r="B102" s="69" t="s">
-        <v>604</v>
-      </c>
-      <c r="C102" s="69" t="s">
-        <v>603</v>
-      </c>
-      <c r="D102" s="25"/>
-      <c r="E102" s="66" t="s">
-        <v>592</v>
+    <row r="102" spans="1:10">
+      <c r="A102" s="84" t="s">
+        <v>588</v>
+      </c>
+      <c r="B102" s="84" t="s">
+        <v>587</v>
+      </c>
+      <c r="C102" s="25"/>
+      <c r="D102" s="65" t="s">
+        <v>576</v>
+      </c>
+      <c r="E102" s="25" t="s">
+        <v>136</v>
       </c>
       <c r="F102" s="25" t="s">
         <v>136</v>
@@ -5271,150 +5406,157 @@
       <c r="G102" s="25" t="s">
         <v>136</v>
       </c>
-      <c r="H102" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="I102" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="J102" s="30" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="103" spans="2:10">
-      <c r="B103" s="69"/>
-      <c r="C103" s="69"/>
-      <c r="D103" s="25"/>
-      <c r="E103" s="67" t="s">
-        <v>593</v>
-      </c>
-      <c r="F103" s="58" t="s">
+      <c r="H102" s="74" t="s">
+        <v>136</v>
+      </c>
+      <c r="I102" s="30" t="s">
+        <v>589</v>
+      </c>
+      <c r="J102" s="25"/>
+    </row>
+    <row r="103" spans="1:10">
+      <c r="A103" s="84"/>
+      <c r="B103" s="84"/>
+      <c r="C103" s="25"/>
+      <c r="D103" s="66" t="s">
+        <v>577</v>
+      </c>
+      <c r="E103" s="57" t="s">
+        <v>567</v>
+      </c>
+      <c r="F103" s="25" t="s">
+        <v>564</v>
+      </c>
+      <c r="G103" s="25" t="s">
+        <v>564</v>
+      </c>
+      <c r="H103" s="74" t="s">
+        <v>564</v>
+      </c>
+      <c r="I103" s="25"/>
+      <c r="J103" s="25"/>
+    </row>
+    <row r="104" spans="1:10">
+      <c r="A104" s="84"/>
+      <c r="B104" s="84"/>
+      <c r="C104" s="25"/>
+      <c r="D104" s="65" t="s">
+        <v>578</v>
+      </c>
+      <c r="E104" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="F104" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="G104" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="H104" s="74" t="s">
+        <v>136</v>
+      </c>
+      <c r="I104" s="25" t="s">
+        <v>589</v>
+      </c>
+      <c r="J104" s="25"/>
+    </row>
+    <row r="105" spans="1:10">
+      <c r="A105" s="84"/>
+      <c r="B105" s="84"/>
+      <c r="C105" s="25"/>
+      <c r="D105" s="66" t="s">
+        <v>579</v>
+      </c>
+      <c r="E105" s="57" t="s">
+        <v>567</v>
+      </c>
+      <c r="F105" s="25" t="s">
+        <v>564</v>
+      </c>
+      <c r="G105" s="25" t="s">
+        <v>564</v>
+      </c>
+      <c r="H105" s="74" t="s">
+        <v>564</v>
+      </c>
+      <c r="I105" s="25"/>
+      <c r="J105" s="25"/>
+    </row>
+    <row r="106" spans="1:10">
+      <c r="A106" s="84"/>
+      <c r="B106" s="84"/>
+      <c r="C106" s="25"/>
+      <c r="D106" s="66" t="s">
+        <v>580</v>
+      </c>
+      <c r="E106" s="57" t="s">
+        <v>567</v>
+      </c>
+      <c r="F106" s="25" t="s">
+        <v>564</v>
+      </c>
+      <c r="G106" s="25" t="s">
+        <v>564</v>
+      </c>
+      <c r="H106" s="74" t="s">
+        <v>564</v>
+      </c>
+      <c r="I106" s="25"/>
+      <c r="J106" s="25"/>
+    </row>
+    <row r="107" spans="1:10">
+      <c r="A107" s="84"/>
+      <c r="B107" s="84"/>
+      <c r="C107" s="25"/>
+      <c r="D107" s="66" t="s">
+        <v>581</v>
+      </c>
+      <c r="E107" s="57" t="s">
+        <v>567</v>
+      </c>
+      <c r="F107" s="25" t="s">
+        <v>564</v>
+      </c>
+      <c r="G107" s="25" t="s">
+        <v>564</v>
+      </c>
+      <c r="H107" s="74" t="s">
+        <v>564</v>
+      </c>
+      <c r="I107" s="25"/>
+      <c r="J107" s="25"/>
+    </row>
+    <row r="108" spans="1:10">
+      <c r="A108" s="84"/>
+      <c r="B108" s="84"/>
+      <c r="C108" s="25"/>
+      <c r="D108" s="66" t="s">
+        <v>582</v>
+      </c>
+      <c r="E108" s="57" t="s">
+        <v>567</v>
+      </c>
+      <c r="F108" s="25" t="s">
+        <v>564</v>
+      </c>
+      <c r="G108" s="25" t="s">
+        <v>564</v>
+      </c>
+      <c r="H108" s="74" t="s">
+        <v>564</v>
+      </c>
+      <c r="I108" s="25"/>
+      <c r="J108" s="25"/>
+    </row>
+    <row r="109" spans="1:10">
+      <c r="A109" s="84"/>
+      <c r="B109" s="84"/>
+      <c r="C109" s="25"/>
+      <c r="D109" s="65" t="s">
         <v>583</v>
       </c>
-      <c r="G103" s="25" t="s">
-        <v>580</v>
-      </c>
-      <c r="H103" s="25" t="s">
-        <v>580</v>
-      </c>
-      <c r="I103" s="25" t="s">
-        <v>580</v>
-      </c>
-      <c r="J103" s="25"/>
-    </row>
-    <row r="104" spans="2:10">
-      <c r="B104" s="69"/>
-      <c r="C104" s="69"/>
-      <c r="D104" s="25"/>
-      <c r="E104" s="66" t="s">
-        <v>594</v>
-      </c>
-      <c r="F104" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="G104" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="H104" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="I104" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="J104" s="25" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="105" spans="2:10">
-      <c r="B105" s="69"/>
-      <c r="C105" s="69"/>
-      <c r="D105" s="25"/>
-      <c r="E105" s="67" t="s">
-        <v>595</v>
-      </c>
-      <c r="F105" s="58" t="s">
-        <v>583</v>
-      </c>
-      <c r="G105" s="25" t="s">
-        <v>580</v>
-      </c>
-      <c r="H105" s="25" t="s">
-        <v>580</v>
-      </c>
-      <c r="I105" s="25" t="s">
-        <v>580</v>
-      </c>
-      <c r="J105" s="25"/>
-    </row>
-    <row r="106" spans="2:10">
-      <c r="B106" s="69"/>
-      <c r="C106" s="69"/>
-      <c r="D106" s="25"/>
-      <c r="E106" s="67" t="s">
-        <v>596</v>
-      </c>
-      <c r="F106" s="58" t="s">
-        <v>583</v>
-      </c>
-      <c r="G106" s="25" t="s">
-        <v>580</v>
-      </c>
-      <c r="H106" s="25" t="s">
-        <v>580</v>
-      </c>
-      <c r="I106" s="25" t="s">
-        <v>580</v>
-      </c>
-      <c r="J106" s="25"/>
-    </row>
-    <row r="107" spans="2:10">
-      <c r="B107" s="69"/>
-      <c r="C107" s="69"/>
-      <c r="D107" s="25"/>
-      <c r="E107" s="67" t="s">
-        <v>597</v>
-      </c>
-      <c r="F107" s="58" t="s">
-        <v>583</v>
-      </c>
-      <c r="G107" s="25" t="s">
-        <v>580</v>
-      </c>
-      <c r="H107" s="25" t="s">
-        <v>580</v>
-      </c>
-      <c r="I107" s="25" t="s">
-        <v>580</v>
-      </c>
-      <c r="J107" s="25"/>
-    </row>
-    <row r="108" spans="2:10">
-      <c r="B108" s="69"/>
-      <c r="C108" s="69"/>
-      <c r="D108" s="25"/>
-      <c r="E108" s="67" t="s">
-        <v>598</v>
-      </c>
-      <c r="F108" s="58" t="s">
-        <v>583</v>
-      </c>
-      <c r="G108" s="25" t="s">
-        <v>580</v>
-      </c>
-      <c r="H108" s="25" t="s">
-        <v>580</v>
-      </c>
-      <c r="I108" s="25" t="s">
-        <v>580</v>
-      </c>
-      <c r="J108" s="25"/>
-    </row>
-    <row r="109" spans="2:10">
-      <c r="B109" s="69"/>
-      <c r="C109" s="69"/>
-      <c r="D109" s="25"/>
-      <c r="E109" s="66" t="s">
-        <v>599</v>
+      <c r="E109" s="25" t="s">
+        <v>136</v>
       </c>
       <c r="F109" s="25" t="s">
         <v>136</v>
@@ -5422,22 +5564,23 @@
       <c r="G109" s="25" t="s">
         <v>136</v>
       </c>
-      <c r="H109" s="25" t="s">
+      <c r="H109" s="74" t="s">
         <v>136</v>
       </c>
       <c r="I109" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="J109" s="25" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="110" spans="2:10">
-      <c r="B110" s="69"/>
-      <c r="C110" s="69"/>
-      <c r="D110" s="25"/>
-      <c r="E110" s="66" t="s">
-        <v>600</v>
+        <v>589</v>
+      </c>
+      <c r="J109" s="25"/>
+    </row>
+    <row r="110" spans="1:10">
+      <c r="A110" s="84"/>
+      <c r="B110" s="84"/>
+      <c r="C110" s="25"/>
+      <c r="D110" s="65" t="s">
+        <v>584</v>
+      </c>
+      <c r="E110" s="25" t="s">
+        <v>136</v>
       </c>
       <c r="F110" s="25" t="s">
         <v>136</v>
@@ -5445,22 +5588,23 @@
       <c r="G110" s="25" t="s">
         <v>136</v>
       </c>
-      <c r="H110" s="25" t="s">
+      <c r="H110" s="74" t="s">
         <v>136</v>
       </c>
       <c r="I110" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="J110" s="25" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="111" spans="2:10">
-      <c r="B111" s="69"/>
-      <c r="C111" s="69"/>
-      <c r="D111" s="25"/>
-      <c r="E111" s="66" t="s">
-        <v>601</v>
+        <v>589</v>
+      </c>
+      <c r="J110" s="25"/>
+    </row>
+    <row r="111" spans="1:10">
+      <c r="A111" s="84"/>
+      <c r="B111" s="84"/>
+      <c r="C111" s="25"/>
+      <c r="D111" s="65" t="s">
+        <v>585</v>
+      </c>
+      <c r="E111" s="25" t="s">
+        <v>136</v>
       </c>
       <c r="F111" s="25" t="s">
         <v>136</v>
@@ -5468,22 +5612,23 @@
       <c r="G111" s="25" t="s">
         <v>136</v>
       </c>
-      <c r="H111" s="25" t="s">
+      <c r="H111" s="74" t="s">
         <v>136</v>
       </c>
       <c r="I111" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="J111" s="25" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="112" spans="2:10">
-      <c r="B112" s="69"/>
-      <c r="C112" s="69"/>
-      <c r="D112" s="25"/>
-      <c r="E112" s="66" t="s">
-        <v>602</v>
+        <v>589</v>
+      </c>
+      <c r="J111" s="25"/>
+    </row>
+    <row r="112" spans="1:10">
+      <c r="A112" s="84"/>
+      <c r="B112" s="84"/>
+      <c r="C112" s="25"/>
+      <c r="D112" s="65" t="s">
+        <v>586</v>
+      </c>
+      <c r="E112" s="25" t="s">
+        <v>136</v>
       </c>
       <c r="F112" s="25" t="s">
         <v>136</v>
@@ -5491,39 +5636,41 @@
       <c r="G112" s="25" t="s">
         <v>136</v>
       </c>
-      <c r="H112" s="25" t="s">
+      <c r="H112" s="74" t="s">
         <v>136</v>
       </c>
       <c r="I112" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="J112" s="25" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="113" spans="2:10">
-      <c r="B113" s="61"/>
-      <c r="C113" s="61"/>
+        <v>589</v>
+      </c>
+      <c r="J112" s="25"/>
+    </row>
+    <row r="113" spans="1:10">
+      <c r="A113" s="60"/>
+      <c r="B113" s="60"/>
+      <c r="C113" s="25"/>
       <c r="D113" s="25"/>
       <c r="E113" s="25"/>
       <c r="F113" s="25"/>
       <c r="G113" s="25"/>
-      <c r="H113" s="25"/>
+      <c r="H113" s="74"/>
       <c r="I113" s="25"/>
       <c r="J113" s="25"/>
     </row>
-    <row r="114" spans="2:10" ht="14.4" customHeight="1">
-      <c r="B114" s="70" t="s">
-        <v>608</v>
-      </c>
-      <c r="C114" s="69" t="s">
-        <v>607</v>
-      </c>
-      <c r="D114" s="25" t="s">
-        <v>609</v>
-      </c>
-      <c r="E114" s="29" t="s">
-        <v>520</v>
+    <row r="114" spans="1:10" ht="14.4" customHeight="1">
+      <c r="A114" s="85" t="s">
+        <v>592</v>
+      </c>
+      <c r="B114" s="84" t="s">
+        <v>591</v>
+      </c>
+      <c r="C114" s="25" t="s">
+        <v>593</v>
+      </c>
+      <c r="D114" s="29" t="s">
+        <v>504</v>
+      </c>
+      <c r="E114" s="25" t="s">
+        <v>136</v>
       </c>
       <c r="F114" s="25" t="s">
         <v>136</v>
@@ -5531,24 +5678,25 @@
       <c r="G114" s="25" t="s">
         <v>136</v>
       </c>
-      <c r="H114" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="I114" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="J114" s="30" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="115" spans="2:10">
-      <c r="B115" s="70"/>
-      <c r="C115" s="69"/>
-      <c r="D115" s="25" t="s">
-        <v>610</v>
-      </c>
-      <c r="E115" s="29" t="s">
-        <v>521</v>
+      <c r="H114" s="74" t="s">
+        <v>136</v>
+      </c>
+      <c r="I114" s="30" t="s">
+        <v>590</v>
+      </c>
+      <c r="J114" s="25"/>
+    </row>
+    <row r="115" spans="1:10">
+      <c r="A115" s="85"/>
+      <c r="B115" s="84"/>
+      <c r="C115" s="25" t="s">
+        <v>594</v>
+      </c>
+      <c r="D115" s="29" t="s">
+        <v>505</v>
+      </c>
+      <c r="E115" s="25" t="s">
+        <v>136</v>
       </c>
       <c r="F115" s="25" t="s">
         <v>136</v>
@@ -5556,24 +5704,25 @@
       <c r="G115" s="25" t="s">
         <v>136</v>
       </c>
-      <c r="H115" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="I115" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="J115" s="30" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="116" spans="2:10">
-      <c r="B116" s="70"/>
-      <c r="C116" s="69"/>
-      <c r="D116" s="25" t="s">
-        <v>611</v>
-      </c>
-      <c r="E116" s="29" t="s">
-        <v>522</v>
+      <c r="H115" s="74" t="s">
+        <v>136</v>
+      </c>
+      <c r="I115" s="30" t="s">
+        <v>590</v>
+      </c>
+      <c r="J115" s="25"/>
+    </row>
+    <row r="116" spans="1:10">
+      <c r="A116" s="85"/>
+      <c r="B116" s="84"/>
+      <c r="C116" s="25" t="s">
+        <v>595</v>
+      </c>
+      <c r="D116" s="29" t="s">
+        <v>506</v>
+      </c>
+      <c r="E116" s="25" t="s">
+        <v>136</v>
       </c>
       <c r="F116" s="25" t="s">
         <v>136</v>
@@ -5581,24 +5730,25 @@
       <c r="G116" s="25" t="s">
         <v>136</v>
       </c>
-      <c r="H116" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="I116" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="J116" s="30" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="117" spans="2:10">
-      <c r="B117" s="70"/>
-      <c r="C117" s="69"/>
-      <c r="D117" s="25" t="s">
-        <v>612</v>
-      </c>
-      <c r="E117" s="29" t="s">
-        <v>523</v>
+      <c r="H116" s="74" t="s">
+        <v>136</v>
+      </c>
+      <c r="I116" s="30" t="s">
+        <v>590</v>
+      </c>
+      <c r="J116" s="25"/>
+    </row>
+    <row r="117" spans="1:10">
+      <c r="A117" s="85"/>
+      <c r="B117" s="84"/>
+      <c r="C117" s="25" t="s">
+        <v>596</v>
+      </c>
+      <c r="D117" s="29" t="s">
+        <v>507</v>
+      </c>
+      <c r="E117" s="25" t="s">
+        <v>136</v>
       </c>
       <c r="F117" s="25" t="s">
         <v>136</v>
@@ -5606,24 +5756,25 @@
       <c r="G117" s="25" t="s">
         <v>136</v>
       </c>
-      <c r="H117" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="I117" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="J117" s="30" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="118" spans="2:10">
-      <c r="B118" s="70"/>
-      <c r="C118" s="69"/>
-      <c r="D118" s="25" t="s">
-        <v>613</v>
-      </c>
-      <c r="E118" s="29" t="s">
-        <v>524</v>
+      <c r="H117" s="74" t="s">
+        <v>136</v>
+      </c>
+      <c r="I117" s="30" t="s">
+        <v>590</v>
+      </c>
+      <c r="J117" s="25"/>
+    </row>
+    <row r="118" spans="1:10">
+      <c r="A118" s="85"/>
+      <c r="B118" s="84"/>
+      <c r="C118" s="25" t="s">
+        <v>597</v>
+      </c>
+      <c r="D118" s="29" t="s">
+        <v>508</v>
+      </c>
+      <c r="E118" s="25" t="s">
+        <v>136</v>
       </c>
       <c r="F118" s="25" t="s">
         <v>136</v>
@@ -5631,24 +5782,25 @@
       <c r="G118" s="25" t="s">
         <v>136</v>
       </c>
-      <c r="H118" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="I118" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="J118" s="30" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="119" spans="2:10">
-      <c r="B119" s="70"/>
-      <c r="C119" s="69"/>
-      <c r="D119" s="25" t="s">
-        <v>614</v>
-      </c>
-      <c r="E119" s="29" t="s">
-        <v>525</v>
+      <c r="H118" s="74" t="s">
+        <v>136</v>
+      </c>
+      <c r="I118" s="30" t="s">
+        <v>590</v>
+      </c>
+      <c r="J118" s="25"/>
+    </row>
+    <row r="119" spans="1:10">
+      <c r="A119" s="85"/>
+      <c r="B119" s="84"/>
+      <c r="C119" s="25" t="s">
+        <v>598</v>
+      </c>
+      <c r="D119" s="29" t="s">
+        <v>509</v>
+      </c>
+      <c r="E119" s="25" t="s">
+        <v>136</v>
       </c>
       <c r="F119" s="25" t="s">
         <v>136</v>
@@ -5656,24 +5808,25 @@
       <c r="G119" s="25" t="s">
         <v>136</v>
       </c>
-      <c r="H119" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="I119" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="J119" s="30" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="120" spans="2:10">
-      <c r="B120" s="70"/>
-      <c r="C120" s="69"/>
-      <c r="D120" s="25" t="s">
-        <v>615</v>
-      </c>
-      <c r="E120" s="29" t="s">
-        <v>526</v>
+      <c r="H119" s="74" t="s">
+        <v>136</v>
+      </c>
+      <c r="I119" s="30" t="s">
+        <v>590</v>
+      </c>
+      <c r="J119" s="25"/>
+    </row>
+    <row r="120" spans="1:10">
+      <c r="A120" s="85"/>
+      <c r="B120" s="84"/>
+      <c r="C120" s="25" t="s">
+        <v>599</v>
+      </c>
+      <c r="D120" s="29" t="s">
+        <v>510</v>
+      </c>
+      <c r="E120" s="25" t="s">
+        <v>136</v>
       </c>
       <c r="F120" s="25" t="s">
         <v>136</v>
@@ -5681,191 +5834,199 @@
       <c r="G120" s="25" t="s">
         <v>136</v>
       </c>
-      <c r="H120" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="I120" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="J120" s="30" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="121" spans="2:10">
-      <c r="B121" s="61"/>
-      <c r="C121" s="61"/>
+      <c r="H120" s="74" t="s">
+        <v>136</v>
+      </c>
+      <c r="I120" s="30" t="s">
+        <v>590</v>
+      </c>
+      <c r="J120" s="25"/>
+    </row>
+    <row r="121" spans="1:10">
+      <c r="A121" s="60"/>
+      <c r="B121" s="60"/>
+      <c r="C121" s="25"/>
       <c r="D121" s="25"/>
       <c r="E121" s="25"/>
       <c r="F121" s="25"/>
       <c r="G121" s="25"/>
-      <c r="H121" s="25"/>
+      <c r="H121" s="74"/>
       <c r="I121" s="25"/>
       <c r="J121" s="25"/>
     </row>
-    <row r="122" spans="2:10">
-      <c r="B122" s="70" t="s">
+    <row r="122" spans="1:10">
+      <c r="A122" s="85" t="s">
+        <v>592</v>
+      </c>
+      <c r="B122" s="84" t="s">
+        <v>609</v>
+      </c>
+      <c r="C122" s="25" t="s">
+        <v>610</v>
+      </c>
+      <c r="D122" s="67" t="s">
+        <v>600</v>
+      </c>
+      <c r="E122" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="F122" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="G122" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="H122" s="74" t="s">
+        <v>136</v>
+      </c>
+      <c r="I122" s="30" t="s">
+        <v>590</v>
+      </c>
+      <c r="J122" s="25"/>
+    </row>
+    <row r="123" spans="1:10">
+      <c r="A123" s="84"/>
+      <c r="B123" s="84"/>
+      <c r="C123" s="25" t="s">
+        <v>611</v>
+      </c>
+      <c r="D123" s="67" t="s">
+        <v>601</v>
+      </c>
+      <c r="E123" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="F123" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="G123" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="H123" s="74" t="s">
+        <v>136</v>
+      </c>
+      <c r="I123" s="30" t="s">
+        <v>590</v>
+      </c>
+      <c r="J123" s="25"/>
+    </row>
+    <row r="124" spans="1:10">
+      <c r="A124" s="84"/>
+      <c r="B124" s="84"/>
+      <c r="C124" s="25" t="s">
+        <v>612</v>
+      </c>
+      <c r="D124" s="67" t="s">
+        <v>602</v>
+      </c>
+      <c r="E124" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="F124" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="G124" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="H124" s="74" t="s">
+        <v>136</v>
+      </c>
+      <c r="I124" s="30" t="s">
+        <v>590</v>
+      </c>
+      <c r="J124" s="25"/>
+    </row>
+    <row r="125" spans="1:10">
+      <c r="A125" s="84"/>
+      <c r="B125" s="84"/>
+      <c r="C125" s="25" t="s">
+        <v>613</v>
+      </c>
+      <c r="D125" s="67" t="s">
+        <v>603</v>
+      </c>
+      <c r="E125" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="F125" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="G125" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="H125" s="74" t="s">
+        <v>136</v>
+      </c>
+      <c r="I125" s="30" t="s">
+        <v>590</v>
+      </c>
+      <c r="J125" s="25"/>
+    </row>
+    <row r="126" spans="1:10">
+      <c r="A126" s="84"/>
+      <c r="B126" s="84"/>
+      <c r="C126" s="25" t="s">
+        <v>614</v>
+      </c>
+      <c r="D126" s="67" t="s">
+        <v>604</v>
+      </c>
+      <c r="E126" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="F126" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="G126" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="H126" s="74" t="s">
+        <v>136</v>
+      </c>
+      <c r="I126" s="30" t="s">
+        <v>590</v>
+      </c>
+      <c r="J126" s="25"/>
+    </row>
+    <row r="127" spans="1:10">
+      <c r="A127" s="85" t="s">
         <v>608</v>
       </c>
-      <c r="C122" s="69" t="s">
-        <v>625</v>
-      </c>
-      <c r="D122" s="25" t="s">
-        <v>626</v>
-      </c>
-      <c r="E122" s="68" t="s">
+      <c r="B127" s="84"/>
+      <c r="C127" s="25" t="s">
+        <v>615</v>
+      </c>
+      <c r="D127" s="67" t="s">
+        <v>605</v>
+      </c>
+      <c r="E127" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="F127" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="G127" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="H127" s="74" t="s">
+        <v>136</v>
+      </c>
+      <c r="I127" s="25" t="s">
+        <v>640</v>
+      </c>
+      <c r="J127" s="25"/>
+    </row>
+    <row r="128" spans="1:10">
+      <c r="A128" s="84"/>
+      <c r="B128" s="84"/>
+      <c r="C128" s="25" t="s">
         <v>616</v>
       </c>
-      <c r="F122" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="G122" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="H122" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="I122" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="J122" s="30" t="s">
+      <c r="D128" s="67" t="s">
         <v>606</v>
       </c>
-    </row>
-    <row r="123" spans="2:10">
-      <c r="B123" s="69"/>
-      <c r="C123" s="69"/>
-      <c r="D123" s="25" t="s">
-        <v>627</v>
-      </c>
-      <c r="E123" s="68" t="s">
-        <v>617</v>
-      </c>
-      <c r="F123" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="G123" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="H123" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="I123" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="J123" s="30" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="124" spans="2:10">
-      <c r="B124" s="69"/>
-      <c r="C124" s="69"/>
-      <c r="D124" s="25" t="s">
-        <v>628</v>
-      </c>
-      <c r="E124" s="68" t="s">
-        <v>618</v>
-      </c>
-      <c r="F124" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="G124" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="H124" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="I124" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="J124" s="30" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="125" spans="2:10">
-      <c r="B125" s="69"/>
-      <c r="C125" s="69"/>
-      <c r="D125" s="25" t="s">
-        <v>629</v>
-      </c>
-      <c r="E125" s="68" t="s">
-        <v>619</v>
-      </c>
-      <c r="F125" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="G125" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="H125" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="I125" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="J125" s="30" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="126" spans="2:10">
-      <c r="B126" s="69"/>
-      <c r="C126" s="69"/>
-      <c r="D126" s="25" t="s">
-        <v>630</v>
-      </c>
-      <c r="E126" s="68" t="s">
-        <v>620</v>
-      </c>
-      <c r="F126" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="G126" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="H126" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="I126" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="J126" s="30" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="127" spans="2:10">
-      <c r="B127" s="70" t="s">
-        <v>624</v>
-      </c>
-      <c r="C127" s="69"/>
-      <c r="D127" s="25" t="s">
-        <v>631</v>
-      </c>
-      <c r="E127" s="68" t="s">
-        <v>621</v>
-      </c>
-      <c r="F127" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="G127" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="H127" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="I127" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="J127" s="25" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="128" spans="2:10">
-      <c r="B128" s="69"/>
-      <c r="C128" s="69"/>
-      <c r="D128" s="25" t="s">
-        <v>632</v>
-      </c>
-      <c r="E128" s="68" t="s">
-        <v>622</v>
+      <c r="E128" s="25" t="s">
+        <v>136</v>
       </c>
       <c r="F128" s="25" t="s">
         <v>136</v>
@@ -5873,24 +6034,25 @@
       <c r="G128" s="25" t="s">
         <v>136</v>
       </c>
-      <c r="H128" s="25" t="s">
+      <c r="H128" s="74" t="s">
         <v>136</v>
       </c>
       <c r="I128" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="J128" s="25" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="129" spans="2:10">
-      <c r="B129" s="69"/>
-      <c r="C129" s="69"/>
-      <c r="D129" s="25" t="s">
-        <v>237</v>
-      </c>
-      <c r="E129" s="68" t="s">
-        <v>623</v>
+        <v>640</v>
+      </c>
+      <c r="J128" s="25"/>
+    </row>
+    <row r="129" spans="1:10">
+      <c r="A129" s="84"/>
+      <c r="B129" s="84"/>
+      <c r="C129" s="25" t="s">
+        <v>223</v>
+      </c>
+      <c r="D129" s="67" t="s">
+        <v>607</v>
+      </c>
+      <c r="E129" s="25" t="s">
+        <v>136</v>
       </c>
       <c r="F129" s="25" t="s">
         <v>136</v>
@@ -5898,68 +6060,228 @@
       <c r="G129" s="25" t="s">
         <v>136</v>
       </c>
-      <c r="H129" s="25" t="s">
+      <c r="H129" s="74" t="s">
         <v>136</v>
       </c>
       <c r="I129" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="J129" s="25" t="s">
-        <v>656</v>
-      </c>
+        <v>640</v>
+      </c>
+      <c r="J129" s="25"/>
+    </row>
+    <row r="130" spans="1:10">
+      <c r="I130" s="25"/>
+      <c r="J130" s="25"/>
+    </row>
+    <row r="131" spans="1:10">
+      <c r="A131" s="85" t="s">
+        <v>608</v>
+      </c>
+      <c r="B131" s="84" t="s">
+        <v>609</v>
+      </c>
+      <c r="C131" s="25" t="s">
+        <v>672</v>
+      </c>
+      <c r="D131" s="70" t="s">
+        <v>643</v>
+      </c>
+      <c r="E131" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="F131" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="G131" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="H131" s="74" t="s">
+        <v>136</v>
+      </c>
+      <c r="I131" s="25" t="s">
+        <v>640</v>
+      </c>
+      <c r="J131" s="25"/>
+    </row>
+    <row r="132" spans="1:10">
+      <c r="A132" s="84"/>
+      <c r="B132" s="84"/>
+      <c r="C132" s="25" t="s">
+        <v>132</v>
+      </c>
+      <c r="D132" s="70" t="s">
+        <v>645</v>
+      </c>
+      <c r="E132" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="F132" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="G132" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="H132" s="74" t="s">
+        <v>136</v>
+      </c>
+      <c r="I132" s="25" t="s">
+        <v>640</v>
+      </c>
+      <c r="J132" s="25"/>
+    </row>
+    <row r="133" spans="1:10">
+      <c r="A133" s="84"/>
+      <c r="B133" s="84"/>
+      <c r="C133" s="25" t="s">
+        <v>673</v>
+      </c>
+      <c r="D133" s="70" t="s">
+        <v>647</v>
+      </c>
+      <c r="E133" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="F133" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="G133" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="H133" s="74" t="s">
+        <v>136</v>
+      </c>
+      <c r="I133" s="25" t="s">
+        <v>640</v>
+      </c>
+      <c r="J133" s="25"/>
+    </row>
+    <row r="134" spans="1:10">
+      <c r="A134" s="84"/>
+      <c r="B134" s="84"/>
+      <c r="C134" s="25" t="s">
+        <v>674</v>
+      </c>
+      <c r="D134" s="70" t="s">
+        <v>649</v>
+      </c>
+      <c r="E134" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="F134" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="G134" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="H134" s="74" t="s">
+        <v>136</v>
+      </c>
+      <c r="I134" s="25" t="s">
+        <v>640</v>
+      </c>
+      <c r="J134" s="25"/>
+    </row>
+    <row r="135" spans="1:10">
+      <c r="A135" s="84"/>
+      <c r="B135" s="84"/>
+      <c r="C135" s="25" t="s">
+        <v>675</v>
+      </c>
+      <c r="D135" s="70" t="s">
+        <v>651</v>
+      </c>
+      <c r="E135" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="F135" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="G135" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="H135" s="74" t="s">
+        <v>136</v>
+      </c>
+      <c r="I135" s="25" t="s">
+        <v>640</v>
+      </c>
+      <c r="J135" s="25"/>
+    </row>
+    <row r="136" spans="1:10">
+      <c r="A136" s="84"/>
+      <c r="B136" s="84"/>
+      <c r="C136" s="25" t="s">
+        <v>676</v>
+      </c>
+      <c r="D136" s="70" t="s">
+        <v>653</v>
+      </c>
+      <c r="E136" s="25" t="s">
+        <v>662</v>
+      </c>
+      <c r="F136" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="G136" s="30" t="s">
+        <v>661</v>
+      </c>
+      <c r="H136" s="79" t="s">
+        <v>661</v>
+      </c>
+      <c r="I136" s="25" t="s">
+        <v>640</v>
+      </c>
+      <c r="J136" s="57" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10">
+      <c r="B137" s="69"/>
+    </row>
+    <row r="138" spans="1:10">
+      <c r="B138" s="69"/>
     </row>
   </sheetData>
-  <mergeCells count="50">
-    <mergeCell ref="B122:B126"/>
-    <mergeCell ref="B127:B129"/>
-    <mergeCell ref="C122:C129"/>
-    <mergeCell ref="C102:C112"/>
-    <mergeCell ref="B102:B112"/>
-    <mergeCell ref="C114:C120"/>
+  <mergeCells count="40">
+    <mergeCell ref="A102:A112"/>
     <mergeCell ref="B114:B120"/>
-    <mergeCell ref="C90:C100"/>
-    <mergeCell ref="B90:B97"/>
-    <mergeCell ref="B99:B100"/>
-    <mergeCell ref="C2:C5"/>
-    <mergeCell ref="C47:C55"/>
+    <mergeCell ref="A114:A120"/>
     <mergeCell ref="B2:B5"/>
-    <mergeCell ref="C7:C13"/>
-    <mergeCell ref="C83:C88"/>
+    <mergeCell ref="B47:B55"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="B7:B13"/>
     <mergeCell ref="B83:B88"/>
-    <mergeCell ref="C78:C81"/>
-    <mergeCell ref="B78:B80"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="B7:B10"/>
+    <mergeCell ref="A83:A88"/>
+    <mergeCell ref="B78:B81"/>
+    <mergeCell ref="A78:A80"/>
     <mergeCell ref="A7:A10"/>
     <mergeCell ref="A28:A33"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A15:A20"/>
+    <mergeCell ref="A22:A26"/>
     <mergeCell ref="B28:B33"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="B22:B26"/>
     <mergeCell ref="B15:B20"/>
-    <mergeCell ref="A15:A20"/>
-    <mergeCell ref="B22:B26"/>
-    <mergeCell ref="A22:A26"/>
+    <mergeCell ref="A47:A50"/>
     <mergeCell ref="A35:A39"/>
-    <mergeCell ref="C28:C33"/>
-    <mergeCell ref="C22:C26"/>
-    <mergeCell ref="C15:C20"/>
-    <mergeCell ref="A47:A50"/>
-    <mergeCell ref="B47:B50"/>
-    <mergeCell ref="B35:B39"/>
     <mergeCell ref="A41:A45"/>
     <mergeCell ref="B41:B45"/>
-    <mergeCell ref="C41:C45"/>
-    <mergeCell ref="C35:C39"/>
+    <mergeCell ref="B35:B39"/>
+    <mergeCell ref="B131:B136"/>
+    <mergeCell ref="A131:A136"/>
     <mergeCell ref="A51:A55"/>
-    <mergeCell ref="B51:B55"/>
-    <mergeCell ref="C71:C76"/>
     <mergeCell ref="B71:B76"/>
-    <mergeCell ref="C62:C69"/>
+    <mergeCell ref="A71:A76"/>
+    <mergeCell ref="B62:B69"/>
     <mergeCell ref="A62:A69"/>
-    <mergeCell ref="B62:B69"/>
-    <mergeCell ref="C57:C60"/>
-    <mergeCell ref="A57:A60"/>
-    <mergeCell ref="B58:B60"/>
+    <mergeCell ref="B57:B60"/>
+    <mergeCell ref="A58:A60"/>
+    <mergeCell ref="B90:B100"/>
+    <mergeCell ref="A90:A97"/>
+    <mergeCell ref="A99:A100"/>
+    <mergeCell ref="A122:A126"/>
+    <mergeCell ref="A127:A129"/>
+    <mergeCell ref="B122:B129"/>
+    <mergeCell ref="B102:B112"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5970,8 +6292,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M1" sqref="M1:N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
@@ -6006,10 +6328,10 @@
         <v>9</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>248</v>
+        <v>234</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>249</v>
+        <v>235</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>14</v>
@@ -6021,13 +6343,13 @@
         <v>16</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>252</v>
+        <v>238</v>
       </c>
       <c r="K1" s="3" t="s">
         <v>17</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>657</v>
+        <v>641</v>
       </c>
       <c r="M1" s="3" t="s">
         <v>48</v>
@@ -6038,13 +6360,13 @@
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="10" t="s">
-        <v>225</v>
+        <v>213</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>238</v>
+        <v>224</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>243</v>
+        <v>229</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
@@ -6060,37 +6382,37 @@
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="10" t="s">
-        <v>226</v>
+        <v>214</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>239</v>
+        <v>225</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>243</v>
+        <v>229</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>247</v>
+        <v>233</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>254</v>
+        <v>240</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>255</v>
+        <v>241</v>
       </c>
       <c r="H3" s="4" t="s">
         <v>25</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>256</v>
+        <v>242</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>253</v>
+        <v>239</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>250</v>
+        <v>236</v>
       </c>
       <c r="L3" s="4"/>
       <c r="M3" s="4"/>
@@ -6098,13 +6420,13 @@
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="10" t="s">
-        <v>227</v>
+        <v>215</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>240</v>
+        <v>226</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>243</v>
+        <v>229</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
@@ -6120,35 +6442,35 @@
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="10" t="s">
-        <v>228</v>
+        <v>216</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>241</v>
+        <v>227</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>243</v>
+        <v>229</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>247</v>
+        <v>233</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>254</v>
+        <v>240</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>255</v>
+        <v>241</v>
       </c>
       <c r="H5" s="4" t="s">
         <v>25</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>256</v>
+        <v>242</v>
       </c>
       <c r="J5" s="4"/>
       <c r="K5" s="4" t="s">
-        <v>251</v>
+        <v>237</v>
       </c>
       <c r="L5" s="4"/>
       <c r="M5" s="4"/>
@@ -6156,25 +6478,25 @@
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="10" t="s">
+        <v>217</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>229</v>
       </c>
-      <c r="B6" s="10" t="s">
-        <v>242</v>
-      </c>
-      <c r="C6" s="4" t="s">
+      <c r="D6" s="4" t="s">
         <v>243</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>257</v>
       </c>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
       <c r="G6" s="4" t="s">
-        <v>258</v>
+        <v>244</v>
       </c>
       <c r="H6" s="4"/>
       <c r="I6" s="4" t="s">
-        <v>658</v>
+        <v>642</v>
       </c>
       <c r="J6" s="4"/>
       <c r="K6" s="4"/>
@@ -6186,13 +6508,13 @@
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="10" t="s">
-        <v>259</v>
+        <v>245</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>265</v>
+        <v>250</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>243</v>
+        <v>229</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
@@ -6208,13 +6530,13 @@
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="10" t="s">
-        <v>260</v>
+        <v>246</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>266</v>
+        <v>251</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>243</v>
+        <v>229</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
@@ -6226,21 +6548,21 @@
       <c r="K8" s="4"/>
       <c r="L8" s="4"/>
       <c r="M8" s="4" t="s">
-        <v>253</v>
+        <v>239</v>
       </c>
       <c r="N8" s="4" t="s">
-        <v>269</v>
+        <v>254</v>
       </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="10" t="s">
-        <v>261</v>
+        <v>247</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>267</v>
+        <v>252</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>243</v>
+        <v>229</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
@@ -6256,13 +6578,13 @@
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="10" t="s">
-        <v>262</v>
+        <v>248</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>268</v>
+        <v>253</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>243</v>
+        <v>229</v>
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
@@ -6310,57 +6632,57 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="10" t="s">
-        <v>270</v>
+        <v>255</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>278</v>
+        <v>263</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>283</v>
+        <v>268</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="10" t="s">
-        <v>271</v>
+        <v>256</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>279</v>
+        <v>264</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>283</v>
+        <v>268</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="10" t="s">
-        <v>272</v>
+        <v>257</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>280</v>
+        <v>265</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>283</v>
+        <v>268</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="10" t="s">
-        <v>273</v>
+        <v>258</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>281</v>
+        <v>266</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>283</v>
+        <v>268</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="10" t="s">
-        <v>274</v>
+        <v>259</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>282</v>
+        <v>267</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>283</v>
+        <v>268</v>
       </c>
     </row>
   </sheetData>
@@ -6401,36 +6723,36 @@
         <v>10</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>294</v>
+        <v>279</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>295</v>
+        <v>280</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>296</v>
+        <v>281</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>300</v>
+        <v>285</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>301</v>
+        <v>286</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>639</v>
+        <v>623</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>640</v>
+        <v>624</v>
       </c>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="10" t="s">
-        <v>290</v>
+        <v>275</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>291</v>
+        <v>276</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>287</v>
+        <v>272</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
@@ -6442,13 +6764,13 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="10" t="s">
-        <v>293</v>
+        <v>278</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>292</v>
+        <v>277</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>287</v>
+        <v>272</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
@@ -6460,41 +6782,41 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="10" t="s">
-        <v>285</v>
+        <v>270</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>286</v>
+        <v>271</v>
       </c>
       <c r="C4" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="G4" s="36" t="s">
         <v>287</v>
       </c>
-      <c r="D4" s="4" t="s">
-        <v>297</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>298</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>299</v>
-      </c>
-      <c r="G4" s="36" t="s">
-        <v>302</v>
-      </c>
       <c r="H4" s="4" t="s">
-        <v>303</v>
+        <v>288</v>
       </c>
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="10" t="s">
-        <v>305</v>
+        <v>290</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>304</v>
+        <v>289</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>287</v>
+        <v>272</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
@@ -6502,21 +6824,21 @@
       <c r="G5" s="36"/>
       <c r="H5" s="4"/>
       <c r="I5" s="4" t="s">
-        <v>306</v>
+        <v>291</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>307</v>
+        <v>292</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="47" t="s">
-        <v>436</v>
+        <v>420</v>
       </c>
       <c r="B6" s="47" t="s">
-        <v>437</v>
+        <v>421</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>287</v>
+        <v>272</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
@@ -6573,49 +6895,49 @@
         <v>10</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>336</v>
+        <v>320</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>337</v>
+        <v>321</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>325</v>
+        <v>309</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>338</v>
+        <v>322</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>339</v>
+        <v>323</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>30</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>340</v>
+        <v>324</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>334</v>
+        <v>318</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>344</v>
+        <v>328</v>
       </c>
       <c r="M1" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>352</v>
+      </c>
+      <c r="Q1" s="3" t="s">
         <v>345</v>
       </c>
-      <c r="N1" s="3" t="s">
-        <v>359</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>362</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>368</v>
-      </c>
-      <c r="Q1" s="3" t="s">
-        <v>361</v>
-      </c>
       <c r="R1" s="3" t="s">
-        <v>252</v>
+        <v>238</v>
       </c>
       <c r="S1" s="3" t="s">
         <v>49</v>
@@ -6623,13 +6945,13 @@
     </row>
     <row r="2" spans="1:19">
       <c r="A2" s="43" t="s">
-        <v>317</v>
+        <v>301</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>326</v>
+        <v>310</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>243</v>
+        <v>229</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
@@ -6639,7 +6961,7 @@
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
       <c r="K2" s="4" t="s">
-        <v>335</v>
+        <v>319</v>
       </c>
       <c r="L2" s="4"/>
       <c r="M2" s="4"/>
@@ -6652,127 +6974,127 @@
     </row>
     <row r="3" spans="1:19">
       <c r="A3" s="43" t="s">
-        <v>318</v>
+        <v>302</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>327</v>
+        <v>311</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>243</v>
+        <v>229</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>348</v>
+        <v>332</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>349</v>
+        <v>333</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>341</v>
+        <v>325</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>342</v>
+        <v>326</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>350</v>
+        <v>334</v>
       </c>
       <c r="I3" s="4"/>
       <c r="J3" s="4" t="s">
-        <v>343</v>
+        <v>327</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>335</v>
+        <v>319</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>346</v>
+        <v>330</v>
       </c>
       <c r="M3" s="4" t="s">
+        <v>331</v>
+      </c>
+      <c r="N3" s="4" t="s">
+        <v>344</v>
+      </c>
+      <c r="O3" s="4" t="s">
+        <v>326</v>
+      </c>
+      <c r="P3" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="Q3" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="R3" s="4" t="s">
         <v>347</v>
-      </c>
-      <c r="N3" s="4" t="s">
-        <v>360</v>
-      </c>
-      <c r="O3" s="4" t="s">
-        <v>342</v>
-      </c>
-      <c r="P3" s="4" t="s">
-        <v>364</v>
-      </c>
-      <c r="Q3" s="4" t="s">
-        <v>343</v>
-      </c>
-      <c r="R3" s="4" t="s">
-        <v>363</v>
       </c>
       <c r="S3" s="4"/>
     </row>
     <row r="4" spans="1:19">
       <c r="A4" s="43" t="s">
-        <v>319</v>
+        <v>303</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>328</v>
+        <v>312</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>243</v>
+        <v>229</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
       <c r="F4" s="4" t="s">
-        <v>356</v>
+        <v>340</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>357</v>
+        <v>341</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>358</v>
+        <v>342</v>
       </c>
       <c r="I4" s="4"/>
       <c r="J4" s="4" t="s">
-        <v>343</v>
+        <v>327</v>
       </c>
       <c r="K4" s="4"/>
       <c r="L4" s="4" t="s">
-        <v>369</v>
+        <v>353</v>
       </c>
       <c r="M4" s="4" t="s">
-        <v>370</v>
+        <v>354</v>
       </c>
       <c r="N4" s="4" t="s">
-        <v>365</v>
+        <v>349</v>
       </c>
       <c r="O4" s="4" t="s">
-        <v>366</v>
+        <v>350</v>
       </c>
       <c r="P4" s="4" t="s">
-        <v>367</v>
+        <v>351</v>
       </c>
       <c r="Q4" s="4" t="s">
-        <v>343</v>
+        <v>327</v>
       </c>
       <c r="R4" s="4"/>
       <c r="S4" s="4"/>
     </row>
     <row r="5" spans="1:19">
       <c r="A5" s="43" t="s">
-        <v>320</v>
+        <v>304</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>329</v>
+        <v>313</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>243</v>
+        <v>229</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>374</v>
+        <v>358</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>375</v>
+        <v>359</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>373</v>
+        <v>357</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>342</v>
+        <v>326</v>
       </c>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
@@ -6789,31 +7111,31 @@
     </row>
     <row r="6" spans="1:19">
       <c r="A6" s="43" t="s">
-        <v>321</v>
+        <v>305</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>330</v>
+        <v>314</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>243</v>
+        <v>229</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>376</v>
+        <v>360</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>377</v>
+        <v>361</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>373</v>
+        <v>357</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>342</v>
+        <v>326</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>378</v>
+        <v>362</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>379</v>
+        <v>363</v>
       </c>
       <c r="J6" s="4"/>
       <c r="K6" s="4"/>
@@ -6828,13 +7150,13 @@
     </row>
     <row r="7" spans="1:19">
       <c r="A7" s="43" t="s">
-        <v>322</v>
+        <v>306</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>331</v>
+        <v>315</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>243</v>
+        <v>229</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
@@ -6855,13 +7177,13 @@
     </row>
     <row r="8" spans="1:19">
       <c r="A8" s="43" t="s">
-        <v>323</v>
+        <v>307</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>332</v>
+        <v>316</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>243</v>
+        <v>229</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
@@ -6878,21 +7200,21 @@
       <c r="P8" s="4"/>
       <c r="Q8" s="4"/>
       <c r="R8" s="4" t="s">
-        <v>253</v>
+        <v>239</v>
       </c>
       <c r="S8" s="4" t="s">
-        <v>384</v>
+        <v>368</v>
       </c>
     </row>
     <row r="9" spans="1:19">
       <c r="A9" s="40" t="s">
-        <v>324</v>
+        <v>308</v>
       </c>
       <c r="B9" s="41" t="s">
-        <v>333</v>
+        <v>317</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>243</v>
+        <v>229</v>
       </c>
       <c r="D9" s="42"/>
       <c r="E9" s="42"/>
@@ -6949,76 +7271,76 @@
         <v>10</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>401</v>
+        <v>385</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>402</v>
+        <v>386</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>403</v>
+        <v>387</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>404</v>
+        <v>388</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>405</v>
+        <v>389</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>406</v>
+        <v>390</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>407</v>
+        <v>391</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>433</v>
+        <v>417</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>434</v>
+        <v>418</v>
       </c>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="43" t="s">
-        <v>385</v>
+        <v>369</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>386</v>
+        <v>370</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>283</v>
+        <v>268</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>408</v>
+        <v>392</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>409</v>
+        <v>393</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>410</v>
+        <v>394</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>411</v>
+        <v>395</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>412</v>
+        <v>396</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>413</v>
+        <v>397</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>414</v>
+        <v>398</v>
       </c>
       <c r="K2" s="4"/>
       <c r="L2" s="4"/>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="43" t="s">
-        <v>387</v>
+        <v>371</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>388</v>
+        <v>372</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>283</v>
+        <v>268</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
@@ -7032,13 +7354,13 @@
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="43" t="s">
-        <v>389</v>
+        <v>373</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>395</v>
+        <v>379</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>283</v>
+        <v>268</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
@@ -7052,13 +7374,13 @@
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="43" t="s">
-        <v>390</v>
+        <v>374</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>396</v>
+        <v>380</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>283</v>
+        <v>268</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
@@ -7072,13 +7394,13 @@
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="43" t="s">
-        <v>391</v>
+        <v>375</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>397</v>
+        <v>381</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>283</v>
+        <v>268</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
@@ -7092,13 +7414,13 @@
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="43" t="s">
-        <v>392</v>
+        <v>376</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>398</v>
+        <v>382</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>283</v>
+        <v>268</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
@@ -7112,13 +7434,13 @@
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="43" t="s">
-        <v>393</v>
+        <v>377</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>399</v>
+        <v>383</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>283</v>
+        <v>268</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
@@ -7132,13 +7454,13 @@
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="43" t="s">
-        <v>394</v>
+        <v>378</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>400</v>
+        <v>384</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>283</v>
+        <v>268</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
@@ -7152,13 +7474,13 @@
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="43" t="s">
-        <v>432</v>
+        <v>416</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>431</v>
+        <v>415</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>283</v>
+        <v>268</v>
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
@@ -7168,10 +7490,10 @@
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
       <c r="K10" s="4" t="s">
-        <v>410</v>
+        <v>394</v>
       </c>
       <c r="L10" s="4" t="s">
-        <v>435</v>
+        <v>419</v>
       </c>
     </row>
   </sheetData>
@@ -7208,13 +7530,13 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="43" t="s">
-        <v>517</v>
+        <v>501</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>518</v>
+        <v>502</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>519</v>
+        <v>503</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -7244,7 +7566,7 @@
   <cols>
     <col min="1" max="1" width="21.88671875" customWidth="1"/>
     <col min="2" max="2" width="25.33203125" customWidth="1"/>
-    <col min="3" max="3" width="8.21875" style="57" customWidth="1"/>
+    <col min="3" max="3" width="8.21875" style="56" customWidth="1"/>
     <col min="4" max="4" width="16.77734375" customWidth="1"/>
     <col min="5" max="5" width="14.6640625" customWidth="1"/>
     <col min="6" max="6" width="13.77734375" customWidth="1"/>
@@ -7276,579 +7598,579 @@
       <c r="B1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="56" t="s">
+      <c r="C1" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="56" t="s">
+      <c r="D1" s="55" t="s">
+        <v>521</v>
+      </c>
+      <c r="E1" s="55" t="s">
+        <v>522</v>
+      </c>
+      <c r="F1" s="55" t="s">
+        <v>449</v>
+      </c>
+      <c r="G1" s="55" t="s">
+        <v>450</v>
+      </c>
+      <c r="H1" s="55" t="s">
+        <v>525</v>
+      </c>
+      <c r="I1" s="55" t="s">
+        <v>79</v>
+      </c>
+      <c r="J1" s="55" t="s">
+        <v>528</v>
+      </c>
+      <c r="K1" s="55" t="s">
+        <v>529</v>
+      </c>
+      <c r="L1" s="55" t="s">
+        <v>530</v>
+      </c>
+      <c r="M1" s="55" t="s">
+        <v>531</v>
+      </c>
+      <c r="N1" s="55" t="s">
+        <v>532</v>
+      </c>
+      <c r="O1" s="55" t="s">
+        <v>533</v>
+      </c>
+      <c r="P1" s="55" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q1" s="55" t="s">
+        <v>534</v>
+      </c>
+      <c r="R1" s="55" t="s">
+        <v>535</v>
+      </c>
+      <c r="S1" s="55" t="s">
+        <v>542</v>
+      </c>
+      <c r="T1" s="55" t="s">
+        <v>543</v>
+      </c>
+      <c r="U1" s="55" t="s">
+        <v>544</v>
+      </c>
+      <c r="V1" s="55" t="s">
+        <v>545</v>
+      </c>
+      <c r="W1" s="55" t="s">
+        <v>468</v>
+      </c>
+      <c r="X1" s="3" t="s">
+        <v>623</v>
+      </c>
+      <c r="Y1" s="3" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25">
+      <c r="A2" s="57" t="s">
+        <v>504</v>
+      </c>
+      <c r="B2" s="57" t="s">
+        <v>511</v>
+      </c>
+      <c r="C2" s="58">
+        <v>4138</v>
+      </c>
+      <c r="D2" s="58" t="s">
+        <v>523</v>
+      </c>
+      <c r="E2" s="58" t="s">
+        <v>524</v>
+      </c>
+      <c r="F2" s="58" t="s">
+        <v>452</v>
+      </c>
+      <c r="G2" s="59" t="s">
+        <v>527</v>
+      </c>
+      <c r="H2" s="59" t="s">
+        <v>526</v>
+      </c>
+      <c r="I2" s="59"/>
+      <c r="J2" s="59"/>
+      <c r="K2" s="59"/>
+      <c r="L2" s="59"/>
+      <c r="M2" s="59"/>
+      <c r="N2" s="59"/>
+      <c r="O2" s="59"/>
+      <c r="P2" s="59"/>
+      <c r="Q2" s="59"/>
+      <c r="R2" s="59"/>
+      <c r="S2" s="59"/>
+      <c r="T2" s="59"/>
+      <c r="U2" s="59"/>
+      <c r="V2" s="59"/>
+      <c r="W2" s="59"/>
+      <c r="X2" s="59"/>
+      <c r="Y2" s="59"/>
+    </row>
+    <row r="3" spans="1:25">
+      <c r="A3" s="57" t="s">
+        <v>505</v>
+      </c>
+      <c r="B3" s="57" t="s">
+        <v>512</v>
+      </c>
+      <c r="C3" s="58">
+        <v>4138</v>
+      </c>
+      <c r="D3" s="58" t="s">
+        <v>523</v>
+      </c>
+      <c r="E3" s="58" t="s">
+        <v>548</v>
+      </c>
+      <c r="F3" s="58" t="s">
+        <v>452</v>
+      </c>
+      <c r="G3" s="59" t="s">
+        <v>547</v>
+      </c>
+      <c r="H3" s="59" t="s">
+        <v>546</v>
+      </c>
+      <c r="I3" s="59" t="s">
+        <v>243</v>
+      </c>
+      <c r="J3" s="59" t="s">
+        <v>536</v>
+      </c>
+      <c r="K3" s="59" t="s">
         <v>537</v>
       </c>
-      <c r="E1" s="56" t="s">
+      <c r="L3" s="59" t="s">
+        <v>198</v>
+      </c>
+      <c r="M3" s="59" t="s">
         <v>538</v>
       </c>
-      <c r="F1" s="56" t="s">
-        <v>465</v>
-      </c>
-      <c r="G1" s="56" t="s">
-        <v>466</v>
-      </c>
-      <c r="H1" s="56" t="s">
+      <c r="N3" s="59" t="s">
+        <v>194</v>
+      </c>
+      <c r="O3" s="59" t="s">
+        <v>93</v>
+      </c>
+      <c r="P3" s="59" t="s">
+        <v>539</v>
+      </c>
+      <c r="Q3" s="59" t="s">
+        <v>540</v>
+      </c>
+      <c r="R3" s="59" t="s">
+        <v>639</v>
+      </c>
+      <c r="S3" s="59" t="s">
+        <v>93</v>
+      </c>
+      <c r="T3" s="59" t="s">
+        <v>95</v>
+      </c>
+      <c r="U3" s="59" t="s">
+        <v>539</v>
+      </c>
+      <c r="V3" s="59" t="s">
         <v>541</v>
       </c>
-      <c r="I1" s="56" t="s">
-        <v>79</v>
-      </c>
-      <c r="J1" s="56" t="s">
-        <v>544</v>
-      </c>
-      <c r="K1" s="56" t="s">
-        <v>545</v>
-      </c>
-      <c r="L1" s="56" t="s">
-        <v>546</v>
-      </c>
-      <c r="M1" s="56" t="s">
-        <v>547</v>
-      </c>
-      <c r="N1" s="56" t="s">
-        <v>548</v>
-      </c>
-      <c r="O1" s="56" t="s">
+      <c r="W3" s="59"/>
+      <c r="X3" s="59"/>
+      <c r="Y3" s="59"/>
+    </row>
+    <row r="4" spans="1:25">
+      <c r="A4" s="57" t="s">
+        <v>506</v>
+      </c>
+      <c r="B4" s="57" t="s">
+        <v>513</v>
+      </c>
+      <c r="C4" s="58">
+        <v>4138</v>
+      </c>
+      <c r="D4" s="58" t="s">
+        <v>523</v>
+      </c>
+      <c r="E4" s="58" t="s">
+        <v>551</v>
+      </c>
+      <c r="F4" s="58" t="s">
+        <v>452</v>
+      </c>
+      <c r="G4" s="59" t="s">
+        <v>550</v>
+      </c>
+      <c r="H4" s="59" t="s">
         <v>549</v>
       </c>
-      <c r="P1" s="56" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q1" s="56" t="s">
-        <v>550</v>
-      </c>
-      <c r="R1" s="56" t="s">
-        <v>551</v>
-      </c>
-      <c r="S1" s="56" t="s">
+      <c r="I4" s="59"/>
+      <c r="J4" s="59"/>
+      <c r="K4" s="59"/>
+      <c r="L4" s="59"/>
+      <c r="M4" s="59"/>
+      <c r="N4" s="59"/>
+      <c r="O4" s="59"/>
+      <c r="P4" s="59"/>
+      <c r="Q4" s="59"/>
+      <c r="R4" s="59"/>
+      <c r="S4" s="59"/>
+      <c r="T4" s="59"/>
+      <c r="U4" s="59"/>
+      <c r="V4" s="59"/>
+      <c r="W4" s="59"/>
+      <c r="X4" s="59"/>
+      <c r="Y4" s="59"/>
+    </row>
+    <row r="5" spans="1:25">
+      <c r="A5" s="57" t="s">
+        <v>507</v>
+      </c>
+      <c r="B5" s="57" t="s">
+        <v>514</v>
+      </c>
+      <c r="C5" s="58">
+        <v>4138</v>
+      </c>
+      <c r="D5" s="58" t="s">
+        <v>523</v>
+      </c>
+      <c r="E5" s="58" t="s">
+        <v>554</v>
+      </c>
+      <c r="F5" s="58" t="s">
+        <v>452</v>
+      </c>
+      <c r="G5" s="59" t="s">
+        <v>553</v>
+      </c>
+      <c r="H5" s="59" t="s">
+        <v>552</v>
+      </c>
+      <c r="I5" s="59"/>
+      <c r="J5" s="59"/>
+      <c r="K5" s="59"/>
+      <c r="L5" s="59"/>
+      <c r="M5" s="59"/>
+      <c r="N5" s="59"/>
+      <c r="O5" s="59"/>
+      <c r="P5" s="59"/>
+      <c r="Q5" s="59"/>
+      <c r="R5" s="59"/>
+      <c r="S5" s="59"/>
+      <c r="T5" s="59"/>
+      <c r="U5" s="59"/>
+      <c r="V5" s="59"/>
+      <c r="W5" s="59"/>
+      <c r="X5" s="59"/>
+      <c r="Y5" s="59"/>
+    </row>
+    <row r="6" spans="1:25">
+      <c r="A6" s="57" t="s">
+        <v>508</v>
+      </c>
+      <c r="B6" s="57" t="s">
+        <v>515</v>
+      </c>
+      <c r="C6" s="58">
+        <v>4138</v>
+      </c>
+      <c r="D6" s="58" t="s">
+        <v>523</v>
+      </c>
+      <c r="E6" s="58" t="s">
+        <v>562</v>
+      </c>
+      <c r="F6" s="58" t="s">
+        <v>452</v>
+      </c>
+      <c r="G6" s="59" t="s">
+        <v>560</v>
+      </c>
+      <c r="H6" s="59" t="s">
+        <v>561</v>
+      </c>
+      <c r="I6" s="59" t="s">
+        <v>243</v>
+      </c>
+      <c r="J6" s="59" t="s">
+        <v>536</v>
+      </c>
+      <c r="K6" s="59" t="s">
         <v>558</v>
       </c>
-      <c r="T1" s="56" t="s">
+      <c r="L6" s="59" t="s">
         <v>559</v>
       </c>
-      <c r="U1" s="56" t="s">
-        <v>560</v>
-      </c>
-      <c r="V1" s="56" t="s">
-        <v>561</v>
-      </c>
-      <c r="W1" s="56" t="s">
-        <v>484</v>
-      </c>
-      <c r="X1" s="3" t="s">
-        <v>639</v>
-      </c>
-      <c r="Y1" s="3" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="2" spans="1:25">
-      <c r="A2" s="58" t="s">
-        <v>520</v>
-      </c>
-      <c r="B2" s="58" t="s">
-        <v>527</v>
-      </c>
-      <c r="C2" s="59">
+      <c r="M6" s="59" t="s">
+        <v>538</v>
+      </c>
+      <c r="N6" s="59" t="s">
+        <v>194</v>
+      </c>
+      <c r="O6" s="59" t="s">
+        <v>93</v>
+      </c>
+      <c r="P6" s="59" t="s">
+        <v>539</v>
+      </c>
+      <c r="Q6" s="59" t="s">
+        <v>540</v>
+      </c>
+      <c r="R6" s="59"/>
+      <c r="S6" s="59"/>
+      <c r="T6" s="59"/>
+      <c r="U6" s="59"/>
+      <c r="V6" s="59"/>
+      <c r="W6" s="59"/>
+      <c r="X6" s="59"/>
+      <c r="Y6" s="59"/>
+    </row>
+    <row r="7" spans="1:25">
+      <c r="A7" s="57" t="s">
+        <v>509</v>
+      </c>
+      <c r="B7" s="57" t="s">
+        <v>516</v>
+      </c>
+      <c r="C7" s="58">
         <v>4138</v>
       </c>
-      <c r="D2" s="59" t="s">
-        <v>539</v>
-      </c>
-      <c r="E2" s="59" t="s">
-        <v>540</v>
-      </c>
-      <c r="F2" s="59" t="s">
-        <v>468</v>
-      </c>
-      <c r="G2" s="60" t="s">
-        <v>543</v>
-      </c>
-      <c r="H2" s="60" t="s">
-        <v>542</v>
-      </c>
-      <c r="I2" s="60"/>
-      <c r="J2" s="60"/>
-      <c r="K2" s="60"/>
-      <c r="L2" s="60"/>
-      <c r="M2" s="60"/>
-      <c r="N2" s="60"/>
-      <c r="O2" s="60"/>
-      <c r="P2" s="60"/>
-      <c r="Q2" s="60"/>
-      <c r="R2" s="60"/>
-      <c r="S2" s="60"/>
-      <c r="T2" s="60"/>
-      <c r="U2" s="60"/>
-      <c r="V2" s="60"/>
-      <c r="W2" s="60"/>
-      <c r="X2" s="60"/>
-      <c r="Y2" s="60"/>
-    </row>
-    <row r="3" spans="1:25">
-      <c r="A3" s="58" t="s">
-        <v>521</v>
-      </c>
-      <c r="B3" s="58" t="s">
-        <v>528</v>
-      </c>
-      <c r="C3" s="59">
+      <c r="D7" s="58"/>
+      <c r="E7" s="58"/>
+      <c r="F7" s="58"/>
+      <c r="G7" s="59"/>
+      <c r="H7" s="59"/>
+      <c r="I7" s="59"/>
+      <c r="J7" s="59"/>
+      <c r="K7" s="59"/>
+      <c r="L7" s="59"/>
+      <c r="M7" s="59"/>
+      <c r="N7" s="59"/>
+      <c r="O7" s="59"/>
+      <c r="P7" s="59"/>
+      <c r="Q7" s="59"/>
+      <c r="R7" s="59"/>
+      <c r="S7" s="59"/>
+      <c r="T7" s="59"/>
+      <c r="U7" s="59"/>
+      <c r="V7" s="59"/>
+      <c r="W7" s="59"/>
+      <c r="X7" s="59"/>
+      <c r="Y7" s="59"/>
+    </row>
+    <row r="8" spans="1:25">
+      <c r="A8" s="57" t="s">
+        <v>510</v>
+      </c>
+      <c r="B8" s="57" t="s">
+        <v>517</v>
+      </c>
+      <c r="C8" s="58">
         <v>4138</v>
       </c>
-      <c r="D3" s="59" t="s">
-        <v>539</v>
-      </c>
-      <c r="E3" s="59" t="s">
-        <v>564</v>
-      </c>
-      <c r="F3" s="59" t="s">
-        <v>468</v>
-      </c>
-      <c r="G3" s="60" t="s">
-        <v>563</v>
-      </c>
-      <c r="H3" s="60" t="s">
-        <v>562</v>
-      </c>
-      <c r="I3" s="60" t="s">
-        <v>257</v>
-      </c>
-      <c r="J3" s="60" t="s">
-        <v>552</v>
-      </c>
-      <c r="K3" s="60" t="s">
-        <v>553</v>
-      </c>
-      <c r="L3" s="60" t="s">
-        <v>209</v>
-      </c>
-      <c r="M3" s="60" t="s">
-        <v>554</v>
-      </c>
-      <c r="N3" s="60" t="s">
-        <v>205</v>
-      </c>
-      <c r="O3" s="60" t="s">
-        <v>93</v>
-      </c>
-      <c r="P3" s="60" t="s">
-        <v>555</v>
-      </c>
-      <c r="Q3" s="60" t="s">
-        <v>556</v>
-      </c>
-      <c r="R3" s="60" t="s">
-        <v>655</v>
-      </c>
-      <c r="S3" s="60" t="s">
-        <v>93</v>
-      </c>
-      <c r="T3" s="60" t="s">
-        <v>95</v>
-      </c>
-      <c r="U3" s="60" t="s">
-        <v>555</v>
-      </c>
-      <c r="V3" s="60" t="s">
-        <v>557</v>
-      </c>
-      <c r="W3" s="60"/>
-      <c r="X3" s="60"/>
-      <c r="Y3" s="60"/>
-    </row>
-    <row r="4" spans="1:25">
-      <c r="A4" s="58" t="s">
-        <v>522</v>
-      </c>
-      <c r="B4" s="58" t="s">
-        <v>529</v>
-      </c>
-      <c r="C4" s="59">
+      <c r="D8" s="58"/>
+      <c r="E8" s="58"/>
+      <c r="F8" s="58"/>
+      <c r="G8" s="59"/>
+      <c r="H8" s="59"/>
+      <c r="I8" s="59"/>
+      <c r="J8" s="59"/>
+      <c r="K8" s="59" t="s">
+        <v>558</v>
+      </c>
+      <c r="L8" s="59" t="s">
+        <v>559</v>
+      </c>
+      <c r="M8" s="59"/>
+      <c r="N8" s="59"/>
+      <c r="O8" s="59"/>
+      <c r="P8" s="59"/>
+      <c r="Q8" s="59"/>
+      <c r="R8" s="59"/>
+      <c r="S8" s="59"/>
+      <c r="T8" s="59"/>
+      <c r="U8" s="59"/>
+      <c r="V8" s="59"/>
+      <c r="W8" s="59"/>
+      <c r="X8" s="59"/>
+      <c r="Y8" s="59"/>
+    </row>
+    <row r="9" spans="1:25">
+      <c r="A9" s="57" t="s">
+        <v>600</v>
+      </c>
+      <c r="B9" s="57" t="s">
+        <v>617</v>
+      </c>
+      <c r="C9" s="58">
         <v>4138</v>
       </c>
-      <c r="D4" s="59" t="s">
-        <v>539</v>
-      </c>
-      <c r="E4" s="59" t="s">
-        <v>567</v>
-      </c>
-      <c r="F4" s="59" t="s">
-        <v>468</v>
-      </c>
-      <c r="G4" s="60" t="s">
-        <v>566</v>
-      </c>
-      <c r="H4" s="60" t="s">
-        <v>565</v>
-      </c>
-      <c r="I4" s="60"/>
-      <c r="J4" s="60"/>
-      <c r="K4" s="60"/>
-      <c r="L4" s="60"/>
-      <c r="M4" s="60"/>
-      <c r="N4" s="60"/>
-      <c r="O4" s="60"/>
-      <c r="P4" s="60"/>
-      <c r="Q4" s="60"/>
-      <c r="R4" s="60"/>
-      <c r="S4" s="60"/>
-      <c r="T4" s="60"/>
-      <c r="U4" s="60"/>
-      <c r="V4" s="60"/>
-      <c r="W4" s="60"/>
-      <c r="X4" s="60"/>
-      <c r="Y4" s="60"/>
-    </row>
-    <row r="5" spans="1:25">
-      <c r="A5" s="58" t="s">
-        <v>523</v>
-      </c>
-      <c r="B5" s="58" t="s">
-        <v>530</v>
-      </c>
-      <c r="C5" s="59">
+      <c r="D9" s="58"/>
+      <c r="E9" s="58"/>
+      <c r="F9" s="58"/>
+      <c r="G9" s="59"/>
+      <c r="H9" s="59"/>
+      <c r="I9" s="59"/>
+      <c r="J9" s="59"/>
+      <c r="K9" s="59"/>
+      <c r="L9" s="59"/>
+      <c r="M9" s="59"/>
+      <c r="N9" s="59"/>
+      <c r="O9" s="59"/>
+      <c r="P9" s="59"/>
+      <c r="Q9" s="59"/>
+      <c r="R9" s="59"/>
+      <c r="S9" s="59"/>
+      <c r="T9" s="59"/>
+      <c r="U9" s="59"/>
+      <c r="V9" s="59"/>
+      <c r="W9" s="59"/>
+      <c r="X9" s="59"/>
+      <c r="Y9" s="59"/>
+    </row>
+    <row r="10" spans="1:25">
+      <c r="A10" s="57" t="s">
+        <v>601</v>
+      </c>
+      <c r="B10" s="57" t="s">
+        <v>618</v>
+      </c>
+      <c r="C10" s="58">
         <v>4138</v>
       </c>
-      <c r="D5" s="59" t="s">
-        <v>539</v>
-      </c>
-      <c r="E5" s="59" t="s">
-        <v>570</v>
-      </c>
-      <c r="F5" s="59" t="s">
-        <v>468</v>
-      </c>
-      <c r="G5" s="60" t="s">
-        <v>569</v>
-      </c>
-      <c r="H5" s="60" t="s">
-        <v>568</v>
-      </c>
-      <c r="I5" s="60"/>
-      <c r="J5" s="60"/>
-      <c r="K5" s="60"/>
-      <c r="L5" s="60"/>
-      <c r="M5" s="60"/>
-      <c r="N5" s="60"/>
-      <c r="O5" s="60"/>
-      <c r="P5" s="60"/>
-      <c r="Q5" s="60"/>
-      <c r="R5" s="60"/>
-      <c r="S5" s="60"/>
-      <c r="T5" s="60"/>
-      <c r="U5" s="60"/>
-      <c r="V5" s="60"/>
-      <c r="W5" s="60"/>
-      <c r="X5" s="60"/>
-      <c r="Y5" s="60"/>
-    </row>
-    <row r="6" spans="1:25">
-      <c r="A6" s="58" t="s">
-        <v>524</v>
-      </c>
-      <c r="B6" s="58" t="s">
-        <v>531</v>
-      </c>
-      <c r="C6" s="59">
+      <c r="D10" s="58"/>
+      <c r="E10" s="58"/>
+      <c r="F10" s="58"/>
+      <c r="G10" s="59"/>
+      <c r="H10" s="59"/>
+      <c r="I10" s="59"/>
+      <c r="J10" s="59"/>
+      <c r="K10" s="59"/>
+      <c r="L10" s="59"/>
+      <c r="M10" s="59"/>
+      <c r="N10" s="59"/>
+      <c r="O10" s="59"/>
+      <c r="P10" s="59"/>
+      <c r="Q10" s="59"/>
+      <c r="R10" s="59"/>
+      <c r="S10" s="59"/>
+      <c r="T10" s="59"/>
+      <c r="U10" s="59"/>
+      <c r="V10" s="59"/>
+      <c r="W10" s="59" t="s">
+        <v>622</v>
+      </c>
+      <c r="X10" s="59"/>
+      <c r="Y10" s="59"/>
+    </row>
+    <row r="11" spans="1:25">
+      <c r="A11" s="57" t="s">
+        <v>602</v>
+      </c>
+      <c r="B11" s="57" t="s">
+        <v>619</v>
+      </c>
+      <c r="C11" s="58">
         <v>4138</v>
       </c>
-      <c r="D6" s="59" t="s">
-        <v>539</v>
-      </c>
-      <c r="E6" s="59" t="s">
-        <v>578</v>
-      </c>
-      <c r="F6" s="59" t="s">
-        <v>468</v>
-      </c>
-      <c r="G6" s="60" t="s">
-        <v>576</v>
-      </c>
-      <c r="H6" s="60" t="s">
-        <v>577</v>
-      </c>
-      <c r="I6" s="60" t="s">
-        <v>257</v>
-      </c>
-      <c r="J6" s="60" t="s">
-        <v>552</v>
-      </c>
-      <c r="K6" s="60" t="s">
-        <v>574</v>
-      </c>
-      <c r="L6" s="60" t="s">
-        <v>575</v>
-      </c>
-      <c r="M6" s="60" t="s">
-        <v>554</v>
-      </c>
-      <c r="N6" s="60" t="s">
-        <v>205</v>
-      </c>
-      <c r="O6" s="60" t="s">
-        <v>93</v>
-      </c>
-      <c r="P6" s="60" t="s">
-        <v>555</v>
-      </c>
-      <c r="Q6" s="60" t="s">
-        <v>556</v>
-      </c>
-      <c r="R6" s="60"/>
-      <c r="S6" s="60"/>
-      <c r="T6" s="60"/>
-      <c r="U6" s="60"/>
-      <c r="V6" s="60"/>
-      <c r="W6" s="60"/>
-      <c r="X6" s="60"/>
-      <c r="Y6" s="60"/>
-    </row>
-    <row r="7" spans="1:25">
-      <c r="A7" s="58" t="s">
-        <v>525</v>
-      </c>
-      <c r="B7" s="58" t="s">
-        <v>532</v>
-      </c>
-      <c r="C7" s="59">
+      <c r="D11" s="58"/>
+      <c r="E11" s="58"/>
+      <c r="F11" s="58"/>
+      <c r="G11" s="59"/>
+      <c r="H11" s="59"/>
+      <c r="I11" s="59"/>
+      <c r="J11" s="59"/>
+      <c r="K11" s="59"/>
+      <c r="L11" s="59"/>
+      <c r="M11" s="59"/>
+      <c r="N11" s="59"/>
+      <c r="O11" s="59"/>
+      <c r="P11" s="59"/>
+      <c r="Q11" s="59"/>
+      <c r="R11" s="59"/>
+      <c r="S11" s="59"/>
+      <c r="T11" s="59"/>
+      <c r="U11" s="59"/>
+      <c r="V11" s="59"/>
+      <c r="W11" s="59" t="s">
+        <v>622</v>
+      </c>
+      <c r="X11" s="59"/>
+      <c r="Y11" s="59"/>
+    </row>
+    <row r="12" spans="1:25">
+      <c r="A12" s="57" t="s">
+        <v>603</v>
+      </c>
+      <c r="B12" s="57" t="s">
+        <v>620</v>
+      </c>
+      <c r="C12" s="58">
         <v>4138</v>
       </c>
-      <c r="D7" s="59"/>
-      <c r="E7" s="59"/>
-      <c r="F7" s="59"/>
-      <c r="G7" s="60"/>
-      <c r="H7" s="60"/>
-      <c r="I7" s="60"/>
-      <c r="J7" s="60"/>
-      <c r="K7" s="60"/>
-      <c r="L7" s="60"/>
-      <c r="M7" s="60"/>
-      <c r="N7" s="60"/>
-      <c r="O7" s="60"/>
-      <c r="P7" s="60"/>
-      <c r="Q7" s="60"/>
-      <c r="R7" s="60"/>
-      <c r="S7" s="60"/>
-      <c r="T7" s="60"/>
-      <c r="U7" s="60"/>
-      <c r="V7" s="60"/>
-      <c r="W7" s="60"/>
-      <c r="X7" s="60"/>
-      <c r="Y7" s="60"/>
-    </row>
-    <row r="8" spans="1:25">
-      <c r="A8" s="58" t="s">
-        <v>526</v>
-      </c>
-      <c r="B8" s="58" t="s">
-        <v>533</v>
-      </c>
-      <c r="C8" s="59">
+      <c r="D12" s="58"/>
+      <c r="E12" s="58"/>
+      <c r="F12" s="58"/>
+      <c r="G12" s="59"/>
+      <c r="H12" s="59"/>
+      <c r="I12" s="59"/>
+      <c r="J12" s="59"/>
+      <c r="K12" s="59"/>
+      <c r="L12" s="59"/>
+      <c r="M12" s="59"/>
+      <c r="N12" s="59"/>
+      <c r="O12" s="59"/>
+      <c r="P12" s="59"/>
+      <c r="Q12" s="59"/>
+      <c r="R12" s="59"/>
+      <c r="S12" s="59"/>
+      <c r="T12" s="59"/>
+      <c r="U12" s="59"/>
+      <c r="V12" s="59"/>
+      <c r="W12" s="59"/>
+      <c r="X12" s="59" t="s">
+        <v>625</v>
+      </c>
+      <c r="Y12" s="59" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25">
+      <c r="A13" s="57" t="s">
+        <v>604</v>
+      </c>
+      <c r="B13" s="57" t="s">
+        <v>621</v>
+      </c>
+      <c r="C13" s="58">
         <v>4138</v>
       </c>
-      <c r="D8" s="59"/>
-      <c r="E8" s="59"/>
-      <c r="F8" s="59"/>
-      <c r="G8" s="60"/>
-      <c r="H8" s="60"/>
-      <c r="I8" s="60"/>
-      <c r="J8" s="60"/>
-      <c r="K8" s="60" t="s">
-        <v>574</v>
-      </c>
-      <c r="L8" s="60" t="s">
-        <v>575</v>
-      </c>
-      <c r="M8" s="60"/>
-      <c r="N8" s="60"/>
-      <c r="O8" s="60"/>
-      <c r="P8" s="60"/>
-      <c r="Q8" s="60"/>
-      <c r="R8" s="60"/>
-      <c r="S8" s="60"/>
-      <c r="T8" s="60"/>
-      <c r="U8" s="60"/>
-      <c r="V8" s="60"/>
-      <c r="W8" s="60"/>
-      <c r="X8" s="60"/>
-      <c r="Y8" s="60"/>
-    </row>
-    <row r="9" spans="1:25">
-      <c r="A9" s="58" t="s">
-        <v>616</v>
-      </c>
-      <c r="B9" s="58" t="s">
-        <v>633</v>
-      </c>
-      <c r="C9" s="59">
-        <v>4138</v>
-      </c>
-      <c r="D9" s="59"/>
-      <c r="E9" s="59"/>
-      <c r="F9" s="59"/>
-      <c r="G9" s="60"/>
-      <c r="H9" s="60"/>
-      <c r="I9" s="60"/>
-      <c r="J9" s="60"/>
-      <c r="K9" s="60"/>
-      <c r="L9" s="60"/>
-      <c r="M9" s="60"/>
-      <c r="N9" s="60"/>
-      <c r="O9" s="60"/>
-      <c r="P9" s="60"/>
-      <c r="Q9" s="60"/>
-      <c r="R9" s="60"/>
-      <c r="S9" s="60"/>
-      <c r="T9" s="60"/>
-      <c r="U9" s="60"/>
-      <c r="V9" s="60"/>
-      <c r="W9" s="60"/>
-      <c r="X9" s="60"/>
-      <c r="Y9" s="60"/>
-    </row>
-    <row r="10" spans="1:25">
-      <c r="A10" s="58" t="s">
-        <v>617</v>
-      </c>
-      <c r="B10" s="58" t="s">
-        <v>634</v>
-      </c>
-      <c r="C10" s="59">
-        <v>4138</v>
-      </c>
-      <c r="D10" s="59"/>
-      <c r="E10" s="59"/>
-      <c r="F10" s="59"/>
-      <c r="G10" s="60"/>
-      <c r="H10" s="60"/>
-      <c r="I10" s="60"/>
-      <c r="J10" s="60"/>
-      <c r="K10" s="60"/>
-      <c r="L10" s="60"/>
-      <c r="M10" s="60"/>
-      <c r="N10" s="60"/>
-      <c r="O10" s="60"/>
-      <c r="P10" s="60"/>
-      <c r="Q10" s="60"/>
-      <c r="R10" s="60"/>
-      <c r="S10" s="60"/>
-      <c r="T10" s="60"/>
-      <c r="U10" s="60"/>
-      <c r="V10" s="60"/>
-      <c r="W10" s="60" t="s">
-        <v>638</v>
-      </c>
-      <c r="X10" s="60"/>
-      <c r="Y10" s="60"/>
-    </row>
-    <row r="11" spans="1:25">
-      <c r="A11" s="58" t="s">
-        <v>618</v>
-      </c>
-      <c r="B11" s="58" t="s">
-        <v>635</v>
-      </c>
-      <c r="C11" s="59">
-        <v>4138</v>
-      </c>
-      <c r="D11" s="59"/>
-      <c r="E11" s="59"/>
-      <c r="F11" s="59"/>
-      <c r="G11" s="60"/>
-      <c r="H11" s="60"/>
-      <c r="I11" s="60"/>
-      <c r="J11" s="60"/>
-      <c r="K11" s="60"/>
-      <c r="L11" s="60"/>
-      <c r="M11" s="60"/>
-      <c r="N11" s="60"/>
-      <c r="O11" s="60"/>
-      <c r="P11" s="60"/>
-      <c r="Q11" s="60"/>
-      <c r="R11" s="60"/>
-      <c r="S11" s="60"/>
-      <c r="T11" s="60"/>
-      <c r="U11" s="60"/>
-      <c r="V11" s="60"/>
-      <c r="W11" s="60" t="s">
-        <v>638</v>
-      </c>
-      <c r="X11" s="60"/>
-      <c r="Y11" s="60"/>
-    </row>
-    <row r="12" spans="1:25">
-      <c r="A12" s="58" t="s">
-        <v>619</v>
-      </c>
-      <c r="B12" s="58" t="s">
-        <v>636</v>
-      </c>
-      <c r="C12" s="59">
-        <v>4138</v>
-      </c>
-      <c r="D12" s="59"/>
-      <c r="E12" s="59"/>
-      <c r="F12" s="59"/>
-      <c r="G12" s="60"/>
-      <c r="H12" s="60"/>
-      <c r="I12" s="60"/>
-      <c r="J12" s="60"/>
-      <c r="K12" s="60"/>
-      <c r="L12" s="60"/>
-      <c r="M12" s="60"/>
-      <c r="N12" s="60"/>
-      <c r="O12" s="60"/>
-      <c r="P12" s="60"/>
-      <c r="Q12" s="60"/>
-      <c r="R12" s="60"/>
-      <c r="S12" s="60"/>
-      <c r="T12" s="60"/>
-      <c r="U12" s="60"/>
-      <c r="V12" s="60"/>
-      <c r="W12" s="60"/>
-      <c r="X12" s="60" t="s">
-        <v>641</v>
-      </c>
-      <c r="Y12" s="60" t="s">
-        <v>642</v>
-      </c>
-    </row>
-    <row r="13" spans="1:25">
-      <c r="A13" s="58" t="s">
-        <v>620</v>
-      </c>
-      <c r="B13" s="58" t="s">
-        <v>637</v>
-      </c>
-      <c r="C13" s="59">
-        <v>4138</v>
-      </c>
-      <c r="D13" s="59"/>
-      <c r="E13" s="59"/>
-      <c r="F13" s="59"/>
-      <c r="G13" s="60"/>
-      <c r="H13" s="60"/>
-      <c r="I13" s="60"/>
-      <c r="J13" s="60"/>
-      <c r="K13" s="60"/>
-      <c r="L13" s="60"/>
-      <c r="M13" s="60"/>
-      <c r="N13" s="60"/>
-      <c r="O13" s="60"/>
-      <c r="P13" s="60"/>
-      <c r="Q13" s="60"/>
-      <c r="R13" s="60"/>
-      <c r="S13" s="60"/>
-      <c r="T13" s="60"/>
-      <c r="U13" s="60"/>
-      <c r="V13" s="60"/>
-      <c r="W13" s="60"/>
-      <c r="X13" s="60"/>
-      <c r="Y13" s="60"/>
+      <c r="D13" s="58"/>
+      <c r="E13" s="58"/>
+      <c r="F13" s="58"/>
+      <c r="G13" s="59"/>
+      <c r="H13" s="59"/>
+      <c r="I13" s="59"/>
+      <c r="J13" s="59"/>
+      <c r="K13" s="59"/>
+      <c r="L13" s="59"/>
+      <c r="M13" s="59"/>
+      <c r="N13" s="59"/>
+      <c r="O13" s="59"/>
+      <c r="P13" s="59"/>
+      <c r="Q13" s="59"/>
+      <c r="R13" s="59"/>
+      <c r="S13" s="59"/>
+      <c r="T13" s="59"/>
+      <c r="U13" s="59"/>
+      <c r="V13" s="59"/>
+      <c r="W13" s="59"/>
+      <c r="X13" s="59"/>
+      <c r="Y13" s="59"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7857,10 +8179,10 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U4"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q19" sqref="Q19"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="T16" sqref="T16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -7875,34 +8197,35 @@
     <col min="9" max="9" width="14.21875" customWidth="1"/>
     <col min="10" max="10" width="10.44140625" customWidth="1"/>
     <col min="11" max="11" width="16.21875" customWidth="1"/>
-    <col min="12" max="12" width="14" customWidth="1"/>
-    <col min="13" max="13" width="15.5546875" customWidth="1"/>
-    <col min="14" max="14" width="14" customWidth="1"/>
-    <col min="15" max="15" width="14.33203125" customWidth="1"/>
-    <col min="16" max="16" width="10.77734375" customWidth="1"/>
-    <col min="17" max="17" width="17.88671875" customWidth="1"/>
-    <col min="18" max="18" width="12.5546875" customWidth="1"/>
-    <col min="19" max="19" width="14.5546875" customWidth="1"/>
+    <col min="12" max="12" width="14.109375" customWidth="1"/>
+    <col min="13" max="13" width="14" customWidth="1"/>
+    <col min="14" max="14" width="15.5546875" customWidth="1"/>
+    <col min="15" max="15" width="14" customWidth="1"/>
+    <col min="16" max="16" width="14.33203125" customWidth="1"/>
+    <col min="17" max="17" width="10.77734375" customWidth="1"/>
+    <col min="18" max="18" width="16" customWidth="1"/>
+    <col min="19" max="19" width="19.6640625" customWidth="1"/>
+    <col min="20" max="20" width="18.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21">
+    <row r="1" spans="1:20">
       <c r="A1" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="56" t="s">
+      <c r="C1" s="55" t="s">
         <v>10</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>248</v>
+        <v>234</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>249</v>
+        <v>235</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>14</v>
@@ -7914,42 +8237,47 @@
         <v>16</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>252</v>
+        <v>238</v>
       </c>
       <c r="K1" s="3" t="s">
         <v>17</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>649</v>
+        <v>641</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>650</v>
+        <v>633</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>651</v>
+        <v>634</v>
       </c>
       <c r="O1" s="3" t="s">
-        <v>652</v>
+        <v>635</v>
       </c>
       <c r="P1" s="3" t="s">
-        <v>338</v>
+        <v>636</v>
       </c>
       <c r="Q1" s="3" t="s">
-        <v>654</v>
-      </c>
-      <c r="R1" s="3"/>
-      <c r="S1" s="3"/>
-      <c r="T1" s="3"/>
-      <c r="U1" s="3"/>
-    </row>
-    <row r="2" spans="1:21">
-      <c r="A2" s="58" t="s">
-        <v>621</v>
-      </c>
-      <c r="B2" s="58" t="s">
-        <v>643</v>
-      </c>
-      <c r="C2" s="59">
+        <v>322</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>638</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="T1" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
+      <c r="A2" s="57" t="s">
+        <v>605</v>
+      </c>
+      <c r="B2" s="57" t="s">
+        <v>627</v>
+      </c>
+      <c r="C2" s="58">
         <v>4138</v>
       </c>
       <c r="D2" s="4"/>
@@ -7969,41 +8297,40 @@
       <c r="R2" s="4"/>
       <c r="S2" s="4"/>
       <c r="T2" s="4"/>
-      <c r="U2" s="4"/>
-    </row>
-    <row r="3" spans="1:21">
-      <c r="A3" s="58" t="s">
-        <v>622</v>
-      </c>
-      <c r="B3" s="58" t="s">
-        <v>644</v>
-      </c>
-      <c r="C3" s="59">
+    </row>
+    <row r="3" spans="1:20">
+      <c r="A3" s="57" t="s">
+        <v>606</v>
+      </c>
+      <c r="B3" s="57" t="s">
+        <v>628</v>
+      </c>
+      <c r="C3" s="58">
         <v>4138</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>247</v>
+        <v>233</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>254</v>
+        <v>240</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>255</v>
+        <v>241</v>
       </c>
       <c r="H3" s="4" t="s">
         <v>25</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>256</v>
+        <v>242</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>269</v>
+        <v>254</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>648</v>
+        <v>632</v>
       </c>
       <c r="L3" s="4"/>
       <c r="M3" s="4"/>
@@ -8014,64 +8341,254 @@
       <c r="R3" s="4"/>
       <c r="S3" s="4"/>
       <c r="T3" s="4"/>
-      <c r="U3" s="4"/>
-    </row>
-    <row r="4" spans="1:21">
-      <c r="A4" s="58" t="s">
-        <v>623</v>
-      </c>
-      <c r="B4" s="58" t="s">
-        <v>645</v>
-      </c>
-      <c r="C4" s="59">
+    </row>
+    <row r="4" spans="1:20">
+      <c r="A4" s="57" t="s">
+        <v>607</v>
+      </c>
+      <c r="B4" s="57" t="s">
+        <v>629</v>
+      </c>
+      <c r="C4" s="58">
         <v>4138</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>247</v>
+        <v>233</v>
       </c>
       <c r="F4" s="4" t="s">
+        <v>630</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>631</v>
+      </c>
+      <c r="H4" s="58">
+        <v>72</v>
+      </c>
+      <c r="I4" s="58">
+        <v>6800</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="K4" s="58">
+        <v>71</v>
+      </c>
+      <c r="L4" s="58"/>
+      <c r="M4" s="58">
+        <v>12</v>
+      </c>
+      <c r="N4" s="58">
+        <v>3500</v>
+      </c>
+      <c r="O4" s="58">
+        <v>50000</v>
+      </c>
+      <c r="P4" s="58" t="s">
+        <v>637</v>
+      </c>
+      <c r="Q4" s="58" t="s">
+        <v>326</v>
+      </c>
+      <c r="R4" s="58">
+        <v>6800</v>
+      </c>
+      <c r="S4" s="4"/>
+      <c r="T4" s="4"/>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" s="57" t="s">
+        <v>643</v>
+      </c>
+      <c r="B5" s="57" t="s">
+        <v>644</v>
+      </c>
+      <c r="C5" s="58">
+        <v>4138</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>655</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>656</v>
+      </c>
+      <c r="H5" s="58">
+        <v>72</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>657</v>
+      </c>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4" t="s">
+        <v>658</v>
+      </c>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+      <c r="O5" s="4"/>
+      <c r="P5" s="4"/>
+      <c r="Q5" s="4"/>
+      <c r="R5" s="4"/>
+      <c r="S5" s="4"/>
+      <c r="T5" s="4"/>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" s="57" t="s">
+        <v>645</v>
+      </c>
+      <c r="B6" s="57" t="s">
         <v>646</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="C6" s="58">
+        <v>4138</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4" t="s">
+        <v>660</v>
+      </c>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4" t="s">
+        <v>659</v>
+      </c>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+      <c r="O6" s="4"/>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="4"/>
+      <c r="R6" s="4"/>
+      <c r="S6" s="4"/>
+      <c r="T6" s="4"/>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" s="57" t="s">
         <v>647</v>
       </c>
-      <c r="H4" s="59">
-        <v>72</v>
-      </c>
-      <c r="I4" s="59">
-        <v>6800</v>
-      </c>
-      <c r="J4" s="4" t="s">
-        <v>269</v>
-      </c>
-      <c r="K4" s="59">
-        <v>71</v>
-      </c>
-      <c r="L4" s="59">
-        <v>12</v>
-      </c>
-      <c r="M4" s="59">
-        <v>3500</v>
-      </c>
-      <c r="N4" s="59">
-        <v>50000</v>
-      </c>
-      <c r="O4" s="59" t="s">
+      <c r="B7" s="57" t="s">
+        <v>648</v>
+      </c>
+      <c r="C7" s="58">
+        <v>4138</v>
+      </c>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="4"/>
+      <c r="O7" s="4"/>
+      <c r="P7" s="4"/>
+      <c r="Q7" s="4"/>
+      <c r="R7" s="4"/>
+      <c r="S7" s="4"/>
+      <c r="T7" s="4"/>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" s="57" t="s">
+        <v>649</v>
+      </c>
+      <c r="B8" s="57" t="s">
+        <v>650</v>
+      </c>
+      <c r="C8" s="58">
+        <v>4138</v>
+      </c>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="4"/>
+      <c r="O8" s="4"/>
+      <c r="P8" s="4"/>
+      <c r="Q8" s="4"/>
+      <c r="R8" s="4"/>
+      <c r="S8" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="T8" s="4" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" s="57" t="s">
+        <v>651</v>
+      </c>
+      <c r="B9" s="57" t="s">
+        <v>652</v>
+      </c>
+      <c r="C9" s="58">
+        <v>4138</v>
+      </c>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="4"/>
+      <c r="O9" s="4"/>
+      <c r="P9" s="4"/>
+      <c r="Q9" s="4"/>
+      <c r="R9" s="4"/>
+      <c r="S9" s="4"/>
+      <c r="T9" s="4"/>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" s="57" t="s">
         <v>653</v>
       </c>
-      <c r="P4" s="59" t="s">
-        <v>342</v>
-      </c>
-      <c r="Q4" s="59">
-        <v>6800</v>
-      </c>
-      <c r="R4" s="59"/>
-      <c r="S4" s="59"/>
-      <c r="T4" s="59"/>
-      <c r="U4" s="59"/>
+      <c r="B10" s="57" t="s">
+        <v>654</v>
+      </c>
+      <c r="C10" s="58">
+        <v>4138</v>
+      </c>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="4"/>
+      <c r="O10" s="4"/>
+      <c r="P10" s="4"/>
+      <c r="Q10" s="4"/>
+      <c r="R10" s="4"/>
+      <c r="S10" s="4"/>
+      <c r="T10" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8120,7 +8637,7 @@
         <v>31</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>245</v>
+        <v>231</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -8142,7 +8659,7 @@
         <v>6</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>31</v>
@@ -8165,94 +8682,94 @@
         <v>102</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="8" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>31</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="8" t="s">
-        <v>246</v>
+        <v>232</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>430</v>
+        <v>414</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>31</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>244</v>
+        <v>230</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>276</v>
+        <v>261</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="8" t="s">
-        <v>275</v>
+        <v>260</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>415</v>
+        <v>399</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>31</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>277</v>
+        <v>262</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="8" t="s">
-        <v>284</v>
+        <v>269</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>288</v>
+        <v>273</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>31</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>289</v>
+        <v>274</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="8" t="s">
-        <v>516</v>
+        <v>500</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>514</v>
+        <v>498</v>
       </c>
       <c r="C10" s="7" t="s">
         <v>31</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>515</v>
+        <v>499</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="8" t="s">
-        <v>534</v>
+        <v>518</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>535</v>
+        <v>519</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>31</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>536</v>
+        <v>520</v>
       </c>
       <c r="E11" s="15"/>
     </row>
@@ -8483,7 +9000,7 @@
         <v>142</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>571</v>
+        <v>555</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>114</v>
@@ -8501,10 +9018,10 @@
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="2" t="s">
-        <v>572</v>
+        <v>556</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>573</v>
+        <v>557</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>114</v>
@@ -8569,28 +9086,28 @@
         <v>116</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>487</v>
+        <v>471</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>488</v>
+        <v>472</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>489</v>
+        <v>473</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>490</v>
+        <v>474</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>491</v>
+        <v>475</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>492</v>
+        <v>476</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>510</v>
+        <v>494</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>511</v>
+        <v>495</v>
       </c>
     </row>
     <row r="2" spans="1:13">
@@ -8664,10 +9181,10 @@
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="10" t="s">
-        <v>485</v>
+        <v>469</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>486</v>
+        <v>470</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>115</v>
@@ -8675,32 +9192,32 @@
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
       <c r="F5" s="4" t="s">
-        <v>493</v>
+        <v>477</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>494</v>
+        <v>478</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>495</v>
+        <v>479</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>496</v>
+        <v>480</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>497</v>
+        <v>481</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>498</v>
+        <v>482</v>
       </c>
       <c r="L5" s="4"/>
       <c r="M5" s="4"/>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="10" t="s">
-        <v>500</v>
+        <v>484</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>499</v>
+        <v>483</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>115</v>
@@ -8718,10 +9235,10 @@
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="10" t="s">
-        <v>509</v>
+        <v>493</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>508</v>
+        <v>492</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>115</v>
@@ -8735,10 +9252,10 @@
       <c r="J7" s="4"/>
       <c r="K7" s="4"/>
       <c r="L7" s="4" t="s">
-        <v>512</v>
+        <v>496</v>
       </c>
       <c r="M7" s="4" t="s">
-        <v>513</v>
+        <v>497</v>
       </c>
     </row>
   </sheetData>
@@ -8781,28 +9298,28 @@
         <v>10</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>465</v>
+        <v>449</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>466</v>
+        <v>450</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>467</v>
+        <v>451</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>459</v>
+        <v>443</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>460</v>
+        <v>444</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>463</v>
+        <v>447</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>464</v>
+        <v>448</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>484</v>
+        <v>468</v>
       </c>
     </row>
     <row r="2" spans="1:11">
@@ -8816,7 +9333,7 @@
         <v>118</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>468</v>
+        <v>452</v>
       </c>
       <c r="E2" s="12" t="s">
         <v>53</v>
@@ -8834,26 +9351,26 @@
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="11" t="s">
-        <v>445</v>
+        <v>429</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>446</v>
+        <v>430</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>469</v>
+        <v>453</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>468</v>
+        <v>452</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>458</v>
+        <v>442</v>
       </c>
       <c r="F3" s="12"/>
       <c r="G3" s="12" t="s">
-        <v>461</v>
+        <v>445</v>
       </c>
       <c r="H3" s="12" t="s">
-        <v>462</v>
+        <v>446</v>
       </c>
       <c r="I3" s="12" t="s">
         <v>54</v>
@@ -8865,13 +9382,13 @@
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="11" t="s">
-        <v>448</v>
+        <v>432</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>447</v>
+        <v>431</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>457</v>
+        <v>441</v>
       </c>
       <c r="D4" s="12"/>
       <c r="E4" s="12"/>
@@ -8884,26 +9401,26 @@
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="11" t="s">
-        <v>449</v>
+        <v>433</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>453</v>
+        <v>437</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>457</v>
+        <v>441</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>477</v>
+        <v>461</v>
       </c>
       <c r="E5" s="12"/>
       <c r="F5" s="12" t="s">
-        <v>478</v>
+        <v>462</v>
       </c>
       <c r="G5" s="12" t="s">
-        <v>479</v>
+        <v>463</v>
       </c>
       <c r="H5" s="12" t="s">
-        <v>480</v>
+        <v>464</v>
       </c>
       <c r="I5" s="12" t="s">
         <v>54</v>
@@ -8915,22 +9432,22 @@
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="11" t="s">
-        <v>450</v>
+        <v>434</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>454</v>
+        <v>438</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>457</v>
+        <v>441</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>477</v>
+        <v>461</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>481</v>
+        <v>465</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>478</v>
+        <v>462</v>
       </c>
       <c r="G6" s="12"/>
       <c r="H6" s="12"/>
@@ -8944,13 +9461,13 @@
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="11" t="s">
-        <v>451</v>
+        <v>435</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>455</v>
+        <v>439</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>457</v>
+        <v>441</v>
       </c>
       <c r="D7" s="12"/>
       <c r="E7" s="12"/>
@@ -8963,13 +9480,13 @@
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="11" t="s">
-        <v>452</v>
+        <v>436</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>456</v>
+        <v>440</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>457</v>
+        <v>441</v>
       </c>
       <c r="D8" s="12"/>
       <c r="E8" s="12"/>
@@ -9435,10 +9952,10 @@
         <v>81</v>
       </c>
       <c r="H1" s="13" t="s">
-        <v>198</v>
+        <v>187</v>
       </c>
       <c r="I1" s="13" t="s">
-        <v>199</v>
+        <v>188</v>
       </c>
       <c r="J1" s="13" t="s">
         <v>82</v>
@@ -9456,39 +9973,39 @@
         <v>86</v>
       </c>
       <c r="O1" s="13" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
       <c r="P1" s="13" t="s">
         <v>87</v>
       </c>
       <c r="Q1" s="13" t="s">
-        <v>212</v>
+        <v>201</v>
       </c>
       <c r="R1" s="13" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="S1" s="13" t="s">
-        <v>214</v>
+        <v>203</v>
       </c>
       <c r="T1" s="13" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="U1" s="13" t="s">
-        <v>215</v>
+        <v>204</v>
       </c>
       <c r="V1" s="26" t="s">
-        <v>216</v>
+        <v>205</v>
       </c>
     </row>
     <row r="2" spans="1:22" s="5" customFormat="1">
       <c r="A2" s="10" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>206</v>
+        <v>195</v>
       </c>
       <c r="D2" s="12" t="s">
         <v>88</v>
@@ -9497,37 +10014,37 @@
         <v>88</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="G2" s="12" t="s">
-        <v>208</v>
+        <v>197</v>
       </c>
       <c r="H2" s="12" t="s">
-        <v>209</v>
+        <v>198</v>
       </c>
       <c r="I2" s="12" t="s">
-        <v>200</v>
+        <v>189</v>
       </c>
       <c r="J2" s="12" t="s">
-        <v>210</v>
+        <v>199</v>
       </c>
       <c r="K2" s="12" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="L2" s="12" t="s">
         <v>93</v>
       </c>
       <c r="M2" s="12" t="s">
-        <v>211</v>
+        <v>200</v>
       </c>
       <c r="N2" s="12" t="s">
-        <v>204</v>
+        <v>193</v>
       </c>
       <c r="O2" s="12" t="s">
-        <v>201</v>
+        <v>190</v>
       </c>
       <c r="P2" s="12" t="s">
-        <v>203</v>
+        <v>192</v>
       </c>
       <c r="Q2" s="12"/>
       <c r="R2" s="12"/>
@@ -9538,13 +10055,13 @@
     </row>
     <row r="3" spans="1:22" s="5" customFormat="1">
       <c r="A3" s="10" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>191</v>
+        <v>180</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>206</v>
+        <v>195</v>
       </c>
       <c r="D3" s="12"/>
       <c r="E3" s="12"/>
@@ -9568,13 +10085,13 @@
     </row>
     <row r="4" spans="1:22" s="5" customFormat="1">
       <c r="A4" s="10" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="B4" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>195</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>206</v>
       </c>
       <c r="D4" s="12"/>
       <c r="E4" s="12"/>
@@ -9598,13 +10115,13 @@
     </row>
     <row r="5" spans="1:22" s="5" customFormat="1">
       <c r="A5" s="10" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>206</v>
+        <v>195</v>
       </c>
       <c r="D5" s="12" t="s">
         <v>88</v>
@@ -9613,37 +10130,37 @@
         <v>88</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="G5" s="12" t="s">
-        <v>208</v>
+        <v>197</v>
       </c>
       <c r="H5" s="12" t="s">
-        <v>209</v>
+        <v>198</v>
       </c>
       <c r="I5" s="12" t="s">
-        <v>200</v>
+        <v>189</v>
       </c>
       <c r="J5" s="12" t="s">
-        <v>210</v>
+        <v>199</v>
       </c>
       <c r="K5" s="12" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="L5" s="12" t="s">
         <v>93</v>
       </c>
       <c r="M5" s="12" t="s">
-        <v>211</v>
+        <v>200</v>
       </c>
       <c r="N5" s="12" t="s">
-        <v>204</v>
+        <v>193</v>
       </c>
       <c r="O5" s="12" t="s">
-        <v>201</v>
+        <v>190</v>
       </c>
       <c r="P5" s="12" t="s">
-        <v>203</v>
+        <v>192</v>
       </c>
       <c r="Q5" s="12"/>
       <c r="R5" s="12"/>
@@ -9654,13 +10171,13 @@
     </row>
     <row r="6" spans="1:22" s="5" customFormat="1">
       <c r="A6" s="10" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>206</v>
+        <v>195</v>
       </c>
       <c r="D6" s="12"/>
       <c r="E6" s="12"/>
@@ -9679,19 +10196,19 @@
         <v>93</v>
       </c>
       <c r="R6" s="12" t="s">
-        <v>217</v>
+        <v>206</v>
       </c>
       <c r="S6" s="12" t="s">
         <v>94</v>
       </c>
       <c r="T6" s="12" t="s">
-        <v>219</v>
+        <v>208</v>
       </c>
       <c r="U6" s="12" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="V6" s="27" t="s">
-        <v>221</v>
+        <v>210</v>
       </c>
     </row>
   </sheetData>

--- a/KULS_Sankar/TestData/ijaraTestData.xlsx
+++ b/KULS_Sankar/TestData/ijaraTestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="72" windowWidth="23256" windowHeight="12600" firstSheet="13" activeTab="16"/>
+    <workbookView xWindow="0" yWindow="72" windowWidth="23256" windowHeight="12600" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="AllFeaturesAutomationInfo" sheetId="8" r:id="rId1"/>
@@ -24,13 +24,14 @@
     <sheet name="TW_Offering_OfferDetails" sheetId="15" r:id="rId15"/>
     <sheet name="AL_AppData_AppDetails" sheetId="16" r:id="rId16"/>
     <sheet name="AL_AppData_CustomerDebt" sheetId="17" r:id="rId17"/>
+    <sheet name="AL_Underwriter_L1" sheetId="18" r:id="rId18"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1606" uniqueCount="678">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1678" uniqueCount="714">
   <si>
     <t>UserName</t>
   </si>
@@ -1733,12 +1734,6 @@
     <t>DS_AT_CUD_006</t>
   </si>
   <si>
-    <t>AT_CUD_007</t>
-  </si>
-  <si>
-    <t>DS_AT_CUD_007</t>
-  </si>
-  <si>
     <t>1145500</t>
   </si>
   <si>
@@ -2107,6 +2102,121 @@
   </si>
   <si>
     <t>SGD</t>
+  </si>
+  <si>
+    <t>Sprint - 76</t>
+  </si>
+  <si>
+    <t>0374</t>
+  </si>
+  <si>
+    <t>Auto Loan -- Underwriter(L1)</t>
+  </si>
+  <si>
+    <t>userType11</t>
+  </si>
+  <si>
+    <t>AT_AL_UNWL1_01</t>
+  </si>
+  <si>
+    <t>AT_AL_UNWL1_02</t>
+  </si>
+  <si>
+    <t>AT_AL_UNWL1_03</t>
+  </si>
+  <si>
+    <t>AT_AL_UNWL1_04</t>
+  </si>
+  <si>
+    <t>AT_AL_UNWL1_05</t>
+  </si>
+  <si>
+    <t>DS_AT_AL_UNWL1_01</t>
+  </si>
+  <si>
+    <t>DS_AT_AL_UNWL1_02</t>
+  </si>
+  <si>
+    <t>DS_AT_AL_UNWL1_03</t>
+  </si>
+  <si>
+    <t>DS_AT_AL_UNWL1_04</t>
+  </si>
+  <si>
+    <t>DS_AT_AL_UNWL1_05</t>
+  </si>
+  <si>
+    <t>Decision</t>
+  </si>
+  <si>
+    <t>Note_Code</t>
+  </si>
+  <si>
+    <t>Sequence_Number</t>
+  </si>
+  <si>
+    <t>Note_Sub_Code</t>
+  </si>
+  <si>
+    <t>Recommeded</t>
+  </si>
+  <si>
+    <t>48550</t>
+  </si>
+  <si>
+    <t>Decline</t>
+  </si>
+  <si>
+    <t>Auto-Loan 
+Underwriter L1</t>
+  </si>
+  <si>
+    <t>Sprint - 77</t>
+  </si>
+  <si>
+    <t>Unw_02, Unw_03 &amp; Unw_06</t>
+  </si>
+  <si>
+    <t>Unw_07, Unw_08. Unw_09, Unw_10</t>
+  </si>
+  <si>
+    <t>Unw_11 &amp; Unw_12</t>
+  </si>
+  <si>
+    <t>Unw_14, Unw_15, Unw_16, Unw_17</t>
+  </si>
+  <si>
+    <t>Unw_27, Unw_28, Unw_29, Unw_30</t>
+  </si>
+  <si>
+    <t>AL_Underwriter_L1.feature</t>
+  </si>
+  <si>
+    <t>AZ1LN-8932</t>
+  </si>
+  <si>
+    <t>01069</t>
+  </si>
+  <si>
+    <t>Decision2</t>
+  </si>
+  <si>
+    <t>Ref_ID</t>
+  </si>
+  <si>
+    <t>L1 Approval</t>
+  </si>
+  <si>
+    <t>0345.</t>
+  </si>
+  <si>
+    <t>Return the Record</t>
+  </si>
+  <si>
+    <t>UserReturn</t>
+  </si>
+  <si>
+    <t>0345</t>
   </si>
 </sst>
 </file>
@@ -2258,7 +2368,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -2379,6 +2489,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -2388,7 +2513,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="92">
+  <cellXfs count="100">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2560,15 +2685,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2593,6 +2726,20 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Excel_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_" xfId="2"/>
@@ -2889,26 +3036,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K138"/>
+  <dimension ref="A1:K142"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A110" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C118" sqref="C118"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="28" style="23" customWidth="1"/>
-    <col min="2" max="2" width="13.33203125" style="23" customWidth="1"/>
-    <col min="3" max="3" width="35.88671875" customWidth="1"/>
-    <col min="4" max="4" width="23.33203125" customWidth="1"/>
-    <col min="5" max="5" width="13.5546875" customWidth="1"/>
-    <col min="6" max="6" width="11" customWidth="1"/>
-    <col min="7" max="7" width="17.109375" customWidth="1"/>
-    <col min="8" max="8" width="10.33203125" customWidth="1"/>
-    <col min="9" max="9" width="39.77734375" customWidth="1"/>
-    <col min="10" max="10" width="21.88671875" customWidth="1"/>
-    <col min="11" max="11" width="15.6640625" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" style="23" width="28.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="23" width="13.33203125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="35.88671875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="23.33203125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="13.5546875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="17.109375" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="10.33203125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="39.77734375" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="17.21875" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="72" width="15.6640625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="19" customFormat="1">
@@ -2942,15 +3089,15 @@
       <c r="J1" s="16" t="s">
         <v>124</v>
       </c>
-      <c r="K1" s="80" t="s">
+      <c r="K1" s="97" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="85" t="s">
-        <v>670</v>
-      </c>
-      <c r="B2" s="86" t="s">
+      <c r="A2" s="87" t="s">
+        <v>668</v>
+      </c>
+      <c r="B2" s="88" t="s">
         <v>130</v>
       </c>
       <c r="C2" s="25" t="s">
@@ -2975,11 +3122,13 @@
         <v>485</v>
       </c>
       <c r="J2" s="25"/>
-      <c r="K2" s="81"/>
+      <c r="K2" s="94" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="84"/>
-      <c r="B3" s="87"/>
+      <c r="A3" s="86"/>
+      <c r="B3" s="89"/>
       <c r="C3" s="25" t="s">
         <v>131</v>
       </c>
@@ -3002,11 +3151,11 @@
         <v>485</v>
       </c>
       <c r="J3" s="25"/>
-      <c r="K3" s="81"/>
+      <c r="K3" s="95"/>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="84"/>
-      <c r="B4" s="87"/>
+      <c r="A4" s="86"/>
+      <c r="B4" s="89"/>
       <c r="C4" s="25" t="s">
         <v>132</v>
       </c>
@@ -3029,11 +3178,11 @@
         <v>485</v>
       </c>
       <c r="J4" s="25"/>
-      <c r="K4" s="81"/>
+      <c r="K4" s="95"/>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="84"/>
-      <c r="B5" s="88"/>
+      <c r="A5" s="86"/>
+      <c r="B5" s="90"/>
       <c r="C5" s="25" t="s">
         <v>134</v>
       </c>
@@ -3056,7 +3205,7 @@
         <v>485</v>
       </c>
       <c r="J5" s="25"/>
-      <c r="K5" s="81"/>
+      <c r="K5" s="96"/>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="37"/>
@@ -3069,13 +3218,13 @@
       <c r="H6" s="74"/>
       <c r="I6" s="25"/>
       <c r="J6" s="25"/>
-      <c r="K6" s="81"/>
+      <c r="K6" s="79"/>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="84" t="s">
-        <v>669</v>
-      </c>
-      <c r="B7" s="86" t="s">
+      <c r="A7" s="86" t="s">
+        <v>667</v>
+      </c>
+      <c r="B7" s="88" t="s">
         <v>143</v>
       </c>
       <c r="C7" s="21" t="s">
@@ -3100,11 +3249,11 @@
         <v>486</v>
       </c>
       <c r="J7" s="25"/>
-      <c r="K7" s="81"/>
+      <c r="K7" s="79"/>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="84"/>
-      <c r="B8" s="87"/>
+      <c r="A8" s="86"/>
+      <c r="B8" s="89"/>
       <c r="C8" s="25" t="s">
         <v>146</v>
       </c>
@@ -3127,11 +3276,11 @@
         <v>486</v>
       </c>
       <c r="J8" s="25"/>
-      <c r="K8" s="81"/>
+      <c r="K8" s="79"/>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" s="84"/>
-      <c r="B9" s="87"/>
+      <c r="A9" s="86"/>
+      <c r="B9" s="89"/>
       <c r="C9" s="25" t="s">
         <v>147</v>
       </c>
@@ -3154,11 +3303,11 @@
         <v>486</v>
       </c>
       <c r="J9" s="25"/>
-      <c r="K9" s="81"/>
+      <c r="K9" s="79"/>
     </row>
     <row r="10" spans="1:11">
-      <c r="A10" s="84"/>
-      <c r="B10" s="87"/>
+      <c r="A10" s="86"/>
+      <c r="B10" s="89"/>
       <c r="C10" s="25" t="s">
         <v>148</v>
       </c>
@@ -3181,13 +3330,13 @@
         <v>486</v>
       </c>
       <c r="J10" s="25"/>
-      <c r="K10" s="81"/>
+      <c r="K10" s="79"/>
     </row>
     <row r="11" spans="1:11" s="72" customFormat="1" ht="28.8">
       <c r="A11" s="68" t="s">
-        <v>668</v>
-      </c>
-      <c r="B11" s="87"/>
+        <v>666</v>
+      </c>
+      <c r="B11" s="89"/>
       <c r="C11" s="53" t="s">
         <v>149</v>
       </c>
@@ -3210,13 +3359,13 @@
         <v>491</v>
       </c>
       <c r="J11" s="53"/>
-      <c r="K11" s="82"/>
+      <c r="K11" s="79"/>
     </row>
     <row r="12" spans="1:11">
-      <c r="A12" s="85" t="s">
-        <v>667</v>
-      </c>
-      <c r="B12" s="87"/>
+      <c r="A12" s="87" t="s">
+        <v>665</v>
+      </c>
+      <c r="B12" s="89"/>
       <c r="C12" s="25" t="s">
         <v>133</v>
       </c>
@@ -3239,11 +3388,13 @@
         <v>137</v>
       </c>
       <c r="J12" s="25"/>
-      <c r="K12" s="81"/>
+      <c r="K12" s="94" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="13" spans="1:11">
-      <c r="A13" s="84"/>
-      <c r="B13" s="88"/>
+      <c r="A13" s="86"/>
+      <c r="B13" s="90"/>
       <c r="C13" s="25" t="s">
         <v>150</v>
       </c>
@@ -3266,7 +3417,7 @@
         <v>137</v>
       </c>
       <c r="J13" s="25"/>
-      <c r="K13" s="81"/>
+      <c r="K13" s="96"/>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="37"/>
@@ -3279,13 +3430,13 @@
       <c r="H14" s="74"/>
       <c r="I14" s="25"/>
       <c r="J14" s="25"/>
-      <c r="K14" s="81"/>
+      <c r="K14" s="79"/>
     </row>
     <row r="15" spans="1:11">
-      <c r="A15" s="85" t="s">
-        <v>665</v>
-      </c>
-      <c r="B15" s="86" t="s">
+      <c r="A15" s="87" t="s">
+        <v>663</v>
+      </c>
+      <c r="B15" s="88" t="s">
         <v>152</v>
       </c>
       <c r="C15" s="25" t="s">
@@ -3310,11 +3461,11 @@
         <v>487</v>
       </c>
       <c r="J15" s="25"/>
-      <c r="K15" s="81"/>
+      <c r="K15" s="79"/>
     </row>
     <row r="16" spans="1:11">
-      <c r="A16" s="84"/>
-      <c r="B16" s="87"/>
+      <c r="A16" s="86"/>
+      <c r="B16" s="89"/>
       <c r="C16" s="25" t="s">
         <v>154</v>
       </c>
@@ -3337,11 +3488,11 @@
         <v>487</v>
       </c>
       <c r="J16" s="25"/>
-      <c r="K16" s="81"/>
+      <c r="K16" s="79"/>
     </row>
     <row r="17" spans="1:11">
-      <c r="A17" s="84"/>
-      <c r="B17" s="87"/>
+      <c r="A17" s="86"/>
+      <c r="B17" s="89"/>
       <c r="C17" s="25" t="s">
         <v>155</v>
       </c>
@@ -3364,11 +3515,11 @@
         <v>487</v>
       </c>
       <c r="J17" s="25"/>
-      <c r="K17" s="81"/>
+      <c r="K17" s="79"/>
     </row>
     <row r="18" spans="1:11">
-      <c r="A18" s="84"/>
-      <c r="B18" s="87"/>
+      <c r="A18" s="86"/>
+      <c r="B18" s="89"/>
       <c r="C18" s="25" t="s">
         <v>156</v>
       </c>
@@ -3391,11 +3542,11 @@
         <v>487</v>
       </c>
       <c r="J18" s="25"/>
-      <c r="K18" s="81"/>
+      <c r="K18" s="79"/>
     </row>
     <row r="19" spans="1:11">
-      <c r="A19" s="84"/>
-      <c r="B19" s="87"/>
+      <c r="A19" s="86"/>
+      <c r="B19" s="89"/>
       <c r="C19" s="25" t="s">
         <v>157</v>
       </c>
@@ -3418,11 +3569,11 @@
         <v>487</v>
       </c>
       <c r="J19" s="25"/>
-      <c r="K19" s="81"/>
+      <c r="K19" s="79"/>
     </row>
     <row r="20" spans="1:11">
-      <c r="A20" s="84"/>
-      <c r="B20" s="88"/>
+      <c r="A20" s="86"/>
+      <c r="B20" s="90"/>
       <c r="C20" s="25" t="s">
         <v>158</v>
       </c>
@@ -3445,7 +3596,7 @@
         <v>487</v>
       </c>
       <c r="J20" s="25"/>
-      <c r="K20" s="81"/>
+      <c r="K20" s="79"/>
     </row>
     <row r="21" spans="1:11">
       <c r="A21" s="37"/>
@@ -3458,13 +3609,13 @@
       <c r="H21" s="74"/>
       <c r="I21" s="25"/>
       <c r="J21" s="25"/>
-      <c r="K21" s="81"/>
+      <c r="K21" s="79"/>
     </row>
     <row r="22" spans="1:11">
-      <c r="A22" s="85" t="s">
-        <v>663</v>
-      </c>
-      <c r="B22" s="86" t="s">
+      <c r="A22" s="87" t="s">
+        <v>661</v>
+      </c>
+      <c r="B22" s="88" t="s">
         <v>160</v>
       </c>
       <c r="C22" s="25" t="s">
@@ -3489,11 +3640,11 @@
         <v>488</v>
       </c>
       <c r="J22" s="25"/>
-      <c r="K22" s="81"/>
+      <c r="K22" s="79"/>
     </row>
     <row r="23" spans="1:11">
-      <c r="A23" s="84"/>
-      <c r="B23" s="87"/>
+      <c r="A23" s="86"/>
+      <c r="B23" s="89"/>
       <c r="C23" s="25" t="s">
         <v>162</v>
       </c>
@@ -3516,11 +3667,11 @@
         <v>488</v>
       </c>
       <c r="J23" s="25"/>
-      <c r="K23" s="81"/>
+      <c r="K23" s="79"/>
     </row>
     <row r="24" spans="1:11">
-      <c r="A24" s="84"/>
-      <c r="B24" s="87"/>
+      <c r="A24" s="86"/>
+      <c r="B24" s="89"/>
       <c r="C24" s="25" t="s">
         <v>163</v>
       </c>
@@ -3543,11 +3694,11 @@
         <v>488</v>
       </c>
       <c r="J24" s="25"/>
-      <c r="K24" s="81"/>
+      <c r="K24" s="79"/>
     </row>
     <row r="25" spans="1:11">
-      <c r="A25" s="84"/>
-      <c r="B25" s="87"/>
+      <c r="A25" s="86"/>
+      <c r="B25" s="89"/>
       <c r="C25" s="25" t="s">
         <v>164</v>
       </c>
@@ -3570,11 +3721,11 @@
         <v>488</v>
       </c>
       <c r="J25" s="25"/>
-      <c r="K25" s="81"/>
+      <c r="K25" s="79"/>
     </row>
     <row r="26" spans="1:11">
-      <c r="A26" s="84"/>
-      <c r="B26" s="88"/>
+      <c r="A26" s="86"/>
+      <c r="B26" s="90"/>
       <c r="C26" s="25" t="s">
         <v>165</v>
       </c>
@@ -3597,7 +3748,7 @@
         <v>488</v>
       </c>
       <c r="J26" s="25"/>
-      <c r="K26" s="81"/>
+      <c r="K26" s="79"/>
     </row>
     <row r="27" spans="1:11">
       <c r="A27" s="37"/>
@@ -3610,13 +3761,13 @@
       <c r="H27" s="74"/>
       <c r="I27" s="25"/>
       <c r="J27" s="25"/>
-      <c r="K27" s="81"/>
+      <c r="K27" s="79"/>
     </row>
     <row r="28" spans="1:11">
-      <c r="A28" s="85" t="s">
-        <v>664</v>
-      </c>
-      <c r="B28" s="86" t="s">
+      <c r="A28" s="87" t="s">
+        <v>662</v>
+      </c>
+      <c r="B28" s="88" t="s">
         <v>166</v>
       </c>
       <c r="C28" s="25" t="s">
@@ -3641,11 +3792,11 @@
         <v>489</v>
       </c>
       <c r="J28" s="25"/>
-      <c r="K28" s="81"/>
+      <c r="K28" s="79"/>
     </row>
     <row r="29" spans="1:11">
-      <c r="A29" s="84"/>
-      <c r="B29" s="87"/>
+      <c r="A29" s="86"/>
+      <c r="B29" s="89"/>
       <c r="C29" s="25" t="s">
         <v>168</v>
       </c>
@@ -3668,11 +3819,11 @@
         <v>489</v>
       </c>
       <c r="J29" s="25"/>
-      <c r="K29" s="81"/>
+      <c r="K29" s="79"/>
     </row>
     <row r="30" spans="1:11">
-      <c r="A30" s="84"/>
-      <c r="B30" s="87"/>
+      <c r="A30" s="86"/>
+      <c r="B30" s="89"/>
       <c r="C30" s="25" t="s">
         <v>169</v>
       </c>
@@ -3695,11 +3846,11 @@
         <v>489</v>
       </c>
       <c r="J30" s="25"/>
-      <c r="K30" s="81"/>
+      <c r="K30" s="79"/>
     </row>
     <row r="31" spans="1:11">
-      <c r="A31" s="84"/>
-      <c r="B31" s="87"/>
+      <c r="A31" s="86"/>
+      <c r="B31" s="89"/>
       <c r="C31" s="25" t="s">
         <v>170</v>
       </c>
@@ -3722,11 +3873,11 @@
         <v>489</v>
       </c>
       <c r="J31" s="25"/>
-      <c r="K31" s="81"/>
+      <c r="K31" s="79"/>
     </row>
     <row r="32" spans="1:11">
-      <c r="A32" s="84"/>
-      <c r="B32" s="87"/>
+      <c r="A32" s="86"/>
+      <c r="B32" s="89"/>
       <c r="C32" s="25" t="s">
         <v>171</v>
       </c>
@@ -3749,11 +3900,11 @@
         <v>489</v>
       </c>
       <c r="J32" s="25"/>
-      <c r="K32" s="81"/>
+      <c r="K32" s="79"/>
     </row>
     <row r="33" spans="1:11">
-      <c r="A33" s="84"/>
-      <c r="B33" s="88"/>
+      <c r="A33" s="86"/>
+      <c r="B33" s="90"/>
       <c r="C33" s="25" t="s">
         <v>172</v>
       </c>
@@ -3776,7 +3927,7 @@
         <v>489</v>
       </c>
       <c r="J33" s="25"/>
-      <c r="K33" s="81"/>
+      <c r="K33" s="79"/>
     </row>
     <row r="34" spans="1:11">
       <c r="A34" s="37"/>
@@ -3791,10 +3942,10 @@
       <c r="J34" s="25"/>
     </row>
     <row r="35" spans="1:11">
-      <c r="A35" s="85" t="s">
-        <v>666</v>
-      </c>
-      <c r="B35" s="86" t="s">
+      <c r="A35" s="87" t="s">
+        <v>664</v>
+      </c>
+      <c r="B35" s="88" t="s">
         <v>211</v>
       </c>
       <c r="C35" s="25" t="s">
@@ -3821,8 +3972,8 @@
       <c r="J35" s="25"/>
     </row>
     <row r="36" spans="1:11">
-      <c r="A36" s="84"/>
-      <c r="B36" s="87"/>
+      <c r="A36" s="86"/>
+      <c r="B36" s="89"/>
       <c r="C36" s="25" t="s">
         <v>162</v>
       </c>
@@ -3847,8 +3998,8 @@
       <c r="J36" s="25"/>
     </row>
     <row r="37" spans="1:11">
-      <c r="A37" s="84"/>
-      <c r="B37" s="87"/>
+      <c r="A37" s="86"/>
+      <c r="B37" s="89"/>
       <c r="C37" s="25" t="s">
         <v>163</v>
       </c>
@@ -3873,8 +4024,8 @@
       <c r="J37" s="25"/>
     </row>
     <row r="38" spans="1:11">
-      <c r="A38" s="84"/>
-      <c r="B38" s="87"/>
+      <c r="A38" s="86"/>
+      <c r="B38" s="89"/>
       <c r="C38" s="25" t="s">
         <v>219</v>
       </c>
@@ -3899,8 +4050,8 @@
       <c r="J38" s="25"/>
     </row>
     <row r="39" spans="1:11">
-      <c r="A39" s="84"/>
-      <c r="B39" s="88"/>
+      <c r="A39" s="86"/>
+      <c r="B39" s="90"/>
       <c r="C39" s="25" t="s">
         <v>220</v>
       </c>
@@ -3937,10 +4088,10 @@
       <c r="J40" s="25"/>
     </row>
     <row r="41" spans="1:11">
-      <c r="A41" s="85" t="s">
+      <c r="A41" s="87" t="s">
         <v>409</v>
       </c>
-      <c r="B41" s="86" t="s">
+      <c r="B41" s="88" t="s">
         <v>212</v>
       </c>
       <c r="C41" s="25" t="s">
@@ -3967,8 +4118,8 @@
       <c r="J41" s="25"/>
     </row>
     <row r="42" spans="1:11">
-      <c r="A42" s="84"/>
-      <c r="B42" s="87"/>
+      <c r="A42" s="86"/>
+      <c r="B42" s="89"/>
       <c r="C42" s="25" t="s">
         <v>222</v>
       </c>
@@ -3993,8 +4144,8 @@
       <c r="J42" s="25"/>
     </row>
     <row r="43" spans="1:11">
-      <c r="A43" s="84"/>
-      <c r="B43" s="87"/>
+      <c r="A43" s="86"/>
+      <c r="B43" s="89"/>
       <c r="C43" s="25" t="s">
         <v>223</v>
       </c>
@@ -4019,8 +4170,8 @@
       <c r="J43" s="25"/>
     </row>
     <row r="44" spans="1:11">
-      <c r="A44" s="84"/>
-      <c r="B44" s="87"/>
+      <c r="A44" s="86"/>
+      <c r="B44" s="89"/>
       <c r="C44" s="25" t="s">
         <v>131</v>
       </c>
@@ -4045,8 +4196,8 @@
       <c r="J44" s="25"/>
     </row>
     <row r="45" spans="1:11">
-      <c r="A45" s="84"/>
-      <c r="B45" s="88"/>
+      <c r="A45" s="86"/>
+      <c r="B45" s="90"/>
       <c r="C45" s="32" t="s">
         <v>132</v>
       </c>
@@ -4074,13 +4225,13 @@
       <c r="A46" s="37"/>
       <c r="B46" s="37"/>
       <c r="H46" s="74"/>
-      <c r="K46" s="81"/>
+      <c r="K46" s="79"/>
     </row>
     <row r="47" spans="1:11">
-      <c r="A47" s="85" t="s">
+      <c r="A47" s="87" t="s">
         <v>409</v>
       </c>
-      <c r="B47" s="89" t="s">
+      <c r="B47" s="91" t="s">
         <v>249</v>
       </c>
       <c r="C47" s="34"/>
@@ -4105,8 +4256,8 @@
       <c r="J47" s="25"/>
     </row>
     <row r="48" spans="1:11">
-      <c r="A48" s="84"/>
-      <c r="B48" s="90"/>
+      <c r="A48" s="86"/>
+      <c r="B48" s="92"/>
       <c r="C48" s="25"/>
       <c r="D48" s="31" t="s">
         <v>246</v>
@@ -4128,9 +4279,9 @@
       </c>
       <c r="J48" s="25"/>
     </row>
-    <row r="49" spans="1:10">
-      <c r="A49" s="84"/>
-      <c r="B49" s="90"/>
+    <row r="49" spans="1:11">
+      <c r="A49" s="86"/>
+      <c r="B49" s="92"/>
       <c r="C49" s="25"/>
       <c r="D49" s="31" t="s">
         <v>247</v>
@@ -4152,9 +4303,9 @@
       </c>
       <c r="J49" s="25"/>
     </row>
-    <row r="50" spans="1:10">
-      <c r="A50" s="84"/>
-      <c r="B50" s="90"/>
+    <row r="50" spans="1:11">
+      <c r="A50" s="86"/>
+      <c r="B50" s="92"/>
       <c r="C50" s="25"/>
       <c r="D50" s="31" t="s">
         <v>248</v>
@@ -4176,11 +4327,11 @@
       </c>
       <c r="J50" s="25"/>
     </row>
-    <row r="51" spans="1:10">
-      <c r="A51" s="85" t="s">
+    <row r="51" spans="1:11">
+      <c r="A51" s="87" t="s">
         <v>408</v>
       </c>
-      <c r="B51" s="90"/>
+      <c r="B51" s="92"/>
       <c r="C51" s="25"/>
       <c r="D51" s="20" t="s">
         <v>255</v>
@@ -4202,9 +4353,9 @@
       </c>
       <c r="J51" s="25"/>
     </row>
-    <row r="52" spans="1:10">
-      <c r="A52" s="84"/>
-      <c r="B52" s="90"/>
+    <row r="52" spans="1:11">
+      <c r="A52" s="86"/>
+      <c r="B52" s="92"/>
       <c r="C52" s="25"/>
       <c r="D52" s="20" t="s">
         <v>256</v>
@@ -4226,9 +4377,9 @@
       </c>
       <c r="J52" s="25"/>
     </row>
-    <row r="53" spans="1:10">
-      <c r="A53" s="84"/>
-      <c r="B53" s="90"/>
+    <row r="53" spans="1:11">
+      <c r="A53" s="86"/>
+      <c r="B53" s="92"/>
       <c r="C53" s="25"/>
       <c r="D53" s="20" t="s">
         <v>257</v>
@@ -4250,9 +4401,9 @@
       </c>
       <c r="J53" s="25"/>
     </row>
-    <row r="54" spans="1:10">
-      <c r="A54" s="84"/>
-      <c r="B54" s="90"/>
+    <row r="54" spans="1:11">
+      <c r="A54" s="86"/>
+      <c r="B54" s="92"/>
       <c r="C54" s="25"/>
       <c r="D54" s="20" t="s">
         <v>258</v>
@@ -4274,9 +4425,9 @@
       </c>
       <c r="J54" s="25"/>
     </row>
-    <row r="55" spans="1:10">
-      <c r="A55" s="84"/>
-      <c r="B55" s="91"/>
+    <row r="55" spans="1:11">
+      <c r="A55" s="86"/>
+      <c r="B55" s="93"/>
       <c r="C55" s="25"/>
       <c r="D55" s="20" t="s">
         <v>259</v>
@@ -4298,15 +4449,15 @@
       </c>
       <c r="J55" s="25"/>
     </row>
-    <row r="56" spans="1:10">
+    <row r="56" spans="1:11">
       <c r="I56" s="25"/>
       <c r="J56" s="25"/>
     </row>
-    <row r="57" spans="1:10" s="46" customFormat="1" ht="28.8">
+    <row r="57" spans="1:11" s="46" customFormat="1" ht="28.8">
       <c r="A57" s="45" t="s">
         <v>410</v>
       </c>
-      <c r="B57" s="84" t="s">
+      <c r="B57" s="86" t="s">
         <v>293</v>
       </c>
       <c r="C57" s="53" t="s">
@@ -4330,13 +4481,14 @@
       <c r="I57" s="53" t="s">
         <v>294</v>
       </c>
-      <c r="J57" s="83"/>
-    </row>
-    <row r="58" spans="1:10">
-      <c r="A58" s="85" t="s">
+      <c r="J57" s="80"/>
+      <c r="K57" s="72"/>
+    </row>
+    <row r="58" spans="1:11">
+      <c r="A58" s="87" t="s">
         <v>411</v>
       </c>
-      <c r="B58" s="84"/>
+      <c r="B58" s="86"/>
       <c r="C58" s="25" t="s">
         <v>298</v>
       </c>
@@ -4360,9 +4512,9 @@
       </c>
       <c r="J58" s="25"/>
     </row>
-    <row r="59" spans="1:10">
-      <c r="A59" s="84"/>
-      <c r="B59" s="84"/>
+    <row r="59" spans="1:11">
+      <c r="A59" s="86"/>
+      <c r="B59" s="86"/>
       <c r="C59" s="25" t="s">
         <v>297</v>
       </c>
@@ -4386,9 +4538,9 @@
       </c>
       <c r="J59" s="25"/>
     </row>
-    <row r="60" spans="1:10">
-      <c r="A60" s="84"/>
-      <c r="B60" s="84"/>
+    <row r="60" spans="1:11">
+      <c r="A60" s="86"/>
+      <c r="B60" s="86"/>
       <c r="C60" s="25" t="s">
         <v>299</v>
       </c>
@@ -4412,15 +4564,15 @@
       </c>
       <c r="J60" s="25"/>
     </row>
-    <row r="61" spans="1:10">
+    <row r="61" spans="1:11">
       <c r="I61" s="25"/>
       <c r="J61" s="25"/>
     </row>
-    <row r="62" spans="1:10">
-      <c r="A62" s="85" t="s">
+    <row r="62" spans="1:11">
+      <c r="A62" s="87" t="s">
         <v>412</v>
       </c>
-      <c r="B62" s="84" t="s">
+      <c r="B62" s="86" t="s">
         <v>300</v>
       </c>
       <c r="C62" s="25" t="s">
@@ -4446,9 +4598,9 @@
       </c>
       <c r="J62" s="25"/>
     </row>
-    <row r="63" spans="1:10">
-      <c r="A63" s="84"/>
-      <c r="B63" s="84"/>
+    <row r="63" spans="1:11">
+      <c r="A63" s="86"/>
+      <c r="B63" s="86"/>
       <c r="C63" s="25" t="s">
         <v>336</v>
       </c>
@@ -4472,9 +4624,9 @@
       </c>
       <c r="J63" s="25"/>
     </row>
-    <row r="64" spans="1:10">
-      <c r="A64" s="84"/>
-      <c r="B64" s="84"/>
+    <row r="64" spans="1:11">
+      <c r="A64" s="86"/>
+      <c r="B64" s="86"/>
       <c r="C64" s="25" t="s">
         <v>355</v>
       </c>
@@ -4499,8 +4651,8 @@
       <c r="J64" s="25"/>
     </row>
     <row r="65" spans="1:10">
-      <c r="A65" s="84"/>
-      <c r="B65" s="84"/>
+      <c r="A65" s="86"/>
+      <c r="B65" s="86"/>
       <c r="C65" s="25" t="s">
         <v>356</v>
       </c>
@@ -4525,8 +4677,8 @@
       <c r="J65" s="25"/>
     </row>
     <row r="66" spans="1:10">
-      <c r="A66" s="84"/>
-      <c r="B66" s="84"/>
+      <c r="A66" s="86"/>
+      <c r="B66" s="86"/>
       <c r="C66" s="25" t="s">
         <v>364</v>
       </c>
@@ -4551,8 +4703,8 @@
       <c r="J66" s="25"/>
     </row>
     <row r="67" spans="1:10">
-      <c r="A67" s="84"/>
-      <c r="B67" s="84"/>
+      <c r="A67" s="86"/>
+      <c r="B67" s="86"/>
       <c r="C67" s="25" t="s">
         <v>365</v>
       </c>
@@ -4577,8 +4729,8 @@
       <c r="J67" s="25"/>
     </row>
     <row r="68" spans="1:10">
-      <c r="A68" s="84"/>
-      <c r="B68" s="84"/>
+      <c r="A68" s="86"/>
+      <c r="B68" s="86"/>
       <c r="C68" s="25" t="s">
         <v>366</v>
       </c>
@@ -4603,8 +4755,8 @@
       <c r="J68" s="25"/>
     </row>
     <row r="69" spans="1:10">
-      <c r="A69" s="84"/>
-      <c r="B69" s="84"/>
+      <c r="A69" s="86"/>
+      <c r="B69" s="86"/>
       <c r="C69" s="25" t="s">
         <v>367</v>
       </c>
@@ -4633,10 +4785,10 @@
       <c r="J70" s="25"/>
     </row>
     <row r="71" spans="1:10">
-      <c r="A71" s="85" t="s">
+      <c r="A71" s="87" t="s">
         <v>413</v>
       </c>
-      <c r="B71" s="84" t="s">
+      <c r="B71" s="86" t="s">
         <v>400</v>
       </c>
       <c r="C71" s="25" t="s">
@@ -4663,8 +4815,8 @@
       <c r="J71" s="25"/>
     </row>
     <row r="72" spans="1:10">
-      <c r="A72" s="84"/>
-      <c r="B72" s="84"/>
+      <c r="A72" s="86"/>
+      <c r="B72" s="86"/>
       <c r="C72" s="25" t="s">
         <v>402</v>
       </c>
@@ -4689,8 +4841,8 @@
       <c r="J72" s="25"/>
     </row>
     <row r="73" spans="1:10">
-      <c r="A73" s="84"/>
-      <c r="B73" s="84"/>
+      <c r="A73" s="86"/>
+      <c r="B73" s="86"/>
       <c r="C73" s="25" t="s">
         <v>403</v>
       </c>
@@ -4715,8 +4867,8 @@
       <c r="J73" s="25"/>
     </row>
     <row r="74" spans="1:10">
-      <c r="A74" s="84"/>
-      <c r="B74" s="84"/>
+      <c r="A74" s="86"/>
+      <c r="B74" s="86"/>
       <c r="C74" s="25" t="s">
         <v>404</v>
       </c>
@@ -4741,8 +4893,8 @@
       <c r="J74" s="25"/>
     </row>
     <row r="75" spans="1:10">
-      <c r="A75" s="84"/>
-      <c r="B75" s="84"/>
+      <c r="A75" s="86"/>
+      <c r="B75" s="86"/>
       <c r="C75" s="25" t="s">
         <v>405</v>
       </c>
@@ -4767,8 +4919,8 @@
       <c r="J75" s="25"/>
     </row>
     <row r="76" spans="1:10">
-      <c r="A76" s="84"/>
-      <c r="B76" s="84"/>
+      <c r="A76" s="86"/>
+      <c r="B76" s="86"/>
       <c r="C76" s="25" t="s">
         <v>406</v>
       </c>
@@ -4797,10 +4949,10 @@
       <c r="J77" s="25"/>
     </row>
     <row r="78" spans="1:10">
-      <c r="A78" s="85" t="s">
+      <c r="A78" s="87" t="s">
         <v>413</v>
       </c>
-      <c r="B78" s="84" t="s">
+      <c r="B78" s="86" t="s">
         <v>424</v>
       </c>
       <c r="C78" s="25" t="s">
@@ -4827,8 +4979,8 @@
       <c r="J78" s="25"/>
     </row>
     <row r="79" spans="1:10">
-      <c r="A79" s="84"/>
-      <c r="B79" s="84"/>
+      <c r="A79" s="86"/>
+      <c r="B79" s="86"/>
       <c r="C79" s="25" t="s">
         <v>426</v>
       </c>
@@ -4853,8 +5005,8 @@
       <c r="J79" s="25"/>
     </row>
     <row r="80" spans="1:10">
-      <c r="A80" s="84"/>
-      <c r="B80" s="84"/>
+      <c r="A80" s="86"/>
+      <c r="B80" s="86"/>
       <c r="C80" s="25" t="s">
         <v>427</v>
       </c>
@@ -4882,7 +5034,7 @@
       <c r="A81" s="48" t="s">
         <v>423</v>
       </c>
-      <c r="B81" s="84"/>
+      <c r="B81" s="86"/>
       <c r="C81" s="21" t="s">
         <v>428</v>
       </c>
@@ -4911,10 +5063,10 @@
       <c r="J82" s="25"/>
     </row>
     <row r="83" spans="1:10">
-      <c r="A83" s="85" t="s">
+      <c r="A83" s="87" t="s">
         <v>460</v>
       </c>
-      <c r="B83" s="84" t="s">
+      <c r="B83" s="86" t="s">
         <v>455</v>
       </c>
       <c r="C83" s="25" t="s">
@@ -4941,8 +5093,8 @@
       <c r="J83" s="25"/>
     </row>
     <row r="84" spans="1:10">
-      <c r="A84" s="84"/>
-      <c r="B84" s="84"/>
+      <c r="A84" s="86"/>
+      <c r="B84" s="86"/>
       <c r="C84" s="25" t="s">
         <v>457</v>
       </c>
@@ -4967,8 +5119,8 @@
       <c r="J84" s="25"/>
     </row>
     <row r="85" spans="1:10">
-      <c r="A85" s="84"/>
-      <c r="B85" s="84"/>
+      <c r="A85" s="86"/>
+      <c r="B85" s="86"/>
       <c r="C85" s="25" t="s">
         <v>458</v>
       </c>
@@ -4993,8 +5145,8 @@
       <c r="J85" s="25"/>
     </row>
     <row r="86" spans="1:10">
-      <c r="A86" s="84"/>
-      <c r="B86" s="84"/>
+      <c r="A86" s="86"/>
+      <c r="B86" s="86"/>
       <c r="C86" s="25" t="s">
         <v>459</v>
       </c>
@@ -5019,8 +5171,8 @@
       <c r="J86" s="25"/>
     </row>
     <row r="87" spans="1:10">
-      <c r="A87" s="84"/>
-      <c r="B87" s="84"/>
+      <c r="A87" s="86"/>
+      <c r="B87" s="86"/>
       <c r="C87" s="25" t="s">
         <v>466</v>
       </c>
@@ -5045,8 +5197,8 @@
       <c r="J87" s="25"/>
     </row>
     <row r="88" spans="1:10">
-      <c r="A88" s="84"/>
-      <c r="B88" s="84"/>
+      <c r="A88" s="86"/>
+      <c r="B88" s="86"/>
       <c r="C88" s="25" t="s">
         <v>467</v>
       </c>
@@ -5083,11 +5235,11 @@
       <c r="J89" s="25"/>
     </row>
     <row r="90" spans="1:10">
-      <c r="A90" s="84" t="s">
-        <v>570</v>
-      </c>
-      <c r="B90" s="84" t="s">
-        <v>569</v>
+      <c r="A90" s="86" t="s">
+        <v>568</v>
+      </c>
+      <c r="B90" s="86" t="s">
+        <v>567</v>
       </c>
       <c r="C90" s="21" t="s">
         <v>145</v>
@@ -5096,10 +5248,10 @@
         <v>138</v>
       </c>
       <c r="E90" s="25" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="F90" s="25" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="G90" s="25" t="s">
         <v>136</v>
@@ -5113,8 +5265,8 @@
       <c r="J90" s="25"/>
     </row>
     <row r="91" spans="1:10">
-      <c r="A91" s="84"/>
-      <c r="B91" s="84"/>
+      <c r="A91" s="86"/>
+      <c r="B91" s="86"/>
       <c r="C91" s="25" t="s">
         <v>146</v>
       </c>
@@ -5122,10 +5274,10 @@
         <v>139</v>
       </c>
       <c r="E91" s="25" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="F91" s="25" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="G91" s="25" t="s">
         <v>136</v>
@@ -5139,8 +5291,8 @@
       <c r="J91" s="25"/>
     </row>
     <row r="92" spans="1:10">
-      <c r="A92" s="84"/>
-      <c r="B92" s="84"/>
+      <c r="A92" s="86"/>
+      <c r="B92" s="86"/>
       <c r="C92" s="25" t="s">
         <v>147</v>
       </c>
@@ -5148,10 +5300,10 @@
         <v>140</v>
       </c>
       <c r="E92" s="25" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="F92" s="25" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="G92" s="25" t="s">
         <v>136</v>
@@ -5165,8 +5317,8 @@
       <c r="J92" s="25"/>
     </row>
     <row r="93" spans="1:10">
-      <c r="A93" s="84"/>
-      <c r="B93" s="84"/>
+      <c r="A93" s="86"/>
+      <c r="B93" s="86"/>
       <c r="C93" s="25" t="s">
         <v>148</v>
       </c>
@@ -5174,10 +5326,10 @@
         <v>141</v>
       </c>
       <c r="E93" s="25" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="F93" s="25" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="G93" s="25" t="s">
         <v>136</v>
@@ -5191,19 +5343,19 @@
       <c r="J93" s="25"/>
     </row>
     <row r="94" spans="1:10">
-      <c r="A94" s="84"/>
-      <c r="B94" s="84"/>
+      <c r="A94" s="86"/>
+      <c r="B94" s="86"/>
       <c r="C94" s="63" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="D94" s="20" t="s">
         <v>469</v>
       </c>
       <c r="E94" s="25" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="F94" s="25" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="G94" s="25" t="s">
         <v>136</v>
@@ -5217,10 +5369,10 @@
       <c r="J94" s="25"/>
     </row>
     <row r="95" spans="1:10">
-      <c r="A95" s="84"/>
-      <c r="B95" s="84"/>
+      <c r="A95" s="86"/>
+      <c r="B95" s="86"/>
       <c r="C95" s="63" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="D95" s="20" t="s">
         <v>493</v>
@@ -5243,36 +5395,36 @@
       <c r="J95" s="25"/>
     </row>
     <row r="96" spans="1:10">
-      <c r="A96" s="84"/>
-      <c r="B96" s="84"/>
+      <c r="A96" s="86"/>
+      <c r="B96" s="86"/>
       <c r="C96" s="63" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="D96" s="20" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="E96" s="57" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="F96" s="25" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="G96" s="25" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="H96" s="74" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="I96" s="25" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="J96" s="25"/>
     </row>
     <row r="97" spans="1:10">
-      <c r="A97" s="84"/>
-      <c r="B97" s="84"/>
+      <c r="A97" s="86"/>
+      <c r="B97" s="86"/>
       <c r="C97" s="63" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="D97" s="20" t="s">
         <v>484</v>
@@ -5296,37 +5448,37 @@
     </row>
     <row r="98" spans="1:10">
       <c r="A98" s="60"/>
-      <c r="B98" s="84"/>
+      <c r="B98" s="86"/>
       <c r="C98" s="25" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="D98" s="64" t="s">
+        <v>563</v>
+      </c>
+      <c r="E98" s="57" t="s">
         <v>565</v>
       </c>
-      <c r="E98" s="57" t="s">
-        <v>567</v>
-      </c>
       <c r="F98" s="25" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="G98" s="25" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="H98" s="74" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="I98" s="25" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="J98" s="25"/>
     </row>
     <row r="99" spans="1:10">
-      <c r="A99" s="85" t="s">
-        <v>571</v>
-      </c>
-      <c r="B99" s="84"/>
+      <c r="A99" s="87" t="s">
+        <v>569</v>
+      </c>
+      <c r="B99" s="86"/>
       <c r="C99" s="25" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="D99" s="62" t="s">
         <v>501</v>
@@ -5344,33 +5496,33 @@
         <v>136</v>
       </c>
       <c r="I99" s="30" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="J99" s="25"/>
     </row>
     <row r="100" spans="1:10">
-      <c r="A100" s="84"/>
-      <c r="B100" s="84"/>
+      <c r="A100" s="86"/>
+      <c r="B100" s="86"/>
       <c r="C100" s="25" t="s">
+        <v>562</v>
+      </c>
+      <c r="D100" s="62" t="s">
         <v>564</v>
       </c>
-      <c r="D100" s="62" t="s">
-        <v>566</v>
-      </c>
       <c r="E100" s="57" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="F100" s="25" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="G100" s="25" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="H100" s="74" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="I100" s="25" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="J100" s="25"/>
     </row>
@@ -5387,15 +5539,15 @@
       <c r="J101" s="25"/>
     </row>
     <row r="102" spans="1:10">
-      <c r="A102" s="84" t="s">
-        <v>588</v>
-      </c>
-      <c r="B102" s="84" t="s">
-        <v>587</v>
+      <c r="A102" s="86" t="s">
+        <v>586</v>
+      </c>
+      <c r="B102" s="86" t="s">
+        <v>585</v>
       </c>
       <c r="C102" s="25"/>
       <c r="D102" s="65" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="E102" s="25" t="s">
         <v>136</v>
@@ -5410,38 +5562,38 @@
         <v>136</v>
       </c>
       <c r="I102" s="30" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="J102" s="25"/>
     </row>
     <row r="103" spans="1:10">
-      <c r="A103" s="84"/>
-      <c r="B103" s="84"/>
+      <c r="A103" s="86"/>
+      <c r="B103" s="86"/>
       <c r="C103" s="25"/>
       <c r="D103" s="66" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="E103" s="57" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="F103" s="25" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="G103" s="25" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="H103" s="74" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="I103" s="25"/>
       <c r="J103" s="25"/>
     </row>
     <row r="104" spans="1:10">
-      <c r="A104" s="84"/>
-      <c r="B104" s="84"/>
+      <c r="A104" s="86"/>
+      <c r="B104" s="86"/>
       <c r="C104" s="25"/>
       <c r="D104" s="65" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="E104" s="25" t="s">
         <v>136</v>
@@ -5456,104 +5608,104 @@
         <v>136</v>
       </c>
       <c r="I104" s="25" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="J104" s="25"/>
     </row>
     <row r="105" spans="1:10">
-      <c r="A105" s="84"/>
-      <c r="B105" s="84"/>
+      <c r="A105" s="86"/>
+      <c r="B105" s="86"/>
       <c r="C105" s="25"/>
       <c r="D105" s="66" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="E105" s="57" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="F105" s="25" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="G105" s="25" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="H105" s="74" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="I105" s="25"/>
       <c r="J105" s="25"/>
     </row>
     <row r="106" spans="1:10">
-      <c r="A106" s="84"/>
-      <c r="B106" s="84"/>
+      <c r="A106" s="86"/>
+      <c r="B106" s="86"/>
       <c r="C106" s="25"/>
       <c r="D106" s="66" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="E106" s="57" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="F106" s="25" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="G106" s="25" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="H106" s="74" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="I106" s="25"/>
       <c r="J106" s="25"/>
     </row>
     <row r="107" spans="1:10">
-      <c r="A107" s="84"/>
-      <c r="B107" s="84"/>
+      <c r="A107" s="86"/>
+      <c r="B107" s="86"/>
       <c r="C107" s="25"/>
       <c r="D107" s="66" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="E107" s="57" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="F107" s="25" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="G107" s="25" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="H107" s="74" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="I107" s="25"/>
       <c r="J107" s="25"/>
     </row>
     <row r="108" spans="1:10">
-      <c r="A108" s="84"/>
-      <c r="B108" s="84"/>
+      <c r="A108" s="86"/>
+      <c r="B108" s="86"/>
       <c r="C108" s="25"/>
       <c r="D108" s="66" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="E108" s="57" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="F108" s="25" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="G108" s="25" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="H108" s="74" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="I108" s="25"/>
       <c r="J108" s="25"/>
     </row>
     <row r="109" spans="1:10">
-      <c r="A109" s="84"/>
-      <c r="B109" s="84"/>
+      <c r="A109" s="86"/>
+      <c r="B109" s="86"/>
       <c r="C109" s="25"/>
       <c r="D109" s="65" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="E109" s="25" t="s">
         <v>136</v>
@@ -5568,16 +5720,16 @@
         <v>136</v>
       </c>
       <c r="I109" s="25" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="J109" s="25"/>
     </row>
     <row r="110" spans="1:10">
-      <c r="A110" s="84"/>
-      <c r="B110" s="84"/>
+      <c r="A110" s="86"/>
+      <c r="B110" s="86"/>
       <c r="C110" s="25"/>
       <c r="D110" s="65" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="E110" s="25" t="s">
         <v>136</v>
@@ -5592,16 +5744,16 @@
         <v>136</v>
       </c>
       <c r="I110" s="25" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="J110" s="25"/>
     </row>
     <row r="111" spans="1:10">
-      <c r="A111" s="84"/>
-      <c r="B111" s="84"/>
+      <c r="A111" s="86"/>
+      <c r="B111" s="86"/>
       <c r="C111" s="25"/>
       <c r="D111" s="65" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="E111" s="25" t="s">
         <v>136</v>
@@ -5616,16 +5768,16 @@
         <v>136</v>
       </c>
       <c r="I111" s="25" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="J111" s="25"/>
     </row>
     <row r="112" spans="1:10">
-      <c r="A112" s="84"/>
-      <c r="B112" s="84"/>
+      <c r="A112" s="86"/>
+      <c r="B112" s="86"/>
       <c r="C112" s="25"/>
       <c r="D112" s="65" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="E112" s="25" t="s">
         <v>136</v>
@@ -5640,7 +5792,7 @@
         <v>136</v>
       </c>
       <c r="I112" s="25" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="J112" s="25"/>
     </row>
@@ -5657,14 +5809,14 @@
       <c r="J113" s="25"/>
     </row>
     <row r="114" spans="1:10" ht="14.4" customHeight="1">
-      <c r="A114" s="85" t="s">
-        <v>592</v>
-      </c>
-      <c r="B114" s="84" t="s">
+      <c r="A114" s="87" t="s">
+        <v>590</v>
+      </c>
+      <c r="B114" s="86" t="s">
+        <v>589</v>
+      </c>
+      <c r="C114" s="25" t="s">
         <v>591</v>
-      </c>
-      <c r="C114" s="25" t="s">
-        <v>593</v>
       </c>
       <c r="D114" s="29" t="s">
         <v>504</v>
@@ -5682,15 +5834,15 @@
         <v>136</v>
       </c>
       <c r="I114" s="30" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="J114" s="25"/>
     </row>
     <row r="115" spans="1:10">
-      <c r="A115" s="85"/>
-      <c r="B115" s="84"/>
+      <c r="A115" s="87"/>
+      <c r="B115" s="86"/>
       <c r="C115" s="25" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="D115" s="29" t="s">
         <v>505</v>
@@ -5708,15 +5860,15 @@
         <v>136</v>
       </c>
       <c r="I115" s="30" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="J115" s="25"/>
     </row>
     <row r="116" spans="1:10">
-      <c r="A116" s="85"/>
-      <c r="B116" s="84"/>
+      <c r="A116" s="87"/>
+      <c r="B116" s="86"/>
       <c r="C116" s="25" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="D116" s="29" t="s">
         <v>506</v>
@@ -5734,15 +5886,15 @@
         <v>136</v>
       </c>
       <c r="I116" s="30" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="J116" s="25"/>
     </row>
     <row r="117" spans="1:10">
-      <c r="A117" s="85"/>
-      <c r="B117" s="84"/>
+      <c r="A117" s="87"/>
+      <c r="B117" s="86"/>
       <c r="C117" s="25" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="D117" s="29" t="s">
         <v>507</v>
@@ -5760,15 +5912,15 @@
         <v>136</v>
       </c>
       <c r="I117" s="30" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="J117" s="25"/>
     </row>
     <row r="118" spans="1:10">
-      <c r="A118" s="85"/>
-      <c r="B118" s="84"/>
+      <c r="A118" s="87"/>
+      <c r="B118" s="86"/>
       <c r="C118" s="25" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="D118" s="29" t="s">
         <v>508</v>
@@ -5786,15 +5938,15 @@
         <v>136</v>
       </c>
       <c r="I118" s="30" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="J118" s="25"/>
     </row>
     <row r="119" spans="1:10">
-      <c r="A119" s="85"/>
-      <c r="B119" s="84"/>
+      <c r="A119" s="87"/>
+      <c r="B119" s="86"/>
       <c r="C119" s="25" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="D119" s="29" t="s">
         <v>509</v>
@@ -5812,15 +5964,15 @@
         <v>136</v>
       </c>
       <c r="I119" s="30" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="J119" s="25"/>
     </row>
     <row r="120" spans="1:10">
-      <c r="A120" s="85"/>
-      <c r="B120" s="84"/>
+      <c r="A120" s="87"/>
+      <c r="B120" s="86"/>
       <c r="C120" s="25" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="D120" s="29" t="s">
         <v>510</v>
@@ -5838,7 +5990,7 @@
         <v>136</v>
       </c>
       <c r="I120" s="30" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="J120" s="25"/>
     </row>
@@ -5855,176 +6007,176 @@
       <c r="J121" s="25"/>
     </row>
     <row r="122" spans="1:10">
-      <c r="A122" s="85" t="s">
-        <v>592</v>
-      </c>
-      <c r="B122" s="84" t="s">
+      <c r="A122" s="87" t="s">
+        <v>590</v>
+      </c>
+      <c r="B122" s="86" t="s">
+        <v>607</v>
+      </c>
+      <c r="C122" s="25" t="s">
+        <v>608</v>
+      </c>
+      <c r="D122" s="67" t="s">
+        <v>598</v>
+      </c>
+      <c r="E122" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="F122" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="G122" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="H122" s="74" t="s">
+        <v>136</v>
+      </c>
+      <c r="I122" s="30" t="s">
+        <v>588</v>
+      </c>
+      <c r="J122" s="25"/>
+    </row>
+    <row r="123" spans="1:10">
+      <c r="A123" s="86"/>
+      <c r="B123" s="86"/>
+      <c r="C123" s="25" t="s">
         <v>609</v>
       </c>
-      <c r="C122" s="25" t="s">
+      <c r="D123" s="67" t="s">
+        <v>599</v>
+      </c>
+      <c r="E123" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="F123" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="G123" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="H123" s="74" t="s">
+        <v>136</v>
+      </c>
+      <c r="I123" s="30" t="s">
+        <v>588</v>
+      </c>
+      <c r="J123" s="25"/>
+    </row>
+    <row r="124" spans="1:10">
+      <c r="A124" s="86"/>
+      <c r="B124" s="86"/>
+      <c r="C124" s="25" t="s">
         <v>610</v>
       </c>
-      <c r="D122" s="67" t="s">
+      <c r="D124" s="67" t="s">
         <v>600</v>
       </c>
-      <c r="E122" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="F122" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="G122" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="H122" s="74" t="s">
-        <v>136</v>
-      </c>
-      <c r="I122" s="30" t="s">
-        <v>590</v>
-      </c>
-      <c r="J122" s="25"/>
-    </row>
-    <row r="123" spans="1:10">
-      <c r="A123" s="84"/>
-      <c r="B123" s="84"/>
-      <c r="C123" s="25" t="s">
+      <c r="E124" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="F124" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="G124" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="H124" s="74" t="s">
+        <v>136</v>
+      </c>
+      <c r="I124" s="30" t="s">
+        <v>588</v>
+      </c>
+      <c r="J124" s="25"/>
+    </row>
+    <row r="125" spans="1:10">
+      <c r="A125" s="86"/>
+      <c r="B125" s="86"/>
+      <c r="C125" s="25" t="s">
         <v>611</v>
       </c>
-      <c r="D123" s="67" t="s">
+      <c r="D125" s="67" t="s">
         <v>601</v>
       </c>
-      <c r="E123" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="F123" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="G123" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="H123" s="74" t="s">
-        <v>136</v>
-      </c>
-      <c r="I123" s="30" t="s">
-        <v>590</v>
-      </c>
-      <c r="J123" s="25"/>
-    </row>
-    <row r="124" spans="1:10">
-      <c r="A124" s="84"/>
-      <c r="B124" s="84"/>
-      <c r="C124" s="25" t="s">
+      <c r="E125" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="F125" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="G125" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="H125" s="74" t="s">
+        <v>136</v>
+      </c>
+      <c r="I125" s="30" t="s">
+        <v>588</v>
+      </c>
+      <c r="J125" s="25"/>
+    </row>
+    <row r="126" spans="1:10">
+      <c r="A126" s="86"/>
+      <c r="B126" s="86"/>
+      <c r="C126" s="25" t="s">
         <v>612</v>
       </c>
-      <c r="D124" s="67" t="s">
+      <c r="D126" s="67" t="s">
         <v>602</v>
       </c>
-      <c r="E124" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="F124" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="G124" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="H124" s="74" t="s">
-        <v>136</v>
-      </c>
-      <c r="I124" s="30" t="s">
-        <v>590</v>
-      </c>
-      <c r="J124" s="25"/>
-    </row>
-    <row r="125" spans="1:10">
-      <c r="A125" s="84"/>
-      <c r="B125" s="84"/>
-      <c r="C125" s="25" t="s">
+      <c r="E126" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="F126" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="G126" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="H126" s="74" t="s">
+        <v>136</v>
+      </c>
+      <c r="I126" s="30" t="s">
+        <v>588</v>
+      </c>
+      <c r="J126" s="25"/>
+    </row>
+    <row r="127" spans="1:10">
+      <c r="A127" s="87" t="s">
+        <v>606</v>
+      </c>
+      <c r="B127" s="86"/>
+      <c r="C127" s="25" t="s">
         <v>613</v>
       </c>
-      <c r="D125" s="67" t="s">
+      <c r="D127" s="67" t="s">
         <v>603</v>
       </c>
-      <c r="E125" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="F125" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="G125" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="H125" s="74" t="s">
-        <v>136</v>
-      </c>
-      <c r="I125" s="30" t="s">
-        <v>590</v>
-      </c>
-      <c r="J125" s="25"/>
-    </row>
-    <row r="126" spans="1:10">
-      <c r="A126" s="84"/>
-      <c r="B126" s="84"/>
-      <c r="C126" s="25" t="s">
+      <c r="E127" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="F127" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="G127" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="H127" s="74" t="s">
+        <v>136</v>
+      </c>
+      <c r="I127" s="25" t="s">
+        <v>638</v>
+      </c>
+      <c r="J127" s="25"/>
+    </row>
+    <row r="128" spans="1:10">
+      <c r="A128" s="86"/>
+      <c r="B128" s="86"/>
+      <c r="C128" s="25" t="s">
         <v>614</v>
       </c>
-      <c r="D126" s="67" t="s">
+      <c r="D128" s="67" t="s">
         <v>604</v>
       </c>
-      <c r="E126" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="F126" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="G126" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="H126" s="74" t="s">
-        <v>136</v>
-      </c>
-      <c r="I126" s="30" t="s">
-        <v>590</v>
-      </c>
-      <c r="J126" s="25"/>
-    </row>
-    <row r="127" spans="1:10">
-      <c r="A127" s="85" t="s">
-        <v>608</v>
-      </c>
-      <c r="B127" s="84"/>
-      <c r="C127" s="25" t="s">
-        <v>615</v>
-      </c>
-      <c r="D127" s="67" t="s">
-        <v>605</v>
-      </c>
-      <c r="E127" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="F127" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="G127" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="H127" s="74" t="s">
-        <v>136</v>
-      </c>
-      <c r="I127" s="25" t="s">
-        <v>640</v>
-      </c>
-      <c r="J127" s="25"/>
-    </row>
-    <row r="128" spans="1:10">
-      <c r="A128" s="84"/>
-      <c r="B128" s="84"/>
-      <c r="C128" s="25" t="s">
-        <v>616</v>
-      </c>
-      <c r="D128" s="67" t="s">
-        <v>606</v>
-      </c>
       <c r="E128" s="25" t="s">
         <v>136</v>
       </c>
@@ -6038,18 +6190,18 @@
         <v>136</v>
       </c>
       <c r="I128" s="25" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="J128" s="25"/>
     </row>
     <row r="129" spans="1:10">
-      <c r="A129" s="84"/>
-      <c r="B129" s="84"/>
+      <c r="A129" s="86"/>
+      <c r="B129" s="86"/>
       <c r="C129" s="25" t="s">
         <v>223</v>
       </c>
       <c r="D129" s="67" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="E129" s="25" t="s">
         <v>136</v>
@@ -6064,7 +6216,7 @@
         <v>136</v>
       </c>
       <c r="I129" s="25" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="J129" s="25"/>
     </row>
@@ -6073,17 +6225,17 @@
       <c r="J130" s="25"/>
     </row>
     <row r="131" spans="1:10">
-      <c r="A131" s="85" t="s">
-        <v>608</v>
-      </c>
-      <c r="B131" s="84" t="s">
-        <v>609</v>
+      <c r="A131" s="87" t="s">
+        <v>606</v>
+      </c>
+      <c r="B131" s="86" t="s">
+        <v>676</v>
       </c>
       <c r="C131" s="25" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="D131" s="70" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="E131" s="25" t="s">
         <v>136</v>
@@ -6098,153 +6250,288 @@
         <v>136</v>
       </c>
       <c r="I131" s="25" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="J131" s="25"/>
     </row>
     <row r="132" spans="1:10">
-      <c r="A132" s="84"/>
-      <c r="B132" s="84"/>
+      <c r="A132" s="86"/>
+      <c r="B132" s="86"/>
       <c r="C132" s="25" t="s">
         <v>132</v>
       </c>
       <c r="D132" s="70" t="s">
+        <v>643</v>
+      </c>
+      <c r="E132" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="F132" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="G132" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="H132" s="74" t="s">
+        <v>136</v>
+      </c>
+      <c r="I132" s="25" t="s">
+        <v>638</v>
+      </c>
+      <c r="J132" s="25"/>
+    </row>
+    <row r="133" spans="1:10">
+      <c r="A133" s="86"/>
+      <c r="B133" s="86"/>
+      <c r="C133" s="25" t="s">
+        <v>671</v>
+      </c>
+      <c r="D133" s="70" t="s">
         <v>645</v>
       </c>
-      <c r="E132" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="F132" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="G132" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="H132" s="74" t="s">
-        <v>136</v>
-      </c>
-      <c r="I132" s="25" t="s">
-        <v>640</v>
-      </c>
-      <c r="J132" s="25"/>
-    </row>
-    <row r="133" spans="1:10">
-      <c r="A133" s="84"/>
-      <c r="B133" s="84"/>
-      <c r="C133" s="25" t="s">
+      <c r="E133" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="F133" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="G133" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="H133" s="74" t="s">
+        <v>136</v>
+      </c>
+      <c r="I133" s="25" t="s">
+        <v>638</v>
+      </c>
+      <c r="J133" s="25"/>
+    </row>
+    <row r="134" spans="1:10">
+      <c r="A134" s="86"/>
+      <c r="B134" s="86"/>
+      <c r="C134" s="25" t="s">
+        <v>672</v>
+      </c>
+      <c r="D134" s="70" t="s">
+        <v>647</v>
+      </c>
+      <c r="E134" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="F134" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="G134" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="H134" s="74" t="s">
+        <v>136</v>
+      </c>
+      <c r="I134" s="25" t="s">
+        <v>638</v>
+      </c>
+      <c r="J134" s="25"/>
+    </row>
+    <row r="135" spans="1:10">
+      <c r="A135" s="86"/>
+      <c r="B135" s="86"/>
+      <c r="C135" s="25" t="s">
         <v>673</v>
       </c>
-      <c r="D133" s="70" t="s">
-        <v>647</v>
-      </c>
-      <c r="E133" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="F133" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="G133" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="H133" s="74" t="s">
-        <v>136</v>
-      </c>
-      <c r="I133" s="25" t="s">
-        <v>640</v>
-      </c>
-      <c r="J133" s="25"/>
-    </row>
-    <row r="134" spans="1:10">
-      <c r="A134" s="84"/>
-      <c r="B134" s="84"/>
-      <c r="C134" s="25" t="s">
+      <c r="D135" s="70" t="s">
+        <v>649</v>
+      </c>
+      <c r="E135" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="F135" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="G135" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="H135" s="74" t="s">
+        <v>136</v>
+      </c>
+      <c r="I135" s="25" t="s">
+        <v>638</v>
+      </c>
+      <c r="J135" s="25"/>
+    </row>
+    <row r="136" spans="1:10">
+      <c r="A136" s="86"/>
+      <c r="B136" s="86"/>
+      <c r="C136" s="25" t="s">
         <v>674</v>
       </c>
-      <c r="D134" s="70" t="s">
-        <v>649</v>
-      </c>
-      <c r="E134" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="F134" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="G134" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="H134" s="74" t="s">
-        <v>136</v>
-      </c>
-      <c r="I134" s="25" t="s">
-        <v>640</v>
-      </c>
-      <c r="J134" s="25"/>
-    </row>
-    <row r="135" spans="1:10">
-      <c r="A135" s="84"/>
-      <c r="B135" s="84"/>
-      <c r="C135" s="25" t="s">
-        <v>675</v>
-      </c>
-      <c r="D135" s="70" t="s">
+      <c r="D136" s="70" t="s">
         <v>651</v>
       </c>
-      <c r="E135" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="F135" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="G135" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="H135" s="74" t="s">
-        <v>136</v>
-      </c>
-      <c r="I135" s="25" t="s">
-        <v>640</v>
-      </c>
-      <c r="J135" s="25"/>
-    </row>
-    <row r="136" spans="1:10">
-      <c r="A136" s="84"/>
-      <c r="B136" s="84"/>
-      <c r="C136" s="25" t="s">
-        <v>676</v>
-      </c>
-      <c r="D136" s="70" t="s">
-        <v>653</v>
-      </c>
-      <c r="E136" s="25" t="s">
-        <v>662</v>
+      <c r="E136" s="57" t="s">
+        <v>660</v>
       </c>
       <c r="F136" s="25" t="s">
         <v>136</v>
       </c>
-      <c r="G136" s="30" t="s">
-        <v>661</v>
-      </c>
-      <c r="H136" s="79" t="s">
-        <v>661</v>
+      <c r="G136" s="84" t="s">
+        <v>659</v>
+      </c>
+      <c r="H136" s="85" t="s">
+        <v>659</v>
       </c>
       <c r="I136" s="25" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="J136" s="57" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="137" spans="1:10">
       <c r="B137" s="69"/>
     </row>
     <row r="138" spans="1:10">
-      <c r="B138" s="69"/>
+      <c r="A138" s="87" t="s">
+        <v>697</v>
+      </c>
+      <c r="B138" s="86" t="s">
+        <v>698</v>
+      </c>
+      <c r="C138" s="25" t="s">
+        <v>699</v>
+      </c>
+      <c r="D138" s="83" t="s">
+        <v>680</v>
+      </c>
+      <c r="E138" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="F138" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="G138" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="H138" s="74" t="s">
+        <v>136</v>
+      </c>
+      <c r="I138" s="25" t="s">
+        <v>704</v>
+      </c>
+      <c r="J138" s="25"/>
+    </row>
+    <row r="139" spans="1:10">
+      <c r="A139" s="86"/>
+      <c r="B139" s="86"/>
+      <c r="C139" s="25" t="s">
+        <v>700</v>
+      </c>
+      <c r="D139" s="83" t="s">
+        <v>681</v>
+      </c>
+      <c r="E139" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="F139" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="G139" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="H139" s="74" t="s">
+        <v>136</v>
+      </c>
+      <c r="I139" s="25" t="s">
+        <v>704</v>
+      </c>
+      <c r="J139" s="25"/>
+    </row>
+    <row r="140" spans="1:10">
+      <c r="A140" s="86"/>
+      <c r="B140" s="86"/>
+      <c r="C140" s="25" t="s">
+        <v>701</v>
+      </c>
+      <c r="D140" s="83" t="s">
+        <v>682</v>
+      </c>
+      <c r="E140" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="F140" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="G140" s="57" t="s">
+        <v>565</v>
+      </c>
+      <c r="H140" s="85" t="s">
+        <v>659</v>
+      </c>
+      <c r="I140" s="25" t="s">
+        <v>704</v>
+      </c>
+      <c r="J140" s="57" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10">
+      <c r="A141" s="86"/>
+      <c r="B141" s="86"/>
+      <c r="C141" s="25" t="s">
+        <v>702</v>
+      </c>
+      <c r="D141" s="83" t="s">
+        <v>683</v>
+      </c>
+      <c r="E141" s="25"/>
+      <c r="F141" s="25"/>
+      <c r="G141" s="25"/>
+      <c r="H141" s="25"/>
+      <c r="I141" s="25" t="s">
+        <v>704</v>
+      </c>
+      <c r="J141" s="25"/>
+    </row>
+    <row r="142" spans="1:10">
+      <c r="A142" s="86"/>
+      <c r="B142" s="86"/>
+      <c r="C142" s="25" t="s">
+        <v>703</v>
+      </c>
+      <c r="D142" s="83" t="s">
+        <v>684</v>
+      </c>
+      <c r="E142" s="25"/>
+      <c r="F142" s="25"/>
+      <c r="G142" s="25"/>
+      <c r="H142" s="25"/>
+      <c r="I142" s="25" t="s">
+        <v>704</v>
+      </c>
+      <c r="J142" s="25"/>
     </row>
   </sheetData>
-  <mergeCells count="40">
-    <mergeCell ref="A102:A112"/>
-    <mergeCell ref="B114:B120"/>
-    <mergeCell ref="A114:A120"/>
+  <mergeCells count="44">
+    <mergeCell ref="K2:K5"/>
+    <mergeCell ref="K12:K13"/>
+    <mergeCell ref="B90:B100"/>
+    <mergeCell ref="A90:A97"/>
+    <mergeCell ref="A99:A100"/>
+    <mergeCell ref="A122:A126"/>
+    <mergeCell ref="A127:A129"/>
+    <mergeCell ref="B122:B129"/>
+    <mergeCell ref="B102:B112"/>
+    <mergeCell ref="A51:A55"/>
+    <mergeCell ref="B71:B76"/>
+    <mergeCell ref="A71:A76"/>
+    <mergeCell ref="B62:B69"/>
+    <mergeCell ref="A62:A69"/>
+    <mergeCell ref="B57:B60"/>
+    <mergeCell ref="A58:A60"/>
+    <mergeCell ref="A47:A50"/>
+    <mergeCell ref="A35:A39"/>
+    <mergeCell ref="A41:A45"/>
+    <mergeCell ref="B41:B45"/>
+    <mergeCell ref="B35:B39"/>
     <mergeCell ref="B2:B5"/>
     <mergeCell ref="B47:B55"/>
     <mergeCell ref="A2:A5"/>
@@ -6261,27 +6548,13 @@
     <mergeCell ref="B28:B33"/>
     <mergeCell ref="B22:B26"/>
     <mergeCell ref="B15:B20"/>
-    <mergeCell ref="A47:A50"/>
-    <mergeCell ref="A35:A39"/>
-    <mergeCell ref="A41:A45"/>
-    <mergeCell ref="B41:B45"/>
-    <mergeCell ref="B35:B39"/>
+    <mergeCell ref="B138:B142"/>
+    <mergeCell ref="A138:A142"/>
+    <mergeCell ref="A102:A112"/>
+    <mergeCell ref="B114:B120"/>
+    <mergeCell ref="A114:A120"/>
     <mergeCell ref="B131:B136"/>
     <mergeCell ref="A131:A136"/>
-    <mergeCell ref="A51:A55"/>
-    <mergeCell ref="B71:B76"/>
-    <mergeCell ref="A71:A76"/>
-    <mergeCell ref="B62:B69"/>
-    <mergeCell ref="A62:A69"/>
-    <mergeCell ref="B57:B60"/>
-    <mergeCell ref="A58:A60"/>
-    <mergeCell ref="B90:B100"/>
-    <mergeCell ref="A90:A97"/>
-    <mergeCell ref="A99:A100"/>
-    <mergeCell ref="A122:A126"/>
-    <mergeCell ref="A127:A129"/>
-    <mergeCell ref="B122:B129"/>
-    <mergeCell ref="B102:B112"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -6298,20 +6571,20 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="15.44140625" style="5" customWidth="1"/>
-    <col min="2" max="2" width="18.33203125" style="5" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" style="5"/>
-    <col min="4" max="4" width="13" style="5" customWidth="1"/>
-    <col min="5" max="5" width="18.44140625" style="5" customWidth="1"/>
-    <col min="6" max="6" width="14.109375" style="5" customWidth="1"/>
-    <col min="7" max="7" width="13" style="5" customWidth="1"/>
-    <col min="8" max="9" width="13.6640625" style="5" customWidth="1"/>
-    <col min="10" max="10" width="11.33203125" style="5" customWidth="1"/>
-    <col min="11" max="11" width="15.88671875" style="5" customWidth="1"/>
-    <col min="12" max="12" width="11.88671875" style="5" customWidth="1"/>
-    <col min="13" max="13" width="16.33203125" style="5" customWidth="1"/>
-    <col min="14" max="14" width="18.6640625" style="5" customWidth="1"/>
-    <col min="15" max="16384" width="8.88671875" style="5"/>
+    <col min="1" max="1" customWidth="true" style="5" width="15.44140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="5" width="18.33203125" collapsed="true"/>
+    <col min="3" max="3" style="5" width="8.88671875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="5" width="13.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="5" width="18.44140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="5" width="14.109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="5" width="13.0" collapsed="true"/>
+    <col min="8" max="9" customWidth="true" style="5" width="13.6640625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="5" width="11.33203125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="5" width="15.88671875" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" style="5" width="11.88671875" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" style="5" width="16.33203125" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" style="5" width="18.6640625" collapsed="true"/>
+    <col min="15" max="16384" style="5" width="8.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
@@ -6349,7 +6622,7 @@
         <v>17</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="M1" s="3" t="s">
         <v>48</v>
@@ -6496,7 +6769,7 @@
       </c>
       <c r="H6" s="4"/>
       <c r="I6" s="4" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="J6" s="4"/>
       <c r="K6" s="4"/>
@@ -6614,9 +6887,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="16.44140625" customWidth="1"/>
-    <col min="2" max="2" width="17.109375" customWidth="1"/>
-    <col min="3" max="3" width="10.6640625" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="16.44140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="17.109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="10.6640625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -6700,16 +6973,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="20.109375" customWidth="1"/>
-    <col min="2" max="2" width="29" customWidth="1"/>
-    <col min="3" max="3" width="10.6640625" customWidth="1"/>
-    <col min="4" max="4" width="9.6640625" customWidth="1"/>
-    <col min="5" max="5" width="12.5546875" customWidth="1"/>
-    <col min="6" max="6" width="15.109375" customWidth="1"/>
-    <col min="7" max="7" width="14" style="5" customWidth="1"/>
-    <col min="8" max="8" width="16.44140625" customWidth="1"/>
-    <col min="9" max="9" width="17.33203125" customWidth="1"/>
-    <col min="10" max="10" width="20.109375" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="20.109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="29.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="10.6640625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="9.6640625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.5546875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="15.109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="5" width="14.0" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="16.44140625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="17.33203125" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="20.109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -6738,10 +7011,10 @@
         <v>286</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -6866,22 +7139,22 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="19.6640625" customWidth="1"/>
-    <col min="2" max="2" width="27.44140625" customWidth="1"/>
-    <col min="3" max="3" width="8.44140625" customWidth="1"/>
-    <col min="4" max="4" width="16.33203125" customWidth="1"/>
-    <col min="5" max="5" width="14.33203125" customWidth="1"/>
-    <col min="6" max="6" width="19.6640625" customWidth="1"/>
-    <col min="7" max="7" width="18" customWidth="1"/>
-    <col min="8" max="10" width="12.6640625" customWidth="1"/>
-    <col min="11" max="11" width="12.5546875" customWidth="1"/>
-    <col min="12" max="12" width="11.88671875" customWidth="1"/>
-    <col min="13" max="13" width="15.6640625" customWidth="1"/>
-    <col min="14" max="14" width="15.88671875" customWidth="1"/>
-    <col min="15" max="15" width="20.33203125" customWidth="1"/>
-    <col min="16" max="17" width="15.88671875" customWidth="1"/>
-    <col min="18" max="18" width="13.33203125" customWidth="1"/>
-    <col min="19" max="19" width="20.44140625" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="19.6640625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="27.44140625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="8.44140625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="16.33203125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="14.33203125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="19.6640625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="8" max="10" customWidth="true" width="12.6640625" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="12.5546875" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="11.88671875" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="15.6640625" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="15.88671875" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="20.33203125" collapsed="true"/>
+    <col min="16" max="17" customWidth="true" width="15.88671875" collapsed="true"/>
+    <col min="18" max="18" customWidth="true" width="13.33203125" collapsed="true"/>
+    <col min="19" max="19" customWidth="true" width="20.44140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19">
@@ -7248,16 +7521,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="23.109375" customWidth="1"/>
-    <col min="2" max="2" width="21.6640625" customWidth="1"/>
-    <col min="3" max="3" width="13.109375" customWidth="1"/>
-    <col min="4" max="4" width="20.5546875" customWidth="1"/>
-    <col min="5" max="6" width="21.33203125" customWidth="1"/>
-    <col min="7" max="7" width="13.33203125" customWidth="1"/>
-    <col min="8" max="8" width="15.33203125" customWidth="1"/>
-    <col min="9" max="9" width="16.6640625" customWidth="1"/>
-    <col min="10" max="10" width="19.77734375" customWidth="1"/>
-    <col min="11" max="12" width="19.5546875" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="23.109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="21.6640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="13.109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="20.5546875" collapsed="true"/>
+    <col min="5" max="6" customWidth="true" width="21.33203125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="13.33203125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="15.33203125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="16.6640625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="19.77734375" collapsed="true"/>
+    <col min="11" max="12" customWidth="true" width="19.5546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -7512,9 +7785,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="18.44140625" customWidth="1"/>
-    <col min="2" max="2" width="27.44140625" customWidth="1"/>
-    <col min="3" max="3" width="14.6640625" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="18.44140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="27.44140625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="14.6640625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -7564,31 +7837,31 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="21.88671875" customWidth="1"/>
-    <col min="2" max="2" width="25.33203125" customWidth="1"/>
-    <col min="3" max="3" width="8.21875" style="56" customWidth="1"/>
-    <col min="4" max="4" width="16.77734375" customWidth="1"/>
-    <col min="5" max="5" width="14.6640625" customWidth="1"/>
-    <col min="6" max="6" width="13.77734375" customWidth="1"/>
-    <col min="7" max="7" width="13.109375" style="5" customWidth="1"/>
-    <col min="8" max="8" width="11.5546875" style="5" customWidth="1"/>
-    <col min="9" max="9" width="12.44140625" customWidth="1"/>
-    <col min="10" max="10" width="17" customWidth="1"/>
-    <col min="11" max="11" width="12.109375" customWidth="1"/>
-    <col min="12" max="12" width="15" customWidth="1"/>
-    <col min="13" max="13" width="15.88671875" customWidth="1"/>
-    <col min="14" max="14" width="17.33203125" customWidth="1"/>
-    <col min="15" max="15" width="13.33203125" customWidth="1"/>
-    <col min="16" max="16" width="11.33203125" customWidth="1"/>
-    <col min="17" max="17" width="15.5546875" customWidth="1"/>
-    <col min="18" max="18" width="12.6640625" customWidth="1"/>
-    <col min="19" max="19" width="14.21875" customWidth="1"/>
-    <col min="20" max="20" width="19.5546875" customWidth="1"/>
-    <col min="21" max="21" width="16.5546875" customWidth="1"/>
-    <col min="22" max="22" width="13.77734375" customWidth="1"/>
-    <col min="23" max="23" width="10.21875" customWidth="1"/>
-    <col min="24" max="24" width="15" customWidth="1"/>
-    <col min="25" max="25" width="18" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="21.88671875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="25.33203125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="56" width="8.21875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="16.77734375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="14.6640625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="13.77734375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="5" width="13.109375" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="5" width="11.5546875" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="12.44140625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="17.0" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="12.109375" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="15.0" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="15.88671875" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="17.33203125" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="13.33203125" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="11.33203125" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" width="15.5546875" collapsed="true"/>
+    <col min="18" max="18" customWidth="true" width="12.6640625" collapsed="true"/>
+    <col min="19" max="19" customWidth="true" width="14.21875" collapsed="true"/>
+    <col min="20" max="20" customWidth="true" width="19.5546875" collapsed="true"/>
+    <col min="21" max="21" customWidth="true" width="16.5546875" collapsed="true"/>
+    <col min="22" max="22" customWidth="true" width="13.77734375" collapsed="true"/>
+    <col min="23" max="23" customWidth="true" width="10.21875" collapsed="true"/>
+    <col min="24" max="24" customWidth="true" width="15.0" collapsed="true"/>
+    <col min="25" max="25" customWidth="true" width="18.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25">
@@ -7662,10 +7935,10 @@
         <v>468</v>
       </c>
       <c r="X1" s="3" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="Y1" s="3" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
     </row>
     <row r="2" spans="1:25">
@@ -7764,7 +8037,7 @@
         <v>540</v>
       </c>
       <c r="R3" s="59" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="S3" s="59" t="s">
         <v>93</v>
@@ -7882,16 +8155,16 @@
         <v>523</v>
       </c>
       <c r="E6" s="58" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="F6" s="58" t="s">
         <v>452</v>
       </c>
       <c r="G6" s="59" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="H6" s="59" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="I6" s="59" t="s">
         <v>243</v>
@@ -7900,10 +8173,10 @@
         <v>536</v>
       </c>
       <c r="K6" s="59" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="L6" s="59" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="M6" s="59" t="s">
         <v>538</v>
@@ -7980,10 +8253,10 @@
       <c r="I8" s="59"/>
       <c r="J8" s="59"/>
       <c r="K8" s="59" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="L8" s="59" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="M8" s="59"/>
       <c r="N8" s="59"/>
@@ -8001,10 +8274,10 @@
     </row>
     <row r="9" spans="1:25">
       <c r="A9" s="57" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="B9" s="57" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="C9" s="58">
         <v>4138</v>
@@ -8034,10 +8307,10 @@
     </row>
     <row r="10" spans="1:25">
       <c r="A10" s="57" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="B10" s="57" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="C10" s="58">
         <v>4138</v>
@@ -8062,17 +8335,17 @@
       <c r="U10" s="59"/>
       <c r="V10" s="59"/>
       <c r="W10" s="59" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="X10" s="59"/>
       <c r="Y10" s="59"/>
     </row>
     <row r="11" spans="1:25">
       <c r="A11" s="57" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="B11" s="57" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="C11" s="58">
         <v>4138</v>
@@ -8097,17 +8370,17 @@
       <c r="U11" s="59"/>
       <c r="V11" s="59"/>
       <c r="W11" s="59" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="X11" s="59"/>
       <c r="Y11" s="59"/>
     </row>
     <row r="12" spans="1:25">
       <c r="A12" s="57" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="B12" s="57" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="C12" s="58">
         <v>4138</v>
@@ -8133,18 +8406,18 @@
       <c r="V12" s="59"/>
       <c r="W12" s="59"/>
       <c r="X12" s="59" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="Y12" s="59" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
     </row>
     <row r="13" spans="1:25">
       <c r="A13" s="57" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="B13" s="57" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="C13" s="58">
         <v>4138</v>
@@ -8181,31 +8454,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:T10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="T16" sqref="T16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" customWidth="1"/>
-    <col min="2" max="2" width="23.88671875" customWidth="1"/>
-    <col min="3" max="3" width="9.109375" customWidth="1"/>
-    <col min="4" max="4" width="14.109375" customWidth="1"/>
-    <col min="5" max="5" width="18.77734375" customWidth="1"/>
-    <col min="6" max="6" width="15.77734375" customWidth="1"/>
-    <col min="7" max="8" width="15" customWidth="1"/>
-    <col min="9" max="9" width="14.21875" customWidth="1"/>
-    <col min="10" max="10" width="10.44140625" customWidth="1"/>
-    <col min="11" max="11" width="16.21875" customWidth="1"/>
-    <col min="12" max="12" width="14.109375" customWidth="1"/>
-    <col min="13" max="13" width="14" customWidth="1"/>
-    <col min="14" max="14" width="15.5546875" customWidth="1"/>
-    <col min="15" max="15" width="14" customWidth="1"/>
-    <col min="16" max="16" width="14.33203125" customWidth="1"/>
-    <col min="17" max="17" width="10.77734375" customWidth="1"/>
-    <col min="18" max="18" width="16" customWidth="1"/>
-    <col min="19" max="19" width="19.6640625" customWidth="1"/>
-    <col min="20" max="20" width="18.44140625" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="19.33203125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="23.88671875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="9.109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="14.109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.77734375" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="15.77734375" collapsed="true"/>
+    <col min="7" max="8" customWidth="true" width="15.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="14.21875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="10.44140625" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="16.21875" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="14.109375" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="15.5546875" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="14.33203125" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" width="10.77734375" collapsed="true"/>
+    <col min="18" max="18" customWidth="true" width="16.0" collapsed="true"/>
+    <col min="19" max="19" customWidth="true" width="19.6640625" collapsed="true"/>
+    <col min="20" max="20" customWidth="true" width="18.44140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20">
@@ -8243,25 +8516,25 @@
         <v>17</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="M1" s="3" t="s">
+        <v>631</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>632</v>
+      </c>
+      <c r="O1" s="3" t="s">
         <v>633</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>634</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>635</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>636</v>
       </c>
       <c r="Q1" s="3" t="s">
         <v>322</v>
       </c>
       <c r="R1" s="3" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="S1" s="3" t="s">
         <v>48</v>
@@ -8272,10 +8545,10 @@
     </row>
     <row r="2" spans="1:20">
       <c r="A2" s="57" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="B2" s="57" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="C2" s="58">
         <v>4138</v>
@@ -8300,10 +8573,10 @@
     </row>
     <row r="3" spans="1:20">
       <c r="A3" s="57" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="B3" s="57" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="C3" s="58">
         <v>4138</v>
@@ -8330,7 +8603,7 @@
         <v>254</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="L3" s="4"/>
       <c r="M3" s="4"/>
@@ -8344,10 +8617,10 @@
     </row>
     <row r="4" spans="1:20">
       <c r="A4" s="57" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="B4" s="57" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="C4" s="58">
         <v>4138</v>
@@ -8359,10 +8632,10 @@
         <v>233</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="H4" s="58">
         <v>72</v>
@@ -8387,7 +8660,7 @@
         <v>50000</v>
       </c>
       <c r="P4" s="58" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="Q4" s="58" t="s">
         <v>326</v>
@@ -8400,10 +8673,10 @@
     </row>
     <row r="5" spans="1:20">
       <c r="A5" s="57" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="B5" s="57" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="C5" s="58">
         <v>4138</v>
@@ -8415,20 +8688,20 @@
         <v>233</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="H5" s="58">
         <v>72</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="J5" s="4"/>
       <c r="K5" s="4" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="L5" s="4"/>
       <c r="M5" s="4"/>
@@ -8442,10 +8715,10 @@
     </row>
     <row r="6" spans="1:20">
       <c r="A6" s="57" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="B6" s="57" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="C6" s="58">
         <v>4138</v>
@@ -8458,12 +8731,12 @@
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
       <c r="I6" s="4" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="J6" s="4"/>
       <c r="K6" s="4"/>
       <c r="L6" s="4" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>
@@ -8476,10 +8749,10 @@
     </row>
     <row r="7" spans="1:20">
       <c r="A7" s="57" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="B7" s="57" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="C7" s="58">
         <v>4138</v>
@@ -8504,10 +8777,10 @@
     </row>
     <row r="8" spans="1:20">
       <c r="A8" s="57" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="B8" s="57" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="C8" s="58">
         <v>4138</v>
@@ -8531,15 +8804,15 @@
         <v>239</v>
       </c>
       <c r="T8" s="4" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" s="57" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="B9" s="57" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="C9" s="58">
         <v>4138</v>
@@ -8564,10 +8837,10 @@
     </row>
     <row r="10" spans="1:20">
       <c r="A10" s="57" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="B10" s="57" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="C10" s="58">
         <v>4138</v>
@@ -8595,21 +8868,189 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:J7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" style="56" width="25.77734375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="27.33203125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="13.0" collapsed="true"/>
+    <col min="4" max="5" customWidth="true" style="5" width="12.21875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="14.21875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="17.5546875" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="16.77734375" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="13.88671875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="12.109375" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" s="55" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="55" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>690</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>707</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>691</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>692</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>693</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>472</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="81" t="s">
+        <v>680</v>
+      </c>
+      <c r="B2" s="57" t="s">
+        <v>685</v>
+      </c>
+      <c r="C2" s="58">
+        <v>3656</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="81" t="s">
+        <v>681</v>
+      </c>
+      <c r="B3" s="57" t="s">
+        <v>686</v>
+      </c>
+      <c r="C3" s="58">
+        <v>3656</v>
+      </c>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="81" t="s">
+        <v>682</v>
+      </c>
+      <c r="B4" s="57" t="s">
+        <v>687</v>
+      </c>
+      <c r="C4" s="58">
+        <v>3656</v>
+      </c>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4" t="s">
+        <v>694</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>695</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>696</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="81" t="s">
+        <v>683</v>
+      </c>
+      <c r="B5" s="57" t="s">
+        <v>688</v>
+      </c>
+      <c r="C5" s="58">
+        <v>3656</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="81" t="s">
+        <v>684</v>
+      </c>
+      <c r="B6" s="57" t="s">
+        <v>689</v>
+      </c>
+      <c r="C6" s="58">
+        <v>3656</v>
+      </c>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="D7" s="82"/>
+      <c r="E7" s="82"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" style="5" customWidth="1"/>
-    <col min="2" max="2" width="16.44140625" style="5" customWidth="1"/>
-    <col min="3" max="3" width="13.6640625" style="5" customWidth="1"/>
-    <col min="4" max="4" width="27.88671875" style="5" customWidth="1"/>
-    <col min="5" max="16384" width="8.88671875" style="5"/>
+    <col min="1" max="1" customWidth="true" style="5" width="19.33203125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="5" width="10.49609375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="5" width="13.6640625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="5" width="27.88671875" collapsed="true"/>
+    <col min="5" max="16384" style="5" width="8.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -8626,165 +9067,198 @@
         <v>99</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>4</v>
+    <row r="2" spans="1:5" s="98" customFormat="1">
+      <c r="A2" s="99" t="s">
+        <v>712</v>
+      </c>
+      <c r="B2" s="99" t="s">
+        <v>713</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="D2" s="8" t="s">
-        <v>231</v>
+      <c r="D2" s="99" t="s">
+        <v>711</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="8" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>101</v>
+        <v>4</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>31</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>100</v>
+        <v>231</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>175</v>
+        <v>101</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>31</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>119</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="8" t="s">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>101</v>
+        <v>175</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>31</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>173</v>
+        <v>119</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="8" t="s">
-        <v>176</v>
+        <v>32</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>175</v>
+        <v>101</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>31</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>174</v>
+        <v>102</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="8" t="s">
-        <v>232</v>
+        <v>176</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>414</v>
+        <v>175</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>31</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>230</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>261</v>
+        <v>174</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="8" t="s">
-        <v>260</v>
+        <v>232</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>399</v>
+        <v>414</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>31</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>262</v>
+        <v>230</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="8" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>273</v>
+        <v>399</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>31</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>274</v>
+        <v>262</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="8" t="s">
-        <v>500</v>
+        <v>269</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>498</v>
+        <v>273</v>
       </c>
       <c r="C10" s="7" t="s">
         <v>31</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>499</v>
+        <v>274</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="8" t="s">
-        <v>518</v>
+        <v>500</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>519</v>
+        <v>498</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>31</v>
       </c>
       <c r="D11" s="8" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="8" t="s">
+        <v>518</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>519</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" s="8" t="s">
         <v>520</v>
       </c>
-      <c r="E11" s="15"/>
+      <c r="E12" s="15"/>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="8" t="s">
+        <v>679</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>706</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>678</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>677</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" r:id="rId1"/>
-    <hyperlink ref="C3" r:id="rId2"/>
-    <hyperlink ref="C5" r:id="rId3"/>
-    <hyperlink ref="C6" r:id="rId4"/>
-    <hyperlink ref="C7" r:id="rId5"/>
-    <hyperlink ref="C8" r:id="rId6"/>
-    <hyperlink ref="C9" r:id="rId7"/>
-    <hyperlink ref="C10" r:id="rId8"/>
-    <hyperlink ref="C11" r:id="rId9"/>
-    <hyperlink ref="C2" r:id="rId10"/>
+    <hyperlink ref="C5" r:id="rId1"/>
+    <hyperlink ref="C4" r:id="rId2"/>
+    <hyperlink ref="C6" r:id="rId3"/>
+    <hyperlink ref="C7" r:id="rId4"/>
+    <hyperlink ref="C8" r:id="rId5"/>
+    <hyperlink ref="C9" r:id="rId6"/>
+    <hyperlink ref="C10" r:id="rId7"/>
+    <hyperlink ref="C11" r:id="rId8"/>
+    <hyperlink ref="C12" r:id="rId9"/>
+    <hyperlink ref="C3" r:id="rId10"/>
+    <hyperlink ref="C13" r:id="rId11"/>
+    <hyperlink ref="C2" r:id="rId12"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8792,27 +9266,27 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M8"/>
+  <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="15.33203125" customWidth="1"/>
-    <col min="2" max="2" width="20.33203125" customWidth="1"/>
-    <col min="3" max="3" width="9.5546875" style="5" customWidth="1"/>
-    <col min="4" max="4" width="13.33203125" style="5" customWidth="1"/>
-    <col min="5" max="5" width="12.88671875" style="5" customWidth="1"/>
-    <col min="6" max="6" width="15.44140625" style="5" customWidth="1"/>
-    <col min="7" max="7" width="14.5546875" style="5" customWidth="1"/>
-    <col min="8" max="8" width="16" style="5" customWidth="1"/>
-    <col min="9" max="9" width="15.109375" customWidth="1"/>
-    <col min="10" max="10" width="17.6640625" customWidth="1"/>
-    <col min="11" max="11" width="19.33203125" customWidth="1"/>
-    <col min="12" max="12" width="16.44140625" customWidth="1"/>
-    <col min="13" max="13" width="14.33203125" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="15.33203125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="20.33203125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="5" width="9.5546875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="5" width="13.33203125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="5" width="12.88671875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="5" width="15.44140625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="5" width="14.5546875" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="5" width="16.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="15.109375" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="17.6640625" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="19.33203125" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="16.44140625" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="14.33203125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
@@ -9016,27 +9490,6 @@
       <c r="L7" s="4"/>
       <c r="M7" s="4"/>
     </row>
-    <row r="8" spans="1:13">
-      <c r="A8" s="2" t="s">
-        <v>556</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>557</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
-      <c r="M8" s="4"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -9045,31 +9498,33 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M7"/>
+  <dimension ref="A1:O7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="O1" sqref="O1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="14.44140625" style="5" customWidth="1"/>
-    <col min="2" max="2" width="23.109375" style="5" customWidth="1"/>
-    <col min="3" max="3" width="13.109375" style="5" customWidth="1"/>
-    <col min="4" max="4" width="17.33203125" style="5" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" style="5" customWidth="1"/>
-    <col min="6" max="6" width="16" style="5" customWidth="1"/>
-    <col min="7" max="7" width="11.21875" style="5" customWidth="1"/>
-    <col min="8" max="8" width="10.21875" style="5" customWidth="1"/>
-    <col min="9" max="9" width="16.88671875" style="5" customWidth="1"/>
-    <col min="10" max="10" width="12.77734375" style="5" customWidth="1"/>
-    <col min="11" max="11" width="12.33203125" style="5" customWidth="1"/>
-    <col min="12" max="12" width="17.77734375" style="5" customWidth="1"/>
-    <col min="13" max="13" width="18.109375" style="5" customWidth="1"/>
-    <col min="14" max="16384" width="8.88671875" style="5"/>
+    <col min="1" max="1" customWidth="true" style="5" width="14.44140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="5" width="23.109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="5" width="13.109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="5" width="17.33203125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="5" width="18.88671875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="5" width="16.0" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="5" width="11.21875" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="5" width="10.21875" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="5" width="16.88671875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="5" width="12.77734375" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="5" width="12.33203125" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" style="5" width="17.77734375" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" style="5" width="16.21875" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" style="5" width="9.0" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" style="5" width="11.33203125" collapsed="true"/>
+    <col min="16" max="16384" style="5" width="8.88671875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="A1" s="3" t="s">
         <v>7</v>
       </c>
@@ -9109,8 +9564,14 @@
       <c r="M1" s="3" t="s">
         <v>495</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="3" t="s">
+        <v>708</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="10" t="s">
         <v>33</v>
       </c>
@@ -9130,8 +9591,10 @@
       <c r="K2" s="4"/>
       <c r="L2" s="4"/>
       <c r="M2" s="4"/>
-    </row>
-    <row r="3" spans="1:13">
+      <c r="N2" s="4"/>
+      <c r="O2" s="4"/>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="10" t="s">
         <v>33</v>
       </c>
@@ -9153,8 +9616,10 @@
       <c r="K3" s="4"/>
       <c r="L3" s="4"/>
       <c r="M3" s="4"/>
-    </row>
-    <row r="4" spans="1:13">
+      <c r="N3" s="4"/>
+      <c r="O3" s="12"/>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="10" t="s">
         <v>39</v>
       </c>
@@ -9178,8 +9643,14 @@
       <c r="K4" s="4"/>
       <c r="L4" s="4"/>
       <c r="M4" s="4"/>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="4" t="s">
+        <v>710</v>
+      </c>
+      <c r="O4" s="12" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="10" t="s">
         <v>469</v>
       </c>
@@ -9211,8 +9682,10 @@
       </c>
       <c r="L5" s="4"/>
       <c r="M5" s="4"/>
-    </row>
-    <row r="6" spans="1:13">
+      <c r="N5" s="4"/>
+      <c r="O5" s="4"/>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="10" t="s">
         <v>484</v>
       </c>
@@ -9232,8 +9705,10 @@
       <c r="K6" s="4"/>
       <c r="L6" s="4"/>
       <c r="M6" s="4"/>
-    </row>
-    <row r="7" spans="1:13">
+      <c r="N6" s="4"/>
+      <c r="O6" s="4"/>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="10" t="s">
         <v>493</v>
       </c>
@@ -9257,6 +9732,8 @@
       <c r="M7" s="4" t="s">
         <v>497</v>
       </c>
+      <c r="N7" s="4"/>
+      <c r="O7" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9273,18 +9750,18 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="23.33203125" style="5" customWidth="1"/>
-    <col min="2" max="2" width="37.109375" style="5" customWidth="1"/>
-    <col min="3" max="3" width="14.44140625" style="5" customWidth="1"/>
-    <col min="4" max="4" width="16.6640625" style="5" customWidth="1"/>
-    <col min="5" max="5" width="22.44140625" style="5" customWidth="1"/>
-    <col min="6" max="6" width="22.6640625" style="5" customWidth="1"/>
-    <col min="7" max="7" width="15.77734375" style="5" customWidth="1"/>
-    <col min="8" max="8" width="13.5546875" style="5" customWidth="1"/>
-    <col min="9" max="9" width="20.44140625" style="5" customWidth="1"/>
-    <col min="10" max="10" width="15.33203125" style="5" customWidth="1"/>
-    <col min="11" max="11" width="9.5546875" style="5" customWidth="1"/>
-    <col min="12" max="16384" width="8.88671875" style="5"/>
+    <col min="1" max="1" customWidth="true" style="5" width="23.33203125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="5" width="37.109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="5" width="14.44140625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="5" width="16.6640625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="5" width="22.44140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="5" width="22.6640625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="5" width="15.77734375" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="5" width="13.5546875" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="5" width="20.44140625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="5" width="15.33203125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="5" width="9.5546875" collapsed="true"/>
+    <col min="12" max="16384" style="5" width="8.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -9512,9 +9989,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="19.109375" customWidth="1"/>
-    <col min="2" max="2" width="21.109375" customWidth="1"/>
-    <col min="3" max="3" width="17.6640625" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="19.109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="21.109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="17.6640625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -9609,20 +10086,20 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="18.109375" style="5" customWidth="1"/>
-    <col min="2" max="2" width="23.6640625" style="5" customWidth="1"/>
-    <col min="3" max="3" width="9.5546875" style="5" customWidth="1"/>
-    <col min="4" max="4" width="24.33203125" style="5" customWidth="1"/>
-    <col min="5" max="5" width="23.6640625" style="5" customWidth="1"/>
-    <col min="6" max="6" width="15.6640625" style="5" customWidth="1"/>
-    <col min="7" max="7" width="15.5546875" style="5" customWidth="1"/>
-    <col min="8" max="8" width="14.88671875" style="5" customWidth="1"/>
-    <col min="9" max="9" width="26.33203125" style="5" customWidth="1"/>
-    <col min="10" max="10" width="13.5546875" style="5" customWidth="1"/>
-    <col min="11" max="11" width="19.33203125" style="5" customWidth="1"/>
-    <col min="12" max="12" width="24.77734375" style="5" customWidth="1"/>
-    <col min="13" max="13" width="20.5546875" style="5" customWidth="1"/>
-    <col min="14" max="16384" width="8.88671875" style="5"/>
+    <col min="1" max="1" customWidth="true" style="5" width="18.109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="5" width="23.6640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="5" width="9.5546875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="5" width="24.33203125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="5" width="23.6640625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="5" width="15.6640625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="5" width="15.5546875" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="5" width="14.88671875" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="5" width="26.33203125" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="5" width="13.5546875" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="5" width="19.33203125" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" style="5" width="24.77734375" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" style="5" width="20.5546875" collapsed="true"/>
+    <col min="14" max="16384" style="5" width="8.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="14" customFormat="1">
@@ -9808,9 +10285,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="14.6640625" customWidth="1"/>
-    <col min="2" max="2" width="18.5546875" customWidth="1"/>
-    <col min="3" max="3" width="17.5546875" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="14.6640625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.5546875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="17.5546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -9905,28 +10382,28 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="15.88671875" customWidth="1"/>
-    <col min="2" max="2" width="18.109375" customWidth="1"/>
-    <col min="3" max="3" width="10.33203125" customWidth="1"/>
-    <col min="4" max="4" width="20.6640625" customWidth="1"/>
-    <col min="5" max="5" width="19.5546875" customWidth="1"/>
-    <col min="6" max="6" width="17.33203125" customWidth="1"/>
-    <col min="7" max="7" width="23.33203125" customWidth="1"/>
-    <col min="8" max="8" width="26.6640625" customWidth="1"/>
-    <col min="9" max="9" width="27.33203125" customWidth="1"/>
-    <col min="10" max="10" width="18.33203125" customWidth="1"/>
-    <col min="11" max="11" width="29.44140625" customWidth="1"/>
-    <col min="12" max="12" width="16.6640625" customWidth="1"/>
-    <col min="13" max="13" width="17.33203125" customWidth="1"/>
-    <col min="14" max="14" width="16.33203125" customWidth="1"/>
-    <col min="15" max="15" width="14.33203125" customWidth="1"/>
-    <col min="16" max="16" width="15.5546875" customWidth="1"/>
-    <col min="17" max="17" width="12.6640625" customWidth="1"/>
-    <col min="18" max="18" width="13.33203125" customWidth="1"/>
-    <col min="19" max="19" width="19.5546875" customWidth="1"/>
-    <col min="20" max="20" width="13.33203125" customWidth="1"/>
-    <col min="21" max="21" width="13.6640625" customWidth="1"/>
-    <col min="22" max="22" width="14.44140625" style="28" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="15.88671875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="10.33203125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="20.6640625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="19.5546875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="17.33203125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="23.33203125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="26.6640625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="27.33203125" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="18.33203125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="29.44140625" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="16.6640625" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="17.33203125" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="16.33203125" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="14.33203125" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="15.5546875" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" width="12.6640625" collapsed="true"/>
+    <col min="18" max="18" customWidth="true" width="13.33203125" collapsed="true"/>
+    <col min="19" max="19" customWidth="true" width="19.5546875" collapsed="true"/>
+    <col min="20" max="20" customWidth="true" width="13.33203125" collapsed="true"/>
+    <col min="21" max="21" customWidth="true" width="13.6640625" collapsed="true"/>
+    <col min="22" max="22" customWidth="true" style="28" width="14.44140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" s="14" customFormat="1">

--- a/KULS_Sankar/TestData/ijaraTestData.xlsx
+++ b/KULS_Sankar/TestData/ijaraTestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="72" windowWidth="23256" windowHeight="12600" firstSheet="16" activeTab="19"/>
+    <workbookView xWindow="0" yWindow="72" windowWidth="23256" windowHeight="12600" firstSheet="11" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="AllFeaturesAutomationInfo" sheetId="8" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1815" uniqueCount="786">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1905" uniqueCount="805">
   <si>
     <t>UserName</t>
   </si>
@@ -897,9 +897,6 @@
   </si>
   <si>
     <t>AT_TW_AD_06</t>
-  </si>
-  <si>
-    <t>Chennai</t>
   </si>
   <si>
     <t>Pondi</t>
@@ -2439,6 +2436,67 @@
   <si>
     <t>DS_AT_MU_ADE_IAD_10</t>
   </si>
+  <si>
+    <t>1435897552</t>
+  </si>
+  <si>
+    <t>1589</t>
+  </si>
+  <si>
+    <t>ألف وخمسة مائة وتسعة وتسعون</t>
+  </si>
+  <si>
+    <t>أربعة آلاف وثمانية مائة وسبعة وثمانون</t>
+  </si>
+  <si>
+    <t>1.6L, AT, SR, Remote</t>
+  </si>
+  <si>
+    <t>Mismatch_Data</t>
+  </si>
+  <si>
+    <t>Harrier</t>
+  </si>
+  <si>
+    <t>Nexon</t>
+  </si>
+  <si>
+    <t>MU_AppData_AssetDetails.feature</t>
+  </si>
+  <si>
+    <t>Murabaha - App Data Entry
+Asset Details Screen</t>
+  </si>
+  <si>
+    <t>Sprint - 79</t>
+  </si>
+  <si>
+    <t>IAD_01_01, IAD_01_02, IAD_01_03</t>
+  </si>
+  <si>
+    <t>IAD_01_05</t>
+  </si>
+  <si>
+    <t>IAD_01_06 --&gt; IAD_01_20</t>
+  </si>
+  <si>
+    <t>IAD_01_27</t>
+  </si>
+  <si>
+    <t>IAD_01_28 --&gt; IAD_01_40</t>
+  </si>
+  <si>
+    <t>IAD_03_01 --&gt; IAD_03_06</t>
+  </si>
+  <si>
+    <t>IAD_04_01 --&gt; IAD_04_04</t>
+  </si>
+  <si>
+    <t>IAD_04_05, IAD_04_06</t>
+  </si>
+  <si>
+    <t>IAD_04_07, IAD_04_08</t>
+  </si>
 </sst>
 </file>
 
@@ -2447,7 +2505,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2536,6 +2594,21 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF242424"/>
+      <name val="Calibri"/>
+      <charset val="1"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF242424"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -2740,7 +2813,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="101">
+  <cellXfs count="106">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2935,18 +3008,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2969,6 +3033,28 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -3266,11 +3352,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K152"/>
+  <dimension ref="A1:K162"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A137" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E155" sqref="E155"/>
+      <pane ySplit="1" topLeftCell="A122" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K138" sqref="K138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -3325,10 +3411,10 @@
       </c>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="90" t="s">
-        <v>663</v>
-      </c>
-      <c r="B2" s="94" t="s">
+      <c r="A2" s="89" t="s">
+        <v>662</v>
+      </c>
+      <c r="B2" s="91" t="s">
         <v>127</v>
       </c>
       <c r="C2" s="20" t="s">
@@ -3347,10 +3433,10 @@
         <v>133</v>
       </c>
       <c r="H2" s="25" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="97" t="s">
+      <c r="J2" s="94" t="s">
         <v>133</v>
       </c>
       <c r="K2" s="25" t="s">
@@ -3358,8 +3444,8 @@
       </c>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="89"/>
-      <c r="B3" s="95"/>
+      <c r="A3" s="90"/>
+      <c r="B3" s="92"/>
       <c r="C3" s="20" t="s">
         <v>21</v>
       </c>
@@ -3376,17 +3462,17 @@
         <v>133</v>
       </c>
       <c r="H3" s="25" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="I3" s="25"/>
-      <c r="J3" s="98"/>
+      <c r="J3" s="95"/>
       <c r="K3" s="25" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="89"/>
-      <c r="B4" s="95"/>
+      <c r="A4" s="90"/>
+      <c r="B4" s="92"/>
       <c r="C4" s="20" t="s">
         <v>27</v>
       </c>
@@ -3403,17 +3489,17 @@
         <v>133</v>
       </c>
       <c r="H4" s="25" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="I4" s="25"/>
-      <c r="J4" s="98"/>
+      <c r="J4" s="95"/>
       <c r="K4" s="25" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="89"/>
-      <c r="B5" s="96"/>
+      <c r="A5" s="90"/>
+      <c r="B5" s="93"/>
       <c r="C5" s="20" t="s">
         <v>19</v>
       </c>
@@ -3430,10 +3516,10 @@
         <v>133</v>
       </c>
       <c r="H5" s="25" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="I5" s="25"/>
-      <c r="J5" s="99"/>
+      <c r="J5" s="96"/>
       <c r="K5" s="25" t="s">
         <v>131</v>
       </c>
@@ -3452,10 +3538,10 @@
       <c r="K6" s="25"/>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="89" t="s">
-        <v>662</v>
-      </c>
-      <c r="B7" s="94" t="s">
+      <c r="A7" s="90" t="s">
+        <v>661</v>
+      </c>
+      <c r="B7" s="91" t="s">
         <v>140</v>
       </c>
       <c r="C7" s="20" t="s">
@@ -3474,10 +3560,10 @@
         <v>133</v>
       </c>
       <c r="H7" s="25" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="I7" s="25"/>
-      <c r="J7" s="97" t="s">
+      <c r="J7" s="94" t="s">
         <v>133</v>
       </c>
       <c r="K7" s="21" t="s">
@@ -3485,8 +3571,8 @@
       </c>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="89"/>
-      <c r="B8" s="95"/>
+      <c r="A8" s="90"/>
+      <c r="B8" s="92"/>
       <c r="C8" s="20" t="s">
         <v>136</v>
       </c>
@@ -3503,17 +3589,17 @@
         <v>133</v>
       </c>
       <c r="H8" s="25" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="I8" s="25"/>
-      <c r="J8" s="98"/>
+      <c r="J8" s="95"/>
       <c r="K8" s="25" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" s="89"/>
-      <c r="B9" s="95"/>
+      <c r="A9" s="90"/>
+      <c r="B9" s="92"/>
       <c r="C9" s="20" t="s">
         <v>137</v>
       </c>
@@ -3530,17 +3616,17 @@
         <v>133</v>
       </c>
       <c r="H9" s="25" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="I9" s="25"/>
-      <c r="J9" s="98"/>
+      <c r="J9" s="95"/>
       <c r="K9" s="25" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="10" spans="1:11">
-      <c r="A10" s="89"/>
-      <c r="B10" s="95"/>
+      <c r="A10" s="90"/>
+      <c r="B10" s="92"/>
       <c r="C10" s="20" t="s">
         <v>138</v>
       </c>
@@ -3557,19 +3643,19 @@
         <v>133</v>
       </c>
       <c r="H10" s="25" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="I10" s="25"/>
-      <c r="J10" s="99"/>
+      <c r="J10" s="96"/>
       <c r="K10" s="25" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="11" spans="1:11" s="72" customFormat="1" ht="28.8">
       <c r="A11" s="68" t="s">
-        <v>661</v>
-      </c>
-      <c r="B11" s="95"/>
+        <v>660</v>
+      </c>
+      <c r="B11" s="92"/>
       <c r="C11" s="71" t="s">
         <v>51</v>
       </c>
@@ -3586,7 +3672,7 @@
         <v>133</v>
       </c>
       <c r="H11" s="53" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="I11" s="53"/>
       <c r="J11" s="79"/>
@@ -3595,10 +3681,10 @@
       </c>
     </row>
     <row r="12" spans="1:11">
-      <c r="A12" s="90" t="s">
-        <v>660</v>
-      </c>
-      <c r="B12" s="95"/>
+      <c r="A12" s="89" t="s">
+        <v>659</v>
+      </c>
+      <c r="B12" s="92"/>
       <c r="C12" s="20" t="s">
         <v>42</v>
       </c>
@@ -3618,16 +3704,16 @@
         <v>134</v>
       </c>
       <c r="I12" s="25"/>
-      <c r="J12" s="100" t="s">
-        <v>705</v>
+      <c r="J12" s="97" t="s">
+        <v>704</v>
       </c>
       <c r="K12" s="25" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="13" spans="1:11">
-      <c r="A13" s="89"/>
-      <c r="B13" s="96"/>
+      <c r="A13" s="90"/>
+      <c r="B13" s="93"/>
       <c r="C13" s="20" t="s">
         <v>139</v>
       </c>
@@ -3647,7 +3733,7 @@
         <v>134</v>
       </c>
       <c r="I13" s="25"/>
-      <c r="J13" s="99"/>
+      <c r="J13" s="96"/>
       <c r="K13" s="25" t="s">
         <v>147</v>
       </c>
@@ -3666,10 +3752,10 @@
       <c r="K14" s="25"/>
     </row>
     <row r="15" spans="1:11">
-      <c r="A15" s="90" t="s">
-        <v>658</v>
-      </c>
-      <c r="B15" s="94" t="s">
+      <c r="A15" s="89" t="s">
+        <v>657</v>
+      </c>
+      <c r="B15" s="91" t="s">
         <v>149</v>
       </c>
       <c r="C15" s="20" t="s">
@@ -3688,7 +3774,7 @@
         <v>133</v>
       </c>
       <c r="H15" s="25" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="I15" s="25"/>
       <c r="J15" s="79"/>
@@ -3697,8 +3783,8 @@
       </c>
     </row>
     <row r="16" spans="1:11">
-      <c r="A16" s="89"/>
-      <c r="B16" s="95"/>
+      <c r="A16" s="90"/>
+      <c r="B16" s="92"/>
       <c r="C16" s="20" t="s">
         <v>60</v>
       </c>
@@ -3715,7 +3801,7 @@
         <v>133</v>
       </c>
       <c r="H16" s="25" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="I16" s="25"/>
       <c r="J16" s="79"/>
@@ -3724,8 +3810,8 @@
       </c>
     </row>
     <row r="17" spans="1:11">
-      <c r="A17" s="89"/>
-      <c r="B17" s="95"/>
+      <c r="A17" s="90"/>
+      <c r="B17" s="92"/>
       <c r="C17" s="20" t="s">
         <v>61</v>
       </c>
@@ -3742,7 +3828,7 @@
         <v>133</v>
       </c>
       <c r="H17" s="25" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="I17" s="25"/>
       <c r="J17" s="79"/>
@@ -3751,8 +3837,8 @@
       </c>
     </row>
     <row r="18" spans="1:11">
-      <c r="A18" s="89"/>
-      <c r="B18" s="95"/>
+      <c r="A18" s="90"/>
+      <c r="B18" s="92"/>
       <c r="C18" s="20" t="s">
         <v>62</v>
       </c>
@@ -3769,7 +3855,7 @@
         <v>133</v>
       </c>
       <c r="H18" s="25" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="I18" s="25"/>
       <c r="J18" s="79"/>
@@ -3778,8 +3864,8 @@
       </c>
     </row>
     <row r="19" spans="1:11">
-      <c r="A19" s="89"/>
-      <c r="B19" s="95"/>
+      <c r="A19" s="90"/>
+      <c r="B19" s="92"/>
       <c r="C19" s="20" t="s">
         <v>67</v>
       </c>
@@ -3796,7 +3882,7 @@
         <v>133</v>
       </c>
       <c r="H19" s="25" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="I19" s="25"/>
       <c r="J19" s="79"/>
@@ -3805,8 +3891,8 @@
       </c>
     </row>
     <row r="20" spans="1:11">
-      <c r="A20" s="89"/>
-      <c r="B20" s="96"/>
+      <c r="A20" s="90"/>
+      <c r="B20" s="93"/>
       <c r="C20" s="20" t="s">
         <v>68</v>
       </c>
@@ -3823,7 +3909,7 @@
         <v>133</v>
       </c>
       <c r="H20" s="25" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="I20" s="25"/>
       <c r="J20" s="79"/>
@@ -3845,10 +3931,10 @@
       <c r="K21" s="25"/>
     </row>
     <row r="22" spans="1:11">
-      <c r="A22" s="90" t="s">
-        <v>656</v>
-      </c>
-      <c r="B22" s="94" t="s">
+      <c r="A22" s="89" t="s">
+        <v>655</v>
+      </c>
+      <c r="B22" s="91" t="s">
         <v>157</v>
       </c>
       <c r="C22" s="20" t="s">
@@ -3867,7 +3953,7 @@
         <v>133</v>
       </c>
       <c r="H22" s="25" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="I22" s="25"/>
       <c r="J22" s="79"/>
@@ -3876,8 +3962,8 @@
       </c>
     </row>
     <row r="23" spans="1:11">
-      <c r="A23" s="89"/>
-      <c r="B23" s="95"/>
+      <c r="A23" s="90"/>
+      <c r="B23" s="92"/>
       <c r="C23" s="20" t="s">
         <v>73</v>
       </c>
@@ -3894,7 +3980,7 @@
         <v>133</v>
       </c>
       <c r="H23" s="25" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="I23" s="25"/>
       <c r="J23" s="79"/>
@@ -3903,8 +3989,8 @@
       </c>
     </row>
     <row r="24" spans="1:11">
-      <c r="A24" s="89"/>
-      <c r="B24" s="95"/>
+      <c r="A24" s="90"/>
+      <c r="B24" s="92"/>
       <c r="C24" s="20" t="s">
         <v>74</v>
       </c>
@@ -3921,7 +4007,7 @@
         <v>133</v>
       </c>
       <c r="H24" s="25" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="I24" s="25"/>
       <c r="J24" s="79"/>
@@ -3930,8 +4016,8 @@
       </c>
     </row>
     <row r="25" spans="1:11">
-      <c r="A25" s="89"/>
-      <c r="B25" s="95"/>
+      <c r="A25" s="90"/>
+      <c r="B25" s="92"/>
       <c r="C25" s="20" t="s">
         <v>76</v>
       </c>
@@ -3948,7 +4034,7 @@
         <v>133</v>
       </c>
       <c r="H25" s="25" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="I25" s="25"/>
       <c r="J25" s="79"/>
@@ -3957,8 +4043,8 @@
       </c>
     </row>
     <row r="26" spans="1:11">
-      <c r="A26" s="89"/>
-      <c r="B26" s="96"/>
+      <c r="A26" s="90"/>
+      <c r="B26" s="93"/>
       <c r="C26" s="20" t="s">
         <v>95</v>
       </c>
@@ -3975,7 +4061,7 @@
         <v>133</v>
       </c>
       <c r="H26" s="25" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="I26" s="25"/>
       <c r="J26" s="79"/>
@@ -3997,10 +4083,10 @@
       <c r="K27" s="25"/>
     </row>
     <row r="28" spans="1:11">
-      <c r="A28" s="90" t="s">
-        <v>657</v>
-      </c>
-      <c r="B28" s="94" t="s">
+      <c r="A28" s="89" t="s">
+        <v>656</v>
+      </c>
+      <c r="B28" s="91" t="s">
         <v>163</v>
       </c>
       <c r="C28" s="20" t="s">
@@ -4019,7 +4105,7 @@
         <v>133</v>
       </c>
       <c r="H28" s="25" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="I28" s="25"/>
       <c r="J28" s="79"/>
@@ -4028,8 +4114,8 @@
       </c>
     </row>
     <row r="29" spans="1:11">
-      <c r="A29" s="89"/>
-      <c r="B29" s="95"/>
+      <c r="A29" s="90"/>
+      <c r="B29" s="92"/>
       <c r="C29" s="20" t="s">
         <v>108</v>
       </c>
@@ -4046,7 +4132,7 @@
         <v>133</v>
       </c>
       <c r="H29" s="25" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="I29" s="25"/>
       <c r="J29" s="79"/>
@@ -4055,8 +4141,8 @@
       </c>
     </row>
     <row r="30" spans="1:11">
-      <c r="A30" s="89"/>
-      <c r="B30" s="95"/>
+      <c r="A30" s="90"/>
+      <c r="B30" s="92"/>
       <c r="C30" s="20" t="s">
         <v>109</v>
       </c>
@@ -4073,7 +4159,7 @@
         <v>133</v>
       </c>
       <c r="H30" s="25" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="I30" s="25"/>
       <c r="J30" s="79"/>
@@ -4082,8 +4168,8 @@
       </c>
     </row>
     <row r="31" spans="1:11">
-      <c r="A31" s="89"/>
-      <c r="B31" s="95"/>
+      <c r="A31" s="90"/>
+      <c r="B31" s="92"/>
       <c r="C31" s="20" t="s">
         <v>110</v>
       </c>
@@ -4100,7 +4186,7 @@
         <v>133</v>
       </c>
       <c r="H31" s="25" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="I31" s="25"/>
       <c r="J31" s="79"/>
@@ -4109,8 +4195,8 @@
       </c>
     </row>
     <row r="32" spans="1:11">
-      <c r="A32" s="89"/>
-      <c r="B32" s="95"/>
+      <c r="A32" s="90"/>
+      <c r="B32" s="92"/>
       <c r="C32" s="20" t="s">
         <v>111</v>
       </c>
@@ -4127,7 +4213,7 @@
         <v>133</v>
       </c>
       <c r="H32" s="25" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="I32" s="25"/>
       <c r="J32" s="79"/>
@@ -4136,8 +4222,8 @@
       </c>
     </row>
     <row r="33" spans="1:11">
-      <c r="A33" s="89"/>
-      <c r="B33" s="96"/>
+      <c r="A33" s="90"/>
+      <c r="B33" s="93"/>
       <c r="C33" s="20" t="s">
         <v>117</v>
       </c>
@@ -4154,7 +4240,7 @@
         <v>133</v>
       </c>
       <c r="H33" s="25" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="I33" s="25"/>
       <c r="J33" s="79"/>
@@ -4175,10 +4261,10 @@
       <c r="K34" s="25"/>
     </row>
     <row r="35" spans="1:11">
-      <c r="A35" s="90" t="s">
-        <v>659</v>
-      </c>
-      <c r="B35" s="94" t="s">
+      <c r="A35" s="89" t="s">
+        <v>658</v>
+      </c>
+      <c r="B35" s="91" t="s">
         <v>208</v>
       </c>
       <c r="C35" s="29" t="s">
@@ -4197,7 +4283,7 @@
         <v>133</v>
       </c>
       <c r="H35" s="30" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="I35" s="25"/>
       <c r="K35" s="25" t="s">
@@ -4205,8 +4291,8 @@
       </c>
     </row>
     <row r="36" spans="1:11">
-      <c r="A36" s="89"/>
-      <c r="B36" s="95"/>
+      <c r="A36" s="90"/>
+      <c r="B36" s="92"/>
       <c r="C36" s="29" t="s">
         <v>176</v>
       </c>
@@ -4223,7 +4309,7 @@
         <v>133</v>
       </c>
       <c r="H36" s="30" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="I36" s="25"/>
       <c r="K36" s="25" t="s">
@@ -4231,8 +4317,8 @@
       </c>
     </row>
     <row r="37" spans="1:11">
-      <c r="A37" s="89"/>
-      <c r="B37" s="95"/>
+      <c r="A37" s="90"/>
+      <c r="B37" s="92"/>
       <c r="C37" s="29" t="s">
         <v>178</v>
       </c>
@@ -4249,7 +4335,7 @@
         <v>133</v>
       </c>
       <c r="H37" s="30" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="I37" s="25"/>
       <c r="K37" s="25" t="s">
@@ -4257,8 +4343,8 @@
       </c>
     </row>
     <row r="38" spans="1:11">
-      <c r="A38" s="89"/>
-      <c r="B38" s="95"/>
+      <c r="A38" s="90"/>
+      <c r="B38" s="92"/>
       <c r="C38" s="29" t="s">
         <v>179</v>
       </c>
@@ -4275,7 +4361,7 @@
         <v>133</v>
       </c>
       <c r="H38" s="30" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="I38" s="25"/>
       <c r="K38" s="25" t="s">
@@ -4283,8 +4369,8 @@
       </c>
     </row>
     <row r="39" spans="1:11">
-      <c r="A39" s="89"/>
-      <c r="B39" s="96"/>
+      <c r="A39" s="90"/>
+      <c r="B39" s="93"/>
       <c r="C39" s="29" t="s">
         <v>180</v>
       </c>
@@ -4301,7 +4387,7 @@
         <v>133</v>
       </c>
       <c r="H39" s="30" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="I39" s="25"/>
       <c r="K39" s="25" t="s">
@@ -4321,10 +4407,10 @@
       <c r="K40" s="25"/>
     </row>
     <row r="41" spans="1:11">
-      <c r="A41" s="90" t="s">
-        <v>406</v>
-      </c>
-      <c r="B41" s="94" t="s">
+      <c r="A41" s="89" t="s">
+        <v>405</v>
+      </c>
+      <c r="B41" s="91" t="s">
         <v>209</v>
       </c>
       <c r="C41" s="31" t="s">
@@ -4343,7 +4429,7 @@
         <v>133</v>
       </c>
       <c r="H41" s="25" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="I41" s="25"/>
       <c r="K41" s="25" t="s">
@@ -4351,8 +4437,8 @@
       </c>
     </row>
     <row r="42" spans="1:11">
-      <c r="A42" s="89"/>
-      <c r="B42" s="95"/>
+      <c r="A42" s="90"/>
+      <c r="B42" s="92"/>
       <c r="C42" s="31" t="s">
         <v>211</v>
       </c>
@@ -4369,7 +4455,7 @@
         <v>133</v>
       </c>
       <c r="H42" s="25" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="I42" s="25"/>
       <c r="K42" s="25" t="s">
@@ -4377,8 +4463,8 @@
       </c>
     </row>
     <row r="43" spans="1:11">
-      <c r="A43" s="89"/>
-      <c r="B43" s="95"/>
+      <c r="A43" s="90"/>
+      <c r="B43" s="92"/>
       <c r="C43" s="31" t="s">
         <v>212</v>
       </c>
@@ -4395,7 +4481,7 @@
         <v>133</v>
       </c>
       <c r="H43" s="25" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="I43" s="25"/>
       <c r="K43" s="25" t="s">
@@ -4403,8 +4489,8 @@
       </c>
     </row>
     <row r="44" spans="1:11">
-      <c r="A44" s="89"/>
-      <c r="B44" s="95"/>
+      <c r="A44" s="90"/>
+      <c r="B44" s="92"/>
       <c r="C44" s="31" t="s">
         <v>213</v>
       </c>
@@ -4421,7 +4507,7 @@
         <v>133</v>
       </c>
       <c r="H44" s="25" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="I44" s="25"/>
       <c r="K44" s="25" t="s">
@@ -4429,8 +4515,8 @@
       </c>
     </row>
     <row r="45" spans="1:11">
-      <c r="A45" s="89"/>
-      <c r="B45" s="96"/>
+      <c r="A45" s="90"/>
+      <c r="B45" s="93"/>
       <c r="C45" s="33" t="s">
         <v>214</v>
       </c>
@@ -4447,7 +4533,7 @@
         <v>133</v>
       </c>
       <c r="H45" s="25" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="I45" s="25"/>
       <c r="K45" s="32" t="s">
@@ -4461,10 +4547,10 @@
       <c r="J46" s="79"/>
     </row>
     <row r="47" spans="1:11">
-      <c r="A47" s="90" t="s">
-        <v>406</v>
-      </c>
-      <c r="B47" s="91" t="s">
+      <c r="A47" s="89" t="s">
+        <v>405</v>
+      </c>
+      <c r="B47" s="98" t="s">
         <v>246</v>
       </c>
       <c r="C47" s="35" t="s">
@@ -4483,16 +4569,16 @@
         <v>133</v>
       </c>
       <c r="H47" s="25" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="I47" s="25"/>
       <c r="K47" s="34" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="48" spans="1:11">
-      <c r="A48" s="89"/>
-      <c r="B48" s="92"/>
+      <c r="A48" s="90"/>
+      <c r="B48" s="99"/>
       <c r="C48" s="31" t="s">
         <v>243</v>
       </c>
@@ -4509,16 +4595,16 @@
         <v>133</v>
       </c>
       <c r="H48" s="25" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="I48" s="25"/>
       <c r="K48" s="25" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
     </row>
     <row r="49" spans="1:11">
-      <c r="A49" s="89"/>
-      <c r="B49" s="92"/>
+      <c r="A49" s="90"/>
+      <c r="B49" s="99"/>
       <c r="C49" s="31" t="s">
         <v>244</v>
       </c>
@@ -4535,16 +4621,16 @@
         <v>133</v>
       </c>
       <c r="H49" s="25" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="I49" s="25"/>
       <c r="K49" s="25" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
     </row>
     <row r="50" spans="1:11">
-      <c r="A50" s="89"/>
-      <c r="B50" s="92"/>
+      <c r="A50" s="90"/>
+      <c r="B50" s="99"/>
       <c r="C50" s="31" t="s">
         <v>245</v>
       </c>
@@ -4561,18 +4647,18 @@
         <v>133</v>
       </c>
       <c r="H50" s="25" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="I50" s="25"/>
       <c r="K50" s="25" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
     </row>
     <row r="51" spans="1:11">
-      <c r="A51" s="90" t="s">
-        <v>405</v>
-      </c>
-      <c r="B51" s="92"/>
+      <c r="A51" s="89" t="s">
+        <v>404</v>
+      </c>
+      <c r="B51" s="99"/>
       <c r="C51" s="20" t="s">
         <v>252</v>
       </c>
@@ -4589,16 +4675,16 @@
         <v>133</v>
       </c>
       <c r="H51" s="25" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="I51" s="25"/>
       <c r="K51" s="25" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="52" spans="1:11">
-      <c r="A52" s="89"/>
-      <c r="B52" s="92"/>
+      <c r="A52" s="90"/>
+      <c r="B52" s="99"/>
       <c r="C52" s="20" t="s">
         <v>253</v>
       </c>
@@ -4615,16 +4701,16 @@
         <v>133</v>
       </c>
       <c r="H52" s="25" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="I52" s="25"/>
       <c r="K52" s="25" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
     </row>
     <row r="53" spans="1:11">
-      <c r="A53" s="89"/>
-      <c r="B53" s="92"/>
+      <c r="A53" s="90"/>
+      <c r="B53" s="99"/>
       <c r="C53" s="20" t="s">
         <v>254</v>
       </c>
@@ -4641,16 +4727,16 @@
         <v>133</v>
       </c>
       <c r="H53" s="25" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="I53" s="25"/>
       <c r="K53" s="25" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
     </row>
     <row r="54" spans="1:11">
-      <c r="A54" s="89"/>
-      <c r="B54" s="92"/>
+      <c r="A54" s="90"/>
+      <c r="B54" s="99"/>
       <c r="C54" s="20" t="s">
         <v>255</v>
       </c>
@@ -4667,16 +4753,16 @@
         <v>133</v>
       </c>
       <c r="H54" s="25" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="I54" s="25"/>
       <c r="K54" s="25" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="55" spans="1:11">
-      <c r="A55" s="89"/>
-      <c r="B55" s="93"/>
+      <c r="A55" s="90"/>
+      <c r="B55" s="100"/>
       <c r="C55" s="20" t="s">
         <v>256</v>
       </c>
@@ -4693,11 +4779,11 @@
         <v>133</v>
       </c>
       <c r="H55" s="25" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="I55" s="25"/>
       <c r="K55" s="25" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
     </row>
     <row r="56" spans="1:11">
@@ -4706,10 +4792,10 @@
     </row>
     <row r="57" spans="1:11" s="46" customFormat="1" ht="28.8">
       <c r="A57" s="45" t="s">
-        <v>407</v>
-      </c>
-      <c r="B57" s="89" t="s">
-        <v>290</v>
+        <v>406</v>
+      </c>
+      <c r="B57" s="90" t="s">
+        <v>289</v>
       </c>
       <c r="C57" s="54" t="s">
         <v>287</v>
@@ -4727,19 +4813,19 @@
         <v>133</v>
       </c>
       <c r="H57" s="53" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="I57" s="80"/>
       <c r="J57" s="72"/>
       <c r="K57" s="53" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="58" spans="1:11">
-      <c r="A58" s="90" t="s">
-        <v>408</v>
-      </c>
-      <c r="B58" s="89"/>
+      <c r="A58" s="89" t="s">
+        <v>407</v>
+      </c>
+      <c r="B58" s="90"/>
       <c r="C58" s="38" t="s">
         <v>272</v>
       </c>
@@ -4756,16 +4842,16 @@
         <v>133</v>
       </c>
       <c r="H58" s="25" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="I58" s="25"/>
       <c r="K58" s="25" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="59" spans="1:11">
-      <c r="A59" s="89"/>
-      <c r="B59" s="89"/>
+      <c r="A59" s="90"/>
+      <c r="B59" s="90"/>
       <c r="C59" s="31" t="s">
         <v>275</v>
       </c>
@@ -4782,16 +4868,16 @@
         <v>133</v>
       </c>
       <c r="H59" s="25" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="I59" s="25"/>
       <c r="K59" s="25" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="60" spans="1:11">
-      <c r="A60" s="89"/>
-      <c r="B60" s="89"/>
+      <c r="A60" s="90"/>
+      <c r="B60" s="90"/>
       <c r="C60" s="38" t="s">
         <v>267</v>
       </c>
@@ -4808,11 +4894,11 @@
         <v>133</v>
       </c>
       <c r="H60" s="25" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="I60" s="25"/>
       <c r="K60" s="25" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="61" spans="1:11">
@@ -4820,15 +4906,15 @@
       <c r="I61" s="25"/>
     </row>
     <row r="62" spans="1:11">
-      <c r="A62" s="90" t="s">
-        <v>409</v>
-      </c>
-      <c r="B62" s="89" t="s">
+      <c r="A62" s="89" t="s">
+        <v>408</v>
+      </c>
+      <c r="B62" s="90" t="s">
+        <v>296</v>
+      </c>
+      <c r="C62" s="39" t="s">
         <v>297</v>
       </c>
-      <c r="C62" s="39" t="s">
-        <v>298</v>
-      </c>
       <c r="D62" s="25" t="s">
         <v>133</v>
       </c>
@@ -4842,18 +4928,18 @@
         <v>133</v>
       </c>
       <c r="H62" s="25" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="I62" s="25"/>
       <c r="K62" s="25" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="63" spans="1:11">
-      <c r="A63" s="89"/>
-      <c r="B63" s="89"/>
+      <c r="A63" s="90"/>
+      <c r="B63" s="90"/>
       <c r="C63" s="39" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D63" s="25" t="s">
         <v>133</v>
@@ -4868,44 +4954,44 @@
         <v>133</v>
       </c>
       <c r="H63" s="25" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="I63" s="25"/>
       <c r="K63" s="25" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11">
+      <c r="A64" s="90"/>
+      <c r="B64" s="90"/>
+      <c r="C64" s="39" t="s">
+        <v>299</v>
+      </c>
+      <c r="D64" s="25" t="s">
+        <v>133</v>
+      </c>
+      <c r="E64" s="25" t="s">
+        <v>133</v>
+      </c>
+      <c r="F64" s="25" t="s">
+        <v>133</v>
+      </c>
+      <c r="G64" s="74" t="s">
+        <v>133</v>
+      </c>
+      <c r="H64" s="25" t="s">
         <v>333</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11">
-      <c r="A64" s="89"/>
-      <c r="B64" s="89"/>
-      <c r="C64" s="39" t="s">
-        <v>300</v>
-      </c>
-      <c r="D64" s="25" t="s">
-        <v>133</v>
-      </c>
-      <c r="E64" s="25" t="s">
-        <v>133</v>
-      </c>
-      <c r="F64" s="25" t="s">
-        <v>133</v>
-      </c>
-      <c r="G64" s="74" t="s">
-        <v>133</v>
-      </c>
-      <c r="H64" s="25" t="s">
-        <v>334</v>
       </c>
       <c r="I64" s="25"/>
       <c r="K64" s="25" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="65" spans="1:11">
-      <c r="A65" s="89"/>
-      <c r="B65" s="89"/>
+      <c r="A65" s="90"/>
+      <c r="B65" s="90"/>
       <c r="C65" s="39" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D65" s="25" t="s">
         <v>133</v>
@@ -4920,18 +5006,18 @@
         <v>133</v>
       </c>
       <c r="H65" s="25" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="I65" s="25"/>
       <c r="K65" s="25" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="66" spans="1:11">
-      <c r="A66" s="89"/>
-      <c r="B66" s="89"/>
+      <c r="A66" s="90"/>
+      <c r="B66" s="90"/>
       <c r="C66" s="39" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D66" s="25" t="s">
         <v>133</v>
@@ -4946,18 +5032,18 @@
         <v>133</v>
       </c>
       <c r="H66" s="25" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="I66" s="25"/>
       <c r="K66" s="25" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="67" spans="1:11">
-      <c r="A67" s="89"/>
-      <c r="B67" s="89"/>
+      <c r="A67" s="90"/>
+      <c r="B67" s="90"/>
       <c r="C67" s="39" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D67" s="25" t="s">
         <v>133</v>
@@ -4972,18 +5058,18 @@
         <v>133</v>
       </c>
       <c r="H67" s="25" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="I67" s="25"/>
       <c r="K67" s="25" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="68" spans="1:11">
-      <c r="A68" s="89"/>
-      <c r="B68" s="89"/>
+      <c r="A68" s="90"/>
+      <c r="B68" s="90"/>
       <c r="C68" s="39" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D68" s="25" t="s">
         <v>133</v>
@@ -4998,18 +5084,18 @@
         <v>133</v>
       </c>
       <c r="H68" s="25" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="I68" s="25"/>
       <c r="K68" s="25" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="69" spans="1:11">
-      <c r="A69" s="89"/>
-      <c r="B69" s="89"/>
+      <c r="A69" s="90"/>
+      <c r="B69" s="90"/>
       <c r="C69" s="39" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D69" s="25" t="s">
         <v>133</v>
@@ -5024,11 +5110,11 @@
         <v>133</v>
       </c>
       <c r="H69" s="25" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="I69" s="25"/>
       <c r="K69" s="25" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="70" spans="1:11">
@@ -5036,14 +5122,14 @@
       <c r="I70" s="25"/>
     </row>
     <row r="71" spans="1:11">
-      <c r="A71" s="90" t="s">
-        <v>410</v>
-      </c>
-      <c r="B71" s="89" t="s">
-        <v>397</v>
+      <c r="A71" s="89" t="s">
+        <v>409</v>
+      </c>
+      <c r="B71" s="90" t="s">
+        <v>396</v>
       </c>
       <c r="C71" s="44" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="D71" s="25" t="s">
         <v>133</v>
@@ -5058,18 +5144,18 @@
         <v>133</v>
       </c>
       <c r="H71" s="25" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="I71" s="25"/>
       <c r="K71" s="25" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="72" spans="1:11">
-      <c r="A72" s="89"/>
-      <c r="B72" s="89"/>
+      <c r="A72" s="90"/>
+      <c r="B72" s="90"/>
       <c r="C72" s="44" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D72" s="25" t="s">
         <v>133</v>
@@ -5084,18 +5170,18 @@
         <v>133</v>
       </c>
       <c r="H72" s="25" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="I72" s="25"/>
       <c r="K72" s="25" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="73" spans="1:11">
-      <c r="A73" s="89"/>
-      <c r="B73" s="89"/>
+      <c r="A73" s="90"/>
+      <c r="B73" s="90"/>
       <c r="C73" s="44" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D73" s="25" t="s">
         <v>133</v>
@@ -5110,18 +5196,18 @@
         <v>133</v>
       </c>
       <c r="H73" s="25" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="I73" s="25"/>
       <c r="K73" s="25" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="74" spans="1:11">
-      <c r="A74" s="89"/>
-      <c r="B74" s="89"/>
+      <c r="A74" s="90"/>
+      <c r="B74" s="90"/>
       <c r="C74" s="44" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D74" s="25" t="s">
         <v>133</v>
@@ -5136,18 +5222,18 @@
         <v>133</v>
       </c>
       <c r="H74" s="25" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="I74" s="25"/>
       <c r="K74" s="25" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="75" spans="1:11">
-      <c r="A75" s="89"/>
-      <c r="B75" s="89"/>
+      <c r="A75" s="90"/>
+      <c r="B75" s="90"/>
       <c r="C75" s="44" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D75" s="25" t="s">
         <v>133</v>
@@ -5162,18 +5248,18 @@
         <v>133</v>
       </c>
       <c r="H75" s="25" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="I75" s="25"/>
       <c r="K75" s="25" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="76" spans="1:11">
-      <c r="A76" s="89"/>
-      <c r="B76" s="89"/>
+      <c r="A76" s="90"/>
+      <c r="B76" s="90"/>
       <c r="C76" s="44" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D76" s="25" t="s">
         <v>133</v>
@@ -5188,11 +5274,11 @@
         <v>133</v>
       </c>
       <c r="H76" s="25" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="I76" s="25"/>
       <c r="K76" s="25" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="77" spans="1:11">
@@ -5200,14 +5286,14 @@
       <c r="I77" s="25"/>
     </row>
     <row r="78" spans="1:11">
-      <c r="A78" s="90" t="s">
-        <v>410</v>
-      </c>
-      <c r="B78" s="89" t="s">
-        <v>421</v>
+      <c r="A78" s="89" t="s">
+        <v>409</v>
+      </c>
+      <c r="B78" s="90" t="s">
+        <v>420</v>
       </c>
       <c r="C78" s="50" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D78" s="25" t="s">
         <v>133</v>
@@ -5222,18 +5308,18 @@
         <v>133</v>
       </c>
       <c r="H78" s="25" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="I78" s="25"/>
       <c r="K78" s="25" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="79" spans="1:11">
-      <c r="A79" s="89"/>
-      <c r="B79" s="89"/>
+      <c r="A79" s="90"/>
+      <c r="B79" s="90"/>
       <c r="C79" s="50" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D79" s="25" t="s">
         <v>133</v>
@@ -5248,18 +5334,18 @@
         <v>133</v>
       </c>
       <c r="H79" s="25" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="I79" s="25"/>
       <c r="K79" s="25" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="80" spans="1:11">
-      <c r="A80" s="89"/>
-      <c r="B80" s="89"/>
+      <c r="A80" s="90"/>
+      <c r="B80" s="90"/>
       <c r="C80" s="50" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="D80" s="25" t="s">
         <v>133</v>
@@ -5274,20 +5360,20 @@
         <v>133</v>
       </c>
       <c r="H80" s="25" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="I80" s="25"/>
       <c r="K80" s="25" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="81" spans="1:11" s="49" customFormat="1" ht="28.8">
       <c r="A81" s="48" t="s">
-        <v>420</v>
-      </c>
-      <c r="B81" s="89"/>
+        <v>419</v>
+      </c>
+      <c r="B81" s="90"/>
       <c r="C81" s="51" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D81" s="21" t="s">
         <v>133</v>
@@ -5302,11 +5388,11 @@
         <v>133</v>
       </c>
       <c r="H81" s="52" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="I81" s="21"/>
       <c r="K81" s="21" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="82" spans="1:11">
@@ -5314,14 +5400,14 @@
       <c r="I82" s="25"/>
     </row>
     <row r="83" spans="1:11">
-      <c r="A83" s="90" t="s">
-        <v>456</v>
-      </c>
-      <c r="B83" s="89" t="s">
-        <v>451</v>
+      <c r="A83" s="89" t="s">
+        <v>455</v>
+      </c>
+      <c r="B83" s="90" t="s">
+        <v>450</v>
       </c>
       <c r="C83" s="29" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D83" s="25" t="s">
         <v>133</v>
@@ -5336,18 +5422,18 @@
         <v>133</v>
       </c>
       <c r="H83" s="25" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="I83" s="25"/>
       <c r="K83" s="25" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="84" spans="1:11">
-      <c r="A84" s="89"/>
-      <c r="B84" s="89"/>
+      <c r="A84" s="90"/>
+      <c r="B84" s="90"/>
       <c r="C84" s="29" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D84" s="25" t="s">
         <v>133</v>
@@ -5362,18 +5448,18 @@
         <v>133</v>
       </c>
       <c r="H84" s="25" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="I84" s="25"/>
       <c r="K84" s="25" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="85" spans="1:11">
-      <c r="A85" s="89"/>
-      <c r="B85" s="89"/>
+      <c r="A85" s="90"/>
+      <c r="B85" s="90"/>
       <c r="C85" s="29" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D85" s="25" t="s">
         <v>133</v>
@@ -5388,18 +5474,18 @@
         <v>133</v>
       </c>
       <c r="H85" s="25" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="I85" s="25"/>
       <c r="K85" s="25" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="86" spans="1:11">
-      <c r="A86" s="89"/>
-      <c r="B86" s="89"/>
+      <c r="A86" s="90"/>
+      <c r="B86" s="90"/>
       <c r="C86" s="29" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D86" s="25" t="s">
         <v>133</v>
@@ -5414,18 +5500,18 @@
         <v>133</v>
       </c>
       <c r="H86" s="25" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="I86" s="25"/>
       <c r="K86" s="25" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="87" spans="1:11">
-      <c r="A87" s="89"/>
-      <c r="B87" s="89"/>
+      <c r="A87" s="90"/>
+      <c r="B87" s="90"/>
       <c r="C87" s="29" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D87" s="25" t="s">
         <v>133</v>
@@ -5440,18 +5526,18 @@
         <v>133</v>
       </c>
       <c r="H87" s="25" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="I87" s="25"/>
       <c r="K87" s="25" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="88" spans="1:11">
-      <c r="A88" s="89"/>
-      <c r="B88" s="89"/>
+      <c r="A88" s="90"/>
+      <c r="B88" s="90"/>
       <c r="C88" s="29" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D88" s="25" t="s">
         <v>133</v>
@@ -5466,11 +5552,11 @@
         <v>133</v>
       </c>
       <c r="H88" s="25" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="I88" s="25"/>
       <c r="K88" s="25" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="89" spans="1:11">
@@ -5486,20 +5572,20 @@
       <c r="K89" s="25"/>
     </row>
     <row r="90" spans="1:11">
-      <c r="A90" s="89" t="s">
-        <v>563</v>
-      </c>
-      <c r="B90" s="89" t="s">
+      <c r="A90" s="90" t="s">
         <v>562</v>
+      </c>
+      <c r="B90" s="90" t="s">
+        <v>561</v>
       </c>
       <c r="C90" s="61" t="s">
         <v>135</v>
       </c>
       <c r="D90" s="25" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="E90" s="25" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F90" s="25" t="s">
         <v>133</v>
@@ -5508,7 +5594,7 @@
         <v>133</v>
       </c>
       <c r="H90" s="25" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="I90" s="25"/>
       <c r="K90" s="21" t="s">
@@ -5516,16 +5602,16 @@
       </c>
     </row>
     <row r="91" spans="1:11">
-      <c r="A91" s="89"/>
-      <c r="B91" s="89"/>
+      <c r="A91" s="90"/>
+      <c r="B91" s="90"/>
       <c r="C91" s="61" t="s">
         <v>136</v>
       </c>
       <c r="D91" s="25" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="E91" s="25" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F91" s="25" t="s">
         <v>133</v>
@@ -5534,7 +5620,7 @@
         <v>133</v>
       </c>
       <c r="H91" s="25" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="I91" s="25"/>
       <c r="K91" s="25" t="s">
@@ -5542,16 +5628,16 @@
       </c>
     </row>
     <row r="92" spans="1:11">
-      <c r="A92" s="89"/>
-      <c r="B92" s="89"/>
+      <c r="A92" s="90"/>
+      <c r="B92" s="90"/>
       <c r="C92" s="61" t="s">
         <v>137</v>
       </c>
       <c r="D92" s="25" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="E92" s="25" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F92" s="25" t="s">
         <v>133</v>
@@ -5560,7 +5646,7 @@
         <v>133</v>
       </c>
       <c r="H92" s="25" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="I92" s="25"/>
       <c r="K92" s="25" t="s">
@@ -5568,16 +5654,16 @@
       </c>
     </row>
     <row r="93" spans="1:11">
-      <c r="A93" s="89"/>
-      <c r="B93" s="89"/>
+      <c r="A93" s="90"/>
+      <c r="B93" s="90"/>
       <c r="C93" s="61" t="s">
         <v>138</v>
       </c>
       <c r="D93" s="25" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="E93" s="25" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F93" s="25" t="s">
         <v>133</v>
@@ -5586,7 +5672,7 @@
         <v>133</v>
       </c>
       <c r="H93" s="25" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="I93" s="25"/>
       <c r="K93" s="25" t="s">
@@ -5594,16 +5680,16 @@
       </c>
     </row>
     <row r="94" spans="1:11">
-      <c r="A94" s="89"/>
-      <c r="B94" s="89"/>
+      <c r="A94" s="90"/>
+      <c r="B94" s="90"/>
       <c r="C94" s="20" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="D94" s="25" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="E94" s="25" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F94" s="25" t="s">
         <v>133</v>
@@ -5612,18 +5698,18 @@
         <v>133</v>
       </c>
       <c r="H94" s="25" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="I94" s="25"/>
       <c r="K94" s="63" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="95" spans="1:11">
-      <c r="A95" s="89"/>
-      <c r="B95" s="89"/>
+      <c r="A95" s="90"/>
+      <c r="B95" s="90"/>
       <c r="C95" s="20" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D95" s="25" t="s">
         <v>133</v>
@@ -5638,44 +5724,44 @@
         <v>133</v>
       </c>
       <c r="H95" s="25" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="I95" s="25"/>
       <c r="K95" s="63" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="96" spans="1:11">
-      <c r="A96" s="89"/>
-      <c r="B96" s="89"/>
+      <c r="A96" s="90"/>
+      <c r="B96" s="90"/>
       <c r="C96" s="20" t="s">
+        <v>555</v>
+      </c>
+      <c r="D96" s="57" t="s">
+        <v>559</v>
+      </c>
+      <c r="E96" s="25" t="s">
         <v>556</v>
       </c>
-      <c r="D96" s="57" t="s">
-        <v>560</v>
-      </c>
-      <c r="E96" s="25" t="s">
-        <v>557</v>
-      </c>
       <c r="F96" s="25" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="G96" s="74" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="H96" s="25" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="I96" s="25"/>
       <c r="K96" s="63" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="97" spans="1:11">
-      <c r="A97" s="89"/>
-      <c r="B97" s="89"/>
+      <c r="A97" s="90"/>
+      <c r="B97" s="90"/>
       <c r="C97" s="20" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="D97" s="25" t="s">
         <v>133</v>
@@ -5690,46 +5776,46 @@
         <v>133</v>
       </c>
       <c r="H97" s="25" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="I97" s="25"/>
       <c r="K97" s="63" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="98" spans="1:11">
       <c r="A98" s="60"/>
-      <c r="B98" s="89"/>
+      <c r="B98" s="90"/>
       <c r="C98" s="64" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="D98" s="57" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="E98" s="25" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F98" s="25" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="G98" s="74" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="H98" s="25" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="I98" s="25"/>
       <c r="K98" s="25" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="99" spans="1:11">
-      <c r="A99" s="90" t="s">
-        <v>564</v>
-      </c>
-      <c r="B99" s="89"/>
+      <c r="A99" s="89" t="s">
+        <v>563</v>
+      </c>
+      <c r="B99" s="90"/>
       <c r="C99" s="62" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="D99" s="25" t="s">
         <v>133</v>
@@ -5744,37 +5830,37 @@
         <v>133</v>
       </c>
       <c r="H99" s="30" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="I99" s="25"/>
       <c r="K99" s="25" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="100" spans="1:11">
-      <c r="A100" s="89"/>
-      <c r="B100" s="89"/>
+      <c r="A100" s="90"/>
+      <c r="B100" s="90"/>
       <c r="C100" s="62" t="s">
+        <v>558</v>
+      </c>
+      <c r="D100" s="57" t="s">
         <v>559</v>
       </c>
-      <c r="D100" s="57" t="s">
-        <v>560</v>
-      </c>
       <c r="E100" s="25" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F100" s="25" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="G100" s="74" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="H100" s="25" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="I100" s="25"/>
       <c r="K100" s="25" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="101" spans="1:11">
@@ -5790,60 +5876,60 @@
       <c r="K101" s="25"/>
     </row>
     <row r="102" spans="1:11">
-      <c r="A102" s="89" t="s">
+      <c r="A102" s="90" t="s">
+        <v>580</v>
+      </c>
+      <c r="B102" s="90" t="s">
+        <v>579</v>
+      </c>
+      <c r="C102" s="65" t="s">
+        <v>568</v>
+      </c>
+      <c r="D102" s="25" t="s">
+        <v>133</v>
+      </c>
+      <c r="E102" s="25" t="s">
+        <v>133</v>
+      </c>
+      <c r="F102" s="25" t="s">
+        <v>133</v>
+      </c>
+      <c r="G102" s="74" t="s">
+        <v>133</v>
+      </c>
+      <c r="H102" s="30" t="s">
         <v>581</v>
-      </c>
-      <c r="B102" s="89" t="s">
-        <v>580</v>
-      </c>
-      <c r="C102" s="65" t="s">
-        <v>569</v>
-      </c>
-      <c r="D102" s="25" t="s">
-        <v>133</v>
-      </c>
-      <c r="E102" s="25" t="s">
-        <v>133</v>
-      </c>
-      <c r="F102" s="25" t="s">
-        <v>133</v>
-      </c>
-      <c r="G102" s="74" t="s">
-        <v>133</v>
-      </c>
-      <c r="H102" s="30" t="s">
-        <v>582</v>
       </c>
       <c r="I102" s="25"/>
       <c r="K102" s="25"/>
     </row>
     <row r="103" spans="1:11">
-      <c r="A103" s="89"/>
-      <c r="B103" s="89"/>
+      <c r="A103" s="90"/>
+      <c r="B103" s="90"/>
       <c r="C103" s="66" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="D103" s="57" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="E103" s="25" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F103" s="25" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="G103" s="74" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="H103" s="25"/>
       <c r="I103" s="25"/>
       <c r="K103" s="25"/>
     </row>
     <row r="104" spans="1:11">
-      <c r="A104" s="89"/>
-      <c r="B104" s="89"/>
+      <c r="A104" s="90"/>
+      <c r="B104" s="90"/>
       <c r="C104" s="65" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="D104" s="25" t="s">
         <v>133</v>
@@ -5858,104 +5944,104 @@
         <v>133</v>
       </c>
       <c r="H104" s="25" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="I104" s="25"/>
       <c r="K104" s="25"/>
     </row>
     <row r="105" spans="1:11">
-      <c r="A105" s="89"/>
-      <c r="B105" s="89"/>
+      <c r="A105" s="90"/>
+      <c r="B105" s="90"/>
       <c r="C105" s="66" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="D105" s="57" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="E105" s="25" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F105" s="25" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="G105" s="74" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="H105" s="25"/>
       <c r="I105" s="25"/>
       <c r="K105" s="25"/>
     </row>
     <row r="106" spans="1:11">
-      <c r="A106" s="89"/>
-      <c r="B106" s="89"/>
+      <c r="A106" s="90"/>
+      <c r="B106" s="90"/>
       <c r="C106" s="66" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="D106" s="57" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="E106" s="25" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F106" s="25" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="G106" s="74" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="H106" s="25"/>
       <c r="I106" s="25"/>
       <c r="K106" s="25"/>
     </row>
     <row r="107" spans="1:11">
-      <c r="A107" s="89"/>
-      <c r="B107" s="89"/>
+      <c r="A107" s="90"/>
+      <c r="B107" s="90"/>
       <c r="C107" s="66" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="D107" s="57" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="E107" s="25" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F107" s="25" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="G107" s="74" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="H107" s="25"/>
       <c r="I107" s="25"/>
       <c r="K107" s="25"/>
     </row>
     <row r="108" spans="1:11">
-      <c r="A108" s="89"/>
-      <c r="B108" s="89"/>
+      <c r="A108" s="90"/>
+      <c r="B108" s="90"/>
       <c r="C108" s="66" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="D108" s="57" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="E108" s="25" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F108" s="25" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="G108" s="74" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="H108" s="25"/>
       <c r="I108" s="25"/>
       <c r="K108" s="25"/>
     </row>
     <row r="109" spans="1:11">
-      <c r="A109" s="89"/>
-      <c r="B109" s="89"/>
+      <c r="A109" s="90"/>
+      <c r="B109" s="90"/>
       <c r="C109" s="65" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="D109" s="25" t="s">
         <v>133</v>
@@ -5970,16 +6056,16 @@
         <v>133</v>
       </c>
       <c r="H109" s="25" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="I109" s="25"/>
       <c r="K109" s="25"/>
     </row>
     <row r="110" spans="1:11">
-      <c r="A110" s="89"/>
-      <c r="B110" s="89"/>
+      <c r="A110" s="90"/>
+      <c r="B110" s="90"/>
       <c r="C110" s="65" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="D110" s="25" t="s">
         <v>133</v>
@@ -5994,16 +6080,16 @@
         <v>133</v>
       </c>
       <c r="H110" s="25" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="I110" s="25"/>
       <c r="K110" s="25"/>
     </row>
     <row r="111" spans="1:11">
-      <c r="A111" s="89"/>
-      <c r="B111" s="89"/>
+      <c r="A111" s="90"/>
+      <c r="B111" s="90"/>
       <c r="C111" s="65" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="D111" s="25" t="s">
         <v>133</v>
@@ -6018,16 +6104,16 @@
         <v>133</v>
       </c>
       <c r="H111" s="25" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="I111" s="25"/>
       <c r="K111" s="25"/>
     </row>
     <row r="112" spans="1:11">
-      <c r="A112" s="89"/>
-      <c r="B112" s="89"/>
+      <c r="A112" s="90"/>
+      <c r="B112" s="90"/>
       <c r="C112" s="65" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="D112" s="25" t="s">
         <v>133</v>
@@ -6042,7 +6128,7 @@
         <v>133</v>
       </c>
       <c r="H112" s="25" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="I112" s="25"/>
       <c r="K112" s="25"/>
@@ -6060,14 +6146,14 @@
       <c r="K113" s="25"/>
     </row>
     <row r="114" spans="1:11" ht="14.4" customHeight="1">
-      <c r="A114" s="90" t="s">
-        <v>585</v>
-      </c>
-      <c r="B114" s="89" t="s">
+      <c r="A114" s="89" t="s">
         <v>584</v>
       </c>
+      <c r="B114" s="90" t="s">
+        <v>583</v>
+      </c>
       <c r="C114" s="29" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="D114" s="25" t="s">
         <v>133</v>
@@ -6082,18 +6168,18 @@
         <v>133</v>
       </c>
       <c r="H114" s="30" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="I114" s="25"/>
       <c r="K114" s="25" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="115" spans="1:11">
-      <c r="A115" s="90"/>
-      <c r="B115" s="89"/>
+      <c r="A115" s="89"/>
+      <c r="B115" s="90"/>
       <c r="C115" s="29" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="D115" s="25" t="s">
         <v>133</v>
@@ -6108,18 +6194,18 @@
         <v>133</v>
       </c>
       <c r="H115" s="30" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="I115" s="25"/>
       <c r="K115" s="25" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="116" spans="1:11">
-      <c r="A116" s="90"/>
-      <c r="B116" s="89"/>
+      <c r="A116" s="89"/>
+      <c r="B116" s="90"/>
       <c r="C116" s="29" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="D116" s="25" t="s">
         <v>133</v>
@@ -6134,18 +6220,18 @@
         <v>133</v>
       </c>
       <c r="H116" s="30" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="I116" s="25"/>
       <c r="K116" s="25" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="117" spans="1:11">
-      <c r="A117" s="90"/>
-      <c r="B117" s="89"/>
+      <c r="A117" s="89"/>
+      <c r="B117" s="90"/>
       <c r="C117" s="29" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D117" s="25" t="s">
         <v>133</v>
@@ -6160,18 +6246,18 @@
         <v>133</v>
       </c>
       <c r="H117" s="30" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="I117" s="25"/>
       <c r="K117" s="25" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="118" spans="1:11">
-      <c r="A118" s="90"/>
-      <c r="B118" s="89"/>
+      <c r="A118" s="89"/>
+      <c r="B118" s="90"/>
       <c r="C118" s="29" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D118" s="25" t="s">
         <v>133</v>
@@ -6186,18 +6272,18 @@
         <v>133</v>
       </c>
       <c r="H118" s="30" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="I118" s="25"/>
       <c r="K118" s="25" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="119" spans="1:11">
-      <c r="A119" s="90"/>
-      <c r="B119" s="89"/>
+      <c r="A119" s="89"/>
+      <c r="B119" s="90"/>
       <c r="C119" s="29" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D119" s="25" t="s">
         <v>133</v>
@@ -6212,18 +6298,18 @@
         <v>133</v>
       </c>
       <c r="H119" s="30" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="I119" s="25"/>
       <c r="K119" s="25" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="120" spans="1:11">
-      <c r="A120" s="90"/>
-      <c r="B120" s="89"/>
+      <c r="A120" s="89"/>
+      <c r="B120" s="90"/>
       <c r="C120" s="29" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D120" s="25" t="s">
         <v>133</v>
@@ -6238,11 +6324,11 @@
         <v>133</v>
       </c>
       <c r="H120" s="30" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="I120" s="25"/>
       <c r="K120" s="25" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="121" spans="1:11">
@@ -6258,14 +6344,14 @@
       <c r="K121" s="25"/>
     </row>
     <row r="122" spans="1:11">
-      <c r="A122" s="90" t="s">
-        <v>585</v>
-      </c>
-      <c r="B122" s="89" t="s">
-        <v>602</v>
+      <c r="A122" s="89" t="s">
+        <v>584</v>
+      </c>
+      <c r="B122" s="90" t="s">
+        <v>601</v>
       </c>
       <c r="C122" s="67" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="D122" s="25" t="s">
         <v>133</v>
@@ -6280,18 +6366,18 @@
         <v>133</v>
       </c>
       <c r="H122" s="30" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="I122" s="25"/>
       <c r="K122" s="25" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="123" spans="1:11">
-      <c r="A123" s="89"/>
-      <c r="B123" s="89"/>
+      <c r="A123" s="90"/>
+      <c r="B123" s="90"/>
       <c r="C123" s="67" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="D123" s="25" t="s">
         <v>133</v>
@@ -6306,18 +6392,18 @@
         <v>133</v>
       </c>
       <c r="H123" s="30" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="I123" s="25"/>
       <c r="K123" s="25" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="124" spans="1:11">
-      <c r="A124" s="89"/>
-      <c r="B124" s="89"/>
+      <c r="A124" s="90"/>
+      <c r="B124" s="90"/>
       <c r="C124" s="67" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="D124" s="25" t="s">
         <v>133</v>
@@ -6332,18 +6418,18 @@
         <v>133</v>
       </c>
       <c r="H124" s="30" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="I124" s="25"/>
       <c r="K124" s="25" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="125" spans="1:11">
-      <c r="A125" s="89"/>
-      <c r="B125" s="89"/>
+      <c r="A125" s="90"/>
+      <c r="B125" s="90"/>
       <c r="C125" s="67" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="D125" s="25" t="s">
         <v>133</v>
@@ -6358,18 +6444,18 @@
         <v>133</v>
       </c>
       <c r="H125" s="30" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="I125" s="25"/>
       <c r="K125" s="25" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="126" spans="1:11">
-      <c r="A126" s="89"/>
-      <c r="B126" s="89"/>
+      <c r="A126" s="90"/>
+      <c r="B126" s="90"/>
       <c r="C126" s="67" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="D126" s="25" t="s">
         <v>133</v>
@@ -6384,20 +6470,20 @@
         <v>133</v>
       </c>
       <c r="H126" s="30" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="I126" s="25"/>
       <c r="K126" s="25" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="127" spans="1:11">
-      <c r="A127" s="90" t="s">
-        <v>601</v>
-      </c>
-      <c r="B127" s="89"/>
+      <c r="A127" s="89" t="s">
+        <v>600</v>
+      </c>
+      <c r="B127" s="90"/>
       <c r="C127" s="67" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="D127" s="25" t="s">
         <v>133</v>
@@ -6412,18 +6498,18 @@
         <v>133</v>
       </c>
       <c r="H127" s="25" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="I127" s="25"/>
       <c r="K127" s="25" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="128" spans="1:11">
-      <c r="A128" s="89"/>
-      <c r="B128" s="89"/>
+      <c r="A128" s="90"/>
+      <c r="B128" s="90"/>
       <c r="C128" s="67" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="D128" s="25" t="s">
         <v>133</v>
@@ -6438,18 +6524,18 @@
         <v>133</v>
       </c>
       <c r="H128" s="25" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="I128" s="25"/>
       <c r="K128" s="25" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="129" spans="1:11">
-      <c r="A129" s="89"/>
-      <c r="B129" s="89"/>
+      <c r="A129" s="90"/>
+      <c r="B129" s="90"/>
       <c r="C129" s="67" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="D129" s="25" t="s">
         <v>133</v>
@@ -6464,7 +6550,7 @@
         <v>133</v>
       </c>
       <c r="H129" s="25" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="I129" s="25"/>
       <c r="K129" s="25" t="s">
@@ -6476,14 +6562,14 @@
       <c r="I130" s="25"/>
     </row>
     <row r="131" spans="1:11">
-      <c r="A131" s="90" t="s">
-        <v>601</v>
-      </c>
-      <c r="B131" s="89" t="s">
-        <v>671</v>
+      <c r="A131" s="89" t="s">
+        <v>600</v>
+      </c>
+      <c r="B131" s="90" t="s">
+        <v>670</v>
       </c>
       <c r="C131" s="70" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="D131" s="25" t="s">
         <v>133</v>
@@ -6498,18 +6584,18 @@
         <v>133</v>
       </c>
       <c r="H131" s="25" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="I131" s="25"/>
       <c r="K131" s="25" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="132" spans="1:11">
-      <c r="A132" s="89"/>
-      <c r="B132" s="89"/>
+      <c r="A132" s="90"/>
+      <c r="B132" s="90"/>
       <c r="C132" s="70" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="D132" s="25" t="s">
         <v>133</v>
@@ -6524,7 +6610,7 @@
         <v>133</v>
       </c>
       <c r="H132" s="25" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="I132" s="25"/>
       <c r="K132" s="25" t="s">
@@ -6532,10 +6618,10 @@
       </c>
     </row>
     <row r="133" spans="1:11">
-      <c r="A133" s="89"/>
-      <c r="B133" s="89"/>
+      <c r="A133" s="90"/>
+      <c r="B133" s="90"/>
       <c r="C133" s="70" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="D133" s="25" t="s">
         <v>133</v>
@@ -6550,18 +6636,18 @@
         <v>133</v>
       </c>
       <c r="H133" s="25" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="I133" s="25"/>
       <c r="K133" s="25" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="134" spans="1:11">
-      <c r="A134" s="89"/>
-      <c r="B134" s="89"/>
+      <c r="A134" s="90"/>
+      <c r="B134" s="90"/>
       <c r="C134" s="70" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="D134" s="25" t="s">
         <v>133</v>
@@ -6576,18 +6662,18 @@
         <v>133</v>
       </c>
       <c r="H134" s="25" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="I134" s="25"/>
       <c r="K134" s="25" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="135" spans="1:11">
-      <c r="A135" s="89"/>
-      <c r="B135" s="89"/>
+      <c r="A135" s="90"/>
+      <c r="B135" s="90"/>
       <c r="C135" s="70" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D135" s="25" t="s">
         <v>133</v>
@@ -6602,189 +6688,194 @@
         <v>133</v>
       </c>
       <c r="H135" s="25" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="I135" s="25"/>
       <c r="K135" s="25" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11">
+      <c r="A136" s="90"/>
+      <c r="B136" s="90"/>
+      <c r="C136" s="70" t="s">
+        <v>645</v>
+      </c>
+      <c r="D136" s="57" t="s">
+        <v>654</v>
+      </c>
+      <c r="E136" s="25" t="s">
+        <v>133</v>
+      </c>
+      <c r="F136" s="83" t="s">
+        <v>653</v>
+      </c>
+      <c r="G136" s="84" t="s">
+        <v>653</v>
+      </c>
+      <c r="H136" s="25" t="s">
+        <v>632</v>
+      </c>
+      <c r="I136" s="57" t="s">
+        <v>663</v>
+      </c>
+      <c r="K136" s="25" t="s">
         <v>668</v>
-      </c>
-    </row>
-    <row r="136" spans="1:11">
-      <c r="A136" s="89"/>
-      <c r="B136" s="89"/>
-      <c r="C136" s="70" t="s">
-        <v>646</v>
-      </c>
-      <c r="D136" s="57" t="s">
-        <v>655</v>
-      </c>
-      <c r="E136" s="25" t="s">
-        <v>133</v>
-      </c>
-      <c r="F136" s="83" t="s">
-        <v>654</v>
-      </c>
-      <c r="G136" s="84" t="s">
-        <v>654</v>
-      </c>
-      <c r="H136" s="25" t="s">
-        <v>633</v>
-      </c>
-      <c r="I136" s="57" t="s">
-        <v>664</v>
-      </c>
-      <c r="K136" s="25" t="s">
-        <v>669</v>
       </c>
     </row>
     <row r="137" spans="1:11">
       <c r="B137" s="69"/>
     </row>
     <row r="138" spans="1:11">
-      <c r="A138" s="90" t="s">
+      <c r="A138" s="89" t="s">
+        <v>691</v>
+      </c>
+      <c r="B138" s="90" t="s">
         <v>692</v>
       </c>
-      <c r="B138" s="89" t="s">
+      <c r="C138" s="67" t="s">
+        <v>674</v>
+      </c>
+      <c r="D138" s="25" t="s">
+        <v>133</v>
+      </c>
+      <c r="E138" s="25" t="s">
+        <v>133</v>
+      </c>
+      <c r="F138" s="25" t="s">
+        <v>133</v>
+      </c>
+      <c r="G138" s="74" t="s">
+        <v>133</v>
+      </c>
+      <c r="H138" s="25" t="s">
+        <v>698</v>
+      </c>
+      <c r="I138" s="25"/>
+      <c r="J138" s="53"/>
+      <c r="K138" s="25" t="s">
         <v>693</v>
       </c>
-      <c r="C138" s="67" t="s">
+    </row>
+    <row r="139" spans="1:11">
+      <c r="A139" s="90"/>
+      <c r="B139" s="90"/>
+      <c r="C139" s="67" t="s">
         <v>675</v>
       </c>
-      <c r="D138" s="25" t="s">
-        <v>133</v>
-      </c>
-      <c r="E138" s="25" t="s">
-        <v>133</v>
-      </c>
-      <c r="F138" s="25" t="s">
-        <v>133</v>
-      </c>
-      <c r="G138" s="74" t="s">
-        <v>133</v>
-      </c>
-      <c r="H138" s="25" t="s">
+      <c r="D139" s="25" t="s">
+        <v>133</v>
+      </c>
+      <c r="E139" s="25" t="s">
+        <v>133</v>
+      </c>
+      <c r="F139" s="25" t="s">
+        <v>133</v>
+      </c>
+      <c r="G139" s="74" t="s">
+        <v>133</v>
+      </c>
+      <c r="H139" s="25" t="s">
+        <v>698</v>
+      </c>
+      <c r="I139" s="25"/>
+      <c r="J139" s="53"/>
+      <c r="K139" s="25" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="140" spans="1:11">
+      <c r="A140" s="90"/>
+      <c r="B140" s="90"/>
+      <c r="C140" s="67" t="s">
+        <v>676</v>
+      </c>
+      <c r="D140" s="25" t="s">
+        <v>133</v>
+      </c>
+      <c r="E140" s="25" t="s">
+        <v>133</v>
+      </c>
+      <c r="F140" s="57" t="s">
+        <v>559</v>
+      </c>
+      <c r="G140" s="84" t="s">
+        <v>653</v>
+      </c>
+      <c r="H140" s="25" t="s">
+        <v>698</v>
+      </c>
+      <c r="I140" s="57" t="s">
         <v>699</v>
       </c>
-      <c r="I138" s="25"/>
-      <c r="K138" s="25" t="s">
-        <v>694</v>
-      </c>
-    </row>
-    <row r="139" spans="1:11">
-      <c r="A139" s="89"/>
-      <c r="B139" s="89"/>
-      <c r="C139" s="67" t="s">
-        <v>676</v>
-      </c>
-      <c r="D139" s="25" t="s">
-        <v>133</v>
-      </c>
-      <c r="E139" s="25" t="s">
-        <v>133</v>
-      </c>
-      <c r="F139" s="25" t="s">
-        <v>133</v>
-      </c>
-      <c r="G139" s="74" t="s">
-        <v>133</v>
-      </c>
-      <c r="H139" s="25" t="s">
-        <v>699</v>
-      </c>
-      <c r="I139" s="25"/>
-      <c r="K139" s="25" t="s">
+      <c r="J140" s="53"/>
+      <c r="K140" s="25" t="s">
         <v>695</v>
       </c>
     </row>
-    <row r="140" spans="1:11">
-      <c r="A140" s="89"/>
-      <c r="B140" s="89"/>
-      <c r="C140" s="67" t="s">
+    <row r="141" spans="1:11">
+      <c r="A141" s="90"/>
+      <c r="B141" s="90"/>
+      <c r="C141" s="67" t="s">
         <v>677</v>
       </c>
-      <c r="D140" s="25" t="s">
-        <v>133</v>
-      </c>
-      <c r="E140" s="25" t="s">
-        <v>133</v>
-      </c>
-      <c r="F140" s="57" t="s">
-        <v>560</v>
-      </c>
-      <c r="G140" s="84" t="s">
-        <v>654</v>
-      </c>
-      <c r="H140" s="25" t="s">
-        <v>699</v>
-      </c>
-      <c r="I140" s="57" t="s">
-        <v>700</v>
-      </c>
-      <c r="K140" s="25" t="s">
+      <c r="D141" s="25" t="s">
+        <v>133</v>
+      </c>
+      <c r="E141" s="25" t="s">
+        <v>133</v>
+      </c>
+      <c r="F141" s="25" t="s">
+        <v>133</v>
+      </c>
+      <c r="G141" s="25" t="s">
+        <v>133</v>
+      </c>
+      <c r="H141" s="25" t="s">
+        <v>698</v>
+      </c>
+      <c r="I141" s="25"/>
+      <c r="J141" s="53"/>
+      <c r="K141" s="25" t="s">
         <v>696</v>
       </c>
     </row>
-    <row r="141" spans="1:11">
-      <c r="A141" s="89"/>
-      <c r="B141" s="89"/>
-      <c r="C141" s="67" t="s">
+    <row r="142" spans="1:11">
+      <c r="A142" s="90"/>
+      <c r="B142" s="90"/>
+      <c r="C142" s="67" t="s">
         <v>678</v>
       </c>
-      <c r="D141" s="25" t="s">
-        <v>133</v>
-      </c>
-      <c r="E141" s="25" t="s">
-        <v>133</v>
-      </c>
-      <c r="F141" s="25" t="s">
-        <v>133</v>
-      </c>
-      <c r="G141" s="25" t="s">
-        <v>133</v>
-      </c>
-      <c r="H141" s="25" t="s">
-        <v>699</v>
-      </c>
-      <c r="I141" s="25"/>
-      <c r="K141" s="25" t="s">
+      <c r="D142" s="25" t="s">
+        <v>133</v>
+      </c>
+      <c r="E142" s="25" t="s">
+        <v>133</v>
+      </c>
+      <c r="F142" s="25" t="s">
+        <v>133</v>
+      </c>
+      <c r="G142" s="25" t="s">
+        <v>133</v>
+      </c>
+      <c r="H142" s="25" t="s">
+        <v>698</v>
+      </c>
+      <c r="I142" s="25"/>
+      <c r="J142" s="53"/>
+      <c r="K142" s="25" t="s">
         <v>697</v>
       </c>
     </row>
-    <row r="142" spans="1:11">
-      <c r="A142" s="89"/>
-      <c r="B142" s="89"/>
-      <c r="C142" s="67" t="s">
-        <v>679</v>
-      </c>
-      <c r="D142" s="25" t="s">
-        <v>133</v>
-      </c>
-      <c r="E142" s="25" t="s">
-        <v>133</v>
-      </c>
-      <c r="F142" s="25" t="s">
-        <v>133</v>
-      </c>
-      <c r="G142" s="25" t="s">
-        <v>133</v>
-      </c>
-      <c r="H142" s="25" t="s">
-        <v>699</v>
-      </c>
-      <c r="I142" s="25"/>
-      <c r="K142" s="25" t="s">
-        <v>698</v>
-      </c>
-    </row>
     <row r="144" spans="1:11">
-      <c r="A144" s="90" t="s">
-        <v>733</v>
-      </c>
-      <c r="B144" s="89" t="s">
+      <c r="A144" s="89" t="s">
         <v>732</v>
       </c>
+      <c r="B144" s="90" t="s">
+        <v>731</v>
+      </c>
       <c r="C144" s="67" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="D144" s="25" t="s">
         <v>133</v>
@@ -6799,19 +6890,19 @@
         <v>133</v>
       </c>
       <c r="H144" s="25" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="I144" s="25"/>
       <c r="J144" s="53"/>
       <c r="K144" s="25" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="145" spans="1:11">
-      <c r="A145" s="89"/>
-      <c r="B145" s="89"/>
+      <c r="A145" s="90"/>
+      <c r="B145" s="90"/>
       <c r="C145" s="67" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="D145" s="25" t="s">
         <v>133</v>
@@ -6826,19 +6917,19 @@
         <v>133</v>
       </c>
       <c r="H145" s="25" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="I145" s="25"/>
       <c r="J145" s="53"/>
       <c r="K145" s="25" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
     </row>
     <row r="146" spans="1:11">
-      <c r="A146" s="89"/>
-      <c r="B146" s="89"/>
+      <c r="A146" s="90"/>
+      <c r="B146" s="90"/>
       <c r="C146" s="67" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="D146" s="25" t="s">
         <v>133</v>
@@ -6853,19 +6944,19 @@
         <v>133</v>
       </c>
       <c r="H146" s="25" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="I146" s="25"/>
       <c r="J146" s="53"/>
       <c r="K146" s="25" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
     </row>
     <row r="147" spans="1:11">
-      <c r="A147" s="89"/>
-      <c r="B147" s="89"/>
+      <c r="A147" s="90"/>
+      <c r="B147" s="90"/>
       <c r="C147" s="67" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="D147" s="25" t="s">
         <v>133</v>
@@ -6880,19 +6971,19 @@
         <v>133</v>
       </c>
       <c r="H147" s="25" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="I147" s="25"/>
       <c r="J147" s="53"/>
       <c r="K147" s="25" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="148" spans="1:11">
-      <c r="A148" s="89"/>
-      <c r="B148" s="89"/>
+      <c r="A148" s="90"/>
+      <c r="B148" s="90"/>
       <c r="C148" s="88" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="D148" s="25" t="s">
         <v>133</v>
@@ -6907,87 +6998,389 @@
         <v>133</v>
       </c>
       <c r="H148" s="25" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="I148" s="25"/>
       <c r="J148" s="53"/>
       <c r="K148" s="25" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
     </row>
     <row r="149" spans="1:11">
-      <c r="A149" s="90" t="s">
-        <v>734</v>
-      </c>
-      <c r="B149" s="89"/>
+      <c r="A149" s="89" t="s">
+        <v>733</v>
+      </c>
+      <c r="B149" s="90"/>
       <c r="C149" s="67" t="s">
-        <v>728</v>
-      </c>
-      <c r="D149" s="25"/>
-      <c r="E149" s="25"/>
-      <c r="F149" s="25"/>
-      <c r="G149" s="25"/>
+        <v>727</v>
+      </c>
+      <c r="D149" s="57" t="s">
+        <v>559</v>
+      </c>
+      <c r="E149" s="25" t="s">
+        <v>556</v>
+      </c>
+      <c r="F149" s="25" t="s">
+        <v>556</v>
+      </c>
+      <c r="G149" s="25" t="s">
+        <v>556</v>
+      </c>
       <c r="H149" s="25"/>
       <c r="I149" s="25"/>
       <c r="J149" s="53"/>
       <c r="K149" s="25"/>
     </row>
     <row r="150" spans="1:11">
-      <c r="A150" s="89"/>
-      <c r="B150" s="89"/>
+      <c r="A150" s="90"/>
+      <c r="B150" s="90"/>
       <c r="C150" s="67" t="s">
-        <v>729</v>
-      </c>
-      <c r="D150" s="25"/>
-      <c r="E150" s="25"/>
-      <c r="F150" s="25"/>
-      <c r="G150" s="25"/>
+        <v>728</v>
+      </c>
+      <c r="D150" s="57" t="s">
+        <v>559</v>
+      </c>
+      <c r="E150" s="25" t="s">
+        <v>556</v>
+      </c>
+      <c r="F150" s="25" t="s">
+        <v>556</v>
+      </c>
+      <c r="G150" s="25" t="s">
+        <v>556</v>
+      </c>
       <c r="H150" s="25"/>
       <c r="I150" s="25"/>
       <c r="J150" s="53"/>
       <c r="K150" s="25"/>
     </row>
     <row r="151" spans="1:11">
-      <c r="A151" s="89"/>
-      <c r="B151" s="89"/>
+      <c r="A151" s="90"/>
+      <c r="B151" s="90"/>
       <c r="C151" s="67" t="s">
-        <v>730</v>
-      </c>
-      <c r="D151" s="25"/>
-      <c r="E151" s="25"/>
-      <c r="F151" s="25"/>
-      <c r="G151" s="25"/>
+        <v>729</v>
+      </c>
+      <c r="D151" s="57" t="s">
+        <v>559</v>
+      </c>
+      <c r="E151" s="25" t="s">
+        <v>556</v>
+      </c>
+      <c r="F151" s="25" t="s">
+        <v>556</v>
+      </c>
+      <c r="G151" s="25" t="s">
+        <v>556</v>
+      </c>
       <c r="H151" s="25"/>
       <c r="I151" s="25"/>
       <c r="J151" s="53"/>
       <c r="K151" s="25"/>
     </row>
     <row r="152" spans="1:11">
-      <c r="A152" s="89"/>
-      <c r="B152" s="89"/>
+      <c r="A152" s="90"/>
+      <c r="B152" s="90"/>
       <c r="C152" s="67" t="s">
-        <v>731</v>
-      </c>
-      <c r="D152" s="25"/>
-      <c r="E152" s="25"/>
-      <c r="F152" s="25"/>
-      <c r="G152" s="25"/>
+        <v>730</v>
+      </c>
+      <c r="D152" s="57" t="s">
+        <v>559</v>
+      </c>
+      <c r="E152" s="25" t="s">
+        <v>556</v>
+      </c>
+      <c r="F152" s="25" t="s">
+        <v>556</v>
+      </c>
+      <c r="G152" s="25" t="s">
+        <v>556</v>
+      </c>
       <c r="H152" s="25"/>
       <c r="I152" s="25"/>
       <c r="J152" s="53"/>
       <c r="K152" s="25"/>
     </row>
+    <row r="153" spans="1:11">
+      <c r="A153" s="89" t="s">
+        <v>794</v>
+      </c>
+      <c r="B153" s="90"/>
+      <c r="C153" s="104" t="s">
+        <v>744</v>
+      </c>
+      <c r="D153" s="25" t="s">
+        <v>133</v>
+      </c>
+      <c r="E153" s="25" t="s">
+        <v>133</v>
+      </c>
+      <c r="F153" s="25" t="s">
+        <v>133</v>
+      </c>
+      <c r="G153" s="25" t="s">
+        <v>133</v>
+      </c>
+      <c r="H153" s="25" t="s">
+        <v>793</v>
+      </c>
+      <c r="I153" s="25"/>
+      <c r="J153" s="53"/>
+      <c r="K153" s="25" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="154" spans="1:11">
+      <c r="A154" s="90"/>
+      <c r="B154" s="90"/>
+      <c r="C154" s="104" t="s">
+        <v>745</v>
+      </c>
+      <c r="D154" s="25" t="s">
+        <v>133</v>
+      </c>
+      <c r="E154" s="25" t="s">
+        <v>133</v>
+      </c>
+      <c r="F154" s="25" t="s">
+        <v>133</v>
+      </c>
+      <c r="G154" s="25" t="s">
+        <v>133</v>
+      </c>
+      <c r="H154" s="25" t="s">
+        <v>793</v>
+      </c>
+      <c r="I154" s="25"/>
+      <c r="J154" s="53"/>
+      <c r="K154" s="25" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="155" spans="1:11">
+      <c r="A155" s="90"/>
+      <c r="B155" s="90"/>
+      <c r="C155" s="105" t="s">
+        <v>772</v>
+      </c>
+      <c r="D155" s="25" t="s">
+        <v>133</v>
+      </c>
+      <c r="E155" s="25" t="s">
+        <v>133</v>
+      </c>
+      <c r="F155" s="25" t="s">
+        <v>133</v>
+      </c>
+      <c r="G155" s="25" t="s">
+        <v>133</v>
+      </c>
+      <c r="H155" s="25" t="s">
+        <v>793</v>
+      </c>
+      <c r="I155" s="25"/>
+      <c r="J155" s="53"/>
+      <c r="K155" s="25" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="156" spans="1:11">
+      <c r="A156" s="101"/>
+      <c r="B156" s="101"/>
+      <c r="C156" s="102"/>
+      <c r="D156" s="102"/>
+      <c r="E156" s="102"/>
+      <c r="F156" s="102"/>
+      <c r="G156" s="102"/>
+      <c r="H156" s="102"/>
+      <c r="I156" s="102"/>
+      <c r="J156" s="103"/>
+      <c r="K156" s="102"/>
+    </row>
+    <row r="157" spans="1:11">
+      <c r="A157" s="89" t="s">
+        <v>794</v>
+      </c>
+      <c r="B157" s="90" t="s">
+        <v>795</v>
+      </c>
+      <c r="C157" s="67" t="s">
+        <v>773</v>
+      </c>
+      <c r="D157" s="25" t="s">
+        <v>133</v>
+      </c>
+      <c r="E157" s="25" t="s">
+        <v>133</v>
+      </c>
+      <c r="F157" s="25" t="s">
+        <v>133</v>
+      </c>
+      <c r="G157" s="25" t="s">
+        <v>133</v>
+      </c>
+      <c r="H157" s="25" t="s">
+        <v>793</v>
+      </c>
+      <c r="I157" s="25"/>
+      <c r="J157" s="53"/>
+      <c r="K157" s="25" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="158" spans="1:11">
+      <c r="A158" s="90"/>
+      <c r="B158" s="90"/>
+      <c r="C158" s="67" t="s">
+        <v>775</v>
+      </c>
+      <c r="D158" s="25" t="s">
+        <v>133</v>
+      </c>
+      <c r="E158" s="25" t="s">
+        <v>133</v>
+      </c>
+      <c r="F158" s="25" t="s">
+        <v>133</v>
+      </c>
+      <c r="G158" s="25" t="s">
+        <v>133</v>
+      </c>
+      <c r="H158" s="25" t="s">
+        <v>793</v>
+      </c>
+      <c r="I158" s="25"/>
+      <c r="J158" s="53"/>
+      <c r="K158" s="25" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="159" spans="1:11">
+      <c r="A159" s="90"/>
+      <c r="B159" s="90"/>
+      <c r="C159" s="67" t="s">
+        <v>777</v>
+      </c>
+      <c r="D159" s="25" t="s">
+        <v>133</v>
+      </c>
+      <c r="E159" s="25" t="s">
+        <v>133</v>
+      </c>
+      <c r="F159" s="25" t="s">
+        <v>133</v>
+      </c>
+      <c r="G159" s="25" t="s">
+        <v>133</v>
+      </c>
+      <c r="H159" s="25" t="s">
+        <v>793</v>
+      </c>
+      <c r="I159" s="25"/>
+      <c r="J159" s="53"/>
+      <c r="K159" s="25" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="160" spans="1:11">
+      <c r="A160" s="90"/>
+      <c r="B160" s="90"/>
+      <c r="C160" s="67" t="s">
+        <v>779</v>
+      </c>
+      <c r="D160" s="25" t="s">
+        <v>133</v>
+      </c>
+      <c r="E160" s="25" t="s">
+        <v>133</v>
+      </c>
+      <c r="F160" s="25" t="s">
+        <v>133</v>
+      </c>
+      <c r="G160" s="25" t="s">
+        <v>133</v>
+      </c>
+      <c r="H160" s="25" t="s">
+        <v>793</v>
+      </c>
+      <c r="I160" s="25"/>
+      <c r="J160" s="53"/>
+      <c r="K160" s="25" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="161" spans="1:11">
+      <c r="A161" s="90"/>
+      <c r="B161" s="90"/>
+      <c r="C161" s="67" t="s">
+        <v>781</v>
+      </c>
+      <c r="D161" s="25" t="s">
+        <v>133</v>
+      </c>
+      <c r="E161" s="25" t="s">
+        <v>133</v>
+      </c>
+      <c r="F161" s="25" t="s">
+        <v>133</v>
+      </c>
+      <c r="G161" s="25" t="s">
+        <v>133</v>
+      </c>
+      <c r="H161" s="25" t="s">
+        <v>793</v>
+      </c>
+      <c r="I161" s="25"/>
+      <c r="J161" s="53"/>
+      <c r="K161" s="25" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="162" spans="1:11">
+      <c r="A162" s="90"/>
+      <c r="B162" s="90"/>
+      <c r="C162" s="67" t="s">
+        <v>783</v>
+      </c>
+      <c r="D162" s="25" t="s">
+        <v>133</v>
+      </c>
+      <c r="E162" s="25" t="s">
+        <v>133</v>
+      </c>
+      <c r="F162" s="25" t="s">
+        <v>133</v>
+      </c>
+      <c r="G162" s="25" t="s">
+        <v>133</v>
+      </c>
+      <c r="H162" s="25" t="s">
+        <v>793</v>
+      </c>
+      <c r="I162" s="25"/>
+      <c r="J162" s="53"/>
+      <c r="K162" s="25" t="s">
+        <v>804</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="48">
-    <mergeCell ref="A131:A136"/>
-    <mergeCell ref="A122:A126"/>
-    <mergeCell ref="A127:A129"/>
+  <mergeCells count="51">
+    <mergeCell ref="B144:B155"/>
+    <mergeCell ref="A153:A155"/>
+    <mergeCell ref="B157:B162"/>
+    <mergeCell ref="A157:A162"/>
     <mergeCell ref="B122:B129"/>
     <mergeCell ref="A35:A39"/>
     <mergeCell ref="A41:A45"/>
     <mergeCell ref="B41:B45"/>
     <mergeCell ref="B35:B39"/>
-    <mergeCell ref="B144:B152"/>
+    <mergeCell ref="A62:A69"/>
+    <mergeCell ref="B57:B60"/>
+    <mergeCell ref="A58:A60"/>
+    <mergeCell ref="B47:B55"/>
+    <mergeCell ref="B83:B88"/>
+    <mergeCell ref="A83:A88"/>
+    <mergeCell ref="B78:B81"/>
+    <mergeCell ref="A78:A80"/>
     <mergeCell ref="A144:A148"/>
     <mergeCell ref="A149:A152"/>
     <mergeCell ref="B90:B100"/>
@@ -6999,6 +7392,10 @@
     <mergeCell ref="B114:B120"/>
     <mergeCell ref="A114:A120"/>
     <mergeCell ref="B131:B136"/>
+    <mergeCell ref="B102:B112"/>
+    <mergeCell ref="A131:A136"/>
+    <mergeCell ref="A122:A126"/>
+    <mergeCell ref="A127:A129"/>
     <mergeCell ref="J2:J5"/>
     <mergeCell ref="J12:J13"/>
     <mergeCell ref="J7:J10"/>
@@ -7013,15 +7410,6 @@
     <mergeCell ref="B22:B26"/>
     <mergeCell ref="B15:B20"/>
     <mergeCell ref="A28:A33"/>
-    <mergeCell ref="B102:B112"/>
-    <mergeCell ref="A62:A69"/>
-    <mergeCell ref="B57:B60"/>
-    <mergeCell ref="A58:A60"/>
-    <mergeCell ref="B47:B55"/>
-    <mergeCell ref="B83:B88"/>
-    <mergeCell ref="A83:A88"/>
-    <mergeCell ref="B78:B81"/>
-    <mergeCell ref="A78:A80"/>
     <mergeCell ref="A51:A55"/>
     <mergeCell ref="B71:B76"/>
     <mergeCell ref="A71:A76"/>
@@ -7094,7 +7482,7 @@
         <v>17</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="M1" s="3" t="s">
         <v>48</v>
@@ -7241,7 +7629,7 @@
       </c>
       <c r="H6" s="4"/>
       <c r="I6" s="4" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="J6" s="4"/>
       <c r="K6" s="4"/>
@@ -7439,8 +7827,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -7483,10 +7871,10 @@
         <v>283</v>
       </c>
       <c r="I1" s="3" t="s">
+        <v>615</v>
+      </c>
+      <c r="J1" s="3" t="s">
         <v>616</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>617</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -7569,18 +7957,18 @@
       <c r="G5" s="36"/>
       <c r="H5" s="4"/>
       <c r="I5" s="4" t="s">
+        <v>534</v>
+      </c>
+      <c r="J5" s="4" t="s">
         <v>288</v>
-      </c>
-      <c r="J5" s="4" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="47" t="s">
+        <v>416</v>
+      </c>
+      <c r="B6" s="47" t="s">
         <v>417</v>
-      </c>
-      <c r="B6" s="47" t="s">
-        <v>418</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>269</v>
@@ -7640,46 +8028,46 @@
         <v>10</v>
       </c>
       <c r="D1" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>317</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>318</v>
       </c>
-      <c r="F1" s="3" t="s">
-        <v>306</v>
-      </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>319</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>320</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>30</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="L1" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="M1" s="3" t="s">
         <v>325</v>
       </c>
-      <c r="M1" s="3" t="s">
-        <v>326</v>
-      </c>
       <c r="N1" s="3" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="O1" s="3" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="P1" s="3" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="Q1" s="3" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="R1" s="3" t="s">
         <v>235</v>
@@ -7690,10 +8078,10 @@
     </row>
     <row r="2" spans="1:19">
       <c r="A2" s="43" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>226</v>
@@ -7706,7 +8094,7 @@
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
       <c r="K2" s="4" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="L2" s="4"/>
       <c r="M2" s="4"/>
@@ -7719,65 +8107,65 @@
     </row>
     <row r="3" spans="1:19">
       <c r="A3" s="43" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>226</v>
       </c>
       <c r="D3" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="E3" s="4" t="s">
         <v>329</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="F3" s="4" t="s">
+        <v>321</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="H3" s="4" t="s">
         <v>330</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>322</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>323</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>331</v>
       </c>
       <c r="I3" s="4"/>
       <c r="J3" s="4" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="L3" s="4" t="s">
+        <v>326</v>
+      </c>
+      <c r="M3" s="4" t="s">
         <v>327</v>
       </c>
-      <c r="M3" s="4" t="s">
-        <v>328</v>
-      </c>
       <c r="N3" s="4" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="O3" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="P3" s="4" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q3" s="4" t="s">
         <v>323</v>
       </c>
-      <c r="P3" s="4" t="s">
-        <v>345</v>
-      </c>
-      <c r="Q3" s="4" t="s">
-        <v>324</v>
-      </c>
       <c r="R3" s="4" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="S3" s="4"/>
     </row>
     <row r="4" spans="1:19">
       <c r="A4" s="43" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>226</v>
@@ -7785,61 +8173,61 @@
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
       <c r="F4" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="G4" s="4" t="s">
         <v>337</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="H4" s="4" t="s">
         <v>338</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>339</v>
       </c>
       <c r="I4" s="4"/>
       <c r="J4" s="4" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="K4" s="4"/>
       <c r="L4" s="4" t="s">
+        <v>349</v>
+      </c>
+      <c r="M4" s="4" t="s">
         <v>350</v>
       </c>
-      <c r="M4" s="4" t="s">
-        <v>351</v>
-      </c>
       <c r="N4" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="O4" s="4" t="s">
         <v>346</v>
       </c>
-      <c r="O4" s="4" t="s">
+      <c r="P4" s="4" t="s">
         <v>347</v>
       </c>
-      <c r="P4" s="4" t="s">
-        <v>348</v>
-      </c>
       <c r="Q4" s="4" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="R4" s="4"/>
       <c r="S4" s="4"/>
     </row>
     <row r="5" spans="1:19">
       <c r="A5" s="43" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>226</v>
       </c>
       <c r="D5" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="E5" s="4" t="s">
         <v>355</v>
       </c>
-      <c r="E5" s="4" t="s">
-        <v>356</v>
-      </c>
       <c r="F5" s="4" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
@@ -7856,31 +8244,31 @@
     </row>
     <row r="6" spans="1:19">
       <c r="A6" s="43" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>226</v>
       </c>
       <c r="D6" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="E6" s="4" t="s">
         <v>357</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="F6" s="4" t="s">
+        <v>353</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="H6" s="4" t="s">
         <v>358</v>
       </c>
-      <c r="F6" s="4" t="s">
-        <v>354</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>323</v>
-      </c>
-      <c r="H6" s="4" t="s">
+      <c r="I6" s="4" t="s">
         <v>359</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>360</v>
       </c>
       <c r="J6" s="4"/>
       <c r="K6" s="4"/>
@@ -7895,10 +8283,10 @@
     </row>
     <row r="7" spans="1:19">
       <c r="A7" s="43" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>226</v>
@@ -7922,10 +8310,10 @@
     </row>
     <row r="8" spans="1:19">
       <c r="A8" s="43" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>226</v>
@@ -7948,15 +8336,15 @@
         <v>236</v>
       </c>
       <c r="S8" s="4" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="9" spans="1:19">
       <c r="A9" s="40" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B9" s="41" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>226</v>
@@ -8016,73 +8404,73 @@
         <v>10</v>
       </c>
       <c r="D1" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>382</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>383</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>384</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>385</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>386</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>387</v>
       </c>
-      <c r="J1" s="3" t="s">
-        <v>388</v>
-      </c>
       <c r="K1" s="3" t="s">
+        <v>413</v>
+      </c>
+      <c r="L1" s="3" t="s">
         <v>414</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>415</v>
       </c>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="43" t="s">
+        <v>365</v>
+      </c>
+      <c r="B2" s="10" t="s">
         <v>366</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>367</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>265</v>
       </c>
       <c r="D2" s="4" t="s">
+        <v>388</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>389</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="F2" s="4" t="s">
         <v>390</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="G2" s="4" t="s">
         <v>391</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="H2" s="4" t="s">
         <v>392</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="I2" s="4" t="s">
         <v>393</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="J2" s="4" t="s">
         <v>394</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>395</v>
       </c>
       <c r="K2" s="4"/>
       <c r="L2" s="4"/>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="43" t="s">
+        <v>367</v>
+      </c>
+      <c r="B3" s="10" t="s">
         <v>368</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>369</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>265</v>
@@ -8099,10 +8487,10 @@
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="43" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>265</v>
@@ -8119,10 +8507,10 @@
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="43" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>265</v>
@@ -8139,10 +8527,10 @@
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="43" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>265</v>
@@ -8159,10 +8547,10 @@
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="43" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>265</v>
@@ -8179,10 +8567,10 @@
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="43" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>265</v>
@@ -8199,10 +8587,10 @@
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="43" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>265</v>
@@ -8219,10 +8607,10 @@
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="43" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>265</v>
@@ -8235,10 +8623,10 @@
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
       <c r="K10" s="4" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="L10" s="4" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
   </sheetData>
@@ -8275,13 +8663,13 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="43" t="s">
+        <v>495</v>
+      </c>
+      <c r="B2" s="10" t="s">
         <v>496</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="C2" s="4" t="s">
         <v>497</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>498</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -8347,96 +8735,96 @@
         <v>10</v>
       </c>
       <c r="D1" s="55" t="s">
+        <v>515</v>
+      </c>
+      <c r="E1" s="55" t="s">
         <v>516</v>
       </c>
-      <c r="E1" s="55" t="s">
-        <v>517</v>
-      </c>
       <c r="F1" s="55" t="s">
+        <v>444</v>
+      </c>
+      <c r="G1" s="55" t="s">
         <v>445</v>
       </c>
-      <c r="G1" s="55" t="s">
-        <v>446</v>
-      </c>
       <c r="H1" s="55" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="I1" s="55" t="s">
         <v>78</v>
       </c>
       <c r="J1" s="55" t="s">
+        <v>522</v>
+      </c>
+      <c r="K1" s="55" t="s">
         <v>523</v>
       </c>
-      <c r="K1" s="55" t="s">
+      <c r="L1" s="55" t="s">
         <v>524</v>
       </c>
-      <c r="L1" s="55" t="s">
+      <c r="M1" s="55" t="s">
         <v>525</v>
       </c>
-      <c r="M1" s="55" t="s">
+      <c r="N1" s="55" t="s">
         <v>526</v>
       </c>
-      <c r="N1" s="55" t="s">
+      <c r="O1" s="55" t="s">
         <v>527</v>
-      </c>
-      <c r="O1" s="55" t="s">
-        <v>528</v>
       </c>
       <c r="P1" s="55" t="s">
         <v>84</v>
       </c>
       <c r="Q1" s="55" t="s">
+        <v>528</v>
+      </c>
+      <c r="R1" s="55" t="s">
         <v>529</v>
       </c>
-      <c r="R1" s="55" t="s">
-        <v>530</v>
-      </c>
       <c r="S1" s="55" t="s">
+        <v>536</v>
+      </c>
+      <c r="T1" s="55" t="s">
         <v>537</v>
       </c>
-      <c r="T1" s="55" t="s">
+      <c r="U1" s="55" t="s">
         <v>538</v>
       </c>
-      <c r="U1" s="55" t="s">
+      <c r="V1" s="55" t="s">
         <v>539</v>
       </c>
-      <c r="V1" s="55" t="s">
-        <v>540</v>
-      </c>
       <c r="W1" s="55" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="X1" s="3" t="s">
+        <v>615</v>
+      </c>
+      <c r="Y1" s="3" t="s">
         <v>616</v>
-      </c>
-      <c r="Y1" s="3" t="s">
-        <v>617</v>
       </c>
     </row>
     <row r="2" spans="1:25">
       <c r="A2" s="57" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B2" s="57" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C2" s="58">
         <v>4138</v>
       </c>
       <c r="D2" s="58" t="s">
+        <v>517</v>
+      </c>
+      <c r="E2" s="58" t="s">
         <v>518</v>
       </c>
-      <c r="E2" s="58" t="s">
-        <v>519</v>
-      </c>
       <c r="F2" s="58" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="G2" s="59" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="H2" s="59" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="I2" s="59"/>
       <c r="J2" s="59"/>
@@ -8458,43 +8846,43 @@
     </row>
     <row r="3" spans="1:25">
       <c r="A3" s="57" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B3" s="57" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C3" s="58">
         <v>4138</v>
       </c>
       <c r="D3" s="58" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="E3" s="58" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="F3" s="58" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="G3" s="59" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="H3" s="59" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="I3" s="59" t="s">
         <v>240</v>
       </c>
       <c r="J3" s="59" t="s">
+        <v>530</v>
+      </c>
+      <c r="K3" s="59" t="s">
         <v>531</v>
-      </c>
-      <c r="K3" s="59" t="s">
-        <v>532</v>
       </c>
       <c r="L3" s="59" t="s">
         <v>195</v>
       </c>
       <c r="M3" s="59" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="N3" s="59" t="s">
         <v>191</v>
@@ -8503,13 +8891,13 @@
         <v>91</v>
       </c>
       <c r="P3" s="59" t="s">
+        <v>533</v>
+      </c>
+      <c r="Q3" s="59" t="s">
         <v>534</v>
       </c>
-      <c r="Q3" s="59" t="s">
-        <v>535</v>
-      </c>
       <c r="R3" s="59" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="S3" s="59" t="s">
         <v>91</v>
@@ -8518,10 +8906,10 @@
         <v>93</v>
       </c>
       <c r="U3" s="59" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="V3" s="59" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="W3" s="59"/>
       <c r="X3" s="59"/>
@@ -8529,28 +8917,28 @@
     </row>
     <row r="4" spans="1:25">
       <c r="A4" s="57" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B4" s="57" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="C4" s="58">
         <v>4138</v>
       </c>
       <c r="D4" s="58" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="E4" s="58" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="F4" s="58" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="G4" s="59" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="H4" s="59" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="I4" s="59"/>
       <c r="J4" s="59"/>
@@ -8572,28 +8960,28 @@
     </row>
     <row r="5" spans="1:25">
       <c r="A5" s="57" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B5" s="57" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="C5" s="58">
         <v>4138</v>
       </c>
       <c r="D5" s="58" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="E5" s="58" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="F5" s="58" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="G5" s="59" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="H5" s="59" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="I5" s="59"/>
       <c r="J5" s="59"/>
@@ -8615,43 +9003,43 @@
     </row>
     <row r="6" spans="1:25">
       <c r="A6" s="57" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B6" s="57" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C6" s="58">
         <v>4138</v>
       </c>
       <c r="D6" s="58" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="E6" s="58" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="F6" s="58" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="G6" s="59" t="s">
+        <v>552</v>
+      </c>
+      <c r="H6" s="59" t="s">
         <v>553</v>
-      </c>
-      <c r="H6" s="59" t="s">
-        <v>554</v>
       </c>
       <c r="I6" s="59" t="s">
         <v>240</v>
       </c>
       <c r="J6" s="59" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="K6" s="59" t="s">
+        <v>550</v>
+      </c>
+      <c r="L6" s="59" t="s">
         <v>551</v>
       </c>
-      <c r="L6" s="59" t="s">
-        <v>552</v>
-      </c>
       <c r="M6" s="59" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="N6" s="59" t="s">
         <v>191</v>
@@ -8660,10 +9048,10 @@
         <v>91</v>
       </c>
       <c r="P6" s="59" t="s">
+        <v>533</v>
+      </c>
+      <c r="Q6" s="59" t="s">
         <v>534</v>
-      </c>
-      <c r="Q6" s="59" t="s">
-        <v>535</v>
       </c>
       <c r="R6" s="59"/>
       <c r="S6" s="59"/>
@@ -8676,10 +9064,10 @@
     </row>
     <row r="7" spans="1:25">
       <c r="A7" s="57" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B7" s="57" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="C7" s="58">
         <v>4138</v>
@@ -8709,10 +9097,10 @@
     </row>
     <row r="8" spans="1:25">
       <c r="A8" s="57" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B8" s="57" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C8" s="58">
         <v>4138</v>
@@ -8725,10 +9113,10 @@
       <c r="I8" s="59"/>
       <c r="J8" s="59"/>
       <c r="K8" s="59" t="s">
+        <v>550</v>
+      </c>
+      <c r="L8" s="59" t="s">
         <v>551</v>
-      </c>
-      <c r="L8" s="59" t="s">
-        <v>552</v>
       </c>
       <c r="M8" s="59"/>
       <c r="N8" s="59"/>
@@ -8746,10 +9134,10 @@
     </row>
     <row r="9" spans="1:25">
       <c r="A9" s="57" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B9" s="57" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="C9" s="58">
         <v>4138</v>
@@ -8779,10 +9167,10 @@
     </row>
     <row r="10" spans="1:25">
       <c r="A10" s="57" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="B10" s="57" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="C10" s="58">
         <v>4138</v>
@@ -8807,17 +9195,17 @@
       <c r="U10" s="59"/>
       <c r="V10" s="59"/>
       <c r="W10" s="59" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="X10" s="59"/>
       <c r="Y10" s="59"/>
     </row>
     <row r="11" spans="1:25">
       <c r="A11" s="57" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="B11" s="57" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="C11" s="58">
         <v>4138</v>
@@ -8842,17 +9230,17 @@
       <c r="U11" s="59"/>
       <c r="V11" s="59"/>
       <c r="W11" s="59" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="X11" s="59"/>
       <c r="Y11" s="59"/>
     </row>
     <row r="12" spans="1:25">
       <c r="A12" s="57" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="B12" s="57" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="C12" s="58">
         <v>4138</v>
@@ -8878,18 +9266,18 @@
       <c r="V12" s="59"/>
       <c r="W12" s="59"/>
       <c r="X12" s="59" t="s">
+        <v>617</v>
+      </c>
+      <c r="Y12" s="59" t="s">
         <v>618</v>
-      </c>
-      <c r="Y12" s="59" t="s">
-        <v>619</v>
       </c>
     </row>
     <row r="13" spans="1:25">
       <c r="A13" s="57" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="B13" s="57" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="C13" s="58">
         <v>4138</v>
@@ -8988,25 +9376,25 @@
         <v>17</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="M1" s="3" t="s">
+        <v>625</v>
+      </c>
+      <c r="N1" s="3" t="s">
         <v>626</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>628</v>
       </c>
-      <c r="P1" s="3" t="s">
-        <v>629</v>
-      </c>
       <c r="Q1" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="R1" s="3" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="S1" s="3" t="s">
         <v>48</v>
@@ -9017,10 +9405,10 @@
     </row>
     <row r="2" spans="1:20">
       <c r="A2" s="57" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="B2" s="57" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="C2" s="58">
         <v>4138</v>
@@ -9045,10 +9433,10 @@
     </row>
     <row r="3" spans="1:20">
       <c r="A3" s="57" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="B3" s="57" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="C3" s="58">
         <v>4138</v>
@@ -9075,7 +9463,7 @@
         <v>251</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="L3" s="4"/>
       <c r="M3" s="4"/>
@@ -9089,10 +9477,10 @@
     </row>
     <row r="4" spans="1:20">
       <c r="A4" s="57" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B4" s="57" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="C4" s="58">
         <v>4138</v>
@@ -9104,10 +9492,10 @@
         <v>230</v>
       </c>
       <c r="F4" s="4" t="s">
+        <v>622</v>
+      </c>
+      <c r="G4" s="4" t="s">
         <v>623</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>624</v>
       </c>
       <c r="H4" s="58">
         <v>72</v>
@@ -9132,10 +9520,10 @@
         <v>50000</v>
       </c>
       <c r="P4" s="58" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="Q4" s="58" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="R4" s="58">
         <v>6800</v>
@@ -9145,10 +9533,10 @@
     </row>
     <row r="5" spans="1:20">
       <c r="A5" s="57" t="s">
+        <v>635</v>
+      </c>
+      <c r="B5" s="57" t="s">
         <v>636</v>
-      </c>
-      <c r="B5" s="57" t="s">
-        <v>637</v>
       </c>
       <c r="C5" s="58">
         <v>4138</v>
@@ -9160,20 +9548,20 @@
         <v>230</v>
       </c>
       <c r="F5" s="4" t="s">
+        <v>647</v>
+      </c>
+      <c r="G5" s="4" t="s">
         <v>648</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>649</v>
       </c>
       <c r="H5" s="58">
         <v>72</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="J5" s="4"/>
       <c r="K5" s="4" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="L5" s="4"/>
       <c r="M5" s="4"/>
@@ -9187,10 +9575,10 @@
     </row>
     <row r="6" spans="1:20">
       <c r="A6" s="57" t="s">
+        <v>637</v>
+      </c>
+      <c r="B6" s="57" t="s">
         <v>638</v>
-      </c>
-      <c r="B6" s="57" t="s">
-        <v>639</v>
       </c>
       <c r="C6" s="58">
         <v>4138</v>
@@ -9203,12 +9591,12 @@
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
       <c r="I6" s="4" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="J6" s="4"/>
       <c r="K6" s="4"/>
       <c r="L6" s="4" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>
@@ -9221,10 +9609,10 @@
     </row>
     <row r="7" spans="1:20">
       <c r="A7" s="57" t="s">
+        <v>639</v>
+      </c>
+      <c r="B7" s="57" t="s">
         <v>640</v>
-      </c>
-      <c r="B7" s="57" t="s">
-        <v>641</v>
       </c>
       <c r="C7" s="58">
         <v>4138</v>
@@ -9249,10 +9637,10 @@
     </row>
     <row r="8" spans="1:20">
       <c r="A8" s="57" t="s">
+        <v>641</v>
+      </c>
+      <c r="B8" s="57" t="s">
         <v>642</v>
-      </c>
-      <c r="B8" s="57" t="s">
-        <v>643</v>
       </c>
       <c r="C8" s="58">
         <v>4138</v>
@@ -9276,15 +9664,15 @@
         <v>236</v>
       </c>
       <c r="T8" s="4" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" s="57" t="s">
+        <v>643</v>
+      </c>
+      <c r="B9" s="57" t="s">
         <v>644</v>
-      </c>
-      <c r="B9" s="57" t="s">
-        <v>645</v>
       </c>
       <c r="C9" s="58">
         <v>4138</v>
@@ -9309,10 +9697,10 @@
     </row>
     <row r="10" spans="1:20">
       <c r="A10" s="57" t="s">
+        <v>645</v>
+      </c>
+      <c r="B10" s="57" t="s">
         <v>646</v>
-      </c>
-      <c r="B10" s="57" t="s">
-        <v>647</v>
       </c>
       <c r="C10" s="58">
         <v>4138</v>
@@ -9372,33 +9760,33 @@
         <v>10</v>
       </c>
       <c r="D1" s="3" t="s">
+        <v>684</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>701</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>685</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>702</v>
-      </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>686</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>687</v>
       </c>
-      <c r="H1" s="3" t="s">
-        <v>688</v>
-      </c>
       <c r="I1" s="3" t="s">
+        <v>466</v>
+      </c>
+      <c r="J1" s="3" t="s">
         <v>467</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>468</v>
       </c>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="81" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="B2" s="57" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="C2" s="58">
         <v>3656</v>
@@ -9415,10 +9803,10 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="81" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="B3" s="57" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="C3" s="58">
         <v>3656</v>
@@ -9433,10 +9821,10 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="81" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="B4" s="57" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="C4" s="58">
         <v>3656</v>
@@ -9444,13 +9832,13 @@
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
       <c r="F4" s="4" t="s">
+        <v>688</v>
+      </c>
+      <c r="G4" s="4" t="s">
         <v>689</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="H4" s="4" t="s">
         <v>690</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>691</v>
       </c>
       <c r="I4" s="4" t="s">
         <v>234</v>
@@ -9461,10 +9849,10 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="81" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="B5" s="57" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="C5" s="58">
         <v>3656</v>
@@ -9483,10 +9871,10 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="81" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="B6" s="57" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="C6" s="58">
         <v>3656</v>
@@ -9536,57 +9924,57 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="10" t="s">
+        <v>709</v>
+      </c>
+      <c r="B2" s="10" t="s">
         <v>710</v>
       </c>
-      <c r="B2" s="10" t="s">
-        <v>711</v>
-      </c>
       <c r="C2" s="4" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="10" t="s">
+        <v>711</v>
+      </c>
+      <c r="B3" s="10" t="s">
         <v>712</v>
       </c>
-      <c r="B3" s="10" t="s">
-        <v>713</v>
-      </c>
       <c r="C3" s="4" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="10" t="s">
+        <v>713</v>
+      </c>
+      <c r="B4" s="10" t="s">
         <v>714</v>
       </c>
-      <c r="B4" s="10" t="s">
-        <v>715</v>
-      </c>
       <c r="C4" s="4" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="10" t="s">
+        <v>715</v>
+      </c>
+      <c r="B5" s="10" t="s">
         <v>716</v>
       </c>
-      <c r="B5" s="10" t="s">
-        <v>717</v>
-      </c>
       <c r="C5" s="4" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="10" t="s">
+        <v>717</v>
+      </c>
+      <c r="B6" s="10" t="s">
         <v>718</v>
       </c>
-      <c r="B6" s="10" t="s">
-        <v>719</v>
-      </c>
       <c r="C6" s="4" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
   </sheetData>
@@ -9599,7 +9987,7 @@
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:XFD8"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
@@ -9627,14 +10015,14 @@
     </row>
     <row r="2" spans="1:5" s="86" customFormat="1">
       <c r="A2" s="87" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="B2" s="87"/>
       <c r="C2" s="7" t="s">
         <v>31</v>
       </c>
       <c r="D2" s="87" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -9715,7 +10103,7 @@
         <v>229</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>31</v>
@@ -9732,7 +10120,7 @@
         <v>257</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>31</v>
@@ -9757,76 +10145,76 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="8" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>31</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="8" t="s">
+        <v>512</v>
+      </c>
+      <c r="B12" s="8" t="s">
         <v>513</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>514</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>31</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="E12" s="15"/>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="8" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>31</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="8" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="C14" s="7" t="s">
         <v>31</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="8" t="s">
+        <v>721</v>
+      </c>
+      <c r="B15" s="8" t="s">
         <v>722</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>723</v>
       </c>
       <c r="C15" s="7" t="s">
         <v>31</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
   </sheetData>
@@ -9852,10 +10240,10 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q10"/>
+  <dimension ref="A1:S10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="S1" sqref="S1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -9867,19 +10255,21 @@
     <col min="5" max="5" width="14" customWidth="1"/>
     <col min="6" max="6" width="17.44140625" customWidth="1"/>
     <col min="7" max="7" width="12.88671875" customWidth="1"/>
-    <col min="8" max="8" width="17" customWidth="1"/>
+    <col min="8" max="8" width="18.5546875" customWidth="1"/>
     <col min="9" max="9" width="14.77734375" customWidth="1"/>
     <col min="10" max="10" width="12" customWidth="1"/>
     <col min="11" max="11" width="9.21875" customWidth="1"/>
-    <col min="12" max="12" width="14.33203125" customWidth="1"/>
+    <col min="12" max="12" width="22.77734375" customWidth="1"/>
     <col min="13" max="13" width="14" customWidth="1"/>
     <col min="14" max="14" width="13.44140625" customWidth="1"/>
     <col min="15" max="15" width="19.6640625" customWidth="1"/>
     <col min="16" max="16" width="18.33203125" customWidth="1"/>
-    <col min="17" max="17" width="15.5546875" customWidth="1"/>
+    <col min="17" max="17" width="11.44140625" customWidth="1"/>
+    <col min="18" max="18" width="18" customWidth="1"/>
+    <col min="19" max="19" width="17.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="A1" s="3" t="s">
         <v>7</v>
       </c>
@@ -9890,107 +10280,115 @@
         <v>10</v>
       </c>
       <c r="D1" s="3" t="s">
+        <v>748</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>749</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>750</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>751</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
+        <v>756</v>
+      </c>
+      <c r="I1" s="3" t="s">
         <v>752</v>
       </c>
-      <c r="H1" s="3" t="s">
-        <v>757</v>
-      </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
+        <v>755</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>754</v>
+      </c>
+      <c r="L1" s="3" t="s">
         <v>753</v>
       </c>
-      <c r="J1" s="3" t="s">
-        <v>756</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>755</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>754</v>
-      </c>
       <c r="M1" s="3" t="s">
+        <v>764</v>
+      </c>
+      <c r="N1" s="3" t="s">
         <v>765</v>
       </c>
-      <c r="N1" s="3" t="s">
-        <v>766</v>
-      </c>
       <c r="O1" s="3" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="P1" s="3" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="Q1" s="3" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17">
+        <v>467</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>413</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="10" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>226</v>
       </c>
       <c r="D2" s="4" t="s">
+        <v>757</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>757</v>
+      </c>
+      <c r="F2" s="4" t="s">
         <v>758</v>
       </c>
-      <c r="E2" s="4" t="s">
-        <v>758</v>
-      </c>
-      <c r="F2" s="4" t="s">
+      <c r="G2" s="4" t="s">
         <v>759</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="H2" s="4" t="s">
         <v>760</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="I2" s="4" t="s">
         <v>761</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="J2" s="4" t="s">
         <v>762</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="K2" s="4" t="s">
         <v>763</v>
       </c>
-      <c r="K2" s="4" t="s">
-        <v>764</v>
-      </c>
       <c r="L2" s="4" t="s">
-        <v>764</v>
+        <v>788</v>
       </c>
       <c r="M2" s="4" t="s">
+        <v>766</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>769</v>
+      </c>
+      <c r="O2" s="4" t="s">
         <v>767</v>
       </c>
-      <c r="N2" s="4" t="s">
-        <v>770</v>
-      </c>
-      <c r="O2" s="4" t="s">
-        <v>768</v>
-      </c>
       <c r="P2" s="4" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="Q2" s="4" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="3" spans="1:17">
+      <c r="R2" s="4"/>
+      <c r="S2" s="4"/>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="10" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>226</v>
@@ -10009,13 +10407,15 @@
       <c r="O3" s="4"/>
       <c r="P3" s="4"/>
       <c r="Q3" s="4"/>
-    </row>
-    <row r="4" spans="1:17">
+      <c r="R3" s="4"/>
+      <c r="S3" s="4"/>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="10" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>226</v>
@@ -10034,13 +10434,15 @@
       <c r="O4" s="4"/>
       <c r="P4" s="4"/>
       <c r="Q4" s="4"/>
-    </row>
-    <row r="5" spans="1:17">
+      <c r="R4" s="4"/>
+      <c r="S4" s="4"/>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="10" t="s">
+        <v>773</v>
+      </c>
+      <c r="B5" s="10" t="s">
         <v>774</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>775</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>226</v>
@@ -10059,13 +10461,15 @@
       <c r="O5" s="4"/>
       <c r="P5" s="4"/>
       <c r="Q5" s="4"/>
-    </row>
-    <row r="6" spans="1:17">
+      <c r="R5" s="4"/>
+      <c r="S5" s="4"/>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="10" t="s">
+        <v>775</v>
+      </c>
+      <c r="B6" s="10" t="s">
         <v>776</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>777</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>226</v>
@@ -10081,13 +10485,18 @@
       <c r="L6" s="4"/>
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>
-    </row>
-    <row r="7" spans="1:17">
+      <c r="O6" s="4"/>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="4"/>
+      <c r="R6" s="4"/>
+      <c r="S6" s="4"/>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="10" t="s">
+        <v>777</v>
+      </c>
+      <c r="B7" s="10" t="s">
         <v>778</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>779</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>226</v>
@@ -10096,20 +10505,33 @@
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
+      <c r="H7" s="4" t="s">
+        <v>789</v>
+      </c>
       <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
+      <c r="J7" s="4" t="s">
+        <v>785</v>
+      </c>
+      <c r="K7" s="4" t="s">
+        <v>786</v>
+      </c>
+      <c r="L7" s="4" t="s">
+        <v>787</v>
+      </c>
       <c r="M7" s="4"/>
       <c r="N7" s="4"/>
-    </row>
-    <row r="8" spans="1:17">
+      <c r="O7" s="4"/>
+      <c r="P7" s="4"/>
+      <c r="Q7" s="4"/>
+      <c r="R7" s="4"/>
+      <c r="S7" s="4"/>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="10" t="s">
+        <v>779</v>
+      </c>
+      <c r="B8" s="10" t="s">
         <v>780</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>781</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>226</v>
@@ -10125,13 +10547,18 @@
       <c r="L8" s="4"/>
       <c r="M8" s="4"/>
       <c r="N8" s="4"/>
-    </row>
-    <row r="9" spans="1:17">
+      <c r="O8" s="4"/>
+      <c r="P8" s="4"/>
+      <c r="Q8" s="4"/>
+      <c r="R8" s="4"/>
+      <c r="S8" s="4"/>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="10" t="s">
+        <v>781</v>
+      </c>
+      <c r="B9" s="10" t="s">
         <v>782</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>783</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>226</v>
@@ -10147,13 +10574,22 @@
       <c r="L9" s="4"/>
       <c r="M9" s="4"/>
       <c r="N9" s="4"/>
-    </row>
-    <row r="10" spans="1:17">
+      <c r="O9" s="4"/>
+      <c r="P9" s="4"/>
+      <c r="Q9" s="4"/>
+      <c r="R9" s="4" t="s">
+        <v>791</v>
+      </c>
+      <c r="S9" s="4" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="10" t="s">
+        <v>783</v>
+      </c>
+      <c r="B10" s="10" t="s">
         <v>784</v>
-      </c>
-      <c r="B10" s="10" t="s">
-        <v>785</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>226</v>
@@ -10169,6 +10605,11 @@
       <c r="L10" s="4"/>
       <c r="M10" s="4"/>
       <c r="N10" s="4"/>
+      <c r="O10" s="4"/>
+      <c r="P10" s="4"/>
+      <c r="Q10" s="4"/>
+      <c r="R10" s="4"/>
+      <c r="S10" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10249,7 +10690,7 @@
         <v>12</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
@@ -10270,7 +10711,7 @@
         <v>20</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>13</v>
@@ -10301,7 +10742,7 @@
         <v>26</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4" t="s">
@@ -10328,7 +10769,7 @@
         <v>41</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
@@ -10357,7 +10798,7 @@
         <v>18</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>13</v>
@@ -10385,10 +10826,10 @@
         <v>139</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
@@ -10450,28 +10891,28 @@
         <v>113</v>
       </c>
       <c r="F1" s="3" t="s">
+        <v>465</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>466</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>467</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>468</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>469</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>470</v>
       </c>
-      <c r="K1" s="3" t="s">
-        <v>471</v>
-      </c>
       <c r="L1" s="3" t="s">
+        <v>488</v>
+      </c>
+      <c r="M1" s="3" t="s">
         <v>489</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>490</v>
       </c>
     </row>
     <row r="2" spans="1:13">
@@ -10545,10 +10986,10 @@
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="10" t="s">
+        <v>463</v>
+      </c>
+      <c r="B5" s="10" t="s">
         <v>464</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>465</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>112</v>
@@ -10556,32 +10997,32 @@
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
       <c r="F5" s="4" t="s">
+        <v>471</v>
+      </c>
+      <c r="G5" s="4" t="s">
         <v>472</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="H5" s="4" t="s">
         <v>473</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="I5" s="4" t="s">
         <v>474</v>
       </c>
-      <c r="I5" s="4" t="s">
+      <c r="J5" s="4" t="s">
         <v>475</v>
       </c>
-      <c r="J5" s="4" t="s">
+      <c r="K5" s="4" t="s">
         <v>476</v>
-      </c>
-      <c r="K5" s="4" t="s">
-        <v>477</v>
       </c>
       <c r="L5" s="4"/>
       <c r="M5" s="4"/>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="10" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>112</v>
@@ -10599,10 +11040,10 @@
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="10" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>112</v>
@@ -10616,10 +11057,10 @@
       <c r="J7" s="4"/>
       <c r="K7" s="4"/>
       <c r="L7" s="4" t="s">
+        <v>490</v>
+      </c>
+      <c r="M7" s="4" t="s">
         <v>491</v>
-      </c>
-      <c r="M7" s="4" t="s">
-        <v>492</v>
       </c>
     </row>
   </sheetData>
@@ -10662,28 +11103,28 @@
         <v>10</v>
       </c>
       <c r="D1" s="3" t="s">
+        <v>444</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>445</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>446</v>
       </c>
-      <c r="F1" s="3" t="s">
-        <v>447</v>
-      </c>
       <c r="G1" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>439</v>
       </c>
-      <c r="H1" s="3" t="s">
-        <v>440</v>
-      </c>
       <c r="I1" s="3" t="s">
+        <v>442</v>
+      </c>
+      <c r="J1" s="3" t="s">
         <v>443</v>
       </c>
-      <c r="J1" s="3" t="s">
-        <v>444</v>
-      </c>
       <c r="K1" s="3" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="2" spans="1:11">
@@ -10697,7 +11138,7 @@
         <v>115</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="E2" s="12" t="s">
         <v>53</v>
@@ -10708,36 +11149,36 @@
       <c r="G2" s="12"/>
       <c r="H2" s="12"/>
       <c r="I2" s="12" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="J2" s="12"/>
       <c r="K2" s="12"/>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="11" t="s">
+        <v>425</v>
+      </c>
+      <c r="B3" s="11" t="s">
         <v>426</v>
       </c>
-      <c r="B3" s="11" t="s">
-        <v>427</v>
-      </c>
       <c r="C3" s="12" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="F3" s="12"/>
       <c r="G3" s="12" t="s">
+        <v>440</v>
+      </c>
+      <c r="H3" s="12" t="s">
         <v>441</v>
       </c>
-      <c r="H3" s="12" t="s">
-        <v>442</v>
-      </c>
       <c r="I3" s="12" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="J3" s="12" t="s">
         <v>54</v>
@@ -10746,13 +11187,13 @@
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="11" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D4" s="12"/>
       <c r="E4" s="12"/>
@@ -10765,29 +11206,29 @@
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="11" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="E5" s="12"/>
       <c r="F5" s="12" t="s">
+        <v>456</v>
+      </c>
+      <c r="G5" s="12" t="s">
         <v>457</v>
       </c>
-      <c r="G5" s="12" t="s">
+      <c r="H5" s="12" t="s">
         <v>458</v>
       </c>
-      <c r="H5" s="12" t="s">
-        <v>459</v>
-      </c>
       <c r="I5" s="12" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="J5" s="12" t="s">
         <v>54</v>
@@ -10796,27 +11237,27 @@
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="11" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="G6" s="12"/>
       <c r="H6" s="12"/>
       <c r="I6" s="12" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="J6" s="12" t="s">
         <v>54</v>
@@ -10825,13 +11266,13 @@
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="11" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D7" s="12"/>
       <c r="E7" s="12"/>
@@ -10844,13 +11285,13 @@
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="11" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D8" s="12"/>
       <c r="E8" s="12"/>
@@ -11043,10 +11484,10 @@
         <v>56</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="F2" s="12" t="s">
         <v>87</v>
@@ -11372,10 +11813,10 @@
         <v>192</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="F2" s="12" t="s">
         <v>193</v>
@@ -11488,10 +11929,10 @@
         <v>192</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="F5" s="12" t="s">
         <v>193</v>

--- a/KULS_Sankar/TestData/ijaraTestData.xlsx
+++ b/KULS_Sankar/TestData/ijaraTestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="72" windowWidth="23256" windowHeight="12600" firstSheet="11" activeTab="11"/>
+    <workbookView xWindow="0" yWindow="72" windowWidth="23256" windowHeight="12600" firstSheet="13" activeTab="17"/>
   </bookViews>
   <sheets>
     <sheet name="AllFeaturesAutomationInfo" sheetId="8" r:id="rId1"/>
@@ -27,13 +27,15 @@
     <sheet name="AL_Underwriter_L1" sheetId="18" r:id="rId18"/>
     <sheet name="TW_DataCheck_AppDetails" sheetId="19" r:id="rId19"/>
     <sheet name="MU_AppData_AssetDetails" sheetId="20" r:id="rId20"/>
+    <sheet name="MU_DataCheck_AddressDetails" sheetId="21" r:id="rId21"/>
+    <sheet name="Ijarah_CS_RepaymentMode" sheetId="22" r:id="rId22"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1905" uniqueCount="805">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1987" uniqueCount="834">
   <si>
     <t>UserName</t>
   </si>
@@ -1243,9 +1245,6 @@
     <t>75</t>
   </si>
   <si>
-    <t>3004</t>
-  </si>
-  <si>
     <t>Sprint - 69</t>
   </si>
   <si>
@@ -2496,6 +2495,98 @@
   </si>
   <si>
     <t>IAD_04_07, IAD_04_08</t>
+  </si>
+  <si>
+    <t>0158</t>
+  </si>
+  <si>
+    <t>AT_MU_DATACHECK_ADC_01</t>
+  </si>
+  <si>
+    <t>DS_AT_MU_DATACHECK_ADC_01</t>
+  </si>
+  <si>
+    <t>AT_MU_DATACHECK_ADC_02</t>
+  </si>
+  <si>
+    <t>DS_AT_MU_DATACHECK_ADC_02</t>
+  </si>
+  <si>
+    <t>AT_MU_DATACHECK_ADC_03</t>
+  </si>
+  <si>
+    <t>DS_AT_MU_DATACHECK_ADC_03</t>
+  </si>
+  <si>
+    <t>AT_MU_DATACHECK_ADC_04</t>
+  </si>
+  <si>
+    <t>DS_AT_MU_DATACHECK_ADC_04</t>
+  </si>
+  <si>
+    <t>AT_MU_DATACHECK_ADC_05</t>
+  </si>
+  <si>
+    <t>DS_AT_MU_DATACHECK_ADC_05</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>Canada</t>
+  </si>
+  <si>
+    <t>0360</t>
+  </si>
+  <si>
+    <t>0365</t>
+  </si>
+  <si>
+    <t>AT_CS_RDC_01</t>
+  </si>
+  <si>
+    <t>AT_CS_RDC_02</t>
+  </si>
+  <si>
+    <t>DS_AT_CS_RDC_01</t>
+  </si>
+  <si>
+    <t>DS_AT_CS_RDC_02</t>
+  </si>
+  <si>
+    <t>Murabaha - Data check
+Address Details screen</t>
+  </si>
+  <si>
+    <t>Ijarah - Constract Signing
+Repayment Mode screen</t>
+  </si>
+  <si>
+    <t>Sprint - 80</t>
+  </si>
+  <si>
+    <t>MU_DataCheck_AddressDetails.feature</t>
+  </si>
+  <si>
+    <t>Ijarah_ContractSign_RepaymentMode.feature</t>
+  </si>
+  <si>
+    <t>ADC_01_30, ADC_01_31</t>
+  </si>
+  <si>
+    <t>ADC_01_32, ADC_01_33</t>
+  </si>
+  <si>
+    <t>ADC_01_34, ADC_01_35</t>
+  </si>
+  <si>
+    <t>RDC_01_01 , RDC_01_02</t>
+  </si>
+  <si>
+    <t>RDC_01_05  --&gt; RDC_01_16</t>
+  </si>
+  <si>
+    <t>ADC_01_05  --&gt; ADC_01_29</t>
   </si>
 </sst>
 </file>
@@ -2505,7 +2596,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="15">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2611,8 +2702,14 @@
       <charset val="1"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF444444"/>
+      <name val="Aptos Narrow"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2665,6 +2762,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -2813,7 +2916,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="106">
+  <cellXfs count="111">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3007,19 +3110,39 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3034,27 +3157,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -3352,18 +3468,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K162"/>
+  <dimension ref="A1:K170"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A122" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K138" sqref="K138"/>
+      <pane ySplit="1" topLeftCell="A150" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K176" sqref="K176"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="25" style="23" customWidth="1"/>
-    <col min="2" max="2" width="10.44140625" style="23" customWidth="1"/>
-    <col min="3" max="3" width="23.33203125" customWidth="1"/>
+    <col min="2" max="2" width="14.6640625" style="23" customWidth="1"/>
+    <col min="3" max="3" width="30.44140625" customWidth="1"/>
     <col min="4" max="4" width="13.5546875" customWidth="1"/>
     <col min="5" max="5" width="11" customWidth="1"/>
     <col min="6" max="6" width="17.109375" customWidth="1"/>
@@ -3411,10 +3527,10 @@
       </c>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="89" t="s">
-        <v>662</v>
-      </c>
-      <c r="B2" s="91" t="s">
+      <c r="A2" s="98" t="s">
+        <v>661</v>
+      </c>
+      <c r="B2" s="106" t="s">
         <v>127</v>
       </c>
       <c r="C2" s="20" t="s">
@@ -3433,10 +3549,10 @@
         <v>133</v>
       </c>
       <c r="H2" s="25" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="94" t="s">
+      <c r="J2" s="102" t="s">
         <v>133</v>
       </c>
       <c r="K2" s="25" t="s">
@@ -3444,8 +3560,8 @@
       </c>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="90"/>
-      <c r="B3" s="92"/>
+      <c r="A3" s="97"/>
+      <c r="B3" s="107"/>
       <c r="C3" s="20" t="s">
         <v>21</v>
       </c>
@@ -3462,17 +3578,17 @@
         <v>133</v>
       </c>
       <c r="H3" s="25" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="I3" s="25"/>
-      <c r="J3" s="95"/>
+      <c r="J3" s="103"/>
       <c r="K3" s="25" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="90"/>
-      <c r="B4" s="92"/>
+      <c r="A4" s="97"/>
+      <c r="B4" s="107"/>
       <c r="C4" s="20" t="s">
         <v>27</v>
       </c>
@@ -3489,17 +3605,17 @@
         <v>133</v>
       </c>
       <c r="H4" s="25" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="I4" s="25"/>
-      <c r="J4" s="95"/>
+      <c r="J4" s="103"/>
       <c r="K4" s="25" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="90"/>
-      <c r="B5" s="93"/>
+      <c r="A5" s="97"/>
+      <c r="B5" s="108"/>
       <c r="C5" s="20" t="s">
         <v>19</v>
       </c>
@@ -3516,10 +3632,10 @@
         <v>133</v>
       </c>
       <c r="H5" s="25" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="I5" s="25"/>
-      <c r="J5" s="96"/>
+      <c r="J5" s="104"/>
       <c r="K5" s="25" t="s">
         <v>131</v>
       </c>
@@ -3538,10 +3654,10 @@
       <c r="K6" s="25"/>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="90" t="s">
-        <v>661</v>
-      </c>
-      <c r="B7" s="91" t="s">
+      <c r="A7" s="97" t="s">
+        <v>660</v>
+      </c>
+      <c r="B7" s="106" t="s">
         <v>140</v>
       </c>
       <c r="C7" s="20" t="s">
@@ -3560,10 +3676,10 @@
         <v>133</v>
       </c>
       <c r="H7" s="25" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="I7" s="25"/>
-      <c r="J7" s="94" t="s">
+      <c r="J7" s="102" t="s">
         <v>133</v>
       </c>
       <c r="K7" s="21" t="s">
@@ -3571,8 +3687,8 @@
       </c>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="90"/>
-      <c r="B8" s="92"/>
+      <c r="A8" s="97"/>
+      <c r="B8" s="107"/>
       <c r="C8" s="20" t="s">
         <v>136</v>
       </c>
@@ -3589,17 +3705,17 @@
         <v>133</v>
       </c>
       <c r="H8" s="25" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="I8" s="25"/>
-      <c r="J8" s="95"/>
+      <c r="J8" s="103"/>
       <c r="K8" s="25" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" s="90"/>
-      <c r="B9" s="92"/>
+      <c r="A9" s="97"/>
+      <c r="B9" s="107"/>
       <c r="C9" s="20" t="s">
         <v>137</v>
       </c>
@@ -3616,17 +3732,17 @@
         <v>133</v>
       </c>
       <c r="H9" s="25" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="I9" s="25"/>
-      <c r="J9" s="95"/>
+      <c r="J9" s="103"/>
       <c r="K9" s="25" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="10" spans="1:11">
-      <c r="A10" s="90"/>
-      <c r="B10" s="92"/>
+      <c r="A10" s="97"/>
+      <c r="B10" s="107"/>
       <c r="C10" s="20" t="s">
         <v>138</v>
       </c>
@@ -3643,19 +3759,19 @@
         <v>133</v>
       </c>
       <c r="H10" s="25" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="I10" s="25"/>
-      <c r="J10" s="96"/>
+      <c r="J10" s="104"/>
       <c r="K10" s="25" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="11" spans="1:11" s="72" customFormat="1" ht="28.8">
       <c r="A11" s="68" t="s">
-        <v>660</v>
-      </c>
-      <c r="B11" s="92"/>
+        <v>659</v>
+      </c>
+      <c r="B11" s="107"/>
       <c r="C11" s="71" t="s">
         <v>51</v>
       </c>
@@ -3672,7 +3788,7 @@
         <v>133</v>
       </c>
       <c r="H11" s="53" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="I11" s="53"/>
       <c r="J11" s="79"/>
@@ -3681,10 +3797,10 @@
       </c>
     </row>
     <row r="12" spans="1:11">
-      <c r="A12" s="89" t="s">
-        <v>659</v>
-      </c>
-      <c r="B12" s="92"/>
+      <c r="A12" s="98" t="s">
+        <v>658</v>
+      </c>
+      <c r="B12" s="107"/>
       <c r="C12" s="20" t="s">
         <v>42</v>
       </c>
@@ -3704,16 +3820,16 @@
         <v>134</v>
       </c>
       <c r="I12" s="25"/>
-      <c r="J12" s="97" t="s">
-        <v>704</v>
+      <c r="J12" s="105" t="s">
+        <v>703</v>
       </c>
       <c r="K12" s="25" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="13" spans="1:11">
-      <c r="A13" s="90"/>
-      <c r="B13" s="93"/>
+      <c r="A13" s="97"/>
+      <c r="B13" s="108"/>
       <c r="C13" s="20" t="s">
         <v>139</v>
       </c>
@@ -3733,7 +3849,7 @@
         <v>134</v>
       </c>
       <c r="I13" s="25"/>
-      <c r="J13" s="96"/>
+      <c r="J13" s="104"/>
       <c r="K13" s="25" t="s">
         <v>147</v>
       </c>
@@ -3752,10 +3868,10 @@
       <c r="K14" s="25"/>
     </row>
     <row r="15" spans="1:11">
-      <c r="A15" s="89" t="s">
-        <v>657</v>
-      </c>
-      <c r="B15" s="91" t="s">
+      <c r="A15" s="98" t="s">
+        <v>656</v>
+      </c>
+      <c r="B15" s="106" t="s">
         <v>149</v>
       </c>
       <c r="C15" s="20" t="s">
@@ -3774,7 +3890,7 @@
         <v>133</v>
       </c>
       <c r="H15" s="25" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="I15" s="25"/>
       <c r="J15" s="79"/>
@@ -3783,8 +3899,8 @@
       </c>
     </row>
     <row r="16" spans="1:11">
-      <c r="A16" s="90"/>
-      <c r="B16" s="92"/>
+      <c r="A16" s="97"/>
+      <c r="B16" s="107"/>
       <c r="C16" s="20" t="s">
         <v>60</v>
       </c>
@@ -3801,7 +3917,7 @@
         <v>133</v>
       </c>
       <c r="H16" s="25" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="I16" s="25"/>
       <c r="J16" s="79"/>
@@ -3810,8 +3926,8 @@
       </c>
     </row>
     <row r="17" spans="1:11">
-      <c r="A17" s="90"/>
-      <c r="B17" s="92"/>
+      <c r="A17" s="97"/>
+      <c r="B17" s="107"/>
       <c r="C17" s="20" t="s">
         <v>61</v>
       </c>
@@ -3828,7 +3944,7 @@
         <v>133</v>
       </c>
       <c r="H17" s="25" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="I17" s="25"/>
       <c r="J17" s="79"/>
@@ -3837,8 +3953,8 @@
       </c>
     </row>
     <row r="18" spans="1:11">
-      <c r="A18" s="90"/>
-      <c r="B18" s="92"/>
+      <c r="A18" s="97"/>
+      <c r="B18" s="107"/>
       <c r="C18" s="20" t="s">
         <v>62</v>
       </c>
@@ -3855,7 +3971,7 @@
         <v>133</v>
       </c>
       <c r="H18" s="25" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="I18" s="25"/>
       <c r="J18" s="79"/>
@@ -3864,8 +3980,8 @@
       </c>
     </row>
     <row r="19" spans="1:11">
-      <c r="A19" s="90"/>
-      <c r="B19" s="92"/>
+      <c r="A19" s="97"/>
+      <c r="B19" s="107"/>
       <c r="C19" s="20" t="s">
         <v>67</v>
       </c>
@@ -3882,7 +3998,7 @@
         <v>133</v>
       </c>
       <c r="H19" s="25" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="I19" s="25"/>
       <c r="J19" s="79"/>
@@ -3891,8 +4007,8 @@
       </c>
     </row>
     <row r="20" spans="1:11">
-      <c r="A20" s="90"/>
-      <c r="B20" s="93"/>
+      <c r="A20" s="97"/>
+      <c r="B20" s="108"/>
       <c r="C20" s="20" t="s">
         <v>68</v>
       </c>
@@ -3909,7 +4025,7 @@
         <v>133</v>
       </c>
       <c r="H20" s="25" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="I20" s="25"/>
       <c r="J20" s="79"/>
@@ -3931,10 +4047,10 @@
       <c r="K21" s="25"/>
     </row>
     <row r="22" spans="1:11">
-      <c r="A22" s="89" t="s">
-        <v>655</v>
-      </c>
-      <c r="B22" s="91" t="s">
+      <c r="A22" s="98" t="s">
+        <v>654</v>
+      </c>
+      <c r="B22" s="106" t="s">
         <v>157</v>
       </c>
       <c r="C22" s="20" t="s">
@@ -3953,7 +4069,7 @@
         <v>133</v>
       </c>
       <c r="H22" s="25" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="I22" s="25"/>
       <c r="J22" s="79"/>
@@ -3962,8 +4078,8 @@
       </c>
     </row>
     <row r="23" spans="1:11">
-      <c r="A23" s="90"/>
-      <c r="B23" s="92"/>
+      <c r="A23" s="97"/>
+      <c r="B23" s="107"/>
       <c r="C23" s="20" t="s">
         <v>73</v>
       </c>
@@ -3980,7 +4096,7 @@
         <v>133</v>
       </c>
       <c r="H23" s="25" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="I23" s="25"/>
       <c r="J23" s="79"/>
@@ -3989,8 +4105,8 @@
       </c>
     </row>
     <row r="24" spans="1:11">
-      <c r="A24" s="90"/>
-      <c r="B24" s="92"/>
+      <c r="A24" s="97"/>
+      <c r="B24" s="107"/>
       <c r="C24" s="20" t="s">
         <v>74</v>
       </c>
@@ -4007,7 +4123,7 @@
         <v>133</v>
       </c>
       <c r="H24" s="25" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="I24" s="25"/>
       <c r="J24" s="79"/>
@@ -4016,8 +4132,8 @@
       </c>
     </row>
     <row r="25" spans="1:11">
-      <c r="A25" s="90"/>
-      <c r="B25" s="92"/>
+      <c r="A25" s="97"/>
+      <c r="B25" s="107"/>
       <c r="C25" s="20" t="s">
         <v>76</v>
       </c>
@@ -4034,7 +4150,7 @@
         <v>133</v>
       </c>
       <c r="H25" s="25" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="I25" s="25"/>
       <c r="J25" s="79"/>
@@ -4043,8 +4159,8 @@
       </c>
     </row>
     <row r="26" spans="1:11">
-      <c r="A26" s="90"/>
-      <c r="B26" s="93"/>
+      <c r="A26" s="97"/>
+      <c r="B26" s="108"/>
       <c r="C26" s="20" t="s">
         <v>95</v>
       </c>
@@ -4061,7 +4177,7 @@
         <v>133</v>
       </c>
       <c r="H26" s="25" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="I26" s="25"/>
       <c r="J26" s="79"/>
@@ -4083,10 +4199,10 @@
       <c r="K27" s="25"/>
     </row>
     <row r="28" spans="1:11">
-      <c r="A28" s="89" t="s">
-        <v>656</v>
-      </c>
-      <c r="B28" s="91" t="s">
+      <c r="A28" s="98" t="s">
+        <v>655</v>
+      </c>
+      <c r="B28" s="106" t="s">
         <v>163</v>
       </c>
       <c r="C28" s="20" t="s">
@@ -4105,7 +4221,7 @@
         <v>133</v>
       </c>
       <c r="H28" s="25" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="I28" s="25"/>
       <c r="J28" s="79"/>
@@ -4114,8 +4230,8 @@
       </c>
     </row>
     <row r="29" spans="1:11">
-      <c r="A29" s="90"/>
-      <c r="B29" s="92"/>
+      <c r="A29" s="97"/>
+      <c r="B29" s="107"/>
       <c r="C29" s="20" t="s">
         <v>108</v>
       </c>
@@ -4132,7 +4248,7 @@
         <v>133</v>
       </c>
       <c r="H29" s="25" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="I29" s="25"/>
       <c r="J29" s="79"/>
@@ -4141,8 +4257,8 @@
       </c>
     </row>
     <row r="30" spans="1:11">
-      <c r="A30" s="90"/>
-      <c r="B30" s="92"/>
+      <c r="A30" s="97"/>
+      <c r="B30" s="107"/>
       <c r="C30" s="20" t="s">
         <v>109</v>
       </c>
@@ -4159,7 +4275,7 @@
         <v>133</v>
       </c>
       <c r="H30" s="25" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="I30" s="25"/>
       <c r="J30" s="79"/>
@@ -4168,8 +4284,8 @@
       </c>
     </row>
     <row r="31" spans="1:11">
-      <c r="A31" s="90"/>
-      <c r="B31" s="92"/>
+      <c r="A31" s="97"/>
+      <c r="B31" s="107"/>
       <c r="C31" s="20" t="s">
         <v>110</v>
       </c>
@@ -4186,7 +4302,7 @@
         <v>133</v>
       </c>
       <c r="H31" s="25" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="I31" s="25"/>
       <c r="J31" s="79"/>
@@ -4195,8 +4311,8 @@
       </c>
     </row>
     <row r="32" spans="1:11">
-      <c r="A32" s="90"/>
-      <c r="B32" s="92"/>
+      <c r="A32" s="97"/>
+      <c r="B32" s="107"/>
       <c r="C32" s="20" t="s">
         <v>111</v>
       </c>
@@ -4213,7 +4329,7 @@
         <v>133</v>
       </c>
       <c r="H32" s="25" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="I32" s="25"/>
       <c r="J32" s="79"/>
@@ -4222,8 +4338,8 @@
       </c>
     </row>
     <row r="33" spans="1:11">
-      <c r="A33" s="90"/>
-      <c r="B33" s="93"/>
+      <c r="A33" s="97"/>
+      <c r="B33" s="108"/>
       <c r="C33" s="20" t="s">
         <v>117</v>
       </c>
@@ -4240,7 +4356,7 @@
         <v>133</v>
       </c>
       <c r="H33" s="25" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="I33" s="25"/>
       <c r="J33" s="79"/>
@@ -4261,10 +4377,10 @@
       <c r="K34" s="25"/>
     </row>
     <row r="35" spans="1:11">
-      <c r="A35" s="89" t="s">
-        <v>658</v>
-      </c>
-      <c r="B35" s="91" t="s">
+      <c r="A35" s="98" t="s">
+        <v>657</v>
+      </c>
+      <c r="B35" s="106" t="s">
         <v>208</v>
       </c>
       <c r="C35" s="29" t="s">
@@ -4283,7 +4399,7 @@
         <v>133</v>
       </c>
       <c r="H35" s="30" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="I35" s="25"/>
       <c r="K35" s="25" t="s">
@@ -4291,8 +4407,8 @@
       </c>
     </row>
     <row r="36" spans="1:11">
-      <c r="A36" s="90"/>
-      <c r="B36" s="92"/>
+      <c r="A36" s="97"/>
+      <c r="B36" s="107"/>
       <c r="C36" s="29" t="s">
         <v>176</v>
       </c>
@@ -4309,7 +4425,7 @@
         <v>133</v>
       </c>
       <c r="H36" s="30" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="I36" s="25"/>
       <c r="K36" s="25" t="s">
@@ -4317,8 +4433,8 @@
       </c>
     </row>
     <row r="37" spans="1:11">
-      <c r="A37" s="90"/>
-      <c r="B37" s="92"/>
+      <c r="A37" s="97"/>
+      <c r="B37" s="107"/>
       <c r="C37" s="29" t="s">
         <v>178</v>
       </c>
@@ -4335,7 +4451,7 @@
         <v>133</v>
       </c>
       <c r="H37" s="30" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="I37" s="25"/>
       <c r="K37" s="25" t="s">
@@ -4343,8 +4459,8 @@
       </c>
     </row>
     <row r="38" spans="1:11">
-      <c r="A38" s="90"/>
-      <c r="B38" s="92"/>
+      <c r="A38" s="97"/>
+      <c r="B38" s="107"/>
       <c r="C38" s="29" t="s">
         <v>179</v>
       </c>
@@ -4361,7 +4477,7 @@
         <v>133</v>
       </c>
       <c r="H38" s="30" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="I38" s="25"/>
       <c r="K38" s="25" t="s">
@@ -4369,8 +4485,8 @@
       </c>
     </row>
     <row r="39" spans="1:11">
-      <c r="A39" s="90"/>
-      <c r="B39" s="93"/>
+      <c r="A39" s="97"/>
+      <c r="B39" s="108"/>
       <c r="C39" s="29" t="s">
         <v>180</v>
       </c>
@@ -4387,7 +4503,7 @@
         <v>133</v>
       </c>
       <c r="H39" s="30" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="I39" s="25"/>
       <c r="K39" s="25" t="s">
@@ -4407,10 +4523,10 @@
       <c r="K40" s="25"/>
     </row>
     <row r="41" spans="1:11">
-      <c r="A41" s="89" t="s">
-        <v>405</v>
-      </c>
-      <c r="B41" s="91" t="s">
+      <c r="A41" s="98" t="s">
+        <v>404</v>
+      </c>
+      <c r="B41" s="106" t="s">
         <v>209</v>
       </c>
       <c r="C41" s="31" t="s">
@@ -4437,8 +4553,8 @@
       </c>
     </row>
     <row r="42" spans="1:11">
-      <c r="A42" s="90"/>
-      <c r="B42" s="92"/>
+      <c r="A42" s="97"/>
+      <c r="B42" s="107"/>
       <c r="C42" s="31" t="s">
         <v>211</v>
       </c>
@@ -4463,8 +4579,8 @@
       </c>
     </row>
     <row r="43" spans="1:11">
-      <c r="A43" s="90"/>
-      <c r="B43" s="92"/>
+      <c r="A43" s="97"/>
+      <c r="B43" s="107"/>
       <c r="C43" s="31" t="s">
         <v>212</v>
       </c>
@@ -4489,8 +4605,8 @@
       </c>
     </row>
     <row r="44" spans="1:11">
-      <c r="A44" s="90"/>
-      <c r="B44" s="92"/>
+      <c r="A44" s="97"/>
+      <c r="B44" s="107"/>
       <c r="C44" s="31" t="s">
         <v>213</v>
       </c>
@@ -4515,8 +4631,8 @@
       </c>
     </row>
     <row r="45" spans="1:11">
-      <c r="A45" s="90"/>
-      <c r="B45" s="93"/>
+      <c r="A45" s="97"/>
+      <c r="B45" s="108"/>
       <c r="C45" s="33" t="s">
         <v>214</v>
       </c>
@@ -4547,10 +4663,10 @@
       <c r="J46" s="79"/>
     </row>
     <row r="47" spans="1:11">
-      <c r="A47" s="89" t="s">
-        <v>405</v>
-      </c>
-      <c r="B47" s="98" t="s">
+      <c r="A47" s="98" t="s">
+        <v>404</v>
+      </c>
+      <c r="B47" s="99" t="s">
         <v>246</v>
       </c>
       <c r="C47" s="35" t="s">
@@ -4573,12 +4689,12 @@
       </c>
       <c r="I47" s="25"/>
       <c r="K47" s="34" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
     </row>
     <row r="48" spans="1:11">
-      <c r="A48" s="90"/>
-      <c r="B48" s="99"/>
+      <c r="A48" s="97"/>
+      <c r="B48" s="100"/>
       <c r="C48" s="31" t="s">
         <v>243</v>
       </c>
@@ -4599,12 +4715,12 @@
       </c>
       <c r="I48" s="25"/>
       <c r="K48" s="25" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="49" spans="1:11">
-      <c r="A49" s="90"/>
-      <c r="B49" s="99"/>
+      <c r="A49" s="97"/>
+      <c r="B49" s="100"/>
       <c r="C49" s="31" t="s">
         <v>244</v>
       </c>
@@ -4625,12 +4741,12 @@
       </c>
       <c r="I49" s="25"/>
       <c r="K49" s="25" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
     </row>
     <row r="50" spans="1:11">
-      <c r="A50" s="90"/>
-      <c r="B50" s="99"/>
+      <c r="A50" s="97"/>
+      <c r="B50" s="100"/>
       <c r="C50" s="31" t="s">
         <v>245</v>
       </c>
@@ -4651,14 +4767,14 @@
       </c>
       <c r="I50" s="25"/>
       <c r="K50" s="25" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
     </row>
     <row r="51" spans="1:11">
-      <c r="A51" s="89" t="s">
-        <v>404</v>
-      </c>
-      <c r="B51" s="99"/>
+      <c r="A51" s="98" t="s">
+        <v>403</v>
+      </c>
+      <c r="B51" s="100"/>
       <c r="C51" s="20" t="s">
         <v>252</v>
       </c>
@@ -4679,12 +4795,12 @@
       </c>
       <c r="I51" s="25"/>
       <c r="K51" s="25" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="52" spans="1:11">
-      <c r="A52" s="90"/>
-      <c r="B52" s="99"/>
+      <c r="A52" s="97"/>
+      <c r="B52" s="100"/>
       <c r="C52" s="20" t="s">
         <v>253</v>
       </c>
@@ -4705,12 +4821,12 @@
       </c>
       <c r="I52" s="25"/>
       <c r="K52" s="25" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="53" spans="1:11">
-      <c r="A53" s="90"/>
-      <c r="B53" s="99"/>
+      <c r="A53" s="97"/>
+      <c r="B53" s="100"/>
       <c r="C53" s="20" t="s">
         <v>254</v>
       </c>
@@ -4731,12 +4847,12 @@
       </c>
       <c r="I53" s="25"/>
       <c r="K53" s="25" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
     </row>
     <row r="54" spans="1:11">
-      <c r="A54" s="90"/>
-      <c r="B54" s="99"/>
+      <c r="A54" s="97"/>
+      <c r="B54" s="100"/>
       <c r="C54" s="20" t="s">
         <v>255</v>
       </c>
@@ -4757,12 +4873,12 @@
       </c>
       <c r="I54" s="25"/>
       <c r="K54" s="25" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
     </row>
     <row r="55" spans="1:11">
-      <c r="A55" s="90"/>
-      <c r="B55" s="100"/>
+      <c r="A55" s="97"/>
+      <c r="B55" s="101"/>
       <c r="C55" s="20" t="s">
         <v>256</v>
       </c>
@@ -4783,7 +4899,7 @@
       </c>
       <c r="I55" s="25"/>
       <c r="K55" s="25" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="56" spans="1:11">
@@ -4792,9 +4908,9 @@
     </row>
     <row r="57" spans="1:11" s="46" customFormat="1" ht="28.8">
       <c r="A57" s="45" t="s">
-        <v>406</v>
-      </c>
-      <c r="B57" s="90" t="s">
+        <v>405</v>
+      </c>
+      <c r="B57" s="97" t="s">
         <v>289</v>
       </c>
       <c r="C57" s="54" t="s">
@@ -4822,10 +4938,10 @@
       </c>
     </row>
     <row r="58" spans="1:11">
-      <c r="A58" s="89" t="s">
-        <v>407</v>
-      </c>
-      <c r="B58" s="90"/>
+      <c r="A58" s="98" t="s">
+        <v>406</v>
+      </c>
+      <c r="B58" s="97"/>
       <c r="C58" s="38" t="s">
         <v>272</v>
       </c>
@@ -4850,8 +4966,8 @@
       </c>
     </row>
     <row r="59" spans="1:11">
-      <c r="A59" s="90"/>
-      <c r="B59" s="90"/>
+      <c r="A59" s="97"/>
+      <c r="B59" s="97"/>
       <c r="C59" s="31" t="s">
         <v>275</v>
       </c>
@@ -4876,8 +4992,8 @@
       </c>
     </row>
     <row r="60" spans="1:11">
-      <c r="A60" s="90"/>
-      <c r="B60" s="90"/>
+      <c r="A60" s="97"/>
+      <c r="B60" s="97"/>
       <c r="C60" s="38" t="s">
         <v>267</v>
       </c>
@@ -4906,10 +5022,10 @@
       <c r="I61" s="25"/>
     </row>
     <row r="62" spans="1:11">
-      <c r="A62" s="89" t="s">
-        <v>408</v>
-      </c>
-      <c r="B62" s="90" t="s">
+      <c r="A62" s="98" t="s">
+        <v>407</v>
+      </c>
+      <c r="B62" s="97" t="s">
         <v>296</v>
       </c>
       <c r="C62" s="39" t="s">
@@ -4936,8 +5052,8 @@
       </c>
     </row>
     <row r="63" spans="1:11">
-      <c r="A63" s="90"/>
-      <c r="B63" s="90"/>
+      <c r="A63" s="97"/>
+      <c r="B63" s="97"/>
       <c r="C63" s="39" t="s">
         <v>298</v>
       </c>
@@ -4962,8 +5078,8 @@
       </c>
     </row>
     <row r="64" spans="1:11">
-      <c r="A64" s="90"/>
-      <c r="B64" s="90"/>
+      <c r="A64" s="97"/>
+      <c r="B64" s="97"/>
       <c r="C64" s="39" t="s">
         <v>299</v>
       </c>
@@ -4988,8 +5104,8 @@
       </c>
     </row>
     <row r="65" spans="1:11">
-      <c r="A65" s="90"/>
-      <c r="B65" s="90"/>
+      <c r="A65" s="97"/>
+      <c r="B65" s="97"/>
       <c r="C65" s="39" t="s">
         <v>300</v>
       </c>
@@ -5014,8 +5130,8 @@
       </c>
     </row>
     <row r="66" spans="1:11">
-      <c r="A66" s="90"/>
-      <c r="B66" s="90"/>
+      <c r="A66" s="97"/>
+      <c r="B66" s="97"/>
       <c r="C66" s="39" t="s">
         <v>301</v>
       </c>
@@ -5040,8 +5156,8 @@
       </c>
     </row>
     <row r="67" spans="1:11">
-      <c r="A67" s="90"/>
-      <c r="B67" s="90"/>
+      <c r="A67" s="97"/>
+      <c r="B67" s="97"/>
       <c r="C67" s="39" t="s">
         <v>302</v>
       </c>
@@ -5066,8 +5182,8 @@
       </c>
     </row>
     <row r="68" spans="1:11">
-      <c r="A68" s="90"/>
-      <c r="B68" s="90"/>
+      <c r="A68" s="97"/>
+      <c r="B68" s="97"/>
       <c r="C68" s="39" t="s">
         <v>303</v>
       </c>
@@ -5092,8 +5208,8 @@
       </c>
     </row>
     <row r="69" spans="1:11">
-      <c r="A69" s="90"/>
-      <c r="B69" s="90"/>
+      <c r="A69" s="97"/>
+      <c r="B69" s="97"/>
       <c r="C69" s="39" t="s">
         <v>304</v>
       </c>
@@ -5122,11 +5238,11 @@
       <c r="I70" s="25"/>
     </row>
     <row r="71" spans="1:11">
-      <c r="A71" s="89" t="s">
-        <v>409</v>
-      </c>
-      <c r="B71" s="90" t="s">
-        <v>396</v>
+      <c r="A71" s="98" t="s">
+        <v>408</v>
+      </c>
+      <c r="B71" s="97" t="s">
+        <v>395</v>
       </c>
       <c r="C71" s="44" t="s">
         <v>365</v>
@@ -5144,16 +5260,16 @@
         <v>133</v>
       </c>
       <c r="H71" s="25" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="I71" s="25"/>
       <c r="K71" s="25" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="72" spans="1:11">
-      <c r="A72" s="90"/>
-      <c r="B72" s="90"/>
+      <c r="A72" s="97"/>
+      <c r="B72" s="97"/>
       <c r="C72" s="44" t="s">
         <v>367</v>
       </c>
@@ -5170,16 +5286,16 @@
         <v>133</v>
       </c>
       <c r="H72" s="25" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="I72" s="25"/>
       <c r="K72" s="25" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="73" spans="1:11">
-      <c r="A73" s="90"/>
-      <c r="B73" s="90"/>
+      <c r="A73" s="97"/>
+      <c r="B73" s="97"/>
       <c r="C73" s="44" t="s">
         <v>369</v>
       </c>
@@ -5196,16 +5312,16 @@
         <v>133</v>
       </c>
       <c r="H73" s="25" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="I73" s="25"/>
       <c r="K73" s="25" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="74" spans="1:11">
-      <c r="A74" s="90"/>
-      <c r="B74" s="90"/>
+      <c r="A74" s="97"/>
+      <c r="B74" s="97"/>
       <c r="C74" s="44" t="s">
         <v>370</v>
       </c>
@@ -5222,16 +5338,16 @@
         <v>133</v>
       </c>
       <c r="H74" s="25" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="I74" s="25"/>
       <c r="K74" s="25" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="75" spans="1:11">
-      <c r="A75" s="90"/>
-      <c r="B75" s="90"/>
+      <c r="A75" s="97"/>
+      <c r="B75" s="97"/>
       <c r="C75" s="44" t="s">
         <v>371</v>
       </c>
@@ -5248,16 +5364,16 @@
         <v>133</v>
       </c>
       <c r="H75" s="25" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="I75" s="25"/>
       <c r="K75" s="25" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="76" spans="1:11">
-      <c r="A76" s="90"/>
-      <c r="B76" s="90"/>
+      <c r="A76" s="97"/>
+      <c r="B76" s="97"/>
       <c r="C76" s="44" t="s">
         <v>372</v>
       </c>
@@ -5274,11 +5390,11 @@
         <v>133</v>
       </c>
       <c r="H76" s="25" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="I76" s="25"/>
       <c r="K76" s="25" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="77" spans="1:11">
@@ -5286,11 +5402,11 @@
       <c r="I77" s="25"/>
     </row>
     <row r="78" spans="1:11">
-      <c r="A78" s="89" t="s">
-        <v>409</v>
-      </c>
-      <c r="B78" s="90" t="s">
-        <v>420</v>
+      <c r="A78" s="98" t="s">
+        <v>408</v>
+      </c>
+      <c r="B78" s="97" t="s">
+        <v>419</v>
       </c>
       <c r="C78" s="50" t="s">
         <v>373</v>
@@ -5308,16 +5424,16 @@
         <v>133</v>
       </c>
       <c r="H78" s="25" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="I78" s="25"/>
       <c r="K78" s="25" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="79" spans="1:11">
-      <c r="A79" s="90"/>
-      <c r="B79" s="90"/>
+      <c r="A79" s="97"/>
+      <c r="B79" s="97"/>
       <c r="C79" s="50" t="s">
         <v>374</v>
       </c>
@@ -5334,18 +5450,18 @@
         <v>133</v>
       </c>
       <c r="H79" s="25" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="I79" s="25"/>
       <c r="K79" s="25" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="80" spans="1:11">
-      <c r="A80" s="90"/>
-      <c r="B80" s="90"/>
+      <c r="A80" s="97"/>
+      <c r="B80" s="97"/>
       <c r="C80" s="50" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D80" s="25" t="s">
         <v>133</v>
@@ -5360,20 +5476,20 @@
         <v>133</v>
       </c>
       <c r="H80" s="25" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="I80" s="25"/>
       <c r="K80" s="25" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="81" spans="1:11" s="49" customFormat="1" ht="28.8">
       <c r="A81" s="48" t="s">
-        <v>419</v>
-      </c>
-      <c r="B81" s="90"/>
+        <v>418</v>
+      </c>
+      <c r="B81" s="97"/>
       <c r="C81" s="51" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="D81" s="21" t="s">
         <v>133</v>
@@ -5388,11 +5504,11 @@
         <v>133</v>
       </c>
       <c r="H81" s="52" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="I81" s="21"/>
       <c r="K81" s="21" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="82" spans="1:11">
@@ -5400,14 +5516,14 @@
       <c r="I82" s="25"/>
     </row>
     <row r="83" spans="1:11">
-      <c r="A83" s="89" t="s">
-        <v>455</v>
-      </c>
-      <c r="B83" s="90" t="s">
-        <v>450</v>
+      <c r="A83" s="98" t="s">
+        <v>454</v>
+      </c>
+      <c r="B83" s="97" t="s">
+        <v>449</v>
       </c>
       <c r="C83" s="29" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D83" s="25" t="s">
         <v>133</v>
@@ -5422,18 +5538,18 @@
         <v>133</v>
       </c>
       <c r="H83" s="25" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="I83" s="25"/>
       <c r="K83" s="25" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="84" spans="1:11">
-      <c r="A84" s="90"/>
-      <c r="B84" s="90"/>
+      <c r="A84" s="97"/>
+      <c r="B84" s="97"/>
       <c r="C84" s="29" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D84" s="25" t="s">
         <v>133</v>
@@ -5448,18 +5564,18 @@
         <v>133</v>
       </c>
       <c r="H84" s="25" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="I84" s="25"/>
       <c r="K84" s="25" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="85" spans="1:11">
-      <c r="A85" s="90"/>
-      <c r="B85" s="90"/>
+      <c r="A85" s="97"/>
+      <c r="B85" s="97"/>
       <c r="C85" s="29" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D85" s="25" t="s">
         <v>133</v>
@@ -5474,18 +5590,18 @@
         <v>133</v>
       </c>
       <c r="H85" s="25" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="I85" s="25"/>
       <c r="K85" s="25" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="86" spans="1:11">
-      <c r="A86" s="90"/>
-      <c r="B86" s="90"/>
+      <c r="A86" s="97"/>
+      <c r="B86" s="97"/>
       <c r="C86" s="29" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D86" s="25" t="s">
         <v>133</v>
@@ -5500,18 +5616,18 @@
         <v>133</v>
       </c>
       <c r="H86" s="25" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="I86" s="25"/>
       <c r="K86" s="25" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="87" spans="1:11">
-      <c r="A87" s="90"/>
-      <c r="B87" s="90"/>
+      <c r="A87" s="97"/>
+      <c r="B87" s="97"/>
       <c r="C87" s="29" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D87" s="25" t="s">
         <v>133</v>
@@ -5526,18 +5642,18 @@
         <v>133</v>
       </c>
       <c r="H87" s="25" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="I87" s="25"/>
       <c r="K87" s="25" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="88" spans="1:11">
-      <c r="A88" s="90"/>
-      <c r="B88" s="90"/>
+      <c r="A88" s="97"/>
+      <c r="B88" s="97"/>
       <c r="C88" s="29" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D88" s="25" t="s">
         <v>133</v>
@@ -5552,11 +5668,11 @@
         <v>133</v>
       </c>
       <c r="H88" s="25" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="I88" s="25"/>
       <c r="K88" s="25" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="89" spans="1:11">
@@ -5572,20 +5688,20 @@
       <c r="K89" s="25"/>
     </row>
     <row r="90" spans="1:11">
-      <c r="A90" s="90" t="s">
-        <v>562</v>
-      </c>
-      <c r="B90" s="90" t="s">
+      <c r="A90" s="97" t="s">
         <v>561</v>
+      </c>
+      <c r="B90" s="97" t="s">
+        <v>560</v>
       </c>
       <c r="C90" s="61" t="s">
         <v>135</v>
       </c>
       <c r="D90" s="25" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="E90" s="25" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="F90" s="25" t="s">
         <v>133</v>
@@ -5594,7 +5710,7 @@
         <v>133</v>
       </c>
       <c r="H90" s="25" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="I90" s="25"/>
       <c r="K90" s="21" t="s">
@@ -5602,16 +5718,16 @@
       </c>
     </row>
     <row r="91" spans="1:11">
-      <c r="A91" s="90"/>
-      <c r="B91" s="90"/>
+      <c r="A91" s="97"/>
+      <c r="B91" s="97"/>
       <c r="C91" s="61" t="s">
         <v>136</v>
       </c>
       <c r="D91" s="25" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="E91" s="25" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="F91" s="25" t="s">
         <v>133</v>
@@ -5620,7 +5736,7 @@
         <v>133</v>
       </c>
       <c r="H91" s="25" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="I91" s="25"/>
       <c r="K91" s="25" t="s">
@@ -5628,16 +5744,16 @@
       </c>
     </row>
     <row r="92" spans="1:11">
-      <c r="A92" s="90"/>
-      <c r="B92" s="90"/>
+      <c r="A92" s="97"/>
+      <c r="B92" s="97"/>
       <c r="C92" s="61" t="s">
         <v>137</v>
       </c>
       <c r="D92" s="25" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="E92" s="25" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="F92" s="25" t="s">
         <v>133</v>
@@ -5646,7 +5762,7 @@
         <v>133</v>
       </c>
       <c r="H92" s="25" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="I92" s="25"/>
       <c r="K92" s="25" t="s">
@@ -5654,16 +5770,16 @@
       </c>
     </row>
     <row r="93" spans="1:11">
-      <c r="A93" s="90"/>
-      <c r="B93" s="90"/>
+      <c r="A93" s="97"/>
+      <c r="B93" s="97"/>
       <c r="C93" s="61" t="s">
         <v>138</v>
       </c>
       <c r="D93" s="25" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="E93" s="25" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="F93" s="25" t="s">
         <v>133</v>
@@ -5672,7 +5788,7 @@
         <v>133</v>
       </c>
       <c r="H93" s="25" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="I93" s="25"/>
       <c r="K93" s="25" t="s">
@@ -5680,16 +5796,16 @@
       </c>
     </row>
     <row r="94" spans="1:11">
-      <c r="A94" s="90"/>
-      <c r="B94" s="90"/>
+      <c r="A94" s="97"/>
+      <c r="B94" s="97"/>
       <c r="C94" s="20" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="D94" s="25" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="E94" s="25" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="F94" s="25" t="s">
         <v>133</v>
@@ -5698,18 +5814,18 @@
         <v>133</v>
       </c>
       <c r="H94" s="25" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="I94" s="25"/>
       <c r="K94" s="63" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="95" spans="1:11">
-      <c r="A95" s="90"/>
-      <c r="B95" s="90"/>
+      <c r="A95" s="97"/>
+      <c r="B95" s="97"/>
       <c r="C95" s="20" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="D95" s="25" t="s">
         <v>133</v>
@@ -5724,44 +5840,44 @@
         <v>133</v>
       </c>
       <c r="H95" s="25" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="I95" s="25"/>
       <c r="K95" s="63" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="96" spans="1:11">
-      <c r="A96" s="90"/>
-      <c r="B96" s="90"/>
+      <c r="A96" s="97"/>
+      <c r="B96" s="97"/>
       <c r="C96" s="20" t="s">
+        <v>554</v>
+      </c>
+      <c r="D96" s="57" t="s">
+        <v>558</v>
+      </c>
+      <c r="E96" s="25" t="s">
         <v>555</v>
       </c>
-      <c r="D96" s="57" t="s">
-        <v>559</v>
-      </c>
-      <c r="E96" s="25" t="s">
-        <v>556</v>
-      </c>
       <c r="F96" s="25" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="G96" s="74" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="H96" s="25" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="I96" s="25"/>
       <c r="K96" s="63" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="97" spans="1:11">
-      <c r="A97" s="90"/>
-      <c r="B97" s="90"/>
+      <c r="A97" s="97"/>
+      <c r="B97" s="97"/>
       <c r="C97" s="20" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="D97" s="25" t="s">
         <v>133</v>
@@ -5776,46 +5892,46 @@
         <v>133</v>
       </c>
       <c r="H97" s="25" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="I97" s="25"/>
       <c r="K97" s="63" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="98" spans="1:11">
       <c r="A98" s="60"/>
-      <c r="B98" s="90"/>
+      <c r="B98" s="97"/>
       <c r="C98" s="64" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="D98" s="57" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="E98" s="25" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="F98" s="25" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="G98" s="74" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="H98" s="25" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="I98" s="25"/>
       <c r="K98" s="25" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="99" spans="1:11">
-      <c r="A99" s="89" t="s">
-        <v>563</v>
-      </c>
-      <c r="B99" s="90"/>
+      <c r="A99" s="98" t="s">
+        <v>562</v>
+      </c>
+      <c r="B99" s="97"/>
       <c r="C99" s="62" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="D99" s="25" t="s">
         <v>133</v>
@@ -5830,37 +5946,37 @@
         <v>133</v>
       </c>
       <c r="H99" s="30" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="I99" s="25"/>
       <c r="K99" s="25" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="100" spans="1:11">
-      <c r="A100" s="90"/>
-      <c r="B100" s="90"/>
+      <c r="A100" s="97"/>
+      <c r="B100" s="97"/>
       <c r="C100" s="62" t="s">
+        <v>557</v>
+      </c>
+      <c r="D100" s="57" t="s">
         <v>558</v>
       </c>
-      <c r="D100" s="57" t="s">
-        <v>559</v>
-      </c>
       <c r="E100" s="25" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="F100" s="25" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="G100" s="74" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="H100" s="25" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="I100" s="25"/>
       <c r="K100" s="25" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="101" spans="1:11">
@@ -5876,60 +5992,60 @@
       <c r="K101" s="25"/>
     </row>
     <row r="102" spans="1:11">
-      <c r="A102" s="90" t="s">
+      <c r="A102" s="97" t="s">
+        <v>579</v>
+      </c>
+      <c r="B102" s="97" t="s">
+        <v>578</v>
+      </c>
+      <c r="C102" s="65" t="s">
+        <v>567</v>
+      </c>
+      <c r="D102" s="25" t="s">
+        <v>133</v>
+      </c>
+      <c r="E102" s="25" t="s">
+        <v>133</v>
+      </c>
+      <c r="F102" s="25" t="s">
+        <v>133</v>
+      </c>
+      <c r="G102" s="74" t="s">
+        <v>133</v>
+      </c>
+      <c r="H102" s="30" t="s">
         <v>580</v>
-      </c>
-      <c r="B102" s="90" t="s">
-        <v>579</v>
-      </c>
-      <c r="C102" s="65" t="s">
-        <v>568</v>
-      </c>
-      <c r="D102" s="25" t="s">
-        <v>133</v>
-      </c>
-      <c r="E102" s="25" t="s">
-        <v>133</v>
-      </c>
-      <c r="F102" s="25" t="s">
-        <v>133</v>
-      </c>
-      <c r="G102" s="74" t="s">
-        <v>133</v>
-      </c>
-      <c r="H102" s="30" t="s">
-        <v>581</v>
       </c>
       <c r="I102" s="25"/>
       <c r="K102" s="25"/>
     </row>
     <row r="103" spans="1:11">
-      <c r="A103" s="90"/>
-      <c r="B103" s="90"/>
+      <c r="A103" s="97"/>
+      <c r="B103" s="97"/>
       <c r="C103" s="66" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="D103" s="57" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="E103" s="25" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="F103" s="25" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="G103" s="74" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="H103" s="25"/>
       <c r="I103" s="25"/>
       <c r="K103" s="25"/>
     </row>
     <row r="104" spans="1:11">
-      <c r="A104" s="90"/>
-      <c r="B104" s="90"/>
+      <c r="A104" s="97"/>
+      <c r="B104" s="97"/>
       <c r="C104" s="65" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="D104" s="25" t="s">
         <v>133</v>
@@ -5944,104 +6060,104 @@
         <v>133</v>
       </c>
       <c r="H104" s="25" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="I104" s="25"/>
       <c r="K104" s="25"/>
     </row>
     <row r="105" spans="1:11">
-      <c r="A105" s="90"/>
-      <c r="B105" s="90"/>
+      <c r="A105" s="97"/>
+      <c r="B105" s="97"/>
       <c r="C105" s="66" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="D105" s="57" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="E105" s="25" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="F105" s="25" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="G105" s="74" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="H105" s="25"/>
       <c r="I105" s="25"/>
       <c r="K105" s="25"/>
     </row>
     <row r="106" spans="1:11">
-      <c r="A106" s="90"/>
-      <c r="B106" s="90"/>
+      <c r="A106" s="97"/>
+      <c r="B106" s="97"/>
       <c r="C106" s="66" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="D106" s="57" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="E106" s="25" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="F106" s="25" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="G106" s="74" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="H106" s="25"/>
       <c r="I106" s="25"/>
       <c r="K106" s="25"/>
     </row>
     <row r="107" spans="1:11">
-      <c r="A107" s="90"/>
-      <c r="B107" s="90"/>
+      <c r="A107" s="97"/>
+      <c r="B107" s="97"/>
       <c r="C107" s="66" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="D107" s="57" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="E107" s="25" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="F107" s="25" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="G107" s="74" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="H107" s="25"/>
       <c r="I107" s="25"/>
       <c r="K107" s="25"/>
     </row>
     <row r="108" spans="1:11">
-      <c r="A108" s="90"/>
-      <c r="B108" s="90"/>
+      <c r="A108" s="97"/>
+      <c r="B108" s="97"/>
       <c r="C108" s="66" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="D108" s="57" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="E108" s="25" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="F108" s="25" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="G108" s="74" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="H108" s="25"/>
       <c r="I108" s="25"/>
       <c r="K108" s="25"/>
     </row>
     <row r="109" spans="1:11">
-      <c r="A109" s="90"/>
-      <c r="B109" s="90"/>
+      <c r="A109" s="97"/>
+      <c r="B109" s="97"/>
       <c r="C109" s="65" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="D109" s="25" t="s">
         <v>133</v>
@@ -6056,16 +6172,16 @@
         <v>133</v>
       </c>
       <c r="H109" s="25" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="I109" s="25"/>
       <c r="K109" s="25"/>
     </row>
     <row r="110" spans="1:11">
-      <c r="A110" s="90"/>
-      <c r="B110" s="90"/>
+      <c r="A110" s="97"/>
+      <c r="B110" s="97"/>
       <c r="C110" s="65" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="D110" s="25" t="s">
         <v>133</v>
@@ -6080,16 +6196,16 @@
         <v>133</v>
       </c>
       <c r="H110" s="25" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="I110" s="25"/>
       <c r="K110" s="25"/>
     </row>
     <row r="111" spans="1:11">
-      <c r="A111" s="90"/>
-      <c r="B111" s="90"/>
+      <c r="A111" s="97"/>
+      <c r="B111" s="97"/>
       <c r="C111" s="65" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="D111" s="25" t="s">
         <v>133</v>
@@ -6104,16 +6220,16 @@
         <v>133</v>
       </c>
       <c r="H111" s="25" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="I111" s="25"/>
       <c r="K111" s="25"/>
     </row>
     <row r="112" spans="1:11">
-      <c r="A112" s="90"/>
-      <c r="B112" s="90"/>
+      <c r="A112" s="97"/>
+      <c r="B112" s="97"/>
       <c r="C112" s="65" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="D112" s="25" t="s">
         <v>133</v>
@@ -6128,7 +6244,7 @@
         <v>133</v>
       </c>
       <c r="H112" s="25" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="I112" s="25"/>
       <c r="K112" s="25"/>
@@ -6146,14 +6262,14 @@
       <c r="K113" s="25"/>
     </row>
     <row r="114" spans="1:11" ht="14.4" customHeight="1">
-      <c r="A114" s="89" t="s">
-        <v>584</v>
-      </c>
-      <c r="B114" s="90" t="s">
+      <c r="A114" s="98" t="s">
         <v>583</v>
       </c>
+      <c r="B114" s="97" t="s">
+        <v>582</v>
+      </c>
       <c r="C114" s="29" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D114" s="25" t="s">
         <v>133</v>
@@ -6168,18 +6284,18 @@
         <v>133</v>
       </c>
       <c r="H114" s="30" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="I114" s="25"/>
       <c r="K114" s="25" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="115" spans="1:11">
-      <c r="A115" s="89"/>
-      <c r="B115" s="90"/>
+      <c r="A115" s="98"/>
+      <c r="B115" s="97"/>
       <c r="C115" s="29" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="D115" s="25" t="s">
         <v>133</v>
@@ -6194,18 +6310,18 @@
         <v>133</v>
       </c>
       <c r="H115" s="30" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="I115" s="25"/>
       <c r="K115" s="25" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="116" spans="1:11">
-      <c r="A116" s="89"/>
-      <c r="B116" s="90"/>
+      <c r="A116" s="98"/>
+      <c r="B116" s="97"/>
       <c r="C116" s="29" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="D116" s="25" t="s">
         <v>133</v>
@@ -6220,18 +6336,18 @@
         <v>133</v>
       </c>
       <c r="H116" s="30" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="I116" s="25"/>
       <c r="K116" s="25" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="117" spans="1:11">
-      <c r="A117" s="89"/>
-      <c r="B117" s="90"/>
+      <c r="A117" s="98"/>
+      <c r="B117" s="97"/>
       <c r="C117" s="29" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="D117" s="25" t="s">
         <v>133</v>
@@ -6246,18 +6362,18 @@
         <v>133</v>
       </c>
       <c r="H117" s="30" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="I117" s="25"/>
       <c r="K117" s="25" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="118" spans="1:11">
-      <c r="A118" s="89"/>
-      <c r="B118" s="90"/>
+      <c r="A118" s="98"/>
+      <c r="B118" s="97"/>
       <c r="C118" s="29" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D118" s="25" t="s">
         <v>133</v>
@@ -6272,18 +6388,18 @@
         <v>133</v>
       </c>
       <c r="H118" s="30" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="I118" s="25"/>
       <c r="K118" s="25" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="119" spans="1:11">
-      <c r="A119" s="89"/>
-      <c r="B119" s="90"/>
+      <c r="A119" s="98"/>
+      <c r="B119" s="97"/>
       <c r="C119" s="29" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D119" s="25" t="s">
         <v>133</v>
@@ -6298,18 +6414,18 @@
         <v>133</v>
       </c>
       <c r="H119" s="30" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="I119" s="25"/>
       <c r="K119" s="25" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="120" spans="1:11">
-      <c r="A120" s="89"/>
-      <c r="B120" s="90"/>
+      <c r="A120" s="98"/>
+      <c r="B120" s="97"/>
       <c r="C120" s="29" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D120" s="25" t="s">
         <v>133</v>
@@ -6324,11 +6440,11 @@
         <v>133</v>
       </c>
       <c r="H120" s="30" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="I120" s="25"/>
       <c r="K120" s="25" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="121" spans="1:11">
@@ -6344,14 +6460,14 @@
       <c r="K121" s="25"/>
     </row>
     <row r="122" spans="1:11">
-      <c r="A122" s="89" t="s">
-        <v>584</v>
-      </c>
-      <c r="B122" s="90" t="s">
-        <v>601</v>
+      <c r="A122" s="98" t="s">
+        <v>583</v>
+      </c>
+      <c r="B122" s="97" t="s">
+        <v>600</v>
       </c>
       <c r="C122" s="67" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="D122" s="25" t="s">
         <v>133</v>
@@ -6366,18 +6482,18 @@
         <v>133</v>
       </c>
       <c r="H122" s="30" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="I122" s="25"/>
       <c r="K122" s="25" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="123" spans="1:11">
-      <c r="A123" s="90"/>
-      <c r="B123" s="90"/>
+      <c r="A123" s="97"/>
+      <c r="B123" s="97"/>
       <c r="C123" s="67" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="D123" s="25" t="s">
         <v>133</v>
@@ -6392,18 +6508,18 @@
         <v>133</v>
       </c>
       <c r="H123" s="30" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="I123" s="25"/>
       <c r="K123" s="25" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="124" spans="1:11">
-      <c r="A124" s="90"/>
-      <c r="B124" s="90"/>
+      <c r="A124" s="97"/>
+      <c r="B124" s="97"/>
       <c r="C124" s="67" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="D124" s="25" t="s">
         <v>133</v>
@@ -6418,18 +6534,18 @@
         <v>133</v>
       </c>
       <c r="H124" s="30" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="I124" s="25"/>
       <c r="K124" s="25" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="125" spans="1:11">
-      <c r="A125" s="90"/>
-      <c r="B125" s="90"/>
+      <c r="A125" s="97"/>
+      <c r="B125" s="97"/>
       <c r="C125" s="67" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="D125" s="25" t="s">
         <v>133</v>
@@ -6444,18 +6560,18 @@
         <v>133</v>
       </c>
       <c r="H125" s="30" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="I125" s="25"/>
       <c r="K125" s="25" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="126" spans="1:11">
-      <c r="A126" s="90"/>
-      <c r="B126" s="90"/>
+      <c r="A126" s="97"/>
+      <c r="B126" s="97"/>
       <c r="C126" s="67" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="D126" s="25" t="s">
         <v>133</v>
@@ -6470,20 +6586,20 @@
         <v>133</v>
       </c>
       <c r="H126" s="30" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="I126" s="25"/>
       <c r="K126" s="25" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="127" spans="1:11">
-      <c r="A127" s="89" t="s">
-        <v>600</v>
-      </c>
-      <c r="B127" s="90"/>
+      <c r="A127" s="98" t="s">
+        <v>599</v>
+      </c>
+      <c r="B127" s="97"/>
       <c r="C127" s="67" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="D127" s="25" t="s">
         <v>133</v>
@@ -6498,18 +6614,18 @@
         <v>133</v>
       </c>
       <c r="H127" s="25" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="I127" s="25"/>
       <c r="K127" s="25" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="128" spans="1:11">
-      <c r="A128" s="90"/>
-      <c r="B128" s="90"/>
+      <c r="A128" s="97"/>
+      <c r="B128" s="97"/>
       <c r="C128" s="67" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="D128" s="25" t="s">
         <v>133</v>
@@ -6524,18 +6640,18 @@
         <v>133</v>
       </c>
       <c r="H128" s="25" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="I128" s="25"/>
       <c r="K128" s="25" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="129" spans="1:11">
-      <c r="A129" s="90"/>
-      <c r="B129" s="90"/>
+      <c r="A129" s="97"/>
+      <c r="B129" s="97"/>
       <c r="C129" s="67" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="D129" s="25" t="s">
         <v>133</v>
@@ -6550,7 +6666,7 @@
         <v>133</v>
       </c>
       <c r="H129" s="25" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="I129" s="25"/>
       <c r="K129" s="25" t="s">
@@ -6562,14 +6678,14 @@
       <c r="I130" s="25"/>
     </row>
     <row r="131" spans="1:11">
-      <c r="A131" s="89" t="s">
-        <v>600</v>
-      </c>
-      <c r="B131" s="90" t="s">
-        <v>670</v>
+      <c r="A131" s="98" t="s">
+        <v>599</v>
+      </c>
+      <c r="B131" s="97" t="s">
+        <v>669</v>
       </c>
       <c r="C131" s="70" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="D131" s="25" t="s">
         <v>133</v>
@@ -6584,18 +6700,18 @@
         <v>133</v>
       </c>
       <c r="H131" s="25" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="I131" s="25"/>
       <c r="K131" s="25" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="132" spans="1:11">
-      <c r="A132" s="90"/>
-      <c r="B132" s="90"/>
+      <c r="A132" s="97"/>
+      <c r="B132" s="97"/>
       <c r="C132" s="70" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="D132" s="25" t="s">
         <v>133</v>
@@ -6610,7 +6726,7 @@
         <v>133</v>
       </c>
       <c r="H132" s="25" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="I132" s="25"/>
       <c r="K132" s="25" t="s">
@@ -6618,10 +6734,10 @@
       </c>
     </row>
     <row r="133" spans="1:11">
-      <c r="A133" s="90"/>
-      <c r="B133" s="90"/>
+      <c r="A133" s="97"/>
+      <c r="B133" s="97"/>
       <c r="C133" s="70" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="D133" s="25" t="s">
         <v>133</v>
@@ -6636,18 +6752,18 @@
         <v>133</v>
       </c>
       <c r="H133" s="25" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="I133" s="25"/>
       <c r="K133" s="25" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="134" spans="1:11">
-      <c r="A134" s="90"/>
-      <c r="B134" s="90"/>
+      <c r="A134" s="97"/>
+      <c r="B134" s="97"/>
       <c r="C134" s="70" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="D134" s="25" t="s">
         <v>133</v>
@@ -6662,18 +6778,18 @@
         <v>133</v>
       </c>
       <c r="H134" s="25" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="I134" s="25"/>
       <c r="K134" s="25" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="135" spans="1:11">
-      <c r="A135" s="90"/>
-      <c r="B135" s="90"/>
+      <c r="A135" s="97"/>
+      <c r="B135" s="97"/>
       <c r="C135" s="70" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D135" s="25" t="s">
         <v>133</v>
@@ -6688,53 +6804,53 @@
         <v>133</v>
       </c>
       <c r="H135" s="25" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="I135" s="25"/>
       <c r="K135" s="25" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11">
+      <c r="A136" s="97"/>
+      <c r="B136" s="97"/>
+      <c r="C136" s="70" t="s">
+        <v>644</v>
+      </c>
+      <c r="D136" s="57" t="s">
+        <v>653</v>
+      </c>
+      <c r="E136" s="25" t="s">
+        <v>133</v>
+      </c>
+      <c r="F136" s="83" t="s">
+        <v>652</v>
+      </c>
+      <c r="G136" s="84" t="s">
+        <v>652</v>
+      </c>
+      <c r="H136" s="25" t="s">
+        <v>631</v>
+      </c>
+      <c r="I136" s="57" t="s">
+        <v>662</v>
+      </c>
+      <c r="K136" s="25" t="s">
         <v>667</v>
-      </c>
-    </row>
-    <row r="136" spans="1:11">
-      <c r="A136" s="90"/>
-      <c r="B136" s="90"/>
-      <c r="C136" s="70" t="s">
-        <v>645</v>
-      </c>
-      <c r="D136" s="57" t="s">
-        <v>654</v>
-      </c>
-      <c r="E136" s="25" t="s">
-        <v>133</v>
-      </c>
-      <c r="F136" s="83" t="s">
-        <v>653</v>
-      </c>
-      <c r="G136" s="84" t="s">
-        <v>653</v>
-      </c>
-      <c r="H136" s="25" t="s">
-        <v>632</v>
-      </c>
-      <c r="I136" s="57" t="s">
-        <v>663</v>
-      </c>
-      <c r="K136" s="25" t="s">
-        <v>668</v>
       </c>
     </row>
     <row r="137" spans="1:11">
       <c r="B137" s="69"/>
     </row>
     <row r="138" spans="1:11">
-      <c r="A138" s="89" t="s">
+      <c r="A138" s="98" t="s">
+        <v>690</v>
+      </c>
+      <c r="B138" s="97" t="s">
         <v>691</v>
       </c>
-      <c r="B138" s="90" t="s">
-        <v>692</v>
-      </c>
       <c r="C138" s="67" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="D138" s="25" t="s">
         <v>133</v>
@@ -6749,19 +6865,19 @@
         <v>133</v>
       </c>
       <c r="H138" s="25" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="I138" s="25"/>
       <c r="J138" s="53"/>
       <c r="K138" s="25" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="139" spans="1:11">
-      <c r="A139" s="90"/>
-      <c r="B139" s="90"/>
+      <c r="A139" s="97"/>
+      <c r="B139" s="97"/>
       <c r="C139" s="67" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="D139" s="25" t="s">
         <v>133</v>
@@ -6776,19 +6892,19 @@
         <v>133</v>
       </c>
       <c r="H139" s="25" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="I139" s="25"/>
       <c r="J139" s="53"/>
       <c r="K139" s="25" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="140" spans="1:11">
-      <c r="A140" s="90"/>
-      <c r="B140" s="90"/>
+      <c r="A140" s="97"/>
+      <c r="B140" s="97"/>
       <c r="C140" s="67" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="D140" s="25" t="s">
         <v>133</v>
@@ -6797,27 +6913,27 @@
         <v>133</v>
       </c>
       <c r="F140" s="57" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="G140" s="84" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="H140" s="25" t="s">
+        <v>697</v>
+      </c>
+      <c r="I140" s="57" t="s">
         <v>698</v>
-      </c>
-      <c r="I140" s="57" t="s">
-        <v>699</v>
       </c>
       <c r="J140" s="53"/>
       <c r="K140" s="25" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="141" spans="1:11">
-      <c r="A141" s="90"/>
-      <c r="B141" s="90"/>
+      <c r="A141" s="97"/>
+      <c r="B141" s="97"/>
       <c r="C141" s="67" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="D141" s="25" t="s">
         <v>133</v>
@@ -6832,19 +6948,19 @@
         <v>133</v>
       </c>
       <c r="H141" s="25" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="I141" s="25"/>
       <c r="J141" s="53"/>
       <c r="K141" s="25" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="142" spans="1:11">
-      <c r="A142" s="90"/>
-      <c r="B142" s="90"/>
+      <c r="A142" s="97"/>
+      <c r="B142" s="97"/>
       <c r="C142" s="67" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="D142" s="25" t="s">
         <v>133</v>
@@ -6859,23 +6975,23 @@
         <v>133</v>
       </c>
       <c r="H142" s="25" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="I142" s="25"/>
       <c r="J142" s="53"/>
       <c r="K142" s="25" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="144" spans="1:11">
-      <c r="A144" s="89" t="s">
-        <v>732</v>
-      </c>
-      <c r="B144" s="90" t="s">
+      <c r="A144" s="98" t="s">
         <v>731</v>
       </c>
+      <c r="B144" s="97" t="s">
+        <v>730</v>
+      </c>
       <c r="C144" s="67" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="D144" s="25" t="s">
         <v>133</v>
@@ -6890,19 +7006,19 @@
         <v>133</v>
       </c>
       <c r="H144" s="25" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="I144" s="25"/>
       <c r="J144" s="53"/>
       <c r="K144" s="25" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="145" spans="1:11">
-      <c r="A145" s="90"/>
-      <c r="B145" s="90"/>
+      <c r="A145" s="97"/>
+      <c r="B145" s="97"/>
       <c r="C145" s="67" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="D145" s="25" t="s">
         <v>133</v>
@@ -6917,19 +7033,19 @@
         <v>133</v>
       </c>
       <c r="H145" s="25" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="I145" s="25"/>
       <c r="J145" s="53"/>
       <c r="K145" s="25" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="146" spans="1:11">
-      <c r="A146" s="90"/>
-      <c r="B146" s="90"/>
+      <c r="A146" s="97"/>
+      <c r="B146" s="97"/>
       <c r="C146" s="67" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="D146" s="25" t="s">
         <v>133</v>
@@ -6944,19 +7060,19 @@
         <v>133</v>
       </c>
       <c r="H146" s="25" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="I146" s="25"/>
       <c r="J146" s="53"/>
       <c r="K146" s="25" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
     </row>
     <row r="147" spans="1:11">
-      <c r="A147" s="90"/>
-      <c r="B147" s="90"/>
+      <c r="A147" s="97"/>
+      <c r="B147" s="97"/>
       <c r="C147" s="67" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="D147" s="25" t="s">
         <v>133</v>
@@ -6971,19 +7087,19 @@
         <v>133</v>
       </c>
       <c r="H147" s="25" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="I147" s="25"/>
       <c r="J147" s="53"/>
       <c r="K147" s="25" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
     </row>
     <row r="148" spans="1:11">
-      <c r="A148" s="90"/>
-      <c r="B148" s="90"/>
+      <c r="A148" s="97"/>
+      <c r="B148" s="97"/>
       <c r="C148" s="88" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="D148" s="25" t="s">
         <v>133</v>
@@ -6998,33 +7114,33 @@
         <v>133</v>
       </c>
       <c r="H148" s="25" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="I148" s="25"/>
       <c r="J148" s="53"/>
       <c r="K148" s="25" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="149" spans="1:11">
-      <c r="A149" s="89" t="s">
-        <v>733</v>
-      </c>
-      <c r="B149" s="90"/>
+      <c r="A149" s="98" t="s">
+        <v>732</v>
+      </c>
+      <c r="B149" s="97"/>
       <c r="C149" s="67" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="D149" s="57" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="E149" s="25" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="F149" s="25" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="G149" s="25" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="H149" s="25"/>
       <c r="I149" s="25"/>
@@ -7032,22 +7148,22 @@
       <c r="K149" s="25"/>
     </row>
     <row r="150" spans="1:11">
-      <c r="A150" s="90"/>
-      <c r="B150" s="90"/>
+      <c r="A150" s="97"/>
+      <c r="B150" s="97"/>
       <c r="C150" s="67" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="D150" s="57" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="E150" s="25" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="F150" s="25" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="G150" s="25" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="H150" s="25"/>
       <c r="I150" s="25"/>
@@ -7055,22 +7171,22 @@
       <c r="K150" s="25"/>
     </row>
     <row r="151" spans="1:11">
-      <c r="A151" s="90"/>
-      <c r="B151" s="90"/>
+      <c r="A151" s="97"/>
+      <c r="B151" s="97"/>
       <c r="C151" s="67" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="D151" s="57" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="E151" s="25" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="F151" s="25" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="G151" s="25" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="H151" s="25"/>
       <c r="I151" s="25"/>
@@ -7078,22 +7194,22 @@
       <c r="K151" s="25"/>
     </row>
     <row r="152" spans="1:11">
-      <c r="A152" s="90"/>
-      <c r="B152" s="90"/>
+      <c r="A152" s="97"/>
+      <c r="B152" s="97"/>
       <c r="C152" s="67" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="D152" s="57" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="E152" s="25" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="F152" s="25" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="G152" s="25" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="H152" s="25"/>
       <c r="I152" s="25"/>
@@ -7101,12 +7217,12 @@
       <c r="K152" s="25"/>
     </row>
     <row r="153" spans="1:11">
-      <c r="A153" s="89" t="s">
-        <v>794</v>
-      </c>
-      <c r="B153" s="90"/>
-      <c r="C153" s="104" t="s">
-        <v>744</v>
+      <c r="A153" s="98" t="s">
+        <v>793</v>
+      </c>
+      <c r="B153" s="97"/>
+      <c r="C153" s="92" t="s">
+        <v>743</v>
       </c>
       <c r="D153" s="25" t="s">
         <v>133</v>
@@ -7121,19 +7237,19 @@
         <v>133</v>
       </c>
       <c r="H153" s="25" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="I153" s="25"/>
       <c r="J153" s="53"/>
       <c r="K153" s="25" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
     </row>
     <row r="154" spans="1:11">
-      <c r="A154" s="90"/>
-      <c r="B154" s="90"/>
-      <c r="C154" s="104" t="s">
-        <v>745</v>
+      <c r="A154" s="97"/>
+      <c r="B154" s="97"/>
+      <c r="C154" s="92" t="s">
+        <v>744</v>
       </c>
       <c r="D154" s="25" t="s">
         <v>133</v>
@@ -7148,19 +7264,19 @@
         <v>133</v>
       </c>
       <c r="H154" s="25" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="I154" s="25"/>
       <c r="J154" s="53"/>
       <c r="K154" s="25" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
     </row>
     <row r="155" spans="1:11">
-      <c r="A155" s="90"/>
-      <c r="B155" s="90"/>
-      <c r="C155" s="105" t="s">
-        <v>772</v>
+      <c r="A155" s="97"/>
+      <c r="B155" s="97"/>
+      <c r="C155" s="93" t="s">
+        <v>771</v>
       </c>
       <c r="D155" s="25" t="s">
         <v>133</v>
@@ -7175,36 +7291,36 @@
         <v>133</v>
       </c>
       <c r="H155" s="25" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="I155" s="25"/>
       <c r="J155" s="53"/>
       <c r="K155" s="25" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
     </row>
     <row r="156" spans="1:11">
-      <c r="A156" s="101"/>
-      <c r="B156" s="101"/>
-      <c r="C156" s="102"/>
-      <c r="D156" s="102"/>
-      <c r="E156" s="102"/>
-      <c r="F156" s="102"/>
-      <c r="G156" s="102"/>
-      <c r="H156" s="102"/>
-      <c r="I156" s="102"/>
-      <c r="J156" s="103"/>
-      <c r="K156" s="102"/>
+      <c r="A156" s="89"/>
+      <c r="B156" s="89"/>
+      <c r="C156" s="90"/>
+      <c r="D156" s="90"/>
+      <c r="E156" s="90"/>
+      <c r="F156" s="90"/>
+      <c r="G156" s="90"/>
+      <c r="H156" s="90"/>
+      <c r="I156" s="90"/>
+      <c r="J156" s="91"/>
+      <c r="K156" s="90"/>
     </row>
     <row r="157" spans="1:11">
-      <c r="A157" s="89" t="s">
+      <c r="A157" s="98" t="s">
+        <v>793</v>
+      </c>
+      <c r="B157" s="97" t="s">
         <v>794</v>
       </c>
-      <c r="B157" s="90" t="s">
-        <v>795</v>
-      </c>
       <c r="C157" s="67" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="D157" s="25" t="s">
         <v>133</v>
@@ -7219,19 +7335,19 @@
         <v>133</v>
       </c>
       <c r="H157" s="25" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="I157" s="25"/>
       <c r="J157" s="53"/>
       <c r="K157" s="25" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
     </row>
     <row r="158" spans="1:11">
-      <c r="A158" s="90"/>
-      <c r="B158" s="90"/>
+      <c r="A158" s="97"/>
+      <c r="B158" s="97"/>
       <c r="C158" s="67" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="D158" s="25" t="s">
         <v>133</v>
@@ -7246,19 +7362,19 @@
         <v>133</v>
       </c>
       <c r="H158" s="25" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="I158" s="25"/>
       <c r="J158" s="53"/>
       <c r="K158" s="25" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
     <row r="159" spans="1:11">
-      <c r="A159" s="90"/>
-      <c r="B159" s="90"/>
+      <c r="A159" s="97"/>
+      <c r="B159" s="97"/>
       <c r="C159" s="67" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="D159" s="25" t="s">
         <v>133</v>
@@ -7273,19 +7389,19 @@
         <v>133</v>
       </c>
       <c r="H159" s="25" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="I159" s="25"/>
       <c r="J159" s="53"/>
       <c r="K159" s="25" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
     </row>
     <row r="160" spans="1:11">
-      <c r="A160" s="90"/>
-      <c r="B160" s="90"/>
+      <c r="A160" s="97"/>
+      <c r="B160" s="97"/>
       <c r="C160" s="67" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="D160" s="25" t="s">
         <v>133</v>
@@ -7300,19 +7416,19 @@
         <v>133</v>
       </c>
       <c r="H160" s="25" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="I160" s="25"/>
       <c r="J160" s="53"/>
       <c r="K160" s="25" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="161" spans="1:11">
-      <c r="A161" s="90"/>
-      <c r="B161" s="90"/>
+      <c r="A161" s="97"/>
+      <c r="B161" s="97"/>
       <c r="C161" s="67" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="D161" s="25" t="s">
         <v>133</v>
@@ -7327,19 +7443,19 @@
         <v>133</v>
       </c>
       <c r="H161" s="25" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="I161" s="25"/>
       <c r="J161" s="53"/>
       <c r="K161" s="25" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="162" spans="1:11">
-      <c r="A162" s="90"/>
-      <c r="B162" s="90"/>
+      <c r="A162" s="97"/>
+      <c r="B162" s="97"/>
       <c r="C162" s="67" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="D162" s="25" t="s">
         <v>133</v>
@@ -7354,48 +7470,230 @@
         <v>133</v>
       </c>
       <c r="H162" s="25" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="I162" s="25"/>
       <c r="J162" s="53"/>
       <c r="K162" s="25" t="s">
-        <v>804</v>
+        <v>803</v>
+      </c>
+    </row>
+    <row r="164" spans="1:11">
+      <c r="A164" s="98" t="s">
+        <v>823</v>
+      </c>
+      <c r="B164" s="97" t="s">
+        <v>825</v>
+      </c>
+      <c r="C164" s="109" t="s">
+        <v>805</v>
+      </c>
+      <c r="D164" s="25" t="s">
+        <v>133</v>
+      </c>
+      <c r="E164" s="25" t="s">
+        <v>133</v>
+      </c>
+      <c r="F164" s="25" t="s">
+        <v>133</v>
+      </c>
+      <c r="G164" s="25" t="s">
+        <v>133</v>
+      </c>
+      <c r="H164" s="25" t="s">
+        <v>826</v>
+      </c>
+      <c r="I164" s="25"/>
+      <c r="J164" s="53"/>
+      <c r="K164" s="25" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="165" spans="1:11">
+      <c r="A165" s="97"/>
+      <c r="B165" s="97"/>
+      <c r="C165" s="109" t="s">
+        <v>807</v>
+      </c>
+      <c r="D165" s="25" t="s">
+        <v>133</v>
+      </c>
+      <c r="E165" s="25" t="s">
+        <v>133</v>
+      </c>
+      <c r="F165" s="25" t="s">
+        <v>133</v>
+      </c>
+      <c r="G165" s="25" t="s">
+        <v>133</v>
+      </c>
+      <c r="H165" s="25" t="s">
+        <v>826</v>
+      </c>
+      <c r="I165" s="25"/>
+      <c r="J165" s="53"/>
+      <c r="K165" s="25" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="166" spans="1:11">
+      <c r="A166" s="97"/>
+      <c r="B166" s="97"/>
+      <c r="C166" s="109" t="s">
+        <v>809</v>
+      </c>
+      <c r="D166" s="25" t="s">
+        <v>133</v>
+      </c>
+      <c r="E166" s="25" t="s">
+        <v>133</v>
+      </c>
+      <c r="F166" s="25" t="s">
+        <v>133</v>
+      </c>
+      <c r="G166" s="25" t="s">
+        <v>133</v>
+      </c>
+      <c r="H166" s="25" t="s">
+        <v>826</v>
+      </c>
+      <c r="I166" s="25"/>
+      <c r="J166" s="53"/>
+      <c r="K166" s="25" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="167" spans="1:11">
+      <c r="A167" s="97"/>
+      <c r="B167" s="97"/>
+      <c r="C167" s="109" t="s">
+        <v>811</v>
+      </c>
+      <c r="D167" s="25" t="s">
+        <v>133</v>
+      </c>
+      <c r="E167" s="25" t="s">
+        <v>133</v>
+      </c>
+      <c r="F167" s="25" t="s">
+        <v>133</v>
+      </c>
+      <c r="G167" s="25" t="s">
+        <v>133</v>
+      </c>
+      <c r="H167" s="25" t="s">
+        <v>826</v>
+      </c>
+      <c r="I167" s="25"/>
+      <c r="J167" s="53"/>
+      <c r="K167" s="25" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="168" spans="1:11">
+      <c r="A168" s="97"/>
+      <c r="B168" s="97"/>
+      <c r="C168" s="109" t="s">
+        <v>813</v>
+      </c>
+      <c r="D168" s="25" t="s">
+        <v>133</v>
+      </c>
+      <c r="E168" s="25" t="s">
+        <v>133</v>
+      </c>
+      <c r="F168" s="25" t="s">
+        <v>133</v>
+      </c>
+      <c r="G168" s="25" t="s">
+        <v>133</v>
+      </c>
+      <c r="H168" s="25" t="s">
+        <v>826</v>
+      </c>
+      <c r="I168" s="25"/>
+      <c r="J168" s="53"/>
+      <c r="K168" s="25" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="169" spans="1:11">
+      <c r="A169" s="98" t="s">
+        <v>824</v>
+      </c>
+      <c r="B169" s="97"/>
+      <c r="C169" s="110" t="s">
+        <v>819</v>
+      </c>
+      <c r="D169" s="25" t="s">
+        <v>133</v>
+      </c>
+      <c r="E169" s="25" t="s">
+        <v>133</v>
+      </c>
+      <c r="F169" s="25" t="s">
+        <v>133</v>
+      </c>
+      <c r="G169" s="25" t="s">
+        <v>133</v>
+      </c>
+      <c r="H169" s="25" t="s">
+        <v>827</v>
+      </c>
+      <c r="I169" s="25"/>
+      <c r="J169" s="53"/>
+      <c r="K169" s="25" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="170" spans="1:11">
+      <c r="A170" s="97"/>
+      <c r="B170" s="97"/>
+      <c r="C170" s="110" t="s">
+        <v>820</v>
+      </c>
+      <c r="D170" s="25" t="s">
+        <v>133</v>
+      </c>
+      <c r="E170" s="25" t="s">
+        <v>133</v>
+      </c>
+      <c r="F170" s="25" t="s">
+        <v>133</v>
+      </c>
+      <c r="G170" s="25" t="s">
+        <v>133</v>
+      </c>
+      <c r="H170" s="25" t="s">
+        <v>827</v>
+      </c>
+      <c r="I170" s="25"/>
+      <c r="J170" s="53"/>
+      <c r="K170" s="25" t="s">
+        <v>832</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="51">
-    <mergeCell ref="B144:B155"/>
-    <mergeCell ref="A153:A155"/>
-    <mergeCell ref="B157:B162"/>
-    <mergeCell ref="A157:A162"/>
-    <mergeCell ref="B122:B129"/>
+  <mergeCells count="54">
+    <mergeCell ref="A164:A168"/>
+    <mergeCell ref="A169:A170"/>
+    <mergeCell ref="B164:B170"/>
+    <mergeCell ref="B71:B76"/>
+    <mergeCell ref="A71:A76"/>
+    <mergeCell ref="B62:B69"/>
+    <mergeCell ref="A47:A50"/>
+    <mergeCell ref="A15:A20"/>
+    <mergeCell ref="A22:A26"/>
+    <mergeCell ref="B28:B33"/>
+    <mergeCell ref="B22:B26"/>
+    <mergeCell ref="B15:B20"/>
+    <mergeCell ref="A28:A33"/>
     <mergeCell ref="A35:A39"/>
     <mergeCell ref="A41:A45"/>
     <mergeCell ref="B41:B45"/>
     <mergeCell ref="B35:B39"/>
     <mergeCell ref="A62:A69"/>
     <mergeCell ref="B57:B60"/>
-    <mergeCell ref="A58:A60"/>
-    <mergeCell ref="B47:B55"/>
-    <mergeCell ref="B83:B88"/>
-    <mergeCell ref="A83:A88"/>
-    <mergeCell ref="B78:B81"/>
-    <mergeCell ref="A78:A80"/>
-    <mergeCell ref="A144:A148"/>
-    <mergeCell ref="A149:A152"/>
-    <mergeCell ref="B90:B100"/>
-    <mergeCell ref="A90:A97"/>
-    <mergeCell ref="A99:A100"/>
-    <mergeCell ref="B138:B142"/>
-    <mergeCell ref="A138:A142"/>
-    <mergeCell ref="A102:A112"/>
-    <mergeCell ref="B114:B120"/>
-    <mergeCell ref="A114:A120"/>
-    <mergeCell ref="B131:B136"/>
-    <mergeCell ref="B102:B112"/>
-    <mergeCell ref="A131:A136"/>
-    <mergeCell ref="A122:A126"/>
-    <mergeCell ref="A127:A129"/>
     <mergeCell ref="J2:J5"/>
     <mergeCell ref="J12:J13"/>
     <mergeCell ref="J7:J10"/>
@@ -7404,17 +7702,33 @@
     <mergeCell ref="B7:B13"/>
     <mergeCell ref="A7:A10"/>
     <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A15:A20"/>
-    <mergeCell ref="A22:A26"/>
-    <mergeCell ref="B28:B33"/>
-    <mergeCell ref="B22:B26"/>
-    <mergeCell ref="B15:B20"/>
-    <mergeCell ref="A28:A33"/>
+    <mergeCell ref="B114:B120"/>
+    <mergeCell ref="A114:A120"/>
+    <mergeCell ref="B131:B136"/>
+    <mergeCell ref="B102:B112"/>
+    <mergeCell ref="A131:A136"/>
+    <mergeCell ref="A58:A60"/>
+    <mergeCell ref="B47:B55"/>
     <mergeCell ref="A51:A55"/>
-    <mergeCell ref="B71:B76"/>
-    <mergeCell ref="A71:A76"/>
-    <mergeCell ref="B62:B69"/>
-    <mergeCell ref="A47:A50"/>
+    <mergeCell ref="B144:B155"/>
+    <mergeCell ref="A153:A155"/>
+    <mergeCell ref="B83:B88"/>
+    <mergeCell ref="A83:A88"/>
+    <mergeCell ref="B78:B81"/>
+    <mergeCell ref="A78:A80"/>
+    <mergeCell ref="A144:A148"/>
+    <mergeCell ref="B90:B100"/>
+    <mergeCell ref="A90:A97"/>
+    <mergeCell ref="A99:A100"/>
+    <mergeCell ref="B138:B142"/>
+    <mergeCell ref="A138:A142"/>
+    <mergeCell ref="A102:A112"/>
+    <mergeCell ref="B157:B162"/>
+    <mergeCell ref="A157:A162"/>
+    <mergeCell ref="B122:B129"/>
+    <mergeCell ref="A149:A152"/>
+    <mergeCell ref="A122:A126"/>
+    <mergeCell ref="A127:A129"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -7482,7 +7796,7 @@
         <v>17</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="M1" s="3" t="s">
         <v>48</v>
@@ -7629,7 +7943,7 @@
       </c>
       <c r="H6" s="4"/>
       <c r="I6" s="4" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="J6" s="4"/>
       <c r="K6" s="4"/>
@@ -7827,7 +8141,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
@@ -7871,10 +8185,10 @@
         <v>283</v>
       </c>
       <c r="I1" s="3" t="s">
+        <v>614</v>
+      </c>
+      <c r="J1" s="3" t="s">
         <v>615</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>616</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -7957,7 +8271,7 @@
       <c r="G5" s="36"/>
       <c r="H5" s="4"/>
       <c r="I5" s="4" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="J5" s="4" t="s">
         <v>288</v>
@@ -7965,10 +8279,10 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="47" t="s">
+        <v>415</v>
+      </c>
+      <c r="B6" s="47" t="s">
         <v>416</v>
-      </c>
-      <c r="B6" s="47" t="s">
-        <v>417</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>269</v>
@@ -8425,10 +8739,10 @@
         <v>387</v>
       </c>
       <c r="K1" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="L1" s="3" t="s">
         <v>413</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>414</v>
       </c>
     </row>
     <row r="2" spans="1:12">
@@ -8607,10 +8921,10 @@
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="43" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>265</v>
@@ -8626,7 +8940,7 @@
         <v>390</v>
       </c>
       <c r="L10" s="4" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
   </sheetData>
@@ -8663,13 +8977,13 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="43" t="s">
+        <v>494</v>
+      </c>
+      <c r="B2" s="10" t="s">
         <v>495</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="C2" s="4" t="s">
         <v>496</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>497</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -8735,96 +9049,96 @@
         <v>10</v>
       </c>
       <c r="D1" s="55" t="s">
+        <v>514</v>
+      </c>
+      <c r="E1" s="55" t="s">
         <v>515</v>
       </c>
-      <c r="E1" s="55" t="s">
-        <v>516</v>
-      </c>
       <c r="F1" s="55" t="s">
+        <v>443</v>
+      </c>
+      <c r="G1" s="55" t="s">
         <v>444</v>
       </c>
-      <c r="G1" s="55" t="s">
-        <v>445</v>
-      </c>
       <c r="H1" s="55" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="I1" s="55" t="s">
         <v>78</v>
       </c>
       <c r="J1" s="55" t="s">
+        <v>521</v>
+      </c>
+      <c r="K1" s="55" t="s">
         <v>522</v>
       </c>
-      <c r="K1" s="55" t="s">
+      <c r="L1" s="55" t="s">
         <v>523</v>
       </c>
-      <c r="L1" s="55" t="s">
+      <c r="M1" s="55" t="s">
         <v>524</v>
       </c>
-      <c r="M1" s="55" t="s">
+      <c r="N1" s="55" t="s">
         <v>525</v>
       </c>
-      <c r="N1" s="55" t="s">
+      <c r="O1" s="55" t="s">
         <v>526</v>
-      </c>
-      <c r="O1" s="55" t="s">
-        <v>527</v>
       </c>
       <c r="P1" s="55" t="s">
         <v>84</v>
       </c>
       <c r="Q1" s="55" t="s">
+        <v>527</v>
+      </c>
+      <c r="R1" s="55" t="s">
         <v>528</v>
       </c>
-      <c r="R1" s="55" t="s">
-        <v>529</v>
-      </c>
       <c r="S1" s="55" t="s">
+        <v>535</v>
+      </c>
+      <c r="T1" s="55" t="s">
         <v>536</v>
       </c>
-      <c r="T1" s="55" t="s">
+      <c r="U1" s="55" t="s">
         <v>537</v>
       </c>
-      <c r="U1" s="55" t="s">
+      <c r="V1" s="55" t="s">
         <v>538</v>
       </c>
-      <c r="V1" s="55" t="s">
-        <v>539</v>
-      </c>
       <c r="W1" s="55" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="X1" s="3" t="s">
+        <v>614</v>
+      </c>
+      <c r="Y1" s="3" t="s">
         <v>615</v>
-      </c>
-      <c r="Y1" s="3" t="s">
-        <v>616</v>
       </c>
     </row>
     <row r="2" spans="1:25">
       <c r="A2" s="57" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B2" s="57" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C2" s="58">
         <v>4138</v>
       </c>
       <c r="D2" s="58" t="s">
+        <v>516</v>
+      </c>
+      <c r="E2" s="58" t="s">
         <v>517</v>
       </c>
-      <c r="E2" s="58" t="s">
-        <v>518</v>
-      </c>
       <c r="F2" s="58" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="G2" s="59" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="H2" s="59" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="I2" s="59"/>
       <c r="J2" s="59"/>
@@ -8846,43 +9160,43 @@
     </row>
     <row r="3" spans="1:25">
       <c r="A3" s="57" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B3" s="57" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C3" s="58">
         <v>4138</v>
       </c>
       <c r="D3" s="58" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="E3" s="58" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="F3" s="58" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="G3" s="59" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="H3" s="59" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="I3" s="59" t="s">
         <v>240</v>
       </c>
       <c r="J3" s="59" t="s">
+        <v>529</v>
+      </c>
+      <c r="K3" s="59" t="s">
         <v>530</v>
-      </c>
-      <c r="K3" s="59" t="s">
-        <v>531</v>
       </c>
       <c r="L3" s="59" t="s">
         <v>195</v>
       </c>
       <c r="M3" s="59" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="N3" s="59" t="s">
         <v>191</v>
@@ -8891,13 +9205,13 @@
         <v>91</v>
       </c>
       <c r="P3" s="59" t="s">
+        <v>532</v>
+      </c>
+      <c r="Q3" s="59" t="s">
         <v>533</v>
       </c>
-      <c r="Q3" s="59" t="s">
-        <v>534</v>
-      </c>
       <c r="R3" s="59" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="S3" s="59" t="s">
         <v>91</v>
@@ -8906,10 +9220,10 @@
         <v>93</v>
       </c>
       <c r="U3" s="59" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="V3" s="59" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="W3" s="59"/>
       <c r="X3" s="59"/>
@@ -8917,28 +9231,28 @@
     </row>
     <row r="4" spans="1:25">
       <c r="A4" s="57" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B4" s="57" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C4" s="58">
         <v>4138</v>
       </c>
       <c r="D4" s="58" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="E4" s="58" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="F4" s="58" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="G4" s="59" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="H4" s="59" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="I4" s="59"/>
       <c r="J4" s="59"/>
@@ -8960,28 +9274,28 @@
     </row>
     <row r="5" spans="1:25">
       <c r="A5" s="57" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B5" s="57" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="C5" s="58">
         <v>4138</v>
       </c>
       <c r="D5" s="58" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="E5" s="58" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="F5" s="58" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="G5" s="59" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="H5" s="59" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="I5" s="59"/>
       <c r="J5" s="59"/>
@@ -9003,43 +9317,43 @@
     </row>
     <row r="6" spans="1:25">
       <c r="A6" s="57" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B6" s="57" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="C6" s="58">
         <v>4138</v>
       </c>
       <c r="D6" s="58" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="E6" s="58" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="F6" s="58" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="G6" s="59" t="s">
+        <v>551</v>
+      </c>
+      <c r="H6" s="59" t="s">
         <v>552</v>
-      </c>
-      <c r="H6" s="59" t="s">
-        <v>553</v>
       </c>
       <c r="I6" s="59" t="s">
         <v>240</v>
       </c>
       <c r="J6" s="59" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="K6" s="59" t="s">
+        <v>549</v>
+      </c>
+      <c r="L6" s="59" t="s">
         <v>550</v>
       </c>
-      <c r="L6" s="59" t="s">
-        <v>551</v>
-      </c>
       <c r="M6" s="59" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="N6" s="59" t="s">
         <v>191</v>
@@ -9048,10 +9362,10 @@
         <v>91</v>
       </c>
       <c r="P6" s="59" t="s">
+        <v>532</v>
+      </c>
+      <c r="Q6" s="59" t="s">
         <v>533</v>
-      </c>
-      <c r="Q6" s="59" t="s">
-        <v>534</v>
       </c>
       <c r="R6" s="59"/>
       <c r="S6" s="59"/>
@@ -9064,10 +9378,10 @@
     </row>
     <row r="7" spans="1:25">
       <c r="A7" s="57" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B7" s="57" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C7" s="58">
         <v>4138</v>
@@ -9097,10 +9411,10 @@
     </row>
     <row r="8" spans="1:25">
       <c r="A8" s="57" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B8" s="57" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="C8" s="58">
         <v>4138</v>
@@ -9113,10 +9427,10 @@
       <c r="I8" s="59"/>
       <c r="J8" s="59"/>
       <c r="K8" s="59" t="s">
+        <v>549</v>
+      </c>
+      <c r="L8" s="59" t="s">
         <v>550</v>
-      </c>
-      <c r="L8" s="59" t="s">
-        <v>551</v>
       </c>
       <c r="M8" s="59"/>
       <c r="N8" s="59"/>
@@ -9134,10 +9448,10 @@
     </row>
     <row r="9" spans="1:25">
       <c r="A9" s="57" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B9" s="57" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="C9" s="58">
         <v>4138</v>
@@ -9167,10 +9481,10 @@
     </row>
     <row r="10" spans="1:25">
       <c r="A10" s="57" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B10" s="57" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="C10" s="58">
         <v>4138</v>
@@ -9195,17 +9509,17 @@
       <c r="U10" s="59"/>
       <c r="V10" s="59"/>
       <c r="W10" s="59" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="X10" s="59"/>
       <c r="Y10" s="59"/>
     </row>
     <row r="11" spans="1:25">
       <c r="A11" s="57" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="B11" s="57" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="C11" s="58">
         <v>4138</v>
@@ -9230,17 +9544,17 @@
       <c r="U11" s="59"/>
       <c r="V11" s="59"/>
       <c r="W11" s="59" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="X11" s="59"/>
       <c r="Y11" s="59"/>
     </row>
     <row r="12" spans="1:25">
       <c r="A12" s="57" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="B12" s="57" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="C12" s="58">
         <v>4138</v>
@@ -9266,18 +9580,18 @@
       <c r="V12" s="59"/>
       <c r="W12" s="59"/>
       <c r="X12" s="59" t="s">
+        <v>616</v>
+      </c>
+      <c r="Y12" s="59" t="s">
         <v>617</v>
-      </c>
-      <c r="Y12" s="59" t="s">
-        <v>618</v>
       </c>
     </row>
     <row r="13" spans="1:25">
       <c r="A13" s="57" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="B13" s="57" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="C13" s="58">
         <v>4138</v>
@@ -9376,25 +9690,25 @@
         <v>17</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="M1" s="3" t="s">
+        <v>624</v>
+      </c>
+      <c r="N1" s="3" t="s">
         <v>625</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>626</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>627</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>628</v>
       </c>
       <c r="Q1" s="3" t="s">
         <v>318</v>
       </c>
       <c r="R1" s="3" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="S1" s="3" t="s">
         <v>48</v>
@@ -9405,10 +9719,10 @@
     </row>
     <row r="2" spans="1:20">
       <c r="A2" s="57" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="B2" s="57" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C2" s="58">
         <v>4138</v>
@@ -9433,10 +9747,10 @@
     </row>
     <row r="3" spans="1:20">
       <c r="A3" s="57" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="B3" s="57" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="C3" s="58">
         <v>4138</v>
@@ -9463,7 +9777,7 @@
         <v>251</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="L3" s="4"/>
       <c r="M3" s="4"/>
@@ -9477,10 +9791,10 @@
     </row>
     <row r="4" spans="1:20">
       <c r="A4" s="57" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="B4" s="57" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="C4" s="58">
         <v>4138</v>
@@ -9492,10 +9806,10 @@
         <v>230</v>
       </c>
       <c r="F4" s="4" t="s">
+        <v>621</v>
+      </c>
+      <c r="G4" s="4" t="s">
         <v>622</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>623</v>
       </c>
       <c r="H4" s="58">
         <v>72</v>
@@ -9520,7 +9834,7 @@
         <v>50000</v>
       </c>
       <c r="P4" s="58" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="Q4" s="58" t="s">
         <v>322</v>
@@ -9533,10 +9847,10 @@
     </row>
     <row r="5" spans="1:20">
       <c r="A5" s="57" t="s">
+        <v>634</v>
+      </c>
+      <c r="B5" s="57" t="s">
         <v>635</v>
-      </c>
-      <c r="B5" s="57" t="s">
-        <v>636</v>
       </c>
       <c r="C5" s="58">
         <v>4138</v>
@@ -9548,20 +9862,20 @@
         <v>230</v>
       </c>
       <c r="F5" s="4" t="s">
+        <v>646</v>
+      </c>
+      <c r="G5" s="4" t="s">
         <v>647</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>648</v>
       </c>
       <c r="H5" s="58">
         <v>72</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="J5" s="4"/>
       <c r="K5" s="4" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="L5" s="4"/>
       <c r="M5" s="4"/>
@@ -9575,10 +9889,10 @@
     </row>
     <row r="6" spans="1:20">
       <c r="A6" s="57" t="s">
+        <v>636</v>
+      </c>
+      <c r="B6" s="57" t="s">
         <v>637</v>
-      </c>
-      <c r="B6" s="57" t="s">
-        <v>638</v>
       </c>
       <c r="C6" s="58">
         <v>4138</v>
@@ -9591,12 +9905,12 @@
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
       <c r="I6" s="4" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="J6" s="4"/>
       <c r="K6" s="4"/>
       <c r="L6" s="4" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>
@@ -9609,10 +9923,10 @@
     </row>
     <row r="7" spans="1:20">
       <c r="A7" s="57" t="s">
+        <v>638</v>
+      </c>
+      <c r="B7" s="57" t="s">
         <v>639</v>
-      </c>
-      <c r="B7" s="57" t="s">
-        <v>640</v>
       </c>
       <c r="C7" s="58">
         <v>4138</v>
@@ -9637,10 +9951,10 @@
     </row>
     <row r="8" spans="1:20">
       <c r="A8" s="57" t="s">
+        <v>640</v>
+      </c>
+      <c r="B8" s="57" t="s">
         <v>641</v>
-      </c>
-      <c r="B8" s="57" t="s">
-        <v>642</v>
       </c>
       <c r="C8" s="58">
         <v>4138</v>
@@ -9664,15 +9978,15 @@
         <v>236</v>
       </c>
       <c r="T8" s="4" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" s="57" t="s">
+        <v>642</v>
+      </c>
+      <c r="B9" s="57" t="s">
         <v>643</v>
-      </c>
-      <c r="B9" s="57" t="s">
-        <v>644</v>
       </c>
       <c r="C9" s="58">
         <v>4138</v>
@@ -9697,10 +10011,10 @@
     </row>
     <row r="10" spans="1:20">
       <c r="A10" s="57" t="s">
+        <v>644</v>
+      </c>
+      <c r="B10" s="57" t="s">
         <v>645</v>
-      </c>
-      <c r="B10" s="57" t="s">
-        <v>646</v>
       </c>
       <c r="C10" s="58">
         <v>4138</v>
@@ -9732,8 +10046,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -9760,33 +10074,33 @@
         <v>10</v>
       </c>
       <c r="D1" s="3" t="s">
+        <v>683</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>700</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>684</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>701</v>
-      </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>685</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>686</v>
       </c>
-      <c r="H1" s="3" t="s">
-        <v>687</v>
-      </c>
       <c r="I1" s="3" t="s">
+        <v>465</v>
+      </c>
+      <c r="J1" s="3" t="s">
         <v>466</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>467</v>
       </c>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="81" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="B2" s="57" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C2" s="58">
         <v>3656</v>
@@ -9803,10 +10117,10 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="81" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="B3" s="57" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="C3" s="58">
         <v>3656</v>
@@ -9821,10 +10135,10 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="81" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="B4" s="57" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="C4" s="58">
         <v>3656</v>
@@ -9832,13 +10146,13 @@
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
       <c r="F4" s="4" t="s">
+        <v>687</v>
+      </c>
+      <c r="G4" s="4" t="s">
         <v>688</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="H4" s="4" t="s">
         <v>689</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>690</v>
       </c>
       <c r="I4" s="4" t="s">
         <v>234</v>
@@ -9849,10 +10163,10 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="81" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="B5" s="57" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="C5" s="58">
         <v>3656</v>
@@ -9871,10 +10185,10 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="81" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="B6" s="57" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="C6" s="58">
         <v>3656</v>
@@ -9924,57 +10238,57 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="10" t="s">
+        <v>708</v>
+      </c>
+      <c r="B2" s="10" t="s">
         <v>709</v>
       </c>
-      <c r="B2" s="10" t="s">
-        <v>710</v>
-      </c>
       <c r="C2" s="4" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="10" t="s">
+        <v>710</v>
+      </c>
+      <c r="B3" s="10" t="s">
         <v>711</v>
       </c>
-      <c r="B3" s="10" t="s">
-        <v>712</v>
-      </c>
       <c r="C3" s="4" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="10" t="s">
+        <v>712</v>
+      </c>
+      <c r="B4" s="10" t="s">
         <v>713</v>
       </c>
-      <c r="B4" s="10" t="s">
-        <v>714</v>
-      </c>
       <c r="C4" s="4" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="10" t="s">
+        <v>714</v>
+      </c>
+      <c r="B5" s="10" t="s">
         <v>715</v>
       </c>
-      <c r="B5" s="10" t="s">
-        <v>716</v>
-      </c>
       <c r="C5" s="4" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="10" t="s">
+        <v>716</v>
+      </c>
+      <c r="B6" s="10" t="s">
         <v>717</v>
       </c>
-      <c r="B6" s="10" t="s">
-        <v>718</v>
-      </c>
       <c r="C6" s="4" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
   </sheetData>
@@ -9987,7 +10301,7 @@
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
@@ -10015,14 +10329,14 @@
     </row>
     <row r="2" spans="1:5" s="86" customFormat="1">
       <c r="A2" s="87" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B2" s="87"/>
       <c r="C2" s="7" t="s">
         <v>31</v>
       </c>
       <c r="D2" s="87" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -10089,13 +10403,16 @@
         <v>173</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>172</v>
+        <v>818</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>31</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>171</v>
+      </c>
+      <c r="E7" s="94" t="s">
+        <v>817</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -10103,7 +10420,7 @@
         <v>229</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>31</v>
@@ -10120,7 +10437,7 @@
         <v>257</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>395</v>
+        <v>804</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>31</v>
@@ -10145,76 +10462,76 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="8" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>31</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="8" t="s">
+        <v>511</v>
+      </c>
+      <c r="B12" s="8" t="s">
         <v>512</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>513</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>31</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="E12" s="15"/>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="8" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>31</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="8" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="C14" s="7" t="s">
         <v>31</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="8" t="s">
+        <v>720</v>
+      </c>
+      <c r="B15" s="8" t="s">
         <v>721</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>722</v>
       </c>
       <c r="C15" s="7" t="s">
         <v>31</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
   </sheetData>
@@ -10242,8 +10559,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:S10"/>
   <sheetViews>
-    <sheetView topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="S1" sqref="S1"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="R1" sqref="R1:S6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -10280,102 +10597,102 @@
         <v>10</v>
       </c>
       <c r="D1" s="3" t="s">
+        <v>747</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>748</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>749</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>750</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
+        <v>755</v>
+      </c>
+      <c r="I1" s="3" t="s">
         <v>751</v>
       </c>
-      <c r="H1" s="3" t="s">
-        <v>756</v>
-      </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
+        <v>754</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>753</v>
+      </c>
+      <c r="L1" s="3" t="s">
         <v>752</v>
       </c>
-      <c r="J1" s="3" t="s">
-        <v>755</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>754</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>753</v>
-      </c>
       <c r="M1" s="3" t="s">
+        <v>763</v>
+      </c>
+      <c r="N1" s="3" t="s">
         <v>764</v>
       </c>
-      <c r="N1" s="3" t="s">
-        <v>765</v>
-      </c>
       <c r="O1" s="3" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="P1" s="3" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="Q1" s="3" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="R1" s="3" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="S1" s="3" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="2" spans="1:19">
       <c r="A2" s="10" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>226</v>
       </c>
       <c r="D2" s="4" t="s">
+        <v>756</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>756</v>
+      </c>
+      <c r="F2" s="4" t="s">
         <v>757</v>
       </c>
-      <c r="E2" s="4" t="s">
-        <v>757</v>
-      </c>
-      <c r="F2" s="4" t="s">
+      <c r="G2" s="4" t="s">
         <v>758</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="H2" s="4" t="s">
         <v>759</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="I2" s="4" t="s">
         <v>760</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="J2" s="4" t="s">
         <v>761</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="K2" s="4" t="s">
         <v>762</v>
       </c>
-      <c r="K2" s="4" t="s">
-        <v>763</v>
-      </c>
       <c r="L2" s="4" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="M2" s="4" t="s">
+        <v>765</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>768</v>
+      </c>
+      <c r="O2" s="4" t="s">
         <v>766</v>
       </c>
-      <c r="N2" s="4" t="s">
-        <v>769</v>
-      </c>
-      <c r="O2" s="4" t="s">
-        <v>767</v>
-      </c>
       <c r="P2" s="4" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="Q2" s="4" t="s">
         <v>234</v>
@@ -10385,10 +10702,10 @@
     </row>
     <row r="3" spans="1:19">
       <c r="A3" s="10" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>226</v>
@@ -10412,10 +10729,10 @@
     </row>
     <row r="4" spans="1:19">
       <c r="A4" s="10" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>226</v>
@@ -10439,10 +10756,10 @@
     </row>
     <row r="5" spans="1:19">
       <c r="A5" s="10" t="s">
+        <v>772</v>
+      </c>
+      <c r="B5" s="10" t="s">
         <v>773</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>774</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>226</v>
@@ -10466,10 +10783,10 @@
     </row>
     <row r="6" spans="1:19">
       <c r="A6" s="10" t="s">
+        <v>774</v>
+      </c>
+      <c r="B6" s="10" t="s">
         <v>775</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>776</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>226</v>
@@ -10493,10 +10810,10 @@
     </row>
     <row r="7" spans="1:19">
       <c r="A7" s="10" t="s">
+        <v>776</v>
+      </c>
+      <c r="B7" s="10" t="s">
         <v>777</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>778</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>226</v>
@@ -10506,17 +10823,17 @@
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
       <c r="H7" s="4" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="I7" s="4"/>
       <c r="J7" s="4" t="s">
+        <v>784</v>
+      </c>
+      <c r="K7" s="4" t="s">
         <v>785</v>
       </c>
-      <c r="K7" s="4" t="s">
+      <c r="L7" s="4" t="s">
         <v>786</v>
-      </c>
-      <c r="L7" s="4" t="s">
-        <v>787</v>
       </c>
       <c r="M7" s="4"/>
       <c r="N7" s="4"/>
@@ -10528,10 +10845,10 @@
     </row>
     <row r="8" spans="1:19">
       <c r="A8" s="10" t="s">
+        <v>778</v>
+      </c>
+      <c r="B8" s="10" t="s">
         <v>779</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>780</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>226</v>
@@ -10555,10 +10872,10 @@
     </row>
     <row r="9" spans="1:19">
       <c r="A9" s="10" t="s">
+        <v>780</v>
+      </c>
+      <c r="B9" s="10" t="s">
         <v>781</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>782</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>226</v>
@@ -10578,18 +10895,18 @@
       <c r="P9" s="4"/>
       <c r="Q9" s="4"/>
       <c r="R9" s="4" t="s">
+        <v>790</v>
+      </c>
+      <c r="S9" s="4" t="s">
         <v>791</v>
-      </c>
-      <c r="S9" s="4" t="s">
-        <v>792</v>
       </c>
     </row>
     <row r="10" spans="1:19">
       <c r="A10" s="10" t="s">
+        <v>782</v>
+      </c>
+      <c r="B10" s="10" t="s">
         <v>783</v>
-      </c>
-      <c r="B10" s="10" t="s">
-        <v>784</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>226</v>
@@ -10610,6 +10927,166 @@
       <c r="Q10" s="4"/>
       <c r="R10" s="4"/>
       <c r="S10" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="27.5546875" customWidth="1"/>
+    <col min="2" max="2" width="31.44140625" customWidth="1"/>
+    <col min="4" max="4" width="14.6640625" customWidth="1"/>
+    <col min="5" max="5" width="15.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="10" t="s">
+        <v>805</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>806</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="10" t="s">
+        <v>807</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>808</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="10" t="s">
+        <v>809</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>810</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="10" t="s">
+        <v>811</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>812</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>815</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="10" t="s">
+        <v>813</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>814</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="17.88671875" customWidth="1"/>
+    <col min="2" max="2" width="24.44140625" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" style="49" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="95" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="57" t="s">
+        <v>819</v>
+      </c>
+      <c r="B2" s="57" t="s">
+        <v>821</v>
+      </c>
+      <c r="C2" s="96">
+        <v>2970</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="57" t="s">
+        <v>820</v>
+      </c>
+      <c r="B3" s="57" t="s">
+        <v>822</v>
+      </c>
+      <c r="C3" s="96">
+        <v>2970</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10690,7 +11167,7 @@
         <v>12</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
@@ -10711,7 +11188,7 @@
         <v>20</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>13</v>
@@ -10742,7 +11219,7 @@
         <v>26</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4" t="s">
@@ -10769,7 +11246,7 @@
         <v>41</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
@@ -10798,7 +11275,7 @@
         <v>18</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>13</v>
@@ -10826,10 +11303,10 @@
         <v>139</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
@@ -10891,28 +11368,28 @@
         <v>113</v>
       </c>
       <c r="F1" s="3" t="s">
+        <v>464</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>465</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>466</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>467</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>468</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>469</v>
       </c>
-      <c r="K1" s="3" t="s">
-        <v>470</v>
-      </c>
       <c r="L1" s="3" t="s">
+        <v>487</v>
+      </c>
+      <c r="M1" s="3" t="s">
         <v>488</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>489</v>
       </c>
     </row>
     <row r="2" spans="1:13">
@@ -10986,10 +11463,10 @@
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="10" t="s">
+        <v>462</v>
+      </c>
+      <c r="B5" s="10" t="s">
         <v>463</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>464</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>112</v>
@@ -10997,32 +11474,32 @@
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
       <c r="F5" s="4" t="s">
+        <v>470</v>
+      </c>
+      <c r="G5" s="4" t="s">
         <v>471</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="H5" s="4" t="s">
         <v>472</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="I5" s="4" t="s">
         <v>473</v>
       </c>
-      <c r="I5" s="4" t="s">
+      <c r="J5" s="4" t="s">
         <v>474</v>
       </c>
-      <c r="J5" s="4" t="s">
+      <c r="K5" s="4" t="s">
         <v>475</v>
-      </c>
-      <c r="K5" s="4" t="s">
-        <v>476</v>
       </c>
       <c r="L5" s="4"/>
       <c r="M5" s="4"/>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="10" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>112</v>
@@ -11040,10 +11517,10 @@
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="10" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>112</v>
@@ -11057,10 +11534,10 @@
       <c r="J7" s="4"/>
       <c r="K7" s="4"/>
       <c r="L7" s="4" t="s">
+        <v>489</v>
+      </c>
+      <c r="M7" s="4" t="s">
         <v>490</v>
-      </c>
-      <c r="M7" s="4" t="s">
-        <v>491</v>
       </c>
     </row>
   </sheetData>
@@ -11103,28 +11580,28 @@
         <v>10</v>
       </c>
       <c r="D1" s="3" t="s">
+        <v>443</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>444</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>445</v>
       </c>
-      <c r="F1" s="3" t="s">
-        <v>446</v>
-      </c>
       <c r="G1" s="3" t="s">
+        <v>437</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>438</v>
       </c>
-      <c r="H1" s="3" t="s">
-        <v>439</v>
-      </c>
       <c r="I1" s="3" t="s">
+        <v>441</v>
+      </c>
+      <c r="J1" s="3" t="s">
         <v>442</v>
       </c>
-      <c r="J1" s="3" t="s">
-        <v>443</v>
-      </c>
       <c r="K1" s="3" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="2" spans="1:11">
@@ -11138,7 +11615,7 @@
         <v>115</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="E2" s="12" t="s">
         <v>53</v>
@@ -11149,36 +11626,36 @@
       <c r="G2" s="12"/>
       <c r="H2" s="12"/>
       <c r="I2" s="12" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="J2" s="12"/>
       <c r="K2" s="12"/>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="11" t="s">
+        <v>424</v>
+      </c>
+      <c r="B3" s="11" t="s">
         <v>425</v>
       </c>
-      <c r="B3" s="11" t="s">
-        <v>426</v>
-      </c>
       <c r="C3" s="12" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="F3" s="12"/>
       <c r="G3" s="12" t="s">
+        <v>439</v>
+      </c>
+      <c r="H3" s="12" t="s">
         <v>440</v>
       </c>
-      <c r="H3" s="12" t="s">
-        <v>441</v>
-      </c>
       <c r="I3" s="12" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="J3" s="12" t="s">
         <v>54</v>
@@ -11187,13 +11664,13 @@
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="11" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D4" s="12"/>
       <c r="E4" s="12"/>
@@ -11206,29 +11683,29 @@
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="11" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="E5" s="12"/>
       <c r="F5" s="12" t="s">
+        <v>455</v>
+      </c>
+      <c r="G5" s="12" t="s">
         <v>456</v>
       </c>
-      <c r="G5" s="12" t="s">
+      <c r="H5" s="12" t="s">
         <v>457</v>
       </c>
-      <c r="H5" s="12" t="s">
-        <v>458</v>
-      </c>
       <c r="I5" s="12" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="J5" s="12" t="s">
         <v>54</v>
@@ -11237,27 +11714,27 @@
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="11" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="G6" s="12"/>
       <c r="H6" s="12"/>
       <c r="I6" s="12" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="J6" s="12" t="s">
         <v>54</v>
@@ -11266,13 +11743,13 @@
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="11" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D7" s="12"/>
       <c r="E7" s="12"/>
@@ -11285,13 +11762,13 @@
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="11" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D8" s="12"/>
       <c r="E8" s="12"/>
@@ -11484,10 +11961,10 @@
         <v>56</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="F2" s="12" t="s">
         <v>87</v>
@@ -11813,10 +12290,10 @@
         <v>192</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="F2" s="12" t="s">
         <v>193</v>
@@ -11929,10 +12406,10 @@
         <v>192</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="F5" s="12" t="s">
         <v>193</v>

--- a/KULS_Sankar/TestData/ijaraTestData.xlsx
+++ b/KULS_Sankar/TestData/ijaraTestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="72" windowWidth="23256" windowHeight="12600" firstSheet="13" activeTab="17"/>
+    <workbookView xWindow="0" yWindow="72" windowWidth="23256" windowHeight="12600" firstSheet="15" activeTab="17"/>
   </bookViews>
   <sheets>
     <sheet name="AllFeaturesAutomationInfo" sheetId="8" r:id="rId1"/>
@@ -29,13 +29,14 @@
     <sheet name="MU_AppData_AssetDetails" sheetId="20" r:id="rId20"/>
     <sheet name="MU_DataCheck_AddressDetails" sheetId="21" r:id="rId21"/>
     <sheet name="Ijarah_CS_RepaymentMode" sheetId="22" r:id="rId22"/>
+    <sheet name="TW_Underwriter" sheetId="23" r:id="rId23"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1987" uniqueCount="834">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2029" uniqueCount="857">
   <si>
     <t>UserName</t>
   </si>
@@ -2587,6 +2588,75 @@
   </si>
   <si>
     <t>ADC_01_05  --&gt; ADC_01_29</t>
+  </si>
+  <si>
+    <t>userType14</t>
+  </si>
+  <si>
+    <t>Tawarruq -- Underwriter</t>
+  </si>
+  <si>
+    <t>AT_TW_UNW_01</t>
+  </si>
+  <si>
+    <t>AT_TW_UNW_02</t>
+  </si>
+  <si>
+    <t>DS_AT_TW_UNW_01</t>
+  </si>
+  <si>
+    <t>DS_AT_TW_UNW_02</t>
+  </si>
+  <si>
+    <t>AT_TW_UNW_03</t>
+  </si>
+  <si>
+    <t>DS_AT_TW_UNW_03</t>
+  </si>
+  <si>
+    <t>AT_TW_UNW_04</t>
+  </si>
+  <si>
+    <t>DS_AT_TW_UNW_04</t>
+  </si>
+  <si>
+    <t>AT_TW_UNW_05</t>
+  </si>
+  <si>
+    <t>DS_AT_TW_UNW_05</t>
+  </si>
+  <si>
+    <t>AT_TW_UNW_06</t>
+  </si>
+  <si>
+    <t>DS_AT_TW_UNW_06</t>
+  </si>
+  <si>
+    <t>AT_TW_UNW_07</t>
+  </si>
+  <si>
+    <t>DS_AT_TW_UNW_07</t>
+  </si>
+  <si>
+    <t>Decision_Value</t>
+  </si>
+  <si>
+    <t>Decision_Value1</t>
+  </si>
+  <si>
+    <t>Sequence_Nbr</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>Invalid_Deviation_Amt</t>
+  </si>
+  <si>
+    <t>1200000</t>
   </si>
 </sst>
 </file>
@@ -3130,19 +3200,16 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3166,11 +3233,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -3471,7 +3541,7 @@
   <dimension ref="A1:K170"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A150" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A147" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="K176" sqref="K176"/>
     </sheetView>
   </sheetViews>
@@ -3527,10 +3597,10 @@
       </c>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="98" t="s">
+      <c r="A2" s="99" t="s">
         <v>661</v>
       </c>
-      <c r="B2" s="106" t="s">
+      <c r="B2" s="105" t="s">
         <v>127</v>
       </c>
       <c r="C2" s="20" t="s">
@@ -3552,7 +3622,7 @@
         <v>478</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="102" t="s">
+      <c r="J2" s="101" t="s">
         <v>133</v>
       </c>
       <c r="K2" s="25" t="s">
@@ -3560,8 +3630,8 @@
       </c>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="97"/>
-      <c r="B3" s="107"/>
+      <c r="A3" s="100"/>
+      <c r="B3" s="106"/>
       <c r="C3" s="20" t="s">
         <v>21</v>
       </c>
@@ -3581,14 +3651,14 @@
         <v>478</v>
       </c>
       <c r="I3" s="25"/>
-      <c r="J3" s="103"/>
+      <c r="J3" s="102"/>
       <c r="K3" s="25" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="97"/>
-      <c r="B4" s="107"/>
+      <c r="A4" s="100"/>
+      <c r="B4" s="106"/>
       <c r="C4" s="20" t="s">
         <v>27</v>
       </c>
@@ -3608,14 +3678,14 @@
         <v>478</v>
       </c>
       <c r="I4" s="25"/>
-      <c r="J4" s="103"/>
+      <c r="J4" s="102"/>
       <c r="K4" s="25" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="97"/>
-      <c r="B5" s="108"/>
+      <c r="A5" s="100"/>
+      <c r="B5" s="107"/>
       <c r="C5" s="20" t="s">
         <v>19</v>
       </c>
@@ -3635,7 +3705,7 @@
         <v>478</v>
       </c>
       <c r="I5" s="25"/>
-      <c r="J5" s="104"/>
+      <c r="J5" s="103"/>
       <c r="K5" s="25" t="s">
         <v>131</v>
       </c>
@@ -3654,10 +3724,10 @@
       <c r="K6" s="25"/>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="97" t="s">
+      <c r="A7" s="100" t="s">
         <v>660</v>
       </c>
-      <c r="B7" s="106" t="s">
+      <c r="B7" s="105" t="s">
         <v>140</v>
       </c>
       <c r="C7" s="20" t="s">
@@ -3679,7 +3749,7 @@
         <v>479</v>
       </c>
       <c r="I7" s="25"/>
-      <c r="J7" s="102" t="s">
+      <c r="J7" s="101" t="s">
         <v>133</v>
       </c>
       <c r="K7" s="21" t="s">
@@ -3687,8 +3757,8 @@
       </c>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="97"/>
-      <c r="B8" s="107"/>
+      <c r="A8" s="100"/>
+      <c r="B8" s="106"/>
       <c r="C8" s="20" t="s">
         <v>136</v>
       </c>
@@ -3708,14 +3778,14 @@
         <v>479</v>
       </c>
       <c r="I8" s="25"/>
-      <c r="J8" s="103"/>
+      <c r="J8" s="102"/>
       <c r="K8" s="25" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" s="97"/>
-      <c r="B9" s="107"/>
+      <c r="A9" s="100"/>
+      <c r="B9" s="106"/>
       <c r="C9" s="20" t="s">
         <v>137</v>
       </c>
@@ -3735,14 +3805,14 @@
         <v>479</v>
       </c>
       <c r="I9" s="25"/>
-      <c r="J9" s="103"/>
+      <c r="J9" s="102"/>
       <c r="K9" s="25" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="10" spans="1:11">
-      <c r="A10" s="97"/>
-      <c r="B10" s="107"/>
+      <c r="A10" s="100"/>
+      <c r="B10" s="106"/>
       <c r="C10" s="20" t="s">
         <v>138</v>
       </c>
@@ -3762,7 +3832,7 @@
         <v>479</v>
       </c>
       <c r="I10" s="25"/>
-      <c r="J10" s="104"/>
+      <c r="J10" s="103"/>
       <c r="K10" s="25" t="s">
         <v>145</v>
       </c>
@@ -3771,7 +3841,7 @@
       <c r="A11" s="68" t="s">
         <v>659</v>
       </c>
-      <c r="B11" s="107"/>
+      <c r="B11" s="106"/>
       <c r="C11" s="71" t="s">
         <v>51</v>
       </c>
@@ -3797,10 +3867,10 @@
       </c>
     </row>
     <row r="12" spans="1:11">
-      <c r="A12" s="98" t="s">
+      <c r="A12" s="99" t="s">
         <v>658</v>
       </c>
-      <c r="B12" s="107"/>
+      <c r="B12" s="106"/>
       <c r="C12" s="20" t="s">
         <v>42</v>
       </c>
@@ -3820,7 +3890,7 @@
         <v>134</v>
       </c>
       <c r="I12" s="25"/>
-      <c r="J12" s="105" t="s">
+      <c r="J12" s="104" t="s">
         <v>703</v>
       </c>
       <c r="K12" s="25" t="s">
@@ -3828,8 +3898,8 @@
       </c>
     </row>
     <row r="13" spans="1:11">
-      <c r="A13" s="97"/>
-      <c r="B13" s="108"/>
+      <c r="A13" s="100"/>
+      <c r="B13" s="107"/>
       <c r="C13" s="20" t="s">
         <v>139</v>
       </c>
@@ -3849,7 +3919,7 @@
         <v>134</v>
       </c>
       <c r="I13" s="25"/>
-      <c r="J13" s="104"/>
+      <c r="J13" s="103"/>
       <c r="K13" s="25" t="s">
         <v>147</v>
       </c>
@@ -3868,10 +3938,10 @@
       <c r="K14" s="25"/>
     </row>
     <row r="15" spans="1:11">
-      <c r="A15" s="98" t="s">
+      <c r="A15" s="99" t="s">
         <v>656</v>
       </c>
-      <c r="B15" s="106" t="s">
+      <c r="B15" s="105" t="s">
         <v>149</v>
       </c>
       <c r="C15" s="20" t="s">
@@ -3899,8 +3969,8 @@
       </c>
     </row>
     <row r="16" spans="1:11">
-      <c r="A16" s="97"/>
-      <c r="B16" s="107"/>
+      <c r="A16" s="100"/>
+      <c r="B16" s="106"/>
       <c r="C16" s="20" t="s">
         <v>60</v>
       </c>
@@ -3926,8 +3996,8 @@
       </c>
     </row>
     <row r="17" spans="1:11">
-      <c r="A17" s="97"/>
-      <c r="B17" s="107"/>
+      <c r="A17" s="100"/>
+      <c r="B17" s="106"/>
       <c r="C17" s="20" t="s">
         <v>61</v>
       </c>
@@ -3953,8 +4023,8 @@
       </c>
     </row>
     <row r="18" spans="1:11">
-      <c r="A18" s="97"/>
-      <c r="B18" s="107"/>
+      <c r="A18" s="100"/>
+      <c r="B18" s="106"/>
       <c r="C18" s="20" t="s">
         <v>62</v>
       </c>
@@ -3980,8 +4050,8 @@
       </c>
     </row>
     <row r="19" spans="1:11">
-      <c r="A19" s="97"/>
-      <c r="B19" s="107"/>
+      <c r="A19" s="100"/>
+      <c r="B19" s="106"/>
       <c r="C19" s="20" t="s">
         <v>67</v>
       </c>
@@ -4007,8 +4077,8 @@
       </c>
     </row>
     <row r="20" spans="1:11">
-      <c r="A20" s="97"/>
-      <c r="B20" s="108"/>
+      <c r="A20" s="100"/>
+      <c r="B20" s="107"/>
       <c r="C20" s="20" t="s">
         <v>68</v>
       </c>
@@ -4047,10 +4117,10 @@
       <c r="K21" s="25"/>
     </row>
     <row r="22" spans="1:11">
-      <c r="A22" s="98" t="s">
+      <c r="A22" s="99" t="s">
         <v>654</v>
       </c>
-      <c r="B22" s="106" t="s">
+      <c r="B22" s="105" t="s">
         <v>157</v>
       </c>
       <c r="C22" s="20" t="s">
@@ -4078,8 +4148,8 @@
       </c>
     </row>
     <row r="23" spans="1:11">
-      <c r="A23" s="97"/>
-      <c r="B23" s="107"/>
+      <c r="A23" s="100"/>
+      <c r="B23" s="106"/>
       <c r="C23" s="20" t="s">
         <v>73</v>
       </c>
@@ -4105,8 +4175,8 @@
       </c>
     </row>
     <row r="24" spans="1:11">
-      <c r="A24" s="97"/>
-      <c r="B24" s="107"/>
+      <c r="A24" s="100"/>
+      <c r="B24" s="106"/>
       <c r="C24" s="20" t="s">
         <v>74</v>
       </c>
@@ -4132,8 +4202,8 @@
       </c>
     </row>
     <row r="25" spans="1:11">
-      <c r="A25" s="97"/>
-      <c r="B25" s="107"/>
+      <c r="A25" s="100"/>
+      <c r="B25" s="106"/>
       <c r="C25" s="20" t="s">
         <v>76</v>
       </c>
@@ -4159,8 +4229,8 @@
       </c>
     </row>
     <row r="26" spans="1:11">
-      <c r="A26" s="97"/>
-      <c r="B26" s="108"/>
+      <c r="A26" s="100"/>
+      <c r="B26" s="107"/>
       <c r="C26" s="20" t="s">
         <v>95</v>
       </c>
@@ -4199,10 +4269,10 @@
       <c r="K27" s="25"/>
     </row>
     <row r="28" spans="1:11">
-      <c r="A28" s="98" t="s">
+      <c r="A28" s="99" t="s">
         <v>655</v>
       </c>
-      <c r="B28" s="106" t="s">
+      <c r="B28" s="105" t="s">
         <v>163</v>
       </c>
       <c r="C28" s="20" t="s">
@@ -4230,8 +4300,8 @@
       </c>
     </row>
     <row r="29" spans="1:11">
-      <c r="A29" s="97"/>
-      <c r="B29" s="107"/>
+      <c r="A29" s="100"/>
+      <c r="B29" s="106"/>
       <c r="C29" s="20" t="s">
         <v>108</v>
       </c>
@@ -4257,8 +4327,8 @@
       </c>
     </row>
     <row r="30" spans="1:11">
-      <c r="A30" s="97"/>
-      <c r="B30" s="107"/>
+      <c r="A30" s="100"/>
+      <c r="B30" s="106"/>
       <c r="C30" s="20" t="s">
         <v>109</v>
       </c>
@@ -4284,8 +4354,8 @@
       </c>
     </row>
     <row r="31" spans="1:11">
-      <c r="A31" s="97"/>
-      <c r="B31" s="107"/>
+      <c r="A31" s="100"/>
+      <c r="B31" s="106"/>
       <c r="C31" s="20" t="s">
         <v>110</v>
       </c>
@@ -4311,8 +4381,8 @@
       </c>
     </row>
     <row r="32" spans="1:11">
-      <c r="A32" s="97"/>
-      <c r="B32" s="107"/>
+      <c r="A32" s="100"/>
+      <c r="B32" s="106"/>
       <c r="C32" s="20" t="s">
         <v>111</v>
       </c>
@@ -4338,8 +4408,8 @@
       </c>
     </row>
     <row r="33" spans="1:11">
-      <c r="A33" s="97"/>
-      <c r="B33" s="108"/>
+      <c r="A33" s="100"/>
+      <c r="B33" s="107"/>
       <c r="C33" s="20" t="s">
         <v>117</v>
       </c>
@@ -4377,10 +4447,10 @@
       <c r="K34" s="25"/>
     </row>
     <row r="35" spans="1:11">
-      <c r="A35" s="98" t="s">
+      <c r="A35" s="99" t="s">
         <v>657</v>
       </c>
-      <c r="B35" s="106" t="s">
+      <c r="B35" s="105" t="s">
         <v>208</v>
       </c>
       <c r="C35" s="29" t="s">
@@ -4407,8 +4477,8 @@
       </c>
     </row>
     <row r="36" spans="1:11">
-      <c r="A36" s="97"/>
-      <c r="B36" s="107"/>
+      <c r="A36" s="100"/>
+      <c r="B36" s="106"/>
       <c r="C36" s="29" t="s">
         <v>176</v>
       </c>
@@ -4433,8 +4503,8 @@
       </c>
     </row>
     <row r="37" spans="1:11">
-      <c r="A37" s="97"/>
-      <c r="B37" s="107"/>
+      <c r="A37" s="100"/>
+      <c r="B37" s="106"/>
       <c r="C37" s="29" t="s">
         <v>178</v>
       </c>
@@ -4459,8 +4529,8 @@
       </c>
     </row>
     <row r="38" spans="1:11">
-      <c r="A38" s="97"/>
-      <c r="B38" s="107"/>
+      <c r="A38" s="100"/>
+      <c r="B38" s="106"/>
       <c r="C38" s="29" t="s">
         <v>179</v>
       </c>
@@ -4485,8 +4555,8 @@
       </c>
     </row>
     <row r="39" spans="1:11">
-      <c r="A39" s="97"/>
-      <c r="B39" s="108"/>
+      <c r="A39" s="100"/>
+      <c r="B39" s="107"/>
       <c r="C39" s="29" t="s">
         <v>180</v>
       </c>
@@ -4523,10 +4593,10 @@
       <c r="K40" s="25"/>
     </row>
     <row r="41" spans="1:11">
-      <c r="A41" s="98" t="s">
+      <c r="A41" s="99" t="s">
         <v>404</v>
       </c>
-      <c r="B41" s="106" t="s">
+      <c r="B41" s="105" t="s">
         <v>209</v>
       </c>
       <c r="C41" s="31" t="s">
@@ -4553,8 +4623,8 @@
       </c>
     </row>
     <row r="42" spans="1:11">
-      <c r="A42" s="97"/>
-      <c r="B42" s="107"/>
+      <c r="A42" s="100"/>
+      <c r="B42" s="106"/>
       <c r="C42" s="31" t="s">
         <v>211</v>
       </c>
@@ -4579,8 +4649,8 @@
       </c>
     </row>
     <row r="43" spans="1:11">
-      <c r="A43" s="97"/>
-      <c r="B43" s="107"/>
+      <c r="A43" s="100"/>
+      <c r="B43" s="106"/>
       <c r="C43" s="31" t="s">
         <v>212</v>
       </c>
@@ -4605,8 +4675,8 @@
       </c>
     </row>
     <row r="44" spans="1:11">
-      <c r="A44" s="97"/>
-      <c r="B44" s="107"/>
+      <c r="A44" s="100"/>
+      <c r="B44" s="106"/>
       <c r="C44" s="31" t="s">
         <v>213</v>
       </c>
@@ -4631,8 +4701,8 @@
       </c>
     </row>
     <row r="45" spans="1:11">
-      <c r="A45" s="97"/>
-      <c r="B45" s="108"/>
+      <c r="A45" s="100"/>
+      <c r="B45" s="107"/>
       <c r="C45" s="33" t="s">
         <v>214</v>
       </c>
@@ -4663,10 +4733,10 @@
       <c r="J46" s="79"/>
     </row>
     <row r="47" spans="1:11">
-      <c r="A47" s="98" t="s">
+      <c r="A47" s="99" t="s">
         <v>404</v>
       </c>
-      <c r="B47" s="99" t="s">
+      <c r="B47" s="108" t="s">
         <v>246</v>
       </c>
       <c r="C47" s="35" t="s">
@@ -4693,8 +4763,8 @@
       </c>
     </row>
     <row r="48" spans="1:11">
-      <c r="A48" s="97"/>
-      <c r="B48" s="100"/>
+      <c r="A48" s="100"/>
+      <c r="B48" s="109"/>
       <c r="C48" s="31" t="s">
         <v>243</v>
       </c>
@@ -4719,8 +4789,8 @@
       </c>
     </row>
     <row r="49" spans="1:11">
-      <c r="A49" s="97"/>
-      <c r="B49" s="100"/>
+      <c r="A49" s="100"/>
+      <c r="B49" s="109"/>
       <c r="C49" s="31" t="s">
         <v>244</v>
       </c>
@@ -4745,8 +4815,8 @@
       </c>
     </row>
     <row r="50" spans="1:11">
-      <c r="A50" s="97"/>
-      <c r="B50" s="100"/>
+      <c r="A50" s="100"/>
+      <c r="B50" s="109"/>
       <c r="C50" s="31" t="s">
         <v>245</v>
       </c>
@@ -4771,10 +4841,10 @@
       </c>
     </row>
     <row r="51" spans="1:11">
-      <c r="A51" s="98" t="s">
+      <c r="A51" s="99" t="s">
         <v>403</v>
       </c>
-      <c r="B51" s="100"/>
+      <c r="B51" s="109"/>
       <c r="C51" s="20" t="s">
         <v>252</v>
       </c>
@@ -4799,8 +4869,8 @@
       </c>
     </row>
     <row r="52" spans="1:11">
-      <c r="A52" s="97"/>
-      <c r="B52" s="100"/>
+      <c r="A52" s="100"/>
+      <c r="B52" s="109"/>
       <c r="C52" s="20" t="s">
         <v>253</v>
       </c>
@@ -4825,8 +4895,8 @@
       </c>
     </row>
     <row r="53" spans="1:11">
-      <c r="A53" s="97"/>
-      <c r="B53" s="100"/>
+      <c r="A53" s="100"/>
+      <c r="B53" s="109"/>
       <c r="C53" s="20" t="s">
         <v>254</v>
       </c>
@@ -4851,8 +4921,8 @@
       </c>
     </row>
     <row r="54" spans="1:11">
-      <c r="A54" s="97"/>
-      <c r="B54" s="100"/>
+      <c r="A54" s="100"/>
+      <c r="B54" s="109"/>
       <c r="C54" s="20" t="s">
         <v>255</v>
       </c>
@@ -4877,8 +4947,8 @@
       </c>
     </row>
     <row r="55" spans="1:11">
-      <c r="A55" s="97"/>
-      <c r="B55" s="101"/>
+      <c r="A55" s="100"/>
+      <c r="B55" s="110"/>
       <c r="C55" s="20" t="s">
         <v>256</v>
       </c>
@@ -4910,7 +4980,7 @@
       <c r="A57" s="45" t="s">
         <v>405</v>
       </c>
-      <c r="B57" s="97" t="s">
+      <c r="B57" s="100" t="s">
         <v>289</v>
       </c>
       <c r="C57" s="54" t="s">
@@ -4938,10 +5008,10 @@
       </c>
     </row>
     <row r="58" spans="1:11">
-      <c r="A58" s="98" t="s">
+      <c r="A58" s="99" t="s">
         <v>406</v>
       </c>
-      <c r="B58" s="97"/>
+      <c r="B58" s="100"/>
       <c r="C58" s="38" t="s">
         <v>272</v>
       </c>
@@ -4966,8 +5036,8 @@
       </c>
     </row>
     <row r="59" spans="1:11">
-      <c r="A59" s="97"/>
-      <c r="B59" s="97"/>
+      <c r="A59" s="100"/>
+      <c r="B59" s="100"/>
       <c r="C59" s="31" t="s">
         <v>275</v>
       </c>
@@ -4992,8 +5062,8 @@
       </c>
     </row>
     <row r="60" spans="1:11">
-      <c r="A60" s="97"/>
-      <c r="B60" s="97"/>
+      <c r="A60" s="100"/>
+      <c r="B60" s="100"/>
       <c r="C60" s="38" t="s">
         <v>267</v>
       </c>
@@ -5022,10 +5092,10 @@
       <c r="I61" s="25"/>
     </row>
     <row r="62" spans="1:11">
-      <c r="A62" s="98" t="s">
+      <c r="A62" s="99" t="s">
         <v>407</v>
       </c>
-      <c r="B62" s="97" t="s">
+      <c r="B62" s="100" t="s">
         <v>296</v>
       </c>
       <c r="C62" s="39" t="s">
@@ -5052,8 +5122,8 @@
       </c>
     </row>
     <row r="63" spans="1:11">
-      <c r="A63" s="97"/>
-      <c r="B63" s="97"/>
+      <c r="A63" s="100"/>
+      <c r="B63" s="100"/>
       <c r="C63" s="39" t="s">
         <v>298</v>
       </c>
@@ -5078,8 +5148,8 @@
       </c>
     </row>
     <row r="64" spans="1:11">
-      <c r="A64" s="97"/>
-      <c r="B64" s="97"/>
+      <c r="A64" s="100"/>
+      <c r="B64" s="100"/>
       <c r="C64" s="39" t="s">
         <v>299</v>
       </c>
@@ -5104,8 +5174,8 @@
       </c>
     </row>
     <row r="65" spans="1:11">
-      <c r="A65" s="97"/>
-      <c r="B65" s="97"/>
+      <c r="A65" s="100"/>
+      <c r="B65" s="100"/>
       <c r="C65" s="39" t="s">
         <v>300</v>
       </c>
@@ -5130,8 +5200,8 @@
       </c>
     </row>
     <row r="66" spans="1:11">
-      <c r="A66" s="97"/>
-      <c r="B66" s="97"/>
+      <c r="A66" s="100"/>
+      <c r="B66" s="100"/>
       <c r="C66" s="39" t="s">
         <v>301</v>
       </c>
@@ -5156,8 +5226,8 @@
       </c>
     </row>
     <row r="67" spans="1:11">
-      <c r="A67" s="97"/>
-      <c r="B67" s="97"/>
+      <c r="A67" s="100"/>
+      <c r="B67" s="100"/>
       <c r="C67" s="39" t="s">
         <v>302</v>
       </c>
@@ -5182,8 +5252,8 @@
       </c>
     </row>
     <row r="68" spans="1:11">
-      <c r="A68" s="97"/>
-      <c r="B68" s="97"/>
+      <c r="A68" s="100"/>
+      <c r="B68" s="100"/>
       <c r="C68" s="39" t="s">
         <v>303</v>
       </c>
@@ -5208,8 +5278,8 @@
       </c>
     </row>
     <row r="69" spans="1:11">
-      <c r="A69" s="97"/>
-      <c r="B69" s="97"/>
+      <c r="A69" s="100"/>
+      <c r="B69" s="100"/>
       <c r="C69" s="39" t="s">
         <v>304</v>
       </c>
@@ -5238,10 +5308,10 @@
       <c r="I70" s="25"/>
     </row>
     <row r="71" spans="1:11">
-      <c r="A71" s="98" t="s">
+      <c r="A71" s="99" t="s">
         <v>408</v>
       </c>
-      <c r="B71" s="97" t="s">
+      <c r="B71" s="100" t="s">
         <v>395</v>
       </c>
       <c r="C71" s="44" t="s">
@@ -5268,8 +5338,8 @@
       </c>
     </row>
     <row r="72" spans="1:11">
-      <c r="A72" s="97"/>
-      <c r="B72" s="97"/>
+      <c r="A72" s="100"/>
+      <c r="B72" s="100"/>
       <c r="C72" s="44" t="s">
         <v>367</v>
       </c>
@@ -5294,8 +5364,8 @@
       </c>
     </row>
     <row r="73" spans="1:11">
-      <c r="A73" s="97"/>
-      <c r="B73" s="97"/>
+      <c r="A73" s="100"/>
+      <c r="B73" s="100"/>
       <c r="C73" s="44" t="s">
         <v>369</v>
       </c>
@@ -5320,8 +5390,8 @@
       </c>
     </row>
     <row r="74" spans="1:11">
-      <c r="A74" s="97"/>
-      <c r="B74" s="97"/>
+      <c r="A74" s="100"/>
+      <c r="B74" s="100"/>
       <c r="C74" s="44" t="s">
         <v>370</v>
       </c>
@@ -5346,8 +5416,8 @@
       </c>
     </row>
     <row r="75" spans="1:11">
-      <c r="A75" s="97"/>
-      <c r="B75" s="97"/>
+      <c r="A75" s="100"/>
+      <c r="B75" s="100"/>
       <c r="C75" s="44" t="s">
         <v>371</v>
       </c>
@@ -5372,8 +5442,8 @@
       </c>
     </row>
     <row r="76" spans="1:11">
-      <c r="A76" s="97"/>
-      <c r="B76" s="97"/>
+      <c r="A76" s="100"/>
+      <c r="B76" s="100"/>
       <c r="C76" s="44" t="s">
         <v>372</v>
       </c>
@@ -5402,10 +5472,10 @@
       <c r="I77" s="25"/>
     </row>
     <row r="78" spans="1:11">
-      <c r="A78" s="98" t="s">
+      <c r="A78" s="99" t="s">
         <v>408</v>
       </c>
-      <c r="B78" s="97" t="s">
+      <c r="B78" s="100" t="s">
         <v>419</v>
       </c>
       <c r="C78" s="50" t="s">
@@ -5432,8 +5502,8 @@
       </c>
     </row>
     <row r="79" spans="1:11">
-      <c r="A79" s="97"/>
-      <c r="B79" s="97"/>
+      <c r="A79" s="100"/>
+      <c r="B79" s="100"/>
       <c r="C79" s="50" t="s">
         <v>374</v>
       </c>
@@ -5458,8 +5528,8 @@
       </c>
     </row>
     <row r="80" spans="1:11">
-      <c r="A80" s="97"/>
-      <c r="B80" s="97"/>
+      <c r="A80" s="100"/>
+      <c r="B80" s="100"/>
       <c r="C80" s="50" t="s">
         <v>411</v>
       </c>
@@ -5487,7 +5557,7 @@
       <c r="A81" s="48" t="s">
         <v>418</v>
       </c>
-      <c r="B81" s="97"/>
+      <c r="B81" s="100"/>
       <c r="C81" s="51" t="s">
         <v>415</v>
       </c>
@@ -5516,10 +5586,10 @@
       <c r="I82" s="25"/>
     </row>
     <row r="83" spans="1:11">
-      <c r="A83" s="98" t="s">
+      <c r="A83" s="99" t="s">
         <v>454</v>
       </c>
-      <c r="B83" s="97" t="s">
+      <c r="B83" s="100" t="s">
         <v>449</v>
       </c>
       <c r="C83" s="29" t="s">
@@ -5546,8 +5616,8 @@
       </c>
     </row>
     <row r="84" spans="1:11">
-      <c r="A84" s="97"/>
-      <c r="B84" s="97"/>
+      <c r="A84" s="100"/>
+      <c r="B84" s="100"/>
       <c r="C84" s="29" t="s">
         <v>427</v>
       </c>
@@ -5572,8 +5642,8 @@
       </c>
     </row>
     <row r="85" spans="1:11">
-      <c r="A85" s="97"/>
-      <c r="B85" s="97"/>
+      <c r="A85" s="100"/>
+      <c r="B85" s="100"/>
       <c r="C85" s="29" t="s">
         <v>428</v>
       </c>
@@ -5598,8 +5668,8 @@
       </c>
     </row>
     <row r="86" spans="1:11">
-      <c r="A86" s="97"/>
-      <c r="B86" s="97"/>
+      <c r="A86" s="100"/>
+      <c r="B86" s="100"/>
       <c r="C86" s="29" t="s">
         <v>429</v>
       </c>
@@ -5624,8 +5694,8 @@
       </c>
     </row>
     <row r="87" spans="1